--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3AA590-1D22-4402-991C-18CC0A0C52CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C916966F-6CE8-41C6-A8C7-5D3CA248CA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6C335991-0DCD-4F96-8248-580E4FF5BCE9}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="201">
   <si>
     <t>Nr.</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>Erweiterte Realität im Alltag</t>
-  </si>
-  <si>
-    <t>Zeitintervall</t>
   </si>
   <si>
     <t>Nr</t>
@@ -678,19 +675,7 @@
     <t>Es gibt viele Leitfäden zur Sicherheit bei Veranstaltungen = Es werden sichc immer mehr Gedanken gemacht und Erfahrungen weitergegeben</t>
   </si>
   <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>Legende</t>
-  </si>
-  <si>
-    <t>5 bis 10</t>
-  </si>
-  <si>
-    <t>10 bis 15</t>
-  </si>
-  <si>
-    <t>15 bis 20</t>
+    <t>Prognose</t>
   </si>
 </sst>
 </file>
@@ -801,18 +786,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -828,35 +804,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -880,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,12 +891,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1064,55 +1026,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>150478</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>173042</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1916</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C2C06D-9B05-323F-B503-F5F89985CD1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="36692860" y="1826558"/>
-          <a:ext cx="12243138" cy="2590476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1433,7 +1346,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1485,8 +1398,8 @@
       <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
-        <v>2023</v>
+      <c r="M1" s="25" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1523,6 +1436,9 @@
       <c r="K2">
         <v>-1</v>
       </c>
+      <c r="M2" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1557,6 +1473,9 @@
       </c>
       <c r="K3">
         <v>-2</v>
+      </c>
+      <c r="M3" s="24">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1593,12 +1512,10 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="M4" s="24">
+        <v>20</v>
+      </c>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1634,12 +1551,10 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="M5" s="20">
-        <v>5</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>201</v>
-      </c>
+      <c r="M5" s="24">
+        <v>20</v>
+      </c>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1675,12 +1590,10 @@
       <c r="K6">
         <v>0.2</v>
       </c>
-      <c r="M6" s="20">
-        <v>10</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>203</v>
-      </c>
+      <c r="M6" s="24">
+        <v>20</v>
+      </c>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1713,12 +1626,10 @@
       <c r="K7">
         <v>0.1</v>
       </c>
-      <c r="M7" s="20">
-        <v>15</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>204</v>
-      </c>
+      <c r="M7" s="24">
+        <v>20</v>
+      </c>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -1736,12 +1647,10 @@
       <c r="K8">
         <v>0.1</v>
       </c>
-      <c r="M8" s="22">
-        <v>20</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>205</v>
-      </c>
+      <c r="M8" s="24">
+        <v>20</v>
+      </c>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1759,6 +1668,9 @@
       <c r="K9">
         <v>0.2</v>
       </c>
+      <c r="M9" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1776,6 +1688,9 @@
       <c r="K10">
         <v>0.35</v>
       </c>
+      <c r="M10" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1793,6 +1708,9 @@
       <c r="K11">
         <v>-1</v>
       </c>
+      <c r="M11" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1810,6 +1728,9 @@
       <c r="K12">
         <v>0.52</v>
       </c>
+      <c r="M12" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1827,6 +1748,9 @@
       <c r="K13">
         <v>0.67</v>
       </c>
+      <c r="M13" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1844,6 +1768,9 @@
       <c r="K14">
         <v>0.84</v>
       </c>
+      <c r="M14" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1861,6 +1788,9 @@
       <c r="K15">
         <v>0.35</v>
       </c>
+      <c r="M15" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1878,8 +1808,11 @@
       <c r="K16">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1895,8 +1828,11 @@
       <c r="K17">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1912,8 +1848,11 @@
       <c r="K18">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1929,8 +1868,11 @@
       <c r="K19">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1946,8 +1888,11 @@
       <c r="K20">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1963,29 +1908,36 @@
       <c r="K21">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2022,8 +1974,11 @@
       <c r="L26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2060,8 +2015,11 @@
       <c r="L27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2098,8 +2056,11 @@
       <c r="L28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2136,8 +2097,11 @@
       <c r="L29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2174,8 +2138,11 @@
       <c r="L30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2212,8 +2179,11 @@
       <c r="L31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2250,8 +2220,11 @@
       <c r="L32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2288,8 +2261,11 @@
       <c r="L33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2326,8 +2302,11 @@
       <c r="L34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2364,8 +2343,11 @@
       <c r="L35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2402,8 +2384,11 @@
       <c r="L36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2440,8 +2425,11 @@
       <c r="L37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2478,8 +2466,11 @@
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2516,8 +2507,11 @@
       <c r="L39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2554,8 +2548,11 @@
       <c r="L40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2592,8 +2589,11 @@
       <c r="L41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2624,8 +2624,11 @@
       <c r="J42" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2662,8 +2665,11 @@
       <c r="L43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2700,8 +2706,11 @@
       <c r="L44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2738,8 +2747,11 @@
       <c r="L45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2776,8 +2788,11 @@
       <c r="L46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2814,8 +2829,11 @@
       <c r="L47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2852,8 +2870,11 @@
       <c r="L48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2890,8 +2911,11 @@
       <c r="L49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2922,8 +2946,11 @@
       <c r="L50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2957,8 +2984,11 @@
       <c r="L51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2992,8 +3022,11 @@
       <c r="L52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3030,8 +3063,11 @@
       <c r="L53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3068,8 +3104,11 @@
       <c r="L54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3106,51 +3145,63 @@
       <c r="L55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="23"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="23"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="23"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="23"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="23"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="23"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="23"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="23"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
+      <c r="M64" s="23"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -3410,8 +3461,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3442,43 +3492,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3486,28 +3536,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3515,22 +3565,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3538,31 +3588,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3570,22 +3620,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3593,28 +3643,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3622,28 +3672,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3651,25 +3701,25 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3677,31 +3727,31 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3709,16 +3759,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3726,22 +3776,22 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3749,19 +3799,19 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3769,25 +3819,25 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3795,28 +3845,28 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3824,22 +3874,22 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3847,25 +3897,25 @@
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3873,25 +3923,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3899,25 +3949,25 @@
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3925,22 +3975,22 @@
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="H19" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3948,25 +3998,25 @@
         <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3974,23 +4024,23 @@
         <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="8"/>
       <c r="F21" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4112,26 +4162,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6084a402-9ec0-4166-ac59-f18ac1e28eb8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8973d3f9-d2c4-4b1b-b901-492df86bbec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008C48BB244BD19E429454E4BA1784D4BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6a545a198e626bc673e15896bbd8c3ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8973d3f9-d2c4-4b1b-b901-492df86bbec5" xmlns:ns3="6084a402-9ec0-4166-ac59-f18ac1e28eb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfd4ad97513510c1a3e21f8c9957a8a4" ns2:_="" ns3:_="">
     <xsd:import namespace="8973d3f9-d2c4-4b1b-b901-492df86bbec5"/>
@@ -4326,32 +4356,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF03317-01A8-442E-BD8F-6E7FE10A2BC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8973d3f9-d2c4-4b1b-b901-492df86bbec5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6084a402-9ec0-4166-ac59-f18ac1e28eb8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB31BE7-465B-492B-B22B-CC1260D03B70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6084a402-9ec0-4166-ac59-f18ac1e28eb8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8973d3f9-d2c4-4b1b-b901-492df86bbec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039C07B-F7C6-45A8-8C64-AD4D8A4E98E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4368,4 +4393,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB31BE7-465B-492B-B22B-CC1260D03B70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF03317-01A8-442E-BD8F-6E7FE10A2BC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8973d3f9-d2c4-4b1b-b901-492df86bbec5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6084a402-9ec0-4166-ac59-f18ac1e28eb8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D61DFBE-BA43-4A2E-A3E3-6E66960D6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EDA9C7-06BB-41D3-94BF-84E1ADCD8719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={34B16CE5-2F9C-48B2-90CD-8076839B0A0E}</author>
-    <author>tc={4DED9EAA-3606-4FE3-8069-78A0B68F9C45}</author>
-    <author>tc={425EC343-961D-4560-B631-069BC40B4D7C}</author>
+    <author>tc={20C9B810-B617-4203-B77A-9C84A0F651CC}</author>
+    <author>tc={1CF653B6-249F-4D8D-B00C-5BA64D56111E}</author>
+    <author>tc={A3B54EB1-8876-47EA-9974-092EB7CD2903}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{34B16CE5-2F9C-48B2-90CD-8076839B0A0E}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{20C9B810-B617-4203-B77A-9C84A0F651CC}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{4DED9EAA-3606-4FE3-8069-78A0B68F9C45}">
+    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{1CF653B6-249F-4D8D-B00C-5BA64D56111E}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{425EC343-961D-4560-B631-069BC40B4D7C}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{A3B54EB1-8876-47EA-9974-092EB7CD2903}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="1043">
   <si>
     <t>Nr.</t>
   </si>
@@ -634,9 +634,6 @@
     <t>Einige Gruppen hinterfragen den Konsum als Haupttreiber für Lebenszufriedenheit.</t>
   </si>
   <si>
-    <t>Gemeinschaftsorientierte Wohnmodelle</t>
-  </si>
-  <si>
     <t>Wohnmodelle</t>
   </si>
   <si>
@@ -3314,6 +3311,99 @@
   </si>
   <si>
     <t>The trend of Everything as a Service, otherwise known as ‘XaaS’ or ‘Servitization’, is the shift away from buying and selling products towards the vending of services to achieve an outcome. In this economic model, instead of committing to a one-off purchase of a product, the customer would consistently pay on a per-unit basis, like the amount of time utilized, the number of products produced, or the number of tasks fulfilled, for results that meets their needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Arbeit wird ein wichtiger Bestandteil von der neuen Technologie </t>
+  </si>
+  <si>
+    <t>Mehr Junge Menschen in den Städten --&gt; Umweltbewustere Handhabung von Wasser, Anbaumöglichkeiten (Dachgärten)</t>
+  </si>
+  <si>
+    <t>Anbau von Pflanzlichen Lebensmitteln zuhause oder direkt in der Stadt (Dachgärten)</t>
+  </si>
+  <si>
+    <t>Die Privatssphäre wird durch den stätigen Technologiefortschritt immer transparenter und muss mehr geschützt werden.</t>
+  </si>
+  <si>
+    <t>Urbane Dachgärten um den lokalen Anbau zu stützen und gleichzeitig die Städte aufnahmefähiger für starke Regenfälle zu machen</t>
+  </si>
+  <si>
+    <t>Die Gesellschaft wird bei dem Thema Fleisch stark polarisiert werden (Fleisch=Statussymbol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichtere Ansammlung von jungen (umweltbewusteren) Menschen durch hohe Mieten (verstärkt Wohngemeinschaften) </t>
+  </si>
+  <si>
+    <t>Der Klimawandel breitet sich immer mehr aus.</t>
+  </si>
+  <si>
+    <t>Die Industrie muss aufgrund ihrergroßen Verwendung von Energien klimaneutrale Alternativen nutzen</t>
+  </si>
+  <si>
+    <t>Der Gesselschaft ist ein außbalanciertes Leben immer wichtiger</t>
+  </si>
+  <si>
+    <t>Weniger Krankheiten durch Tierische Erzeugnisse (Krebs, Bluthochdruck), Angenhmere Umgebung durch Städtische beflanzung (Nutzpflanzen)</t>
+  </si>
+  <si>
+    <t>Wasserstoff wird in den nächstenJahren eine Alternative zu Batterien.</t>
+  </si>
+  <si>
+    <t>Dachgärten und Balkone mehr in die lokale Nahrungsmittelproduktion einbinden</t>
+  </si>
+  <si>
+    <t>Dachgärten und Balkone mehr in die lokale Nahrungsmittelproduktion (pflanzen)  einbinden</t>
+  </si>
+  <si>
+    <t>Abwasserwärme für große Wärme Pumpen in der Stadt (Nutzung von großen Wassermengen)</t>
+  </si>
+  <si>
+    <t>Dadurch das Remote arbeiten immer mehr wird und die technologie intelligenter muss der Schutz gegenüber Cyber Kriminalität sowie der Datenschutz verbessert werden.</t>
+  </si>
+  <si>
+    <t>Kleinere Organismen für Zuhause zum Anbauen (Wenig Platz nötig für Eigenheimproduktion)</t>
+  </si>
+  <si>
+    <t>Die Datensätze werden immer größer und vielfältiger sodass diese schwieriger zu analysieren sind.</t>
+  </si>
+  <si>
+    <t>Einsatz von Fernwärmepumpen in zusammenhang mit Abwasser wärme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry 5.0 ist noch in Ferne da momentan Industry 4.0 noch existiert.  </t>
+  </si>
+  <si>
+    <t>Es muss mehr für das Klima und der Umwelt getan werden</t>
+  </si>
+  <si>
+    <t>Weniger Tierhaltung kommt dem Klima entgegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speicherung von Regenwasser und Abwasser noch effektiver in der Stadt </t>
+  </si>
+  <si>
+    <t>Wassermanagement in den Städten zunehmend wichtiger bei häufigeren Überschwemungen</t>
+  </si>
+  <si>
+    <t>Wasserverbrauch sinkt mit der Reduktion von Tierischen Erzeugnissen</t>
+  </si>
+  <si>
+    <t>Die Politik muss mehr Richtlinien für die Umwelt schaffen.</t>
+  </si>
+  <si>
+    <t>Hat natürlich Einfluss auf den Ausstoß von Treibhausgasen und dementsprechend auch Einfluss auf die Häufigkeit von Umweltkatastrophen</t>
+  </si>
+  <si>
+    <t>Der Ausbau von Solarenergien muss gestärkt werden, da sie eine alternative zu den jetzigen Energien ist.</t>
+  </si>
+  <si>
+    <t>Klimabewusstsein und Technologien müssen zueinander in Betracht gezogen werden</t>
+  </si>
+  <si>
+    <t>Es müssen klimaneutrale effiziente Energien geschaffen erden</t>
+  </si>
+  <si>
+    <t>Wasser und Energie wird auf die Pflanzliche Produktion fokusiert statt auf Tiere--&gt; Umweltfreundlicher, geringere Produktionskosten</t>
   </si>
 </sst>
 </file>
@@ -3851,14 +3941,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{34B16CE5-2F9C-48B2-90CD-8076839B0A0E}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{20C9B810-B617-4203-B77A-9C84A0F651CC}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{4DED9EAA-3606-4FE3-8069-78A0B68F9C45}">
+  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{1CF653B6-249F-4D8D-B00C-5BA64D56111E}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{425EC343-961D-4560-B631-069BC40B4D7C}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{A3B54EB1-8876-47EA-9974-092EB7CD2903}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -3866,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
-  <dimension ref="A1:AO265"/>
+  <dimension ref="A1:AO266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="21" workbookViewId="0">
-      <selection sqref="A1:AO265"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,7 +5355,7 @@
         <v>97</v>
       </c>
       <c r="D17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="16">
         <v>14.852697401477331</v>
@@ -5400,10 +5490,10 @@
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>102</v>
       </c>
+      <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
         <v>103</v>
       </c>
@@ -5819,8 +5909,12 @@
       <c r="T23" s="25">
         <v>2</v>
       </c>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
+      <c r="U23" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="V23" s="19" t="s">
+        <v>1012</v>
+      </c>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
       <c r="Y23" s="19"/>
@@ -5907,7 +6001,9 @@
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
+      <c r="X24" s="10" t="s">
+        <v>1013</v>
+      </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -6106,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="16">
-        <v>5.5310581760433761</v>
+        <v>2.6</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>110</v>
@@ -6769,10 +6865,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
@@ -6802,10 +6898,10 @@
         <v>8</v>
       </c>
       <c r="M35" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>127</v>
@@ -6830,7 +6926,9 @@
       <c r="W35" s="19"/>
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
+      <c r="Z35" s="19" t="s">
+        <v>1014</v>
+      </c>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
       <c r="AC35" s="19"/>
@@ -6852,10 +6950,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -6885,10 +6983,10 @@
         <v>49</v>
       </c>
       <c r="M36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="O36" s="10" t="s">
         <v>127</v>
@@ -6897,7 +6995,7 @@
         <v>10</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R36" s="12" t="s">
         <v>47</v>
@@ -6908,7 +7006,9 @@
       <c r="T36" s="13">
         <v>5</v>
       </c>
-      <c r="U36" s="10"/>
+      <c r="U36" s="10" t="s">
+        <v>1015</v>
+      </c>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
@@ -6935,10 +7035,10 @@
         <v>40</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -6968,10 +7068,10 @@
         <v>8</v>
       </c>
       <c r="M37" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="N37" s="18" t="s">
         <v>180</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="O37" s="19" t="s">
         <v>127</v>
@@ -7018,10 +7118,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>
@@ -7051,10 +7151,10 @@
         <v>8</v>
       </c>
       <c r="M38" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="N38" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>127</v>
@@ -7101,10 +7201,10 @@
         <v>42</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
@@ -7134,10 +7234,10 @@
         <v>8</v>
       </c>
       <c r="M39" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N39" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="O39" s="19" t="s">
         <v>127</v>
@@ -7160,7 +7260,9 @@
       <c r="U39" s="19"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
+      <c r="X39" s="19" t="s">
+        <v>1016</v>
+      </c>
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
       <c r="AA39" s="19"/>
@@ -7184,10 +7286,10 @@
         <v>43</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D40" s="6">
         <v>0</v>
@@ -7217,10 +7319,10 @@
         <v>9</v>
       </c>
       <c r="M40" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N40" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>127</v>
@@ -7232,7 +7334,7 @@
         <v>46</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S40" s="12">
         <v>3</v>
@@ -7267,10 +7369,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
@@ -7300,10 +7402,10 @@
         <v>8</v>
       </c>
       <c r="M41" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="N41" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>196</v>
       </c>
       <c r="O41" s="19" t="s">
         <v>127</v>
@@ -7350,10 +7452,10 @@
         <v>45</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -7383,10 +7485,10 @@
         <v>8</v>
       </c>
       <c r="M42" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>127</v>
@@ -7395,7 +7497,7 @@
         <v>5</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R42" s="12" t="s">
         <v>128</v>
@@ -7433,10 +7535,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
@@ -7466,10 +7568,10 @@
         <v>8</v>
       </c>
       <c r="M43" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N43" s="18" t="s">
         <v>202</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>203</v>
       </c>
       <c r="O43" s="19" t="s">
         <v>127</v>
@@ -7478,7 +7580,7 @@
         <v>5</v>
       </c>
       <c r="Q43" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R43" s="21" t="s">
         <v>47</v>
@@ -7502,7 +7604,7 @@
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
@@ -7518,10 +7620,10 @@
         <v>47</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -7551,10 +7653,10 @@
         <v>49</v>
       </c>
       <c r="M44" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N44" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="O44" s="10" t="s">
         <v>127</v>
@@ -7563,7 +7665,7 @@
         <v>5</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R44" s="12" t="s">
         <v>47</v>
@@ -7579,7 +7681,9 @@
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
+      <c r="Z44" s="10" t="s">
+        <v>1017</v>
+      </c>
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
@@ -7601,10 +7705,10 @@
         <v>48</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -7634,10 +7738,10 @@
         <v>10</v>
       </c>
       <c r="M45" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="N45" s="18" t="s">
         <v>211</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>212</v>
       </c>
       <c r="O45" s="19" t="s">
         <v>127</v>
@@ -7646,7 +7750,7 @@
         <v>5</v>
       </c>
       <c r="Q45" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R45" s="21" t="s">
         <v>128</v>
@@ -7684,10 +7788,10 @@
         <v>49</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="6">
         <v>0</v>
@@ -7717,10 +7821,10 @@
         <v>49</v>
       </c>
       <c r="M46" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="N46" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>127</v>
@@ -7767,10 +7871,10 @@
         <v>50</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
@@ -7800,10 +7904,10 @@
         <v>10</v>
       </c>
       <c r="M47" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="N47" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="O47" s="19" t="s">
         <v>127</v>
@@ -7834,7 +7938,7 @@
       <c r="AC47" s="19"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
@@ -7852,10 +7956,10 @@
         <v>51</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -7885,10 +7989,10 @@
         <v>10</v>
       </c>
       <c r="M48" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="N48" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>224</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>127</v>
@@ -7935,10 +8039,10 @@
         <v>52</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -7968,10 +8072,10 @@
         <v>9</v>
       </c>
       <c r="M49" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="N49" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="O49" s="19" t="s">
         <v>127</v>
@@ -7999,14 +8103,14 @@
       <c r="Z49" s="19"/>
       <c r="AA49" s="19"/>
       <c r="AB49" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC49" s="19"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
@@ -8022,10 +8126,10 @@
         <v>53</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="D50" s="6">
         <v>1</v>
@@ -8055,10 +8159,10 @@
         <v>53</v>
       </c>
       <c r="M50" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N50" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>127</v>
@@ -8081,7 +8185,9 @@
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
+      <c r="X50" s="10" t="s">
+        <v>1018</v>
+      </c>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
@@ -8105,10 +8211,10 @@
         <v>54</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>236</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
@@ -8138,10 +8244,10 @@
         <v>9</v>
       </c>
       <c r="M51" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N51" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="N51" s="18" t="s">
-        <v>238</v>
       </c>
       <c r="O51" s="19" t="s">
         <v>127</v>
@@ -8150,7 +8256,7 @@
         <v>10</v>
       </c>
       <c r="Q51" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R51" s="21" t="s">
         <v>47</v>
@@ -8188,10 +8294,10 @@
         <v>56</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -8221,19 +8327,19 @@
         <v>8</v>
       </c>
       <c r="M52" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="N52" s="9" t="s">
+      <c r="O52" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="O52" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="P52" s="11">
         <v>5</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R52" s="12" t="s">
         <v>47</v>
@@ -8271,10 +8377,10 @@
         <v>57</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
@@ -8304,19 +8410,19 @@
         <v>8</v>
       </c>
       <c r="M53" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="N53" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="N53" s="18" t="s">
-        <v>246</v>
-      </c>
       <c r="O53" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P53" s="20">
         <v>10</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R53" s="21" t="s">
         <v>47</v>
@@ -8354,10 +8460,10 @@
         <v>69</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
@@ -8387,11 +8493,11 @@
         <v>53</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N54" s="9"/>
       <c r="O54" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P54" s="11">
         <v>10</v>
@@ -8435,10 +8541,10 @@
         <v>70</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="D55" s="15">
         <v>1</v>
@@ -8468,13 +8574,13 @@
         <v>8</v>
       </c>
       <c r="M55" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="O55" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="O55" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="P55" s="20">
         <v>10</v>
@@ -8518,10 +8624,10 @@
         <v>71</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D56" s="6">
         <v>0</v>
@@ -8551,13 +8657,13 @@
         <v>8</v>
       </c>
       <c r="M56" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N56" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N56" s="9" t="s">
-        <v>256</v>
-      </c>
       <c r="O56" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P56" s="11">
         <v>10</v>
@@ -8579,7 +8685,7 @@
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
       <c r="Y56" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
@@ -8603,10 +8709,10 @@
         <v>72</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D57" s="15">
         <v>0</v>
@@ -8636,13 +8742,13 @@
         <v>8</v>
       </c>
       <c r="M57" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="O57" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="N57" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="O57" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="P57" s="20">
         <v>5</v>
@@ -8686,10 +8792,10 @@
         <v>73</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
@@ -8719,13 +8825,13 @@
         <v>8</v>
       </c>
       <c r="M58" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N58" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="N58" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="O58" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P58" s="11">
         <v>5</v>
@@ -8769,10 +8875,10 @@
         <v>74</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -8802,13 +8908,13 @@
         <v>8</v>
       </c>
       <c r="M59" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="O59" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="N59" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="O59" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="P59" s="20">
         <v>5</v>
@@ -8852,10 +8958,10 @@
         <v>76</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="D60" s="6">
         <v>1</v>
@@ -8885,13 +8991,13 @@
         <v>9</v>
       </c>
       <c r="M60" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="N60" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="O60" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="O60" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="P60" s="11">
         <v>15</v>
@@ -8909,7 +9015,9 @@
         <v>5</v>
       </c>
       <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
+      <c r="V60" s="10" t="s">
+        <v>1019</v>
+      </c>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
@@ -8935,10 +9043,10 @@
         <v>77</v>
       </c>
       <c r="B61" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
@@ -8968,13 +9076,13 @@
         <v>53</v>
       </c>
       <c r="M61" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="N61" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="N61" s="18" t="s">
-        <v>274</v>
-      </c>
       <c r="O61" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P61" s="20">
         <v>10</v>
@@ -9018,10 +9126,10 @@
         <v>78</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="D62" s="6">
         <v>1</v>
@@ -9051,13 +9159,13 @@
         <v>9</v>
       </c>
       <c r="M62" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="N62" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="N62" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="O62" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P62" s="11">
         <v>10</v>
@@ -9066,7 +9174,7 @@
         <v>139</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S62" s="12">
         <v>5</v>
@@ -9085,7 +9193,7 @@
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
       <c r="AE62" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF62" s="10"/>
       <c r="AG62" s="10"/>
@@ -9103,10 +9211,10 @@
         <v>79</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D63" s="15">
         <v>1</v>
@@ -9136,13 +9244,13 @@
         <v>53</v>
       </c>
       <c r="M63" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="N63" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="N63" s="18" t="s">
-        <v>282</v>
-      </c>
       <c r="O63" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P63" s="20">
         <v>10</v>
@@ -9186,10 +9294,10 @@
         <v>80</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="D64" s="6">
         <v>1</v>
@@ -9219,13 +9327,13 @@
         <v>9</v>
       </c>
       <c r="M64" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N64" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>286</v>
-      </c>
       <c r="O64" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P64" s="11">
         <v>10</v>
@@ -9269,10 +9377,10 @@
         <v>81</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="D65" s="15">
         <v>1</v>
@@ -9302,13 +9410,13 @@
         <v>53</v>
       </c>
       <c r="M65" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="N65" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="N65" s="18" t="s">
-        <v>290</v>
-      </c>
       <c r="O65" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P65" s="20">
         <v>10</v>
@@ -9352,10 +9460,10 @@
         <v>83</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -9385,13 +9493,13 @@
         <v>53</v>
       </c>
       <c r="M66" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N66" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="N66" s="9" t="s">
-        <v>293</v>
-      </c>
       <c r="O66" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P66" s="11">
         <v>15</v>
@@ -9409,7 +9517,9 @@
         <v>5</v>
       </c>
       <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
+      <c r="V66" s="10" t="s">
+        <v>1020</v>
+      </c>
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
@@ -9435,10 +9545,10 @@
         <v>84</v>
       </c>
       <c r="B67" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -9468,13 +9578,13 @@
         <v>9</v>
       </c>
       <c r="M67" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N67" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="N67" s="18" t="s">
-        <v>297</v>
-      </c>
       <c r="O67" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P67" s="20">
         <v>5</v>
@@ -9518,10 +9628,10 @@
         <v>86</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="D68" s="6">
         <v>0</v>
@@ -9551,13 +9661,13 @@
         <v>9</v>
       </c>
       <c r="M68" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="N68" s="9" t="s">
-        <v>301</v>
-      </c>
       <c r="O68" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P68" s="11">
         <v>10</v>
@@ -9601,10 +9711,10 @@
         <v>87</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="D69" s="15">
         <v>1</v>
@@ -9634,19 +9744,19 @@
         <v>53</v>
       </c>
       <c r="M69" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="N69" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="N69" s="18" t="s">
+      <c r="O69" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="O69" s="19" t="s">
-        <v>306</v>
-      </c>
       <c r="P69" s="20">
         <v>5</v>
       </c>
       <c r="Q69" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R69" s="21" t="s">
         <v>47</v>
@@ -9684,10 +9794,10 @@
         <v>88</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -9717,19 +9827,19 @@
         <v>10</v>
       </c>
       <c r="M70" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N70" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="N70" s="9" t="s">
-        <v>310</v>
-      </c>
       <c r="O70" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P70" s="11">
         <v>10</v>
       </c>
       <c r="Q70" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R70" s="12" t="s">
         <v>47</v>
@@ -9754,7 +9864,7 @@
       <c r="AF70" s="10"/>
       <c r="AG70" s="10"/>
       <c r="AH70" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI70" s="10"/>
       <c r="AJ70" s="10"/>
@@ -9769,10 +9879,10 @@
         <v>89</v>
       </c>
       <c r="B71" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>313</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
@@ -9802,19 +9912,19 @@
         <v>49</v>
       </c>
       <c r="M71" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P71" s="20">
         <v>5</v>
       </c>
       <c r="Q71" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R71" s="21" t="s">
         <v>47</v>
@@ -9852,10 +9962,10 @@
         <v>90</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -9885,19 +9995,19 @@
         <v>53</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P72" s="11">
         <v>5</v>
       </c>
       <c r="Q72" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R72" s="12" t="s">
         <v>47</v>
@@ -9919,7 +10029,7 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
       <c r="AE72" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF72" s="10"/>
       <c r="AG72" s="10"/>
@@ -9937,10 +10047,10 @@
         <v>91</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="D73" s="15">
         <v>1</v>
@@ -9970,19 +10080,19 @@
         <v>8</v>
       </c>
       <c r="M73" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O73" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P73" s="20">
         <v>10</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R73" s="21" t="s">
         <v>47</v>
@@ -10020,10 +10130,10 @@
         <v>93</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="D74" s="6">
         <v>0</v>
@@ -10053,22 +10163,22 @@
         <v>8</v>
       </c>
       <c r="M74" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="N74" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="N74" s="9" t="s">
-        <v>325</v>
-      </c>
       <c r="O74" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P74" s="11">
         <v>15</v>
       </c>
       <c r="Q74" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S74" s="12">
         <v>4</v>
@@ -10103,10 +10213,10 @@
         <v>94</v>
       </c>
       <c r="B75" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="D75" s="15">
         <v>1</v>
@@ -10136,22 +10246,22 @@
         <v>53</v>
       </c>
       <c r="M75" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O75" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P75" s="20">
         <v>5</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R75" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S75" s="21">
         <v>4</v>
@@ -10166,7 +10276,7 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
       <c r="AA75" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
@@ -10175,7 +10285,7 @@
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
@@ -10190,10 +10300,10 @@
         <v>95</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -10223,22 +10333,22 @@
         <v>10</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P76" s="11">
         <v>5</v>
       </c>
       <c r="Q76" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S76" s="12">
         <v>2</v>
@@ -10247,16 +10357,20 @@
         <v>2</v>
       </c>
       <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
+      <c r="V76" s="10" t="s">
+        <v>1021</v>
+      </c>
       <c r="W76" s="10"/>
       <c r="X76" s="10"/>
       <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
+      <c r="Z76" s="10" t="s">
+        <v>1022</v>
+      </c>
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
       <c r="AC76" s="10"/>
       <c r="AD76" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AE76" s="10"/>
       <c r="AF76" s="10"/>
@@ -10308,13 +10422,13 @@
         <v>10</v>
       </c>
       <c r="M77" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="N77" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="N77" s="18" t="s">
+      <c r="O77" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="O77" s="19" t="s">
-        <v>336</v>
       </c>
       <c r="P77" s="20">
         <v>15</v>
@@ -10323,7 +10437,7 @@
         <v>139</v>
       </c>
       <c r="R77" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S77" s="21">
         <v>4</v>
@@ -10335,7 +10449,7 @@
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
       <c r="X77" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
@@ -10360,10 +10474,10 @@
         <v>97</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -10393,19 +10507,19 @@
         <v>53</v>
       </c>
       <c r="M78" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="N78" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="N78" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="O78" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P78" s="11">
         <v>15</v>
       </c>
       <c r="Q78" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R78" s="12" t="s">
         <v>128</v>
@@ -10417,7 +10531,9 @@
         <v>5</v>
       </c>
       <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
+      <c r="V78" s="10" t="s">
+        <v>1023</v>
+      </c>
       <c r="W78" s="10"/>
       <c r="X78" s="10"/>
       <c r="Y78" s="10"/>
@@ -10430,7 +10546,7 @@
       <c r="AF78" s="10"/>
       <c r="AG78" s="10"/>
       <c r="AH78" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AI78" s="10"/>
       <c r="AJ78" s="10"/>
@@ -10445,10 +10561,10 @@
         <v>98</v>
       </c>
       <c r="B79" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>344</v>
       </c>
       <c r="D79" s="15">
         <v>0</v>
@@ -10478,19 +10594,19 @@
         <v>53</v>
       </c>
       <c r="M79" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="N79" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="N79" s="18" t="s">
-        <v>346</v>
-      </c>
       <c r="O79" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P79" s="20">
         <v>15</v>
       </c>
       <c r="Q79" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R79" s="21" t="s">
         <v>128</v>
@@ -10528,10 +10644,10 @@
         <v>99</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D80" s="6">
         <v>0</v>
@@ -10561,19 +10677,19 @@
         <v>53</v>
       </c>
       <c r="M80" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="N80" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="N80" s="9" t="s">
-        <v>349</v>
-      </c>
       <c r="O80" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P80" s="11">
         <v>10</v>
       </c>
       <c r="Q80" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R80" s="12" t="s">
         <v>47</v>
@@ -10611,10 +10727,10 @@
         <v>100</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D81" s="15">
         <v>1</v>
@@ -10644,19 +10760,19 @@
         <v>53</v>
       </c>
       <c r="M81" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N81" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="N81" s="18" t="s">
-        <v>352</v>
-      </c>
       <c r="O81" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P81" s="20">
         <v>15</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R81" s="21" t="s">
         <v>128</v>
@@ -10694,10 +10810,10 @@
         <v>101</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="D82" s="6">
         <v>0</v>
@@ -10727,13 +10843,13 @@
         <v>9</v>
       </c>
       <c r="M82" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="N82" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="N82" s="9" t="s">
-        <v>356</v>
-      </c>
       <c r="O82" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P82" s="11">
         <v>5</v>
@@ -10742,7 +10858,7 @@
         <v>139</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S82" s="12">
         <v>4</v>
@@ -10777,10 +10893,10 @@
         <v>102</v>
       </c>
       <c r="B83" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="D83" s="15">
         <v>1</v>
@@ -10810,13 +10926,13 @@
         <v>9</v>
       </c>
       <c r="M83" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="N83" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="N83" s="18" t="s">
-        <v>360</v>
-      </c>
       <c r="O83" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P83" s="20">
         <v>15</v>
@@ -10847,7 +10963,7 @@
       <c r="AF83" s="19"/>
       <c r="AG83" s="19"/>
       <c r="AH83" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AI83" s="19"/>
       <c r="AJ83" s="19"/>
@@ -10862,10 +10978,10 @@
         <v>103</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -10895,13 +11011,13 @@
         <v>9</v>
       </c>
       <c r="M84" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="N84" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="N84" s="9" t="s">
-        <v>365</v>
-      </c>
       <c r="O84" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P84" s="11">
         <v>10</v>
@@ -10945,10 +11061,10 @@
         <v>104</v>
       </c>
       <c r="B85" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>366</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>367</v>
       </c>
       <c r="D85" s="15">
         <v>1</v>
@@ -10978,22 +11094,22 @@
         <v>9</v>
       </c>
       <c r="M85" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="N85" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="N85" s="18" t="s">
-        <v>369</v>
-      </c>
       <c r="O85" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P85" s="20">
         <v>10</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R85" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S85" s="21">
         <v>4</v>
@@ -11028,10 +11144,10 @@
         <v>105</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D86" s="6">
         <v>0</v>
@@ -11061,19 +11177,19 @@
         <v>9</v>
       </c>
       <c r="M86" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="N86" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="N86" s="9" t="s">
-        <v>372</v>
-      </c>
       <c r="O86" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P86" s="11">
         <v>15</v>
       </c>
       <c r="Q86" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R86" s="12" t="s">
         <v>47</v>
@@ -11111,10 +11227,10 @@
         <v>106</v>
       </c>
       <c r="B87" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>374</v>
       </c>
       <c r="D87" s="15">
         <v>0</v>
@@ -11144,22 +11260,22 @@
         <v>53</v>
       </c>
       <c r="M87" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="N87" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="N87" s="18" t="s">
-        <v>376</v>
-      </c>
       <c r="O87" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P87" s="20">
         <v>10</v>
       </c>
       <c r="Q87" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R87" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S87" s="21">
         <v>3</v>
@@ -11181,7 +11297,7 @@
       <c r="AF87" s="19"/>
       <c r="AG87" s="19"/>
       <c r="AH87" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AI87" s="19"/>
       <c r="AJ87" s="19"/>
@@ -11196,10 +11312,10 @@
         <v>107</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D88" s="6">
         <v>0</v>
@@ -11229,19 +11345,19 @@
         <v>9</v>
       </c>
       <c r="M88" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="N88" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="N88" s="9" t="s">
-        <v>381</v>
-      </c>
       <c r="O88" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P88" s="11">
         <v>15</v>
       </c>
       <c r="Q88" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R88" s="12" t="s">
         <v>128</v>
@@ -11279,10 +11395,10 @@
         <v>108</v>
       </c>
       <c r="B89" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>383</v>
       </c>
       <c r="D89" s="15">
         <v>0</v>
@@ -11312,19 +11428,19 @@
         <v>9</v>
       </c>
       <c r="M89" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="N89" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="N89" s="18" t="s">
-        <v>385</v>
-      </c>
       <c r="O89" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P89" s="20">
         <v>10</v>
       </c>
       <c r="Q89" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R89" s="21" t="s">
         <v>128</v>
@@ -11348,7 +11464,7 @@
       <c r="AE89" s="19"/>
       <c r="AF89" s="19"/>
       <c r="AG89" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AH89" s="19"/>
       <c r="AI89" s="19"/>
@@ -11364,10 +11480,10 @@
         <v>109</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -11397,19 +11513,19 @@
         <v>10</v>
       </c>
       <c r="M90" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="N90" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="N90" s="9" t="s">
-        <v>389</v>
-      </c>
       <c r="O90" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P90" s="11">
         <v>5</v>
       </c>
       <c r="Q90" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R90" s="12" t="s">
         <v>128</v>
@@ -11447,10 +11563,10 @@
         <v>110</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D91" s="15">
         <v>0</v>
@@ -11480,10 +11596,10 @@
         <v>8</v>
       </c>
       <c r="M91" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="N91" s="18" t="s">
         <v>391</v>
-      </c>
-      <c r="N91" s="18" t="s">
-        <v>392</v>
       </c>
       <c r="O91" s="19" t="s">
         <v>45</v>
@@ -11530,10 +11646,10 @@
         <v>111</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
@@ -11563,19 +11679,19 @@
         <v>53</v>
       </c>
       <c r="M92" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="N92" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="N92" s="9" t="s">
-        <v>396</v>
-      </c>
       <c r="O92" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P92" s="11">
         <v>10</v>
       </c>
       <c r="Q92" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R92" s="12" t="s">
         <v>144</v>
@@ -11613,10 +11729,10 @@
         <v>112</v>
       </c>
       <c r="B93" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>397</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>398</v>
       </c>
       <c r="D93" s="15">
         <v>1</v>
@@ -11646,19 +11762,19 @@
         <v>8</v>
       </c>
       <c r="M93" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="N93" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="N93" s="18" t="s">
-        <v>400</v>
-      </c>
       <c r="O93" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P93" s="20">
         <v>10</v>
       </c>
       <c r="Q93" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R93" s="21" t="s">
         <v>144</v>
@@ -11696,10 +11812,10 @@
         <v>114</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
@@ -11729,22 +11845,22 @@
         <v>53</v>
       </c>
       <c r="M94" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="N94" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="N94" s="9" t="s">
-        <v>404</v>
-      </c>
       <c r="O94" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P94" s="11">
         <v>10</v>
       </c>
       <c r="Q94" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R94" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S94" s="12">
         <v>5</v>
@@ -11779,10 +11895,10 @@
         <v>115</v>
       </c>
       <c r="B95" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>406</v>
       </c>
       <c r="D95" s="15">
         <v>1</v>
@@ -11812,19 +11928,19 @@
         <v>53</v>
       </c>
       <c r="M95" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="N95" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="N95" s="18" t="s">
-        <v>408</v>
-      </c>
       <c r="O95" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P95" s="20">
         <v>5</v>
       </c>
       <c r="Q95" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R95" s="21" t="s">
         <v>128</v>
@@ -11862,10 +11978,10 @@
         <v>116</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -11895,22 +12011,22 @@
         <v>49</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O96" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P96" s="11">
         <v>5</v>
       </c>
       <c r="Q96" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R96" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S96" s="12">
         <v>4</v>
@@ -11945,10 +12061,10 @@
         <v>117</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>412</v>
       </c>
       <c r="D97" s="15">
         <v>1</v>
@@ -11978,22 +12094,22 @@
         <v>53</v>
       </c>
       <c r="M97" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O97" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P97" s="20">
         <v>5</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R97" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S97" s="21">
         <v>4</v>
@@ -12008,7 +12124,7 @@
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
       <c r="AA97" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AB97" s="19"/>
       <c r="AC97" s="19"/>
@@ -12030,10 +12146,10 @@
         <v>118</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
@@ -12066,19 +12182,19 @@
         <v>115</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O98" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P98" s="11">
         <v>10</v>
       </c>
       <c r="Q98" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R98" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S98" s="12">
         <v>4</v>
@@ -12113,10 +12229,10 @@
         <v>119</v>
       </c>
       <c r="B99" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>418</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>419</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -12149,19 +12265,19 @@
         <v>115</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O99" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P99" s="20">
         <v>10</v>
       </c>
       <c r="Q99" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R99" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S99" s="21">
         <v>4</v>
@@ -12196,10 +12312,10 @@
         <v>120</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="D100" s="6">
         <v>0</v>
@@ -12232,19 +12348,19 @@
         <v>115</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O100" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P100" s="11">
         <v>10</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R100" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S100" s="12">
         <v>4</v>
@@ -12279,10 +12395,10 @@
         <v>121</v>
       </c>
       <c r="B101" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>422</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>423</v>
       </c>
       <c r="D101" s="15">
         <v>0</v>
@@ -12315,19 +12431,19 @@
         <v>115</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P101" s="20">
         <v>10</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R101" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S101" s="21">
         <v>4</v>
@@ -12362,10 +12478,10 @@
         <v>122</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>424</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>425</v>
       </c>
       <c r="D102" s="6">
         <v>0</v>
@@ -12398,19 +12514,19 @@
         <v>115</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O102" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P102" s="11">
         <v>10</v>
       </c>
       <c r="Q102" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R102" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S102" s="12">
         <v>4</v>
@@ -12445,10 +12561,10 @@
         <v>123</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D103" s="15">
         <v>0</v>
@@ -12478,10 +12594,10 @@
         <v>10</v>
       </c>
       <c r="M103" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="N103" s="18" t="s">
         <v>427</v>
-      </c>
-      <c r="N103" s="18" t="s">
-        <v>428</v>
       </c>
       <c r="O103" s="19" t="s">
         <v>45</v>
@@ -12528,10 +12644,10 @@
         <v>124</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="D104" s="6">
         <v>0</v>
@@ -12561,10 +12677,10 @@
         <v>10</v>
       </c>
       <c r="M104" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="N104" s="9" t="s">
         <v>431</v>
-      </c>
-      <c r="N104" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="O104" s="10" t="s">
         <v>45</v>
@@ -12611,10 +12727,10 @@
         <v>125</v>
       </c>
       <c r="B105" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>433</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>434</v>
       </c>
       <c r="D105" s="15">
         <v>0</v>
@@ -12644,10 +12760,10 @@
         <v>10</v>
       </c>
       <c r="M105" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="N105" s="18" t="s">
         <v>435</v>
-      </c>
-      <c r="N105" s="18" t="s">
-        <v>436</v>
       </c>
       <c r="O105" s="19" t="s">
         <v>45</v>
@@ -12694,10 +12810,10 @@
         <v>126</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D106" s="6">
         <v>0</v>
@@ -12727,10 +12843,10 @@
         <v>8</v>
       </c>
       <c r="M106" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="N106" s="9" t="s">
         <v>438</v>
-      </c>
-      <c r="N106" s="9" t="s">
-        <v>439</v>
       </c>
       <c r="O106" s="10" t="s">
         <v>45</v>
@@ -12742,7 +12858,7 @@
         <v>122</v>
       </c>
       <c r="R106" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S106" s="12">
         <v>2</v>
@@ -12777,10 +12893,10 @@
         <v>127</v>
       </c>
       <c r="B107" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>441</v>
       </c>
       <c r="D107" s="15">
         <v>1</v>
@@ -12810,10 +12926,10 @@
         <v>10</v>
       </c>
       <c r="M107" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="N107" s="18" t="s">
         <v>442</v>
-      </c>
-      <c r="N107" s="18" t="s">
-        <v>443</v>
       </c>
       <c r="O107" s="19" t="s">
         <v>45</v>
@@ -12836,9 +12952,13 @@
       <c r="U107" s="19"/>
       <c r="V107" s="19"/>
       <c r="W107" s="19"/>
-      <c r="X107" s="19"/>
+      <c r="X107" s="19" t="s">
+        <v>1024</v>
+      </c>
       <c r="Y107" s="19"/>
-      <c r="Z107" s="19"/>
+      <c r="Z107" s="19" t="s">
+        <v>1025</v>
+      </c>
       <c r="AA107" s="19"/>
       <c r="AB107" s="19"/>
       <c r="AC107" s="19"/>
@@ -12860,10 +12980,10 @@
         <v>128</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -12893,10 +13013,10 @@
         <v>9</v>
       </c>
       <c r="M108" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="N108" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="N108" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="O108" s="10" t="s">
         <v>45</v>
@@ -12943,10 +13063,10 @@
         <v>129</v>
       </c>
       <c r="B109" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>448</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>449</v>
       </c>
       <c r="D109" s="15">
         <v>1</v>
@@ -12976,10 +13096,10 @@
         <v>53</v>
       </c>
       <c r="M109" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="N109" s="18" t="s">
         <v>450</v>
-      </c>
-      <c r="N109" s="18" t="s">
-        <v>451</v>
       </c>
       <c r="O109" s="19" t="s">
         <v>45</v>
@@ -13026,10 +13146,10 @@
         <v>130</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D110" s="6">
         <v>0</v>
@@ -13059,10 +13179,10 @@
         <v>9</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O110" s="10" t="s">
         <v>45</v>
@@ -13096,7 +13216,7 @@
       <c r="AF110" s="10"/>
       <c r="AG110" s="10"/>
       <c r="AH110" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AI110" s="10"/>
       <c r="AJ110" s="10"/>
@@ -13111,10 +13231,10 @@
         <v>131</v>
       </c>
       <c r="B111" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>455</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>456</v>
       </c>
       <c r="D111" s="15">
         <v>0</v>
@@ -13144,10 +13264,10 @@
         <v>9</v>
       </c>
       <c r="M111" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="N111" s="18" t="s">
         <v>457</v>
-      </c>
-      <c r="N111" s="18" t="s">
-        <v>458</v>
       </c>
       <c r="O111" s="19" t="s">
         <v>45</v>
@@ -13194,10 +13314,10 @@
         <v>132</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
@@ -13227,10 +13347,10 @@
         <v>8</v>
       </c>
       <c r="M112" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="N112" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="N112" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="O112" s="10" t="s">
         <v>45</v>
@@ -13277,10 +13397,10 @@
         <v>133</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>462</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>463</v>
       </c>
       <c r="D113" s="15">
         <v>0</v>
@@ -13310,10 +13430,10 @@
         <v>8</v>
       </c>
       <c r="M113" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="N113" s="18" t="s">
         <v>464</v>
-      </c>
-      <c r="N113" s="18" t="s">
-        <v>465</v>
       </c>
       <c r="O113" s="19" t="s">
         <v>45</v>
@@ -13360,10 +13480,10 @@
         <v>136</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -13389,10 +13509,10 @@
         <v>49</v>
       </c>
       <c r="M114" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="N114" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="N114" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="O114" s="10" t="s">
         <v>45</v>
@@ -13413,7 +13533,7 @@
         <v>5</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V114" s="10"/>
       <c r="W114" s="10"/>
@@ -13441,10 +13561,10 @@
         <v>137</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>471</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>472</v>
       </c>
       <c r="D115" s="15">
         <v>1</v>
@@ -13466,10 +13586,10 @@
         <v>9</v>
       </c>
       <c r="M115" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="N115" s="18" t="s">
         <v>473</v>
-      </c>
-      <c r="N115" s="18" t="s">
-        <v>474</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>45</v>
@@ -13516,16 +13636,16 @@
         <v>138</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
       </c>
       <c r="E116" s="7">
-        <v>5.4709550303167838</v>
+        <v>3.9</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>42</v>
@@ -13549,10 +13669,10 @@
         <v>49</v>
       </c>
       <c r="M116" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="N116" s="9" t="s">
         <v>476</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>477</v>
       </c>
       <c r="O116" s="10" t="s">
         <v>45</v>
@@ -13599,10 +13719,10 @@
         <v>139</v>
       </c>
       <c r="B117" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>478</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>479</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
@@ -13632,10 +13752,10 @@
         <v>8</v>
       </c>
       <c r="M117" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="N117" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="N117" s="18" t="s">
-        <v>481</v>
       </c>
       <c r="O117" s="19" t="s">
         <v>45</v>
@@ -13663,7 +13783,7 @@
       <c r="Z117" s="19"/>
       <c r="AA117" s="19"/>
       <c r="AB117" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AC117" s="19"/>
       <c r="AD117" s="19"/>
@@ -13684,10 +13804,10 @@
         <v>140</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -13717,10 +13837,10 @@
         <v>8</v>
       </c>
       <c r="M118" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="N118" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="N118" s="9" t="s">
-        <v>486</v>
       </c>
       <c r="O118" s="10" t="s">
         <v>45</v>
@@ -13767,10 +13887,10 @@
         <v>142</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>487</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>488</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
@@ -13800,10 +13920,10 @@
         <v>10</v>
       </c>
       <c r="M119" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="N119" s="32" t="s">
         <v>489</v>
-      </c>
-      <c r="N119" s="32" t="s">
-        <v>490</v>
       </c>
       <c r="O119" s="14" t="s">
         <v>45</v>
@@ -13850,10 +13970,10 @@
         <v>144</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -13879,10 +13999,10 @@
         <v>53</v>
       </c>
       <c r="M120" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="N120" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="N120" s="9" t="s">
-        <v>493</v>
       </c>
       <c r="O120" s="10" t="s">
         <v>45</v>
@@ -13929,10 +14049,10 @@
         <v>145</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
@@ -13962,10 +14082,10 @@
         <v>9</v>
       </c>
       <c r="M121" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="N121" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="N121" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="O121" s="19" t="s">
         <v>45</v>
@@ -14012,10 +14132,10 @@
         <v>146</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D122" s="6">
         <v>0</v>
@@ -14045,10 +14165,10 @@
         <v>8</v>
       </c>
       <c r="M122" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="N122" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="N122" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="O122" s="10" t="s">
         <v>45</v>
@@ -14095,10 +14215,10 @@
         <v>147</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D123" s="15">
         <v>1</v>
@@ -14128,10 +14248,10 @@
         <v>9</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O123" s="19" t="s">
         <v>45</v>
@@ -14178,16 +14298,16 @@
         <v>151</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>503</v>
-      </c>
       <c r="D124" s="6">
         <v>1</v>
       </c>
       <c r="E124" s="7">
-        <v>2.7104911138313059</v>
+        <v>4.8</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>83</v>
@@ -14205,10 +14325,10 @@
         <v>53</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O124" s="10" t="s">
         <v>45</v>
@@ -14241,7 +14361,7 @@
       <c r="AE124" s="10"/>
       <c r="AF124" s="10"/>
       <c r="AG124" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AH124" s="10"/>
       <c r="AI124" s="10"/>
@@ -14257,10 +14377,10 @@
         <v>152</v>
       </c>
       <c r="B125" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>507</v>
       </c>
       <c r="D125" s="15">
         <v>1</v>
@@ -14290,10 +14410,10 @@
         <v>10</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O125" s="19" t="s">
         <v>45</v>
@@ -14340,10 +14460,10 @@
         <v>153</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D126" s="6">
         <v>0</v>
@@ -14373,10 +14493,10 @@
         <v>8</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O126" s="10" t="s">
         <v>45</v>
@@ -14423,10 +14543,10 @@
         <v>154</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
@@ -14456,10 +14576,10 @@
         <v>10</v>
       </c>
       <c r="M127" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="N127" s="18" t="s">
         <v>512</v>
-      </c>
-      <c r="N127" s="18" t="s">
-        <v>513</v>
       </c>
       <c r="O127" s="19" t="s">
         <v>45</v>
@@ -14506,10 +14626,10 @@
         <v>155</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="D128" s="6">
         <v>0</v>
@@ -14539,10 +14659,10 @@
         <v>53</v>
       </c>
       <c r="M128" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="N128" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="N128" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="O128" s="10" t="s">
         <v>45</v>
@@ -14589,10 +14709,10 @@
         <v>156</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D129" s="15">
         <v>1</v>
@@ -14622,10 +14742,10 @@
         <v>9</v>
       </c>
       <c r="M129" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="N129" s="18" t="s">
         <v>519</v>
-      </c>
-      <c r="N129" s="18" t="s">
-        <v>520</v>
       </c>
       <c r="O129" s="19" t="s">
         <v>45</v>
@@ -14672,10 +14792,10 @@
         <v>157</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="D130" s="6">
         <v>1</v>
@@ -14705,10 +14825,10 @@
         <v>10</v>
       </c>
       <c r="M130" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="N130" s="9" t="s">
         <v>523</v>
-      </c>
-      <c r="N130" s="9" t="s">
-        <v>524</v>
       </c>
       <c r="O130" s="10" t="s">
         <v>45</v>
@@ -14755,10 +14875,10 @@
         <v>158</v>
       </c>
       <c r="B131" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>525</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>526</v>
       </c>
       <c r="D131" s="15">
         <v>1</v>
@@ -14788,10 +14908,10 @@
         <v>10</v>
       </c>
       <c r="M131" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="N131" s="18" t="s">
         <v>527</v>
-      </c>
-      <c r="N131" s="18" t="s">
-        <v>528</v>
       </c>
       <c r="O131" s="19" t="s">
         <v>45</v>
@@ -14814,7 +14934,9 @@
       <c r="U131" s="19"/>
       <c r="V131" s="19"/>
       <c r="W131" s="19"/>
-      <c r="X131" s="19"/>
+      <c r="X131" s="19" t="s">
+        <v>1026</v>
+      </c>
       <c r="Y131" s="19"/>
       <c r="Z131" s="19"/>
       <c r="AA131" s="19"/>
@@ -14838,10 +14960,10 @@
         <v>159</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D132" s="6">
         <v>0</v>
@@ -14871,10 +14993,10 @@
         <v>9</v>
       </c>
       <c r="M132" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="N132" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="N132" s="9" t="s">
-        <v>531</v>
       </c>
       <c r="O132" s="10" t="s">
         <v>45</v>
@@ -14921,10 +15043,10 @@
         <v>161</v>
       </c>
       <c r="B133" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>533</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
@@ -14954,10 +15076,10 @@
         <v>9</v>
       </c>
       <c r="M133" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="N133" s="18" t="s">
         <v>534</v>
-      </c>
-      <c r="N133" s="18" t="s">
-        <v>535</v>
       </c>
       <c r="O133" s="19" t="s">
         <v>45</v>
@@ -15004,10 +15126,10 @@
         <v>162</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="D134" s="6">
         <v>1</v>
@@ -15037,10 +15159,10 @@
         <v>10</v>
       </c>
       <c r="M134" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="N134" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="N134" s="9" t="s">
-        <v>539</v>
       </c>
       <c r="O134" s="10" t="s">
         <v>45</v>
@@ -15087,10 +15209,10 @@
         <v>163</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
@@ -15120,10 +15242,10 @@
         <v>9</v>
       </c>
       <c r="M135" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N135" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O135" s="19" t="s">
         <v>45</v>
@@ -15170,10 +15292,10 @@
         <v>164</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="D136" s="6">
         <v>0</v>
@@ -15203,10 +15325,10 @@
         <v>9</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O136" s="10" t="s">
         <v>45</v>
@@ -15253,10 +15375,10 @@
         <v>165</v>
       </c>
       <c r="B137" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>545</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>546</v>
       </c>
       <c r="D137" s="15">
         <v>0</v>
@@ -15286,10 +15408,10 @@
         <v>10</v>
       </c>
       <c r="M137" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O137" s="19" t="s">
         <v>45</v>
@@ -15336,10 +15458,10 @@
         <v>166</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>549</v>
       </c>
       <c r="D138" s="6">
         <v>1</v>
@@ -15369,10 +15491,10 @@
         <v>9</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O138" s="10" t="s">
         <v>45</v>
@@ -15419,10 +15541,10 @@
         <v>169</v>
       </c>
       <c r="B139" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>552</v>
       </c>
       <c r="D139" s="15">
         <v>0</v>
@@ -15444,10 +15566,10 @@
         <v>8</v>
       </c>
       <c r="M139" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O139" s="19" t="s">
         <v>45</v>
@@ -15459,7 +15581,7 @@
         <v>122</v>
       </c>
       <c r="R139" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S139" s="21">
         <v>3</v>
@@ -15494,10 +15616,10 @@
         <v>170</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="D140" s="6">
         <v>0</v>
@@ -15527,10 +15649,10 @@
         <v>9</v>
       </c>
       <c r="M140" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O140" s="10" t="s">
         <v>45</v>
@@ -15577,10 +15699,10 @@
         <v>171</v>
       </c>
       <c r="B141" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>558</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>559</v>
       </c>
       <c r="D141" s="15">
         <v>0</v>
@@ -15610,10 +15732,10 @@
         <v>9</v>
       </c>
       <c r="M141" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N141" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O141" s="19" t="s">
         <v>45</v>
@@ -15660,10 +15782,10 @@
         <v>173</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D142" s="6">
         <v>1</v>
@@ -15693,13 +15815,13 @@
         <v>9</v>
       </c>
       <c r="M142" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="N142" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="N142" s="9" t="s">
-        <v>563</v>
-      </c>
       <c r="O142" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P142" s="11">
         <v>5</v>
@@ -15716,26 +15838,28 @@
       <c r="T142" s="13">
         <v>5</v>
       </c>
-      <c r="U142" s="10"/>
+      <c r="U142" s="10" t="s">
+        <v>469</v>
+      </c>
       <c r="V142" s="10"/>
       <c r="W142" s="10"/>
       <c r="X142" s="10"/>
       <c r="Y142" s="10"/>
       <c r="Z142" s="10"/>
       <c r="AA142" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB142" s="10" t="s">
         <v>564</v>
-      </c>
-      <c r="AB142" s="10" t="s">
-        <v>565</v>
       </c>
       <c r="AC142" s="10"/>
       <c r="AD142" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AE142" s="10"/>
       <c r="AF142" s="10"/>
       <c r="AG142" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AH142" s="10"/>
       <c r="AI142" s="10"/>
@@ -15751,10 +15875,10 @@
         <v>174</v>
       </c>
       <c r="B143" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>568</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>569</v>
       </c>
       <c r="D143" s="15">
         <v>1</v>
@@ -15784,22 +15908,22 @@
         <v>9</v>
       </c>
       <c r="M143" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="N143" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="N143" s="18" t="s">
-        <v>571</v>
-      </c>
       <c r="O143" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P143" s="20">
         <v>5</v>
       </c>
       <c r="Q143" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R143" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S143" s="21">
         <v>4</v>
@@ -15820,7 +15944,7 @@
       <c r="AE143" s="19"/>
       <c r="AF143" s="19"/>
       <c r="AG143" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AH143" s="19"/>
       <c r="AI143" s="19"/>
@@ -15836,10 +15960,10 @@
         <v>176</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D144" s="6">
         <v>1</v>
@@ -15869,13 +15993,13 @@
         <v>9</v>
       </c>
       <c r="M144" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="N144" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="N144" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="O144" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P144" s="11">
         <v>10</v>
@@ -15919,10 +16043,10 @@
         <v>177</v>
       </c>
       <c r="B145" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>576</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>577</v>
       </c>
       <c r="D145" s="15">
         <v>1</v>
@@ -15952,19 +16076,19 @@
         <v>9</v>
       </c>
       <c r="M145" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="N145" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="N145" s="18" t="s">
-        <v>579</v>
-      </c>
       <c r="O145" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P145" s="20">
         <v>5</v>
       </c>
       <c r="Q145" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R145" s="21" t="s">
         <v>128</v>
@@ -16002,10 +16126,10 @@
         <v>178</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>581</v>
       </c>
       <c r="D146" s="6">
         <v>1</v>
@@ -16035,19 +16159,19 @@
         <v>9</v>
       </c>
       <c r="M146" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="N146" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="N146" s="9" t="s">
-        <v>583</v>
-      </c>
       <c r="O146" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P146" s="11">
         <v>10</v>
       </c>
       <c r="Q146" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R146" s="12" t="s">
         <v>128</v>
@@ -16062,10 +16186,10 @@
       <c r="V146" s="10"/>
       <c r="W146" s="10"/>
       <c r="X146" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y146" s="10" t="s">
         <v>584</v>
-      </c>
-      <c r="Y146" s="10" t="s">
-        <v>585</v>
       </c>
       <c r="Z146" s="10"/>
       <c r="AA146" s="10"/>
@@ -16089,10 +16213,10 @@
         <v>179</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D147" s="15">
         <v>1</v>
@@ -16122,19 +16246,19 @@
         <v>9</v>
       </c>
       <c r="M147" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="N147" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="N147" s="18" t="s">
-        <v>588</v>
-      </c>
       <c r="O147" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P147" s="20">
         <v>10</v>
       </c>
       <c r="Q147" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R147" s="21" t="s">
         <v>47</v>
@@ -16149,7 +16273,7 @@
       <c r="V147" s="19"/>
       <c r="W147" s="19"/>
       <c r="X147" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Y147" s="19"/>
       <c r="Z147" s="19"/>
@@ -16174,16 +16298,16 @@
         <v>181</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D148" s="6">
         <v>1</v>
       </c>
       <c r="E148" s="7">
-        <v>9.6993170550407282</v>
+        <v>5.2</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>42</v>
@@ -16207,19 +16331,19 @@
         <v>9</v>
       </c>
       <c r="M148" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="N148" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="N148" s="9" t="s">
-        <v>592</v>
-      </c>
       <c r="O148" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P148" s="11">
         <v>10</v>
       </c>
       <c r="Q148" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R148" s="12" t="s">
         <v>128</v>
@@ -16257,16 +16381,16 @@
         <v>182</v>
       </c>
       <c r="B149" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="C149" s="15" t="s">
-        <v>594</v>
-      </c>
       <c r="D149" s="15">
         <v>1</v>
       </c>
       <c r="E149" s="16">
-        <v>4.7171204851786204</v>
+        <v>2</v>
       </c>
       <c r="F149" s="14" t="s">
         <v>83</v>
@@ -16290,13 +16414,13 @@
         <v>9</v>
       </c>
       <c r="M149" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="N149" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="N149" s="18" t="s">
-        <v>596</v>
-      </c>
       <c r="O149" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P149" s="20">
         <v>5</v>
@@ -16340,10 +16464,10 @@
         <v>183</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D150" s="6">
         <v>1</v>
@@ -16373,19 +16497,19 @@
         <v>9</v>
       </c>
       <c r="M150" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="N150" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="N150" s="9" t="s">
-        <v>599</v>
-      </c>
       <c r="O150" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P150" s="11">
         <v>15</v>
       </c>
       <c r="Q150" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R150" s="12" t="s">
         <v>128</v>
@@ -16423,10 +16547,10 @@
         <v>184</v>
       </c>
       <c r="B151" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>600</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>601</v>
       </c>
       <c r="D151" s="15">
         <v>1</v>
@@ -16456,19 +16580,19 @@
         <v>9</v>
       </c>
       <c r="M151" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="N151" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="N151" s="18" t="s">
-        <v>603</v>
-      </c>
       <c r="O151" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P151" s="20">
         <v>5</v>
       </c>
       <c r="Q151" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R151" s="21" t="s">
         <v>47</v>
@@ -16479,7 +16603,9 @@
       <c r="T151" s="22">
         <v>3</v>
       </c>
-      <c r="U151" s="19"/>
+      <c r="U151" s="19" t="s">
+        <v>1027</v>
+      </c>
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
       <c r="X151" s="19"/>
@@ -16487,14 +16613,14 @@
       <c r="Z151" s="19"/>
       <c r="AA151" s="19"/>
       <c r="AB151" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AC151" s="19"/>
       <c r="AD151" s="19"/>
       <c r="AE151" s="19"/>
       <c r="AF151" s="19"/>
       <c r="AG151" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AH151" s="19"/>
       <c r="AI151" s="19"/>
@@ -16510,10 +16636,10 @@
         <v>185</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="D152" s="6">
         <v>0</v>
@@ -16543,19 +16669,19 @@
         <v>9</v>
       </c>
       <c r="M152" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="N152" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="N152" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="O152" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P152" s="11">
         <v>5</v>
       </c>
       <c r="Q152" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R152" s="12" t="s">
         <v>128</v>
@@ -16593,10 +16719,10 @@
         <v>186</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D153" s="15">
         <v>1</v>
@@ -16626,13 +16752,13 @@
         <v>9</v>
       </c>
       <c r="M153" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="N153" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="N153" s="18" t="s">
-        <v>612</v>
-      </c>
       <c r="O153" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P153" s="20">
         <v>5</v>
@@ -16662,7 +16788,7 @@
       <c r="AE153" s="19"/>
       <c r="AF153" s="19"/>
       <c r="AG153" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AH153" s="19"/>
       <c r="AI153" s="19"/>
@@ -16678,10 +16804,10 @@
         <v>187</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="D154" s="6">
         <v>1</v>
@@ -16711,19 +16837,19 @@
         <v>9</v>
       </c>
       <c r="M154" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="N154" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="N154" s="9" t="s">
-        <v>617</v>
-      </c>
       <c r="O154" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P154" s="11">
         <v>5</v>
       </c>
       <c r="Q154" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R154" s="12" t="s">
         <v>128</v>
@@ -16747,7 +16873,7 @@
       <c r="AE154" s="10"/>
       <c r="AF154" s="10"/>
       <c r="AG154" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AH154" s="10"/>
       <c r="AI154" s="10"/>
@@ -16763,10 +16889,10 @@
         <v>188</v>
       </c>
       <c r="B155" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C155" s="15" t="s">
         <v>619</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>620</v>
       </c>
       <c r="D155" s="15">
         <v>1</v>
@@ -16796,19 +16922,19 @@
         <v>9</v>
       </c>
       <c r="M155" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="N155" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="N155" s="18" t="s">
-        <v>622</v>
-      </c>
       <c r="O155" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P155" s="20">
         <v>10</v>
       </c>
       <c r="Q155" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R155" s="21" t="s">
         <v>128</v>
@@ -16846,10 +16972,10 @@
         <v>189</v>
       </c>
       <c r="B156" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="D156" s="6">
         <v>1</v>
@@ -16879,19 +17005,19 @@
         <v>9</v>
       </c>
       <c r="M156" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="N156" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="N156" s="9" t="s">
-        <v>626</v>
-      </c>
       <c r="O156" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P156" s="11">
         <v>5</v>
       </c>
       <c r="Q156" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R156" s="12" t="s">
         <v>128</v>
@@ -16929,10 +17055,10 @@
         <v>190</v>
       </c>
       <c r="B157" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>627</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>628</v>
       </c>
       <c r="D157" s="15">
         <v>0</v>
@@ -16962,19 +17088,19 @@
         <v>9</v>
       </c>
       <c r="M157" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="N157" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="N157" s="18" t="s">
-        <v>630</v>
-      </c>
       <c r="O157" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P157" s="20">
         <v>15</v>
       </c>
       <c r="Q157" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R157" s="21" t="s">
         <v>47</v>
@@ -17012,10 +17138,10 @@
         <v>191</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>632</v>
       </c>
       <c r="D158" s="6">
         <v>1</v>
@@ -17045,19 +17171,19 @@
         <v>9</v>
       </c>
       <c r="M158" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="N158" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="N158" s="9" t="s">
-        <v>634</v>
-      </c>
       <c r="O158" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P158" s="11">
         <v>5</v>
       </c>
       <c r="Q158" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R158" s="12" t="s">
         <v>47</v>
@@ -17081,7 +17207,7 @@
       <c r="AE158" s="10"/>
       <c r="AF158" s="10"/>
       <c r="AG158" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AH158" s="10"/>
       <c r="AI158" s="10"/>
@@ -17097,10 +17223,10 @@
         <v>192</v>
       </c>
       <c r="B159" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>636</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>637</v>
       </c>
       <c r="D159" s="15">
         <v>1</v>
@@ -17130,19 +17256,19 @@
         <v>9</v>
       </c>
       <c r="M159" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="N159" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="N159" s="18" t="s">
-        <v>639</v>
-      </c>
       <c r="O159" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P159" s="20">
         <v>5</v>
       </c>
       <c r="Q159" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R159" s="21" t="s">
         <v>47</v>
@@ -17180,10 +17306,10 @@
         <v>193</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D160" s="6">
         <v>1</v>
@@ -17213,19 +17339,19 @@
         <v>9</v>
       </c>
       <c r="M160" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="N160" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="N160" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="O160" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P160" s="11">
         <v>15</v>
       </c>
       <c r="Q160" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R160" s="12" t="s">
         <v>128</v>
@@ -17241,7 +17367,9 @@
       <c r="W160" s="10"/>
       <c r="X160" s="10"/>
       <c r="Y160" s="10"/>
-      <c r="Z160" s="10"/>
+      <c r="Z160" s="10" t="s">
+        <v>1028</v>
+      </c>
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
       <c r="AC160" s="10"/>
@@ -17263,10 +17391,10 @@
         <v>194</v>
       </c>
       <c r="B161" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>643</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>644</v>
       </c>
       <c r="D161" s="15">
         <v>0</v>
@@ -17296,19 +17424,19 @@
         <v>9</v>
       </c>
       <c r="M161" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="N161" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="N161" s="18" t="s">
-        <v>646</v>
-      </c>
       <c r="O161" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P161" s="20">
         <v>5</v>
       </c>
       <c r="Q161" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R161" s="21" t="s">
         <v>128</v>
@@ -17332,7 +17460,7 @@
       <c r="AE161" s="19"/>
       <c r="AF161" s="19"/>
       <c r="AG161" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AH161" s="19"/>
       <c r="AI161" s="19"/>
@@ -17348,10 +17476,10 @@
         <v>195</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>648</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>649</v>
       </c>
       <c r="D162" s="6">
         <v>1</v>
@@ -17381,13 +17509,13 @@
         <v>9</v>
       </c>
       <c r="M162" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="N162" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="N162" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="O162" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P162" s="11">
         <v>5</v>
@@ -17406,7 +17534,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="W162" s="10"/>
       <c r="X162" s="10"/>
@@ -17420,7 +17548,7 @@
       <c r="AF162" s="10"/>
       <c r="AG162" s="10"/>
       <c r="AH162" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AI162" s="10"/>
       <c r="AJ162" s="10"/>
@@ -17435,10 +17563,10 @@
         <v>196</v>
       </c>
       <c r="B163" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>654</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>655</v>
       </c>
       <c r="D163" s="15">
         <v>1</v>
@@ -17468,19 +17596,19 @@
         <v>9</v>
       </c>
       <c r="M163" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="N163" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="N163" s="18" t="s">
-        <v>657</v>
-      </c>
       <c r="O163" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P163" s="20">
         <v>10</v>
       </c>
       <c r="Q163" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R163" s="21" t="s">
         <v>128</v>
@@ -17491,7 +17619,9 @@
       <c r="T163" s="22">
         <v>4</v>
       </c>
-      <c r="U163" s="19"/>
+      <c r="U163" s="19" t="s">
+        <v>1029</v>
+      </c>
       <c r="V163" s="19"/>
       <c r="W163" s="19"/>
       <c r="X163" s="19"/>
@@ -17504,7 +17634,7 @@
       <c r="AE163" s="19"/>
       <c r="AF163" s="19"/>
       <c r="AG163" s="19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AH163" s="19"/>
       <c r="AI163" s="19"/>
@@ -17520,10 +17650,10 @@
         <v>197</v>
       </c>
       <c r="B164" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>659</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>660</v>
       </c>
       <c r="D164" s="6">
         <v>1</v>
@@ -17553,19 +17683,19 @@
         <v>9</v>
       </c>
       <c r="M164" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="N164" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="N164" s="9" t="s">
-        <v>662</v>
-      </c>
       <c r="O164" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P164" s="11">
         <v>5</v>
       </c>
       <c r="Q164" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R164" s="12" t="s">
         <v>128</v>
@@ -17603,10 +17733,10 @@
         <v>198</v>
       </c>
       <c r="B165" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>663</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>664</v>
       </c>
       <c r="D165" s="15">
         <v>1</v>
@@ -17636,13 +17766,13 @@
         <v>9</v>
       </c>
       <c r="M165" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="N165" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="N165" s="18" t="s">
-        <v>666</v>
-      </c>
       <c r="O165" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P165" s="20">
         <v>5</v>
@@ -17686,10 +17816,10 @@
         <v>199</v>
       </c>
       <c r="B166" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="D166" s="6">
         <v>1</v>
@@ -17719,19 +17849,19 @@
         <v>9</v>
       </c>
       <c r="M166" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="N166" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="N166" s="9" t="s">
-        <v>670</v>
-      </c>
       <c r="O166" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P166" s="11">
         <v>5</v>
       </c>
       <c r="Q166" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R166" s="12" t="s">
         <v>47</v>
@@ -17755,7 +17885,7 @@
       <c r="AE166" s="10"/>
       <c r="AF166" s="10"/>
       <c r="AG166" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AH166" s="10"/>
       <c r="AI166" s="10"/>
@@ -17771,10 +17901,10 @@
         <v>200</v>
       </c>
       <c r="B167" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>672</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>673</v>
       </c>
       <c r="D167" s="15">
         <v>0</v>
@@ -17804,19 +17934,19 @@
         <v>9</v>
       </c>
       <c r="M167" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="N167" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="N167" s="18" t="s">
-        <v>675</v>
-      </c>
       <c r="O167" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P167" s="20">
         <v>5</v>
       </c>
       <c r="Q167" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R167" s="21" t="s">
         <v>47</v>
@@ -17854,10 +17984,10 @@
         <v>201</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>677</v>
       </c>
       <c r="D168" s="6">
         <v>1</v>
@@ -17887,13 +18017,13 @@
         <v>9</v>
       </c>
       <c r="M168" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="N168" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="N168" s="9" t="s">
-        <v>679</v>
-      </c>
       <c r="O168" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P168" s="11">
         <v>15</v>
@@ -17937,10 +18067,10 @@
         <v>202</v>
       </c>
       <c r="B169" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>680</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>681</v>
       </c>
       <c r="D169" s="15">
         <v>0</v>
@@ -17970,19 +18100,19 @@
         <v>9</v>
       </c>
       <c r="M169" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="N169" s="18" t="s">
         <v>682</v>
       </c>
-      <c r="N169" s="18" t="s">
-        <v>683</v>
-      </c>
       <c r="O169" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P169" s="20">
         <v>15</v>
       </c>
       <c r="Q169" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R169" s="21" t="s">
         <v>47</v>
@@ -18007,7 +18137,7 @@
       <c r="AF169" s="19"/>
       <c r="AG169" s="19"/>
       <c r="AH169" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AI169" s="19"/>
       <c r="AJ169" s="19"/>
@@ -18022,10 +18152,10 @@
         <v>203</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="D170" s="6">
         <v>0</v>
@@ -18055,19 +18185,19 @@
         <v>9</v>
       </c>
       <c r="M170" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="N170" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="N170" s="9" t="s">
-        <v>688</v>
-      </c>
       <c r="O170" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P170" s="11">
         <v>10</v>
       </c>
       <c r="Q170" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R170" s="12" t="s">
         <v>128</v>
@@ -18091,7 +18221,7 @@
       <c r="AE170" s="10"/>
       <c r="AF170" s="10"/>
       <c r="AG170" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AH170" s="10"/>
       <c r="AI170" s="10"/>
@@ -18107,10 +18237,10 @@
         <v>204</v>
       </c>
       <c r="B171" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>690</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>691</v>
       </c>
       <c r="D171" s="15">
         <v>1</v>
@@ -18140,19 +18270,19 @@
         <v>9</v>
       </c>
       <c r="M171" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="N171" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="N171" s="18" t="s">
-        <v>693</v>
-      </c>
       <c r="O171" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P171" s="20">
         <v>15</v>
       </c>
       <c r="Q171" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R171" s="21" t="s">
         <v>128</v>
@@ -18190,10 +18320,10 @@
         <v>205</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>695</v>
       </c>
       <c r="D172" s="6">
         <v>1</v>
@@ -18223,13 +18353,13 @@
         <v>9</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O172" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P172" s="11">
         <v>15</v>
@@ -18273,10 +18403,10 @@
         <v>206</v>
       </c>
       <c r="B173" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>697</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>698</v>
       </c>
       <c r="D173" s="15">
         <v>0</v>
@@ -18306,13 +18436,13 @@
         <v>10</v>
       </c>
       <c r="M173" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="N173" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="N173" s="18" t="s">
-        <v>700</v>
-      </c>
       <c r="O173" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P173" s="20">
         <v>5</v>
@@ -18333,7 +18463,7 @@
       <c r="V173" s="19"/>
       <c r="W173" s="19"/>
       <c r="X173" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Y173" s="19"/>
       <c r="Z173" s="19"/>
@@ -18358,10 +18488,10 @@
         <v>207</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="D174" s="6">
         <v>0</v>
@@ -18391,13 +18521,13 @@
         <v>10</v>
       </c>
       <c r="M174" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="N174" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="N174" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="O174" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P174" s="11">
         <v>5</v>
@@ -18406,7 +18536,7 @@
         <v>122</v>
       </c>
       <c r="R174" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S174" s="12">
         <v>3</v>
@@ -18418,7 +18548,7 @@
       <c r="V174" s="10"/>
       <c r="W174" s="10"/>
       <c r="X174" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y174" s="10"/>
       <c r="Z174" s="10"/>
@@ -18443,10 +18573,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>707</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>708</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -18476,13 +18606,13 @@
         <v>9</v>
       </c>
       <c r="M175" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="N175" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="N175" s="18" t="s">
-        <v>710</v>
-      </c>
       <c r="O175" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P175" s="20">
         <v>10</v>
@@ -18526,10 +18656,10 @@
         <v>209</v>
       </c>
       <c r="B176" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>712</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
@@ -18559,13 +18689,13 @@
         <v>53</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O176" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P176" s="11">
         <v>5</v>
@@ -18609,10 +18739,10 @@
         <v>210</v>
       </c>
       <c r="B177" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="C177" s="15" t="s">
         <v>714</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>715</v>
       </c>
       <c r="D177" s="15">
         <v>0</v>
@@ -18642,13 +18772,13 @@
         <v>10</v>
       </c>
       <c r="M177" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="N177" s="18" t="s">
         <v>716</v>
       </c>
-      <c r="N177" s="18" t="s">
-        <v>717</v>
-      </c>
       <c r="O177" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P177" s="20">
         <v>5</v>
@@ -18692,10 +18822,10 @@
         <v>211</v>
       </c>
       <c r="B178" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>718</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>719</v>
       </c>
       <c r="D178" s="6">
         <v>0</v>
@@ -18725,13 +18855,13 @@
         <v>10</v>
       </c>
       <c r="M178" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="N178" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="N178" s="9" t="s">
-        <v>721</v>
-      </c>
       <c r="O178" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P178" s="11">
         <v>5</v>
@@ -18775,10 +18905,10 @@
         <v>212</v>
       </c>
       <c r="B179" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>722</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>723</v>
       </c>
       <c r="D179" s="15">
         <v>0</v>
@@ -18808,13 +18938,13 @@
         <v>53</v>
       </c>
       <c r="M179" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="N179" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="N179" s="18" t="s">
-        <v>725</v>
-      </c>
       <c r="O179" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P179" s="20">
         <v>10</v>
@@ -18823,7 +18953,7 @@
         <v>139</v>
       </c>
       <c r="R179" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S179" s="21">
         <v>4</v>
@@ -18858,10 +18988,10 @@
         <v>213</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="D180" s="6">
         <v>0</v>
@@ -18891,13 +19021,13 @@
         <v>53</v>
       </c>
       <c r="M180" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N180" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O180" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P180" s="11">
         <v>10</v>
@@ -18906,7 +19036,7 @@
         <v>139</v>
       </c>
       <c r="R180" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S180" s="12">
         <v>4</v>
@@ -18941,10 +19071,10 @@
         <v>214</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -18974,13 +19104,13 @@
         <v>53</v>
       </c>
       <c r="M181" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P181" s="20">
         <v>15</v>
@@ -19024,10 +19154,10 @@
         <v>215</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>732</v>
       </c>
       <c r="D182" s="6">
         <v>0</v>
@@ -19057,13 +19187,13 @@
         <v>8</v>
       </c>
       <c r="M182" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="N182" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="N182" s="9" t="s">
-        <v>734</v>
-      </c>
       <c r="O182" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P182" s="11">
         <v>5</v>
@@ -19092,7 +19222,7 @@
       <c r="AD182" s="10"/>
       <c r="AE182" s="10"/>
       <c r="AF182" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AG182" s="10"/>
       <c r="AH182" s="10"/>
@@ -19109,10 +19239,10 @@
         <v>217</v>
       </c>
       <c r="B183" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>736</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>737</v>
       </c>
       <c r="D183" s="15">
         <v>0</v>
@@ -19142,13 +19272,13 @@
         <v>8</v>
       </c>
       <c r="M183" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="N183" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="N183" s="18" t="s">
-        <v>739</v>
-      </c>
       <c r="O183" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P183" s="20">
         <v>5</v>
@@ -19192,10 +19322,10 @@
         <v>218</v>
       </c>
       <c r="B184" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="D184" s="6">
         <v>0</v>
@@ -19225,10 +19355,10 @@
         <v>49</v>
       </c>
       <c r="M184" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="N184" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="N184" s="9" t="s">
-        <v>743</v>
       </c>
       <c r="O184" s="10" t="s">
         <v>45</v>
@@ -19240,7 +19370,7 @@
         <v>122</v>
       </c>
       <c r="R184" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S184" s="12">
         <v>2</v>
@@ -19275,10 +19405,10 @@
         <v>220</v>
       </c>
       <c r="B185" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>744</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>745</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -19308,10 +19438,10 @@
         <v>9</v>
       </c>
       <c r="M185" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="N185" s="18" t="s">
         <v>746</v>
-      </c>
-      <c r="N185" s="18" t="s">
-        <v>747</v>
       </c>
       <c r="O185" s="19" t="s">
         <v>45</v>
@@ -19344,7 +19474,7 @@
       <c r="AE185" s="19"/>
       <c r="AF185" s="19"/>
       <c r="AG185" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AH185" s="19"/>
       <c r="AI185" s="19"/>
@@ -19360,10 +19490,10 @@
         <v>221</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D186" s="6">
         <v>0</v>
@@ -19393,10 +19523,10 @@
         <v>9</v>
       </c>
       <c r="M186" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="N186" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="N186" s="9" t="s">
-        <v>751</v>
       </c>
       <c r="O186" s="10" t="s">
         <v>45</v>
@@ -19429,7 +19559,7 @@
       <c r="AE186" s="10"/>
       <c r="AF186" s="10"/>
       <c r="AG186" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AH186" s="10"/>
       <c r="AI186" s="10"/>
@@ -19445,10 +19575,10 @@
         <v>222</v>
       </c>
       <c r="B187" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>753</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>754</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -19478,10 +19608,10 @@
         <v>49</v>
       </c>
       <c r="M187" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="N187" s="18" t="s">
         <v>755</v>
-      </c>
-      <c r="N187" s="18" t="s">
-        <v>756</v>
       </c>
       <c r="O187" s="19" t="s">
         <v>45</v>
@@ -19493,7 +19623,7 @@
         <v>46</v>
       </c>
       <c r="R187" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S187" s="21">
         <v>3</v>
@@ -19528,10 +19658,10 @@
         <v>223</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D188" s="6">
         <v>1</v>
@@ -19561,10 +19691,10 @@
         <v>9</v>
       </c>
       <c r="M188" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N188" s="9" t="s">
         <v>758</v>
-      </c>
-      <c r="N188" s="9" t="s">
-        <v>759</v>
       </c>
       <c r="O188" s="10" t="s">
         <v>45</v>
@@ -19576,7 +19706,7 @@
         <v>122</v>
       </c>
       <c r="R188" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S188" s="12">
         <v>4</v>
@@ -19587,7 +19717,9 @@
       <c r="U188" s="10"/>
       <c r="V188" s="10"/>
       <c r="W188" s="10"/>
-      <c r="X188" s="10"/>
+      <c r="X188" s="10" t="s">
+        <v>1030</v>
+      </c>
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
       <c r="AA188" s="10"/>
@@ -19597,7 +19729,7 @@
       <c r="AE188" s="10"/>
       <c r="AF188" s="10"/>
       <c r="AG188" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AH188" s="10"/>
       <c r="AI188" s="10"/>
@@ -19613,10 +19745,10 @@
         <v>224</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -19646,10 +19778,10 @@
         <v>9</v>
       </c>
       <c r="M189" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="N189" s="18" t="s">
         <v>762</v>
-      </c>
-      <c r="N189" s="18" t="s">
-        <v>763</v>
       </c>
       <c r="O189" s="19" t="s">
         <v>45</v>
@@ -19658,10 +19790,10 @@
         <v>10</v>
       </c>
       <c r="Q189" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R189" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S189" s="21">
         <v>5</v>
@@ -19669,7 +19801,9 @@
       <c r="T189" s="22">
         <v>5</v>
       </c>
-      <c r="U189" s="19"/>
+      <c r="U189" s="19" t="s">
+        <v>1031</v>
+      </c>
       <c r="V189" s="19"/>
       <c r="W189" s="19"/>
       <c r="X189" s="19"/>
@@ -19678,7 +19812,7 @@
       <c r="AA189" s="19"/>
       <c r="AB189" s="19"/>
       <c r="AC189" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AD189" s="19"/>
       <c r="AE189" s="19"/>
@@ -19698,10 +19832,10 @@
         <v>225</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>765</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="D190" s="6">
         <v>0</v>
@@ -19731,10 +19865,10 @@
         <v>9</v>
       </c>
       <c r="M190" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="N190" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="N190" s="9" t="s">
-        <v>768</v>
       </c>
       <c r="O190" s="10" t="s">
         <v>45</v>
@@ -19743,7 +19877,7 @@
         <v>5</v>
       </c>
       <c r="Q190" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R190" s="12" t="s">
         <v>47</v>
@@ -19781,10 +19915,10 @@
         <v>226</v>
       </c>
       <c r="B191" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>769</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>770</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -19814,10 +19948,10 @@
         <v>9</v>
       </c>
       <c r="M191" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="N191" s="18" t="s">
         <v>771</v>
-      </c>
-      <c r="N191" s="18" t="s">
-        <v>772</v>
       </c>
       <c r="O191" s="19" t="s">
         <v>45</v>
@@ -19864,10 +19998,10 @@
         <v>227</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>773</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>774</v>
       </c>
       <c r="D192" s="6">
         <v>0</v>
@@ -19889,10 +20023,10 @@
         <v>53</v>
       </c>
       <c r="M192" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="N192" s="9" t="s">
         <v>775</v>
-      </c>
-      <c r="N192" s="9" t="s">
-        <v>776</v>
       </c>
       <c r="O192" s="10" t="s">
         <v>45</v>
@@ -19939,10 +20073,10 @@
         <v>228</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -19972,10 +20106,10 @@
         <v>9</v>
       </c>
       <c r="M193" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="N193" s="18" t="s">
         <v>778</v>
-      </c>
-      <c r="N193" s="18" t="s">
-        <v>779</v>
       </c>
       <c r="O193" s="19" t="s">
         <v>45</v>
@@ -19984,7 +20118,7 @@
         <v>15</v>
       </c>
       <c r="Q193" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R193" s="21" t="s">
         <v>47</v>
@@ -20022,10 +20156,10 @@
         <v>230</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="D194" s="6">
         <v>1</v>
@@ -20055,19 +20189,19 @@
         <v>9</v>
       </c>
       <c r="M194" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="N194" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="N194" s="9" t="s">
+      <c r="O194" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P194" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q194" s="11" t="s">
         <v>783</v>
-      </c>
-      <c r="O194" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="P194" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q194" s="11" t="s">
-        <v>784</v>
       </c>
       <c r="R194" s="12" t="s">
         <v>47</v>
@@ -20091,7 +20225,7 @@
       <c r="AE194" s="10"/>
       <c r="AF194" s="10"/>
       <c r="AG194" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AH194" s="10"/>
       <c r="AI194" s="10"/>
@@ -20107,10 +20241,10 @@
         <v>231</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>786</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>787</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -20140,19 +20274,19 @@
         <v>8</v>
       </c>
       <c r="M195" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N195" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O195" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P195" s="20">
         <v>5</v>
       </c>
       <c r="Q195" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R195" s="21" t="s">
         <v>47</v>
@@ -20190,10 +20324,10 @@
         <v>232</v>
       </c>
       <c r="B196" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>789</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>790</v>
       </c>
       <c r="D196" s="6">
         <v>1</v>
@@ -20223,19 +20357,19 @@
         <v>8</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N196" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O196" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P196" s="11">
         <v>5</v>
       </c>
       <c r="Q196" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R196" s="12" t="s">
         <v>47</v>
@@ -20273,10 +20407,10 @@
         <v>233</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>792</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>793</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -20306,19 +20440,19 @@
         <v>10</v>
       </c>
       <c r="M197" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N197" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O197" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P197" s="20">
         <v>5</v>
       </c>
       <c r="Q197" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R197" s="21" t="s">
         <v>47</v>
@@ -20330,11 +20464,15 @@
         <v>2</v>
       </c>
       <c r="U197" s="19"/>
-      <c r="V197" s="19"/>
+      <c r="V197" s="19" t="s">
+        <v>1032</v>
+      </c>
       <c r="W197" s="19"/>
       <c r="X197" s="19"/>
       <c r="Y197" s="19"/>
-      <c r="Z197" s="19"/>
+      <c r="Z197" s="19" t="s">
+        <v>1033</v>
+      </c>
       <c r="AA197" s="19"/>
       <c r="AB197" s="19"/>
       <c r="AC197" s="19"/>
@@ -20356,10 +20494,10 @@
         <v>234</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>795</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>796</v>
       </c>
       <c r="D198" s="6">
         <v>0</v>
@@ -20389,19 +20527,19 @@
         <v>8</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N198" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O198" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P198" s="11">
         <v>5</v>
       </c>
       <c r="Q198" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R198" s="12" t="s">
         <v>47</v>
@@ -20439,10 +20577,10 @@
         <v>235</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>798</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>799</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -20472,19 +20610,19 @@
         <v>9</v>
       </c>
       <c r="M199" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="N199" s="18" t="s">
         <v>800</v>
       </c>
-      <c r="N199" s="18" t="s">
-        <v>801</v>
-      </c>
       <c r="O199" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P199" s="20">
         <v>5</v>
       </c>
       <c r="Q199" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R199" s="21" t="s">
         <v>47</v>
@@ -20522,10 +20660,10 @@
         <v>236</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>803</v>
       </c>
       <c r="D200" s="6">
         <v>0</v>
@@ -20555,19 +20693,19 @@
         <v>9</v>
       </c>
       <c r="M200" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N200" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O200" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P200" s="11">
         <v>5</v>
       </c>
       <c r="Q200" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R200" s="12" t="s">
         <v>47</v>
@@ -20591,7 +20729,7 @@
       <c r="AE200" s="10"/>
       <c r="AF200" s="10"/>
       <c r="AG200" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AH200" s="10"/>
       <c r="AI200" s="10"/>
@@ -20607,10 +20745,10 @@
         <v>238</v>
       </c>
       <c r="B201" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>806</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>807</v>
       </c>
       <c r="D201" s="15">
         <v>0</v>
@@ -20640,19 +20778,19 @@
         <v>8</v>
       </c>
       <c r="M201" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N201" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O201" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P201" s="20">
         <v>5</v>
       </c>
       <c r="Q201" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R201" s="21" t="s">
         <v>47</v>
@@ -20690,10 +20828,10 @@
         <v>239</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="C202" s="30" t="s">
         <v>809</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>810</v>
       </c>
       <c r="D202" s="6">
         <v>0</v>
@@ -20723,19 +20861,19 @@
         <v>8</v>
       </c>
       <c r="M202" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N202" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O202" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P202" s="11">
         <v>5</v>
       </c>
       <c r="Q202" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R202" s="12" t="s">
         <v>47</v>
@@ -20773,10 +20911,10 @@
         <v>244</v>
       </c>
       <c r="B203" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>812</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>813</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -20806,13 +20944,13 @@
         <v>53</v>
       </c>
       <c r="M203" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="N203" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="N203" s="18" t="s">
-        <v>815</v>
-      </c>
       <c r="O203" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P203" s="20">
         <v>5</v>
@@ -20856,10 +20994,10 @@
         <v>245</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>816</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>817</v>
       </c>
       <c r="D204" s="6">
         <v>1</v>
@@ -20889,13 +21027,13 @@
         <v>53</v>
       </c>
       <c r="M204" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="N204" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="N204" s="9" t="s">
-        <v>819</v>
-      </c>
       <c r="O204" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P204" s="11">
         <v>5</v>
@@ -20904,7 +21042,7 @@
         <v>139</v>
       </c>
       <c r="R204" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S204" s="12">
         <v>5</v>
@@ -20925,7 +21063,7 @@
       <c r="AE204" s="10"/>
       <c r="AF204" s="10"/>
       <c r="AG204" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AH204" s="10"/>
       <c r="AI204" s="10"/>
@@ -20941,10 +21079,10 @@
         <v>246</v>
       </c>
       <c r="B205" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>821</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>822</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -20974,13 +21112,13 @@
         <v>9</v>
       </c>
       <c r="M205" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N205" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O205" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P205" s="20">
         <v>5</v>
@@ -20989,7 +21127,7 @@
         <v>139</v>
       </c>
       <c r="R205" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S205" s="21">
         <v>2</v>
@@ -21024,10 +21162,10 @@
         <v>247</v>
       </c>
       <c r="B206" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>824</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>825</v>
       </c>
       <c r="D206" s="6">
         <v>1</v>
@@ -21057,13 +21195,13 @@
         <v>9</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N206" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O206" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P206" s="11">
         <v>5</v>
@@ -21072,7 +21210,7 @@
         <v>139</v>
       </c>
       <c r="R206" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S206" s="12">
         <v>5</v>
@@ -21107,10 +21245,10 @@
         <v>248</v>
       </c>
       <c r="B207" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>827</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>828</v>
       </c>
       <c r="D207" s="15">
         <v>1</v>
@@ -21140,13 +21278,13 @@
         <v>9</v>
       </c>
       <c r="M207" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N207" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O207" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P207" s="20">
         <v>5</v>
@@ -21155,7 +21293,7 @@
         <v>139</v>
       </c>
       <c r="R207" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S207" s="21">
         <v>5</v>
@@ -21190,10 +21328,10 @@
         <v>249</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D208" s="6">
         <v>1</v>
@@ -21223,13 +21361,13 @@
         <v>53</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N208" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O208" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P208" s="11">
         <v>5</v>
@@ -21238,7 +21376,7 @@
         <v>139</v>
       </c>
       <c r="R208" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S208" s="12">
         <v>3</v>
@@ -21273,10 +21411,10 @@
         <v>250</v>
       </c>
       <c r="B209" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="C209" s="15" t="s">
         <v>832</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>833</v>
       </c>
       <c r="D209" s="15">
         <v>0</v>
@@ -21306,19 +21444,19 @@
         <v>9</v>
       </c>
       <c r="M209" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="N209" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="N209" s="18" t="s">
-        <v>835</v>
-      </c>
       <c r="O209" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P209" s="20">
         <v>5</v>
       </c>
       <c r="Q209" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R209" s="21" t="s">
         <v>47</v>
@@ -21342,7 +21480,7 @@
       <c r="AE209" s="19"/>
       <c r="AF209" s="19"/>
       <c r="AG209" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AH209" s="19"/>
       <c r="AI209" s="19"/>
@@ -21358,10 +21496,10 @@
         <v>251</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D210" s="6">
         <v>0</v>
@@ -21391,19 +21529,19 @@
         <v>9</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N210" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O210" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P210" s="11">
         <v>5</v>
       </c>
       <c r="Q210" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R210" s="12" t="s">
         <v>47</v>
@@ -21427,7 +21565,7 @@
       <c r="AE210" s="10"/>
       <c r="AF210" s="10"/>
       <c r="AG210" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AH210" s="10"/>
       <c r="AI210" s="10"/>
@@ -21443,10 +21581,10 @@
         <v>252</v>
       </c>
       <c r="B211" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>840</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>841</v>
       </c>
       <c r="D211" s="15">
         <v>0</v>
@@ -21476,19 +21614,19 @@
         <v>9</v>
       </c>
       <c r="M211" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N211" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O211" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P211" s="20">
         <v>5</v>
       </c>
       <c r="Q211" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R211" s="21" t="s">
         <v>47</v>
@@ -21526,10 +21664,10 @@
         <v>253</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D212" s="6">
         <v>0</v>
@@ -21559,19 +21697,19 @@
         <v>9</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N212" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O212" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P212" s="11">
         <v>5</v>
       </c>
       <c r="Q212" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R212" s="12" t="s">
         <v>47</v>
@@ -21609,10 +21747,10 @@
         <v>254</v>
       </c>
       <c r="B213" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>845</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>846</v>
       </c>
       <c r="D213" s="15">
         <v>0</v>
@@ -21642,19 +21780,19 @@
         <v>9</v>
       </c>
       <c r="M213" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N213" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O213" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P213" s="20">
         <v>5</v>
       </c>
       <c r="Q213" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R213" s="21" t="s">
         <v>47</v>
@@ -21692,10 +21830,10 @@
         <v>256</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D214" s="6">
         <v>1</v>
@@ -21725,19 +21863,19 @@
         <v>9</v>
       </c>
       <c r="M214" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="N214" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="N214" s="9" t="s">
-        <v>850</v>
-      </c>
       <c r="O214" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P214" s="11">
         <v>5</v>
       </c>
       <c r="Q214" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R214" s="12" t="s">
         <v>47</v>
@@ -21751,7 +21889,9 @@
       <c r="U214" s="10"/>
       <c r="V214" s="10"/>
       <c r="W214" s="10"/>
-      <c r="X214" s="10"/>
+      <c r="X214" s="10" t="s">
+        <v>1034</v>
+      </c>
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
       <c r="AA214" s="10"/>
@@ -21775,10 +21915,10 @@
         <v>257</v>
       </c>
       <c r="B215" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>851</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>852</v>
       </c>
       <c r="D215" s="15">
         <v>1</v>
@@ -21808,19 +21948,19 @@
         <v>49</v>
       </c>
       <c r="M215" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N215" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O215" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P215" s="20">
         <v>5</v>
       </c>
       <c r="Q215" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R215" s="21" t="s">
         <v>47</v>
@@ -21834,9 +21974,13 @@
       <c r="U215" s="19"/>
       <c r="V215" s="19"/>
       <c r="W215" s="19"/>
-      <c r="X215" s="19"/>
+      <c r="X215" s="19" t="s">
+        <v>1035</v>
+      </c>
       <c r="Y215" s="19"/>
-      <c r="Z215" s="19"/>
+      <c r="Z215" s="19" t="s">
+        <v>1036</v>
+      </c>
       <c r="AA215" s="19"/>
       <c r="AB215" s="19"/>
       <c r="AC215" s="19"/>
@@ -21858,10 +22002,10 @@
         <v>258</v>
       </c>
       <c r="B216" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>855</v>
       </c>
       <c r="D216" s="6">
         <v>0</v>
@@ -21891,19 +22035,19 @@
         <v>9</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O216" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P216" s="11">
         <v>5</v>
       </c>
       <c r="Q216" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R216" s="12" t="s">
         <v>47</v>
@@ -21941,10 +22085,10 @@
         <v>259</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D217" s="15">
         <v>1</v>
@@ -21974,19 +22118,19 @@
         <v>10</v>
       </c>
       <c r="M217" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N217" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O217" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P217" s="20">
         <v>5</v>
       </c>
       <c r="Q217" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R217" s="21" t="s">
         <v>47</v>
@@ -22003,7 +22147,7 @@
       <c r="X217" s="19"/>
       <c r="Y217" s="19"/>
       <c r="Z217" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AA217" s="19"/>
       <c r="AB217" s="19"/>
@@ -22013,7 +22157,7 @@
       <c r="AF217" s="19"/>
       <c r="AG217" s="19"/>
       <c r="AH217" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AI217" s="19"/>
       <c r="AJ217" s="19"/>
@@ -22028,10 +22172,10 @@
         <v>261</v>
       </c>
       <c r="B218" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>861</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>862</v>
       </c>
       <c r="D218" s="6">
         <v>0</v>
@@ -22061,13 +22205,13 @@
         <v>10</v>
       </c>
       <c r="M218" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="N218" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="N218" s="9" t="s">
-        <v>864</v>
-      </c>
       <c r="O218" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P218" s="11">
         <v>5</v>
@@ -22090,7 +22234,7 @@
       <c r="X218" s="10"/>
       <c r="Y218" s="10"/>
       <c r="Z218" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AA218" s="10"/>
       <c r="AB218" s="10"/>
@@ -22113,10 +22257,10 @@
         <v>262</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D219" s="15">
         <v>1</v>
@@ -22146,13 +22290,13 @@
         <v>9</v>
       </c>
       <c r="M219" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="N219" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O219" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P219" s="20">
         <v>5</v>
@@ -22196,16 +22340,16 @@
         <v>263</v>
       </c>
       <c r="B220" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>869</v>
-      </c>
       <c r="D220" s="6">
         <v>1</v>
       </c>
       <c r="E220" s="7">
-        <v>2.5938590637921548</v>
+        <v>4.5</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>83</v>
@@ -22229,13 +22373,13 @@
         <v>49</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O220" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P220" s="11">
         <v>5</v>
@@ -22253,9 +22397,13 @@
         <v>4</v>
       </c>
       <c r="U220" s="10"/>
-      <c r="V220" s="10"/>
+      <c r="V220" s="10" t="s">
+        <v>1037</v>
+      </c>
       <c r="W220" s="10"/>
-      <c r="X220" s="10"/>
+      <c r="X220" s="10" t="s">
+        <v>1038</v>
+      </c>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10"/>
@@ -22279,10 +22427,10 @@
         <v>264</v>
       </c>
       <c r="B221" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="C221" s="15" t="s">
         <v>871</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>872</v>
       </c>
       <c r="D221" s="15">
         <v>1</v>
@@ -22312,13 +22460,13 @@
         <v>9</v>
       </c>
       <c r="M221" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="N221" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="N221" s="18" t="s">
-        <v>874</v>
-      </c>
       <c r="O221" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P221" s="20">
         <v>5</v>
@@ -22362,10 +22510,10 @@
         <v>265</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D222" s="6">
         <v>1</v>
@@ -22395,13 +22543,13 @@
         <v>9</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O222" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P222" s="11">
         <v>5</v>
@@ -22445,16 +22593,16 @@
         <v>266</v>
       </c>
       <c r="B223" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="C223" s="15" t="s">
         <v>877</v>
       </c>
-      <c r="C223" s="15" t="s">
-        <v>878</v>
-      </c>
       <c r="D223" s="15">
         <v>1</v>
       </c>
       <c r="E223" s="16">
-        <v>6.0913059831680014</v>
+        <v>3.9</v>
       </c>
       <c r="F223" s="14" t="s">
         <v>83</v>
@@ -22478,13 +22626,13 @@
         <v>9</v>
       </c>
       <c r="M223" s="17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N223" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O223" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P223" s="20">
         <v>5</v>
@@ -22514,7 +22662,7 @@
       <c r="AE223" s="19"/>
       <c r="AF223" s="19"/>
       <c r="AG223" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AH223" s="19"/>
       <c r="AI223" s="19"/>
@@ -22530,10 +22678,10 @@
         <v>267</v>
       </c>
       <c r="B224" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>882</v>
       </c>
       <c r="D224" s="6">
         <v>0</v>
@@ -22563,13 +22711,13 @@
         <v>8</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N224" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O224" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P224" s="11">
         <v>5</v>
@@ -22613,10 +22761,10 @@
         <v>268</v>
       </c>
       <c r="B225" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C225" s="15" t="s">
         <v>884</v>
-      </c>
-      <c r="C225" s="15" t="s">
-        <v>885</v>
       </c>
       <c r="D225" s="15">
         <v>1</v>
@@ -22646,13 +22794,13 @@
         <v>49</v>
       </c>
       <c r="M225" s="17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N225" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O225" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P225" s="20">
         <v>5</v>
@@ -22682,7 +22830,7 @@
       <c r="AE225" s="19"/>
       <c r="AF225" s="19"/>
       <c r="AG225" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AH225" s="19"/>
       <c r="AI225" s="19"/>
@@ -22698,10 +22846,10 @@
         <v>269</v>
       </c>
       <c r="B226" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>888</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>889</v>
       </c>
       <c r="D226" s="6">
         <v>1</v>
@@ -22731,19 +22879,19 @@
         <v>9</v>
       </c>
       <c r="M226" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="N226" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="N226" s="9" t="s">
-        <v>891</v>
-      </c>
       <c r="O226" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P226" s="11">
         <v>5</v>
       </c>
       <c r="Q226" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R226" s="12" t="s">
         <v>47</v>
@@ -22755,13 +22903,15 @@
         <v>5</v>
       </c>
       <c r="U226" s="10"/>
-      <c r="V226" s="10"/>
+      <c r="V226" s="10" t="s">
+        <v>1039</v>
+      </c>
       <c r="W226" s="10"/>
       <c r="X226" s="10"/>
       <c r="Y226" s="10"/>
       <c r="Z226" s="10"/>
       <c r="AA226" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
@@ -22783,10 +22933,10 @@
         <v>270</v>
       </c>
       <c r="B227" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="C227" s="15" t="s">
         <v>893</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>894</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -22816,19 +22966,19 @@
         <v>9</v>
       </c>
       <c r="M227" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="N227" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O227" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P227" s="20">
         <v>5</v>
       </c>
       <c r="Q227" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R227" s="21" t="s">
         <v>47</v>
@@ -22866,10 +23016,10 @@
         <v>272</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D228" s="6">
         <v>1</v>
@@ -22899,19 +23049,19 @@
         <v>10</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O228" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P228" s="11">
         <v>5</v>
       </c>
       <c r="Q228" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R228" s="12" t="s">
         <v>47</v>
@@ -22949,10 +23099,10 @@
         <v>273</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -22982,19 +23132,19 @@
         <v>9</v>
       </c>
       <c r="M229" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="N229" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O229" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P229" s="20">
         <v>5</v>
       </c>
       <c r="Q229" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R229" s="21" t="s">
         <v>47</v>
@@ -23032,10 +23182,10 @@
         <v>274</v>
       </c>
       <c r="B230" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>900</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>901</v>
       </c>
       <c r="D230" s="6">
         <v>1</v>
@@ -23065,19 +23215,19 @@
         <v>53</v>
       </c>
       <c r="M230" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="N230" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="N230" s="9" t="s">
-        <v>903</v>
-      </c>
       <c r="O230" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P230" s="11">
         <v>10</v>
       </c>
       <c r="Q230" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R230" s="12" t="s">
         <v>47</v>
@@ -23115,10 +23265,10 @@
         <v>275</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D231" s="15">
         <v>0</v>
@@ -23148,19 +23298,19 @@
         <v>9</v>
       </c>
       <c r="M231" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="N231" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O231" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P231" s="20">
         <v>5</v>
       </c>
       <c r="Q231" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R231" s="21" t="s">
         <v>47</v>
@@ -23198,10 +23348,10 @@
         <v>276</v>
       </c>
       <c r="B232" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>906</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>907</v>
       </c>
       <c r="D232" s="6">
         <v>0</v>
@@ -23231,19 +23381,19 @@
         <v>9</v>
       </c>
       <c r="M232" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O232" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P232" s="11">
         <v>5</v>
       </c>
       <c r="Q232" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R232" s="12" t="s">
         <v>47</v>
@@ -23281,10 +23431,10 @@
         <v>277</v>
       </c>
       <c r="B233" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="C233" s="15" t="s">
         <v>909</v>
-      </c>
-      <c r="C233" s="15" t="s">
-        <v>910</v>
       </c>
       <c r="D233" s="15">
         <v>0</v>
@@ -23314,19 +23464,19 @@
         <v>53</v>
       </c>
       <c r="M233" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="N233" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O233" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P233" s="20">
         <v>10</v>
       </c>
       <c r="Q233" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R233" s="21" t="s">
         <v>47</v>
@@ -23364,10 +23514,10 @@
         <v>279</v>
       </c>
       <c r="B234" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>912</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>913</v>
       </c>
       <c r="D234" s="6">
         <v>0</v>
@@ -23397,19 +23547,19 @@
         <v>49</v>
       </c>
       <c r="M234" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="N234" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="N234" s="9" t="s">
-        <v>915</v>
-      </c>
       <c r="O234" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P234" s="11">
         <v>5</v>
       </c>
       <c r="Q234" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R234" s="12" t="s">
         <v>47</v>
@@ -23433,7 +23583,7 @@
       <c r="AE234" s="10"/>
       <c r="AF234" s="10"/>
       <c r="AG234" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AH234" s="10"/>
       <c r="AI234" s="10"/>
@@ -23449,13 +23599,13 @@
         <v>281</v>
       </c>
       <c r="B235" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="C235" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="C235" s="15" t="s">
-        <v>918</v>
-      </c>
       <c r="D235" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" s="16">
         <v>5.1640626338295803</v>
@@ -23482,19 +23632,19 @@
         <v>10</v>
       </c>
       <c r="M235" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O235" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P235" s="20">
         <v>5</v>
       </c>
       <c r="Q235" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R235" s="21" t="s">
         <v>47</v>
@@ -23506,7 +23656,9 @@
         <v>1</v>
       </c>
       <c r="U235" s="19"/>
-      <c r="V235" s="19"/>
+      <c r="V235" s="19" t="s">
+        <v>1040</v>
+      </c>
       <c r="W235" s="19"/>
       <c r="X235" s="19"/>
       <c r="Y235" s="19"/>
@@ -23518,7 +23670,7 @@
       <c r="AE235" s="19"/>
       <c r="AF235" s="19"/>
       <c r="AG235" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AH235" s="19"/>
       <c r="AI235" s="19"/>
@@ -23534,10 +23686,10 @@
         <v>282</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D236" s="6">
         <v>0</v>
@@ -23567,19 +23719,19 @@
         <v>8</v>
       </c>
       <c r="M236" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N236" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O236" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P236" s="11">
         <v>10</v>
       </c>
       <c r="Q236" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R236" s="12" t="s">
         <v>47</v>
@@ -23617,10 +23769,10 @@
         <v>283</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D237" s="15">
         <v>0</v>
@@ -23650,13 +23802,13 @@
         <v>49</v>
       </c>
       <c r="M237" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="N237" s="18" t="s">
         <v>924</v>
       </c>
-      <c r="N237" s="18" t="s">
-        <v>925</v>
-      </c>
       <c r="O237" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P237" s="20">
         <v>5</v>
@@ -23700,10 +23852,10 @@
         <v>284</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D238" s="6">
         <v>1</v>
@@ -23733,13 +23885,13 @@
         <v>49</v>
       </c>
       <c r="M238" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N238" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O238" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P238" s="11">
         <v>5</v>
@@ -23783,10 +23935,10 @@
         <v>285</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -23816,13 +23968,13 @@
         <v>10</v>
       </c>
       <c r="M239" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N239" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O239" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P239" s="20">
         <v>5</v>
@@ -23866,10 +24018,10 @@
         <v>286</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D240" s="6">
         <v>1</v>
@@ -23899,13 +24051,13 @@
         <v>53</v>
       </c>
       <c r="M240" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N240" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O240" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P240" s="11">
         <v>5</v>
@@ -23949,16 +24101,16 @@
         <v>287</v>
       </c>
       <c r="B241" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="C241" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C241" s="15" t="s">
-        <v>933</v>
-      </c>
       <c r="D241" s="15">
         <v>1</v>
       </c>
       <c r="E241" s="16">
-        <v>3.5257199475831502</v>
+        <v>2.1</v>
       </c>
       <c r="F241" s="14" t="s">
         <v>83</v>
@@ -23982,13 +24134,13 @@
         <v>49</v>
       </c>
       <c r="M241" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N241" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O241" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P241" s="20">
         <v>5</v>
@@ -24032,10 +24184,10 @@
         <v>288</v>
       </c>
       <c r="B242" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>935</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>936</v>
       </c>
       <c r="D242" s="6">
         <v>1</v>
@@ -24065,19 +24217,19 @@
         <v>53</v>
       </c>
       <c r="M242" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="N242" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="N242" s="9" t="s">
-        <v>938</v>
-      </c>
       <c r="O242" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P242" s="11">
         <v>5</v>
       </c>
       <c r="Q242" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R242" s="12" t="s">
         <v>47</v>
@@ -24115,10 +24267,10 @@
         <v>289</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D243" s="15">
         <v>1</v>
@@ -24148,19 +24300,19 @@
         <v>8</v>
       </c>
       <c r="M243" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N243" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O243" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P243" s="20">
         <v>5</v>
       </c>
       <c r="Q243" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R243" s="21" t="s">
         <v>47</v>
@@ -24184,7 +24336,7 @@
       <c r="AE243" s="19"/>
       <c r="AF243" s="19"/>
       <c r="AG243" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AH243" s="19"/>
       <c r="AI243" s="19"/>
@@ -24200,10 +24352,10 @@
         <v>290</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D244" s="6">
         <v>1</v>
@@ -24233,19 +24385,19 @@
         <v>8</v>
       </c>
       <c r="M244" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N244" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O244" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P244" s="11">
         <v>5</v>
       </c>
       <c r="Q244" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R244" s="12" t="s">
         <v>47</v>
@@ -24261,10 +24413,10 @@
       <c r="W244" s="10"/>
       <c r="X244" s="10"/>
       <c r="Y244" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="Z244" s="10" t="s">
         <v>944</v>
-      </c>
-      <c r="Z244" s="10" t="s">
-        <v>945</v>
       </c>
       <c r="AA244" s="10"/>
       <c r="AB244" s="10"/>
@@ -24287,10 +24439,10 @@
         <v>291</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D245" s="15">
         <v>0</v>
@@ -24320,19 +24472,19 @@
         <v>49</v>
       </c>
       <c r="M245" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N245" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O245" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P245" s="20">
         <v>5</v>
       </c>
       <c r="Q245" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R245" s="21" t="s">
         <v>47</v>
@@ -24370,16 +24522,16 @@
         <v>292</v>
       </c>
       <c r="B246" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="C246" s="6" t="s">
-        <v>949</v>
-      </c>
       <c r="D246" s="6">
         <v>1</v>
       </c>
       <c r="E246" s="7">
-        <v>2.9370350523635729</v>
+        <v>4.7</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>83</v>
@@ -24403,13 +24555,13 @@
         <v>49</v>
       </c>
       <c r="M246" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="N246" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="N246" s="9" t="s">
-        <v>951</v>
-      </c>
       <c r="O246" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P246" s="11">
         <v>5</v>
@@ -24453,10 +24605,10 @@
         <v>295</v>
       </c>
       <c r="B247" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="C247" s="15" t="s">
         <v>952</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>953</v>
       </c>
       <c r="D247" s="15">
         <v>1</v>
@@ -24486,13 +24638,13 @@
         <v>10</v>
       </c>
       <c r="M247" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="N247" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O247" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P247" s="20">
         <v>5</v>
@@ -24513,7 +24665,7 @@
       <c r="V247" s="19"/>
       <c r="W247" s="19"/>
       <c r="X247" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="Y247" s="19"/>
       <c r="Z247" s="19"/>
@@ -24538,10 +24690,10 @@
         <v>296</v>
       </c>
       <c r="B248" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>956</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>957</v>
       </c>
       <c r="D248" s="6">
         <v>0</v>
@@ -24571,13 +24723,13 @@
         <v>53</v>
       </c>
       <c r="M248" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="N248" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O248" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P248" s="11">
         <v>5</v>
@@ -24621,10 +24773,10 @@
         <v>297</v>
       </c>
       <c r="B249" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="C249" s="15" t="s">
         <v>959</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>960</v>
       </c>
       <c r="D249" s="15">
         <v>0</v>
@@ -24654,22 +24806,22 @@
         <v>53</v>
       </c>
       <c r="M249" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="N249" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="N249" s="18" t="s">
-        <v>962</v>
-      </c>
       <c r="O249" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P249" s="20">
         <v>5</v>
       </c>
       <c r="Q249" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R249" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S249" s="21">
         <v>3</v>
@@ -24704,10 +24856,10 @@
         <v>298</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D250" s="6">
         <v>1</v>
@@ -24737,22 +24889,22 @@
         <v>10</v>
       </c>
       <c r="M250" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="N250" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="N250" s="9" t="s">
-        <v>965</v>
-      </c>
       <c r="O250" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P250" s="11">
         <v>5</v>
       </c>
       <c r="Q250" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R250" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S250" s="12">
         <v>3</v>
@@ -24787,10 +24939,10 @@
         <v>300</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D251" s="15">
         <v>0</v>
@@ -24820,22 +24972,22 @@
         <v>10</v>
       </c>
       <c r="M251" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N251" s="18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O251" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P251" s="20">
         <v>5</v>
       </c>
       <c r="Q251" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R251" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S251" s="21">
         <v>3</v>
@@ -24849,7 +25001,7 @@
       <c r="X251" s="19"/>
       <c r="Y251" s="19"/>
       <c r="Z251" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AA251" s="19"/>
       <c r="AB251" s="19"/>
@@ -24872,10 +25024,10 @@
         <v>301</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>969</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>970</v>
       </c>
       <c r="D252" s="6">
         <v>0</v>
@@ -24905,22 +25057,22 @@
         <v>9</v>
       </c>
       <c r="M252" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N252" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O252" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P252" s="11">
         <v>10</v>
       </c>
       <c r="Q252" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R252" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S252" s="12">
         <v>2</v>
@@ -24955,10 +25107,10 @@
         <v>304</v>
       </c>
       <c r="B253" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C253" s="15" t="s">
         <v>972</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>973</v>
       </c>
       <c r="D253" s="15">
         <v>1</v>
@@ -24988,19 +25140,19 @@
         <v>8</v>
       </c>
       <c r="M253" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="N253" s="18" t="s">
         <v>974</v>
       </c>
-      <c r="N253" s="18" t="s">
-        <v>975</v>
-      </c>
       <c r="O253" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P253" s="20">
         <v>10</v>
       </c>
       <c r="Q253" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R253" s="21" t="s">
         <v>47</v>
@@ -25038,10 +25190,10 @@
         <v>305</v>
       </c>
       <c r="B254" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>976</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>977</v>
       </c>
       <c r="D254" s="6">
         <v>1</v>
@@ -25071,19 +25223,19 @@
         <v>10</v>
       </c>
       <c r="M254" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N254" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O254" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P254" s="11">
         <v>5</v>
       </c>
       <c r="Q254" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R254" s="12" t="s">
         <v>47</v>
@@ -25121,10 +25273,10 @@
         <v>306</v>
       </c>
       <c r="B255" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="C255" s="15" t="s">
         <v>979</v>
-      </c>
-      <c r="C255" s="15" t="s">
-        <v>980</v>
       </c>
       <c r="D255" s="15">
         <v>1</v>
@@ -25154,19 +25306,19 @@
         <v>9</v>
       </c>
       <c r="M255" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N255" s="18" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O255" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P255" s="20">
         <v>5</v>
       </c>
       <c r="Q255" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R255" s="21" t="s">
         <v>47</v>
@@ -25190,7 +25342,7 @@
       <c r="AE255" s="19"/>
       <c r="AF255" s="19"/>
       <c r="AG255" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AH255" s="19"/>
       <c r="AI255" s="19"/>
@@ -25206,10 +25358,10 @@
         <v>307</v>
       </c>
       <c r="B256" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>983</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>984</v>
       </c>
       <c r="D256" s="6">
         <v>0</v>
@@ -25239,22 +25391,22 @@
         <v>53</v>
       </c>
       <c r="M256" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="N256" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="N256" s="9" t="s">
-        <v>986</v>
-      </c>
       <c r="O256" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P256" s="11">
         <v>5</v>
       </c>
       <c r="Q256" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R256" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S256" s="12">
         <v>3</v>
@@ -25289,10 +25441,10 @@
         <v>308</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>987</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>988</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -25322,22 +25474,22 @@
         <v>9</v>
       </c>
       <c r="M257" s="17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N257" s="18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O257" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P257" s="20">
         <v>5</v>
       </c>
       <c r="Q257" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R257" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S257" s="21">
         <v>5</v>
@@ -25372,10 +25524,10 @@
         <v>309</v>
       </c>
       <c r="B258" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>990</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>991</v>
       </c>
       <c r="D258" s="6">
         <v>1</v>
@@ -25405,22 +25557,22 @@
         <v>49</v>
       </c>
       <c r="M258" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N258" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O258" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P258" s="11">
         <v>5</v>
       </c>
       <c r="Q258" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R258" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S258" s="12">
         <v>4</v>
@@ -25455,10 +25607,10 @@
         <v>310</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>993</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>994</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -25488,22 +25640,22 @@
         <v>53</v>
       </c>
       <c r="M259" s="17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N259" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O259" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P259" s="20">
         <v>5</v>
       </c>
       <c r="Q259" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R259" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S259" s="21">
         <v>4</v>
@@ -25512,11 +25664,15 @@
         <v>5</v>
       </c>
       <c r="U259" s="19"/>
-      <c r="V259" s="19"/>
+      <c r="V259" s="19" t="s">
+        <v>1041</v>
+      </c>
       <c r="W259" s="19"/>
       <c r="X259" s="19"/>
       <c r="Y259" s="19"/>
-      <c r="Z259" s="19"/>
+      <c r="Z259" s="19" t="s">
+        <v>1042</v>
+      </c>
       <c r="AA259" s="19"/>
       <c r="AB259" s="19"/>
       <c r="AC259" s="19"/>
@@ -25525,7 +25681,7 @@
       <c r="AF259" s="19"/>
       <c r="AG259" s="19"/>
       <c r="AH259" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AI259" s="19"/>
       <c r="AJ259" s="19"/>
@@ -25540,10 +25696,10 @@
         <v>311</v>
       </c>
       <c r="B260" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C260" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>998</v>
       </c>
       <c r="D260" s="6">
         <v>1</v>
@@ -25573,22 +25729,22 @@
         <v>49</v>
       </c>
       <c r="M260" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N260" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O260" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P260" s="11">
         <v>5</v>
       </c>
       <c r="Q260" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R260" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S260" s="12">
         <v>4</v>
@@ -25623,10 +25779,10 @@
         <v>312</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -25646,10 +25802,10 @@
         <v>9</v>
       </c>
       <c r="M261" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N261" s="18" t="s">
         <v>1001</v>
-      </c>
-      <c r="N261" s="18" t="s">
-        <v>1002</v>
       </c>
       <c r="O261" s="19" t="s">
         <v>45</v>
@@ -25696,10 +25852,10 @@
         <v>313</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D262" s="6">
         <v>1</v>
@@ -25719,10 +25875,10 @@
         <v>9</v>
       </c>
       <c r="M262" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N262" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O262" s="10" t="s">
         <v>45</v>
@@ -25769,10 +25925,10 @@
         <v>314</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -25792,10 +25948,10 @@
         <v>9</v>
       </c>
       <c r="M263" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N263" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O263" s="19" t="s">
         <v>45</v>
@@ -25842,10 +25998,10 @@
         <v>315</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D264" s="6">
         <v>1</v>
@@ -25865,10 +26021,10 @@
         <v>9</v>
       </c>
       <c r="M264" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N264" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O264" s="10" t="s">
         <v>45</v>
@@ -25915,10 +26071,10 @@
         <v>316</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>1009</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>1010</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -25938,10 +26094,10 @@
         <v>8</v>
       </c>
       <c r="M265" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N265" s="33" t="s">
         <v>1011</v>
-      </c>
-      <c r="N265" s="33" t="s">
-        <v>1012</v>
       </c>
       <c r="O265" s="19" t="s">
         <v>45</v>
@@ -25983,195 +26139,240 @@
       <c r="AN265" s="19"/>
       <c r="AO265" s="19"/>
     </row>
+    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A266" s="5">
+        <v>317</v>
+      </c>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+      <c r="M266" s="8"/>
+      <c r="N266" s="18"/>
+      <c r="O266" s="10"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="11"/>
+      <c r="R266" s="12"/>
+      <c r="S266" s="12"/>
+      <c r="T266" s="13"/>
+      <c r="U266" s="10"/>
+      <c r="V266" s="10"/>
+      <c r="W266" s="10"/>
+      <c r="X266" s="10"/>
+      <c r="Y266" s="10"/>
+      <c r="Z266" s="10"/>
+      <c r="AA266" s="10"/>
+      <c r="AB266" s="10"/>
+      <c r="AC266" s="10"/>
+      <c r="AD266" s="10"/>
+      <c r="AE266" s="10"/>
+      <c r="AF266" s="10"/>
+      <c r="AG266" s="10"/>
+      <c r="AH266" s="10"/>
+      <c r="AI266" s="10"/>
+      <c r="AJ266" s="10"/>
+      <c r="AK266" s="10"/>
+      <c r="AL266" s="10"/>
+      <c r="AM266" s="10"/>
+      <c r="AN266" s="10"/>
+      <c r="AO266" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S265" xr:uid="{8F826A66-F8FC-4060-810B-D01DFC8903D0}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S266" xr:uid="{C7480C29-6069-47E9-8E03-340DD50E74D5}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L265" xr:uid="{99088200-2513-4C6C-9128-A585CA31AC93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L266" xr:uid="{392C831F-6CE3-4FCD-8148-FB9FEFB3B1AD}">
       <formula1>$BA$19:$BA$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F265" xr:uid="{5317141B-E0AA-4FC3-BBE2-3B27B610E21D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F266" xr:uid="{0467271B-4DB9-4300-9D9D-6334013C3E4E}">
       <formula1>$BA$13:$BA$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R265" xr:uid="{EE8EDB83-616B-45CB-AD9D-60C9E7CEBFCD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R266" xr:uid="{F4619AF5-BBCF-4653-A722-2DD273F5E572}">
       <formula1>$AX$7:$AX$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q265" xr:uid="{8036D6C7-0411-4AA9-94CD-1CA58604B9D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q266" xr:uid="{EEE415A3-E633-49F9-9215-4DCBAD170D2E}">
       <formula1>$AY$7:$AY$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{104D8263-FA32-4E39-BF70-D8321CD95560}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{488F4D5B-150B-48D6-A201-BBDCE71C2C0B}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{1635AFE1-7020-4155-AAA7-382714D3567F}"/>
-    <hyperlink ref="M25" r:id="rId4" xr:uid="{5044B43B-7DDE-4360-8291-A7A1C25595ED}"/>
-    <hyperlink ref="M26" r:id="rId5" xr:uid="{DCC2A43E-4A0F-4F00-911C-18D174C9B7B9}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{B728299F-92BE-413B-9E98-9F34ECADC7B9}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{99AF4A53-AF6B-45C1-8E6E-06989D2FC450}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{4A1AE454-707B-45D2-98A9-5D00A50161EB}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{336CF57C-10AE-478B-9950-9D634FD743A5}"/>
-    <hyperlink ref="M31" r:id="rId10" xr:uid="{1E7AD2D2-AD66-4666-BCDD-D197E0DAB2AF}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{01771707-5FA1-4E42-AD2B-FEF9A6582DCF}"/>
-    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{46C65312-9A51-4B74-A9AD-FE8A70F4C059}"/>
-    <hyperlink ref="M34" r:id="rId13" xr:uid="{47A8D210-A600-42BC-9DCE-D501CE022CAB}"/>
-    <hyperlink ref="M35" r:id="rId14" xr:uid="{ADEF610F-C392-4C7F-9E45-193801A55A1F}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{A8CA08C7-D06D-468A-82FD-F9E8EE42F479}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{DC10B0FD-0B6A-4EAB-BC71-615B8430BA26}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{67F25E55-952E-4BA3-BEEF-EB9843BD0905}"/>
-    <hyperlink ref="M43" r:id="rId18" xr:uid="{96A6FE0E-FC89-40E1-BD73-3D84225AA858}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{FFE7A278-2157-42AD-90B3-FA974A6D8B4D}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{03305C92-28C3-46CA-BC2E-2CD9E38731FD}"/>
-    <hyperlink ref="M55" r:id="rId21" xr:uid="{92D024DB-A6AB-42EE-84EF-B6C5702F04E2}"/>
-    <hyperlink ref="M56" r:id="rId22" xr:uid="{17A19407-4722-4D86-828B-299979A3E878}"/>
-    <hyperlink ref="M57" r:id="rId23" xr:uid="{A7F45BBB-6EE7-42DF-8F0A-6D870AD8F499}"/>
-    <hyperlink ref="M58" r:id="rId24" xr:uid="{EC00AD7E-7924-4943-B043-8EC8BA2D5C1D}"/>
-    <hyperlink ref="M59" r:id="rId25" xr:uid="{8DE49396-7AEC-4C89-8D85-5FEDDE803643}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{DCC645EE-F1D4-4BCC-92BC-4DF8992BE261}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{1318562C-2794-4D2C-BEB9-7C42D0B323D3}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{CC4B80F2-8C31-4C98-8690-F561070F721E}"/>
-    <hyperlink ref="M77" r:id="rId29" xr:uid="{7366461C-C17E-4D3C-8BFE-D48DDED28656}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{94A42F97-5143-46DC-B42F-EAC20F0A9276}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{57437A39-8D62-4609-B2FB-4E9DAF9FC95F}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{8587793B-8DE2-413E-A318-D4C178349F40}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{64643B9B-9C28-4D4D-A12D-FA5F9E352484}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{19F56206-E3E8-4585-A397-0A9905E2CC75}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{83E3C0FE-5CE7-48CD-98F2-3CECBC98A332}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{74CDFA15-0FB4-445C-BDA5-BB7677427697}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{0BCCC6A2-7971-42A7-9E33-DE29D747D2C3}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{5E71D780-41D4-436C-8957-247251BACDB4}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{D6724083-DE73-4AE6-B05C-BE8DB49A6F8B}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{5B942DA9-6443-4F22-9A3E-5D88D85002F5}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{A0F5C2CC-C253-4D30-9D9C-A67E2E83FAA0}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{1D83681F-B72F-426D-8FC0-101E34C9CD71}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{32520A30-E869-4278-9EF9-822561982FA2}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{AAEB39A9-F7B2-4E71-BC09-0F60519DA839}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{5BBCE3FC-E655-4FEF-B67B-079C4A74EACD}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{B7EF6E47-E8E0-433F-9E6E-B058B6052703}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{CD015AD5-663F-4A4A-B1A3-A80E90FCBE37}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{67569614-0D84-4582-A278-057D0C011F47}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{880EE921-F4CD-4CAC-9C62-C579CB973362}"/>
-    <hyperlink ref="M53" r:id="rId50" xr:uid="{872E8BA3-65BA-499C-A7FC-739169523907}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{34192A70-F6E6-442E-BC48-8DC196A7E7BA}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{3FB1C106-7252-4EA2-A801-7F8DE7826F76}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{6814ED75-EF22-4D8F-BA9D-AE59A1BECD2D}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{4D726ADF-006F-4CF5-892C-DB1F134AD2E8}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{9DB6E852-141C-47B1-9DA6-643CCAA08D11}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{1BC82985-20D9-4BE4-8812-5D423AAFB6D1}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{393C2CA4-3F8B-4E16-811A-D36BAA2F091A}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{A38996AE-EF36-4D23-95C9-6D50D99F7989}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{121B345B-A076-4F71-B517-89BDE8E877D0}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{64AFD017-389B-4CE0-AF3E-0235299FF2C8}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{473ECCF7-F2CA-40CA-A9B5-B9E928E88CA8}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{A7A3E349-1986-441D-B681-B147DA4A5E36}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{BE8296BE-1107-4B3A-BCBB-D59191EEB378}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{81FCC038-6380-42DF-99AC-F9ADEB304CF3}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{27DD6AB5-8422-44F2-8942-52AECCAFB5E7}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{4E6F940C-0B38-4F3D-8FC3-71D5167A7495}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{599FCB8D-787B-40F8-9322-D6DD9BBEB043}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{152C2272-261B-426E-8348-73D8A357FF0A}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{1F00D945-D538-4556-A159-3BCBA26ECB97}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{B6CD98F8-013C-4F1B-B702-56022AA78E8C}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{8AA8653E-1F21-4F0D-BDE4-14601CF15749}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{926BFCE1-92B0-4AA5-8D22-940F59CFAE1F}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{97A96C98-E791-45D0-9F39-E5F43CE1B755}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{42F312D4-A169-4AF0-99D5-512B946AC355}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{9CEF6FFC-F1DB-4889-AC32-5F1F46807538}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{4E6E0BED-69F7-4B38-9D25-AC87CE1B0056}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{CD57F375-8CB3-43C1-941F-B6B1873C769F}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{53A46117-D700-4990-BA97-CAF3E1343899}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{554F3153-F6D4-4C25-BC1E-19529C82695B}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{4F7D0DC2-A874-48CF-852C-1D8AC888C5B1}"/>
-    <hyperlink ref="M93" r:id="rId81" xr:uid="{FCC00351-E210-41BA-A672-AF72CF5F0BE9}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{0AEDA9BD-E3F8-407F-B897-6056BF14FCD6}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{B06BCFC7-523A-4A36-8DCD-C21344C1CF9A}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{8B9AEE86-AD2C-4693-86F9-6FD278120120}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{5BF08639-A647-41F6-B0F5-4CB1F0B139C1}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{5038AD48-11B4-44B5-8A9A-0FF4D4926FDD}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{FAC53325-08A6-4399-ADC5-B8994459C342}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{226AFEFB-4473-4D95-A4B8-202D95A41126}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{E4AABF06-B9F0-4CD9-82C2-3FF7181E4555}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{1A5C17AF-FF87-49B0-9C70-0FE37B5075A0}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{F69F568C-7BB1-4058-A476-1E34B0E7C8B1}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{37CB9CC0-1323-4478-BCD2-21D60D1D8658}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{5927835A-16E7-4282-B258-85A8F51F2BCC}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{BB0B3D7F-FC24-4D12-9AC5-7262139510CD}"/>
-    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{CD521C84-96FC-4502-B4F5-F0A84E1FA9E6}"/>
-    <hyperlink ref="M38" r:id="rId96" xr:uid="{997EB56B-E035-42FB-B7DC-17ACCC7CECE6}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{AA0DCCBD-4D23-4276-8026-9B3C5EE2871E}"/>
-    <hyperlink ref="M91" r:id="rId98" xr:uid="{5E260339-B1E7-4173-A635-F463C07E4A29}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{8CD8A943-4EF2-4974-A1B8-2FFE1BE46098}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{1434312E-B12B-4787-B47B-190A27B53586}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{6F2A43DB-73C8-41A3-B66C-73828DFDAE1F}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{FA2608DD-85FF-457E-B6C3-CFAC5E4ED6F4}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{ADB15CD2-3D82-41D2-8498-2E56A615270F}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{049970DF-CF69-43EB-892D-73DE81848FA0}"/>
-    <hyperlink ref="M41" r:id="rId105" xr:uid="{69ECAD26-F099-427E-8EBE-1AA1935439CF}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{546320F2-A303-4462-BDD0-2F90EB141BEF}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{5BB651AA-9B90-49B2-A44A-E8F855C5C582}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{C0364F3F-E8A3-4AB1-B7E8-873E8349C504}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{BFD8A65F-800F-40AC-8448-2513B23831B5}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{B1E9B3E3-5794-4657-B51F-7E756F6063BF}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{FD1A9988-5749-44DC-891A-CA410BDDFAFA}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{E944B7FC-4D0E-424B-A1F2-CB3F458359EE}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{33A73DB7-AB52-47B7-AD3F-CBA11D58FE1E}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{B9836893-E904-47E6-9336-28EE424A1846}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{2EFA416B-B106-4C7D-BCBC-E5078F1D4958}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{5043AD35-74B8-46EE-B789-F5A384EE6AFB}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{18AE71C8-E076-4A1A-B433-DA7BCF3CA071}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{A17ACA54-56D5-44CC-984B-D088036F5905}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{CE269C0C-D2ED-404F-8E89-1A572B1B935C}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{13A719D0-C1F2-46F6-908D-700B1536C8E2}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{28800D8E-999F-45CA-A50C-5F8C62FDF06E}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{22A85EFA-B0F8-42FB-A308-D91355F5D12D}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{5B18D6BE-210A-4962-B89F-C94C5C2BE751}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{C2C55A1E-FE3C-4939-9793-37630C2845C5}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{886C998D-8771-4A2C-8EF9-42343AAEB63B}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{59000151-4AF9-4220-A525-90A420263D45}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{A5811C7F-6172-440B-9E1A-406F2F7BCF94}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{A1F14F67-E1B1-4BC5-9F8B-5E6AEC6DC876}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{B5535115-2A63-47DE-ADFC-205D74F432EF}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{38B6D12F-746C-45F2-A68A-4B0A2246DFE7}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{8BC96E9D-A223-459B-8657-C7B18E3BF907}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{313024B3-C721-43AC-A034-ACFD57036F95}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{9EAACE07-2C53-46F1-A5A1-647E57AD2F48}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{D014EBD0-DC75-4256-9105-928F3F3A056B}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{426D503F-A5D0-4D0C-ABD1-3126158A8C7E}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{B26C2569-8025-4088-9BB2-44B3A17245E8}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{A534729C-9C68-4884-B031-21E867E2BAB5}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{4688B2EA-EBFE-4BAD-A9DA-AB6E5C86436C}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{856C3641-BABB-4888-A60E-CD2D431F8442}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{91071041-C983-4884-A25F-159C4D20FDB6}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{0067A5A3-CF6A-4908-804C-1775CD927A87}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{DACB7BDB-8AA5-4177-9D50-F22737C837E0}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{556EE52A-8576-4A44-80C4-41E7823BF7FF}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{72DAACC4-23C3-4A10-B611-826676FF2788}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{9E30F2D6-CD2F-48A6-8F0E-03690FCC1CBF}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{C7A648F3-9C88-40AE-A879-DAF8845BCE22}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{DAAE57A6-82E5-4B53-B7EA-ACA42DC98403}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{5F07432C-72A7-472D-BA9E-C5EACF2390D1}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{2C5EEC9D-F4D1-4979-9026-A5BFF7189A35}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{1D094CB3-0579-4CFD-A998-0AB0729C6945}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{8C89BF0E-D5FF-4CAF-AF79-BCA1C04315BA}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{86C5CC76-2D98-4962-95BC-694D3E68AA7D}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{193540B2-95B7-4D03-A2DA-AE109C5AC532}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{F652B8E6-1A2F-40B9-81A8-675B5D94D64B}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{4BD204A6-39B6-484A-BD17-6CE13D1B2AC2}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{A8F42629-1B4C-4F4B-9583-90F54F9165F4}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{FB6F3281-5D0A-4D05-8D23-E2AF6509EBFA}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{A5A1DA39-648B-480F-ADCD-4BDAD0362768}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{DD059252-7D75-46DA-AD94-3DD40812C029}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{79C91280-468B-4BED-A889-008057BD8800}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{1C370825-6A67-460A-94B9-F96A06FE9A35}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{5E0C2F21-D708-4AD7-802F-D4D78635D0E0}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{4BDA6C1A-489A-4498-A87D-460D22F58F5D}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{9DC196CE-154A-4AE4-9E2B-D9B47165297E}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{0F89A984-EB43-4151-A14A-1792E4628BFF}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{4E0636C8-C2D6-4959-8375-3ABDB3E335BC}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{DB407349-51D9-48A4-9E3B-7E1B2752862C}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{22A54BC9-1E04-4491-94A9-8B319BF6D8B3}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{E536B664-D7E5-4F18-840E-21E98A6F3462}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{3CA87BC0-F62E-42C0-8F16-BEA5D69AC957}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{FCED23AA-D3F2-41FF-8AC6-136CA15EBB7B}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{F97A89E0-3CDE-4C99-BA76-B0F96067E945}"/>
+    <hyperlink ref="M25" r:id="rId4" xr:uid="{80796C11-2E66-4D84-BD63-66F7E96EDD65}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{C7EF462F-2284-4F2C-8C59-4AB7CBE5DF97}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{AB07A53C-914D-4C46-A9CD-E67EF6142127}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{DE365E88-95B6-4645-95E6-C91E76FAB017}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{9D35E450-68BD-471C-85C3-2A05D584314D}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{36CF4F44-C4FF-42A2-9B65-06923C49A861}"/>
+    <hyperlink ref="M31" r:id="rId10" xr:uid="{0EA0FA58-A2DD-4043-ADD3-B87F27DF617C}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{C7A00E17-48CD-467B-A7C0-ABCBE7E705CD}"/>
+    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{F3CD2330-4D99-4790-AB50-7C1946E2ABF9}"/>
+    <hyperlink ref="M34" r:id="rId13" xr:uid="{DDB2DDCB-813A-4A05-B5DD-EAE2C1AD380F}"/>
+    <hyperlink ref="M35" r:id="rId14" xr:uid="{966DEDC2-69A9-469A-A006-3DD3859F04D2}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{A6B5C288-96A4-4528-8A6A-99C2078A0426}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{B4DB3863-8607-42B3-A286-2335144D003F}"/>
+    <hyperlink ref="M42" r:id="rId17" xr:uid="{16699D1B-D5E7-4065-85D8-8ADD911CB782}"/>
+    <hyperlink ref="M43" r:id="rId18" xr:uid="{B3B5B9BD-4721-4CF1-9609-03393BD70FB0}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{523C89B6-CFE7-42AE-B379-7676FA88CDC1}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{272EBE36-2175-420A-A894-83C650D2A1B2}"/>
+    <hyperlink ref="M55" r:id="rId21" xr:uid="{F43DEC47-EE37-42EA-9746-7723F8FED9A3}"/>
+    <hyperlink ref="M56" r:id="rId22" xr:uid="{2C3F127C-4E2F-4B22-B08B-2812E3EF1500}"/>
+    <hyperlink ref="M57" r:id="rId23" xr:uid="{23205DE4-8994-4481-AE82-842B2598E662}"/>
+    <hyperlink ref="M58" r:id="rId24" xr:uid="{51AA718C-6AC4-46BA-9CFA-59FBF5539855}"/>
+    <hyperlink ref="M59" r:id="rId25" xr:uid="{53441A9E-FF87-4C98-BF4E-07A5D2AD5209}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{3F56954B-1819-4A5B-8D87-ACF413B24E27}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{B0B88585-F080-40D0-AFFB-2CA6C86E5382}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{3501F1F0-B165-42EE-AC2D-3C3FEDC5A9E2}"/>
+    <hyperlink ref="M77" r:id="rId29" xr:uid="{70CB0990-0106-4D43-A27C-DC600DB75907}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{B7995ED0-ABF4-4AF2-812F-444991B1CD9D}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{81E378E8-73E2-42FF-A6DA-5DEEF815990C}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{707F6CEC-EAA4-4504-9876-14D2962A8D57}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{3CFF6B15-756B-447A-A93B-5C354AD0980C}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{D3EDEABF-C9BF-4128-AB8B-A726091A4EB9}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{149DE7FE-BAAC-4657-A8EC-D67950D550D5}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{5DE151E8-5641-4B5F-8345-A25A4206269F}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{64AFB92C-6F89-4FE6-99EA-5F5C0B0F6A75}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{3E74BDB9-0BFE-4F4A-BC4F-4D090C413C48}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{3F3A11AB-1F30-45D7-A91E-78B6456DEDD0}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{BEF87CDC-6EED-4AE6-B4DA-603724D240D2}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{8D2476BB-BBDC-4F76-AF85-B3C4B99342FC}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{D521801B-5D65-4ABD-B4C7-171A473F8BC1}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{6DAD81B4-C2EE-4660-B6B7-2461179E8A90}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{34E3F2E3-6AA8-4AA5-B47F-D5E860D4338A}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{2A58CECB-4C2E-4153-A632-4A3D71569B92}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{77927B7C-9BA4-446F-BCDF-5AC8860B1286}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{F32221B2-A87A-4CFE-BD28-E846E4D76A34}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{3985093E-9A41-4D07-AA3E-01DE8C92DC9C}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{6AF0EFF7-2E36-4EC4-AB3F-54468EC1EE44}"/>
+    <hyperlink ref="M53" r:id="rId50" xr:uid="{1C5678DE-7F50-4DF0-9DE0-82E471223918}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{8F49AF90-FD21-4ED9-AB35-697837CBDF80}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{02D4BA90-9746-407B-8961-7BDC046AF555}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{FBD65FEA-BC39-47FF-BEE9-310C1E79CC2A}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{2B15DCBC-A92D-4FD3-9F53-881E97C73C67}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{B1C59DFF-214A-4366-B137-48D8921DBB3D}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{BBDED816-F046-41DA-9ECF-67C8FE7FBBB6}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{F885A19C-27B6-4492-801F-D4352E841F0D}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{F3916C76-63E7-41B4-AA52-288A4F388273}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{919AB0F9-6D15-4F70-AFEA-E85B65D5FED8}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{4C3709A4-C01D-4E9A-A76E-1A17D7CF0456}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{0277714B-6D82-4834-A107-2E2D52CD2A48}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{88F4B107-01FA-4E5D-8BD2-782055411B34}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{C5B35456-5BCA-4F2F-AD0E-6B9DBAA11A05}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{84C96862-600D-4FB4-AEE0-4D11D41EC548}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{3C265299-D8E3-4E4A-AC26-F86653ECF2CD}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{7A987058-051C-4606-AD74-BF7FC743720B}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{70928612-3AA5-404E-99B1-89DB02CD30E2}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{665BA612-5508-4271-95BF-F9B9C20F54F6}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{3CEA72C1-A57C-4495-8235-1C54A8CF6C59}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{3152E84A-F82B-4F9A-8489-696AE5AF8070}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{F365598B-857F-461B-9645-D6B02BF10325}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{93D15C4C-4CDF-41E5-9496-EF69854319C4}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{E1F35131-2EE9-4A6B-8803-CC856ADF9490}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{A67A00A5-336A-4D94-9911-738D73BF7EC3}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{D4EF4B90-C5B7-4A82-8B14-850B31E6E3C6}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{4E2D98DA-C2B9-49AC-9166-9B9BDFDB5919}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{6BE6F084-5C94-4FD3-BFEB-737EF7A3DD43}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{EE9BB518-1BF3-4EDE-994D-434F5181088E}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{17FF7CB3-5476-421A-8C9B-E74D8C6D4275}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{2FC1E54A-980F-4DD0-8A15-03A9A863E108}"/>
+    <hyperlink ref="M93" r:id="rId81" xr:uid="{84A32339-4C16-4D46-8DC2-0754A4EFAEE9}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{A0C9E2B8-F034-4412-9077-5E068763A9C2}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{7A2FFE1C-E282-421A-8D77-67D00AA15CD0}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{9F2C2A48-DE88-4A59-BE20-D277A05F511D}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{C7598A29-1F26-4B12-BA70-278908AF30ED}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{EC13A221-096A-4129-BAAA-648CDDA29516}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{1F53A148-566F-49F1-906E-F7DDBA07579D}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{785BD01B-333C-4D93-BE73-F8F4A49FFC6E}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{8F430E7B-0833-41B7-BC62-F6AE5F118717}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{66299E9C-D904-4A17-9D0D-D5DFDB4B930F}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{4691BDDE-815A-4D43-862D-9DE2EE946C9D}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{D2172F2F-761D-480C-BE27-A8CDB5140F84}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{F245143D-1044-48BC-905D-02D8553BA5CC}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{D1453F39-3912-49E1-9DFC-9A5764FCEB3E}"/>
+    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{B7650BA3-C988-4823-B5E4-5F57E4091531}"/>
+    <hyperlink ref="M38" r:id="rId96" xr:uid="{64D6E667-5E34-45A1-9A94-64BDFDE38FE5}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{042D37C8-185A-40D2-B37A-7886A4E8269F}"/>
+    <hyperlink ref="M91" r:id="rId98" xr:uid="{5544D6B3-2FC1-4742-A19E-9E36E16AB601}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{466BBA2F-431C-4C6A-A99E-69B3BD9A64E9}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{4B5D685E-D958-4EB4-8F21-951015D07AD3}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{4E6D1E8A-408E-49BF-8C6F-A7E990BD08A1}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{3C05F73C-C197-4B5E-839E-1484371D5716}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{4EB1CDF6-F23E-423C-8F96-CFEA45D039CB}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{020DF784-B776-4D09-9B6A-36E4EB022B9F}"/>
+    <hyperlink ref="M41" r:id="rId105" xr:uid="{29D60C17-04F3-48CB-9A29-3C2602DA08B0}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{61766BEE-A3DE-4914-961F-28131FB74E14}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{65885098-F489-4CD3-AF9F-A5F7A8D0E84E}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{5EB3A7AA-9B86-4FEB-901D-CF0F4FDC6F14}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{5B412292-2863-4300-9097-9F413B923B12}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{277151EB-1ED3-48DB-B63B-BD7EB27BA5FB}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{B8A1A881-73E3-4E79-B563-157BC0DDBDAD}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{6D1AF8D1-27FD-4538-ABA0-E44A187E0580}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{6957FF92-FACA-45C7-90E5-70F19049E610}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{513B12FF-AC69-49C6-89F5-DD35257980F8}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{3C437731-DAA5-46B8-BAE3-F378C6AB85A7}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{007665C7-791E-4649-A1B8-4529BDE738D4}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{54C74B12-60F7-4521-B7DF-BD7A759A3A41}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{29665E3C-0158-47CB-BB8F-1903114827CC}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{9BEFCB76-1E9B-464F-9995-5BB29E497C57}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{9A01E977-73F4-42EE-9431-897E762E0BCD}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{7DB2AA7E-F1F0-40A2-8D83-8A453DFA0FB8}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{1E5957F8-D0BB-47A5-86D3-2837317DF892}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{00263593-CE0D-4B29-B674-966A2CDE3EBD}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{C68CA609-72A7-4739-B95E-FE3B5C873775}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{3BCEA0D1-27F5-453D-885C-87709BB2A73A}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{7E64A3D2-9B0B-4BA6-AE47-0DC79C06E40F}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{16ECDB4A-AAB7-4FE2-8E8C-50948FB97B73}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{AB803BF5-D75F-4F45-AF28-006A80D54934}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{08546C36-D505-47F5-9971-8688FA744DDC}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{458C5E38-1122-45EB-A077-CCAEBF0AA132}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{FFAB2585-C89F-466C-A6EC-3EEA79F2C27B}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{20FB1551-98D7-4C65-8B01-D2B5DE90D869}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{5A8A6083-0A83-47FA-8FFE-AE530F531041}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{AC151E6D-89AF-4E02-995B-6A04D33530A1}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{369A7971-43FD-4D72-9076-A81A1317B95A}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{93263D2D-F597-441A-BDDF-2C5C574A658F}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{05E879F8-69D7-428E-8E49-6DB510BD915D}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{AE45C12E-120C-4A4F-9250-65A7AC02335D}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{60EB33EB-0777-45FE-A22F-9CC122776A16}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{12BA235B-833D-442C-9D4D-9206FA7EE8E7}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{28213743-880F-451C-9848-2728D4066022}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{3D5AB8FA-0802-42DE-B429-9D1DED037A00}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{47F590F9-57ED-4620-9DEE-A9AD9C452350}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{939A73BE-27A2-4E53-B7BD-45451EE0881C}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{09B5C825-1713-4FF9-A6E2-E10ADDC33764}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{F2771814-A029-4CED-AC4F-39628039775B}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{20B46645-C2A7-4D13-B785-38C22BC19045}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{ACDE65E7-D310-45C9-ABF7-FD94A43AAA73}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{978D434A-F3B7-4B8D-8C93-24F6B1C6BF23}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{AB4E98DE-1C3E-4A14-A78C-9AB40F4544D0}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{1529E714-A736-4D51-91BB-73A4F0C9C5CB}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{2DBB9D20-372F-40CD-8F00-F68A7F8771A9}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{95279E57-9418-4E1A-95E4-0EF704495231}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{0BDD2A2F-A538-4A1D-8670-10BAEBE32F20}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{29DBB980-2EB8-44B7-BA4E-D0C698F5EA28}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{49C5F6B4-33A7-476D-8F99-18ED252DA179}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{DD4F4E95-A536-428C-A4DC-E06EBA144C6E}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{A28D22FD-2A34-4A81-BCE8-11B9ECCB4BA1}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{E220E748-12AF-4773-B06D-1DE4C70FCBCA}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{7F83E165-ABB9-4DBB-ABF9-CF40E3AA9732}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{2967EF24-7EEC-41DA-8FD5-ACAA73F6D563}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{B63D08BC-D8AC-49AB-BA3A-1EEDE1B9F7CB}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{7BE31751-7EC0-4571-B5A7-5ABF7999A434}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{855A44D4-17A2-47FC-AFE6-BEB7A096D20D}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{65E71EB1-2FA2-4621-AA9A-9D1BF60B4AA7}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{ADFBE85C-B4B4-48AE-A4FE-6AF1F4C2895E}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{E484837B-E6F6-4BC5-BEFE-A56CE00632DB}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{7DB45C4D-E383-4B05-85E4-FEBAE2D1D7CB}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{F0D75F1E-AC84-4EE9-A864-45C54C58FCEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId170"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EDA9C7-06BB-41D3-94BF-84E1ADCD8719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBCB653-D9EF-4066-8546-B9647AF26EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-28920" yWindow="2745" windowWidth="29040" windowHeight="15840" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={20C9B810-B617-4203-B77A-9C84A0F651CC}</author>
-    <author>tc={1CF653B6-249F-4D8D-B00C-5BA64D56111E}</author>
-    <author>tc={A3B54EB1-8876-47EA-9974-092EB7CD2903}</author>
+    <author>tc={4C9A26F9-8661-493A-9DC2-43013E8DBE1F}</author>
+    <author>tc={2255AA9B-9D1A-49C1-9F72-C368E06AB315}</author>
+    <author>tc={F1E86665-71BC-4502-BD81-9C27448B27E8}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{20C9B810-B617-4203-B77A-9C84A0F651CC}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4C9A26F9-8661-493A-9DC2-43013E8DBE1F}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{1CF653B6-249F-4D8D-B00C-5BA64D56111E}">
+    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{2255AA9B-9D1A-49C1-9F72-C368E06AB315}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{A3B54EB1-8876-47EA-9974-092EB7CD2903}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{F1E86665-71BC-4502-BD81-9C27448B27E8}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1088">
   <si>
     <t>Nr.</t>
   </si>
@@ -3313,12 +3313,18 @@
     <t>The trend of Everything as a Service, otherwise known as ‘XaaS’ or ‘Servitization’, is the shift away from buying and selling products towards the vending of services to achieve an outcome. In this economic model, instead of committing to a one-off purchase of a product, the customer would consistently pay on a per-unit basis, like the amount of time utilized, the number of products produced, or the number of tasks fulfilled, for results that meets their needs.</t>
   </si>
   <si>
+    <t>Ideologien werden auf die Roboter verteilt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Remote Arbeit wird ein wichtiger Bestandteil von der neuen Technologie </t>
   </si>
   <si>
     <t>Mehr Junge Menschen in den Städten --&gt; Umweltbewustere Handhabung von Wasser, Anbaumöglichkeiten (Dachgärten)</t>
   </si>
   <si>
+    <t>Dezentral Lebensweise</t>
+  </si>
+  <si>
     <t>Anbau von Pflanzlichen Lebensmitteln zuhause oder direkt in der Stadt (Dachgärten)</t>
   </si>
   <si>
@@ -3328,18 +3334,63 @@
     <t>Urbane Dachgärten um den lokalen Anbau zu stützen und gleichzeitig die Städte aufnahmefähiger für starke Regenfälle zu machen</t>
   </si>
   <si>
+    <t>Individualismus tribalism und so als weak spot hier raus</t>
+  </si>
+  <si>
     <t>Die Gesellschaft wird bei dem Thema Fleisch stark polarisiert werden (Fleisch=Statussymbol)</t>
   </si>
   <si>
+    <t>Indikator für den Wandel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dichtere Ansammlung von jungen (umweltbewusteren) Menschen durch hohe Mieten (verstärkt Wohngemeinschaften) </t>
   </si>
   <si>
+    <t>Trend für flex Strom verträge</t>
+  </si>
+  <si>
+    <t>Sharing hilft, um eine nachhaltige Mobilitätslösung zu schaffen, bei der selbstfahrende Elektrofahrzeuge gemeinsam genutzt werden und ihre Energie aus erneuerbaren Quellen beziehen, was zu einer Verringerung der Umweltauswirkungen des Verkehrs und einer effizienteren Nutzung der Ressourcen führt.</t>
+  </si>
+  <si>
+    <t>Augmented reality technologies integrated into urban planning and mobility, enhancing navigation and city experiences.</t>
+  </si>
+  <si>
+    <t>Autonomes Fahren, erneuerbare Energien und Sharing Economy werden kombiniert, um eine nachhaltige Mobilitätslösung zu schaffen was zu einer Verringerung der Umweltauswirkungen des Verkehrs und einer effizienteren Nutzung der Ressourcen führt.</t>
+  </si>
+  <si>
+    <t>Diversification of mobility forms, including e-bikes, e-scooters, and pedestrian-friendly spaces.</t>
+  </si>
+  <si>
     <t>Der Klimawandel breitet sich immer mehr aus.</t>
   </si>
   <si>
+    <t>Enhancing energy security with a focus on mitigating climate change impacts, ensuring stable and reliable energy supply.</t>
+  </si>
+  <si>
+    <t>Development and implementation of flexible energy storage systems to balance supply and demand effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomes Fahren, erneuerbare Energien und Sharing Economy werden kombiniert, um eine nachhaltige Mobilitätslösung zu schaffen, bei der selbstfahrende Elektrofahrzeuge gemeinsam genutzt werden. </t>
+  </si>
+  <si>
+    <t>Electric mobility growth affecting regional energy demands and creating new job opportunities in the energy sector.</t>
+  </si>
+  <si>
     <t>Die Industrie muss aufgrund ihrergroßen Verwendung von Energien klimaneutrale Alternativen nutzen</t>
   </si>
   <si>
+    <t>Transition of industrial sectors to carbon neutrality, influencing regional energy demand and supply strategies.</t>
+  </si>
+  <si>
+    <t>Autonomes Fahren, erneuerbare Energien und Sharing Economy werden kombiniert, um eine nachhaltige Mobilitätslösung zu schaffen, bei der selbstfahrende Elektrofahrzeuge gemeinsam genutzt werden und ihre Energie aus erneuerbaren Quellen beziehen, was zu einer Verringerung der Umweltauswirkungen des Verkehrs und einer effizienteren Nutzung der Ressourcen führt.</t>
+  </si>
+  <si>
+    <t>Growth in electric mobility services, offering sustainable transit options and reducing emissions.</t>
+  </si>
+  <si>
+    <t>Sharing Economy hilft um eine nachhaltige Mobilitätslösung zu schaffen, bei der selbstfahrende Elektrofahrzeuge gemeinsam genutzt werden und ihre Energie aus erneuerbaren Quellen beziehen, was zu einer Verringerung der Umweltauswirkungen des Verkehrs und einer effizienteren Nutzung der Ressourcen führt.</t>
+  </si>
+  <si>
     <t>Der Gesselschaft ist ein außbalanciertes Leben immer wichtiger</t>
   </si>
   <si>
@@ -3349,36 +3400,96 @@
     <t>Wasserstoff wird in den nächstenJahren eine Alternative zu Batterien.</t>
   </si>
   <si>
+    <t>Adoption of electrolysis processes for green hydrogen production, offering a new, clean energy vector.</t>
+  </si>
+  <si>
+    <t>Adoption of urban mining practices for sustainable resource management and circular economy in cities.</t>
+  </si>
+  <si>
     <t>Dachgärten und Balkone mehr in die lokale Nahrungsmittelproduktion einbinden</t>
   </si>
   <si>
     <t>Dachgärten und Balkone mehr in die lokale Nahrungsmittelproduktion (pflanzen)  einbinden</t>
   </si>
   <si>
+    <t>Establishment of a hydrogen economy, with regional suppliers playing a key role in hydrogen production and distribution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ki Ermöglicht individuelles lernen </t>
+  </si>
+  <si>
+    <t>Durch KI werden Städte zu intelligenten, effizienten und nachhaltigen Lebensräumen.</t>
+  </si>
+  <si>
+    <t>Fortschritte in der Medizin revolutionieren das Gesundheitswesen, indem KI-basierte Algorithmen personalisierte Medikationen und Behandlungspläne entwickeln.</t>
+  </si>
+  <si>
+    <t>Für potenzielle car sharing ideen</t>
+  </si>
+  <si>
     <t>Abwasserwärme für große Wärme Pumpen in der Stadt (Nutzung von großen Wassermengen)</t>
   </si>
   <si>
+    <t>Durch IoT werden Städte zu intelligenten, effizienten und nachhaltigen Lebensräumen.</t>
+  </si>
+  <si>
+    <t>Integration of IoT and non-terrestrial networks for enhanced connectivity and urban infrastructure management.</t>
+  </si>
+  <si>
+    <t>Transformation of transportation with self-driving vehicles, reducing congestion and accidents.</t>
+  </si>
+  <si>
     <t>Dadurch das Remote arbeiten immer mehr wird und die technologie intelligenter muss der Schutz gegenüber Cyber Kriminalität sowie der Datenschutz verbessert werden.</t>
   </si>
   <si>
+    <t>Fortschritte in der Medizintechnik, Telemedizin und Datenanalyse revolutionieren das Gesundheitswesen, indem Wearables wie Smartwatches und Fitness-Tracker kontinuierlich Gesundheitsdaten überwachen, telemedizinische Anwendungen es ermöglichen, von zu Hause aus mit Ärzten zu kommunizieren, und KI-basierte Algorithmen personalisierte Medikationen und Behandlungspläne entwickeln.</t>
+  </si>
+  <si>
+    <t>Deployment of cloud and edge computing to manage urban data effectively, supporting smart city initiatives.</t>
+  </si>
+  <si>
     <t>Kleinere Organismen für Zuhause zum Anbauen (Wenig Platz nötig für Eigenheimproduktion)</t>
   </si>
   <si>
+    <t>Durch erneuerbaren Energien werden Städte zu intelligenten, effizienten und nachhaltigen Lebensräumen.</t>
+  </si>
+  <si>
+    <t>Shift to renewable energy sources becomes central, reducing carbon footprint and aligning with global sustainability goals.</t>
+  </si>
+  <si>
     <t>Die Datensätze werden immer größer und vielfältiger sodass diese schwieriger zu analysieren sind.</t>
   </si>
   <si>
+    <t>Integration of various sectors through electrification, reshaping the regional energy landscape and demands.</t>
+  </si>
+  <si>
+    <t>Development of sponge cities focused on sustainable water management, crucial for urban resilience.</t>
+  </si>
+  <si>
+    <t>"Luxusprobleme werden immer mehr Einfluss auf die Westliche Entwicklung haben"</t>
+  </si>
+  <si>
     <t>Einsatz von Fernwärmepumpen in zusammenhang mit Abwasser wärme</t>
   </si>
   <si>
     <t xml:space="preserve">Industry 5.0 ist noch in Ferne da momentan Industry 4.0 noch existiert.  </t>
   </si>
   <si>
+    <t>Ensuring equitable access to digital infrastructure and services in urban settings.</t>
+  </si>
+  <si>
     <t>Es muss mehr für das Klima und der Umwelt getan werden</t>
   </si>
   <si>
     <t>Weniger Tierhaltung kommt dem Klima entgegen</t>
   </si>
   <si>
+    <t>Eine nachhaltige Mobilitätslösung hilft bei einer Verringerung der Umweltauswirkungen des Verkehrs und einer effizienteren Nutzung der Ressourcen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortschritte in der Medizintechnik, Telemedizin und Datenanalyse revolutionieren das Gesundheitswesen, indem Wearables wie Smartwatches und Fitness-Tracker kontinuierlich Gesundheitsdaten überwachen. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Speicherung von Regenwasser und Abwasser noch effektiver in der Stadt </t>
   </si>
   <si>
@@ -3397,13 +3508,37 @@
     <t>Der Ausbau von Solarenergien muss gestärkt werden, da sie eine alternative zu den jetzigen Energien ist.</t>
   </si>
   <si>
+    <t>Fortschritte in der Medizintechnik, Telemedizin und Datenanalyse revolutionieren das Gesundheitswesen, indem Wearables wie Smartwatches und Fitness-Tracker kontinuierlich Gesundheitsdaten überwachen.</t>
+  </si>
+  <si>
     <t>Klimabewusstsein und Technologien müssen zueinander in Betracht gezogen werden</t>
   </si>
   <si>
+    <t>Gegendruck für die These</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortschritte in der Medizintechnik revolutionieren das Gesundheitswesen, indem Wearables wie Smartwatches und Fitness-Tracker kontinuierlich Gesundheitsdaten überwachen. </t>
+  </si>
+  <si>
+    <t>Durch die Kombination von IoT, KI und erneuerbaren Energien werden Städte zu intelligenten, effizienten und nachhaltigen Lebensräumen.</t>
+  </si>
+  <si>
+    <t>Autonomes Fahren, erneuerbare Energien und Sharing Economy werden kombiniert, um eine nachhaltige Mobilitätslösung zu schaffen.</t>
+  </si>
+  <si>
+    <t>Straßenlaternen, die mit Sensoren ausgestattet sind, um den Energieverbrauch zu optimieren, und Verkehrsströme mithilfe von KI besser geregelt werden, um Staus zu minimieren und den öffentlichen Verkehr zu verbessern.</t>
+  </si>
+  <si>
+    <t>Smart city technologies enhance urban living, improving efficiency in traffic, energy, and public services.</t>
+  </si>
+  <si>
     <t>Es müssen klimaneutrale effiziente Energien geschaffen erden</t>
   </si>
   <si>
     <t>Wasser und Energie wird auf die Pflanzliche Produktion fokusiert statt auf Tiere--&gt; Umweltfreundlicher, geringere Produktionskosten</t>
+  </si>
+  <si>
+    <t>Focus on improving energy efficiency in buildings and infrastructure, leading to reduced consumption and costs.</t>
   </si>
 </sst>
 </file>
@@ -3941,14 +4076,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{20C9B810-B617-4203-B77A-9C84A0F651CC}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{4C9A26F9-8661-493A-9DC2-43013E8DBE1F}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{1CF653B6-249F-4D8D-B00C-5BA64D56111E}">
+  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{2255AA9B-9D1A-49C1-9F72-C368E06AB315}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{A3B54EB1-8876-47EA-9974-092EB7CD2903}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{F1E86665-71BC-4502-BD81-9C27448B27E8}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -3956,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
-  <dimension ref="A1:AO266"/>
+  <dimension ref="A1:AO267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="21" workbookViewId="0">
+      <selection activeCell="BL262" sqref="BL262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5416,7 +5551,9 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
+      <c r="AF17" s="19" t="s">
+        <v>1012</v>
+      </c>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
@@ -5910,10 +6047,10 @@
         <v>2</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
@@ -6002,7 +6139,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
@@ -6116,7 +6253,7 @@
         <v>136</v>
       </c>
       <c r="D26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="7">
         <v>3.5756894586070511</v>
@@ -6175,7 +6312,9 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
+      <c r="AD26" s="10" t="s">
+        <v>1015</v>
+      </c>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
@@ -6927,7 +7066,7 @@
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
@@ -7007,7 +7146,7 @@
         <v>5</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
@@ -7261,7 +7400,7 @@
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
       <c r="X39" s="19" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
@@ -7436,7 +7575,9 @@
       <c r="AC41" s="19"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
+      <c r="AF41" s="19" t="s">
+        <v>1019</v>
+      </c>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
@@ -7682,14 +7823,16 @@
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
+      <c r="AF44" s="10" t="s">
+        <v>1021</v>
+      </c>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
       <c r="AI44" s="10"/>
@@ -8186,7 +8329,7 @@
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
       <c r="X50" s="10" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
@@ -8194,14 +8337,18 @@
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
+      <c r="AE50" s="10" t="s">
+        <v>1023</v>
+      </c>
       <c r="AF50" s="10"/>
       <c r="AG50" s="10"/>
       <c r="AH50" s="10"/>
       <c r="AI50" s="10"/>
       <c r="AJ50" s="10"/>
       <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
+      <c r="AL50" s="10" t="s">
+        <v>1024</v>
+      </c>
       <c r="AM50" s="10"/>
       <c r="AN50" s="10"/>
       <c r="AO50" s="10"/>
@@ -8286,7 +8433,9 @@
       <c r="AK51" s="19"/>
       <c r="AL51" s="19"/>
       <c r="AM51" s="19"/>
-      <c r="AN51" s="19"/>
+      <c r="AN51" s="19" t="s">
+        <v>1025</v>
+      </c>
       <c r="AO51" s="19"/>
     </row>
     <row r="52" spans="1:41" ht="105" x14ac:dyDescent="0.25">
@@ -8450,9 +8599,13 @@
       <c r="AI53" s="19"/>
       <c r="AJ53" s="19"/>
       <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
+      <c r="AL53" s="19" t="s">
+        <v>1026</v>
+      </c>
       <c r="AM53" s="19"/>
-      <c r="AN53" s="19"/>
+      <c r="AN53" s="19" t="s">
+        <v>1027</v>
+      </c>
       <c r="AO53" s="19"/>
     </row>
     <row r="54" spans="1:41" ht="210" x14ac:dyDescent="0.25">
@@ -9016,7 +9169,7 @@
       </c>
       <c r="U60" s="10"/>
       <c r="V60" s="10" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
@@ -9034,7 +9187,9 @@
       <c r="AJ60" s="10"/>
       <c r="AK60" s="10"/>
       <c r="AL60" s="10"/>
-      <c r="AM60" s="10"/>
+      <c r="AM60" s="10" t="s">
+        <v>1029</v>
+      </c>
       <c r="AN60" s="10"/>
       <c r="AO60" s="10"/>
     </row>
@@ -9202,7 +9357,9 @@
       <c r="AJ62" s="10"/>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
-      <c r="AM62" s="10"/>
+      <c r="AM62" s="10" t="s">
+        <v>1030</v>
+      </c>
       <c r="AN62" s="10"/>
       <c r="AO62" s="10"/>
     </row>
@@ -9284,8 +9441,12 @@
       <c r="AI63" s="19"/>
       <c r="AJ63" s="19"/>
       <c r="AK63" s="19"/>
-      <c r="AL63" s="19"/>
-      <c r="AM63" s="19"/>
+      <c r="AL63" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AM63" s="19" t="s">
+        <v>1032</v>
+      </c>
       <c r="AN63" s="19"/>
       <c r="AO63" s="19"/>
     </row>
@@ -9518,7 +9679,7 @@
       </c>
       <c r="U66" s="10"/>
       <c r="V66" s="10" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
@@ -9536,7 +9697,9 @@
       <c r="AJ66" s="10"/>
       <c r="AK66" s="10"/>
       <c r="AL66" s="10"/>
-      <c r="AM66" s="10"/>
+      <c r="AM66" s="10" t="s">
+        <v>1034</v>
+      </c>
       <c r="AN66" s="10"/>
       <c r="AO66" s="10"/>
     </row>
@@ -9618,9 +9781,13 @@
       <c r="AI67" s="19"/>
       <c r="AJ67" s="19"/>
       <c r="AK67" s="19"/>
-      <c r="AL67" s="19"/>
+      <c r="AL67" s="19" t="s">
+        <v>1035</v>
+      </c>
       <c r="AM67" s="19"/>
-      <c r="AN67" s="19"/>
+      <c r="AN67" s="19" t="s">
+        <v>1036</v>
+      </c>
       <c r="AO67" s="19"/>
     </row>
     <row r="68" spans="1:41" ht="330" x14ac:dyDescent="0.25">
@@ -10203,7 +10370,9 @@
       <c r="AI74" s="10"/>
       <c r="AJ74" s="10"/>
       <c r="AK74" s="10"/>
-      <c r="AL74" s="10"/>
+      <c r="AL74" s="10" t="s">
+        <v>1037</v>
+      </c>
       <c r="AM74" s="10"/>
       <c r="AN74" s="10"/>
       <c r="AO74" s="10"/>
@@ -10358,13 +10527,13 @@
       </c>
       <c r="U76" s="10"/>
       <c r="V76" s="10" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
       <c r="W76" s="10"/>
       <c r="X76" s="10"/>
       <c r="Y76" s="10"/>
       <c r="Z76" s="10" t="s">
-        <v>1022</v>
+        <v>1039</v>
       </c>
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
@@ -10532,7 +10701,7 @@
       </c>
       <c r="U78" s="10"/>
       <c r="V78" s="10" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="W78" s="10"/>
       <c r="X78" s="10"/>
@@ -10801,7 +10970,9 @@
       <c r="AJ81" s="19"/>
       <c r="AK81" s="19"/>
       <c r="AL81" s="19"/>
-      <c r="AM81" s="19"/>
+      <c r="AM81" s="19" t="s">
+        <v>1041</v>
+      </c>
       <c r="AN81" s="19"/>
       <c r="AO81" s="19"/>
     </row>
@@ -11555,7 +11726,9 @@
       <c r="AK90" s="10"/>
       <c r="AL90" s="10"/>
       <c r="AM90" s="10"/>
-      <c r="AN90" s="10"/>
+      <c r="AN90" s="10" t="s">
+        <v>1042</v>
+      </c>
       <c r="AO90" s="10"/>
     </row>
     <row r="91" spans="1:41" ht="225" x14ac:dyDescent="0.25">
@@ -12953,11 +13126,11 @@
       <c r="V107" s="19"/>
       <c r="W107" s="19"/>
       <c r="X107" s="19" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="Y107" s="19"/>
       <c r="Z107" s="19" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="AA107" s="19"/>
       <c r="AB107" s="19"/>
@@ -13222,7 +13395,9 @@
       <c r="AJ110" s="10"/>
       <c r="AK110" s="10"/>
       <c r="AL110" s="10"/>
-      <c r="AM110" s="10"/>
+      <c r="AM110" s="10" t="s">
+        <v>1045</v>
+      </c>
       <c r="AN110" s="10"/>
       <c r="AO110" s="10"/>
     </row>
@@ -13543,14 +13718,20 @@
       <c r="AA114" s="10"/>
       <c r="AB114" s="10"/>
       <c r="AC114" s="10"/>
-      <c r="AD114" s="10"/>
+      <c r="AD114" s="10" t="s">
+        <v>1046</v>
+      </c>
       <c r="AE114" s="10"/>
       <c r="AF114" s="10"/>
       <c r="AG114" s="10"/>
       <c r="AH114" s="10"/>
       <c r="AI114" s="10"/>
-      <c r="AJ114" s="10"/>
-      <c r="AK114" s="10"/>
+      <c r="AJ114" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AK114" s="10" t="s">
+        <v>1048</v>
+      </c>
       <c r="AL114" s="10"/>
       <c r="AM114" s="10"/>
       <c r="AN114" s="10"/>
@@ -14609,7 +14790,9 @@
       <c r="AB127" s="19"/>
       <c r="AC127" s="19"/>
       <c r="AD127" s="19"/>
-      <c r="AE127" s="19"/>
+      <c r="AE127" s="19" t="s">
+        <v>1049</v>
+      </c>
       <c r="AF127" s="19"/>
       <c r="AG127" s="19"/>
       <c r="AH127" s="19"/>
@@ -14935,7 +15118,7 @@
       <c r="V131" s="19"/>
       <c r="W131" s="19"/>
       <c r="X131" s="19" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
       <c r="Y131" s="19"/>
       <c r="Z131" s="19"/>
@@ -15948,12 +16131,16 @@
       </c>
       <c r="AH143" s="19"/>
       <c r="AI143" s="19"/>
-      <c r="AJ143" s="19"/>
+      <c r="AJ143" s="19" t="s">
+        <v>1051</v>
+      </c>
       <c r="AK143" s="19"/>
       <c r="AL143" s="19"/>
       <c r="AM143" s="19"/>
       <c r="AN143" s="19"/>
-      <c r="AO143" s="19"/>
+      <c r="AO143" s="19" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="144" spans="1:41" ht="150" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
@@ -16374,7 +16561,9 @@
       <c r="AL148" s="10"/>
       <c r="AM148" s="10"/>
       <c r="AN148" s="10"/>
-      <c r="AO148" s="10"/>
+      <c r="AO148" s="10" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="149" spans="1:41" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
@@ -16604,7 +16793,7 @@
         <v>3</v>
       </c>
       <c r="U151" s="19" t="s">
-        <v>1027</v>
+        <v>1054</v>
       </c>
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
@@ -16878,7 +17067,9 @@
       <c r="AH154" s="10"/>
       <c r="AI154" s="10"/>
       <c r="AJ154" s="10"/>
-      <c r="AK154" s="10"/>
+      <c r="AK154" s="10" t="s">
+        <v>1055</v>
+      </c>
       <c r="AL154" s="10"/>
       <c r="AM154" s="10"/>
       <c r="AN154" s="10"/>
@@ -17047,7 +17238,9 @@
       <c r="AK156" s="10"/>
       <c r="AL156" s="10"/>
       <c r="AM156" s="10"/>
-      <c r="AN156" s="10"/>
+      <c r="AN156" s="10" t="s">
+        <v>1056</v>
+      </c>
       <c r="AO156" s="10"/>
     </row>
     <row r="157" spans="1:41" ht="409.5" x14ac:dyDescent="0.25">
@@ -17368,7 +17561,7 @@
       <c r="X160" s="10"/>
       <c r="Y160" s="10"/>
       <c r="Z160" s="10" t="s">
-        <v>1028</v>
+        <v>1057</v>
       </c>
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
@@ -17551,10 +17744,16 @@
         <v>652</v>
       </c>
       <c r="AI162" s="10"/>
-      <c r="AJ162" s="10"/>
+      <c r="AJ162" s="10" t="s">
+        <v>1058</v>
+      </c>
       <c r="AK162" s="10"/>
-      <c r="AL162" s="10"/>
-      <c r="AM162" s="10"/>
+      <c r="AL162" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AM162" s="10" t="s">
+        <v>1059</v>
+      </c>
       <c r="AN162" s="10"/>
       <c r="AO162" s="10"/>
     </row>
@@ -17620,7 +17819,7 @@
         <v>4</v>
       </c>
       <c r="U163" s="19" t="s">
-        <v>1029</v>
+        <v>1060</v>
       </c>
       <c r="V163" s="19"/>
       <c r="W163" s="19"/>
@@ -18311,7 +18510,9 @@
       <c r="AJ171" s="19"/>
       <c r="AK171" s="19"/>
       <c r="AL171" s="19"/>
-      <c r="AM171" s="19"/>
+      <c r="AM171" s="19" t="s">
+        <v>1061</v>
+      </c>
       <c r="AN171" s="19"/>
       <c r="AO171" s="19"/>
     </row>
@@ -18480,7 +18681,9 @@
       <c r="AK173" s="19"/>
       <c r="AL173" s="19"/>
       <c r="AM173" s="19"/>
-      <c r="AN173" s="19"/>
+      <c r="AN173" s="19" t="s">
+        <v>1062</v>
+      </c>
       <c r="AO173" s="19"/>
     </row>
     <row r="174" spans="1:41" ht="210" x14ac:dyDescent="0.25">
@@ -19160,7 +19363,7 @@
         <v>731</v>
       </c>
       <c r="D182" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="7">
         <v>2.7581033781576321</v>
@@ -19642,7 +19845,9 @@
       <c r="AC187" s="19"/>
       <c r="AD187" s="19"/>
       <c r="AE187" s="19"/>
-      <c r="AF187" s="19"/>
+      <c r="AF187" s="19" t="s">
+        <v>1063</v>
+      </c>
       <c r="AG187" s="19"/>
       <c r="AH187" s="19"/>
       <c r="AI187" s="19"/>
@@ -19718,7 +19923,7 @@
       <c r="V188" s="10"/>
       <c r="W188" s="10"/>
       <c r="X188" s="10" t="s">
-        <v>1030</v>
+        <v>1064</v>
       </c>
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
@@ -19802,7 +20007,7 @@
         <v>5</v>
       </c>
       <c r="U189" s="19" t="s">
-        <v>1031</v>
+        <v>1065</v>
       </c>
       <c r="V189" s="19"/>
       <c r="W189" s="19"/>
@@ -20233,7 +20438,9 @@
       <c r="AK194" s="10"/>
       <c r="AL194" s="10"/>
       <c r="AM194" s="10"/>
-      <c r="AN194" s="10"/>
+      <c r="AN194" s="10" t="s">
+        <v>1066</v>
+      </c>
       <c r="AO194" s="10"/>
     </row>
     <row r="195" spans="1:41" ht="360" x14ac:dyDescent="0.25">
@@ -20465,13 +20672,13 @@
       </c>
       <c r="U197" s="19"/>
       <c r="V197" s="19" t="s">
-        <v>1032</v>
+        <v>1067</v>
       </c>
       <c r="W197" s="19"/>
       <c r="X197" s="19"/>
       <c r="Y197" s="19"/>
       <c r="Z197" s="19" t="s">
-        <v>1033</v>
+        <v>1068</v>
       </c>
       <c r="AA197" s="19"/>
       <c r="AB197" s="19"/>
@@ -20484,7 +20691,9 @@
       <c r="AI197" s="19"/>
       <c r="AJ197" s="19"/>
       <c r="AK197" s="19"/>
-      <c r="AL197" s="19"/>
+      <c r="AL197" s="19" t="s">
+        <v>1069</v>
+      </c>
       <c r="AM197" s="19"/>
       <c r="AN197" s="19"/>
       <c r="AO197" s="19"/>
@@ -21653,7 +21862,9 @@
       <c r="AH211" s="19"/>
       <c r="AI211" s="19"/>
       <c r="AJ211" s="19"/>
-      <c r="AK211" s="19"/>
+      <c r="AK211" s="19" t="s">
+        <v>1070</v>
+      </c>
       <c r="AL211" s="19"/>
       <c r="AM211" s="19"/>
       <c r="AN211" s="19"/>
@@ -21819,7 +22030,9 @@
       <c r="AH213" s="19"/>
       <c r="AI213" s="19"/>
       <c r="AJ213" s="19"/>
-      <c r="AK213" s="19"/>
+      <c r="AK213" s="19" t="s">
+        <v>1070</v>
+      </c>
       <c r="AL213" s="19"/>
       <c r="AM213" s="19"/>
       <c r="AN213" s="19"/>
@@ -21890,7 +22103,7 @@
       <c r="V214" s="10"/>
       <c r="W214" s="10"/>
       <c r="X214" s="10" t="s">
-        <v>1034</v>
+        <v>1071</v>
       </c>
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
@@ -21975,11 +22188,11 @@
       <c r="V215" s="19"/>
       <c r="W215" s="19"/>
       <c r="X215" s="19" t="s">
-        <v>1035</v>
+        <v>1072</v>
       </c>
       <c r="Y215" s="19"/>
       <c r="Z215" s="19" t="s">
-        <v>1036</v>
+        <v>1073</v>
       </c>
       <c r="AA215" s="19"/>
       <c r="AB215" s="19"/>
@@ -22398,11 +22611,11 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>1037</v>
+        <v>1074</v>
       </c>
       <c r="W220" s="10"/>
       <c r="X220" s="10" t="s">
-        <v>1038</v>
+        <v>1075</v>
       </c>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
@@ -22904,7 +23117,7 @@
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10" t="s">
-        <v>1039</v>
+        <v>1076</v>
       </c>
       <c r="W226" s="10"/>
       <c r="X226" s="10"/>
@@ -23337,7 +23550,9 @@
       <c r="AH231" s="19"/>
       <c r="AI231" s="19"/>
       <c r="AJ231" s="19"/>
-      <c r="AK231" s="19"/>
+      <c r="AK231" s="19" t="s">
+        <v>1077</v>
+      </c>
       <c r="AL231" s="19"/>
       <c r="AM231" s="19"/>
       <c r="AN231" s="19"/>
@@ -23503,7 +23718,9 @@
       <c r="AH233" s="19"/>
       <c r="AI233" s="19"/>
       <c r="AJ233" s="19"/>
-      <c r="AK233" s="19"/>
+      <c r="AK233" s="19" t="s">
+        <v>1070</v>
+      </c>
       <c r="AL233" s="19"/>
       <c r="AM233" s="19"/>
       <c r="AN233" s="19"/>
@@ -23657,7 +23874,7 @@
       </c>
       <c r="U235" s="19"/>
       <c r="V235" s="19" t="s">
-        <v>1040</v>
+        <v>1078</v>
       </c>
       <c r="W235" s="19"/>
       <c r="X235" s="19"/>
@@ -24168,7 +24385,9 @@
       <c r="AC241" s="19"/>
       <c r="AD241" s="19"/>
       <c r="AE241" s="19"/>
-      <c r="AF241" s="19"/>
+      <c r="AF241" s="19" t="s">
+        <v>1079</v>
+      </c>
       <c r="AG241" s="19"/>
       <c r="AH241" s="19"/>
       <c r="AI241" s="19"/>
@@ -24428,7 +24647,9 @@
       <c r="AH244" s="10"/>
       <c r="AI244" s="10"/>
       <c r="AJ244" s="10"/>
-      <c r="AK244" s="10"/>
+      <c r="AK244" s="10" t="s">
+        <v>1080</v>
+      </c>
       <c r="AL244" s="10"/>
       <c r="AM244" s="10"/>
       <c r="AN244" s="10"/>
@@ -25261,9 +25482,13 @@
       <c r="AG254" s="10"/>
       <c r="AH254" s="10"/>
       <c r="AI254" s="10"/>
-      <c r="AJ254" s="10"/>
+      <c r="AJ254" s="10" t="s">
+        <v>1081</v>
+      </c>
       <c r="AK254" s="10"/>
-      <c r="AL254" s="10"/>
+      <c r="AL254" s="10" t="s">
+        <v>1082</v>
+      </c>
       <c r="AM254" s="10"/>
       <c r="AN254" s="10"/>
       <c r="AO254" s="10"/>
@@ -25346,11 +25571,15 @@
       </c>
       <c r="AH255" s="19"/>
       <c r="AI255" s="19"/>
-      <c r="AJ255" s="19"/>
+      <c r="AJ255" s="19" t="s">
+        <v>1083</v>
+      </c>
       <c r="AK255" s="19"/>
       <c r="AL255" s="19"/>
       <c r="AM255" s="19"/>
-      <c r="AN255" s="19"/>
+      <c r="AN255" s="19" t="s">
+        <v>1084</v>
+      </c>
       <c r="AO255" s="19"/>
     </row>
     <row r="256" spans="1:41" ht="300" x14ac:dyDescent="0.25">
@@ -25665,13 +25894,13 @@
       </c>
       <c r="U259" s="19"/>
       <c r="V259" s="19" t="s">
-        <v>1041</v>
+        <v>1085</v>
       </c>
       <c r="W259" s="19"/>
       <c r="X259" s="19"/>
       <c r="Y259" s="19"/>
       <c r="Z259" s="19" t="s">
-        <v>1042</v>
+        <v>1086</v>
       </c>
       <c r="AA259" s="19"/>
       <c r="AB259" s="19"/>
@@ -25687,7 +25916,9 @@
       <c r="AJ259" s="19"/>
       <c r="AK259" s="19"/>
       <c r="AL259" s="19"/>
-      <c r="AM259" s="19"/>
+      <c r="AM259" s="19" t="s">
+        <v>1087</v>
+      </c>
       <c r="AN259" s="19"/>
       <c r="AO259" s="19"/>
     </row>
@@ -26184,195 +26415,240 @@
       <c r="AN266" s="10"/>
       <c r="AO266" s="10"/>
     </row>
+    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A267" s="14">
+        <v>318</v>
+      </c>
+      <c r="B267" s="15"/>
+      <c r="C267" s="15"/>
+      <c r="D267" s="15"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="14"/>
+      <c r="J267" s="14"/>
+      <c r="K267" s="14"/>
+      <c r="L267" s="14"/>
+      <c r="M267" s="17"/>
+      <c r="N267" s="18"/>
+      <c r="O267" s="19"/>
+      <c r="P267" s="20"/>
+      <c r="Q267" s="20"/>
+      <c r="R267" s="21"/>
+      <c r="S267" s="21"/>
+      <c r="T267" s="22"/>
+      <c r="U267" s="19"/>
+      <c r="V267" s="19"/>
+      <c r="W267" s="19"/>
+      <c r="X267" s="19"/>
+      <c r="Y267" s="19"/>
+      <c r="Z267" s="19"/>
+      <c r="AA267" s="19"/>
+      <c r="AB267" s="19"/>
+      <c r="AC267" s="19"/>
+      <c r="AD267" s="19"/>
+      <c r="AE267" s="19"/>
+      <c r="AF267" s="19"/>
+      <c r="AG267" s="19"/>
+      <c r="AH267" s="19"/>
+      <c r="AI267" s="19"/>
+      <c r="AJ267" s="19"/>
+      <c r="AK267" s="19"/>
+      <c r="AL267" s="19"/>
+      <c r="AM267" s="19"/>
+      <c r="AN267" s="19"/>
+      <c r="AO267" s="19"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S266" xr:uid="{C7480C29-6069-47E9-8E03-340DD50E74D5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S267" xr:uid="{5E811D04-9FAF-44AA-827F-517D0E701B55}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L266" xr:uid="{392C831F-6CE3-4FCD-8148-FB9FEFB3B1AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L267" xr:uid="{90149E49-DE4D-440A-B58E-8B5CC10FF2E1}">
       <formula1>$BA$19:$BA$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F266" xr:uid="{0467271B-4DB9-4300-9D9D-6334013C3E4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F267" xr:uid="{968E81C4-5DC4-484C-8B48-06167F097939}">
       <formula1>$BA$13:$BA$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R266" xr:uid="{F4619AF5-BBCF-4653-A722-2DD273F5E572}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R267" xr:uid="{F404C029-1FF1-408B-B649-89051BA60B4A}">
       <formula1>$AX$7:$AX$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q266" xr:uid="{EEE415A3-E633-49F9-9215-4DCBAD170D2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q267" xr:uid="{F1FFF4FF-F847-45C5-AD77-0A71C23F8961}">
       <formula1>$AY$7:$AY$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{3CA87BC0-F62E-42C0-8F16-BEA5D69AC957}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{FCED23AA-D3F2-41FF-8AC6-136CA15EBB7B}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{F97A89E0-3CDE-4C99-BA76-B0F96067E945}"/>
-    <hyperlink ref="M25" r:id="rId4" xr:uid="{80796C11-2E66-4D84-BD63-66F7E96EDD65}"/>
-    <hyperlink ref="M26" r:id="rId5" xr:uid="{C7EF462F-2284-4F2C-8C59-4AB7CBE5DF97}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{AB07A53C-914D-4C46-A9CD-E67EF6142127}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{DE365E88-95B6-4645-95E6-C91E76FAB017}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{9D35E450-68BD-471C-85C3-2A05D584314D}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{36CF4F44-C4FF-42A2-9B65-06923C49A861}"/>
-    <hyperlink ref="M31" r:id="rId10" xr:uid="{0EA0FA58-A2DD-4043-ADD3-B87F27DF617C}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{C7A00E17-48CD-467B-A7C0-ABCBE7E705CD}"/>
-    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{F3CD2330-4D99-4790-AB50-7C1946E2ABF9}"/>
-    <hyperlink ref="M34" r:id="rId13" xr:uid="{DDB2DDCB-813A-4A05-B5DD-EAE2C1AD380F}"/>
-    <hyperlink ref="M35" r:id="rId14" xr:uid="{966DEDC2-69A9-469A-A006-3DD3859F04D2}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{A6B5C288-96A4-4528-8A6A-99C2078A0426}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{B4DB3863-8607-42B3-A286-2335144D003F}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{16699D1B-D5E7-4065-85D8-8ADD911CB782}"/>
-    <hyperlink ref="M43" r:id="rId18" xr:uid="{B3B5B9BD-4721-4CF1-9609-03393BD70FB0}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{523C89B6-CFE7-42AE-B379-7676FA88CDC1}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{272EBE36-2175-420A-A894-83C650D2A1B2}"/>
-    <hyperlink ref="M55" r:id="rId21" xr:uid="{F43DEC47-EE37-42EA-9746-7723F8FED9A3}"/>
-    <hyperlink ref="M56" r:id="rId22" xr:uid="{2C3F127C-4E2F-4B22-B08B-2812E3EF1500}"/>
-    <hyperlink ref="M57" r:id="rId23" xr:uid="{23205DE4-8994-4481-AE82-842B2598E662}"/>
-    <hyperlink ref="M58" r:id="rId24" xr:uid="{51AA718C-6AC4-46BA-9CFA-59FBF5539855}"/>
-    <hyperlink ref="M59" r:id="rId25" xr:uid="{53441A9E-FF87-4C98-BF4E-07A5D2AD5209}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{3F56954B-1819-4A5B-8D87-ACF413B24E27}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{B0B88585-F080-40D0-AFFB-2CA6C86E5382}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{3501F1F0-B165-42EE-AC2D-3C3FEDC5A9E2}"/>
-    <hyperlink ref="M77" r:id="rId29" xr:uid="{70CB0990-0106-4D43-A27C-DC600DB75907}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{B7995ED0-ABF4-4AF2-812F-444991B1CD9D}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{81E378E8-73E2-42FF-A6DA-5DEEF815990C}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{707F6CEC-EAA4-4504-9876-14D2962A8D57}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{3CFF6B15-756B-447A-A93B-5C354AD0980C}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{D3EDEABF-C9BF-4128-AB8B-A726091A4EB9}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{149DE7FE-BAAC-4657-A8EC-D67950D550D5}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{5DE151E8-5641-4B5F-8345-A25A4206269F}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{64AFB92C-6F89-4FE6-99EA-5F5C0B0F6A75}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{3E74BDB9-0BFE-4F4A-BC4F-4D090C413C48}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{3F3A11AB-1F30-45D7-A91E-78B6456DEDD0}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{BEF87CDC-6EED-4AE6-B4DA-603724D240D2}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{8D2476BB-BBDC-4F76-AF85-B3C4B99342FC}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{D521801B-5D65-4ABD-B4C7-171A473F8BC1}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{6DAD81B4-C2EE-4660-B6B7-2461179E8A90}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{34E3F2E3-6AA8-4AA5-B47F-D5E860D4338A}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{2A58CECB-4C2E-4153-A632-4A3D71569B92}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{77927B7C-9BA4-446F-BCDF-5AC8860B1286}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{F32221B2-A87A-4CFE-BD28-E846E4D76A34}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{3985093E-9A41-4D07-AA3E-01DE8C92DC9C}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{6AF0EFF7-2E36-4EC4-AB3F-54468EC1EE44}"/>
-    <hyperlink ref="M53" r:id="rId50" xr:uid="{1C5678DE-7F50-4DF0-9DE0-82E471223918}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{8F49AF90-FD21-4ED9-AB35-697837CBDF80}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{02D4BA90-9746-407B-8961-7BDC046AF555}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{FBD65FEA-BC39-47FF-BEE9-310C1E79CC2A}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{2B15DCBC-A92D-4FD3-9F53-881E97C73C67}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{B1C59DFF-214A-4366-B137-48D8921DBB3D}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{BBDED816-F046-41DA-9ECF-67C8FE7FBBB6}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{F885A19C-27B6-4492-801F-D4352E841F0D}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{F3916C76-63E7-41B4-AA52-288A4F388273}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{919AB0F9-6D15-4F70-AFEA-E85B65D5FED8}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{4C3709A4-C01D-4E9A-A76E-1A17D7CF0456}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{0277714B-6D82-4834-A107-2E2D52CD2A48}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{88F4B107-01FA-4E5D-8BD2-782055411B34}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{C5B35456-5BCA-4F2F-AD0E-6B9DBAA11A05}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{84C96862-600D-4FB4-AEE0-4D11D41EC548}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{3C265299-D8E3-4E4A-AC26-F86653ECF2CD}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{7A987058-051C-4606-AD74-BF7FC743720B}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{70928612-3AA5-404E-99B1-89DB02CD30E2}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{665BA612-5508-4271-95BF-F9B9C20F54F6}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{3CEA72C1-A57C-4495-8235-1C54A8CF6C59}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{3152E84A-F82B-4F9A-8489-696AE5AF8070}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{F365598B-857F-461B-9645-D6B02BF10325}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{93D15C4C-4CDF-41E5-9496-EF69854319C4}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{E1F35131-2EE9-4A6B-8803-CC856ADF9490}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{A67A00A5-336A-4D94-9911-738D73BF7EC3}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{D4EF4B90-C5B7-4A82-8B14-850B31E6E3C6}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{4E2D98DA-C2B9-49AC-9166-9B9BDFDB5919}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{6BE6F084-5C94-4FD3-BFEB-737EF7A3DD43}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{EE9BB518-1BF3-4EDE-994D-434F5181088E}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{17FF7CB3-5476-421A-8C9B-E74D8C6D4275}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{2FC1E54A-980F-4DD0-8A15-03A9A863E108}"/>
-    <hyperlink ref="M93" r:id="rId81" xr:uid="{84A32339-4C16-4D46-8DC2-0754A4EFAEE9}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{A0C9E2B8-F034-4412-9077-5E068763A9C2}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{7A2FFE1C-E282-421A-8D77-67D00AA15CD0}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{9F2C2A48-DE88-4A59-BE20-D277A05F511D}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{C7598A29-1F26-4B12-BA70-278908AF30ED}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{EC13A221-096A-4129-BAAA-648CDDA29516}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{1F53A148-566F-49F1-906E-F7DDBA07579D}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{785BD01B-333C-4D93-BE73-F8F4A49FFC6E}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{8F430E7B-0833-41B7-BC62-F6AE5F118717}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{66299E9C-D904-4A17-9D0D-D5DFDB4B930F}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{4691BDDE-815A-4D43-862D-9DE2EE946C9D}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{D2172F2F-761D-480C-BE27-A8CDB5140F84}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{F245143D-1044-48BC-905D-02D8553BA5CC}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{D1453F39-3912-49E1-9DFC-9A5764FCEB3E}"/>
-    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{B7650BA3-C988-4823-B5E4-5F57E4091531}"/>
-    <hyperlink ref="M38" r:id="rId96" xr:uid="{64D6E667-5E34-45A1-9A94-64BDFDE38FE5}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{042D37C8-185A-40D2-B37A-7886A4E8269F}"/>
-    <hyperlink ref="M91" r:id="rId98" xr:uid="{5544D6B3-2FC1-4742-A19E-9E36E16AB601}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{466BBA2F-431C-4C6A-A99E-69B3BD9A64E9}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{4B5D685E-D958-4EB4-8F21-951015D07AD3}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{4E6D1E8A-408E-49BF-8C6F-A7E990BD08A1}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{3C05F73C-C197-4B5E-839E-1484371D5716}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{4EB1CDF6-F23E-423C-8F96-CFEA45D039CB}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{020DF784-B776-4D09-9B6A-36E4EB022B9F}"/>
-    <hyperlink ref="M41" r:id="rId105" xr:uid="{29D60C17-04F3-48CB-9A29-3C2602DA08B0}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{61766BEE-A3DE-4914-961F-28131FB74E14}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{65885098-F489-4CD3-AF9F-A5F7A8D0E84E}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{5EB3A7AA-9B86-4FEB-901D-CF0F4FDC6F14}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{5B412292-2863-4300-9097-9F413B923B12}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{277151EB-1ED3-48DB-B63B-BD7EB27BA5FB}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{B8A1A881-73E3-4E79-B563-157BC0DDBDAD}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{6D1AF8D1-27FD-4538-ABA0-E44A187E0580}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{6957FF92-FACA-45C7-90E5-70F19049E610}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{513B12FF-AC69-49C6-89F5-DD35257980F8}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{3C437731-DAA5-46B8-BAE3-F378C6AB85A7}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{007665C7-791E-4649-A1B8-4529BDE738D4}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{54C74B12-60F7-4521-B7DF-BD7A759A3A41}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{29665E3C-0158-47CB-BB8F-1903114827CC}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{9BEFCB76-1E9B-464F-9995-5BB29E497C57}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{9A01E977-73F4-42EE-9431-897E762E0BCD}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{7DB2AA7E-F1F0-40A2-8D83-8A453DFA0FB8}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{1E5957F8-D0BB-47A5-86D3-2837317DF892}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{00263593-CE0D-4B29-B674-966A2CDE3EBD}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{C68CA609-72A7-4739-B95E-FE3B5C873775}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{3BCEA0D1-27F5-453D-885C-87709BB2A73A}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{7E64A3D2-9B0B-4BA6-AE47-0DC79C06E40F}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{16ECDB4A-AAB7-4FE2-8E8C-50948FB97B73}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{AB803BF5-D75F-4F45-AF28-006A80D54934}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{08546C36-D505-47F5-9971-8688FA744DDC}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{458C5E38-1122-45EB-A077-CCAEBF0AA132}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{FFAB2585-C89F-466C-A6EC-3EEA79F2C27B}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{20FB1551-98D7-4C65-8B01-D2B5DE90D869}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{5A8A6083-0A83-47FA-8FFE-AE530F531041}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{AC151E6D-89AF-4E02-995B-6A04D33530A1}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{369A7971-43FD-4D72-9076-A81A1317B95A}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{93263D2D-F597-441A-BDDF-2C5C574A658F}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{05E879F8-69D7-428E-8E49-6DB510BD915D}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{AE45C12E-120C-4A4F-9250-65A7AC02335D}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{60EB33EB-0777-45FE-A22F-9CC122776A16}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{12BA235B-833D-442C-9D4D-9206FA7EE8E7}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{28213743-880F-451C-9848-2728D4066022}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{3D5AB8FA-0802-42DE-B429-9D1DED037A00}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{47F590F9-57ED-4620-9DEE-A9AD9C452350}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{939A73BE-27A2-4E53-B7BD-45451EE0881C}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{09B5C825-1713-4FF9-A6E2-E10ADDC33764}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{F2771814-A029-4CED-AC4F-39628039775B}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{20B46645-C2A7-4D13-B785-38C22BC19045}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{ACDE65E7-D310-45C9-ABF7-FD94A43AAA73}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{978D434A-F3B7-4B8D-8C93-24F6B1C6BF23}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{AB4E98DE-1C3E-4A14-A78C-9AB40F4544D0}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{1529E714-A736-4D51-91BB-73A4F0C9C5CB}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{2DBB9D20-372F-40CD-8F00-F68A7F8771A9}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{95279E57-9418-4E1A-95E4-0EF704495231}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{0BDD2A2F-A538-4A1D-8670-10BAEBE32F20}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{29DBB980-2EB8-44B7-BA4E-D0C698F5EA28}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{49C5F6B4-33A7-476D-8F99-18ED252DA179}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{DD4F4E95-A536-428C-A4DC-E06EBA144C6E}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{A28D22FD-2A34-4A81-BCE8-11B9ECCB4BA1}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{E220E748-12AF-4773-B06D-1DE4C70FCBCA}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{7F83E165-ABB9-4DBB-ABF9-CF40E3AA9732}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{2967EF24-7EEC-41DA-8FD5-ACAA73F6D563}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{B63D08BC-D8AC-49AB-BA3A-1EEDE1B9F7CB}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{7BE31751-7EC0-4571-B5A7-5ABF7999A434}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{855A44D4-17A2-47FC-AFE6-BEB7A096D20D}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{65E71EB1-2FA2-4621-AA9A-9D1BF60B4AA7}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{ADFBE85C-B4B4-48AE-A4FE-6AF1F4C2895E}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{E484837B-E6F6-4BC5-BEFE-A56CE00632DB}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{7DB45C4D-E383-4B05-85E4-FEBAE2D1D7CB}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{F0D75F1E-AC84-4EE9-A864-45C54C58FCEF}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{7D74BF1B-D955-46A5-8C50-FE3EA50F344A}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{00D213BA-C00C-45BA-99A1-A2FF80F862CC}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{31368DBA-7611-4376-8358-C933E96D7521}"/>
+    <hyperlink ref="M25" r:id="rId4" xr:uid="{1968F9D9-DC86-46E8-A2C2-5063B09BFEDC}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{46B16FDD-5417-4407-9C7B-DCB222E79549}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{88208E4C-9B9B-42EE-AD1E-7AC6CA5DDFF0}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{297BD0AF-5933-473A-BB8F-9E99ED21B9D1}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{BB6C82E1-D847-4BFD-AA76-19DCDD303D1B}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{5A894AA5-E38D-4916-A395-8D9FA5809CF2}"/>
+    <hyperlink ref="M31" r:id="rId10" xr:uid="{FB9830EA-911F-4380-A3D1-2576AF14FE1B}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{761D78E3-8DCB-41CF-8B5D-0DCFDC313F40}"/>
+    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{DA509345-B27F-480B-928D-711A88201A2A}"/>
+    <hyperlink ref="M34" r:id="rId13" xr:uid="{AB674F49-D276-4CF4-AC07-58E3B54D5E61}"/>
+    <hyperlink ref="M35" r:id="rId14" xr:uid="{3C2E4BC1-5979-4180-809B-5D7A4362C82B}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{3492948E-790A-42AE-B055-503BA2F40FD5}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{ADAE19F2-8775-4631-B58D-B6F9B6E195DE}"/>
+    <hyperlink ref="M42" r:id="rId17" xr:uid="{6E422E62-1C4E-4D40-93F5-67BF041EC2E7}"/>
+    <hyperlink ref="M43" r:id="rId18" xr:uid="{F7CBEDE5-AC20-41EA-9455-0B7B21F68DF1}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{6E16BC67-8DD3-4E5E-B6D1-ED6FEA371BC2}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{BA3FA2E2-4828-48ED-95F2-204C7928B6E9}"/>
+    <hyperlink ref="M55" r:id="rId21" xr:uid="{AB1E6CC6-5158-4E9C-9044-F2100544AEF1}"/>
+    <hyperlink ref="M56" r:id="rId22" xr:uid="{6C3828F4-7B90-4109-B289-502112D64924}"/>
+    <hyperlink ref="M57" r:id="rId23" xr:uid="{8CDC688C-557B-439C-820C-075E9ECF75D2}"/>
+    <hyperlink ref="M58" r:id="rId24" xr:uid="{CB99A934-A942-4C24-A864-EEA4CA9731BE}"/>
+    <hyperlink ref="M59" r:id="rId25" xr:uid="{704BDFE0-6FC1-46E4-8CF6-9C856D9962A4}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{AFF93D9E-030F-47C0-933F-047165B88ED9}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{8A95155E-3147-4D8B-AE8C-F08A71A8FBF5}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{C534714C-F96E-44FE-8199-B56E44DC256F}"/>
+    <hyperlink ref="M77" r:id="rId29" xr:uid="{0C8528BB-0889-4E7E-9FC5-6D9AD3EECB48}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{D961E305-17AA-4F66-9D29-AD79FB74B81E}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{EE1F85AF-D39B-42EE-807B-E45555DEF774}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{D00B65B2-4589-4305-8A21-B1DCE4912D99}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{9C853550-C52C-4650-8FFA-058879FB62ED}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{1B1C566E-EE05-4419-89D9-7693EDEDF38A}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{66B2071A-9692-406D-99E4-26B72ADF81FF}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{0B79F364-EAD6-412E-B23D-42E00C3AFF05}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{A5C6C9D7-5CC7-423A-848C-37B86AE3071D}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{145EB384-FB54-4DB8-AACB-DF255824CAC0}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{F08EE92F-EEB1-4F26-9FB4-7BE4DC5928B9}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{E391FEE3-C655-46A3-A81B-C4AAB043492D}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{D74FA2D7-3EE8-43A5-B417-682BA968631A}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{0DB36FF2-361D-48EC-A138-8E169889E603}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{8A274F89-DEEF-475E-ABBA-A4076FDCAE26}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{232ADCB0-8903-4A34-BA26-C0AF0E6E6515}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{71E30825-9C94-4DBD-9D38-C050657026F9}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{8DA0C352-B534-4CF0-8DBD-DD164108C2C2}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{BB8054FA-ACC5-4F37-ABAF-C83BD768AA6F}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{DCCB0059-C6E5-45BD-8004-E21E21E592D1}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{567632CE-EA93-4842-94C4-8D13F093E7BE}"/>
+    <hyperlink ref="M53" r:id="rId50" xr:uid="{53EFD545-B7BE-481D-B31F-E7F0D92A1260}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{9C1D0DFF-9244-4990-AB30-B21B6D178584}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{54FA4591-5CC3-40A4-BF19-6ED7B0AFBDB1}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{9C488B77-665D-4F24-A722-346144AC0A6E}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{5BF1A2AD-1C19-4718-9C51-B06E02F99A3D}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{3CEAD37F-49CC-44D9-8D0A-C9FF5F4463A6}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{9832D291-919D-44A0-87A5-B099419021CE}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{3998B429-9532-4262-85A5-AF2D991CDB53}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{1FA88B7E-A58A-4967-A23E-75D973461975}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{E4B51FDF-7B9A-4A00-AB1C-D48992387CC0}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{D00C8E71-3313-4038-A8CC-F7E7F6537C35}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{3B08FAFC-5607-43D1-A454-2970F728B38F}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{75A7861A-560D-4CC7-BDFA-9CC36F14E71B}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{4F0C939F-CFF2-4F34-AD27-45031A6F0FC8}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{2228E52A-D74C-45B2-A6D2-4EAB2D07D5B2}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{C44E1EAD-4D88-4B1C-BEC8-CE91A7E166E5}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{B2CDBEB2-839D-4A3B-9E87-6AB0B963A878}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{B4E0E56E-F27A-4D8E-AAD7-1197807FFA95}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{02CD6921-0738-49AC-B87B-BD2A9ADA0884}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{432CF76E-93D1-4C2F-9E68-E08AB7B5A9C5}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{27CD1E55-08F6-46D5-BCF7-7EA7608C8E77}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{8EB59AF0-8A79-46D7-BFEC-81D5FDDAF10D}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{67A8E2C7-AFEE-43AE-B35E-023C4641AC2E}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{37C39735-8EDE-4322-AA27-89BCBB6D6503}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{D4EAF920-0FF3-4408-84F8-5AB65EAB85BE}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{8C2CFB87-0E29-4766-A267-BB20771DEB0C}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{299E7E24-85DA-42F0-8123-EBA23FA555CE}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{FB7DB409-91C4-4EE9-98DD-D195DEB3D9E1}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{6499EC9E-97F7-43E8-91D1-2B15AF1012DB}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{C7FB6428-65BB-4F50-8367-95BE79ACD48E}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{BB5C4286-EE4E-4273-8385-50F003EBFB08}"/>
+    <hyperlink ref="M93" r:id="rId81" xr:uid="{F5439E53-6322-4CF8-A7E7-8010652FF126}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{0D3CE980-8B99-4057-8669-46196474B6A3}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{EF818F68-53FA-4CA2-BD19-2D54B834E9D7}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{903877B5-CC1A-499A-B254-1197381A6D2C}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{E1269146-105C-4045-95B5-8EB7CD81A5F1}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{28E62246-B63A-48ED-99F4-0DA81B778598}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{3DAC76CB-2D54-4198-B926-531360AAD74F}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{9182692C-81FE-4585-9621-765C86B37F1B}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{AE5F399D-1473-4A92-82DE-29848037E0E9}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{443C6EA3-6CA5-4C6F-B050-4D24E59BF107}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{691BA43D-FD08-488C-A7DF-C1B7CD568F2C}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{D45ED112-ABFB-44F8-8CE3-0F4EE8F4663F}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{E6C77DC7-5D51-4E29-A4B3-3B280C6BA53D}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{4B042C3D-255A-45E2-9931-D399F56FCFD3}"/>
+    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{85D18B6F-0081-419A-9278-9BC5220F8A15}"/>
+    <hyperlink ref="M38" r:id="rId96" xr:uid="{7D6C8477-92D6-4F28-B9BC-5C4AA095571A}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{BA095032-FB72-49F9-8683-35475A2550E7}"/>
+    <hyperlink ref="M91" r:id="rId98" xr:uid="{D70185EA-F087-4140-856B-E6A05C6B65C9}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{FB10A2CA-D88F-4724-8AB4-38A6ED687980}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{AEE3CF4C-A00C-4E54-895C-46B92BD6A46F}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{148BEF99-44AF-4CD7-8AFC-23D84CDB6023}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{4C2D5219-2D71-4E35-91D8-71645FC67FFB}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{8855C8E1-44B1-424A-A8F7-AF4FDD3EEEB0}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{6824E1D1-0ED9-4A38-963C-5288545342DF}"/>
+    <hyperlink ref="M41" r:id="rId105" xr:uid="{EBAF1707-0436-40F6-83E0-F1616E4C9436}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{F2E0F6DD-A19E-4231-B809-BAA29A2BC592}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{83451A45-B6BA-4E00-BB2D-7D85675C0BBC}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{1AF3E027-2D81-446D-BCF7-1A677619AD75}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{3FA3C2F6-DE32-4518-A071-12923628695D}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{CCA85F90-D926-431D-B86C-4F80F95E8C27}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{D5F0CF63-5BE5-4EA2-B18B-08D368C86471}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{2505D1EC-C0DE-420C-8199-2C1289C64756}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{2EE4AEC7-47F0-4678-BC69-568B2EB1073F}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{74FC7CEA-5228-4994-9D4A-02426E971F02}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{764D59B6-AC38-4964-B07A-6F0961BCEAB3}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{85CDA662-0722-48FF-BE8D-E47005E4B6E2}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{94685DD0-A42F-456F-BAAD-B4B36CB60844}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{03F0D551-745B-4B2D-8C61-231AEA0F1702}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{F1A6D210-3710-46D1-A735-7274CBFCFAD2}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{16F32BAA-DC1D-40C9-BE9C-A6EF90671D49}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{C10EEA85-B21B-4FE3-9E66-0055C14E31EC}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{87236F8E-F2DF-4F3B-A973-4937E45A1F39}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{BDF3CDB5-5345-4B1C-B946-FC9D379F6D97}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{EB12AE2A-F64D-4D73-B684-D6F4051F7E1C}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{A1F99B40-220A-4870-B541-A876137424C0}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{FE4DF24E-F599-4BB3-8209-B28FDC54F53C}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{FC71F750-D130-4A91-8553-223854F64E09}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{10ED8937-4463-41BE-BFA9-64BBDA7B7ADF}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{B5276264-5F28-46C3-8B08-AD8B785C17D8}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{9CEECDD1-F115-45C3-9237-9E4B83574E6B}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{CE5FA7BC-B605-45D7-9AE3-95F11ABA6788}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{168C15E2-A56E-499C-A99B-E75EC717C287}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{76102BAB-D6BF-4440-BE0A-56B47F862E1D}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{183116E1-0860-463E-913B-434A496E9D85}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{E65637F6-5B42-4331-B1A7-50B4D9C22180}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{50E968E4-93D7-40CC-A818-D406B10DC6A1}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{D57A8BC1-86DA-46B2-A830-97062A06B4E2}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{9F5DF7E5-4DB3-45A0-BCA7-C98D311C22E3}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{D3E21720-C7AD-4F02-B77A-F2132E5C08E0}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{14BC831F-F7D2-4405-8F83-4E2576852CD4}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{3FC8473F-DF37-44C1-A753-C91428C39F22}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{E299430B-D65C-48C5-8704-40AE57D54A0A}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{2A998549-EC56-4428-954B-6941C8A0A4A5}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{D3AC67F9-F7FA-4468-96B1-BB4F5F394E4A}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{6CAC7E52-27CC-482D-B110-71DD267C946C}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{E8D642D8-158A-4613-998F-970B709190E8}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{F47C0BE4-0900-48B9-9D78-55F57EF67370}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{3A484983-631F-4779-851C-7E9F12E29B3A}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{ACCE68ED-496A-467F-A16F-AC8ACC00221F}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{9E5438B5-4113-4A94-A977-B348A4849763}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{07F972BE-75E2-4BCF-AF7E-BA5FCF8D458E}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{CCAC0298-BC33-4D8C-8AAC-C25E405B8F21}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{1B7C1D8F-B0D9-45C2-B8D8-14FF190558A7}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{C7294812-5BA6-418E-9CDC-8940C14880E6}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{4FD6E135-D133-4E43-AFD8-A6F80C25BA66}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{BED99BC1-E769-42CD-A2C5-6FAB188B39F5}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{4E58D55D-5A7D-41CC-A6DB-3E1E6720FAF6}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{35A436B4-7759-439C-B4EA-74D2A5CA3B36}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{FE592B0C-5E64-4352-B80A-DDAE432476E3}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{256B990E-35AB-4D6D-BD27-CB13CD6C0E82}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{A6067DAE-B8A6-4696-844E-0911D2AFCCC8}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{F98966A0-2C5F-4A18-96F9-75CE01539EFA}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{8A7ECEE8-91B0-4051-A628-80DA82A75747}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{EEB411AD-A82D-48F6-9278-9CA08CBBA487}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{4BC9B9BD-5B47-427D-B295-E569E1675BBF}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{DB1C1578-09AE-4F1A-97DF-BEB8978396C5}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{0CC893A6-4671-4466-B747-B82ED24214F3}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{ACFA210D-0DA8-4B24-8A3B-05FF0632755D}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{D2452C94-8584-444C-944C-B0AF633C138B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId170"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9130A-4F2B-407D-BE8F-EC0E71C8450A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1526417E-1C09-4056-B1F8-DD2FCC4CA3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
@@ -3704,7 +3704,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3757,12 +3757,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3944,28 +3938,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -4317,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
   <dimension ref="A1:AO286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P270" sqref="P270"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68986980-A9BB-4384-9C80-C9834A843C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A35C3C3-719D-4F58-A4CC-248CB87E3716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="2805" windowWidth="28920" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8C37E95E-FB00-4CE0-8B41-60F324CA41B5}</author>
-    <author>tc={4AB63EC7-9E75-49E5-965B-63387B0BFA8B}</author>
-    <author>tc={6426B346-4F0C-49BE-AA41-6264989FA44F}</author>
+    <author>tc={740DD52C-05C4-420E-921D-5652DC4936BE}</author>
+    <author>tc={9D6CCE0E-7030-471E-8B24-FB7002402133}</author>
+    <author>tc={74C14CF1-2617-435F-BE0E-CB54C3E9C9DD}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8C37E95E-FB00-4CE0-8B41-60F324CA41B5}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{740DD52C-05C4-420E-921D-5652DC4936BE}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{4AB63EC7-9E75-49E5-965B-63387B0BFA8B}">
+    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{9D6CCE0E-7030-471E-8B24-FB7002402133}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{6426B346-4F0C-49BE-AA41-6264989FA44F}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{74C14CF1-2617-435F-BE0E-CB54C3E9C9DD}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -1376,9 +1376,6 @@
     <t>Stress and mortality to people due to increasing temperatures and heat extremes</t>
   </si>
   <si>
-    <t>effects of increasing temperatures</t>
-  </si>
-  <si>
     <t>Marine and terrestrial ecosystems disruptions</t>
   </si>
   <si>
@@ -3905,6 +3902,9 @@
   </si>
   <si>
     <t>Energie Mix wird diverser mit Wasserstoff --&gt; Energie Schwankungen leichter ausgleichen</t>
+  </si>
+  <si>
+    <t>IPCC Report increasing temperatures</t>
   </si>
 </sst>
 </file>
@@ -4552,14 +4552,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{8C37E95E-FB00-4CE0-8B41-60F324CA41B5}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{740DD52C-05C4-420E-921D-5652DC4936BE}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{4AB63EC7-9E75-49E5-965B-63387B0BFA8B}">
+  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{9D6CCE0E-7030-471E-8B24-FB7002402133}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{6426B346-4F0C-49BE-AA41-6264989FA44F}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{74C14CF1-2617-435F-BE0E-CB54C3E9C9DD}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -4567,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
-  <dimension ref="A1:BJ286"/>
+  <dimension ref="A1:BJ296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4646,13 +4646,13 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>23</v>
@@ -4664,13 +4664,13 @@
         <v>25</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>26</v>
@@ -4682,13 +4682,13 @@
         <v>28</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>29</v>
@@ -4700,13 +4700,13 @@
         <v>31</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>32</v>
@@ -4718,13 +4718,13 @@
         <v>34</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1152</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>35</v>
@@ -4736,13 +4736,13 @@
         <v>37</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>38</v>
@@ -4754,13 +4754,13 @@
         <v>40</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="135" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
       <c r="AS2" s="10"/>
       <c r="AT2" s="10"/>
       <c r="AU2" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV2" s="10"/>
       <c r="AW2" s="10"/>
@@ -5165,7 +5165,7 @@
       <c r="AS5" s="19"/>
       <c r="AT5" s="19"/>
       <c r="AU5" s="19" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AV5" s="19"/>
       <c r="AW5" s="19"/>
@@ -5746,7 +5746,7 @@
         <v>43</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O11" s="19" t="s">
         <v>45</v>
@@ -6031,7 +6031,7 @@
         <v>86</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -6402,7 +6402,7 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
@@ -6421,7 +6421,7 @@
       <c r="AM17" s="19"/>
       <c r="AN17" s="19"/>
       <c r="AO17" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
@@ -6697,10 +6697,10 @@
         <v>9</v>
       </c>
       <c r="M20" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>1080</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>1081</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>45</v>
@@ -7033,10 +7033,10 @@
         <v>2</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
@@ -7149,7 +7149,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
@@ -7171,7 +7171,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
@@ -7373,7 +7373,7 @@
       <c r="AK26" s="10"/>
       <c r="AL26" s="10"/>
       <c r="AM26" s="10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AN26" s="10"/>
       <c r="AO26" s="10"/>
@@ -8309,7 +8309,7 @@
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
       <c r="AC35" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
@@ -8407,12 +8407,12 @@
         <v>5</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -8437,7 +8437,7 @@
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
       <c r="AU36" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
@@ -8731,7 +8731,7 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
       <c r="AA39" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AB39" s="19"/>
       <c r="AC39" s="19"/>
@@ -8753,7 +8753,7 @@
       <c r="AS39" s="19"/>
       <c r="AT39" s="19"/>
       <c r="AU39" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AV39" s="19"/>
       <c r="AW39" s="19"/>
@@ -8957,7 +8957,7 @@
       <c r="AM41" s="19"/>
       <c r="AN41" s="19"/>
       <c r="AO41" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AP41" s="19"/>
       <c r="AQ41" s="19"/>
@@ -9261,7 +9261,7 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
@@ -9275,7 +9275,7 @@
       <c r="AM44" s="10"/>
       <c r="AN44" s="10"/>
       <c r="AO44" s="10" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AP44" s="10"/>
       <c r="AQ44" s="10"/>
@@ -9893,7 +9893,7 @@
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
@@ -9908,7 +9908,7 @@
       <c r="AL50" s="10"/>
       <c r="AM50" s="10"/>
       <c r="AN50" s="10" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AO50" s="10"/>
       <c r="AP50" s="10"/>
@@ -9923,7 +9923,7 @@
       <c r="AY50" s="10"/>
       <c r="AZ50" s="10"/>
       <c r="BA50" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BB50" s="10"/>
       <c r="BC50" s="10"/>
@@ -10034,7 +10034,7 @@
       <c r="BD51" s="19"/>
       <c r="BE51" s="19"/>
       <c r="BF51" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="BG51" s="19"/>
       <c r="BH51" s="19"/>
@@ -10082,7 +10082,7 @@
         <v>235</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>236</v>
@@ -10112,7 +10112,7 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
@@ -10241,14 +10241,14 @@
       <c r="AY53" s="19"/>
       <c r="AZ53" s="19"/>
       <c r="BA53" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BB53" s="19"/>
       <c r="BC53" s="19"/>
       <c r="BD53" s="19"/>
       <c r="BE53" s="19"/>
       <c r="BF53" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BG53" s="19"/>
       <c r="BH53" s="19"/>
@@ -10341,7 +10341,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
       <c r="AU54" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
@@ -10447,7 +10447,7 @@
       <c r="AS55" s="19"/>
       <c r="AT55" s="19"/>
       <c r="AU55" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AV55" s="19"/>
       <c r="AW55" s="19"/>
@@ -10659,7 +10659,7 @@
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
       <c r="AU57" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AV57" s="19"/>
       <c r="AW57" s="19"/>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="U60" s="10"/>
       <c r="V60" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
@@ -10983,17 +10983,17 @@
       <c r="BA60" s="10"/>
       <c r="BB60" s="10"/>
       <c r="BC60" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BD60" s="10"/>
       <c r="BE60" s="10" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="BF60" s="10"/>
       <c r="BG60" s="10"/>
       <c r="BH60" s="10"/>
       <c r="BI60" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="BJ60" s="10"/>
     </row>
@@ -11172,7 +11172,7 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
@@ -11203,7 +11203,7 @@
       <c r="BC62" s="10"/>
       <c r="BD62" s="10"/>
       <c r="BE62" s="10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="BF62" s="10"/>
       <c r="BG62" s="10"/>
@@ -11305,13 +11305,13 @@
       <c r="AY63" s="19"/>
       <c r="AZ63" s="19"/>
       <c r="BA63" s="19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="BB63" s="19"/>
       <c r="BC63" s="19"/>
       <c r="BD63" s="19"/>
       <c r="BE63" s="19" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="BF63" s="19"/>
       <c r="BG63" s="19"/>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="U66" s="10"/>
       <c r="V66" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
@@ -11627,7 +11627,7 @@
       <c r="BC66" s="10"/>
       <c r="BD66" s="10"/>
       <c r="BE66" s="10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="BF66" s="10"/>
       <c r="BG66" s="10"/>
@@ -11643,7 +11643,7 @@
         <v>288</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -11729,14 +11729,14 @@
       <c r="AY67" s="19"/>
       <c r="AZ67" s="19"/>
       <c r="BA67" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="BB67" s="19"/>
       <c r="BC67" s="19"/>
       <c r="BD67" s="19"/>
       <c r="BE67" s="19"/>
       <c r="BF67" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="BG67" s="19"/>
       <c r="BH67" s="19"/>
@@ -12128,7 +12128,7 @@
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
@@ -12155,7 +12155,7 @@
       <c r="BA71" s="19"/>
       <c r="BB71" s="19"/>
       <c r="BC71" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BD71" s="19"/>
       <c r="BE71" s="19"/>
@@ -12469,7 +12469,7 @@
       <c r="AY74" s="10"/>
       <c r="AZ74" s="10"/>
       <c r="BA74" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="BB74" s="10"/>
       <c r="BC74" s="10"/>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="U76" s="10"/>
       <c r="V76" s="10" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="W76" s="10"/>
       <c r="X76" s="10"/>
@@ -12661,7 +12661,7 @@
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
       <c r="AC76" s="10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
@@ -12683,7 +12683,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
       <c r="AU76" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
@@ -12739,7 +12739,7 @@
         <v>10</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="N77" s="18" t="s">
         <v>327</v>
@@ -12791,7 +12791,7 @@
       <c r="AS77" s="19"/>
       <c r="AT77" s="19"/>
       <c r="AU77" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AV77" s="19"/>
       <c r="AW77" s="19"/>
@@ -12872,7 +12872,7 @@
       </c>
       <c r="U78" s="10"/>
       <c r="V78" s="10" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="W78" s="10"/>
       <c r="X78" s="10"/>
@@ -12882,7 +12882,7 @@
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AE78" s="10"/>
       <c r="AF78" s="10"/>
@@ -13225,7 +13225,7 @@
       <c r="BC81" s="19"/>
       <c r="BD81" s="19"/>
       <c r="BE81" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="BF81" s="19"/>
       <c r="BG81" s="19"/>
@@ -13484,7 +13484,7 @@
         <v>356</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="O84" s="10" t="s">
         <v>328</v>
@@ -13826,7 +13826,7 @@
       <c r="AB87" s="19"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AE87" s="19"/>
       <c r="AF87" s="19"/>
@@ -14172,7 +14172,7 @@
       <c r="BD90" s="10"/>
       <c r="BE90" s="10"/>
       <c r="BF90" s="10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="BG90" s="10"/>
       <c r="BH90" s="10"/>
@@ -14384,7 +14384,7 @@
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
       <c r="BH92" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="BI92" s="10"/>
       <c r="BJ92" s="10"/>
@@ -14593,7 +14593,7 @@
       <c r="BE94" s="10"/>
       <c r="BF94" s="10"/>
       <c r="BG94" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="BH94" s="10"/>
       <c r="BI94" s="10"/>
@@ -15025,7 +15025,7 @@
         <v>409</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>410</v>
+        <v>1212</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -15119,7 +15119,7 @@
       <c r="BG99" s="19"/>
       <c r="BH99" s="19"/>
       <c r="BI99" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="BJ99" s="19"/>
     </row>
@@ -15128,10 +15128,10 @@
         <v>120</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="D100" s="6">
         <v>0</v>
@@ -15232,10 +15232,10 @@
         <v>121</v>
       </c>
       <c r="B101" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>414</v>
       </c>
       <c r="D101" s="15">
         <v>0</v>
@@ -15336,10 +15336,10 @@
         <v>122</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>415</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>416</v>
       </c>
       <c r="D102" s="6">
         <v>0</v>
@@ -15440,10 +15440,10 @@
         <v>123</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D103" s="15">
         <v>0</v>
@@ -15473,10 +15473,10 @@
         <v>10</v>
       </c>
       <c r="M103" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="N103" s="18" t="s">
         <v>418</v>
-      </c>
-      <c r="N103" s="18" t="s">
-        <v>419</v>
       </c>
       <c r="O103" s="19" t="s">
         <v>45</v>
@@ -15544,10 +15544,10 @@
         <v>124</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="D104" s="6">
         <v>0</v>
@@ -15577,10 +15577,10 @@
         <v>10</v>
       </c>
       <c r="M104" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="N104" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="N104" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="O104" s="10" t="s">
         <v>45</v>
@@ -15648,10 +15648,10 @@
         <v>125</v>
       </c>
       <c r="B105" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>425</v>
       </c>
       <c r="D105" s="15">
         <v>0</v>
@@ -15681,10 +15681,10 @@
         <v>10</v>
       </c>
       <c r="M105" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="N105" s="18" t="s">
         <v>426</v>
-      </c>
-      <c r="N105" s="18" t="s">
-        <v>427</v>
       </c>
       <c r="O105" s="19" t="s">
         <v>45</v>
@@ -15752,10 +15752,10 @@
         <v>126</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D106" s="6">
         <v>0</v>
@@ -15785,10 +15785,10 @@
         <v>8</v>
       </c>
       <c r="M106" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="N106" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="N106" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="O106" s="10" t="s">
         <v>45</v>
@@ -15856,10 +15856,10 @@
         <v>127</v>
       </c>
       <c r="B107" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>431</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>432</v>
       </c>
       <c r="D107" s="15">
         <v>1</v>
@@ -15889,10 +15889,10 @@
         <v>10</v>
       </c>
       <c r="M107" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="N107" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="N107" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="O107" s="19" t="s">
         <v>45</v>
@@ -15919,11 +15919,11 @@
       <c r="Y107" s="19"/>
       <c r="Z107" s="19"/>
       <c r="AA107" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AB107" s="19"/>
       <c r="AC107" s="19" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AD107" s="19"/>
       <c r="AE107" s="19"/>
@@ -15964,10 +15964,10 @@
         <v>128</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -15997,10 +15997,10 @@
         <v>9</v>
       </c>
       <c r="M108" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="N108" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="N108" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="O108" s="10" t="s">
         <v>45</v>
@@ -16068,10 +16068,10 @@
         <v>129</v>
       </c>
       <c r="B109" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>439</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>440</v>
       </c>
       <c r="D109" s="15">
         <v>1</v>
@@ -16101,10 +16101,10 @@
         <v>53</v>
       </c>
       <c r="M109" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="N109" s="18" t="s">
         <v>441</v>
-      </c>
-      <c r="N109" s="18" t="s">
-        <v>442</v>
       </c>
       <c r="O109" s="19" t="s">
         <v>45</v>
@@ -16172,10 +16172,10 @@
         <v>130</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D110" s="6">
         <v>0</v>
@@ -16205,10 +16205,10 @@
         <v>9</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O110" s="10" t="s">
         <v>45</v>
@@ -16254,7 +16254,7 @@
       <c r="AR110" s="10"/>
       <c r="AS110" s="10"/>
       <c r="AT110" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AU110" s="10"/>
       <c r="AV110" s="10"/>
@@ -16267,7 +16267,7 @@
       <c r="BC110" s="10"/>
       <c r="BD110" s="10"/>
       <c r="BE110" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="BF110" s="10"/>
       <c r="BG110" s="10"/>
@@ -16280,10 +16280,10 @@
         <v>131</v>
       </c>
       <c r="B111" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>446</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>447</v>
       </c>
       <c r="D111" s="15">
         <v>0</v>
@@ -16313,10 +16313,10 @@
         <v>9</v>
       </c>
       <c r="M111" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="N111" s="18" t="s">
         <v>448</v>
-      </c>
-      <c r="N111" s="18" t="s">
-        <v>449</v>
       </c>
       <c r="O111" s="19" t="s">
         <v>45</v>
@@ -16384,10 +16384,10 @@
         <v>132</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
@@ -16417,10 +16417,10 @@
         <v>8</v>
       </c>
       <c r="M112" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="N112" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="N112" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="O112" s="10" t="s">
         <v>45</v>
@@ -16488,10 +16488,10 @@
         <v>133</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>453</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>454</v>
       </c>
       <c r="D113" s="15">
         <v>0</v>
@@ -16521,10 +16521,10 @@
         <v>8</v>
       </c>
       <c r="M113" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="N113" s="18" t="s">
         <v>455</v>
-      </c>
-      <c r="N113" s="18" t="s">
-        <v>456</v>
       </c>
       <c r="O113" s="19" t="s">
         <v>45</v>
@@ -16592,10 +16592,10 @@
         <v>136</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -16621,10 +16621,10 @@
         <v>49</v>
       </c>
       <c r="M114" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="N114" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="N114" s="9" t="s">
-        <v>460</v>
       </c>
       <c r="O114" s="10" t="s">
         <v>45</v>
@@ -16645,7 +16645,7 @@
         <v>5</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V114" s="10"/>
       <c r="W114" s="10"/>
@@ -16665,7 +16665,7 @@
       <c r="AK114" s="10"/>
       <c r="AL114" s="10"/>
       <c r="AM114" s="10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AN114" s="10"/>
       <c r="AO114" s="10"/>
@@ -16679,10 +16679,10 @@
       <c r="AW114" s="10"/>
       <c r="AX114" s="10"/>
       <c r="AY114" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AZ114" s="10" t="s">
         <v>1039</v>
-      </c>
-      <c r="AZ114" s="10" t="s">
-        <v>1040</v>
       </c>
       <c r="BA114" s="10"/>
       <c r="BB114" s="10"/>
@@ -16700,10 +16700,10 @@
         <v>137</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>462</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>463</v>
       </c>
       <c r="D115" s="15">
         <v>1</v>
@@ -16725,10 +16725,10 @@
         <v>9</v>
       </c>
       <c r="M115" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="N115" s="18" t="s">
         <v>464</v>
-      </c>
-      <c r="N115" s="18" t="s">
-        <v>465</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>45</v>
@@ -16796,10 +16796,10 @@
         <v>138</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -16829,10 +16829,10 @@
         <v>49</v>
       </c>
       <c r="M116" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="N116" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>468</v>
       </c>
       <c r="O116" s="10" t="s">
         <v>45</v>
@@ -16893,7 +16893,7 @@
       <c r="BG116" s="10"/>
       <c r="BH116" s="10"/>
       <c r="BI116" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="BJ116" s="10"/>
     </row>
@@ -16902,10 +16902,10 @@
         <v>139</v>
       </c>
       <c r="B117" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>469</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>470</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
@@ -16935,10 +16935,10 @@
         <v>8</v>
       </c>
       <c r="M117" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="N117" s="18" t="s">
         <v>471</v>
-      </c>
-      <c r="N117" s="18" t="s">
-        <v>472</v>
       </c>
       <c r="O117" s="19" t="s">
         <v>45</v>
@@ -16972,7 +16972,7 @@
       <c r="AF117" s="19"/>
       <c r="AG117" s="19"/>
       <c r="AH117" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AI117" s="19"/>
       <c r="AJ117" s="19"/>
@@ -17008,10 +17008,10 @@
         <v>140</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -17041,10 +17041,10 @@
         <v>8</v>
       </c>
       <c r="M118" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="N118" s="9" t="s">
         <v>476</v>
-      </c>
-      <c r="N118" s="9" t="s">
-        <v>477</v>
       </c>
       <c r="O118" s="10" t="s">
         <v>45</v>
@@ -17112,10 +17112,10 @@
         <v>142</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>478</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>479</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
@@ -17145,10 +17145,10 @@
         <v>10</v>
       </c>
       <c r="M119" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="N119" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="N119" s="32" t="s">
-        <v>481</v>
       </c>
       <c r="O119" s="14" t="s">
         <v>45</v>
@@ -17216,10 +17216,10 @@
         <v>144</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -17245,10 +17245,10 @@
         <v>53</v>
       </c>
       <c r="M120" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="N120" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="N120" s="9" t="s">
-        <v>484</v>
       </c>
       <c r="O120" s="10" t="s">
         <v>45</v>
@@ -17316,10 +17316,10 @@
         <v>145</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
@@ -17349,10 +17349,10 @@
         <v>9</v>
       </c>
       <c r="M121" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="N121" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="N121" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="O121" s="19" t="s">
         <v>45</v>
@@ -17420,10 +17420,10 @@
         <v>146</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D122" s="6">
         <v>0</v>
@@ -17453,10 +17453,10 @@
         <v>8</v>
       </c>
       <c r="M122" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="N122" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="N122" s="9" t="s">
-        <v>490</v>
       </c>
       <c r="O122" s="10" t="s">
         <v>45</v>
@@ -17524,10 +17524,10 @@
         <v>147</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D123" s="15">
         <v>1</v>
@@ -17557,10 +17557,10 @@
         <v>9</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O123" s="19" t="s">
         <v>45</v>
@@ -17628,10 +17628,10 @@
         <v>151</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="D124" s="6">
         <v>1</v>
@@ -17655,10 +17655,10 @@
         <v>53</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O124" s="10" t="s">
         <v>45</v>
@@ -17703,7 +17703,7 @@
       <c r="AQ124" s="10"/>
       <c r="AR124" s="10"/>
       <c r="AS124" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AT124" s="10"/>
       <c r="AU124" s="10"/>
@@ -17728,10 +17728,10 @@
         <v>152</v>
       </c>
       <c r="B125" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>497</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>498</v>
       </c>
       <c r="D125" s="15">
         <v>1</v>
@@ -17761,10 +17761,10 @@
         <v>10</v>
       </c>
       <c r="M125" s="43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O125" s="19" t="s">
         <v>45</v>
@@ -17832,10 +17832,10 @@
         <v>153</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D126" s="6">
         <v>0</v>
@@ -17865,10 +17865,10 @@
         <v>8</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O126" s="10" t="s">
         <v>45</v>
@@ -17915,7 +17915,7 @@
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
       <c r="AU126" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
@@ -17938,10 +17938,10 @@
         <v>154</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
@@ -17971,10 +17971,10 @@
         <v>10</v>
       </c>
       <c r="M127" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="N127" s="18" t="s">
         <v>503</v>
-      </c>
-      <c r="N127" s="18" t="s">
-        <v>504</v>
       </c>
       <c r="O127" s="19" t="s">
         <v>45</v>
@@ -18014,7 +18014,7 @@
       <c r="AL127" s="19"/>
       <c r="AM127" s="19"/>
       <c r="AN127" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AO127" s="19"/>
       <c r="AP127" s="19"/>
@@ -18044,10 +18044,10 @@
         <v>155</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="D128" s="6">
         <v>0</v>
@@ -18077,10 +18077,10 @@
         <v>53</v>
       </c>
       <c r="M128" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="N128" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="N128" s="9" t="s">
-        <v>508</v>
       </c>
       <c r="O128" s="10" t="s">
         <v>45</v>
@@ -18148,10 +18148,10 @@
         <v>156</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D129" s="15">
         <v>1</v>
@@ -18181,10 +18181,10 @@
         <v>9</v>
       </c>
       <c r="M129" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="N129" s="18" t="s">
         <v>510</v>
-      </c>
-      <c r="N129" s="18" t="s">
-        <v>511</v>
       </c>
       <c r="O129" s="19" t="s">
         <v>45</v>
@@ -18252,10 +18252,10 @@
         <v>157</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="D130" s="6">
         <v>1</v>
@@ -18285,10 +18285,10 @@
         <v>10</v>
       </c>
       <c r="M130" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="N130" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="N130" s="9" t="s">
-        <v>515</v>
       </c>
       <c r="O130" s="10" t="s">
         <v>45</v>
@@ -18312,7 +18312,7 @@
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
       <c r="X130" s="10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
@@ -18358,10 +18358,10 @@
         <v>158</v>
       </c>
       <c r="B131" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>516</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>517</v>
       </c>
       <c r="D131" s="15">
         <v>1</v>
@@ -18391,10 +18391,10 @@
         <v>10</v>
       </c>
       <c r="M131" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="N131" s="18" t="s">
         <v>518</v>
-      </c>
-      <c r="N131" s="18" t="s">
-        <v>519</v>
       </c>
       <c r="O131" s="19" t="s">
         <v>45</v>
@@ -18421,7 +18421,7 @@
       <c r="Y131" s="19"/>
       <c r="Z131" s="19"/>
       <c r="AA131" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AB131" s="19"/>
       <c r="AC131" s="19"/>
@@ -18464,10 +18464,10 @@
         <v>159</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D132" s="6">
         <v>0</v>
@@ -18497,10 +18497,10 @@
         <v>9</v>
       </c>
       <c r="M132" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="N132" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="N132" s="9" t="s">
-        <v>522</v>
       </c>
       <c r="O132" s="10" t="s">
         <v>45</v>
@@ -18568,10 +18568,10 @@
         <v>161</v>
       </c>
       <c r="B133" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>523</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>524</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
@@ -18601,10 +18601,10 @@
         <v>9</v>
       </c>
       <c r="M133" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="N133" s="18" t="s">
         <v>525</v>
-      </c>
-      <c r="N133" s="18" t="s">
-        <v>526</v>
       </c>
       <c r="O133" s="19" t="s">
         <v>45</v>
@@ -18672,10 +18672,10 @@
         <v>162</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="D134" s="6">
         <v>1</v>
@@ -18705,10 +18705,10 @@
         <v>10</v>
       </c>
       <c r="M134" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="N134" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="N134" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="O134" s="10" t="s">
         <v>45</v>
@@ -18776,10 +18776,10 @@
         <v>163</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
@@ -18812,7 +18812,7 @@
         <v>382</v>
       </c>
       <c r="N135" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O135" s="19" t="s">
         <v>45</v>
@@ -18880,10 +18880,10 @@
         <v>164</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="D136" s="6">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>382</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O136" s="10" t="s">
         <v>45</v>
@@ -18984,10 +18984,10 @@
         <v>165</v>
       </c>
       <c r="B137" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>536</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>537</v>
       </c>
       <c r="D137" s="15">
         <v>0</v>
@@ -19020,7 +19020,7 @@
         <v>382</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O137" s="19" t="s">
         <v>45</v>
@@ -19088,10 +19088,10 @@
         <v>166</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="D138" s="6">
         <v>1</v>
@@ -19124,7 +19124,7 @@
         <v>382</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O138" s="10" t="s">
         <v>45</v>
@@ -19192,10 +19192,10 @@
         <v>169</v>
       </c>
       <c r="B139" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>542</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>543</v>
       </c>
       <c r="D139" s="15">
         <v>0</v>
@@ -19220,7 +19220,7 @@
         <v>382</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O139" s="19" t="s">
         <v>45</v>
@@ -19232,7 +19232,7 @@
         <v>118</v>
       </c>
       <c r="R139" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S139" s="21">
         <v>3</v>
@@ -19288,10 +19288,10 @@
         <v>170</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="D140" s="6">
         <v>0</v>
@@ -19324,7 +19324,7 @@
         <v>382</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O140" s="10" t="s">
         <v>45</v>
@@ -19392,10 +19392,10 @@
         <v>171</v>
       </c>
       <c r="B141" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>549</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>550</v>
       </c>
       <c r="D141" s="15">
         <v>0</v>
@@ -19428,7 +19428,7 @@
         <v>382</v>
       </c>
       <c r="N141" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O141" s="19" t="s">
         <v>45</v>
@@ -19496,10 +19496,10 @@
         <v>173</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D142" s="6">
         <v>1</v>
@@ -19529,10 +19529,10 @@
         <v>9</v>
       </c>
       <c r="M142" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="N142" s="9" t="s">
         <v>553</v>
-      </c>
-      <c r="N142" s="9" t="s">
-        <v>554</v>
       </c>
       <c r="O142" s="10" t="s">
         <v>236</v>
@@ -19553,7 +19553,7 @@
         <v>5</v>
       </c>
       <c r="U142" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V142" s="10"/>
       <c r="W142" s="10"/>
@@ -19567,17 +19567,17 @@
       <c r="AE142" s="10"/>
       <c r="AF142" s="10"/>
       <c r="AG142" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="AH142" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="AH142" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="AI142" s="10"/>
       <c r="AJ142" s="10"/>
       <c r="AK142" s="10"/>
       <c r="AL142" s="10"/>
       <c r="AM142" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN142" s="10"/>
       <c r="AO142" s="10"/>
@@ -19585,7 +19585,7 @@
       <c r="AQ142" s="10"/>
       <c r="AR142" s="10"/>
       <c r="AS142" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AT142" s="10"/>
       <c r="AU142" s="10"/>
@@ -19610,10 +19610,10 @@
         <v>174</v>
       </c>
       <c r="B143" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>559</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>560</v>
       </c>
       <c r="D143" s="15">
         <v>1</v>
@@ -19643,10 +19643,10 @@
         <v>9</v>
       </c>
       <c r="M143" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="N143" s="18" t="s">
         <v>561</v>
-      </c>
-      <c r="N143" s="18" t="s">
-        <v>562</v>
       </c>
       <c r="O143" s="19" t="s">
         <v>236</v>
@@ -19691,7 +19691,7 @@
       <c r="AQ143" s="19"/>
       <c r="AR143" s="19"/>
       <c r="AS143" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AT143" s="19"/>
       <c r="AU143" s="19"/>
@@ -19699,7 +19699,7 @@
       <c r="AW143" s="19"/>
       <c r="AX143" s="19"/>
       <c r="AY143" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AZ143" s="19"/>
       <c r="BA143" s="19"/>
@@ -19718,7 +19718,7 @@
         <v>176</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>374</v>
@@ -19751,10 +19751,10 @@
         <v>9</v>
       </c>
       <c r="M144" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="N144" s="9" t="s">
         <v>565</v>
-      </c>
-      <c r="N144" s="9" t="s">
-        <v>566</v>
       </c>
       <c r="O144" s="10" t="s">
         <v>236</v>
@@ -19822,10 +19822,10 @@
         <v>177</v>
       </c>
       <c r="B145" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>567</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>568</v>
       </c>
       <c r="D145" s="15">
         <v>1</v>
@@ -19855,10 +19855,10 @@
         <v>9</v>
       </c>
       <c r="M145" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="N145" s="18" t="s">
         <v>569</v>
-      </c>
-      <c r="N145" s="18" t="s">
-        <v>570</v>
       </c>
       <c r="O145" s="19" t="s">
         <v>236</v>
@@ -19926,10 +19926,10 @@
         <v>178</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="D146" s="6">
         <v>1</v>
@@ -19959,10 +19959,10 @@
         <v>9</v>
       </c>
       <c r="M146" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="N146" s="9" t="s">
         <v>573</v>
-      </c>
-      <c r="N146" s="9" t="s">
-        <v>574</v>
       </c>
       <c r="O146" s="10" t="s">
         <v>236</v>
@@ -19989,10 +19989,10 @@
       <c r="Y146" s="10"/>
       <c r="Z146" s="10"/>
       <c r="AA146" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB146" s="10" t="s">
         <v>575</v>
-      </c>
-      <c r="AB146" s="10" t="s">
-        <v>576</v>
       </c>
       <c r="AC146" s="10"/>
       <c r="AD146" s="10"/>
@@ -20034,10 +20034,10 @@
         <v>179</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D147" s="15">
         <v>1</v>
@@ -20067,10 +20067,10 @@
         <v>9</v>
       </c>
       <c r="M147" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="N147" s="18" t="s">
         <v>578</v>
-      </c>
-      <c r="N147" s="18" t="s">
-        <v>579</v>
       </c>
       <c r="O147" s="19" t="s">
         <v>236</v>
@@ -20097,7 +20097,7 @@
       <c r="Y147" s="19"/>
       <c r="Z147" s="19"/>
       <c r="AA147" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AB147" s="19"/>
       <c r="AC147" s="19"/>
@@ -20134,7 +20134,7 @@
       <c r="BH147" s="19"/>
       <c r="BI147" s="19"/>
       <c r="BJ147" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="148" spans="1:62" ht="210" x14ac:dyDescent="0.25">
@@ -20142,10 +20142,10 @@
         <v>181</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D148" s="6">
         <v>1</v>
@@ -20175,10 +20175,10 @@
         <v>9</v>
       </c>
       <c r="M148" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="N148" s="9" t="s">
         <v>582</v>
-      </c>
-      <c r="N148" s="9" t="s">
-        <v>583</v>
       </c>
       <c r="O148" s="10" t="s">
         <v>236</v>
@@ -20246,10 +20246,10 @@
         <v>182</v>
       </c>
       <c r="B149" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>584</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>585</v>
       </c>
       <c r="D149" s="15">
         <v>1</v>
@@ -20279,10 +20279,10 @@
         <v>9</v>
       </c>
       <c r="M149" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="N149" s="18" t="s">
         <v>586</v>
-      </c>
-      <c r="N149" s="18" t="s">
-        <v>587</v>
       </c>
       <c r="O149" s="19" t="s">
         <v>236</v>
@@ -20350,10 +20350,10 @@
         <v>183</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D150" s="6">
         <v>1</v>
@@ -20383,10 +20383,10 @@
         <v>9</v>
       </c>
       <c r="M150" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="N150" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="N150" s="9" t="s">
-        <v>590</v>
       </c>
       <c r="O150" s="10" t="s">
         <v>236</v>
@@ -20454,10 +20454,10 @@
         <v>184</v>
       </c>
       <c r="B151" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>591</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>592</v>
       </c>
       <c r="D151" s="15">
         <v>1</v>
@@ -20487,10 +20487,10 @@
         <v>9</v>
       </c>
       <c r="M151" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="N151" s="18" t="s">
         <v>593</v>
-      </c>
-      <c r="N151" s="18" t="s">
-        <v>594</v>
       </c>
       <c r="O151" s="19" t="s">
         <v>236</v>
@@ -20511,12 +20511,12 @@
         <v>3</v>
       </c>
       <c r="U151" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
       <c r="X151" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Y151" s="19"/>
       <c r="Z151" s="19"/>
@@ -20528,7 +20528,7 @@
       <c r="AF151" s="19"/>
       <c r="AG151" s="19"/>
       <c r="AH151" s="19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AI151" s="19"/>
       <c r="AJ151" s="19"/>
@@ -20541,7 +20541,7 @@
       <c r="AQ151" s="19"/>
       <c r="AR151" s="19"/>
       <c r="AS151" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AT151" s="19"/>
       <c r="AU151" s="19"/>
@@ -20566,10 +20566,10 @@
         <v>185</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="D152" s="6">
         <v>0</v>
@@ -20599,10 +20599,10 @@
         <v>9</v>
       </c>
       <c r="M152" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="N152" s="9" t="s">
         <v>599</v>
-      </c>
-      <c r="N152" s="9" t="s">
-        <v>600</v>
       </c>
       <c r="O152" s="10" t="s">
         <v>236</v>
@@ -20670,10 +20670,10 @@
         <v>186</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D153" s="15">
         <v>1</v>
@@ -20703,10 +20703,10 @@
         <v>9</v>
       </c>
       <c r="M153" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="N153" s="18" t="s">
         <v>602</v>
-      </c>
-      <c r="N153" s="18" t="s">
-        <v>603</v>
       </c>
       <c r="O153" s="19" t="s">
         <v>236</v>
@@ -20751,7 +20751,7 @@
       <c r="AQ153" s="19"/>
       <c r="AR153" s="19"/>
       <c r="AS153" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT153" s="19"/>
       <c r="AU153" s="19"/>
@@ -20776,10 +20776,10 @@
         <v>187</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="D154" s="6">
         <v>1</v>
@@ -20809,10 +20809,10 @@
         <v>9</v>
       </c>
       <c r="M154" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="N154" s="9" t="s">
         <v>607</v>
-      </c>
-      <c r="N154" s="9" t="s">
-        <v>608</v>
       </c>
       <c r="O154" s="10" t="s">
         <v>236</v>
@@ -20857,7 +20857,7 @@
       <c r="AQ154" s="10"/>
       <c r="AR154" s="10"/>
       <c r="AS154" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AT154" s="10"/>
       <c r="AU154" s="10"/>
@@ -20866,7 +20866,7 @@
       <c r="AX154" s="10"/>
       <c r="AY154" s="10"/>
       <c r="AZ154" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="BA154" s="10"/>
       <c r="BB154" s="10"/>
@@ -20884,10 +20884,10 @@
         <v>188</v>
       </c>
       <c r="B155" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C155" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>611</v>
       </c>
       <c r="D155" s="15">
         <v>1</v>
@@ -20917,10 +20917,10 @@
         <v>9</v>
       </c>
       <c r="M155" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="N155" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="N155" s="18" t="s">
-        <v>613</v>
       </c>
       <c r="O155" s="19" t="s">
         <v>236</v>
@@ -20988,10 +20988,10 @@
         <v>189</v>
       </c>
       <c r="B156" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="D156" s="6">
         <v>1</v>
@@ -21021,10 +21021,10 @@
         <v>9</v>
       </c>
       <c r="M156" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="N156" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="N156" s="9" t="s">
-        <v>617</v>
       </c>
       <c r="O156" s="10" t="s">
         <v>236</v>
@@ -21082,7 +21082,7 @@
       <c r="BD156" s="10"/>
       <c r="BE156" s="10"/>
       <c r="BF156" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="BG156" s="10"/>
       <c r="BH156" s="10"/>
@@ -21094,10 +21094,10 @@
         <v>190</v>
       </c>
       <c r="B157" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>618</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>619</v>
       </c>
       <c r="D157" s="15">
         <v>0</v>
@@ -21127,10 +21127,10 @@
         <v>9</v>
       </c>
       <c r="M157" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="N157" s="18" t="s">
         <v>620</v>
-      </c>
-      <c r="N157" s="18" t="s">
-        <v>621</v>
       </c>
       <c r="O157" s="19" t="s">
         <v>236</v>
@@ -21198,10 +21198,10 @@
         <v>191</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="D158" s="6">
         <v>1</v>
@@ -21231,10 +21231,10 @@
         <v>9</v>
       </c>
       <c r="M158" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="N158" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="N158" s="9" t="s">
-        <v>625</v>
       </c>
       <c r="O158" s="10" t="s">
         <v>236</v>
@@ -21279,7 +21279,7 @@
       <c r="AQ158" s="10"/>
       <c r="AR158" s="10"/>
       <c r="AS158" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AT158" s="10"/>
       <c r="AU158" s="10"/>
@@ -21304,10 +21304,10 @@
         <v>192</v>
       </c>
       <c r="B159" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>627</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>628</v>
       </c>
       <c r="D159" s="15">
         <v>1</v>
@@ -21337,10 +21337,10 @@
         <v>9</v>
       </c>
       <c r="M159" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="N159" s="18" t="s">
         <v>629</v>
-      </c>
-      <c r="N159" s="18" t="s">
-        <v>630</v>
       </c>
       <c r="O159" s="19" t="s">
         <v>236</v>
@@ -21408,10 +21408,10 @@
         <v>193</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D160" s="6">
         <v>1</v>
@@ -21441,10 +21441,10 @@
         <v>9</v>
       </c>
       <c r="M160" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="N160" s="9" t="s">
         <v>632</v>
-      </c>
-      <c r="N160" s="9" t="s">
-        <v>633</v>
       </c>
       <c r="O160" s="10" t="s">
         <v>236</v>
@@ -21473,7 +21473,7 @@
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
       <c r="AC160" s="10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AD160" s="10"/>
       <c r="AE160" s="10"/>
@@ -21514,10 +21514,10 @@
         <v>194</v>
       </c>
       <c r="B161" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>634</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>635</v>
       </c>
       <c r="D161" s="15">
         <v>0</v>
@@ -21547,10 +21547,10 @@
         <v>9</v>
       </c>
       <c r="M161" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="N161" s="18" t="s">
         <v>636</v>
-      </c>
-      <c r="N161" s="18" t="s">
-        <v>637</v>
       </c>
       <c r="O161" s="19" t="s">
         <v>236</v>
@@ -21595,7 +21595,7 @@
       <c r="AQ161" s="19"/>
       <c r="AR161" s="19"/>
       <c r="AS161" s="19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AT161" s="19"/>
       <c r="AU161" s="19"/>
@@ -21620,10 +21620,10 @@
         <v>195</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="D162" s="6">
         <v>1</v>
@@ -21653,10 +21653,10 @@
         <v>9</v>
       </c>
       <c r="M162" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="N162" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="N162" s="9" t="s">
-        <v>642</v>
       </c>
       <c r="O162" s="10" t="s">
         <v>236</v>
@@ -21678,7 +21678,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W162" s="10"/>
       <c r="X162" s="10"/>
@@ -21704,31 +21704,31 @@
       <c r="AR162" s="10"/>
       <c r="AS162" s="10"/>
       <c r="AT162" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AU162" s="10"/>
       <c r="AV162" s="10"/>
       <c r="AW162" s="10"/>
       <c r="AX162" s="10"/>
       <c r="AY162" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AZ162" s="10"/>
       <c r="BA162" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="BB162" s="46" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC162" s="10"/>
       <c r="BD162" s="10"/>
       <c r="BE162" s="10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BF162" s="10"/>
       <c r="BG162" s="10"/>
       <c r="BH162" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="BI162" s="10"/>
       <c r="BJ162" s="10"/>
@@ -21738,10 +21738,10 @@
         <v>196</v>
       </c>
       <c r="B163" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>645</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>646</v>
       </c>
       <c r="D163" s="15">
         <v>1</v>
@@ -21771,10 +21771,10 @@
         <v>9</v>
       </c>
       <c r="M163" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="N163" s="18" t="s">
         <v>647</v>
-      </c>
-      <c r="N163" s="18" t="s">
-        <v>648</v>
       </c>
       <c r="O163" s="19" t="s">
         <v>236</v>
@@ -21795,12 +21795,12 @@
         <v>4</v>
       </c>
       <c r="U163" s="19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V163" s="19"/>
       <c r="W163" s="19"/>
       <c r="X163" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
@@ -21823,7 +21823,7 @@
       <c r="AQ163" s="19"/>
       <c r="AR163" s="19"/>
       <c r="AS163" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AT163" s="19"/>
       <c r="AU163" s="19"/>
@@ -21848,10 +21848,10 @@
         <v>197</v>
       </c>
       <c r="B164" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>650</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>651</v>
       </c>
       <c r="D164" s="6">
         <v>1</v>
@@ -21881,10 +21881,10 @@
         <v>9</v>
       </c>
       <c r="M164" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="N164" s="9" t="s">
         <v>652</v>
-      </c>
-      <c r="N164" s="9" t="s">
-        <v>653</v>
       </c>
       <c r="O164" s="10" t="s">
         <v>236</v>
@@ -21952,10 +21952,10 @@
         <v>198</v>
       </c>
       <c r="B165" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>654</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>655</v>
       </c>
       <c r="D165" s="15">
         <v>1</v>
@@ -21985,10 +21985,10 @@
         <v>9</v>
       </c>
       <c r="M165" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="N165" s="18" t="s">
         <v>656</v>
-      </c>
-      <c r="N165" s="18" t="s">
-        <v>657</v>
       </c>
       <c r="O165" s="19" t="s">
         <v>236</v>
@@ -22056,10 +22056,10 @@
         <v>199</v>
       </c>
       <c r="B166" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>658</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>659</v>
       </c>
       <c r="D166" s="6">
         <v>1</v>
@@ -22089,10 +22089,10 @@
         <v>9</v>
       </c>
       <c r="M166" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="N166" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="N166" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="O166" s="10" t="s">
         <v>236</v>
@@ -22137,7 +22137,7 @@
       <c r="AQ166" s="10"/>
       <c r="AR166" s="10"/>
       <c r="AS166" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AT166" s="10"/>
       <c r="AU166" s="10"/>
@@ -22162,10 +22162,10 @@
         <v>200</v>
       </c>
       <c r="B167" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>663</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>664</v>
       </c>
       <c r="D167" s="15">
         <v>0</v>
@@ -22195,10 +22195,10 @@
         <v>9</v>
       </c>
       <c r="M167" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="N167" s="18" t="s">
         <v>665</v>
-      </c>
-      <c r="N167" s="18" t="s">
-        <v>666</v>
       </c>
       <c r="O167" s="19" t="s">
         <v>236</v>
@@ -22266,10 +22266,10 @@
         <v>201</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="D168" s="6">
         <v>1</v>
@@ -22299,10 +22299,10 @@
         <v>9</v>
       </c>
       <c r="M168" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="N168" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="N168" s="9" t="s">
-        <v>670</v>
       </c>
       <c r="O168" s="10" t="s">
         <v>236</v>
@@ -22370,10 +22370,10 @@
         <v>202</v>
       </c>
       <c r="B169" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>672</v>
       </c>
       <c r="D169" s="15">
         <v>0</v>
@@ -22403,10 +22403,10 @@
         <v>9</v>
       </c>
       <c r="M169" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="N169" s="18" t="s">
         <v>673</v>
-      </c>
-      <c r="N169" s="18" t="s">
-        <v>674</v>
       </c>
       <c r="O169" s="19" t="s">
         <v>236</v>
@@ -22452,7 +22452,7 @@
       <c r="AR169" s="19"/>
       <c r="AS169" s="19"/>
       <c r="AT169" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AU169" s="19"/>
       <c r="AV169" s="19"/>
@@ -22476,10 +22476,10 @@
         <v>203</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>677</v>
       </c>
       <c r="D170" s="6">
         <v>0</v>
@@ -22509,10 +22509,10 @@
         <v>9</v>
       </c>
       <c r="M170" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="N170" s="9" t="s">
         <v>678</v>
-      </c>
-      <c r="N170" s="9" t="s">
-        <v>679</v>
       </c>
       <c r="O170" s="10" t="s">
         <v>236</v>
@@ -22557,7 +22557,7 @@
       <c r="AQ170" s="10"/>
       <c r="AR170" s="10"/>
       <c r="AS170" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AT170" s="10"/>
       <c r="AU170" s="10"/>
@@ -22582,10 +22582,10 @@
         <v>204</v>
       </c>
       <c r="B171" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>681</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>682</v>
       </c>
       <c r="D171" s="15">
         <v>1</v>
@@ -22615,10 +22615,10 @@
         <v>9</v>
       </c>
       <c r="M171" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="N171" s="18" t="s">
         <v>683</v>
-      </c>
-      <c r="N171" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="O171" s="19" t="s">
         <v>243</v>
@@ -22672,17 +22672,17 @@
       <c r="AZ171" s="19"/>
       <c r="BA171" s="19"/>
       <c r="BB171" s="46" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC171" s="19"/>
       <c r="BD171" s="19"/>
       <c r="BE171" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="BF171" s="19"/>
       <c r="BG171" s="19"/>
       <c r="BH171" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="BI171" s="19"/>
       <c r="BJ171" s="19"/>
@@ -22692,10 +22692,10 @@
         <v>205</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="D172" s="6">
         <v>1</v>
@@ -22725,10 +22725,10 @@
         <v>9</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O172" s="10" t="s">
         <v>243</v>
@@ -22796,10 +22796,10 @@
         <v>206</v>
       </c>
       <c r="B173" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>688</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>689</v>
       </c>
       <c r="D173" s="15">
         <v>0</v>
@@ -22829,10 +22829,10 @@
         <v>10</v>
       </c>
       <c r="M173" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="N173" s="18" t="s">
         <v>690</v>
-      </c>
-      <c r="N173" s="18" t="s">
-        <v>691</v>
       </c>
       <c r="O173" s="19" t="s">
         <v>243</v>
@@ -22859,7 +22859,7 @@
       <c r="Y173" s="19"/>
       <c r="Z173" s="19"/>
       <c r="AA173" s="19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AB173" s="19"/>
       <c r="AC173" s="19"/>
@@ -22892,7 +22892,7 @@
       <c r="BD173" s="19"/>
       <c r="BE173" s="19"/>
       <c r="BF173" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BG173" s="19"/>
       <c r="BH173" s="19"/>
@@ -22904,10 +22904,10 @@
         <v>207</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>694</v>
       </c>
       <c r="D174" s="6">
         <v>0</v>
@@ -22937,10 +22937,10 @@
         <v>10</v>
       </c>
       <c r="M174" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="N174" s="9" t="s">
         <v>695</v>
-      </c>
-      <c r="N174" s="9" t="s">
-        <v>696</v>
       </c>
       <c r="O174" s="10" t="s">
         <v>243</v>
@@ -22967,7 +22967,7 @@
       <c r="Y174" s="10"/>
       <c r="Z174" s="10"/>
       <c r="AA174" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AB174" s="10"/>
       <c r="AC174" s="10"/>
@@ -23010,10 +23010,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>698</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>699</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -23043,10 +23043,10 @@
         <v>9</v>
       </c>
       <c r="M175" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="N175" s="18" t="s">
         <v>700</v>
-      </c>
-      <c r="N175" s="18" t="s">
-        <v>701</v>
       </c>
       <c r="O175" s="19" t="s">
         <v>243</v>
@@ -23076,7 +23076,7 @@
       <c r="AB175" s="19"/>
       <c r="AC175" s="19"/>
       <c r="AD175" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AE175" s="19"/>
       <c r="AF175" s="19"/>
@@ -23116,10 +23116,10 @@
         <v>209</v>
       </c>
       <c r="B176" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
@@ -23149,10 +23149,10 @@
         <v>53</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O176" s="10" t="s">
         <v>243</v>
@@ -23182,7 +23182,7 @@
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AE176" s="10"/>
       <c r="AF176" s="10"/>
@@ -23222,10 +23222,10 @@
         <v>210</v>
       </c>
       <c r="B177" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="C177" s="15" t="s">
         <v>705</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>706</v>
       </c>
       <c r="D177" s="15">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         <v>10</v>
       </c>
       <c r="M177" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="N177" s="18" t="s">
         <v>707</v>
-      </c>
-      <c r="N177" s="18" t="s">
-        <v>708</v>
       </c>
       <c r="O177" s="19" t="s">
         <v>243</v>
@@ -23326,10 +23326,10 @@
         <v>211</v>
       </c>
       <c r="B178" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>710</v>
       </c>
       <c r="D178" s="6">
         <v>0</v>
@@ -23359,10 +23359,10 @@
         <v>10</v>
       </c>
       <c r="M178" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="N178" s="9" t="s">
         <v>711</v>
-      </c>
-      <c r="N178" s="9" t="s">
-        <v>712</v>
       </c>
       <c r="O178" s="10" t="s">
         <v>243</v>
@@ -23430,10 +23430,10 @@
         <v>212</v>
       </c>
       <c r="B179" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>713</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>714</v>
       </c>
       <c r="D179" s="15">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>53</v>
       </c>
       <c r="M179" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="N179" s="18" t="s">
         <v>715</v>
-      </c>
-      <c r="N179" s="18" t="s">
-        <v>716</v>
       </c>
       <c r="O179" s="19" t="s">
         <v>243</v>
@@ -23534,10 +23534,10 @@
         <v>213</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>718</v>
       </c>
       <c r="D180" s="6">
         <v>0</v>
@@ -23567,10 +23567,10 @@
         <v>53</v>
       </c>
       <c r="M180" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N180" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="O180" s="10" t="s">
         <v>243</v>
@@ -23638,10 +23638,10 @@
         <v>214</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -23671,10 +23671,10 @@
         <v>53</v>
       </c>
       <c r="M181" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O181" s="19" t="s">
         <v>243</v>
@@ -23742,10 +23742,10 @@
         <v>215</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>723</v>
       </c>
       <c r="D182" s="6">
         <v>1</v>
@@ -23775,10 +23775,10 @@
         <v>8</v>
       </c>
       <c r="M182" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="N182" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="N182" s="9" t="s">
-        <v>725</v>
       </c>
       <c r="O182" s="10" t="s">
         <v>264</v>
@@ -23819,7 +23819,7 @@
       <c r="AM182" s="10"/>
       <c r="AN182" s="10"/>
       <c r="AO182" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AP182" s="10"/>
       <c r="AQ182" s="10"/>
@@ -23848,10 +23848,10 @@
         <v>217</v>
       </c>
       <c r="B183" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>727</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>728</v>
       </c>
       <c r="D183" s="15">
         <v>0</v>
@@ -23881,10 +23881,10 @@
         <v>8</v>
       </c>
       <c r="M183" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="N183" s="18" t="s">
         <v>729</v>
-      </c>
-      <c r="N183" s="18" t="s">
-        <v>730</v>
       </c>
       <c r="O183" s="19" t="s">
         <v>264</v>
@@ -23952,10 +23952,10 @@
         <v>218</v>
       </c>
       <c r="B184" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>732</v>
       </c>
       <c r="D184" s="6">
         <v>0</v>
@@ -23985,10 +23985,10 @@
         <v>49</v>
       </c>
       <c r="M184" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="N184" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="N184" s="9" t="s">
-        <v>734</v>
       </c>
       <c r="O184" s="10" t="s">
         <v>45</v>
@@ -24056,10 +24056,10 @@
         <v>220</v>
       </c>
       <c r="B185" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>735</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>736</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -24089,10 +24089,10 @@
         <v>9</v>
       </c>
       <c r="M185" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="N185" s="18" t="s">
         <v>737</v>
-      </c>
-      <c r="N185" s="18" t="s">
-        <v>738</v>
       </c>
       <c r="O185" s="19" t="s">
         <v>45</v>
@@ -24137,7 +24137,7 @@
       <c r="AQ185" s="19"/>
       <c r="AR185" s="19"/>
       <c r="AS185" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AT185" s="19"/>
       <c r="AU185" s="19"/>
@@ -24162,10 +24162,10 @@
         <v>221</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D186" s="6">
         <v>0</v>
@@ -24195,10 +24195,10 @@
         <v>9</v>
       </c>
       <c r="M186" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="N186" s="9" t="s">
         <v>741</v>
-      </c>
-      <c r="N186" s="9" t="s">
-        <v>742</v>
       </c>
       <c r="O186" s="10" t="s">
         <v>45</v>
@@ -24243,7 +24243,7 @@
       <c r="AQ186" s="10"/>
       <c r="AR186" s="10"/>
       <c r="AS186" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AT186" s="10"/>
       <c r="AU186" s="10"/>
@@ -24268,10 +24268,10 @@
         <v>222</v>
       </c>
       <c r="B187" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>744</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>745</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -24301,10 +24301,10 @@
         <v>49</v>
       </c>
       <c r="M187" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="N187" s="18" t="s">
         <v>746</v>
-      </c>
-      <c r="N187" s="18" t="s">
-        <v>747</v>
       </c>
       <c r="O187" s="19" t="s">
         <v>45</v>
@@ -24345,7 +24345,7 @@
       <c r="AM187" s="19"/>
       <c r="AN187" s="19"/>
       <c r="AO187" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AP187" s="19"/>
       <c r="AQ187" s="19"/>
@@ -24374,10 +24374,10 @@
         <v>223</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D188" s="6">
         <v>1</v>
@@ -24407,10 +24407,10 @@
         <v>9</v>
       </c>
       <c r="M188" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="N188" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="N188" s="9" t="s">
-        <v>750</v>
       </c>
       <c r="O188" s="10" t="s">
         <v>45</v>
@@ -24437,7 +24437,7 @@
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
       <c r="AA188" s="10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AB188" s="10"/>
       <c r="AC188" s="10"/>
@@ -24457,7 +24457,7 @@
       <c r="AQ188" s="10"/>
       <c r="AR188" s="10"/>
       <c r="AS188" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AT188" s="10"/>
       <c r="AU188" s="10"/>
@@ -24482,10 +24482,10 @@
         <v>224</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -24515,10 +24515,10 @@
         <v>9</v>
       </c>
       <c r="M189" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="N189" s="18" t="s">
         <v>753</v>
-      </c>
-      <c r="N189" s="18" t="s">
-        <v>754</v>
       </c>
       <c r="O189" s="19" t="s">
         <v>45</v>
@@ -24539,7 +24539,7 @@
         <v>5</v>
       </c>
       <c r="U189" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="V189" s="19"/>
       <c r="W189" s="19"/>
@@ -24555,7 +24555,7 @@
       <c r="AG189" s="19"/>
       <c r="AH189" s="19"/>
       <c r="AI189" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AJ189" s="19"/>
       <c r="AK189" s="19"/>
@@ -24569,7 +24569,7 @@
       <c r="AS189" s="19"/>
       <c r="AT189" s="19"/>
       <c r="AU189" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AV189" s="19"/>
       <c r="AW189" s="19"/>
@@ -24592,10 +24592,10 @@
         <v>225</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="D190" s="6">
         <v>0</v>
@@ -24625,10 +24625,10 @@
         <v>9</v>
       </c>
       <c r="M190" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="N190" s="9" t="s">
         <v>758</v>
-      </c>
-      <c r="N190" s="9" t="s">
-        <v>759</v>
       </c>
       <c r="O190" s="10" t="s">
         <v>45</v>
@@ -24696,10 +24696,10 @@
         <v>226</v>
       </c>
       <c r="B191" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>760</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>761</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -24729,10 +24729,10 @@
         <v>9</v>
       </c>
       <c r="M191" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="N191" s="18" t="s">
         <v>762</v>
-      </c>
-      <c r="N191" s="18" t="s">
-        <v>763</v>
       </c>
       <c r="O191" s="19" t="s">
         <v>45</v>
@@ -24800,10 +24800,10 @@
         <v>227</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>764</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>765</v>
       </c>
       <c r="D192" s="6">
         <v>0</v>
@@ -24825,10 +24825,10 @@
         <v>53</v>
       </c>
       <c r="M192" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="N192" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="N192" s="9" t="s">
-        <v>767</v>
       </c>
       <c r="O192" s="10" t="s">
         <v>45</v>
@@ -24896,10 +24896,10 @@
         <v>228</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -24929,10 +24929,10 @@
         <v>9</v>
       </c>
       <c r="M193" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="N193" s="18" t="s">
         <v>769</v>
-      </c>
-      <c r="N193" s="18" t="s">
-        <v>770</v>
       </c>
       <c r="O193" s="19" t="s">
         <v>45</v>
@@ -25000,10 +25000,10 @@
         <v>230</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="D194" s="6">
         <v>1</v>
@@ -25033,10 +25033,10 @@
         <v>9</v>
       </c>
       <c r="M194" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="N194" s="9" t="s">
         <v>773</v>
-      </c>
-      <c r="N194" s="9" t="s">
-        <v>774</v>
       </c>
       <c r="O194" s="10" t="s">
         <v>243</v>
@@ -25045,7 +25045,7 @@
         <v>5</v>
       </c>
       <c r="Q194" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R194" s="12" t="s">
         <v>47</v>
@@ -25081,7 +25081,7 @@
       <c r="AQ194" s="10"/>
       <c r="AR194" s="10"/>
       <c r="AS194" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AT194" s="10"/>
       <c r="AU194" s="10"/>
@@ -25096,7 +25096,7 @@
       <c r="BD194" s="10"/>
       <c r="BE194" s="10"/>
       <c r="BF194" s="10" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="BG194" s="10"/>
       <c r="BH194" s="10"/>
@@ -25108,10 +25108,10 @@
         <v>231</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>777</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>778</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -25141,10 +25141,10 @@
         <v>8</v>
       </c>
       <c r="M195" s="17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N195" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O195" s="19" t="s">
         <v>243</v>
@@ -25153,7 +25153,7 @@
         <v>5</v>
       </c>
       <c r="Q195" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R195" s="21" t="s">
         <v>47</v>
@@ -25212,10 +25212,10 @@
         <v>232</v>
       </c>
       <c r="B196" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="D196" s="6">
         <v>1</v>
@@ -25245,10 +25245,10 @@
         <v>8</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N196" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O196" s="10" t="s">
         <v>243</v>
@@ -25257,7 +25257,7 @@
         <v>5</v>
       </c>
       <c r="Q196" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R196" s="12" t="s">
         <v>47</v>
@@ -25316,10 +25316,10 @@
         <v>233</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>783</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>784</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -25349,10 +25349,10 @@
         <v>10</v>
       </c>
       <c r="M197" s="17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N197" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O197" s="19" t="s">
         <v>243</v>
@@ -25361,7 +25361,7 @@
         <v>5</v>
       </c>
       <c r="Q197" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R197" s="21" t="s">
         <v>47</v>
@@ -25374,7 +25374,7 @@
       </c>
       <c r="U197" s="19"/>
       <c r="V197" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="W197" s="19"/>
       <c r="X197" s="19"/>
@@ -25383,10 +25383,10 @@
       <c r="AA197" s="19"/>
       <c r="AB197" s="19"/>
       <c r="AC197" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AD197" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AE197" s="19"/>
       <c r="AF197" s="19"/>
@@ -25411,7 +25411,7 @@
       <c r="AY197" s="19"/>
       <c r="AZ197" s="19"/>
       <c r="BA197" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="BB197" s="19"/>
       <c r="BC197" s="19"/>
@@ -25428,10 +25428,10 @@
         <v>234</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>787</v>
       </c>
       <c r="D198" s="6">
         <v>0</v>
@@ -25461,10 +25461,10 @@
         <v>8</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N198" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O198" s="10" t="s">
         <v>243</v>
@@ -25473,7 +25473,7 @@
         <v>5</v>
       </c>
       <c r="Q198" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R198" s="12" t="s">
         <v>47</v>
@@ -25532,10 +25532,10 @@
         <v>235</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>789</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>790</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -25565,10 +25565,10 @@
         <v>9</v>
       </c>
       <c r="M199" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="N199" s="18" t="s">
         <v>791</v>
-      </c>
-      <c r="N199" s="18" t="s">
-        <v>792</v>
       </c>
       <c r="O199" s="19" t="s">
         <v>243</v>
@@ -25577,7 +25577,7 @@
         <v>5</v>
       </c>
       <c r="Q199" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R199" s="21" t="s">
         <v>47</v>
@@ -25592,7 +25592,7 @@
       <c r="V199" s="19"/>
       <c r="W199" s="19"/>
       <c r="X199" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Y199" s="19"/>
       <c r="Z199" s="19"/>
@@ -25638,10 +25638,10 @@
         <v>236</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>794</v>
       </c>
       <c r="D200" s="6">
         <v>0</v>
@@ -25671,10 +25671,10 @@
         <v>9</v>
       </c>
       <c r="M200" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N200" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O200" s="10" t="s">
         <v>243</v>
@@ -25683,7 +25683,7 @@
         <v>5</v>
       </c>
       <c r="Q200" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R200" s="12" t="s">
         <v>47</v>
@@ -25719,7 +25719,7 @@
       <c r="AQ200" s="10"/>
       <c r="AR200" s="10"/>
       <c r="AS200" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AT200" s="10"/>
       <c r="AU200" s="10"/>
@@ -25744,10 +25744,10 @@
         <v>238</v>
       </c>
       <c r="B201" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>797</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>798</v>
       </c>
       <c r="D201" s="15">
         <v>0</v>
@@ -25777,10 +25777,10 @@
         <v>8</v>
       </c>
       <c r="M201" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N201" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O201" s="19" t="s">
         <v>243</v>
@@ -25789,7 +25789,7 @@
         <v>5</v>
       </c>
       <c r="Q201" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R201" s="21" t="s">
         <v>47</v>
@@ -25848,10 +25848,10 @@
         <v>239</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C202" s="30" t="s">
         <v>800</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>801</v>
       </c>
       <c r="D202" s="6">
         <v>0</v>
@@ -25881,10 +25881,10 @@
         <v>8</v>
       </c>
       <c r="M202" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N202" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O202" s="10" t="s">
         <v>243</v>
@@ -25893,7 +25893,7 @@
         <v>5</v>
       </c>
       <c r="Q202" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R202" s="12" t="s">
         <v>47</v>
@@ -25952,10 +25952,10 @@
         <v>244</v>
       </c>
       <c r="B203" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>803</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>804</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -25985,10 +25985,10 @@
         <v>53</v>
       </c>
       <c r="M203" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="N203" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="N203" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="O203" s="19" t="s">
         <v>243</v>
@@ -26056,10 +26056,10 @@
         <v>245</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>807</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>808</v>
       </c>
       <c r="D204" s="6">
         <v>1</v>
@@ -26089,10 +26089,10 @@
         <v>53</v>
       </c>
       <c r="M204" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="N204" s="9" t="s">
         <v>809</v>
-      </c>
-      <c r="N204" s="9" t="s">
-        <v>810</v>
       </c>
       <c r="O204" s="10" t="s">
         <v>243</v>
@@ -26137,7 +26137,7 @@
       <c r="AQ204" s="10"/>
       <c r="AR204" s="10"/>
       <c r="AS204" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AT204" s="10"/>
       <c r="AU204" s="10"/>
@@ -26162,10 +26162,10 @@
         <v>246</v>
       </c>
       <c r="B205" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>812</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>813</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -26195,10 +26195,10 @@
         <v>9</v>
       </c>
       <c r="M205" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N205" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O205" s="19" t="s">
         <v>243</v>
@@ -26266,10 +26266,10 @@
         <v>247</v>
       </c>
       <c r="B206" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>815</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>816</v>
       </c>
       <c r="D206" s="6">
         <v>1</v>
@@ -26299,10 +26299,10 @@
         <v>9</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N206" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O206" s="10" t="s">
         <v>243</v>
@@ -26370,10 +26370,10 @@
         <v>248</v>
       </c>
       <c r="B207" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>818</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>819</v>
       </c>
       <c r="D207" s="15">
         <v>1</v>
@@ -26403,10 +26403,10 @@
         <v>9</v>
       </c>
       <c r="M207" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N207" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O207" s="19" t="s">
         <v>243</v>
@@ -26474,10 +26474,10 @@
         <v>249</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D208" s="6">
         <v>1</v>
@@ -26507,10 +26507,10 @@
         <v>53</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N208" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O208" s="10" t="s">
         <v>243</v>
@@ -26578,10 +26578,10 @@
         <v>250</v>
       </c>
       <c r="B209" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C209" s="15" t="s">
         <v>823</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>824</v>
       </c>
       <c r="D209" s="15">
         <v>0</v>
@@ -26611,10 +26611,10 @@
         <v>9</v>
       </c>
       <c r="M209" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="N209" s="18" t="s">
         <v>825</v>
-      </c>
-      <c r="N209" s="18" t="s">
-        <v>826</v>
       </c>
       <c r="O209" s="19" t="s">
         <v>243</v>
@@ -26623,7 +26623,7 @@
         <v>5</v>
       </c>
       <c r="Q209" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R209" s="21" t="s">
         <v>47</v>
@@ -26659,7 +26659,7 @@
       <c r="AQ209" s="19"/>
       <c r="AR209" s="19"/>
       <c r="AS209" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AT209" s="19"/>
       <c r="AU209" s="19"/>
@@ -26684,10 +26684,10 @@
         <v>251</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D210" s="6">
         <v>0</v>
@@ -26717,10 +26717,10 @@
         <v>9</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N210" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O210" s="10" t="s">
         <v>243</v>
@@ -26729,7 +26729,7 @@
         <v>5</v>
       </c>
       <c r="Q210" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R210" s="12" t="s">
         <v>47</v>
@@ -26765,7 +26765,7 @@
       <c r="AQ210" s="10"/>
       <c r="AR210" s="10"/>
       <c r="AS210" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AT210" s="10"/>
       <c r="AU210" s="10"/>
@@ -26790,10 +26790,10 @@
         <v>252</v>
       </c>
       <c r="B211" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>831</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>832</v>
       </c>
       <c r="D211" s="15">
         <v>0</v>
@@ -26823,10 +26823,10 @@
         <v>9</v>
       </c>
       <c r="M211" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N211" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O211" s="19" t="s">
         <v>243</v>
@@ -26835,7 +26835,7 @@
         <v>5</v>
       </c>
       <c r="Q211" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R211" s="21" t="s">
         <v>47</v>
@@ -26878,7 +26878,7 @@
       <c r="AX211" s="19"/>
       <c r="AY211" s="19"/>
       <c r="AZ211" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="BA211" s="19"/>
       <c r="BB211" s="19"/>
@@ -26896,10 +26896,10 @@
         <v>253</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D212" s="6">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>9</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N212" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O212" s="10" t="s">
         <v>243</v>
@@ -26941,7 +26941,7 @@
         <v>5</v>
       </c>
       <c r="Q212" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R212" s="12" t="s">
         <v>47</v>
@@ -27000,10 +27000,10 @@
         <v>254</v>
       </c>
       <c r="B213" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>836</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>837</v>
       </c>
       <c r="D213" s="15">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>9</v>
       </c>
       <c r="M213" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N213" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O213" s="19" t="s">
         <v>243</v>
@@ -27045,7 +27045,7 @@
         <v>5</v>
       </c>
       <c r="Q213" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R213" s="21" t="s">
         <v>47</v>
@@ -27088,7 +27088,7 @@
       <c r="AX213" s="19"/>
       <c r="AY213" s="19"/>
       <c r="AZ213" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="BA213" s="19"/>
       <c r="BB213" s="19"/>
@@ -27106,10 +27106,10 @@
         <v>256</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D214" s="6">
         <v>1</v>
@@ -27139,10 +27139,10 @@
         <v>9</v>
       </c>
       <c r="M214" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="N214" s="9" t="s">
         <v>840</v>
-      </c>
-      <c r="N214" s="9" t="s">
-        <v>841</v>
       </c>
       <c r="O214" s="10" t="s">
         <v>243</v>
@@ -27151,7 +27151,7 @@
         <v>5</v>
       </c>
       <c r="Q214" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R214" s="12" t="s">
         <v>47</v>
@@ -27169,7 +27169,7 @@
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
       <c r="AA214" s="10" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AB214" s="10"/>
       <c r="AC214" s="10"/>
@@ -27212,10 +27212,10 @@
         <v>257</v>
       </c>
       <c r="B215" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>842</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>843</v>
       </c>
       <c r="D215" s="15">
         <v>1</v>
@@ -27245,10 +27245,10 @@
         <v>49</v>
       </c>
       <c r="M215" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N215" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O215" s="19" t="s">
         <v>243</v>
@@ -27257,7 +27257,7 @@
         <v>5</v>
       </c>
       <c r="Q215" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R215" s="21" t="s">
         <v>47</v>
@@ -27275,11 +27275,11 @@
       <c r="Y215" s="19"/>
       <c r="Z215" s="19"/>
       <c r="AA215" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AB215" s="19"/>
       <c r="AC215" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AD215" s="19"/>
       <c r="AE215" s="19"/>
@@ -27320,10 +27320,10 @@
         <v>258</v>
       </c>
       <c r="B216" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>846</v>
       </c>
       <c r="D216" s="6">
         <v>0</v>
@@ -27353,10 +27353,10 @@
         <v>9</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O216" s="10" t="s">
         <v>243</v>
@@ -27365,7 +27365,7 @@
         <v>5</v>
       </c>
       <c r="Q216" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R216" s="12" t="s">
         <v>47</v>
@@ -27424,10 +27424,10 @@
         <v>259</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D217" s="15">
         <v>1</v>
@@ -27457,10 +27457,10 @@
         <v>10</v>
       </c>
       <c r="M217" s="43" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N217" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O217" s="19" t="s">
         <v>243</v>
@@ -27469,7 +27469,7 @@
         <v>5</v>
       </c>
       <c r="Q217" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R217" s="21" t="s">
         <v>47</v>
@@ -27489,7 +27489,7 @@
       <c r="AA217" s="19"/>
       <c r="AB217" s="19"/>
       <c r="AC217" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AD217" s="19"/>
       <c r="AE217" s="19"/>
@@ -27508,7 +27508,7 @@
       <c r="AR217" s="19"/>
       <c r="AS217" s="19"/>
       <c r="AT217" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AU217" s="19"/>
       <c r="AV217" s="19"/>
@@ -27532,10 +27532,10 @@
         <v>261</v>
       </c>
       <c r="B218" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>852</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>853</v>
       </c>
       <c r="D218" s="6">
         <v>0</v>
@@ -27565,10 +27565,10 @@
         <v>10</v>
       </c>
       <c r="M218" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="N218" s="9" t="s">
         <v>854</v>
-      </c>
-      <c r="N218" s="9" t="s">
-        <v>855</v>
       </c>
       <c r="O218" s="10" t="s">
         <v>243</v>
@@ -27597,7 +27597,7 @@
       <c r="AA218" s="10"/>
       <c r="AB218" s="10"/>
       <c r="AC218" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AD218" s="10"/>
       <c r="AE218" s="10"/>
@@ -27638,10 +27638,10 @@
         <v>262</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D219" s="15">
         <v>1</v>
@@ -27671,10 +27671,10 @@
         <v>9</v>
       </c>
       <c r="M219" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="N219" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O219" s="19" t="s">
         <v>243</v>
@@ -27742,10 +27742,10 @@
         <v>263</v>
       </c>
       <c r="B220" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>859</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>860</v>
       </c>
       <c r="D220" s="6">
         <v>1</v>
@@ -27775,10 +27775,10 @@
         <v>49</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O220" s="10" t="s">
         <v>243</v>
@@ -27800,14 +27800,14 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="W220" s="10"/>
       <c r="X220" s="10"/>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
@@ -27836,10 +27836,10 @@
       <c r="AZ220" s="10"/>
       <c r="BA220" s="10"/>
       <c r="BB220" s="45" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC220" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BD220" s="10"/>
       <c r="BE220" s="10"/>
@@ -27854,10 +27854,10 @@
         <v>264</v>
       </c>
       <c r="B221" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="C221" s="15" t="s">
         <v>862</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>863</v>
       </c>
       <c r="D221" s="15">
         <v>1</v>
@@ -27887,10 +27887,10 @@
         <v>9</v>
       </c>
       <c r="M221" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="N221" s="18" t="s">
         <v>864</v>
-      </c>
-      <c r="N221" s="18" t="s">
-        <v>865</v>
       </c>
       <c r="O221" s="19" t="s">
         <v>243</v>
@@ -27958,10 +27958,10 @@
         <v>265</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D222" s="6">
         <v>1</v>
@@ -27991,10 +27991,10 @@
         <v>9</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O222" s="10" t="s">
         <v>243</v>
@@ -28062,10 +28062,10 @@
         <v>266</v>
       </c>
       <c r="B223" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="C223" s="15" t="s">
         <v>868</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>869</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -28095,10 +28095,10 @@
         <v>9</v>
       </c>
       <c r="M223" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N223" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O223" s="19" t="s">
         <v>243</v>
@@ -28122,7 +28122,7 @@
       <c r="V223" s="19"/>
       <c r="W223" s="19"/>
       <c r="X223" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Y223" s="19"/>
       <c r="Z223" s="19"/>
@@ -28145,7 +28145,7 @@
       <c r="AQ223" s="19"/>
       <c r="AR223" s="19"/>
       <c r="AS223" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AT223" s="19"/>
       <c r="AU223" s="19"/>
@@ -28170,10 +28170,10 @@
         <v>267</v>
       </c>
       <c r="B224" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>872</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>873</v>
       </c>
       <c r="D224" s="6">
         <v>0</v>
@@ -28203,10 +28203,10 @@
         <v>8</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N224" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O224" s="10" t="s">
         <v>243</v>
@@ -28274,10 +28274,10 @@
         <v>268</v>
       </c>
       <c r="B225" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="C225" s="15" t="s">
         <v>875</v>
-      </c>
-      <c r="C225" s="15" t="s">
-        <v>876</v>
       </c>
       <c r="D225" s="15">
         <v>0</v>
@@ -28307,10 +28307,10 @@
         <v>49</v>
       </c>
       <c r="M225" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N225" s="18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O225" s="19" t="s">
         <v>243</v>
@@ -28355,7 +28355,7 @@
       <c r="AQ225" s="19"/>
       <c r="AR225" s="19"/>
       <c r="AS225" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AT225" s="19"/>
       <c r="AU225" s="19"/>
@@ -28380,10 +28380,10 @@
         <v>269</v>
       </c>
       <c r="B226" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>879</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>880</v>
       </c>
       <c r="D226" s="6">
         <v>1</v>
@@ -28413,10 +28413,10 @@
         <v>9</v>
       </c>
       <c r="M226" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="N226" s="9" t="s">
         <v>881</v>
-      </c>
-      <c r="N226" s="9" t="s">
-        <v>882</v>
       </c>
       <c r="O226" s="10" t="s">
         <v>243</v>
@@ -28425,7 +28425,7 @@
         <v>5</v>
       </c>
       <c r="Q226" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R226" s="12" t="s">
         <v>47</v>
@@ -28438,7 +28438,7 @@
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W226" s="10"/>
       <c r="X226" s="10"/>
@@ -28448,12 +28448,12 @@
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AE226" s="10"/>
       <c r="AF226" s="10"/>
       <c r="AG226" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AH226" s="10"/>
       <c r="AI226" s="10"/>
@@ -28490,10 +28490,10 @@
         <v>270</v>
       </c>
       <c r="B227" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C227" s="15" t="s">
         <v>884</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>885</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -28523,10 +28523,10 @@
         <v>9</v>
       </c>
       <c r="M227" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N227" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O227" s="19" t="s">
         <v>243</v>
@@ -28535,7 +28535,7 @@
         <v>5</v>
       </c>
       <c r="Q227" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R227" s="21" t="s">
         <v>47</v>
@@ -28580,7 +28580,7 @@
       <c r="AZ227" s="19"/>
       <c r="BA227" s="19"/>
       <c r="BB227" s="46" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC227" s="19"/>
       <c r="BD227" s="19"/>
@@ -28596,10 +28596,10 @@
         <v>272</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D228" s="6">
         <v>1</v>
@@ -28629,10 +28629,10 @@
         <v>10</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O228" s="10" t="s">
         <v>243</v>
@@ -28641,7 +28641,7 @@
         <v>5</v>
       </c>
       <c r="Q228" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R228" s="12" t="s">
         <v>47</v>
@@ -28662,7 +28662,7 @@
       <c r="AB228" s="10"/>
       <c r="AC228" s="10"/>
       <c r="AD228" s="10" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AE228" s="10"/>
       <c r="AF228" s="10"/>
@@ -28688,7 +28688,7 @@
       <c r="AZ228" s="10"/>
       <c r="BA228" s="10"/>
       <c r="BB228" s="46" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC228" s="10"/>
       <c r="BD228" s="10"/>
@@ -28704,10 +28704,10 @@
         <v>273</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -28737,10 +28737,10 @@
         <v>9</v>
       </c>
       <c r="M229" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N229" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O229" s="19" t="s">
         <v>243</v>
@@ -28749,7 +28749,7 @@
         <v>5</v>
       </c>
       <c r="Q229" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R229" s="21" t="s">
         <v>47</v>
@@ -28794,7 +28794,7 @@
       <c r="AZ229" s="19"/>
       <c r="BA229" s="19"/>
       <c r="BB229" s="46" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC229" s="19"/>
       <c r="BD229" s="19"/>
@@ -28810,10 +28810,10 @@
         <v>274</v>
       </c>
       <c r="B230" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>891</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>892</v>
       </c>
       <c r="D230" s="6">
         <v>1</v>
@@ -28843,10 +28843,10 @@
         <v>53</v>
       </c>
       <c r="M230" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="N230" s="9" t="s">
         <v>893</v>
-      </c>
-      <c r="N230" s="9" t="s">
-        <v>894</v>
       </c>
       <c r="O230" s="10" t="s">
         <v>243</v>
@@ -28855,7 +28855,7 @@
         <v>10</v>
       </c>
       <c r="Q230" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R230" s="12" t="s">
         <v>47</v>
@@ -28914,10 +28914,10 @@
         <v>275</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D231" s="15">
         <v>0</v>
@@ -28947,10 +28947,10 @@
         <v>9</v>
       </c>
       <c r="M231" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N231" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O231" s="19" t="s">
         <v>243</v>
@@ -28959,7 +28959,7 @@
         <v>5</v>
       </c>
       <c r="Q231" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R231" s="21" t="s">
         <v>47</v>
@@ -29002,7 +29002,7 @@
       <c r="AX231" s="19"/>
       <c r="AY231" s="19"/>
       <c r="AZ231" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="BA231" s="19"/>
       <c r="BB231" s="19"/>
@@ -29020,10 +29020,10 @@
         <v>276</v>
       </c>
       <c r="B232" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>897</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>898</v>
       </c>
       <c r="D232" s="6">
         <v>0</v>
@@ -29053,10 +29053,10 @@
         <v>9</v>
       </c>
       <c r="M232" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O232" s="10" t="s">
         <v>243</v>
@@ -29065,7 +29065,7 @@
         <v>5</v>
       </c>
       <c r="Q232" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R232" s="12" t="s">
         <v>47</v>
@@ -29124,10 +29124,10 @@
         <v>277</v>
       </c>
       <c r="B233" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="C233" s="15" t="s">
         <v>900</v>
-      </c>
-      <c r="C233" s="15" t="s">
-        <v>901</v>
       </c>
       <c r="D233" s="15">
         <v>0</v>
@@ -29157,10 +29157,10 @@
         <v>53</v>
       </c>
       <c r="M233" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N233" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O233" s="19" t="s">
         <v>243</v>
@@ -29169,7 +29169,7 @@
         <v>10</v>
       </c>
       <c r="Q233" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R233" s="21" t="s">
         <v>47</v>
@@ -29212,7 +29212,7 @@
       <c r="AX233" s="19"/>
       <c r="AY233" s="19"/>
       <c r="AZ233" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="BA233" s="19"/>
       <c r="BB233" s="19"/>
@@ -29230,10 +29230,10 @@
         <v>279</v>
       </c>
       <c r="B234" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>903</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>904</v>
       </c>
       <c r="D234" s="6">
         <v>0</v>
@@ -29263,10 +29263,10 @@
         <v>49</v>
       </c>
       <c r="M234" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="N234" s="9" t="s">
         <v>905</v>
-      </c>
-      <c r="N234" s="9" t="s">
-        <v>906</v>
       </c>
       <c r="O234" s="10" t="s">
         <v>243</v>
@@ -29311,7 +29311,7 @@
       <c r="AQ234" s="10"/>
       <c r="AR234" s="10"/>
       <c r="AS234" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AT234" s="10"/>
       <c r="AU234" s="10"/>
@@ -29336,10 +29336,10 @@
         <v>281</v>
       </c>
       <c r="B235" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="C235" s="15" t="s">
         <v>908</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>909</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -29369,10 +29369,10 @@
         <v>10</v>
       </c>
       <c r="M235" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O235" s="19" t="s">
         <v>243</v>
@@ -29394,7 +29394,7 @@
       </c>
       <c r="U235" s="19"/>
       <c r="V235" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="W235" s="19"/>
       <c r="X235" s="19"/>
@@ -29419,7 +29419,7 @@
       <c r="AQ235" s="19"/>
       <c r="AR235" s="19"/>
       <c r="AS235" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AT235" s="19"/>
       <c r="AU235" s="19"/>
@@ -29444,10 +29444,10 @@
         <v>282</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D236" s="6">
         <v>0</v>
@@ -29477,10 +29477,10 @@
         <v>8</v>
       </c>
       <c r="M236" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N236" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O236" s="10" t="s">
         <v>243</v>
@@ -29527,7 +29527,7 @@
       <c r="AS236" s="10"/>
       <c r="AT236" s="10"/>
       <c r="AU236" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
@@ -29550,10 +29550,10 @@
         <v>283</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D237" s="15">
         <v>0</v>
@@ -29583,10 +29583,10 @@
         <v>49</v>
       </c>
       <c r="M237" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="N237" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="N237" s="18" t="s">
-        <v>916</v>
       </c>
       <c r="O237" s="19" t="s">
         <v>243</v>
@@ -29654,10 +29654,10 @@
         <v>284</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D238" s="6">
         <v>1</v>
@@ -29687,10 +29687,10 @@
         <v>49</v>
       </c>
       <c r="M238" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N238" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O238" s="10" t="s">
         <v>243</v>
@@ -29758,10 +29758,10 @@
         <v>285</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -29791,10 +29791,10 @@
         <v>10</v>
       </c>
       <c r="M239" s="17" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N239" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O239" s="19" t="s">
         <v>243</v>
@@ -29824,7 +29824,7 @@
       <c r="AB239" s="19"/>
       <c r="AC239" s="19"/>
       <c r="AD239" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AE239" s="19"/>
       <c r="AF239" s="19"/>
@@ -29850,7 +29850,7 @@
       <c r="AZ239" s="19"/>
       <c r="BA239" s="19"/>
       <c r="BB239" s="45" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC239" s="19"/>
       <c r="BD239" s="19"/>
@@ -29866,10 +29866,10 @@
         <v>286</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D240" s="6">
         <v>1</v>
@@ -29899,10 +29899,10 @@
         <v>53</v>
       </c>
       <c r="M240" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N240" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O240" s="10" t="s">
         <v>243</v>
@@ -29932,7 +29932,7 @@
       <c r="AB240" s="10"/>
       <c r="AC240" s="10"/>
       <c r="AD240" s="10" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AE240" s="10"/>
       <c r="AF240" s="10"/>
@@ -29972,10 +29972,10 @@
         <v>287</v>
       </c>
       <c r="B241" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C241" s="15" t="s">
         <v>923</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>924</v>
       </c>
       <c r="D241" s="15">
         <v>1</v>
@@ -30005,10 +30005,10 @@
         <v>49</v>
       </c>
       <c r="M241" s="17" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N241" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O241" s="19" t="s">
         <v>243</v>
@@ -30049,7 +30049,7 @@
       <c r="AM241" s="19"/>
       <c r="AN241" s="19"/>
       <c r="AO241" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AP241" s="19"/>
       <c r="AQ241" s="19"/>
@@ -30078,10 +30078,10 @@
         <v>288</v>
       </c>
       <c r="B242" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>927</v>
       </c>
       <c r="D242" s="6">
         <v>1</v>
@@ -30111,10 +30111,10 @@
         <v>53</v>
       </c>
       <c r="M242" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="N242" s="9" t="s">
         <v>928</v>
-      </c>
-      <c r="N242" s="9" t="s">
-        <v>929</v>
       </c>
       <c r="O242" s="10" t="s">
         <v>243</v>
@@ -30182,10 +30182,10 @@
         <v>289</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D243" s="15">
         <v>1</v>
@@ -30215,10 +30215,10 @@
         <v>8</v>
       </c>
       <c r="M243" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N243" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O243" s="19" t="s">
         <v>243</v>
@@ -30263,7 +30263,7 @@
       <c r="AQ243" s="19"/>
       <c r="AR243" s="19"/>
       <c r="AS243" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AT243" s="19"/>
       <c r="AU243" s="19"/>
@@ -30288,10 +30288,10 @@
         <v>290</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D244" s="6">
         <v>1</v>
@@ -30321,10 +30321,10 @@
         <v>8</v>
       </c>
       <c r="M244" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N244" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O244" s="10" t="s">
         <v>243</v>
@@ -30352,10 +30352,10 @@
       <c r="Z244" s="10"/>
       <c r="AA244" s="10"/>
       <c r="AB244" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="AC244" s="10" t="s">
         <v>935</v>
-      </c>
-      <c r="AC244" s="10" t="s">
-        <v>936</v>
       </c>
       <c r="AD244" s="10"/>
       <c r="AE244" s="10"/>
@@ -30380,7 +30380,7 @@
       <c r="AX244" s="10"/>
       <c r="AY244" s="10"/>
       <c r="AZ244" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="BA244" s="10"/>
       <c r="BB244" s="10"/>
@@ -30398,10 +30398,10 @@
         <v>291</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D245" s="15">
         <v>0</v>
@@ -30431,10 +30431,10 @@
         <v>49</v>
       </c>
       <c r="M245" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N245" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O245" s="19" t="s">
         <v>243</v>
@@ -30502,10 +30502,10 @@
         <v>292</v>
       </c>
       <c r="B246" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>939</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>940</v>
       </c>
       <c r="D246" s="6">
         <v>1</v>
@@ -30535,10 +30535,10 @@
         <v>49</v>
       </c>
       <c r="M246" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="N246" s="9" t="s">
         <v>941</v>
-      </c>
-      <c r="N246" s="9" t="s">
-        <v>942</v>
       </c>
       <c r="O246" s="10" t="s">
         <v>243</v>
@@ -30606,10 +30606,10 @@
         <v>295</v>
       </c>
       <c r="B247" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="C247" s="15" t="s">
         <v>943</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>944</v>
       </c>
       <c r="D247" s="15">
         <v>1</v>
@@ -30639,10 +30639,10 @@
         <v>10</v>
       </c>
       <c r="M247" s="17" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="N247" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O247" s="19" t="s">
         <v>243</v>
@@ -30669,7 +30669,7 @@
       <c r="Y247" s="19"/>
       <c r="Z247" s="19"/>
       <c r="AA247" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AB247" s="19"/>
       <c r="AC247" s="19"/>
@@ -30691,7 +30691,7 @@
       <c r="AS247" s="19"/>
       <c r="AT247" s="19"/>
       <c r="AU247" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AV247" s="19"/>
       <c r="AW247" s="19"/>
@@ -30714,10 +30714,10 @@
         <v>296</v>
       </c>
       <c r="B248" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>947</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>948</v>
       </c>
       <c r="D248" s="6">
         <v>0</v>
@@ -30747,10 +30747,10 @@
         <v>53</v>
       </c>
       <c r="M248" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="N248" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O248" s="10" t="s">
         <v>243</v>
@@ -30818,10 +30818,10 @@
         <v>297</v>
       </c>
       <c r="B249" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="C249" s="15" t="s">
         <v>950</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>951</v>
       </c>
       <c r="D249" s="15">
         <v>0</v>
@@ -30851,10 +30851,10 @@
         <v>53</v>
       </c>
       <c r="M249" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="N249" s="18" t="s">
         <v>952</v>
-      </c>
-      <c r="N249" s="18" t="s">
-        <v>953</v>
       </c>
       <c r="O249" s="19" t="s">
         <v>243</v>
@@ -30863,7 +30863,7 @@
         <v>5</v>
       </c>
       <c r="Q249" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R249" s="21" t="s">
         <v>188</v>
@@ -30922,10 +30922,10 @@
         <v>298</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D250" s="6">
         <v>1</v>
@@ -30955,10 +30955,10 @@
         <v>10</v>
       </c>
       <c r="M250" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="N250" s="9" t="s">
         <v>955</v>
-      </c>
-      <c r="N250" s="9" t="s">
-        <v>956</v>
       </c>
       <c r="O250" s="10" t="s">
         <v>243</v>
@@ -30967,7 +30967,7 @@
         <v>5</v>
       </c>
       <c r="Q250" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R250" s="12" t="s">
         <v>188</v>
@@ -31020,7 +31020,7 @@
       <c r="BH250" s="10"/>
       <c r="BI250" s="10"/>
       <c r="BJ250" s="10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="251" spans="1:62" ht="345" x14ac:dyDescent="0.25">
@@ -31028,10 +31028,10 @@
         <v>300</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D251" s="15">
         <v>0</v>
@@ -31061,10 +31061,10 @@
         <v>10</v>
       </c>
       <c r="M251" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N251" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O251" s="19" t="s">
         <v>243</v>
@@ -31073,7 +31073,7 @@
         <v>5</v>
       </c>
       <c r="Q251" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R251" s="21" t="s">
         <v>188</v>
@@ -31093,7 +31093,7 @@
       <c r="AA251" s="19"/>
       <c r="AB251" s="19"/>
       <c r="AC251" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AD251" s="19"/>
       <c r="AE251" s="19"/>
@@ -31134,10 +31134,10 @@
         <v>301</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>960</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>961</v>
       </c>
       <c r="D252" s="6">
         <v>0</v>
@@ -31167,10 +31167,10 @@
         <v>9</v>
       </c>
       <c r="M252" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N252" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O252" s="10" t="s">
         <v>243</v>
@@ -31179,7 +31179,7 @@
         <v>10</v>
       </c>
       <c r="Q252" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R252" s="12" t="s">
         <v>188</v>
@@ -31238,10 +31238,10 @@
         <v>304</v>
       </c>
       <c r="B253" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="C253" s="15" t="s">
         <v>963</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>964</v>
       </c>
       <c r="D253" s="15">
         <v>1</v>
@@ -31271,10 +31271,10 @@
         <v>8</v>
       </c>
       <c r="M253" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="N253" s="18" t="s">
         <v>965</v>
-      </c>
-      <c r="N253" s="18" t="s">
-        <v>966</v>
       </c>
       <c r="O253" s="19" t="s">
         <v>243</v>
@@ -31283,7 +31283,7 @@
         <v>10</v>
       </c>
       <c r="Q253" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R253" s="21" t="s">
         <v>47</v>
@@ -31342,10 +31342,10 @@
         <v>305</v>
       </c>
       <c r="B254" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>967</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>968</v>
       </c>
       <c r="D254" s="6">
         <v>1</v>
@@ -31375,10 +31375,10 @@
         <v>10</v>
       </c>
       <c r="M254" s="44" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N254" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O254" s="10" t="s">
         <v>243</v>
@@ -31387,7 +31387,7 @@
         <v>5</v>
       </c>
       <c r="Q254" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R254" s="12" t="s">
         <v>47</v>
@@ -31429,11 +31429,11 @@
       <c r="AW254" s="10"/>
       <c r="AX254" s="10"/>
       <c r="AY254" s="10" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AZ254" s="10"/>
       <c r="BA254" s="10" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="BB254" s="10"/>
       <c r="BC254" s="10"/>
@@ -31444,7 +31444,7 @@
       <c r="BH254" s="10"/>
       <c r="BI254" s="10"/>
       <c r="BJ254" s="10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="255" spans="1:62" ht="360" x14ac:dyDescent="0.25">
@@ -31452,10 +31452,10 @@
         <v>306</v>
       </c>
       <c r="B255" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="C255" s="15" t="s">
         <v>970</v>
-      </c>
-      <c r="C255" s="15" t="s">
-        <v>971</v>
       </c>
       <c r="D255" s="15">
         <v>1</v>
@@ -31485,10 +31485,10 @@
         <v>9</v>
       </c>
       <c r="M255" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N255" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O255" s="19" t="s">
         <v>243</v>
@@ -31497,7 +31497,7 @@
         <v>5</v>
       </c>
       <c r="Q255" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R255" s="21" t="s">
         <v>47</v>
@@ -31533,7 +31533,7 @@
       <c r="AQ255" s="19"/>
       <c r="AR255" s="19"/>
       <c r="AS255" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AT255" s="19"/>
       <c r="AU255" s="19"/>
@@ -31541,7 +31541,7 @@
       <c r="AW255" s="19"/>
       <c r="AX255" s="19"/>
       <c r="AY255" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AZ255" s="19"/>
       <c r="BA255" s="19"/>
@@ -31550,7 +31550,7 @@
       <c r="BD255" s="19"/>
       <c r="BE255" s="19"/>
       <c r="BF255" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="BG255" s="19"/>
       <c r="BH255" s="19"/>
@@ -31562,10 +31562,10 @@
         <v>307</v>
       </c>
       <c r="B256" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>974</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>975</v>
       </c>
       <c r="D256" s="6">
         <v>0</v>
@@ -31595,10 +31595,10 @@
         <v>53</v>
       </c>
       <c r="M256" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="N256" s="9" t="s">
         <v>976</v>
-      </c>
-      <c r="N256" s="9" t="s">
-        <v>977</v>
       </c>
       <c r="O256" s="10" t="s">
         <v>243</v>
@@ -31607,7 +31607,7 @@
         <v>5</v>
       </c>
       <c r="Q256" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R256" s="12" t="s">
         <v>188</v>
@@ -31666,10 +31666,10 @@
         <v>308</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>978</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>979</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -31699,10 +31699,10 @@
         <v>9</v>
       </c>
       <c r="M257" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N257" s="18" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O257" s="19" t="s">
         <v>243</v>
@@ -31711,7 +31711,7 @@
         <v>5</v>
       </c>
       <c r="Q257" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R257" s="21" t="s">
         <v>188</v>
@@ -31770,10 +31770,10 @@
         <v>309</v>
       </c>
       <c r="B258" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>981</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>982</v>
       </c>
       <c r="D258" s="6">
         <v>1</v>
@@ -31803,10 +31803,10 @@
         <v>49</v>
       </c>
       <c r="M258" s="44" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N258" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O258" s="10" t="s">
         <v>243</v>
@@ -31815,7 +31815,7 @@
         <v>5</v>
       </c>
       <c r="Q258" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R258" s="12" t="s">
         <v>188</v>
@@ -31836,7 +31836,7 @@
       <c r="AB258" s="10"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AE258" s="10"/>
       <c r="AF258" s="10"/>
@@ -31870,7 +31870,7 @@
       <c r="BH258" s="10"/>
       <c r="BI258" s="10"/>
       <c r="BJ258" s="10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="259" spans="1:62" ht="240" x14ac:dyDescent="0.25">
@@ -31878,10 +31878,10 @@
         <v>310</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>984</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>985</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -31911,10 +31911,10 @@
         <v>53</v>
       </c>
       <c r="M259" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N259" s="18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O259" s="19" t="s">
         <v>243</v>
@@ -31923,7 +31923,7 @@
         <v>5</v>
       </c>
       <c r="Q259" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R259" s="21" t="s">
         <v>188</v>
@@ -31936,7 +31936,7 @@
       </c>
       <c r="U259" s="19"/>
       <c r="V259" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="W259" s="19"/>
       <c r="X259" s="19"/>
@@ -31945,7 +31945,7 @@
       <c r="AA259" s="19"/>
       <c r="AB259" s="19"/>
       <c r="AC259" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AD259" s="19"/>
       <c r="AE259" s="19"/>
@@ -31964,7 +31964,7 @@
       <c r="AR259" s="19"/>
       <c r="AS259" s="19"/>
       <c r="AT259" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AU259" s="19"/>
       <c r="AV259" s="19"/>
@@ -31977,7 +31977,7 @@
       <c r="BC259" s="19"/>
       <c r="BD259" s="19"/>
       <c r="BE259" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="BF259" s="19"/>
       <c r="BG259" s="19"/>
@@ -31990,10 +31990,10 @@
         <v>311</v>
       </c>
       <c r="B260" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C260" s="6" t="s">
         <v>988</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>989</v>
       </c>
       <c r="D260" s="6">
         <v>1</v>
@@ -32023,10 +32023,10 @@
         <v>49</v>
       </c>
       <c r="M260" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N260" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O260" s="10" t="s">
         <v>243</v>
@@ -32035,7 +32035,7 @@
         <v>5</v>
       </c>
       <c r="Q260" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R260" s="12" t="s">
         <v>188</v>
@@ -32094,10 +32094,10 @@
         <v>312</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -32117,10 +32117,10 @@
         <v>9</v>
       </c>
       <c r="M261" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="N261" s="18" t="s">
         <v>992</v>
-      </c>
-      <c r="N261" s="18" t="s">
-        <v>993</v>
       </c>
       <c r="O261" s="19" t="s">
         <v>45</v>
@@ -32188,10 +32188,10 @@
         <v>313</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D262" s="6">
         <v>1</v>
@@ -32211,10 +32211,10 @@
         <v>9</v>
       </c>
       <c r="M262" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N262" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O262" s="10" t="s">
         <v>45</v>
@@ -32282,10 +32282,10 @@
         <v>314</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -32305,10 +32305,10 @@
         <v>9</v>
       </c>
       <c r="M263" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N263" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O263" s="19" t="s">
         <v>45</v>
@@ -32376,10 +32376,10 @@
         <v>315</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D264" s="6">
         <v>1</v>
@@ -32399,10 +32399,10 @@
         <v>9</v>
       </c>
       <c r="M264" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N264" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O264" s="10" t="s">
         <v>45</v>
@@ -32470,10 +32470,10 @@
         <v>316</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>1000</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>1001</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -32493,10 +32493,10 @@
         <v>8</v>
       </c>
       <c r="M265" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N265" s="33" t="s">
         <v>1002</v>
-      </c>
-      <c r="N265" s="33" t="s">
-        <v>1003</v>
       </c>
       <c r="O265" s="19" t="s">
         <v>45</v>
@@ -32564,10 +32564,10 @@
         <v>317</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D266" s="6">
         <v>1</v>
@@ -32597,10 +32597,10 @@
         <v>9</v>
       </c>
       <c r="M266" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N266" s="34" t="s">
         <v>1087</v>
-      </c>
-      <c r="N266" s="34" t="s">
-        <v>1088</v>
       </c>
       <c r="O266" s="10" t="s">
         <v>243</v>
@@ -32630,7 +32630,7 @@
       <c r="AB266" s="10"/>
       <c r="AC266" s="10"/>
       <c r="AD266" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AE266" s="10"/>
       <c r="AF266" s="10"/>
@@ -32656,10 +32656,10 @@
       <c r="AZ266" s="10"/>
       <c r="BA266" s="10"/>
       <c r="BB266" s="47" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC266" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BD266" s="10"/>
       <c r="BE266" s="10"/>
@@ -32674,10 +32674,10 @@
         <v>318</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>1089</v>
-      </c>
-      <c r="C267" s="15" t="s">
-        <v>1090</v>
       </c>
       <c r="D267" s="15">
         <v>1</v>
@@ -32707,10 +32707,10 @@
         <v>9</v>
       </c>
       <c r="M267" s="17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="N267" s="35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O267" s="19" t="s">
         <v>243</v>
@@ -32740,7 +32740,7 @@
       <c r="AB267" s="19"/>
       <c r="AC267" s="19"/>
       <c r="AD267" s="48" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AE267" s="19"/>
       <c r="AF267" s="19"/>
@@ -32766,10 +32766,10 @@
       <c r="AZ267" s="19"/>
       <c r="BA267" s="19"/>
       <c r="BB267" s="47" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC267" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BD267" s="19"/>
       <c r="BE267" s="19"/>
@@ -32784,10 +32784,10 @@
         <v>319</v>
       </c>
       <c r="B268" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>1092</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>1093</v>
       </c>
       <c r="D268" s="6">
         <v>1</v>
@@ -32817,10 +32817,10 @@
         <v>9</v>
       </c>
       <c r="M268" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N268" s="34" t="s">
         <v>1094</v>
-      </c>
-      <c r="N268" s="34" t="s">
-        <v>1095</v>
       </c>
       <c r="O268" s="10" t="s">
         <v>243</v>
@@ -32873,16 +32873,16 @@
       <c r="AZ268" s="10"/>
       <c r="BA268" s="10"/>
       <c r="BB268" s="47" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC268" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BD268" s="10"/>
       <c r="BE268" s="10"/>
       <c r="BF268" s="10"/>
       <c r="BG268" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="BH268" s="10"/>
       <c r="BI268" s="10"/>
@@ -32893,10 +32893,10 @@
         <v>320</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C269" s="15" t="s">
         <v>1096</v>
-      </c>
-      <c r="C269" s="15" t="s">
-        <v>1097</v>
       </c>
       <c r="D269" s="15">
         <v>1</v>
@@ -32926,10 +32926,10 @@
         <v>9</v>
       </c>
       <c r="M269" s="17" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="N269" s="36" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O269" s="19" t="s">
         <v>243</v>
@@ -32959,7 +32959,7 @@
       <c r="AB269" s="19"/>
       <c r="AC269" s="19"/>
       <c r="AD269" s="10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AE269" s="19"/>
       <c r="AF269" s="19"/>
@@ -32990,7 +32990,7 @@
       <c r="BE269" s="19"/>
       <c r="BF269" s="19"/>
       <c r="BG269" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="BH269" s="19"/>
       <c r="BI269" s="19"/>
@@ -33001,10 +33001,10 @@
         <v>321</v>
       </c>
       <c r="B270" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C270" s="37" t="s">
         <v>1207</v>
-      </c>
-      <c r="C270" s="37" t="s">
-        <v>1208</v>
       </c>
       <c r="D270" s="6">
         <v>1</v>
@@ -33032,10 +33032,10 @@
         <v>9</v>
       </c>
       <c r="M270" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="N270" s="38" t="s">
         <v>1099</v>
-      </c>
-      <c r="N270" s="38" t="s">
-        <v>1100</v>
       </c>
       <c r="O270" s="10" t="s">
         <v>264</v>
@@ -33103,10 +33103,10 @@
         <v>322</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>1101</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>1102</v>
       </c>
       <c r="D271" s="15">
         <v>1</v>
@@ -33134,10 +33134,10 @@
         <v>9</v>
       </c>
       <c r="M271" s="43" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N271" s="39" t="s">
         <v>1103</v>
-      </c>
-      <c r="N271" s="39" t="s">
-        <v>1104</v>
       </c>
       <c r="O271" s="19" t="s">
         <v>264</v>
@@ -33191,7 +33191,7 @@
       <c r="AZ271" s="19"/>
       <c r="BA271" s="19"/>
       <c r="BB271" s="47" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC271" s="19"/>
       <c r="BD271" s="19"/>
@@ -33207,10 +33207,10 @@
         <v>323</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C272" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D272" s="6">
         <v>1</v>
@@ -33238,10 +33238,10 @@
         <v>9</v>
       </c>
       <c r="M272" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N272" s="40" t="s">
         <v>1106</v>
-      </c>
-      <c r="N272" s="40" t="s">
-        <v>1107</v>
       </c>
       <c r="O272" s="10" t="s">
         <v>264</v>
@@ -33295,7 +33295,7 @@
       <c r="AZ272" s="10"/>
       <c r="BA272" s="10"/>
       <c r="BB272" s="47" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BC272" s="10"/>
       <c r="BD272" s="10"/>
@@ -33311,10 +33311,10 @@
         <v>324</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -33334,10 +33334,10 @@
         <v>9</v>
       </c>
       <c r="M273" s="17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N273" s="39" t="s">
         <v>1109</v>
-      </c>
-      <c r="N273" s="39" t="s">
-        <v>1110</v>
       </c>
       <c r="O273" s="19" t="s">
         <v>123</v>
@@ -33383,7 +33383,7 @@
       <c r="AR273" s="19"/>
       <c r="AS273" s="19"/>
       <c r="AT273" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AU273" s="19"/>
       <c r="AV273" s="19"/>
@@ -33407,10 +33407,10 @@
         <v>325</v>
       </c>
       <c r="B274" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C274" s="41" t="s">
         <v>1111</v>
-      </c>
-      <c r="C274" s="41" t="s">
-        <v>1112</v>
       </c>
       <c r="D274" s="6">
         <v>1</v>
@@ -33440,10 +33440,10 @@
         <v>10</v>
       </c>
       <c r="M274" s="42" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N274" s="40" t="s">
         <v>1113</v>
-      </c>
-      <c r="N274" s="40" t="s">
-        <v>1114</v>
       </c>
       <c r="O274" s="10" t="s">
         <v>236</v>
@@ -33511,10 +33511,10 @@
         <v>326</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -33544,10 +33544,10 @@
         <v>10</v>
       </c>
       <c r="M275" s="43" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N275" s="39" t="s">
         <v>1116</v>
-      </c>
-      <c r="N275" s="39" t="s">
-        <v>1117</v>
       </c>
       <c r="O275" s="19" t="s">
         <v>236</v>
@@ -33601,10 +33601,10 @@
       <c r="AZ275" s="19"/>
       <c r="BA275" s="19"/>
       <c r="BB275" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BC275" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BD275" s="19"/>
       <c r="BE275" s="19"/>
@@ -33619,10 +33619,10 @@
         <v>327</v>
       </c>
       <c r="B276" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C276" s="41" t="s">
         <v>1118</v>
-      </c>
-      <c r="C276" s="41" t="s">
-        <v>1119</v>
       </c>
       <c r="D276" s="6">
         <v>1</v>
@@ -33652,10 +33652,10 @@
         <v>10</v>
       </c>
       <c r="M276" s="44" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N276" s="40" t="s">
         <v>1120</v>
-      </c>
-      <c r="N276" s="40" t="s">
-        <v>1121</v>
       </c>
       <c r="O276" s="10" t="s">
         <v>236</v>
@@ -33714,7 +33714,7 @@
       <c r="BE276" s="10"/>
       <c r="BF276" s="10"/>
       <c r="BG276" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="BH276" s="10"/>
       <c r="BI276" s="10"/>
@@ -33725,10 +33725,10 @@
         <v>328</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C277" s="15" t="s">
         <v>1122</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>1123</v>
       </c>
       <c r="D277" s="15">
         <v>1</v>
@@ -33758,10 +33758,10 @@
         <v>10</v>
       </c>
       <c r="M277" s="43" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N277" s="39" t="s">
         <v>1124</v>
-      </c>
-      <c r="N277" s="39" t="s">
-        <v>1125</v>
       </c>
       <c r="O277" s="19" t="s">
         <v>236</v>
@@ -33829,10 +33829,10 @@
         <v>329</v>
       </c>
       <c r="B278" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C278" s="41" t="s">
         <v>1126</v>
-      </c>
-      <c r="C278" s="41" t="s">
-        <v>1127</v>
       </c>
       <c r="D278" s="6">
         <v>1</v>
@@ -33852,10 +33852,10 @@
         <v>53</v>
       </c>
       <c r="M278" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="N278" s="40" t="s">
         <v>1128</v>
-      </c>
-      <c r="N278" s="40" t="s">
-        <v>1129</v>
       </c>
       <c r="O278" s="10" t="s">
         <v>45</v>
@@ -33923,10 +33923,10 @@
         <v>330</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C279" s="15" t="s">
         <v>1130</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>1131</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -33946,10 +33946,10 @@
         <v>49</v>
       </c>
       <c r="M279" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="N279" s="39" t="s">
         <v>1132</v>
-      </c>
-      <c r="N279" s="39" t="s">
-        <v>1133</v>
       </c>
       <c r="O279" s="19" t="s">
         <v>45</v>
@@ -33979,7 +33979,7 @@
       <c r="AB279" s="19"/>
       <c r="AC279" s="19"/>
       <c r="AD279" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AE279" s="19"/>
       <c r="AF279" s="19"/>
@@ -34019,10 +34019,10 @@
         <v>331</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C280" s="41" t="s">
         <v>1134</v>
-      </c>
-      <c r="C280" s="41" t="s">
-        <v>1135</v>
       </c>
       <c r="D280" s="6">
         <v>1</v>
@@ -34052,10 +34052,10 @@
         <v>10</v>
       </c>
       <c r="M280" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N280" s="33" t="s">
         <v>1136</v>
-      </c>
-      <c r="N280" s="33" t="s">
-        <v>1137</v>
       </c>
       <c r="O280" s="10" t="s">
         <v>328</v>
@@ -34110,7 +34110,7 @@
       <c r="BA280" s="10"/>
       <c r="BB280" s="10"/>
       <c r="BC280" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BD280" s="10"/>
       <c r="BE280" s="10"/>
@@ -34516,214 +34516,854 @@
       <c r="BI286" s="10"/>
       <c r="BJ286" s="10"/>
     </row>
+    <row r="287" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A287" s="14"/>
+      <c r="B287" s="15"/>
+      <c r="C287" s="15"/>
+      <c r="D287" s="15"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="14"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="14"/>
+      <c r="I287" s="14"/>
+      <c r="J287" s="14"/>
+      <c r="K287" s="14"/>
+      <c r="L287" s="14"/>
+      <c r="M287" s="17"/>
+      <c r="N287" s="39"/>
+      <c r="O287" s="19"/>
+      <c r="P287" s="20"/>
+      <c r="Q287" s="20"/>
+      <c r="R287" s="21"/>
+      <c r="S287" s="21"/>
+      <c r="T287" s="22"/>
+      <c r="U287" s="19"/>
+      <c r="V287" s="19"/>
+      <c r="W287" s="19"/>
+      <c r="X287" s="19"/>
+      <c r="Y287" s="19"/>
+      <c r="Z287" s="19"/>
+      <c r="AA287" s="19"/>
+      <c r="AB287" s="19"/>
+      <c r="AC287" s="19"/>
+      <c r="AD287" s="19"/>
+      <c r="AE287" s="19"/>
+      <c r="AF287" s="19"/>
+      <c r="AG287" s="19"/>
+      <c r="AH287" s="19"/>
+      <c r="AI287" s="19"/>
+      <c r="AJ287" s="19"/>
+      <c r="AK287" s="19"/>
+      <c r="AL287" s="19"/>
+      <c r="AM287" s="19"/>
+      <c r="AN287" s="19"/>
+      <c r="AO287" s="19"/>
+      <c r="AP287" s="19"/>
+      <c r="AQ287" s="19"/>
+      <c r="AR287" s="19"/>
+      <c r="AS287" s="19"/>
+      <c r="AT287" s="19"/>
+      <c r="AU287" s="19"/>
+      <c r="AV287" s="19"/>
+      <c r="AW287" s="19"/>
+      <c r="AX287" s="19"/>
+      <c r="AY287" s="19"/>
+      <c r="AZ287" s="19"/>
+      <c r="BA287" s="19"/>
+      <c r="BB287" s="19"/>
+      <c r="BC287" s="19"/>
+      <c r="BD287" s="19"/>
+      <c r="BE287" s="19"/>
+      <c r="BF287" s="19"/>
+      <c r="BG287" s="19"/>
+      <c r="BH287" s="19"/>
+      <c r="BI287" s="19"/>
+      <c r="BJ287" s="19"/>
+    </row>
+    <row r="288" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="5"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="37"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+      <c r="K288" s="5"/>
+      <c r="L288" s="5"/>
+      <c r="M288" s="8"/>
+      <c r="N288" s="40"/>
+      <c r="O288" s="10"/>
+      <c r="P288" s="11"/>
+      <c r="Q288" s="11"/>
+      <c r="R288" s="12"/>
+      <c r="S288" s="12"/>
+      <c r="T288" s="13"/>
+      <c r="U288" s="10"/>
+      <c r="V288" s="10"/>
+      <c r="W288" s="10"/>
+      <c r="X288" s="10"/>
+      <c r="Y288" s="10"/>
+      <c r="Z288" s="10"/>
+      <c r="AA288" s="10"/>
+      <c r="AB288" s="10"/>
+      <c r="AC288" s="10"/>
+      <c r="AD288" s="10"/>
+      <c r="AE288" s="10"/>
+      <c r="AF288" s="10"/>
+      <c r="AG288" s="10"/>
+      <c r="AH288" s="10"/>
+      <c r="AI288" s="10"/>
+      <c r="AJ288" s="10"/>
+      <c r="AK288" s="10"/>
+      <c r="AL288" s="10"/>
+      <c r="AM288" s="10"/>
+      <c r="AN288" s="10"/>
+      <c r="AO288" s="10"/>
+      <c r="AP288" s="10"/>
+      <c r="AQ288" s="10"/>
+      <c r="AR288" s="10"/>
+      <c r="AS288" s="10"/>
+      <c r="AT288" s="10"/>
+      <c r="AU288" s="10"/>
+      <c r="AV288" s="10"/>
+      <c r="AW288" s="10"/>
+      <c r="AX288" s="10"/>
+      <c r="AY288" s="10"/>
+      <c r="AZ288" s="10"/>
+      <c r="BA288" s="10"/>
+      <c r="BB288" s="10"/>
+      <c r="BC288" s="10"/>
+      <c r="BD288" s="10"/>
+      <c r="BE288" s="10"/>
+      <c r="BF288" s="10"/>
+      <c r="BG288" s="10"/>
+      <c r="BH288" s="10"/>
+      <c r="BI288" s="10"/>
+      <c r="BJ288" s="10"/>
+    </row>
+    <row r="289" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A289" s="14"/>
+      <c r="B289" s="15"/>
+      <c r="C289" s="15"/>
+      <c r="D289" s="15"/>
+      <c r="E289" s="15"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
+      <c r="J289" s="14"/>
+      <c r="K289" s="14"/>
+      <c r="L289" s="14"/>
+      <c r="M289" s="17"/>
+      <c r="N289" s="39"/>
+      <c r="O289" s="19"/>
+      <c r="P289" s="20"/>
+      <c r="Q289" s="20"/>
+      <c r="R289" s="21"/>
+      <c r="S289" s="21"/>
+      <c r="T289" s="22"/>
+      <c r="U289" s="19"/>
+      <c r="V289" s="19"/>
+      <c r="W289" s="19"/>
+      <c r="X289" s="19"/>
+      <c r="Y289" s="19"/>
+      <c r="Z289" s="19"/>
+      <c r="AA289" s="19"/>
+      <c r="AB289" s="19"/>
+      <c r="AC289" s="19"/>
+      <c r="AD289" s="19"/>
+      <c r="AE289" s="19"/>
+      <c r="AF289" s="19"/>
+      <c r="AG289" s="19"/>
+      <c r="AH289" s="19"/>
+      <c r="AI289" s="19"/>
+      <c r="AJ289" s="19"/>
+      <c r="AK289" s="19"/>
+      <c r="AL289" s="19"/>
+      <c r="AM289" s="19"/>
+      <c r="AN289" s="19"/>
+      <c r="AO289" s="19"/>
+      <c r="AP289" s="19"/>
+      <c r="AQ289" s="19"/>
+      <c r="AR289" s="19"/>
+      <c r="AS289" s="19"/>
+      <c r="AT289" s="19"/>
+      <c r="AU289" s="19"/>
+      <c r="AV289" s="19"/>
+      <c r="AW289" s="19"/>
+      <c r="AX289" s="19"/>
+      <c r="AY289" s="19"/>
+      <c r="AZ289" s="19"/>
+      <c r="BA289" s="19"/>
+      <c r="BB289" s="19"/>
+      <c r="BC289" s="19"/>
+      <c r="BD289" s="19"/>
+      <c r="BE289" s="19"/>
+      <c r="BF289" s="19"/>
+      <c r="BG289" s="19"/>
+      <c r="BH289" s="19"/>
+      <c r="BI289" s="19"/>
+      <c r="BJ289" s="19"/>
+    </row>
+    <row r="290" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="5"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="37"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="8"/>
+      <c r="N290" s="40"/>
+      <c r="O290" s="10"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="12"/>
+      <c r="S290" s="12"/>
+      <c r="T290" s="13"/>
+      <c r="U290" s="10"/>
+      <c r="V290" s="10"/>
+      <c r="W290" s="10"/>
+      <c r="X290" s="10"/>
+      <c r="Y290" s="10"/>
+      <c r="Z290" s="10"/>
+      <c r="AA290" s="10"/>
+      <c r="AB290" s="10"/>
+      <c r="AC290" s="10"/>
+      <c r="AD290" s="10"/>
+      <c r="AE290" s="10"/>
+      <c r="AF290" s="10"/>
+      <c r="AG290" s="10"/>
+      <c r="AH290" s="10"/>
+      <c r="AI290" s="10"/>
+      <c r="AJ290" s="10"/>
+      <c r="AK290" s="10"/>
+      <c r="AL290" s="10"/>
+      <c r="AM290" s="10"/>
+      <c r="AN290" s="10"/>
+      <c r="AO290" s="10"/>
+      <c r="AP290" s="10"/>
+      <c r="AQ290" s="10"/>
+      <c r="AR290" s="10"/>
+      <c r="AS290" s="10"/>
+      <c r="AT290" s="10"/>
+      <c r="AU290" s="10"/>
+      <c r="AV290" s="10"/>
+      <c r="AW290" s="10"/>
+      <c r="AX290" s="10"/>
+      <c r="AY290" s="10"/>
+      <c r="AZ290" s="10"/>
+      <c r="BA290" s="10"/>
+      <c r="BB290" s="10"/>
+      <c r="BC290" s="10"/>
+      <c r="BD290" s="10"/>
+      <c r="BE290" s="10"/>
+      <c r="BF290" s="10"/>
+      <c r="BG290" s="10"/>
+      <c r="BH290" s="10"/>
+      <c r="BI290" s="10"/>
+      <c r="BJ290" s="10"/>
+    </row>
+    <row r="291" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A291" s="14"/>
+      <c r="B291" s="15"/>
+      <c r="C291" s="15"/>
+      <c r="D291" s="15"/>
+      <c r="E291" s="15"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="14"/>
+      <c r="J291" s="14"/>
+      <c r="K291" s="14"/>
+      <c r="L291" s="14"/>
+      <c r="M291" s="17"/>
+      <c r="N291" s="39"/>
+      <c r="O291" s="19"/>
+      <c r="P291" s="20"/>
+      <c r="Q291" s="20"/>
+      <c r="R291" s="21"/>
+      <c r="S291" s="21"/>
+      <c r="T291" s="22"/>
+      <c r="U291" s="19"/>
+      <c r="V291" s="19"/>
+      <c r="W291" s="19"/>
+      <c r="X291" s="19"/>
+      <c r="Y291" s="19"/>
+      <c r="Z291" s="19"/>
+      <c r="AA291" s="19"/>
+      <c r="AB291" s="19"/>
+      <c r="AC291" s="19"/>
+      <c r="AD291" s="19"/>
+      <c r="AE291" s="19"/>
+      <c r="AF291" s="19"/>
+      <c r="AG291" s="19"/>
+      <c r="AH291" s="19"/>
+      <c r="AI291" s="19"/>
+      <c r="AJ291" s="19"/>
+      <c r="AK291" s="19"/>
+      <c r="AL291" s="19"/>
+      <c r="AM291" s="19"/>
+      <c r="AN291" s="19"/>
+      <c r="AO291" s="19"/>
+      <c r="AP291" s="19"/>
+      <c r="AQ291" s="19"/>
+      <c r="AR291" s="19"/>
+      <c r="AS291" s="19"/>
+      <c r="AT291" s="19"/>
+      <c r="AU291" s="19"/>
+      <c r="AV291" s="19"/>
+      <c r="AW291" s="19"/>
+      <c r="AX291" s="19"/>
+      <c r="AY291" s="19"/>
+      <c r="AZ291" s="19"/>
+      <c r="BA291" s="19"/>
+      <c r="BB291" s="19"/>
+      <c r="BC291" s="19"/>
+      <c r="BD291" s="19"/>
+      <c r="BE291" s="19"/>
+      <c r="BF291" s="19"/>
+      <c r="BG291" s="19"/>
+      <c r="BH291" s="19"/>
+      <c r="BI291" s="19"/>
+      <c r="BJ291" s="19"/>
+    </row>
+    <row r="292" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="5"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="37"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="5"/>
+      <c r="M292" s="8"/>
+      <c r="N292" s="40"/>
+      <c r="O292" s="10"/>
+      <c r="P292" s="11"/>
+      <c r="Q292" s="11"/>
+      <c r="R292" s="12"/>
+      <c r="S292" s="12"/>
+      <c r="T292" s="13"/>
+      <c r="U292" s="10"/>
+      <c r="V292" s="10"/>
+      <c r="W292" s="10"/>
+      <c r="X292" s="10"/>
+      <c r="Y292" s="10"/>
+      <c r="Z292" s="10"/>
+      <c r="AA292" s="10"/>
+      <c r="AB292" s="10"/>
+      <c r="AC292" s="10"/>
+      <c r="AD292" s="10"/>
+      <c r="AE292" s="10"/>
+      <c r="AF292" s="10"/>
+      <c r="AG292" s="10"/>
+      <c r="AH292" s="10"/>
+      <c r="AI292" s="10"/>
+      <c r="AJ292" s="10"/>
+      <c r="AK292" s="10"/>
+      <c r="AL292" s="10"/>
+      <c r="AM292" s="10"/>
+      <c r="AN292" s="10"/>
+      <c r="AO292" s="10"/>
+      <c r="AP292" s="10"/>
+      <c r="AQ292" s="10"/>
+      <c r="AR292" s="10"/>
+      <c r="AS292" s="10"/>
+      <c r="AT292" s="10"/>
+      <c r="AU292" s="10"/>
+      <c r="AV292" s="10"/>
+      <c r="AW292" s="10"/>
+      <c r="AX292" s="10"/>
+      <c r="AY292" s="10"/>
+      <c r="AZ292" s="10"/>
+      <c r="BA292" s="10"/>
+      <c r="BB292" s="10"/>
+      <c r="BC292" s="10"/>
+      <c r="BD292" s="10"/>
+      <c r="BE292" s="10"/>
+      <c r="BF292" s="10"/>
+      <c r="BG292" s="10"/>
+      <c r="BH292" s="10"/>
+      <c r="BI292" s="10"/>
+      <c r="BJ292" s="10"/>
+    </row>
+    <row r="293" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A293" s="14"/>
+      <c r="B293" s="15"/>
+      <c r="C293" s="15"/>
+      <c r="D293" s="15"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
+      <c r="J293" s="14"/>
+      <c r="K293" s="14"/>
+      <c r="L293" s="14"/>
+      <c r="M293" s="17"/>
+      <c r="N293" s="39"/>
+      <c r="O293" s="19"/>
+      <c r="P293" s="20"/>
+      <c r="Q293" s="20"/>
+      <c r="R293" s="21"/>
+      <c r="S293" s="21"/>
+      <c r="T293" s="22"/>
+      <c r="U293" s="19"/>
+      <c r="V293" s="19"/>
+      <c r="W293" s="19"/>
+      <c r="X293" s="19"/>
+      <c r="Y293" s="19"/>
+      <c r="Z293" s="19"/>
+      <c r="AA293" s="19"/>
+      <c r="AB293" s="19"/>
+      <c r="AC293" s="19"/>
+      <c r="AD293" s="19"/>
+      <c r="AE293" s="19"/>
+      <c r="AF293" s="19"/>
+      <c r="AG293" s="19"/>
+      <c r="AH293" s="19"/>
+      <c r="AI293" s="19"/>
+      <c r="AJ293" s="19"/>
+      <c r="AK293" s="19"/>
+      <c r="AL293" s="19"/>
+      <c r="AM293" s="19"/>
+      <c r="AN293" s="19"/>
+      <c r="AO293" s="19"/>
+      <c r="AP293" s="19"/>
+      <c r="AQ293" s="19"/>
+      <c r="AR293" s="19"/>
+      <c r="AS293" s="19"/>
+      <c r="AT293" s="19"/>
+      <c r="AU293" s="19"/>
+      <c r="AV293" s="19"/>
+      <c r="AW293" s="19"/>
+      <c r="AX293" s="19"/>
+      <c r="AY293" s="19"/>
+      <c r="AZ293" s="19"/>
+      <c r="BA293" s="19"/>
+      <c r="BB293" s="19"/>
+      <c r="BC293" s="19"/>
+      <c r="BD293" s="19"/>
+      <c r="BE293" s="19"/>
+      <c r="BF293" s="19"/>
+      <c r="BG293" s="19"/>
+      <c r="BH293" s="19"/>
+      <c r="BI293" s="19"/>
+      <c r="BJ293" s="19"/>
+    </row>
+    <row r="294" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="5"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="37"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="5"/>
+      <c r="M294" s="8"/>
+      <c r="N294" s="40"/>
+      <c r="O294" s="10"/>
+      <c r="P294" s="11"/>
+      <c r="Q294" s="11"/>
+      <c r="R294" s="12"/>
+      <c r="S294" s="12"/>
+      <c r="T294" s="13"/>
+      <c r="U294" s="10"/>
+      <c r="V294" s="10"/>
+      <c r="W294" s="10"/>
+      <c r="X294" s="10"/>
+      <c r="Y294" s="10"/>
+      <c r="Z294" s="10"/>
+      <c r="AA294" s="10"/>
+      <c r="AB294" s="10"/>
+      <c r="AC294" s="10"/>
+      <c r="AD294" s="10"/>
+      <c r="AE294" s="10"/>
+      <c r="AF294" s="10"/>
+      <c r="AG294" s="10"/>
+      <c r="AH294" s="10"/>
+      <c r="AI294" s="10"/>
+      <c r="AJ294" s="10"/>
+      <c r="AK294" s="10"/>
+      <c r="AL294" s="10"/>
+      <c r="AM294" s="10"/>
+      <c r="AN294" s="10"/>
+      <c r="AO294" s="10"/>
+      <c r="AP294" s="10"/>
+      <c r="AQ294" s="10"/>
+      <c r="AR294" s="10"/>
+      <c r="AS294" s="10"/>
+      <c r="AT294" s="10"/>
+      <c r="AU294" s="10"/>
+      <c r="AV294" s="10"/>
+      <c r="AW294" s="10"/>
+      <c r="AX294" s="10"/>
+      <c r="AY294" s="10"/>
+      <c r="AZ294" s="10"/>
+      <c r="BA294" s="10"/>
+      <c r="BB294" s="10"/>
+      <c r="BC294" s="10"/>
+      <c r="BD294" s="10"/>
+      <c r="BE294" s="10"/>
+      <c r="BF294" s="10"/>
+      <c r="BG294" s="10"/>
+      <c r="BH294" s="10"/>
+      <c r="BI294" s="10"/>
+      <c r="BJ294" s="10"/>
+    </row>
+    <row r="295" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A295" s="14"/>
+      <c r="B295" s="15"/>
+      <c r="C295" s="15"/>
+      <c r="D295" s="15"/>
+      <c r="E295" s="15"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="14"/>
+      <c r="J295" s="14"/>
+      <c r="K295" s="14"/>
+      <c r="L295" s="14"/>
+      <c r="M295" s="17"/>
+      <c r="N295" s="39"/>
+      <c r="O295" s="19"/>
+      <c r="P295" s="20"/>
+      <c r="Q295" s="20"/>
+      <c r="R295" s="21"/>
+      <c r="S295" s="21"/>
+      <c r="T295" s="22"/>
+      <c r="U295" s="19"/>
+      <c r="V295" s="19"/>
+      <c r="W295" s="19"/>
+      <c r="X295" s="19"/>
+      <c r="Y295" s="19"/>
+      <c r="Z295" s="19"/>
+      <c r="AA295" s="19"/>
+      <c r="AB295" s="19"/>
+      <c r="AC295" s="19"/>
+      <c r="AD295" s="19"/>
+      <c r="AE295" s="19"/>
+      <c r="AF295" s="19"/>
+      <c r="AG295" s="19"/>
+      <c r="AH295" s="19"/>
+      <c r="AI295" s="19"/>
+      <c r="AJ295" s="19"/>
+      <c r="AK295" s="19"/>
+      <c r="AL295" s="19"/>
+      <c r="AM295" s="19"/>
+      <c r="AN295" s="19"/>
+      <c r="AO295" s="19"/>
+      <c r="AP295" s="19"/>
+      <c r="AQ295" s="19"/>
+      <c r="AR295" s="19"/>
+      <c r="AS295" s="19"/>
+      <c r="AT295" s="19"/>
+      <c r="AU295" s="19"/>
+      <c r="AV295" s="19"/>
+      <c r="AW295" s="19"/>
+      <c r="AX295" s="19"/>
+      <c r="AY295" s="19"/>
+      <c r="AZ295" s="19"/>
+      <c r="BA295" s="19"/>
+      <c r="BB295" s="19"/>
+      <c r="BC295" s="19"/>
+      <c r="BD295" s="19"/>
+      <c r="BE295" s="19"/>
+      <c r="BF295" s="19"/>
+      <c r="BG295" s="19"/>
+      <c r="BH295" s="19"/>
+      <c r="BI295" s="19"/>
+      <c r="BJ295" s="19"/>
+    </row>
+    <row r="296" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="5"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="37"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="5"/>
+      <c r="M296" s="8"/>
+      <c r="N296" s="40"/>
+      <c r="O296" s="10"/>
+      <c r="P296" s="11"/>
+      <c r="Q296" s="11"/>
+      <c r="R296" s="12"/>
+      <c r="S296" s="12"/>
+      <c r="T296" s="13"/>
+      <c r="U296" s="10"/>
+      <c r="V296" s="10"/>
+      <c r="W296" s="10"/>
+      <c r="X296" s="10"/>
+      <c r="Y296" s="10"/>
+      <c r="Z296" s="10"/>
+      <c r="AA296" s="10"/>
+      <c r="AB296" s="10"/>
+      <c r="AC296" s="10"/>
+      <c r="AD296" s="10"/>
+      <c r="AE296" s="10"/>
+      <c r="AF296" s="10"/>
+      <c r="AG296" s="10"/>
+      <c r="AH296" s="10"/>
+      <c r="AI296" s="10"/>
+      <c r="AJ296" s="10"/>
+      <c r="AK296" s="10"/>
+      <c r="AL296" s="10"/>
+      <c r="AM296" s="10"/>
+      <c r="AN296" s="10"/>
+      <c r="AO296" s="10"/>
+      <c r="AP296" s="10"/>
+      <c r="AQ296" s="10"/>
+      <c r="AR296" s="10"/>
+      <c r="AS296" s="10"/>
+      <c r="AT296" s="10"/>
+      <c r="AU296" s="10"/>
+      <c r="AV296" s="10"/>
+      <c r="AW296" s="10"/>
+      <c r="AX296" s="10"/>
+      <c r="AY296" s="10"/>
+      <c r="AZ296" s="10"/>
+      <c r="BA296" s="10"/>
+      <c r="BB296" s="10"/>
+      <c r="BC296" s="10"/>
+      <c r="BD296" s="10"/>
+      <c r="BE296" s="10"/>
+      <c r="BF296" s="10"/>
+      <c r="BG296" s="10"/>
+      <c r="BH296" s="10"/>
+      <c r="BI296" s="10"/>
+      <c r="BJ296" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S286" xr:uid="{A9F61A51-BCE4-43AA-96FD-5EBA7121129D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{AD4CE448-DE2A-48AB-A0D6-32FAB95C56A0}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L286" xr:uid="{68E72F56-35B8-4B32-8E8B-72B89839D198}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{E71830F3-1185-44FE-B3BE-901605F23C9D}">
       <formula1>$BV$19:$BV$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F286" xr:uid="{0985ABFF-C4EA-4A95-98C8-6F9F64F43C81}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{0736C751-DFB0-4D7F-A7E3-16936F4FD15C}">
       <formula1>$BV$13:$BV$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R286" xr:uid="{11478C4D-B905-4C83-A88C-6026AE9722F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{F4E8242B-D48B-45C9-B039-CD052C4B739D}">
       <formula1>$BS$7:$BS$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q286" xr:uid="{AFA5B1B4-3430-4438-94BC-BE621314BDC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{9673A060-2F6F-4839-9E48-AAE910ABA5D2}">
       <formula1>$BT$7:$BT$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{D2771292-BD8D-49C1-BBBE-87F9BAC7B928}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{15C8C1A5-716F-4858-9B39-4CC974E2C801}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{C0C54BF3-F8AB-44AA-941C-1CE6C6FA331A}"/>
-    <hyperlink ref="M25" r:id="rId4" xr:uid="{AA704EDF-3984-4774-A484-5DAE5EA700B5}"/>
-    <hyperlink ref="M26" r:id="rId5" xr:uid="{D9834411-8D66-4E5F-B100-E4F1755C8A48}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{B7C0E8AC-EEE8-4363-8595-85D20CA950C4}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{46DB5525-674F-4FBB-AF6D-33C78BAC3A71}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{12906EBC-949A-4C7C-85F7-4249A4191A33}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{FC118D3B-5926-4B20-B709-AF47E809CD59}"/>
-    <hyperlink ref="M31" r:id="rId10" xr:uid="{FA3C72F8-9468-47A4-B435-5DE300F55425}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{03CD067F-F5B6-44E9-AB82-CE06609B3FF3}"/>
-    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{D5BCBB42-8108-4497-A546-E61AAE93F303}"/>
-    <hyperlink ref="M34" r:id="rId13" xr:uid="{D3721043-18F1-43C2-9456-57C757069CCA}"/>
-    <hyperlink ref="M35" r:id="rId14" xr:uid="{5C662E93-E3C1-4AD4-92AF-DDF53BD14CA3}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{CE703410-78C1-4888-8FBB-85EBF5B5E107}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{B0D6ABB2-4D82-4231-BD13-C6CF6882B986}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{8D674A5E-C8C9-4D21-A3E7-AED9449F0E13}"/>
-    <hyperlink ref="M43" r:id="rId18" xr:uid="{0338765D-B192-4094-9A9D-428F0D903680}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{60351C49-6B24-4165-B693-20FBBDB24964}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{E5A42471-B319-492E-8A23-6C060FE74032}"/>
-    <hyperlink ref="M55" r:id="rId21" xr:uid="{2C988973-8E6D-4FCF-B0C5-C0B6E912EDEC}"/>
-    <hyperlink ref="M56" r:id="rId22" xr:uid="{3A8856E6-3BD2-41CC-B023-74B2580F90EB}"/>
-    <hyperlink ref="M57" r:id="rId23" xr:uid="{0E880FBE-9403-49BA-860F-603F4F4EE575}"/>
-    <hyperlink ref="M58" r:id="rId24" xr:uid="{FBB5838E-E38A-49ED-B026-C12A437AAF88}"/>
-    <hyperlink ref="M59" r:id="rId25" xr:uid="{F06FBD61-D6DF-403F-AB4E-8404F6022792}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{63F43269-B890-4AE6-BE22-A655B1E402D2}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{06182908-BBC3-4A92-A146-70882A74B4AB}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{6D7D8CEC-394A-44FA-BF9C-83497882ADC3}"/>
-    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{F8B6C824-C922-4636-B8D9-6E2813AFF2EF}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{BDD971CD-7CB3-44B4-98ED-EF7C7DCAEDD5}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{486B5657-E960-4497-9583-EFE8D3EBC43D}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{6688400C-B8F6-4381-A009-E6D4F8818197}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{6B60D11A-1689-412D-9B2B-60424AB1180B}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{A53AFF10-95AF-43D0-A175-F29EE83D1E84}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{BAFFE740-CE72-4396-AEB7-D799F227C6A1}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{A5E13B76-574B-4382-B2DE-372ED168C052}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{FAE666F0-E3B8-43CC-9B8A-12EA679270F6}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{20474AB9-8E96-4335-BE1C-98F7F05FBA96}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{BD7109BE-8F07-490C-9336-933E58D28BAF}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{948178AD-9C05-4C02-828C-AFAEB90AD3BC}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{E9E99EBE-D799-420F-BCF7-9BC8A7893BC3}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{760D9374-BBEC-4239-BE98-8BFA23B0E770}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{14F866C9-5932-4626-9AFE-E534CCACC0AE}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{B5BC5EA4-D59D-4B77-A954-EFE685EB0539}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{88DDFE81-3A4B-4F9C-86B3-F6F2463077B9}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{88A1A3C4-CC8B-44BE-ACA2-A66EF425D4C3}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{49F18F46-F9E0-417F-BDC4-3476DF16075C}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{8F170102-382B-49B6-9329-E960A0D4FC60}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{E543B249-3E7B-45A9-9BD4-CCCE967739A2}"/>
-    <hyperlink ref="M53" r:id="rId50" xr:uid="{A3484F8B-AEB8-46A3-899B-9CAB9BCA90E3}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{F8E97D89-E2FB-4199-B20E-E1EC53FF1FBB}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{8C145B62-A72F-4E34-B983-ECDBDC803E46}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{38988CE6-C568-44E7-BF5D-33D444E9612C}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{7B2646FF-8C4A-4AF0-9543-12FCC7293C78}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{765EE26A-1468-4558-B913-FD778BD7CC1E}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{74680DC2-EF79-416B-9C8E-D28FC7C743CD}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{52B704EA-3289-4EE0-9B17-71CD83EA2943}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{CC555209-D144-42A8-92F2-99FDE341BFCF}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{F40C58CD-B764-4C88-9BA9-AF92F83B27A5}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{35B65B16-C38A-4085-B653-EBC7AD407353}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{BF52496A-9FA8-44A6-9B6E-4670FB9D4113}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{0BDA9570-0B97-4AB2-BDBB-4215DBFCE447}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{D01BC41C-A5DC-4149-905C-6D64D6097A57}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{BE0F99AE-26F4-42C3-9FC2-32634165B553}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{417676E9-4812-4E02-9D7F-5D7BD9B4153D}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{E44C50E8-2B35-4350-AF96-BC9CCB3919A8}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{3EA861C8-F34E-47E7-B160-EE3F464CAA82}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{3774C342-80A1-40BD-9250-5BE7B2CB6517}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{4C79D4EE-4288-4E3B-93DA-FBDA62EF727F}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{F3E6CEB5-1DB7-460A-BF3D-D15A54E429BE}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{08A78611-145D-4459-90A5-3564029EC178}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{78223572-E682-4372-BCEE-36EB2AE824C8}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{2FA273C0-F3C7-47EE-BAE1-6C88E05D1642}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{CBCA98B8-00B6-478F-9465-9A259F55E51D}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{4A6B7179-9BC5-4904-8E81-02AE2F22718D}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{889BF0C9-A53B-4AD4-ACD1-44F702343041}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{B80F5A63-09EC-4ADF-9365-D15B679ABC60}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{20404055-652E-4ABE-97B3-AB3FEF7D6746}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{6F578B2F-A087-4C63-8066-8C1D813DE123}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{D51FD89D-810D-4BE3-A345-62CC683FDBE1}"/>
-    <hyperlink ref="M93" r:id="rId81" xr:uid="{691327C5-D9EB-40EB-82FF-5E1EE589411E}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{B02FB3ED-F4CA-48F7-ABE8-0C70CFF3ED8A}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{83B5C636-420C-4CD8-94E8-4180A50A2B77}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{A68FDD89-4E8C-4E60-81E5-CC8C13B56693}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{F266829F-F9BF-474E-9735-5A2E869F5D7C}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{4FF50F28-3DBC-4427-AB08-430A0AFEB23D}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{2C05AA53-B52C-41F5-81B4-1E9C0C54C48E}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{B7ED9664-399B-4D66-9281-7BF460103F35}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{AA10D9AB-2D9B-43E8-B25A-DFA9C93ECAA0}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{737C5673-324A-4B6E-83EF-34BE72ADEF27}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{9C9383FB-20C1-451F-828D-F8B39863CC3D}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{409875F6-B2B5-444C-AFC7-1DF021AB5D0E}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{FE9EA419-8B68-4D79-B734-607748CC0D6F}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{EC134DFC-2B6E-493B-BD17-B2B270A7A995}"/>
-    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{33911453-A1FA-4922-B2F4-ADE50094124C}"/>
-    <hyperlink ref="M38" r:id="rId96" xr:uid="{DE1231BB-0E7E-4A68-9BEB-440D3CFBD285}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{A4C92D8F-37B3-4528-A125-E76B42FC4F4F}"/>
-    <hyperlink ref="M91" r:id="rId98" xr:uid="{EB5FF196-42FB-4AB9-BE31-F8B08706D78B}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{FA4977B8-622E-4E85-96F4-7C3FDB3BFEAE}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{6CE2A0EB-8E83-4D33-9A74-4FF09E68785F}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{01CCA258-97BA-4AF6-B569-1962074519C0}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{790FC649-D7F5-4661-96D3-2FD0002EF445}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{39E93AFF-7BF8-468A-BA73-99503B76F90D}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{5E044803-237B-43FA-8DC2-2DACEBFFD658}"/>
-    <hyperlink ref="M41" r:id="rId105" xr:uid="{6EC7BB2C-A9CF-43FD-8A0E-E4D7BDDDB2AE}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{F6EC13F6-0B8E-4D52-A080-9492CB652B95}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{9A2A8615-BB3A-4A61-B289-7D14DA9F2099}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{8C8E4A7D-6887-42AD-BA19-585AA5E55535}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{0FD4DC51-2E58-4A02-B42E-4739632E0082}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{80BD106F-8CA1-47BF-9D35-AB536BD2B565}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{63D01EDE-E1F7-4006-9AA8-DBA5BC705381}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{73A3025B-62C3-4517-8676-09888AFB39C7}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{A08050EC-BE90-4744-9CB4-9EFB35E50C90}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{EE8D45E3-8886-4688-9AB3-B64A5FEE31B2}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{9D1A45F1-D3A1-4DE3-AF7F-AEB00EC0A6CC}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{A9F3F355-B0C8-48D7-A3BF-7A5587290918}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{C5941D46-11AD-4DEC-8F2F-B308F9B0C5E2}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{270CDFCA-8B81-4F0C-AEBF-99E5B54FEF79}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{951FAE2F-04F8-4B79-AA05-0A019F6EF367}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{294A5574-C3F5-4E9C-A20F-D7474A162278}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{82BEC55C-0D2B-414F-B8A6-75D7D831AD64}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{D74DDE7F-BBFD-4A9B-ABA3-0721C25E1CA7}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{A6510252-6D41-4603-BCF3-AE37ACC1C6B6}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{529E9C90-5E4C-47EF-92EB-AD077DB63004}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{98EF24BF-2787-4648-B9C0-2048A550FBEA}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{6E1FD46F-77B2-4780-A492-3A668B7D062D}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{06B0AB37-6C19-4220-87DD-0C2C811CD6A8}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{33A689E0-861F-4AD6-8DD6-02044677F9C3}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{471F1021-391A-475A-8AA8-BDBA65204694}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{B196C886-D26D-4CBD-8388-912399E4EB43}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{D4771828-EA63-49D6-9585-7A2C151E4AB2}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{4372ABB4-9D8A-4600-8B19-45CD9B0F13FA}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{B60A3FED-4CBF-458B-AF92-6896A8B4A428}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{FD65924E-DE52-452C-9249-4A138FAA3C85}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{DED4B8C7-D51D-4146-90A3-825D9420C141}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{D9DB684D-4EC0-4BFC-B48A-8B778E81E783}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{EE330928-50BC-435C-962D-8C2FBB278CD4}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{E06DB4F5-E66E-4604-8DE9-C81B7B0841F8}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{83BBC16F-A7A4-4E9A-8058-088ACAEA0C21}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{E67F75C4-5B10-4191-BDF9-3488B02FD58A}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{89951A8A-ECF6-465F-87B4-E193B8C3E658}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{97979CE3-E8F8-4C86-AC33-2427E2183DDF}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{16AB6EFB-96C8-4523-A151-E34A0BCAA16D}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{2653EBA4-9DE2-4B4A-A582-E9B4AE2CB3C0}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{E315452C-8344-4730-B884-345226CCB335}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{58D7A7F2-12E8-44EE-AAB5-5686F97D115A}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{4B612A4D-B1F4-4D14-9129-7DF425AF65BD}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{2355F3BC-B791-4A8C-B460-0A1A43BB4B0F}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{F7CE45A4-AB9C-4113-A1A8-93F1C22C777D}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{BCA3CFE3-22D4-4047-9A36-5CD23D64BB3A}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{8E590488-4458-4F6A-9513-5DAFD5C8DBCC}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{AA98B4FC-D0E4-4EDB-85F6-E4E3BB363C30}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{812FB66A-6AFA-4920-9AC9-64414FC05376}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{15DCAB33-A446-46A8-AB9A-1D8EC8C9FA4C}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{5D935992-A18A-4833-86EA-7D43E980C644}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{B17CF55E-D930-465B-B723-DB061D0A2C4C}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{E949E22F-58C6-4804-BF3D-11D98FAB5D83}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{4CC7DC20-7352-46C9-BD7B-74EA1860C13C}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{014FEC58-D738-4A3B-A774-73387A8A1DD6}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{5FDA46FC-E609-4025-9E2C-1C2CB20CC704}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{36C28744-5A19-4A72-882A-90AA367BE85C}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{DDD91B7B-847C-43D2-984B-D10DBC87AB1D}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{9D883E46-E3B2-484B-B4C3-FFC4D4AE8760}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{922C649B-C2D0-4F91-9D30-8E146ED6E928}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{6C39A00A-0EF7-475B-80FA-40ED4A4152DA}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{28E23EB3-BAEB-448A-858B-BA764FCD272E}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{52C2C060-AC66-4D4D-AE76-209665AC3F05}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{7903DB4A-28CC-4B20-8658-3903EA4D12B8}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{B3FAD0E8-542F-4C52-9958-F38DE6DC3325}"/>
-    <hyperlink ref="M183" r:id="rId170" xr:uid="{AE7BC871-24E1-4663-AA0A-1DA4EDDD8A26}"/>
-    <hyperlink ref="M68" r:id="rId171" xr:uid="{7112B435-7F09-42A6-9351-80B0C5882C3C}"/>
-    <hyperlink ref="M8" r:id="rId172" xr:uid="{06122F7F-A485-4B8E-BEFD-A4DB4FCB7818}"/>
-    <hyperlink ref="M266" r:id="rId173" xr:uid="{CBEEF7F7-EE11-44A7-89BE-F2D06D65C8BE}"/>
-    <hyperlink ref="M268" r:id="rId174" xr:uid="{EBE71BBB-1A97-417A-8A38-0A340B0E51EB}"/>
-    <hyperlink ref="M267" r:id="rId175" xr:uid="{098ED09F-B213-4D48-BA09-7C62DEBD3815}"/>
-    <hyperlink ref="M269" r:id="rId176" xr:uid="{472E1109-69D4-47BB-B883-CC3EE46DF66D}"/>
-    <hyperlink ref="M272" r:id="rId177" xr:uid="{1097313B-96C5-49E5-8B11-1645C97AB7C8}"/>
-    <hyperlink ref="M274" r:id="rId178" xr:uid="{530B058E-05F8-470E-8DC6-4410A485C569}"/>
-    <hyperlink ref="M275" r:id="rId179" xr:uid="{B0853456-1488-43FF-BF77-9517B0494738}"/>
-    <hyperlink ref="M276" r:id="rId180" xr:uid="{63C9FCB7-0171-4B7D-AE84-0580E728D17D}"/>
-    <hyperlink ref="M277" r:id="rId181" xr:uid="{159FDD5B-FBD6-4C67-BD7C-03B053F107ED}"/>
-    <hyperlink ref="M280" r:id="rId182" xr:uid="{142B82DB-3B83-4655-97DF-5BB8BAF6E489}"/>
-    <hyperlink ref="M270" r:id="rId183" xr:uid="{2BEEC6DB-4CE1-41F5-B753-E3540F17C541}"/>
-    <hyperlink ref="M271" r:id="rId184" xr:uid="{55A61361-FDF6-4686-890E-948F8611E8FD}"/>
-    <hyperlink ref="M60" r:id="rId185" xr:uid="{641E9F66-1211-4782-8EBD-0F9D3575BE48}"/>
-    <hyperlink ref="M98" r:id="rId186" xr:uid="{4CF812B8-84D4-4CC7-8914-F5CD3F1DF117}"/>
-    <hyperlink ref="M125" r:id="rId187" xr:uid="{17C20D99-C7FD-438A-B421-1DA7B9E5523E}"/>
-    <hyperlink ref="M70" r:id="rId188" xr:uid="{FC5F250D-C707-453B-84A6-954068E68AFC}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{12E4C5C9-48CB-41F1-ADD9-C6DF41FB3676}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{C4574794-A1CD-4A3D-8BE8-CC00BE50F800}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{5293E208-626B-4DBA-9CB7-54F9A7E9D0B6}"/>
+    <hyperlink ref="M25" r:id="rId4" xr:uid="{B66AF5DE-FE77-4A37-8574-9475C65C7469}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{E7AC2059-E6BE-4A6A-B33D-29644FC6429B}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{E4892B39-4DE1-4F68-9D6F-2898B47E49FD}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{D8D9CA02-CA55-47C9-A63F-3CB51D47FC55}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{F0F0EC12-F9DE-4659-9C9F-927CDB66E907}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{5E169A5B-4739-4A47-8916-51B5BC0C6C00}"/>
+    <hyperlink ref="M31" r:id="rId10" xr:uid="{1FBEC2B3-C515-4626-BC56-2166BCC3EA09}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{6F555751-B8DE-4EF4-AF0D-AED09EDB1655}"/>
+    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{9823BF21-3991-44EF-ABE9-4B9EB4DA0357}"/>
+    <hyperlink ref="M34" r:id="rId13" xr:uid="{0C515C7F-903D-4C2A-BE40-1CB65F8AD27F}"/>
+    <hyperlink ref="M35" r:id="rId14" xr:uid="{5256FDD6-A724-45D1-B68B-6EF67449F692}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{C68B960E-C9FF-4F3C-9319-94A2CC31759E}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{04233C1F-7E5D-464C-BC26-A8AFFB26CF92}"/>
+    <hyperlink ref="M42" r:id="rId17" xr:uid="{F3710321-B414-4321-B15F-7F16D33F8AB8}"/>
+    <hyperlink ref="M43" r:id="rId18" xr:uid="{6345998E-C7E2-4A83-A1D7-007F491EF720}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{9A527A43-7BA6-4AAE-B412-3DECD892D8E8}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{10CEC2CD-6C78-4C56-AC29-6796E847BE4E}"/>
+    <hyperlink ref="M55" r:id="rId21" xr:uid="{F14DF585-CF5E-4162-8C4A-4E1679ACADBA}"/>
+    <hyperlink ref="M56" r:id="rId22" xr:uid="{98B3D531-40CD-400C-A566-45FE384D2370}"/>
+    <hyperlink ref="M57" r:id="rId23" xr:uid="{C9B8F924-8A14-41DD-BB46-1D8981D04CB7}"/>
+    <hyperlink ref="M58" r:id="rId24" xr:uid="{F2AA766C-36AF-4B36-8160-32838956B5AA}"/>
+    <hyperlink ref="M59" r:id="rId25" xr:uid="{601707D3-D578-4312-86AA-C914DBF4E5F8}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{56DAB985-4CA4-4768-BE63-41B93A12B5EC}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{26FF5D09-E13C-4C3C-9144-BD7078BC5C3E}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{BA4515EA-2680-4384-B612-040F5D43D64F}"/>
+    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{942BE32F-1BEE-4E2D-874C-E6455F9BF16F}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{3C783995-2313-4545-A164-374103E31873}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{CB85843A-C9D2-4104-A095-97752E2EDCD4}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{69076CFA-2209-4F61-8A29-B349E3687909}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{18B34C87-CD28-4F3C-95A1-F639EEF02253}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{E11AF5B3-950A-4FBB-A3A8-9E4B510CD7DE}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{BED5C38E-ACDD-4F8D-B1F4-CFC2AD060E09}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{65A0EE57-14EE-4889-BE8E-F7C6AED29D3C}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{DD40DDE4-7654-485F-9D75-765F64AD3899}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{05D8787B-352B-46B1-B66E-C0095ECF18AB}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{4046DC9F-9E8C-4587-A6C1-32017440E131}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{EB67E8F1-45F9-4C6A-8B29-96EF93BDB02D}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{913F9C39-77C6-497C-98A8-5236D387B0C9}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{4F54E3DB-D498-4460-8882-8E22D1BC6F31}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{D3848A24-02C9-451E-BE9E-F252A21F37DB}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{B134166C-3F06-41AF-9269-71ACFDE17F02}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{71FB02C2-2DD7-464E-BA8D-D9496E0F77F7}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{63CD8B61-2F2E-4ECA-8819-058A734980DF}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{2620CF2A-6D9C-4D86-A68B-B05D30359BB1}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{17EAD8E8-F6ED-4977-B5CF-52991DBB4109}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{C12C4BFF-0D6A-4EA0-87A4-8276F7C83519}"/>
+    <hyperlink ref="M53" r:id="rId50" xr:uid="{AC7406B3-A189-434F-8AB0-02ED3F2489DC}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{FF48374B-1607-4C0C-B06C-034D7ED571FA}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{05470D44-CA32-4605-8600-75B67E508E42}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{F1085056-1C46-4141-A5B9-0FF66A15500F}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{811035C5-B404-4882-ACD5-EE6F4AB73DC9}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{E4F4FF70-57E7-4D7A-A6DB-37CA06129EFC}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{F0971A45-BF31-475A-92A6-DB5ABBB69D25}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{DBEE3677-61DF-477E-9948-32AA7E8D7585}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{3604AE86-7266-46AE-9632-9893D1B96305}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{FC338648-5A50-4296-9B9B-63B223870FFD}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{1ABD5DB7-EA4B-42B7-9F8A-F043A5729461}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{155CBA3D-E8C7-488B-AB0A-A9A185BD2E08}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{FB251114-DE76-4087-9448-D5EBDBA2648E}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{4E61C050-4E35-4E2B-856D-DD7E846CC190}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{8DE6D5E5-277B-4931-A555-4370324758A1}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{C6F82223-06F0-41C1-B68D-0F75665A6EB2}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{5B3C6FCA-41A0-4AAA-A8A0-5DF0F5B99295}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{79D083C7-A63E-4770-B133-5BF24DE4443C}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{9E26B30B-AE9D-4DF4-9EC0-C1FAC99E3CA0}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{AB5359EF-6D7C-4B3B-A8F4-ED285AE6ECF9}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{E93902B1-00B5-4EA3-9465-02A71C6D06ED}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{FA3E5C7D-83AC-4DF2-9011-1FBB2A3C58CA}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{08C27214-8453-4A8F-9A5C-687F75156BBD}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{C3DEAC6A-D1C2-48FC-911F-73ABD9180176}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{5BCFE5BC-26FA-427A-9054-E00B23449DDD}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{FB9E0F61-8058-4554-8946-B95C273A433D}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{825D761B-7D8D-40EA-87A1-095A7B59BC0A}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{B957D013-153E-446B-BC04-48A17AEAA3E6}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{146D5157-5EAD-4BF2-B065-F97CDEE561C9}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{9EF1F852-C3E5-4BBF-B7F5-6AC27305BCDB}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{12496FAB-68EC-479A-BF23-C897C045F68B}"/>
+    <hyperlink ref="M93" r:id="rId81" xr:uid="{53F08ABA-2BE8-4054-852B-F47B146C6228}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{12B23F01-E5F6-447B-B0C0-AD5AE21AD0D8}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{CA956DB5-45EC-4404-B62E-7929D0B4FB08}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{10F91FDB-E0CE-44C5-AC5D-35D864509AE2}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{B1BFD651-C562-438E-9414-F463C2677705}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{3D01899A-3CB0-4EDF-8D8C-CC6F66EF157D}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{C79283CE-3B54-42E7-8160-868D55F8AFFB}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{1727EC5B-AA4B-4F9B-BE6E-649B50F64698}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{CD5E601C-1BB5-4C6A-9C84-5AE5DE821498}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{42D82821-4BE6-4D70-B094-0F2508313C6E}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{314579A8-97E3-4B31-B709-A66BF7C7953A}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{3E41991C-545C-4646-9978-787A0C4D897E}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{4A7DF945-D3A2-49D1-92C3-856051965611}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{4D8E67AF-E405-4D49-99F6-C26A614E9ADF}"/>
+    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{6C2C3290-C974-4424-9F95-9D250C56313A}"/>
+    <hyperlink ref="M38" r:id="rId96" xr:uid="{4E72276E-4F54-4BB3-B2D0-45C4AF7B1296}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{E165C19E-DE60-41F0-80D1-2FF82F3489C6}"/>
+    <hyperlink ref="M91" r:id="rId98" xr:uid="{F2203989-DCC2-4DA0-9189-E088C3B4C13E}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{6D7D823D-3107-4CBB-91B5-E93B727A272E}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{F0C978C7-F495-4AF4-AC9F-52982B4236FC}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{213CBDD7-806E-4218-B4C4-A24F8B97AC96}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{24C91B09-4CCB-4728-9AFE-62051301DF5B}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{DA163311-8CF3-409D-A46F-75908F3C1105}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{DA8CBCF5-49E7-4860-9C5A-EA01684C29A0}"/>
+    <hyperlink ref="M41" r:id="rId105" xr:uid="{C489338C-CEFE-40CC-9E87-CD72B5BE7907}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{3C719A5B-7332-4F77-96C8-B63249B37501}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{D338F34C-EC39-4EB6-BAB1-0E56AC0B0A2C}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{D389E820-4E3E-4E9A-AA7F-1BFEED143E0C}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{B5B5E095-B309-495E-9622-C427BCBAFF0D}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{31FE26ED-83BD-4FE6-8AB0-C8E03ED240B5}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{F9D5DC56-9675-47BB-BB11-01995C44E392}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{1BE4A1A3-570D-47E5-BD05-3701FDF3D7F7}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{E5350892-B4CB-446B-B625-EAA7B4C9884B}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{63B5B5ED-FC52-4AFF-9C70-DEE75A115C45}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{C01F3B09-948C-4BC8-9CD6-64B22CB8D016}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{D2EEC5C7-45B2-4C9E-92CB-A25A0A0D0D25}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{55C033A0-3185-4FE3-972E-E5134FDF7C1E}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{B94054E9-56D1-4BCA-B271-B32991825B17}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{AB135592-F95E-451D-8D44-C1A631710F70}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{DC9397A2-1819-4191-84CB-BBFB59B883EA}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{7793B1E4-EB57-47D2-AAB7-82A6E20E10A4}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{828B1193-C1C2-42DD-A39F-DAB0E75E0AED}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{3E40EA80-A096-415A-8AEA-5DBA8C50D8E8}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{E85C6F39-D4D5-4D20-9636-1DC5219C4CAC}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{3535C87E-07BD-4A4D-9287-3CA924854A43}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{E67BA577-DECE-48B8-8B84-D7769461BA6C}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{3B038A56-449B-45E2-B999-97A6762C5D82}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{FE97AC64-7A81-481F-AE79-A3BE2EF61E91}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{607F3C17-C877-4FFD-AC79-CA409FB8629E}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{C8427DC6-1414-411B-A353-34CFBED1DFDC}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{654160E7-88E2-4497-AE7A-D7D4CC9D8195}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{0257358B-BEB2-44DE-A96F-E3E6703A2B7E}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{9C46F86B-7D15-4F05-8623-F970E82B0AD0}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{B8DED187-B1A4-421B-84C8-8F9A14384553}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{E36C8C19-DCE8-4596-AEDC-391F36F3437F}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{17163719-4A81-437A-A82C-3349DF29703B}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{B5E0116A-86DE-4E67-96C3-50EC1C522F85}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{66097804-C320-4F92-B7CC-348A56619768}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{6C7C5EED-DCC1-4BFD-A55E-7DFFF0D70312}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{AF73C719-DF06-4571-82AE-CAA88CB4392D}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{FC60E4A8-E3F7-425E-93BA-C106ABA61162}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{D09F4597-B58E-448A-B1F7-B38670DE0138}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{9787CE5E-8611-44FA-8AD1-AD9AA92502B3}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{5C709A26-14F4-48BC-BD4C-029C41908248}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{1823E59D-FCC7-4DA0-A50F-994905EA2590}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{2C550E99-EB75-4878-AFD6-389E76A30E33}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{47157FC4-3AA6-4B9E-9396-093F37F859BE}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{D5823C05-C2BB-4A75-B38A-63D23C847436}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{5F21149A-4431-4AD2-BF72-5A35025FBD9A}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{928287F5-5EF8-4835-AD9E-732522F9E95C}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{60FB4219-EC4D-464B-A8C1-CAD70AE5EDB3}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{1FDBD3A4-324A-4949-8324-70B77C21A824}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{735A533F-6C31-4481-BBDE-0B4110932785}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{CBE65E81-9217-413D-94E1-33E09BB6A1D2}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{CCB6F8B7-4FB5-4C3A-83E7-1DFA731ED584}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{8F65CEE5-EA29-4F11-B90F-48D6A5508158}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{CDA3691D-3E43-4099-A811-435A74BF3A2E}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{FBBA786E-5A24-457E-AE2A-A07E014AFA52}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{4F6AE916-873C-448B-A468-BFEF2EBE6EF3}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{A4C24670-9014-4830-8570-95EE5F7B71F7}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{36B42DE6-F738-4861-B49B-574F98B15D1B}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{5E97308B-4B62-4D2C-BCB4-C13ED04F3811}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{C8D6D6AC-6464-41EC-8E88-DDFF11B79D6C}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{A7F180DA-60DF-4078-B072-5F0F5E441E12}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{10143FD5-FDA3-4589-BE6D-15BE16EF699B}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{A6C00961-3ED6-4651-9595-0F4F208682D6}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{BF48D990-B106-4B76-BE27-C085901F2068}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{051B9536-256E-409F-AD6C-2638BA51AAEE}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{77E1D049-4766-4156-91D7-9D18BCC35894}"/>
+    <hyperlink ref="M183" r:id="rId170" xr:uid="{36EEF409-8953-47FA-A9DC-20E1543A1414}"/>
+    <hyperlink ref="M68" r:id="rId171" xr:uid="{E9614AFD-5141-4ECE-AB8A-5AE6DF9E95B7}"/>
+    <hyperlink ref="M8" r:id="rId172" xr:uid="{1C15E194-E11A-4AC2-9153-8DF91EC2D5CC}"/>
+    <hyperlink ref="M266" r:id="rId173" xr:uid="{6459C90B-735A-498C-B492-13E1842AF2DE}"/>
+    <hyperlink ref="M268" r:id="rId174" xr:uid="{39D939EA-94CA-4B4D-B559-1CD7800A7D77}"/>
+    <hyperlink ref="M267" r:id="rId175" xr:uid="{1962649C-970D-4E82-9A61-1E5180FE1EB8}"/>
+    <hyperlink ref="M269" r:id="rId176" xr:uid="{A2552D6D-1BD8-4DC2-A51F-E20FE9C77463}"/>
+    <hyperlink ref="M272" r:id="rId177" xr:uid="{594ACE0D-AE8B-41D0-93BA-1FFF8E3C5385}"/>
+    <hyperlink ref="M274" r:id="rId178" xr:uid="{5F502534-74E8-4946-8323-2B174725B8C1}"/>
+    <hyperlink ref="M275" r:id="rId179" xr:uid="{C5523F54-EFCB-4D71-A022-1860C9A5A6EF}"/>
+    <hyperlink ref="M276" r:id="rId180" xr:uid="{906D79E7-689E-41E4-A159-2590B23A8C6C}"/>
+    <hyperlink ref="M277" r:id="rId181" xr:uid="{85AE26FF-B8CF-453B-9774-0A5ED831665A}"/>
+    <hyperlink ref="M280" r:id="rId182" xr:uid="{D9D0C3DF-D633-4C07-B38A-A70726EA0CAC}"/>
+    <hyperlink ref="M270" r:id="rId183" xr:uid="{1F1719CB-6AB6-46D0-BA25-8E6915BE603F}"/>
+    <hyperlink ref="M271" r:id="rId184" xr:uid="{64D13802-3E47-446E-8E6B-10D48F6323FC}"/>
+    <hyperlink ref="M60" r:id="rId185" xr:uid="{9DE3F864-4874-4803-969C-3D2FD14989EB}"/>
+    <hyperlink ref="M98" r:id="rId186" xr:uid="{BFAA3906-293A-40B7-BD1E-F343F0311FAB}"/>
+    <hyperlink ref="M125" r:id="rId187" xr:uid="{FE54B85A-D2EB-4103-BDD1-781851C2E5A6}"/>
+    <hyperlink ref="M70" r:id="rId188" xr:uid="{4C31642A-76D1-40FF-AC33-B5D67D7D1290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId189"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B137A9AF-5F21-4E89-AD6D-27DD53F74855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABE4E07-3841-4EBC-A437-5D033D8623F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-28920" yWindow="2745" windowWidth="29040" windowHeight="15840" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={740DD52C-05C4-420E-921D-5652DC4936BE}</author>
-    <author>tc={9D6CCE0E-7030-471E-8B24-FB7002402133}</author>
-    <author>tc={74C14CF1-2617-435F-BE0E-CB54C3E9C9DD}</author>
+    <author>tc={20323475-B1AC-4B54-A86F-8562B5B149B6}</author>
+    <author>tc={A8507FBF-01B9-4A67-8513-E1A99E062D7C}</author>
+    <author>tc={86722F96-7287-4574-A246-47AC7AD440FF}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{740DD52C-05C4-420E-921D-5652DC4936BE}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{20323475-B1AC-4B54-A86F-8562B5B149B6}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{9D6CCE0E-7030-471E-8B24-FB7002402133}">
+    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{A8507FBF-01B9-4A67-8513-E1A99E062D7C}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{74C14CF1-2617-435F-BE0E-CB54C3E9C9DD}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{86722F96-7287-4574-A246-47AC7AD440FF}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1253">
   <si>
     <t>Nr.</t>
   </si>
@@ -3550,9 +3550,6 @@
 . Doch wie ist es mit der Versorgung in der Winter Jahreszeit. PV Anlagen müssen vom Schnee befreit werden und die Rohrblätter WKA drohen einzufrieren. Mit dem VideKIS Projekt soll eine Möglichkeit geschaffen werden, anhand von KI und Automatisierung Strom in virtuellen Kraftwerken und kleinen EEA einzubinden zu aggregieren. </t>
   </si>
   <si>
-    <t>Alternative Energiequellen</t>
-  </si>
-  <si>
     <t>Backup Kraftwerke</t>
   </si>
   <si>
@@ -3567,10 +3564,6 @@
   </si>
   <si>
     <t>https://www.bundesregierung.de/breg-de/schwerpunkte/klimaschutz/erneuerbare-energien-317608</t>
-  </si>
-  <si>
-    <t>Bis 2030 sollen der Strom aus erneuerbaren Energien auf 80% steigen. Hierbei sollen
-Genehmigungsverfahren beschleunigt werden, höherer Vergütung und Förderungen bei energetischen Sanierungen an Gebäuden. Zusätzlich sollen industrielle, millitärische Flächen und landwirtschaftliche Flächen mit in die Planung von Anlagen einbezogen werden.</t>
   </si>
   <si>
     <t>Ausbau natural gas networks</t>
@@ -3868,15 +3861,6 @@
     <t xml:space="preserve"> LNG infrastructure development in Germany as a response to reduced Russian gas imports</t>
   </si>
   <si>
-    <t>Alternative Energiequelenn</t>
-  </si>
-  <si>
-    <t>Dunkelflaute</t>
-  </si>
-  <si>
-    <t>Prozentuale Steigerung</t>
-  </si>
-  <si>
     <t>Trägt zum Wandel der Ökonomie und Energiewirtschaft bei.</t>
   </si>
   <si>
@@ -3905,6 +3889,142 @@
   </si>
   <si>
     <t>Marco06</t>
+  </si>
+  <si>
+    <t>Es findet eine Verschiebung hin zu einem stärkeren Fokus auf ethische Werte und Work-Life-Balance statt.</t>
+  </si>
+  <si>
+    <t>Deutschland hat eine vollständige Transformation zu einer energieautarken Gesellschaft vollzogen, die auf erneuerbaren Energien basiert.</t>
+  </si>
+  <si>
+    <t>Regulierungsbestrebungen zielen darauf ab, große Technologieunternehmen zu zerschlagen, um mehr Wettbewerb und Autonomie zu fördern.</t>
+  </si>
+  <si>
+    <t>Wohnkosten steigen weiterhin, da hohe Nachfrage und Energieeffizienz-Upgrades die Mieten und Immobilienpreise in die Höhe treiben.</t>
+  </si>
+  <si>
+    <t>Verlangsamter Erdgasausstieg und vermehrte Nutzung von Biogas dient zur Bekämpfung des Klimawandels</t>
+  </si>
+  <si>
+    <t>Neue Batterietechnologien bieten flexible und effiziente Möglichkeiten, überschüssige Energie zu speichern und bedarfsorientiert zu nutzen.</t>
+  </si>
+  <si>
+    <t>Der Arbeitsmarkt muss sich an die veränderten gesellschaftlichen Erwartungen anpassen, die Flexibilität und Diversität fordern.</t>
+  </si>
+  <si>
+    <t>Preise steigen durch Erdgasausstieg</t>
+  </si>
+  <si>
+    <t>Kohle- und Kernkraftwerke werden vollständig stillgelegt, um Platz für erneuerbare und weniger riskante Energiequellen zu machen.</t>
+  </si>
+  <si>
+    <t>KI-Technologien optimieren betriebliche Abläufe und schaffen neue Geschäftsmodelle, verändern aber auch die Arbeitslandschaft.</t>
+  </si>
+  <si>
+    <t>KI wird zur treibenden Kraft in der Arbeitswelt; Unternehmen müssen sich anpassen und investieren in Weiterbildung ihrer Mitarbeiter.</t>
+  </si>
+  <si>
+    <t>Blockchain wird zunehmend eingesetzt, um Transaktionen zu sichern und die Unabhängigkeit von zentralisierten Datenstrukturen zu erhöhen.</t>
+  </si>
+  <si>
+    <t>Die Energieerzeugung stützt sich größtenteils auf Wind-, Solar- und Wasserkraft, gepaart mit innovativen Speichertechnologien zur Energiebewahrung.</t>
+  </si>
+  <si>
+    <t>Durch vollständigen Erdgasausstieg steigt die Nutzung ernerubarer Energien</t>
+  </si>
+  <si>
+    <t>Big Data und digitale Zwillinge revolutionieren Entscheidungsprozesse und ermöglichen präzisere Vorhersagen und effizienteres Ressourcenmanagement.</t>
+  </si>
+  <si>
+    <t>Die Energiewende wird durch die intensive Vernetzung von Strom, Wärme und Verkehrssektor vorangetrieben, was eine weitgehende Elektrifizierung zur Folge hat.</t>
+  </si>
+  <si>
+    <t>Elektrifizierung ist wichtig für Ausbau der erneuerbaren Energien und Erdgasausstieg</t>
+  </si>
+  <si>
+    <t>Die Angst vor Jobverlust durch Automatisierung steigt; Firmen müssen Strategien entwickeln, um Sicherheit und Umschulung zu gewährleisten.</t>
+  </si>
+  <si>
+    <t>Strengere Umweltgesetze fördern den Übergang zu erneuerbaren Energien und setzen ambitionierte Ziele für den Reduktionspfad von Treibhausgasemissionen.</t>
+  </si>
+  <si>
+    <t>Umweltpolitik ist maßgeblich wichtig für den vollständigen Erdgasausstieg bis 2028</t>
+  </si>
+  <si>
+    <t>Umweltpolitik ist maßgeblich wichtig für den verlangsamten Erdgasausstieg und vermehrte Nutzung von Biogas bis 2030</t>
+  </si>
+  <si>
+    <t>Ransomware-Angriffe nehmen zu, beeinträchtigen Unternehmen und erfordern robustere Sicherheitsinfrastrukturen und Notfallpläne.</t>
+  </si>
+  <si>
+    <t>Cyberangriffe werden durch KI raffinierter und zielgerichteter, was erhöhte Investitionen in Cybersicherheitsmaßnahmen erfordert.</t>
+  </si>
+  <si>
+    <t>Solaranlagen werden weit verbreitet, sowohl auf privaten Haushalten als auch auf öffentlichen Gebäuden, unterstützt durch staatliche Anreize und innovative Finanzierungsmodelle.</t>
+  </si>
+  <si>
+    <t>Windenergie ist ein guter Ersatz für Erdgas</t>
+  </si>
+  <si>
+    <t>Grüne Wasserstoffproduktion als Ersatz für Erdgas</t>
+  </si>
+  <si>
+    <t>Umfangreiche Investitionen in das Stromnetz ermöglichen es, die fluktuierende Stromerzeugung aus erneuerbaren Quellen effizient zu integrieren und zu verteilen.</t>
+  </si>
+  <si>
+    <t>Ausbau ist wichtig für erneuerbare Energien, statt Erdgas</t>
+  </si>
+  <si>
+    <t>Ist wichtig, damit die Länder für den Erdgasausstieg zusammen arbeiten</t>
+  </si>
+  <si>
+    <t>Das öffentliche Bewusstsein für Umweltfragen ist stark gewachsen und treibt die Nachfrage nach nachhaltigen Produkten und Energiequellen.</t>
+  </si>
+  <si>
+    <t>Energiebezogene Dienstleistungen wie Solarleasing und Batteriemiete werden üblich, um die Einstiegshürden für Verbraucher zu senken.</t>
+  </si>
+  <si>
+    <t>Bis 2045 wird Erdgas vollständig durch erneuerbare Energien ersetzt, wodurch Deutschland seine Klimaziele erreicht und die Energieunabhängigkeit sichert.</t>
+  </si>
+  <si>
+    <t>Vollständiger Erdgasausstieg bis 2028, dafür H2 statt Erdgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Heizsysteme in Gebäuden werden durch erneuerbare Technologien wie Wärmepumpen und Fernwärme ersetzt, die komplett ohne Erdgas auskommen.</t>
+  </si>
+  <si>
+    <t>Gebäudewärme trotz Erdgasausstieg</t>
+  </si>
+  <si>
+    <t>Schutz der Anlagen vor dem Winter</t>
+  </si>
+  <si>
+    <t>Energie in kalten Jahherszeiten</t>
+  </si>
+  <si>
+    <t>Gasbetriebene Anlagen in der Winterzeit</t>
+  </si>
+  <si>
+    <t>Alternative Energiequellen wegen Erdgasausstieg bis 2028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flächendeckender Ausbau </t>
+  </si>
+  <si>
+    <t>Bis 2030 sollen der Strom aus erneuerbaren Energien auf 80% steigen. Hierbei sollen
+Genehmigungsverfahren beschleunigt werden, höherer Vergütung und Förderungen bei energetischen Sanierungen an Gebäuden. Zusätzlich sollen industrielle, millitärische und landwirtschaftliche Flächen mit in die Planung von Anlagen einbezogen werden.</t>
+  </si>
+  <si>
+    <t>Ausbau erneuerbare Energien wegen Erdgasausstieg bis 2028</t>
+  </si>
+  <si>
+    <t>Fossiler Gasausstieg/Erdgasausstieg</t>
+  </si>
+  <si>
+    <t>Grünes Gas, gewonnen aus Wind, Sonne und Geothermie, wird als Alternative zu fossilem Gas genutzt, aber hohe Kosten limitieren die Verbreitung.</t>
+  </si>
+  <si>
+    <t>Risiken durch Erdgasausstieg</t>
   </si>
 </sst>
 </file>
@@ -3914,7 +4034,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4012,8 +4132,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4035,12 +4161,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4089,7 +4209,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4214,9 +4334,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4546,14 +4663,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{740DD52C-05C4-420E-921D-5652DC4936BE}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{20323475-B1AC-4B54-A86F-8562B5B149B6}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{9D6CCE0E-7030-471E-8B24-FB7002402133}">
+  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{A8507FBF-01B9-4A67-8513-E1A99E062D7C}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{74C14CF1-2617-435F-BE0E-CB54C3E9C9DD}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{86722F96-7287-4574-A246-47AC7AD440FF}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -4563,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
   <dimension ref="A1:BJ296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,22 +4748,22 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>1212</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>20</v>
@@ -4658,13 +4775,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>23</v>
@@ -4676,13 +4793,13 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>26</v>
@@ -4694,13 +4811,13 @@
         <v>28</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>29</v>
@@ -4712,13 +4829,13 @@
         <v>31</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>32</v>
@@ -4730,13 +4847,13 @@
         <v>34</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1148</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>35</v>
@@ -4748,13 +4865,13 @@
         <v>37</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="135" x14ac:dyDescent="0.25">
@@ -4845,7 +4962,7 @@
       <c r="AS2" s="10"/>
       <c r="AT2" s="10"/>
       <c r="AU2" s="10" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AV2" s="10"/>
       <c r="AW2" s="10"/>
@@ -5148,7 +5265,9 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
+      <c r="AK5" s="19" t="s">
+        <v>1208</v>
+      </c>
       <c r="AL5" s="19"/>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -5159,7 +5278,7 @@
       <c r="AS5" s="19"/>
       <c r="AT5" s="19"/>
       <c r="AU5" s="19" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AV5" s="19"/>
       <c r="AW5" s="19"/>
@@ -5987,7 +6106,9 @@
       </c>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
+      <c r="AJ13" s="19" t="s">
+        <v>1209</v>
+      </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
@@ -6396,7 +6517,7 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
@@ -6938,7 +7059,9 @@
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
+      <c r="AK22" s="10" t="s">
+        <v>1210</v>
+      </c>
       <c r="AL22" s="10"/>
       <c r="AM22" s="10"/>
       <c r="AN22" s="10"/>
@@ -7165,7 +7288,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
@@ -8406,7 +8529,7 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -8431,7 +8554,7 @@
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
       <c r="AU36" s="10" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
@@ -8747,7 +8870,7 @@
       <c r="AS39" s="19"/>
       <c r="AT39" s="19"/>
       <c r="AU39" s="19" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AV39" s="19"/>
       <c r="AW39" s="19"/>
@@ -10106,7 +10229,7 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
@@ -10335,7 +10458,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
       <c r="AU54" s="10" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
@@ -10441,7 +10564,7 @@
       <c r="AS55" s="19"/>
       <c r="AT55" s="19"/>
       <c r="AU55" s="19" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AV55" s="19"/>
       <c r="AW55" s="19"/>
@@ -10653,7 +10776,7 @@
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
       <c r="AU57" s="19" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AV57" s="19"/>
       <c r="AW57" s="19"/>
@@ -10851,7 +10974,9 @@
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
+      <c r="AJ59" s="19" t="s">
+        <v>1211</v>
+      </c>
       <c r="AK59" s="19"/>
       <c r="AL59" s="19"/>
       <c r="AM59" s="19"/>
@@ -10977,7 +11102,7 @@
       <c r="BA60" s="10"/>
       <c r="BB60" s="10"/>
       <c r="BC60" s="45" t="s">
-        <v>1163</v>
+        <v>1212</v>
       </c>
       <c r="BD60" s="10"/>
       <c r="BE60" s="10" t="s">
@@ -10987,7 +11112,7 @@
       <c r="BG60" s="10"/>
       <c r="BH60" s="10"/>
       <c r="BI60" s="10" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="BJ60" s="10"/>
     </row>
@@ -11166,14 +11291,16 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
       <c r="AG62" s="10"/>
       <c r="AH62" s="10"/>
       <c r="AI62" s="10"/>
-      <c r="AJ62" s="10"/>
+      <c r="AJ62" s="10" t="s">
+        <v>1213</v>
+      </c>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
       <c r="AM62" s="10"/>
@@ -11494,7 +11621,9 @@
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
-      <c r="AK65" s="19"/>
+      <c r="AK65" s="19" t="s">
+        <v>1214</v>
+      </c>
       <c r="AL65" s="19"/>
       <c r="AM65" s="19"/>
       <c r="AN65" s="19"/>
@@ -12122,7 +12251,7 @@
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
@@ -12149,7 +12278,7 @@
       <c r="BA71" s="19"/>
       <c r="BB71" s="19"/>
       <c r="BC71" s="45" t="s">
-        <v>1163</v>
+        <v>1215</v>
       </c>
       <c r="BD71" s="19"/>
       <c r="BE71" s="19"/>
@@ -12677,7 +12806,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
       <c r="AU76" s="10" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
@@ -12785,7 +12914,7 @@
       <c r="AS77" s="19"/>
       <c r="AT77" s="19"/>
       <c r="AU77" s="19" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AV77" s="19"/>
       <c r="AW77" s="19"/>
@@ -12876,7 +13005,7 @@
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AE78" s="10"/>
       <c r="AF78" s="10"/>
@@ -13820,7 +13949,7 @@
       <c r="AB87" s="19"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AE87" s="19"/>
       <c r="AF87" s="19"/>
@@ -14378,7 +14507,7 @@
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
       <c r="BH92" s="10" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="BI92" s="10"/>
       <c r="BJ92" s="10"/>
@@ -14587,7 +14716,7 @@
       <c r="BE94" s="10"/>
       <c r="BF94" s="10"/>
       <c r="BG94" s="10" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="BH94" s="10"/>
       <c r="BI94" s="10"/>
@@ -14773,7 +14902,9 @@
       <c r="AG96" s="10"/>
       <c r="AH96" s="10"/>
       <c r="AI96" s="10"/>
-      <c r="AJ96" s="10"/>
+      <c r="AJ96" s="10" t="s">
+        <v>1216</v>
+      </c>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
       <c r="AM96" s="10"/>
@@ -15019,7 +15150,7 @@
         <v>406</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -15113,7 +15244,7 @@
       <c r="BG99" s="19"/>
       <c r="BH99" s="19"/>
       <c r="BI99" s="19" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="BJ99" s="19"/>
     </row>
@@ -16656,7 +16787,9 @@
       <c r="AH114" s="10"/>
       <c r="AI114" s="10"/>
       <c r="AJ114" s="10"/>
-      <c r="AK114" s="10"/>
+      <c r="AK114" s="10" t="s">
+        <v>1217</v>
+      </c>
       <c r="AL114" s="10"/>
       <c r="AM114" s="10" t="s">
         <v>1034</v>
@@ -16887,7 +17020,7 @@
       <c r="BG116" s="10"/>
       <c r="BH116" s="10"/>
       <c r="BI116" s="19" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="BJ116" s="10"/>
     </row>
@@ -17909,7 +18042,7 @@
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
       <c r="AU126" s="10" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
@@ -18306,7 +18439,7 @@
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
       <c r="X130" s="10" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
@@ -19568,7 +19701,9 @@
       </c>
       <c r="AI142" s="10"/>
       <c r="AJ142" s="10"/>
-      <c r="AK142" s="10"/>
+      <c r="AK142" s="10" t="s">
+        <v>1218</v>
+      </c>
       <c r="AL142" s="10"/>
       <c r="AM142" s="10" t="s">
         <v>553</v>
@@ -19784,7 +19919,9 @@
       <c r="AH144" s="10"/>
       <c r="AI144" s="10"/>
       <c r="AJ144" s="10"/>
-      <c r="AK144" s="10"/>
+      <c r="AK144" s="10" t="s">
+        <v>1219</v>
+      </c>
       <c r="AL144" s="10"/>
       <c r="AM144" s="10"/>
       <c r="AN144" s="10"/>
@@ -20128,7 +20265,7 @@
       <c r="BH147" s="19"/>
       <c r="BI147" s="19"/>
       <c r="BJ147" s="19" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="148" spans="1:62" ht="210" x14ac:dyDescent="0.25">
@@ -20510,7 +20647,7 @@
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
       <c r="X151" s="19" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="Y151" s="19"/>
       <c r="Z151" s="19"/>
@@ -21687,7 +21824,9 @@
       <c r="AG162" s="10"/>
       <c r="AH162" s="10"/>
       <c r="AI162" s="10"/>
-      <c r="AJ162" s="10"/>
+      <c r="AJ162" s="10" t="s">
+        <v>1220</v>
+      </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="10"/>
       <c r="AM162" s="10"/>
@@ -21712,7 +21851,7 @@
         <v>1023</v>
       </c>
       <c r="BB162" s="46" t="s">
-        <v>1179</v>
+        <v>1221</v>
       </c>
       <c r="BC162" s="10"/>
       <c r="BD162" s="10"/>
@@ -21722,7 +21861,7 @@
       <c r="BF162" s="10"/>
       <c r="BG162" s="10"/>
       <c r="BH162" s="10" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="BI162" s="10"/>
       <c r="BJ162" s="10"/>
@@ -21794,7 +21933,7 @@
       <c r="V163" s="19"/>
       <c r="W163" s="19"/>
       <c r="X163" s="19" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
@@ -21808,7 +21947,9 @@
       <c r="AH163" s="19"/>
       <c r="AI163" s="19"/>
       <c r="AJ163" s="19"/>
-      <c r="AK163" s="19"/>
+      <c r="AK163" s="19" t="s">
+        <v>1222</v>
+      </c>
       <c r="AL163" s="19"/>
       <c r="AM163" s="19"/>
       <c r="AN163" s="19"/>
@@ -22647,7 +22788,9 @@
       <c r="AG171" s="19"/>
       <c r="AH171" s="19"/>
       <c r="AI171" s="19"/>
-      <c r="AJ171" s="19"/>
+      <c r="AJ171" s="19" t="s">
+        <v>1223</v>
+      </c>
       <c r="AK171" s="19"/>
       <c r="AL171" s="19"/>
       <c r="AM171" s="19"/>
@@ -22666,7 +22809,7 @@
       <c r="AZ171" s="19"/>
       <c r="BA171" s="19"/>
       <c r="BB171" s="46" t="s">
-        <v>1179</v>
+        <v>1224</v>
       </c>
       <c r="BC171" s="19"/>
       <c r="BD171" s="19"/>
@@ -22676,7 +22819,7 @@
       <c r="BF171" s="19"/>
       <c r="BG171" s="19"/>
       <c r="BH171" s="19" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="BI171" s="19"/>
       <c r="BJ171" s="19"/>
@@ -23070,7 +23213,7 @@
       <c r="AB175" s="19"/>
       <c r="AC175" s="19"/>
       <c r="AD175" s="19" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AE175" s="19"/>
       <c r="AF175" s="19"/>
@@ -23176,7 +23319,7 @@
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AE176" s="10"/>
       <c r="AF176" s="10"/>
@@ -24563,7 +24706,7 @@
       <c r="AS189" s="19"/>
       <c r="AT189" s="19"/>
       <c r="AU189" s="19" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AV189" s="19"/>
       <c r="AW189" s="19"/>
@@ -25380,7 +25523,7 @@
         <v>1054</v>
       </c>
       <c r="AD197" s="19" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AE197" s="19"/>
       <c r="AF197" s="19"/>
@@ -25586,7 +25729,7 @@
       <c r="V199" s="19"/>
       <c r="W199" s="19"/>
       <c r="X199" s="19" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="Y199" s="19"/>
       <c r="Z199" s="19"/>
@@ -26018,7 +26161,9 @@
       <c r="AH203" s="19"/>
       <c r="AI203" s="19"/>
       <c r="AJ203" s="19"/>
-      <c r="AK203" s="19"/>
+      <c r="AK203" s="19" t="s">
+        <v>1225</v>
+      </c>
       <c r="AL203" s="19"/>
       <c r="AM203" s="19"/>
       <c r="AN203" s="19"/>
@@ -27811,7 +27956,9 @@
       <c r="AG220" s="10"/>
       <c r="AH220" s="10"/>
       <c r="AI220" s="10"/>
-      <c r="AJ220" s="10"/>
+      <c r="AJ220" s="10" t="s">
+        <v>1226</v>
+      </c>
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
       <c r="AM220" s="10"/>
@@ -27830,10 +27977,10 @@
       <c r="AZ220" s="10"/>
       <c r="BA220" s="10"/>
       <c r="BB220" s="45" t="s">
-        <v>1179</v>
+        <v>1227</v>
       </c>
       <c r="BC220" s="45" t="s">
-        <v>1163</v>
+        <v>1228</v>
       </c>
       <c r="BD220" s="10"/>
       <c r="BE220" s="10"/>
@@ -27920,7 +28067,9 @@
       <c r="AH221" s="19"/>
       <c r="AI221" s="19"/>
       <c r="AJ221" s="19"/>
-      <c r="AK221" s="19"/>
+      <c r="AK221" s="19" t="s">
+        <v>1229</v>
+      </c>
       <c r="AL221" s="19"/>
       <c r="AM221" s="19"/>
       <c r="AN221" s="19"/>
@@ -28116,7 +28265,7 @@
       <c r="V223" s="19"/>
       <c r="W223" s="19"/>
       <c r="X223" s="19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="Y223" s="19"/>
       <c r="Z223" s="19"/>
@@ -28130,7 +28279,9 @@
       <c r="AH223" s="19"/>
       <c r="AI223" s="19"/>
       <c r="AJ223" s="19"/>
-      <c r="AK223" s="19"/>
+      <c r="AK223" s="19" t="s">
+        <v>1230</v>
+      </c>
       <c r="AL223" s="19"/>
       <c r="AM223" s="19"/>
       <c r="AN223" s="19"/>
@@ -28442,7 +28593,7 @@
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AE226" s="10"/>
       <c r="AF226" s="10"/>
@@ -28451,7 +28602,9 @@
       </c>
       <c r="AH226" s="10"/>
       <c r="AI226" s="10"/>
-      <c r="AJ226" s="10"/>
+      <c r="AJ226" s="10" t="s">
+        <v>1231</v>
+      </c>
       <c r="AK226" s="10"/>
       <c r="AL226" s="10"/>
       <c r="AM226" s="10"/>
@@ -28574,7 +28727,7 @@
       <c r="AZ227" s="19"/>
       <c r="BA227" s="19"/>
       <c r="BB227" s="46" t="s">
-        <v>1179</v>
+        <v>1232</v>
       </c>
       <c r="BC227" s="19"/>
       <c r="BD227" s="19"/>
@@ -28656,7 +28809,7 @@
       <c r="AB228" s="10"/>
       <c r="AC228" s="10"/>
       <c r="AD228" s="10" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AE228" s="10"/>
       <c r="AF228" s="10"/>
@@ -28682,7 +28835,7 @@
       <c r="AZ228" s="10"/>
       <c r="BA228" s="10"/>
       <c r="BB228" s="46" t="s">
-        <v>1179</v>
+        <v>1233</v>
       </c>
       <c r="BC228" s="10"/>
       <c r="BD228" s="10"/>
@@ -28769,7 +28922,9 @@
       <c r="AG229" s="19"/>
       <c r="AH229" s="19"/>
       <c r="AI229" s="19"/>
-      <c r="AJ229" s="19"/>
+      <c r="AJ229" s="19" t="s">
+        <v>1234</v>
+      </c>
       <c r="AK229" s="19"/>
       <c r="AL229" s="19"/>
       <c r="AM229" s="19"/>
@@ -28788,7 +28943,7 @@
       <c r="AZ229" s="19"/>
       <c r="BA229" s="19"/>
       <c r="BB229" s="46" t="s">
-        <v>1179</v>
+        <v>1235</v>
       </c>
       <c r="BC229" s="19"/>
       <c r="BD229" s="19"/>
@@ -29521,7 +29676,7 @@
       <c r="AS236" s="10"/>
       <c r="AT236" s="10"/>
       <c r="AU236" s="10" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
@@ -29818,7 +29973,7 @@
       <c r="AB239" s="19"/>
       <c r="AC239" s="19"/>
       <c r="AD239" s="19" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AE239" s="19"/>
       <c r="AF239" s="19"/>
@@ -29844,7 +29999,7 @@
       <c r="AZ239" s="19"/>
       <c r="BA239" s="19"/>
       <c r="BB239" s="45" t="s">
-        <v>1179</v>
+        <v>1236</v>
       </c>
       <c r="BC239" s="19"/>
       <c r="BD239" s="19"/>
@@ -29926,7 +30081,7 @@
       <c r="AB240" s="10"/>
       <c r="AC240" s="10"/>
       <c r="AD240" s="10" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AE240" s="10"/>
       <c r="AF240" s="10"/>
@@ -30685,7 +30840,7 @@
       <c r="AS247" s="19"/>
       <c r="AT247" s="19"/>
       <c r="AU247" s="19" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="AV247" s="19"/>
       <c r="AW247" s="19"/>
@@ -31014,7 +31169,7 @@
       <c r="BH250" s="10"/>
       <c r="BI250" s="10"/>
       <c r="BJ250" s="10" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="251" spans="1:62" ht="345" x14ac:dyDescent="0.25">
@@ -31407,7 +31562,9 @@
       <c r="AG254" s="10"/>
       <c r="AH254" s="10"/>
       <c r="AI254" s="10"/>
-      <c r="AJ254" s="10"/>
+      <c r="AJ254" s="10" t="s">
+        <v>1237</v>
+      </c>
       <c r="AK254" s="10"/>
       <c r="AL254" s="10"/>
       <c r="AM254" s="10"/>
@@ -31438,7 +31595,7 @@
       <c r="BH254" s="10"/>
       <c r="BI254" s="10"/>
       <c r="BJ254" s="10" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="255" spans="1:62" ht="360" x14ac:dyDescent="0.25">
@@ -31830,7 +31987,7 @@
       <c r="AB258" s="10"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="10" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AE258" s="10"/>
       <c r="AF258" s="10"/>
@@ -31864,7 +32021,7 @@
       <c r="BH258" s="10"/>
       <c r="BI258" s="10"/>
       <c r="BJ258" s="10" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="259" spans="1:62" ht="240" x14ac:dyDescent="0.25">
@@ -32525,7 +32682,9 @@
       <c r="AG265" s="19"/>
       <c r="AH265" s="19"/>
       <c r="AI265" s="19"/>
-      <c r="AJ265" s="19"/>
+      <c r="AJ265" s="19" t="s">
+        <v>1238</v>
+      </c>
       <c r="AK265" s="19"/>
       <c r="AL265" s="19"/>
       <c r="AM265" s="19"/>
@@ -32624,14 +32783,16 @@
       <c r="AB266" s="10"/>
       <c r="AC266" s="10"/>
       <c r="AD266" s="10" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AE266" s="10"/>
       <c r="AF266" s="10"/>
       <c r="AG266" s="10"/>
       <c r="AH266" s="10"/>
       <c r="AI266" s="10"/>
-      <c r="AJ266" s="10"/>
+      <c r="AJ266" s="10" t="s">
+        <v>1239</v>
+      </c>
       <c r="AK266" s="10"/>
       <c r="AL266" s="10"/>
       <c r="AM266" s="10"/>
@@ -32649,11 +32810,11 @@
       <c r="AY266" s="10"/>
       <c r="AZ266" s="10"/>
       <c r="BA266" s="10"/>
-      <c r="BB266" s="47" t="s">
-        <v>1179</v>
-      </c>
-      <c r="BC266" s="47" t="s">
-        <v>1163</v>
+      <c r="BB266" s="46" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BC266" s="46" t="s">
+        <v>1161</v>
       </c>
       <c r="BD266" s="10"/>
       <c r="BE266" s="10"/>
@@ -32733,8 +32894,8 @@
       <c r="AA267" s="19"/>
       <c r="AB267" s="19"/>
       <c r="AC267" s="19"/>
-      <c r="AD267" s="48" t="s">
-        <v>1196</v>
+      <c r="AD267" s="47" t="s">
+        <v>1194</v>
       </c>
       <c r="AE267" s="19"/>
       <c r="AF267" s="19"/>
@@ -32759,11 +32920,11 @@
       <c r="AY267" s="19"/>
       <c r="AZ267" s="19"/>
       <c r="BA267" s="19"/>
-      <c r="BB267" s="47" t="s">
-        <v>1179</v>
-      </c>
-      <c r="BC267" s="47" t="s">
-        <v>1163</v>
+      <c r="BB267" s="46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="BC267" s="46" t="s">
+        <v>1240</v>
       </c>
       <c r="BD267" s="19"/>
       <c r="BE267" s="19"/>
@@ -32848,7 +33009,9 @@
       <c r="AG268" s="10"/>
       <c r="AH268" s="10"/>
       <c r="AI268" s="10"/>
-      <c r="AJ268" s="10"/>
+      <c r="AJ268" s="10" t="s">
+        <v>1241</v>
+      </c>
       <c r="AK268" s="10"/>
       <c r="AL268" s="10"/>
       <c r="AM268" s="10"/>
@@ -32866,17 +33029,17 @@
       <c r="AY268" s="10"/>
       <c r="AZ268" s="10"/>
       <c r="BA268" s="10"/>
-      <c r="BB268" s="47" t="s">
-        <v>1179</v>
-      </c>
-      <c r="BC268" s="47" t="s">
-        <v>1163</v>
+      <c r="BB268" s="46" t="s">
+        <v>1242</v>
+      </c>
+      <c r="BC268" s="46" t="s">
+        <v>1242</v>
       </c>
       <c r="BD268" s="10"/>
       <c r="BE268" s="10"/>
       <c r="BF268" s="10"/>
       <c r="BG268" s="10" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="BH268" s="10"/>
       <c r="BI268" s="10"/>
@@ -32953,7 +33116,7 @@
       <c r="AB269" s="19"/>
       <c r="AC269" s="19"/>
       <c r="AD269" s="10" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AE269" s="19"/>
       <c r="AF269" s="19"/>
@@ -32984,7 +33147,7 @@
       <c r="BE269" s="19"/>
       <c r="BF269" s="19"/>
       <c r="BG269" s="19" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="BH269" s="19"/>
       <c r="BI269" s="19"/>
@@ -32995,10 +33158,10 @@
         <v>321</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1200</v>
+        <v>1243</v>
       </c>
       <c r="C270" s="37" t="s">
-        <v>1201</v>
+        <v>1244</v>
       </c>
       <c r="D270" s="6">
         <v>1</v>
@@ -33097,10 +33260,10 @@
         <v>322</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>1097</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>1098</v>
       </c>
       <c r="D271" s="15">
         <v>1</v>
@@ -33128,10 +33291,10 @@
         <v>9</v>
       </c>
       <c r="M271" s="43" t="s">
+        <v>1098</v>
+      </c>
+      <c r="N271" s="39" t="s">
         <v>1099</v>
-      </c>
-      <c r="N271" s="39" t="s">
-        <v>1100</v>
       </c>
       <c r="O271" s="19" t="s">
         <v>261</v>
@@ -33184,8 +33347,8 @@
       <c r="AY271" s="19"/>
       <c r="AZ271" s="19"/>
       <c r="BA271" s="19"/>
-      <c r="BB271" s="47" t="s">
-        <v>1179</v>
+      <c r="BB271" s="46" t="s">
+        <v>1246</v>
       </c>
       <c r="BC271" s="19"/>
       <c r="BD271" s="19"/>
@@ -33201,10 +33364,10 @@
         <v>323</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C272" s="37" t="s">
-        <v>1202</v>
+        <v>1247</v>
       </c>
       <c r="D272" s="6">
         <v>1</v>
@@ -33232,10 +33395,10 @@
         <v>9</v>
       </c>
       <c r="M272" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="N272" s="40" t="s">
-        <v>1103</v>
+        <v>1248</v>
       </c>
       <c r="O272" s="10" t="s">
         <v>261</v>
@@ -33288,8 +33451,8 @@
       <c r="AY272" s="10"/>
       <c r="AZ272" s="10"/>
       <c r="BA272" s="10"/>
-      <c r="BB272" s="47" t="s">
-        <v>1179</v>
+      <c r="BB272" s="46" t="s">
+        <v>1249</v>
       </c>
       <c r="BC272" s="10"/>
       <c r="BD272" s="10"/>
@@ -33305,10 +33468,10 @@
         <v>324</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -33328,10 +33491,10 @@
         <v>9</v>
       </c>
       <c r="M273" s="17" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="N273" s="39" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="O273" s="19" t="s">
         <v>120</v>
@@ -33377,7 +33540,7 @@
       <c r="AR273" s="19"/>
       <c r="AS273" s="19"/>
       <c r="AT273" s="19" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="AU273" s="19"/>
       <c r="AV273" s="19"/>
@@ -33401,10 +33564,10 @@
         <v>325</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D274" s="6">
         <v>1</v>
@@ -33434,10 +33597,10 @@
         <v>10</v>
       </c>
       <c r="M274" s="42" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="N274" s="40" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="O274" s="10" t="s">
         <v>233</v>
@@ -33505,10 +33668,10 @@
         <v>326</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -33538,10 +33701,10 @@
         <v>10</v>
       </c>
       <c r="M275" s="43" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="N275" s="39" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="O275" s="19" t="s">
         <v>233</v>
@@ -33595,10 +33758,10 @@
       <c r="AZ275" s="19"/>
       <c r="BA275" s="19"/>
       <c r="BB275" s="45" t="s">
-        <v>1163</v>
+        <v>1250</v>
       </c>
       <c r="BC275" s="45" t="s">
-        <v>1163</v>
+        <v>1250</v>
       </c>
       <c r="BD275" s="19"/>
       <c r="BE275" s="19"/>
@@ -33613,10 +33776,10 @@
         <v>327</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C276" s="41" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D276" s="6">
         <v>1</v>
@@ -33646,10 +33809,10 @@
         <v>10</v>
       </c>
       <c r="M276" s="44" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="N276" s="40" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="O276" s="10" t="s">
         <v>233</v>
@@ -33708,7 +33871,7 @@
       <c r="BE276" s="10"/>
       <c r="BF276" s="10"/>
       <c r="BG276" s="10" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="BH276" s="10"/>
       <c r="BI276" s="10"/>
@@ -33719,10 +33882,10 @@
         <v>328</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D277" s="15">
         <v>1</v>
@@ -33752,10 +33915,10 @@
         <v>10</v>
       </c>
       <c r="M277" s="43" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="N277" s="39" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="O277" s="19" t="s">
         <v>233</v>
@@ -33823,10 +33986,10 @@
         <v>329</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C278" s="41" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D278" s="6">
         <v>1</v>
@@ -33846,10 +34009,10 @@
         <v>50</v>
       </c>
       <c r="M278" s="8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="N278" s="40" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="O278" s="10" t="s">
         <v>42</v>
@@ -33884,7 +34047,9 @@
       <c r="AG278" s="10"/>
       <c r="AH278" s="10"/>
       <c r="AI278" s="10"/>
-      <c r="AJ278" s="10"/>
+      <c r="AJ278" s="10" t="s">
+        <v>1251</v>
+      </c>
       <c r="AK278" s="10"/>
       <c r="AL278" s="10"/>
       <c r="AM278" s="10"/>
@@ -33917,10 +34082,10 @@
         <v>330</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -33940,10 +34105,10 @@
         <v>46</v>
       </c>
       <c r="M279" s="17" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="N279" s="39" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O279" s="19" t="s">
         <v>42</v>
@@ -33973,7 +34138,7 @@
       <c r="AB279" s="19"/>
       <c r="AC279" s="19"/>
       <c r="AD279" s="19" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="AE279" s="19"/>
       <c r="AF279" s="19"/>
@@ -34013,10 +34178,10 @@
         <v>331</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D280" s="6">
         <v>1</v>
@@ -34046,10 +34211,10 @@
         <v>10</v>
       </c>
       <c r="M280" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="N280" s="33" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="O280" s="10" t="s">
         <v>325</v>
@@ -34104,7 +34269,7 @@
       <c r="BA280" s="10"/>
       <c r="BB280" s="10"/>
       <c r="BC280" s="45" t="s">
-        <v>1163</v>
+        <v>1252</v>
       </c>
       <c r="BD280" s="10"/>
       <c r="BE280" s="10"/>
@@ -35156,7 +35321,7 @@
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{E71830F3-1185-44FE-B3BE-901605F23C9D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L49:L296 L2:L47" xr:uid="{E71830F3-1185-44FE-B3BE-901605F23C9D}">
       <formula1>$BV$19:$BV$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{0736C751-DFB0-4D7F-A7E3-16936F4FD15C}">
@@ -35165,199 +35330,199 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{F4E8242B-D48B-45C9-B039-CD052C4B739D}">
       <formula1>$BS$7:$BS$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{9673A060-2F6F-4839-9E48-AAE910ABA5D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q27:Q296 Q1:Q25" xr:uid="{9673A060-2F6F-4839-9E48-AAE910ABA5D2}">
       <formula1>$BT$7:$BT$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{12E4C5C9-48CB-41F1-ADD9-C6DF41FB3676}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{C4574794-A1CD-4A3D-8BE8-CC00BE50F800}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{5293E208-626B-4DBA-9CB7-54F9A7E9D0B6}"/>
-    <hyperlink ref="M25" r:id="rId4" xr:uid="{B66AF5DE-FE77-4A37-8574-9475C65C7469}"/>
-    <hyperlink ref="M26" r:id="rId5" xr:uid="{E7AC2059-E6BE-4A6A-B33D-29644FC6429B}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{E4892B39-4DE1-4F68-9D6F-2898B47E49FD}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{D8D9CA02-CA55-47C9-A63F-3CB51D47FC55}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{F0F0EC12-F9DE-4659-9C9F-927CDB66E907}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{5E169A5B-4739-4A47-8916-51B5BC0C6C00}"/>
-    <hyperlink ref="M31" r:id="rId10" xr:uid="{1FBEC2B3-C515-4626-BC56-2166BCC3EA09}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{6F555751-B8DE-4EF4-AF0D-AED09EDB1655}"/>
-    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{9823BF21-3991-44EF-ABE9-4B9EB4DA0357}"/>
-    <hyperlink ref="M34" r:id="rId13" xr:uid="{0C515C7F-903D-4C2A-BE40-1CB65F8AD27F}"/>
-    <hyperlink ref="M35" r:id="rId14" xr:uid="{5256FDD6-A724-45D1-B68B-6EF67449F692}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{C68B960E-C9FF-4F3C-9319-94A2CC31759E}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{04233C1F-7E5D-464C-BC26-A8AFFB26CF92}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{F3710321-B414-4321-B15F-7F16D33F8AB8}"/>
-    <hyperlink ref="M43" r:id="rId18" xr:uid="{6345998E-C7E2-4A83-A1D7-007F491EF720}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{9A527A43-7BA6-4AAE-B412-3DECD892D8E8}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{10CEC2CD-6C78-4C56-AC29-6796E847BE4E}"/>
-    <hyperlink ref="M55" r:id="rId21" xr:uid="{F14DF585-CF5E-4162-8C4A-4E1679ACADBA}"/>
-    <hyperlink ref="M56" r:id="rId22" xr:uid="{98B3D531-40CD-400C-A566-45FE384D2370}"/>
-    <hyperlink ref="M57" r:id="rId23" xr:uid="{C9B8F924-8A14-41DD-BB46-1D8981D04CB7}"/>
-    <hyperlink ref="M58" r:id="rId24" xr:uid="{F2AA766C-36AF-4B36-8160-32838956B5AA}"/>
-    <hyperlink ref="M59" r:id="rId25" xr:uid="{601707D3-D578-4312-86AA-C914DBF4E5F8}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{56DAB985-4CA4-4768-BE63-41B93A12B5EC}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{26FF5D09-E13C-4C3C-9144-BD7078BC5C3E}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{BA4515EA-2680-4384-B612-040F5D43D64F}"/>
-    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{942BE32F-1BEE-4E2D-874C-E6455F9BF16F}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{3C783995-2313-4545-A164-374103E31873}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{CB85843A-C9D2-4104-A095-97752E2EDCD4}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{69076CFA-2209-4F61-8A29-B349E3687909}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{18B34C87-CD28-4F3C-95A1-F639EEF02253}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{E11AF5B3-950A-4FBB-A3A8-9E4B510CD7DE}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{BED5C38E-ACDD-4F8D-B1F4-CFC2AD060E09}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{65A0EE57-14EE-4889-BE8E-F7C6AED29D3C}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{DD40DDE4-7654-485F-9D75-765F64AD3899}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{05D8787B-352B-46B1-B66E-C0095ECF18AB}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{4046DC9F-9E8C-4587-A6C1-32017440E131}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{EB67E8F1-45F9-4C6A-8B29-96EF93BDB02D}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{913F9C39-77C6-497C-98A8-5236D387B0C9}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{4F54E3DB-D498-4460-8882-8E22D1BC6F31}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{D3848A24-02C9-451E-BE9E-F252A21F37DB}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{B134166C-3F06-41AF-9269-71ACFDE17F02}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{71FB02C2-2DD7-464E-BA8D-D9496E0F77F7}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{63CD8B61-2F2E-4ECA-8819-058A734980DF}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{2620CF2A-6D9C-4D86-A68B-B05D30359BB1}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{17EAD8E8-F6ED-4977-B5CF-52991DBB4109}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{C12C4BFF-0D6A-4EA0-87A4-8276F7C83519}"/>
-    <hyperlink ref="M53" r:id="rId50" xr:uid="{AC7406B3-A189-434F-8AB0-02ED3F2489DC}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{FF48374B-1607-4C0C-B06C-034D7ED571FA}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{05470D44-CA32-4605-8600-75B67E508E42}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{F1085056-1C46-4141-A5B9-0FF66A15500F}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{811035C5-B404-4882-ACD5-EE6F4AB73DC9}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{E4F4FF70-57E7-4D7A-A6DB-37CA06129EFC}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{F0971A45-BF31-475A-92A6-DB5ABBB69D25}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{DBEE3677-61DF-477E-9948-32AA7E8D7585}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{3604AE86-7266-46AE-9632-9893D1B96305}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{FC338648-5A50-4296-9B9B-63B223870FFD}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{1ABD5DB7-EA4B-42B7-9F8A-F043A5729461}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{155CBA3D-E8C7-488B-AB0A-A9A185BD2E08}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{FB251114-DE76-4087-9448-D5EBDBA2648E}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{4E61C050-4E35-4E2B-856D-DD7E846CC190}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{8DE6D5E5-277B-4931-A555-4370324758A1}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{C6F82223-06F0-41C1-B68D-0F75665A6EB2}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{5B3C6FCA-41A0-4AAA-A8A0-5DF0F5B99295}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{79D083C7-A63E-4770-B133-5BF24DE4443C}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{9E26B30B-AE9D-4DF4-9EC0-C1FAC99E3CA0}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{AB5359EF-6D7C-4B3B-A8F4-ED285AE6ECF9}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{E93902B1-00B5-4EA3-9465-02A71C6D06ED}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{FA3E5C7D-83AC-4DF2-9011-1FBB2A3C58CA}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{08C27214-8453-4A8F-9A5C-687F75156BBD}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{C3DEAC6A-D1C2-48FC-911F-73ABD9180176}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{5BCFE5BC-26FA-427A-9054-E00B23449DDD}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{FB9E0F61-8058-4554-8946-B95C273A433D}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{825D761B-7D8D-40EA-87A1-095A7B59BC0A}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{B957D013-153E-446B-BC04-48A17AEAA3E6}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{146D5157-5EAD-4BF2-B065-F97CDEE561C9}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{9EF1F852-C3E5-4BBF-B7F5-6AC27305BCDB}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{12496FAB-68EC-479A-BF23-C897C045F68B}"/>
-    <hyperlink ref="M93" r:id="rId81" xr:uid="{53F08ABA-2BE8-4054-852B-F47B146C6228}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{12B23F01-E5F6-447B-B0C0-AD5AE21AD0D8}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{CA956DB5-45EC-4404-B62E-7929D0B4FB08}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{10F91FDB-E0CE-44C5-AC5D-35D864509AE2}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{B1BFD651-C562-438E-9414-F463C2677705}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{3D01899A-3CB0-4EDF-8D8C-CC6F66EF157D}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{C79283CE-3B54-42E7-8160-868D55F8AFFB}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{1727EC5B-AA4B-4F9B-BE6E-649B50F64698}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{CD5E601C-1BB5-4C6A-9C84-5AE5DE821498}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{42D82821-4BE6-4D70-B094-0F2508313C6E}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{314579A8-97E3-4B31-B709-A66BF7C7953A}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{3E41991C-545C-4646-9978-787A0C4D897E}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{4A7DF945-D3A2-49D1-92C3-856051965611}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{4D8E67AF-E405-4D49-99F6-C26A614E9ADF}"/>
-    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{6C2C3290-C974-4424-9F95-9D250C56313A}"/>
-    <hyperlink ref="M38" r:id="rId96" xr:uid="{4E72276E-4F54-4BB3-B2D0-45C4AF7B1296}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{E165C19E-DE60-41F0-80D1-2FF82F3489C6}"/>
-    <hyperlink ref="M91" r:id="rId98" xr:uid="{F2203989-DCC2-4DA0-9189-E088C3B4C13E}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{6D7D823D-3107-4CBB-91B5-E93B727A272E}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{F0C978C7-F495-4AF4-AC9F-52982B4236FC}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{213CBDD7-806E-4218-B4C4-A24F8B97AC96}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{24C91B09-4CCB-4728-9AFE-62051301DF5B}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{DA163311-8CF3-409D-A46F-75908F3C1105}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{DA8CBCF5-49E7-4860-9C5A-EA01684C29A0}"/>
-    <hyperlink ref="M41" r:id="rId105" xr:uid="{C489338C-CEFE-40CC-9E87-CD72B5BE7907}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{3C719A5B-7332-4F77-96C8-B63249B37501}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{D338F34C-EC39-4EB6-BAB1-0E56AC0B0A2C}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{D389E820-4E3E-4E9A-AA7F-1BFEED143E0C}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{B5B5E095-B309-495E-9622-C427BCBAFF0D}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{31FE26ED-83BD-4FE6-8AB0-C8E03ED240B5}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{F9D5DC56-9675-47BB-BB11-01995C44E392}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{1BE4A1A3-570D-47E5-BD05-3701FDF3D7F7}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{E5350892-B4CB-446B-B625-EAA7B4C9884B}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{63B5B5ED-FC52-4AFF-9C70-DEE75A115C45}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{C01F3B09-948C-4BC8-9CD6-64B22CB8D016}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{D2EEC5C7-45B2-4C9E-92CB-A25A0A0D0D25}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{55C033A0-3185-4FE3-972E-E5134FDF7C1E}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{B94054E9-56D1-4BCA-B271-B32991825B17}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{AB135592-F95E-451D-8D44-C1A631710F70}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{DC9397A2-1819-4191-84CB-BBFB59B883EA}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{7793B1E4-EB57-47D2-AAB7-82A6E20E10A4}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{828B1193-C1C2-42DD-A39F-DAB0E75E0AED}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{3E40EA80-A096-415A-8AEA-5DBA8C50D8E8}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{E85C6F39-D4D5-4D20-9636-1DC5219C4CAC}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{3535C87E-07BD-4A4D-9287-3CA924854A43}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{E67BA577-DECE-48B8-8B84-D7769461BA6C}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{3B038A56-449B-45E2-B999-97A6762C5D82}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{FE97AC64-7A81-481F-AE79-A3BE2EF61E91}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{607F3C17-C877-4FFD-AC79-CA409FB8629E}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{C8427DC6-1414-411B-A353-34CFBED1DFDC}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{654160E7-88E2-4497-AE7A-D7D4CC9D8195}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{0257358B-BEB2-44DE-A96F-E3E6703A2B7E}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{9C46F86B-7D15-4F05-8623-F970E82B0AD0}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{B8DED187-B1A4-421B-84C8-8F9A14384553}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{E36C8C19-DCE8-4596-AEDC-391F36F3437F}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{17163719-4A81-437A-A82C-3349DF29703B}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{B5E0116A-86DE-4E67-96C3-50EC1C522F85}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{66097804-C320-4F92-B7CC-348A56619768}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{6C7C5EED-DCC1-4BFD-A55E-7DFFF0D70312}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{AF73C719-DF06-4571-82AE-CAA88CB4392D}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{FC60E4A8-E3F7-425E-93BA-C106ABA61162}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{D09F4597-B58E-448A-B1F7-B38670DE0138}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{9787CE5E-8611-44FA-8AD1-AD9AA92502B3}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{5C709A26-14F4-48BC-BD4C-029C41908248}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{1823E59D-FCC7-4DA0-A50F-994905EA2590}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{2C550E99-EB75-4878-AFD6-389E76A30E33}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{47157FC4-3AA6-4B9E-9396-093F37F859BE}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{D5823C05-C2BB-4A75-B38A-63D23C847436}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{5F21149A-4431-4AD2-BF72-5A35025FBD9A}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{928287F5-5EF8-4835-AD9E-732522F9E95C}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{60FB4219-EC4D-464B-A8C1-CAD70AE5EDB3}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{1FDBD3A4-324A-4949-8324-70B77C21A824}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{735A533F-6C31-4481-BBDE-0B4110932785}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{CBE65E81-9217-413D-94E1-33E09BB6A1D2}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{CCB6F8B7-4FB5-4C3A-83E7-1DFA731ED584}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{8F65CEE5-EA29-4F11-B90F-48D6A5508158}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{CDA3691D-3E43-4099-A811-435A74BF3A2E}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{FBBA786E-5A24-457E-AE2A-A07E014AFA52}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{4F6AE916-873C-448B-A468-BFEF2EBE6EF3}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{A4C24670-9014-4830-8570-95EE5F7B71F7}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{36B42DE6-F738-4861-B49B-574F98B15D1B}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{5E97308B-4B62-4D2C-BCB4-C13ED04F3811}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{C8D6D6AC-6464-41EC-8E88-DDFF11B79D6C}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{A7F180DA-60DF-4078-B072-5F0F5E441E12}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{10143FD5-FDA3-4589-BE6D-15BE16EF699B}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{A6C00961-3ED6-4651-9595-0F4F208682D6}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{BF48D990-B106-4B76-BE27-C085901F2068}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{051B9536-256E-409F-AD6C-2638BA51AAEE}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{77E1D049-4766-4156-91D7-9D18BCC35894}"/>
-    <hyperlink ref="M183" r:id="rId170" xr:uid="{36EEF409-8953-47FA-A9DC-20E1543A1414}"/>
-    <hyperlink ref="M68" r:id="rId171" xr:uid="{E9614AFD-5141-4ECE-AB8A-5AE6DF9E95B7}"/>
-    <hyperlink ref="M8" r:id="rId172" xr:uid="{1C15E194-E11A-4AC2-9153-8DF91EC2D5CC}"/>
-    <hyperlink ref="M266" r:id="rId173" xr:uid="{6459C90B-735A-498C-B492-13E1842AF2DE}"/>
-    <hyperlink ref="M268" r:id="rId174" xr:uid="{39D939EA-94CA-4B4D-B559-1CD7800A7D77}"/>
-    <hyperlink ref="M267" r:id="rId175" xr:uid="{1962649C-970D-4E82-9A61-1E5180FE1EB8}"/>
-    <hyperlink ref="M269" r:id="rId176" xr:uid="{A2552D6D-1BD8-4DC2-A51F-E20FE9C77463}"/>
-    <hyperlink ref="M272" r:id="rId177" xr:uid="{594ACE0D-AE8B-41D0-93BA-1FFF8E3C5385}"/>
-    <hyperlink ref="M274" r:id="rId178" xr:uid="{5F502534-74E8-4946-8323-2B174725B8C1}"/>
-    <hyperlink ref="M275" r:id="rId179" xr:uid="{C5523F54-EFCB-4D71-A022-1860C9A5A6EF}"/>
-    <hyperlink ref="M276" r:id="rId180" xr:uid="{906D79E7-689E-41E4-A159-2590B23A8C6C}"/>
-    <hyperlink ref="M277" r:id="rId181" xr:uid="{85AE26FF-B8CF-453B-9774-0A5ED831665A}"/>
-    <hyperlink ref="M280" r:id="rId182" xr:uid="{D9D0C3DF-D633-4C07-B38A-A70726EA0CAC}"/>
-    <hyperlink ref="M270" r:id="rId183" xr:uid="{1F1719CB-6AB6-46D0-BA25-8E6915BE603F}"/>
-    <hyperlink ref="M271" r:id="rId184" xr:uid="{64D13802-3E47-446E-8E6B-10D48F6323FC}"/>
-    <hyperlink ref="M60" r:id="rId185" xr:uid="{9DE3F864-4874-4803-969C-3D2FD14989EB}"/>
-    <hyperlink ref="M98" r:id="rId186" xr:uid="{BFAA3906-293A-40B7-BD1E-F343F0311FAB}"/>
-    <hyperlink ref="M125" r:id="rId187" xr:uid="{FE54B85A-D2EB-4103-BDD1-781851C2E5A6}"/>
-    <hyperlink ref="M70" r:id="rId188" xr:uid="{4C31642A-76D1-40FF-AC33-B5D67D7D1290}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{DBEA4F7C-D91D-42D5-A9F0-4227546DEB86}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{F3A66462-C733-4F84-A333-650FC1E612FB}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{B52FEA71-6457-4A87-BF8A-80E66140FF33}"/>
+    <hyperlink ref="M25" r:id="rId4" xr:uid="{480CAF5D-62DF-44EB-AAD3-EF74B3FE895C}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{FEE19B37-A11D-496C-A623-6C68292CCB9C}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{0E681385-F95C-4810-911F-7FE74AD9E8D4}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{676D3D64-F0A6-4287-ACAA-E782595C3698}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{93C7EFCC-7633-4CC4-A837-8DD85A7D1D94}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{D2DE797D-8392-44DF-B9E9-B5FDE0B3400D}"/>
+    <hyperlink ref="M31" r:id="rId10" xr:uid="{72694373-E913-4AEC-9120-3A2EC1FFC1FE}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{5198E5DD-71A1-4C34-8BFD-B82B1ED42720}"/>
+    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{3C511F42-B215-40C2-8EB9-2ADFCF2ED118}"/>
+    <hyperlink ref="M34" r:id="rId13" xr:uid="{102EEEAA-A270-4C95-A78C-FD770C3764F8}"/>
+    <hyperlink ref="M35" r:id="rId14" xr:uid="{7509834C-9FAD-4F34-80E9-136AB4F1F4AF}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{19391BF6-CC34-4810-9B57-CBD62C1A3F4D}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{B7778450-B94A-4197-BA3D-04A37016E0B9}"/>
+    <hyperlink ref="M42" r:id="rId17" xr:uid="{50824BE8-C72B-4636-A111-233A98F5E317}"/>
+    <hyperlink ref="M43" r:id="rId18" xr:uid="{5F6B3BB3-B81F-4482-9980-C325DEDA28EC}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{B72C1565-3C89-4472-A085-0BCDAEB6D483}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{A004557A-E587-4187-9BF0-D622CDEA887C}"/>
+    <hyperlink ref="M55" r:id="rId21" xr:uid="{8FF51ED9-FA2B-4FA6-A24D-5E0CFD937105}"/>
+    <hyperlink ref="M56" r:id="rId22" xr:uid="{E61BE9BE-B0C8-455D-B0CE-19CF30764BCE}"/>
+    <hyperlink ref="M57" r:id="rId23" xr:uid="{09FBB6E8-32C6-4955-9C66-9C2F50EA7BC0}"/>
+    <hyperlink ref="M58" r:id="rId24" xr:uid="{821E8013-2441-4379-99E6-55AD54045AA4}"/>
+    <hyperlink ref="M59" r:id="rId25" xr:uid="{97835D4A-3995-4D79-8F23-16FA508360C5}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{E0ECF352-975A-4AFC-99E7-14CDB387116D}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{CAD25443-414B-4690-ACD3-7AEA828E99BF}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{8E078868-46B3-4FAC-877C-E3DC439D0ABE}"/>
+    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{D812DE69-5BCE-4884-B688-E4472BD3991C}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{E036E02E-496E-4E3D-943D-13460174329D}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{CCDB0056-26D3-4607-81E7-81B6C657A9B9}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{53A66DCF-7E24-41CE-981E-4A5F9C734E64}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{81209094-69CA-45E1-948E-98951156C0C4}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{0322F51A-09AA-467E-AB86-EBA4411B2B9E}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{6DB030B9-46C3-47A3-A007-1D5592BF0615}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{E372E0E1-7453-4747-B206-447876F0317F}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{D69C0178-A2C3-4ECD-B48B-564240601021}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{BB93A51B-1C89-4D54-8F8A-DAC5363F08A7}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{B130EE15-F75B-4B43-9A6F-EFB5B171D120}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{61CB2366-1D97-4265-8CA3-BBCFB930BA0B}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{217A3C3E-5D19-4B22-9F8B-7D49823E1948}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{D93122C0-CCA6-4322-8386-5B873927AEB5}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{CEDF23A8-4B8A-4411-BE55-B7C33674B6C4}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{EEF524D1-52BF-4867-9869-672E86080E9F}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{4BDA3E83-7B2E-43DE-9E7D-CB180E4D7014}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{86193B8C-B4F5-4941-92FD-90D6462FCD8B}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{22DDB77D-F378-4FBC-8760-5F5EBED0741E}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{A07D00D0-3D56-4FF9-9039-D016876E217A}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{4EAE2FC6-C5ED-4CFE-8E82-87AB0556CFE7}"/>
+    <hyperlink ref="M53" r:id="rId50" xr:uid="{94ADD7A3-AB4F-4185-8997-EF183BC6B96A}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{C82D4FAB-EF8F-4D89-A010-DD799783226C}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{2A3CAD88-87AA-4090-964F-E3C199760655}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{68A65205-8907-4744-8301-614F4D073352}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{899FF39C-EF66-47F3-BEA1-684887D5D57F}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{F2CCAE23-137A-42B0-B05C-3F1093864F51}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{90DC08B8-5119-4DBC-8212-52D31CFAF0D4}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{F7E64664-5C08-4D0F-A015-3CDBDEE7D80B}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{6AE48AEC-E413-4866-9ACE-B5C311A428CD}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{1247339C-BE81-4ACE-938F-5F98AB253FC2}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{5B12A74A-532F-4F75-A65C-A0685991EEC5}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{C9689656-A276-4293-ACFC-9FC0A89764B0}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{ABD1E07C-6693-4F3F-ABB9-AB773F485A2A}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{E32AD6C7-D078-4B31-AD5C-580CF7134451}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{A8BC9ED1-23FB-446F-AA96-DE5AA4F06FD0}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{80B27B37-D414-4AC1-B885-B51BA4F3A056}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{AC0983CE-A48E-4339-902A-EBC66CF50D79}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{22919AC1-6660-4FFA-9300-04D2433D0696}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{C3C12392-3B70-45B8-AD2E-92091B2D2797}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{6F3A89B1-380C-4B38-A1B6-6A3284939469}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{E83EC077-9396-4706-A0E8-9B4CB34270DF}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{12C2EEC7-B9DA-41AB-AD04-94ACBF1A8DE2}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{7AEA23A6-E6C5-48CC-B6C5-BE73C7E41ADF}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{5E0D0B61-ED9A-48FB-9BFC-CBB0EF7FCF86}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{7A1C8395-8D61-444A-802A-08ABA3B8C466}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{9D919FB5-6F41-4957-9151-654BFF906338}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{5F7972C4-2458-48EE-A9E5-EB8B3EC585AD}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{BFADB982-81A3-4205-B17F-71D28BE8F29B}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{CCA19EEB-1B5F-482D-9587-878F6404A4D8}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{16A70946-7435-414A-81E9-E765FDF596D3}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{766AC0D6-BD9A-46F7-8351-CE4311B2D128}"/>
+    <hyperlink ref="M93" r:id="rId81" xr:uid="{CA03723B-97A1-4ADB-8AFD-E18C9E7C2E12}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{4F249356-350E-439F-8D40-C8663797054E}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{83F10AD2-F885-41DE-A4B9-E0E57CE53FB1}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{F78A1FDE-21DB-4AF2-8C87-CE2C3D166EA8}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{B4AE0B98-7CC7-4825-83B6-6ACF40DB77F1}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{6FCC9BAA-3200-4588-8076-08F5A2AA20F8}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{BCC7C249-B29D-424C-AFAA-52057E120401}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{66838A92-337F-4718-BB84-E9AD8A6BA1CC}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{8FEB48CF-67E9-43FC-8BC8-7C12891CA506}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{57E48AB5-9189-472E-8EE1-9F00D08C5D73}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{8A431927-1D3E-454C-AE08-0285FE2962DE}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{B4C75D49-7E01-4997-8DDB-B94DE1B605E1}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{228138EA-9E25-4CC6-97DD-D0B122C6CEA4}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{B0196828-2EB5-4144-B419-6D6C1779A709}"/>
+    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{888257CE-09E4-4256-BCA1-89E9AD722F80}"/>
+    <hyperlink ref="M38" r:id="rId96" xr:uid="{2B125588-7CCD-4694-A2B3-96D5B561C093}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{9FAD8A8B-02FA-4A3A-B348-1C8EB36A0B8E}"/>
+    <hyperlink ref="M91" r:id="rId98" xr:uid="{8AC4E9C6-2921-4B17-987F-4BA5523FBE75}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{0E4D1CE9-1AAF-4DEA-A5FB-993A48724BC3}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{AC10006A-B2B4-4B61-A02E-3C1A8FDAFEF6}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{500D29C3-BDA0-45A7-90AD-630E675FADAC}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{5F588D19-55AA-47E4-8245-C8F22EDB5E44}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{FC75257A-28AB-4B3F-B505-676304065521}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{0ED378CC-9467-4640-9887-5DBC4F69232F}"/>
+    <hyperlink ref="M41" r:id="rId105" xr:uid="{D335199D-5184-4B0C-8841-21AF04CE7902}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{54241AF6-2D82-4B3F-8136-B2B1D67A707C}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{C174D033-6BB2-424E-9369-2D7BEEB53D1C}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{4EEA3949-E464-46A3-83FB-FF80C0774479}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{5F979E8F-03FB-466B-B9A0-B2B67C4EEBBC}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{642E1098-A7FA-4F06-AFD0-24CA8921D9CD}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{3ACEEBD8-7664-4545-A4B4-7B7F66657BA1}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{E57C21E0-4745-4DE5-942B-9C7D01A1650E}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{168419B0-873E-4C17-AEA0-6706A0849E01}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{59AF29FA-1513-4B09-A610-F3E7BE352B6F}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{854850B0-50FD-4D8E-BA73-128E4DC3877C}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{412786B2-E030-4B63-88C9-2D1023B91232}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{F8461A35-2F99-49DB-8F40-D81B973E4BD0}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{E0282E2A-7D0F-46E9-9F88-1583AFACDE59}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{BB509089-8EBC-482A-9840-75569DAD1F4C}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{DD3849CE-A081-4874-AF3E-912A714F79D4}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{6D9FFAFB-4385-446E-BCD9-B4E8E6BB83C5}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{CFA176EE-C91B-4B9B-B1E0-1C42CA877A94}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{25CB538D-586D-453E-8BC1-B38186B45A58}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{315DBD76-2E24-4CEE-BB35-CB7049448DB3}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{609A635B-10B5-4CD6-B6EE-B98DAE1FDA6F}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{E80C5246-7AF5-48E0-90BB-2B6DF7F0834F}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{7A6EC785-D0A1-4322-867C-24E52EBFAA6D}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{1814B103-F123-466F-A996-90085ADA7C36}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{3FB3B522-D257-41C8-9E90-D2BC3D2051D5}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{4C6434ED-0978-4DC9-A2C2-163BE896D705}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{64567349-A7A5-4FDE-8DF0-639CE17FC7D1}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{0D498093-C725-4DCD-8855-157D333CDA75}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{9CC66864-EF40-4713-A211-6189F9465B75}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{FA97D949-9938-4F23-9E2D-F72E73B2D6D2}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{877EB418-7047-42B0-A1EF-9933EB55C4FE}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{EB0C6195-4562-4198-815C-20DAC5E94150}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{A45E976C-EB63-4155-98D4-746E92F25DAD}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{5AD70DA7-81B3-4FB8-A42E-ACB3EB8FBB95}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{E2213020-0DF7-4BFF-9214-EE1484AA2CF3}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{3BD39CA6-DA4B-480F-9A51-52A898131CAE}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{2FDB78DD-3D9E-4D85-8661-247A1B086D6B}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{9575B703-0E67-40BA-842C-6995AE592159}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{704BB1A7-505F-44E0-85A0-C38838233441}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{E5D8E9C4-8380-47FA-9426-84AF1ED5EF36}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{C0ACB62E-B728-456A-91E3-7E88A3E3329F}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{14C648A6-10D8-4B38-AF44-7E9496A00FCA}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{14060152-E258-4433-A6D4-C13C7283E383}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{0B5DE84B-4E70-4044-935D-1EDECF690B7A}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{A29F0919-FFBC-44A3-B323-EB4E7242D44A}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{652946B0-10B7-49E8-B65C-46F302D3173B}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{72E85E92-CCA5-4BD5-84FC-A7E31191F0AF}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{B7332B9E-09F7-40E9-A2AA-C1727BE575B2}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{10CFB4A7-1E68-4B4A-9540-8CB6B682AB83}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{A845C175-E176-42CF-8012-25165EE14659}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{CAD3F888-7786-4FA1-8420-DC3923147E9B}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{7185DF51-D739-449C-B653-CB9C48FCA892}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{4E31B02D-52A4-4AF0-91B2-6079FF7B9BAE}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{05B38E6D-0FE8-4CD9-873D-4623019B212E}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{17DDD98C-ECE4-4C40-B002-E3F61311A763}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{09C96E8D-EACB-4903-A6AA-DA5AFC27339B}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{DE85C86F-8F3E-4175-B0DB-E843C03D5FB8}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{064F9F4A-88F2-464B-88B4-19DB193BFF5A}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{E77B1E17-AAFD-4854-ACA4-E4E40A31F1CA}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{33A07718-01EF-43AA-9672-273547BEA44F}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{F42F9BEA-031C-4A60-A234-04F7338918DC}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{A2AB2754-D11A-4BFC-95C8-D95EE254C256}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{0F9AA415-FE8C-48BB-87B2-F026A46F739C}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{30E78CE5-206F-4B75-97BE-441DD53E802A}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{4D588CA8-C37C-45A2-9F91-21DC13BA0788}"/>
+    <hyperlink ref="M183" r:id="rId170" xr:uid="{A5008301-F2EE-403B-8B4E-D3A8C652E99C}"/>
+    <hyperlink ref="M68" r:id="rId171" xr:uid="{60129C14-B0C1-4A33-9539-C28F4602500C}"/>
+    <hyperlink ref="M8" r:id="rId172" xr:uid="{0A3052DF-774F-49D1-BC4C-0551F80E4D5E}"/>
+    <hyperlink ref="M266" r:id="rId173" xr:uid="{6A65A8AB-37ED-4E56-8E91-6148B8345831}"/>
+    <hyperlink ref="M268" r:id="rId174" xr:uid="{AAE8569F-2A6A-4BF0-B59A-A9032073A15E}"/>
+    <hyperlink ref="M267" r:id="rId175" xr:uid="{DE739C57-79E2-439A-B364-6AFB05D73ECA}"/>
+    <hyperlink ref="M269" r:id="rId176" xr:uid="{BC8BD2CF-7146-4F63-9F2C-136CD7C31C81}"/>
+    <hyperlink ref="M272" r:id="rId177" xr:uid="{C8491FBA-C394-40C3-9F99-371AF99E0064}"/>
+    <hyperlink ref="M274" r:id="rId178" xr:uid="{BFA1D3A0-A16F-41DF-B443-7FC9C3AEF231}"/>
+    <hyperlink ref="M275" r:id="rId179" xr:uid="{CD17F129-9ECC-42A1-A27B-C23EA33E12E1}"/>
+    <hyperlink ref="M276" r:id="rId180" xr:uid="{F38F90D5-978A-479C-9C79-BC2B655DACA1}"/>
+    <hyperlink ref="M277" r:id="rId181" xr:uid="{EDA07AED-0FCE-40EB-BE66-732ACEF2FF74}"/>
+    <hyperlink ref="M280" r:id="rId182" xr:uid="{BDC9E391-376A-409A-8504-32AE7EED9F58}"/>
+    <hyperlink ref="M270" r:id="rId183" xr:uid="{144913C4-F439-4C3E-A34F-1F2C3C1A92EE}"/>
+    <hyperlink ref="M271" r:id="rId184" xr:uid="{7C716BAC-340C-4F0C-8DA2-0EFB4A9ABCB8}"/>
+    <hyperlink ref="M60" r:id="rId185" xr:uid="{65B029F1-65CD-41AA-AF06-386823416E5A}"/>
+    <hyperlink ref="M98" r:id="rId186" xr:uid="{D2E051FC-4242-4BFC-8CD7-E630C22E8396}"/>
+    <hyperlink ref="M125" r:id="rId187" xr:uid="{5A7C91E1-1BEC-4D4C-ACFB-1C6D98859D90}"/>
+    <hyperlink ref="M70" r:id="rId188" xr:uid="{7435DB1C-CED5-4D46-8A0F-C07643B0446B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId189"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABE4E07-3841-4EBC-A437-5D033D8623F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D85AA-CCD9-4DAF-8D7D-357A775CDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2745" windowWidth="29040" windowHeight="15840" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={20323475-B1AC-4B54-A86F-8562B5B149B6}</author>
-    <author>tc={A8507FBF-01B9-4A67-8513-E1A99E062D7C}</author>
-    <author>tc={86722F96-7287-4574-A246-47AC7AD440FF}</author>
+    <author>tc={84DEA509-3C58-4A64-9F58-EF0D76D85056}</author>
+    <author>tc={3A7DF3D0-58B9-4F4A-ADD0-ED394295B64E}</author>
+    <author>tc={C6CE448D-D857-4920-AF74-C45B82D7999E}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{20323475-B1AC-4B54-A86F-8562B5B149B6}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{84DEA509-3C58-4A64-9F58-EF0D76D85056}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{A8507FBF-01B9-4A67-8513-E1A99E062D7C}">
+    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{3A7DF3D0-58B9-4F4A-ADD0-ED394295B64E}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{86722F96-7287-4574-A246-47AC7AD440FF}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{C6CE448D-D857-4920-AF74-C45B82D7999E}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="1255">
   <si>
     <t>Nr.</t>
   </si>
@@ -1528,9 +1528,6 @@
     <t>Künstliche Intelligenz</t>
   </si>
   <si>
-    <t>KI</t>
-  </si>
-  <si>
     <t>https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3
 https://www.cnbc.com/2017/11/06/stephen-hawking-ai-could-be-worst-event-in-civilization.html
 https://www.researchgate.net/publication/334388570_The_Role_of_Cooperation_in_Responsible_AI_Development</t>
@@ -3271,9 +3268,6 @@
   </si>
   <si>
     <t>Urbane Dachgärten um den lokalen Anbau zu stützen und gleichzeitig die Städte aufnahmefähiger für starke Regenfälle zu machen</t>
-  </si>
-  <si>
-    <t>Individualismus tribalism und so als weak spot hier raus</t>
   </si>
   <si>
     <t>Die Gesellschaft wird bei dem Thema Fleisch stark polarisiert werden (Fleisch=Statussymbol)</t>
@@ -4025,6 +4019,18 @@
   </si>
   <si>
     <t>Risiken durch Erdgasausstieg</t>
+  </si>
+  <si>
+    <t>KI (Ethisch)</t>
+  </si>
+  <si>
+    <t>Übergang zu den Robotern ist eine verantwortungsvolle KI</t>
+  </si>
+  <si>
+    <t>KI (Technisch)</t>
+  </si>
+  <si>
+    <t>Die Kunden vordern Grünen Strom</t>
   </si>
 </sst>
 </file>
@@ -4136,7 +4142,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4663,14 +4669,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{20323475-B1AC-4B54-A86F-8562B5B149B6}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{84DEA509-3C58-4A64-9F58-EF0D76D85056}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{A8507FBF-01B9-4A67-8513-E1A99E062D7C}">
+  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{3A7DF3D0-58B9-4F4A-ADD0-ED394295B64E}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{86722F96-7287-4574-A246-47AC7AD440FF}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{C6CE448D-D857-4920-AF74-C45B82D7999E}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -4680,8 +4686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
   <dimension ref="A1:BJ296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection sqref="A1:BJ280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,22 +4754,22 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>1207</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>20</v>
@@ -4775,13 +4781,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>23</v>
@@ -4793,13 +4799,13 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>26</v>
@@ -4811,13 +4817,13 @@
         <v>28</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>29</v>
@@ -4829,13 +4835,13 @@
         <v>31</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>32</v>
@@ -4847,13 +4853,13 @@
         <v>34</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>35</v>
@@ -4865,13 +4871,13 @@
         <v>37</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="135" x14ac:dyDescent="0.25">
@@ -4962,7 +4968,7 @@
       <c r="AS2" s="10"/>
       <c r="AT2" s="10"/>
       <c r="AU2" s="10" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AV2" s="10"/>
       <c r="AW2" s="10"/>
@@ -5266,7 +5272,7 @@
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
       <c r="AK5" s="19" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="AL5" s="19"/>
       <c r="AM5" s="19"/>
@@ -5278,7 +5284,7 @@
       <c r="AS5" s="19"/>
       <c r="AT5" s="19"/>
       <c r="AU5" s="19" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AV5" s="19"/>
       <c r="AW5" s="19"/>
@@ -5859,7 +5865,7 @@
         <v>40</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="O11" s="19" t="s">
         <v>42</v>
@@ -6107,7 +6113,7 @@
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
@@ -6146,7 +6152,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -6517,7 +6523,7 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
@@ -6536,7 +6542,7 @@
       <c r="AM17" s="19"/>
       <c r="AN17" s="19"/>
       <c r="AO17" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
@@ -6812,10 +6818,10 @@
         <v>9</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>42</v>
@@ -7060,7 +7066,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AL22" s="10"/>
       <c r="AM22" s="10"/>
@@ -7150,10 +7156,10 @@
         <v>2</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
@@ -7266,7 +7272,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
@@ -7288,7 +7294,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
@@ -7490,7 +7496,7 @@
       <c r="AK26" s="10"/>
       <c r="AL26" s="10"/>
       <c r="AM26" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AN26" s="10"/>
       <c r="AO26" s="10"/>
@@ -8426,7 +8432,7 @@
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
       <c r="AC35" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
@@ -8524,12 +8530,12 @@
         <v>5</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -8554,7 +8560,7 @@
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
       <c r="AU36" s="10" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
@@ -8848,7 +8854,7 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
       <c r="AA39" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AB39" s="19"/>
       <c r="AC39" s="19"/>
@@ -8870,7 +8876,7 @@
       <c r="AS39" s="19"/>
       <c r="AT39" s="19"/>
       <c r="AU39" s="19" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AV39" s="19"/>
       <c r="AW39" s="19"/>
@@ -9073,9 +9079,7 @@
       <c r="AL41" s="19"/>
       <c r="AM41" s="19"/>
       <c r="AN41" s="19"/>
-      <c r="AO41" s="19" t="s">
-        <v>1007</v>
-      </c>
+      <c r="AO41" s="19"/>
       <c r="AP41" s="19"/>
       <c r="AQ41" s="19"/>
       <c r="AR41" s="19"/>
@@ -9378,7 +9382,7 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
@@ -9392,7 +9396,7 @@
       <c r="AM44" s="10"/>
       <c r="AN44" s="10"/>
       <c r="AO44" s="10" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="AP44" s="10"/>
       <c r="AQ44" s="10"/>
@@ -10010,7 +10014,7 @@
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
@@ -10025,7 +10029,7 @@
       <c r="AL50" s="10"/>
       <c r="AM50" s="10"/>
       <c r="AN50" s="10" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AO50" s="10"/>
       <c r="AP50" s="10"/>
@@ -10040,7 +10044,7 @@
       <c r="AY50" s="10"/>
       <c r="AZ50" s="10"/>
       <c r="BA50" s="10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="BB50" s="10"/>
       <c r="BC50" s="10"/>
@@ -10151,7 +10155,7 @@
       <c r="BD51" s="19"/>
       <c r="BE51" s="19"/>
       <c r="BF51" s="19" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="BG51" s="19"/>
       <c r="BH51" s="19"/>
@@ -10199,7 +10203,7 @@
         <v>232</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>233</v>
@@ -10229,7 +10233,7 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
@@ -10358,14 +10362,14 @@
       <c r="AY53" s="19"/>
       <c r="AZ53" s="19"/>
       <c r="BA53" s="19" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="BB53" s="19"/>
       <c r="BC53" s="19"/>
       <c r="BD53" s="19"/>
       <c r="BE53" s="19"/>
       <c r="BF53" s="19" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BG53" s="19"/>
       <c r="BH53" s="19"/>
@@ -10458,7 +10462,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
       <c r="AU54" s="10" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
@@ -10564,7 +10568,7 @@
       <c r="AS55" s="19"/>
       <c r="AT55" s="19"/>
       <c r="AU55" s="19" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AV55" s="19"/>
       <c r="AW55" s="19"/>
@@ -10776,7 +10780,7 @@
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
       <c r="AU57" s="19" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AV57" s="19"/>
       <c r="AW57" s="19"/>
@@ -10975,7 +10979,7 @@
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
       <c r="AJ59" s="19" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="AK59" s="19"/>
       <c r="AL59" s="19"/>
@@ -11067,7 +11071,7 @@
       </c>
       <c r="U60" s="10"/>
       <c r="V60" s="10" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
@@ -11102,17 +11106,17 @@
       <c r="BA60" s="10"/>
       <c r="BB60" s="10"/>
       <c r="BC60" s="45" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BD60" s="10"/>
       <c r="BE60" s="10" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF60" s="10"/>
       <c r="BG60" s="10"/>
       <c r="BH60" s="10"/>
       <c r="BI60" s="10" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="BJ60" s="10"/>
     </row>
@@ -11291,7 +11295,7 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
@@ -11299,7 +11303,7 @@
       <c r="AH62" s="10"/>
       <c r="AI62" s="10"/>
       <c r="AJ62" s="10" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
@@ -11324,7 +11328,7 @@
       <c r="BC62" s="10"/>
       <c r="BD62" s="10"/>
       <c r="BE62" s="10" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF62" s="10"/>
       <c r="BG62" s="10"/>
@@ -11426,13 +11430,13 @@
       <c r="AY63" s="19"/>
       <c r="AZ63" s="19"/>
       <c r="BA63" s="19" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="BB63" s="19"/>
       <c r="BC63" s="19"/>
       <c r="BD63" s="19"/>
       <c r="BE63" s="19" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF63" s="19"/>
       <c r="BG63" s="19"/>
@@ -11622,7 +11626,7 @@
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
       <c r="AK65" s="19" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AL65" s="19"/>
       <c r="AM65" s="19"/>
@@ -11713,7 +11717,7 @@
       </c>
       <c r="U66" s="10"/>
       <c r="V66" s="10" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
@@ -11750,7 +11754,7 @@
       <c r="BC66" s="10"/>
       <c r="BD66" s="10"/>
       <c r="BE66" s="10" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="BF66" s="10"/>
       <c r="BG66" s="10"/>
@@ -11766,7 +11770,7 @@
         <v>285</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -11852,14 +11856,14 @@
       <c r="AY67" s="19"/>
       <c r="AZ67" s="19"/>
       <c r="BA67" s="19" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="BB67" s="19"/>
       <c r="BC67" s="19"/>
       <c r="BD67" s="19"/>
       <c r="BE67" s="19"/>
       <c r="BF67" s="19" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="BG67" s="19"/>
       <c r="BH67" s="19"/>
@@ -12251,7 +12255,7 @@
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
@@ -12278,7 +12282,7 @@
       <c r="BA71" s="19"/>
       <c r="BB71" s="19"/>
       <c r="BC71" s="45" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="BD71" s="19"/>
       <c r="BE71" s="19"/>
@@ -12592,7 +12596,7 @@
       <c r="AY74" s="10"/>
       <c r="AZ74" s="10"/>
       <c r="BA74" s="10" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="BB74" s="10"/>
       <c r="BC74" s="10"/>
@@ -12775,7 +12779,7 @@
       </c>
       <c r="U76" s="10"/>
       <c r="V76" s="10" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="W76" s="10"/>
       <c r="X76" s="10"/>
@@ -12784,7 +12788,7 @@
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
       <c r="AC76" s="10" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
@@ -12806,7 +12810,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
       <c r="AU76" s="10" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
@@ -12862,7 +12866,7 @@
         <v>10</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="N77" s="18" t="s">
         <v>324</v>
@@ -12914,7 +12918,7 @@
       <c r="AS77" s="19"/>
       <c r="AT77" s="19"/>
       <c r="AU77" s="19" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AV77" s="19"/>
       <c r="AW77" s="19"/>
@@ -12995,7 +12999,7 @@
       </c>
       <c r="U78" s="10"/>
       <c r="V78" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="W78" s="10"/>
       <c r="X78" s="10"/>
@@ -13005,7 +13009,7 @@
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AE78" s="10"/>
       <c r="AF78" s="10"/>
@@ -13348,7 +13352,7 @@
       <c r="BC81" s="19"/>
       <c r="BD81" s="19"/>
       <c r="BE81" s="19" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="BF81" s="19"/>
       <c r="BG81" s="19"/>
@@ -13607,7 +13611,7 @@
         <v>353</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="O84" s="10" t="s">
         <v>325</v>
@@ -13949,7 +13953,7 @@
       <c r="AB87" s="19"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AE87" s="19"/>
       <c r="AF87" s="19"/>
@@ -14295,7 +14299,7 @@
       <c r="BD90" s="10"/>
       <c r="BE90" s="10"/>
       <c r="BF90" s="10" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="BG90" s="10"/>
       <c r="BH90" s="10"/>
@@ -14507,7 +14511,7 @@
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
       <c r="BH92" s="10" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="BI92" s="10"/>
       <c r="BJ92" s="10"/>
@@ -14716,7 +14720,7 @@
       <c r="BE94" s="10"/>
       <c r="BF94" s="10"/>
       <c r="BG94" s="10" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="BH94" s="10"/>
       <c r="BI94" s="10"/>
@@ -14903,7 +14907,7 @@
       <c r="AH96" s="10"/>
       <c r="AI96" s="10"/>
       <c r="AJ96" s="10" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
@@ -15150,7 +15154,7 @@
         <v>406</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -15244,7 +15248,7 @@
       <c r="BG99" s="19"/>
       <c r="BH99" s="19"/>
       <c r="BI99" s="19" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="BJ99" s="19"/>
     </row>
@@ -16044,11 +16048,11 @@
       <c r="Y107" s="19"/>
       <c r="Z107" s="19"/>
       <c r="AA107" s="19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AB107" s="19"/>
       <c r="AC107" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AD107" s="19"/>
       <c r="AE107" s="19"/>
@@ -16392,7 +16396,7 @@
       <c r="BC110" s="10"/>
       <c r="BD110" s="10"/>
       <c r="BE110" s="10" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="BF110" s="10"/>
       <c r="BG110" s="10"/>
@@ -16720,7 +16724,7 @@
         <v>453</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>454</v>
+        <v>1251</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -16746,10 +16750,10 @@
         <v>46</v>
       </c>
       <c r="M114" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="N114" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="N114" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="O114" s="10" t="s">
         <v>42</v>
@@ -16770,7 +16774,7 @@
         <v>5</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V114" s="10"/>
       <c r="W114" s="10"/>
@@ -16788,14 +16792,16 @@
       <c r="AI114" s="10"/>
       <c r="AJ114" s="10"/>
       <c r="AK114" s="10" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="AL114" s="10"/>
       <c r="AM114" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AN114" s="10"/>
-      <c r="AO114" s="10"/>
+      <c r="AO114" s="10" t="s">
+        <v>1252</v>
+      </c>
       <c r="AP114" s="10"/>
       <c r="AQ114" s="10"/>
       <c r="AR114" s="10"/>
@@ -16806,10 +16812,10 @@
       <c r="AW114" s="10"/>
       <c r="AX114" s="10"/>
       <c r="AY114" s="10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AZ114" s="10" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BA114" s="10"/>
       <c r="BB114" s="10"/>
@@ -16827,10 +16833,10 @@
         <v>137</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>458</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>459</v>
       </c>
       <c r="D115" s="15">
         <v>1</v>
@@ -16852,10 +16858,10 @@
         <v>9</v>
       </c>
       <c r="M115" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="N115" s="18" t="s">
         <v>460</v>
-      </c>
-      <c r="N115" s="18" t="s">
-        <v>461</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>42</v>
@@ -16923,10 +16929,10 @@
         <v>138</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -16956,10 +16962,10 @@
         <v>46</v>
       </c>
       <c r="M116" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="N116" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>464</v>
       </c>
       <c r="O116" s="10" t="s">
         <v>42</v>
@@ -17020,7 +17026,7 @@
       <c r="BG116" s="10"/>
       <c r="BH116" s="10"/>
       <c r="BI116" s="19" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="BJ116" s="10"/>
     </row>
@@ -17029,10 +17035,10 @@
         <v>139</v>
       </c>
       <c r="B117" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>465</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>466</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
@@ -17062,10 +17068,10 @@
         <v>8</v>
       </c>
       <c r="M117" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="N117" s="18" t="s">
         <v>467</v>
-      </c>
-      <c r="N117" s="18" t="s">
-        <v>468</v>
       </c>
       <c r="O117" s="19" t="s">
         <v>42</v>
@@ -17099,7 +17105,7 @@
       <c r="AF117" s="19"/>
       <c r="AG117" s="19"/>
       <c r="AH117" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI117" s="19"/>
       <c r="AJ117" s="19"/>
@@ -17135,10 +17141,10 @@
         <v>140</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -17168,10 +17174,10 @@
         <v>8</v>
       </c>
       <c r="M118" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="N118" s="9" t="s">
         <v>472</v>
-      </c>
-      <c r="N118" s="9" t="s">
-        <v>473</v>
       </c>
       <c r="O118" s="10" t="s">
         <v>42</v>
@@ -17239,10 +17245,10 @@
         <v>142</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
@@ -17272,10 +17278,10 @@
         <v>10</v>
       </c>
       <c r="M119" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="N119" s="32" t="s">
         <v>476</v>
-      </c>
-      <c r="N119" s="32" t="s">
-        <v>477</v>
       </c>
       <c r="O119" s="14" t="s">
         <v>42</v>
@@ -17343,10 +17349,10 @@
         <v>144</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -17372,10 +17378,10 @@
         <v>50</v>
       </c>
       <c r="M120" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="N120" s="9" t="s">
         <v>479</v>
-      </c>
-      <c r="N120" s="9" t="s">
-        <v>480</v>
       </c>
       <c r="O120" s="10" t="s">
         <v>42</v>
@@ -17443,10 +17449,10 @@
         <v>145</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
@@ -17476,10 +17482,10 @@
         <v>9</v>
       </c>
       <c r="M121" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="N121" s="18" t="s">
         <v>482</v>
-      </c>
-      <c r="N121" s="18" t="s">
-        <v>483</v>
       </c>
       <c r="O121" s="19" t="s">
         <v>42</v>
@@ -17547,10 +17553,10 @@
         <v>146</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D122" s="6">
         <v>0</v>
@@ -17580,10 +17586,10 @@
         <v>8</v>
       </c>
       <c r="M122" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="N122" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="N122" s="9" t="s">
-        <v>486</v>
       </c>
       <c r="O122" s="10" t="s">
         <v>42</v>
@@ -17651,10 +17657,10 @@
         <v>147</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D123" s="15">
         <v>1</v>
@@ -17684,10 +17690,10 @@
         <v>9</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O123" s="19" t="s">
         <v>42</v>
@@ -17755,10 +17761,10 @@
         <v>151</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="D124" s="6">
         <v>1</v>
@@ -17785,7 +17791,7 @@
         <v>437</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O124" s="10" t="s">
         <v>42</v>
@@ -17830,7 +17836,7 @@
       <c r="AQ124" s="10"/>
       <c r="AR124" s="10"/>
       <c r="AS124" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AT124" s="10"/>
       <c r="AU124" s="10"/>
@@ -17855,10 +17861,10 @@
         <v>152</v>
       </c>
       <c r="B125" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>493</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>494</v>
       </c>
       <c r="D125" s="15">
         <v>1</v>
@@ -17891,7 +17897,7 @@
         <v>437</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O125" s="19" t="s">
         <v>42</v>
@@ -17959,10 +17965,10 @@
         <v>153</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D126" s="6">
         <v>0</v>
@@ -17995,7 +18001,7 @@
         <v>437</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O126" s="10" t="s">
         <v>42</v>
@@ -18042,7 +18048,7 @@
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
       <c r="AU126" s="10" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
@@ -18065,10 +18071,10 @@
         <v>154</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
@@ -18098,10 +18104,10 @@
         <v>10</v>
       </c>
       <c r="M127" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="N127" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="N127" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="O127" s="19" t="s">
         <v>42</v>
@@ -18141,7 +18147,7 @@
       <c r="AL127" s="19"/>
       <c r="AM127" s="19"/>
       <c r="AN127" s="19" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AO127" s="19"/>
       <c r="AP127" s="19"/>
@@ -18171,10 +18177,10 @@
         <v>155</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="D128" s="6">
         <v>0</v>
@@ -18204,10 +18210,10 @@
         <v>50</v>
       </c>
       <c r="M128" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="N128" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="N128" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="O128" s="10" t="s">
         <v>42</v>
@@ -18275,10 +18281,10 @@
         <v>156</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D129" s="15">
         <v>1</v>
@@ -18308,10 +18314,10 @@
         <v>9</v>
       </c>
       <c r="M129" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="N129" s="18" t="s">
         <v>506</v>
-      </c>
-      <c r="N129" s="18" t="s">
-        <v>507</v>
       </c>
       <c r="O129" s="19" t="s">
         <v>42</v>
@@ -18379,10 +18385,10 @@
         <v>157</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="D130" s="6">
         <v>1</v>
@@ -18412,10 +18418,10 @@
         <v>10</v>
       </c>
       <c r="M130" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="N130" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="N130" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="O130" s="10" t="s">
         <v>42</v>
@@ -18439,7 +18445,7 @@
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
       <c r="X130" s="10" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
@@ -18485,10 +18491,10 @@
         <v>158</v>
       </c>
       <c r="B131" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>512</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>513</v>
       </c>
       <c r="D131" s="15">
         <v>1</v>
@@ -18518,10 +18524,10 @@
         <v>10</v>
       </c>
       <c r="M131" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="N131" s="18" t="s">
         <v>514</v>
-      </c>
-      <c r="N131" s="18" t="s">
-        <v>515</v>
       </c>
       <c r="O131" s="19" t="s">
         <v>42</v>
@@ -18548,7 +18554,7 @@
       <c r="Y131" s="19"/>
       <c r="Z131" s="19"/>
       <c r="AA131" s="19" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AB131" s="19"/>
       <c r="AC131" s="19"/>
@@ -18591,10 +18597,10 @@
         <v>159</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D132" s="6">
         <v>0</v>
@@ -18624,10 +18630,10 @@
         <v>9</v>
       </c>
       <c r="M132" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="N132" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="N132" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="O132" s="10" t="s">
         <v>42</v>
@@ -18695,10 +18701,10 @@
         <v>161</v>
       </c>
       <c r="B133" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>519</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>520</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
@@ -18728,10 +18734,10 @@
         <v>9</v>
       </c>
       <c r="M133" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="N133" s="18" t="s">
         <v>521</v>
-      </c>
-      <c r="N133" s="18" t="s">
-        <v>522</v>
       </c>
       <c r="O133" s="19" t="s">
         <v>42</v>
@@ -18799,10 +18805,10 @@
         <v>162</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="D134" s="6">
         <v>1</v>
@@ -18832,10 +18838,10 @@
         <v>10</v>
       </c>
       <c r="M134" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="N134" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="N134" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="O134" s="10" t="s">
         <v>42</v>
@@ -18903,10 +18909,10 @@
         <v>163</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
@@ -18939,7 +18945,7 @@
         <v>379</v>
       </c>
       <c r="N135" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O135" s="19" t="s">
         <v>42</v>
@@ -19007,10 +19013,10 @@
         <v>164</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="D136" s="6">
         <v>0</v>
@@ -19043,7 +19049,7 @@
         <v>379</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O136" s="10" t="s">
         <v>42</v>
@@ -19111,10 +19117,10 @@
         <v>165</v>
       </c>
       <c r="B137" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>533</v>
       </c>
       <c r="D137" s="15">
         <v>0</v>
@@ -19147,7 +19153,7 @@
         <v>379</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O137" s="19" t="s">
         <v>42</v>
@@ -19215,10 +19221,10 @@
         <v>166</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="D138" s="6">
         <v>1</v>
@@ -19251,7 +19257,7 @@
         <v>379</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O138" s="10" t="s">
         <v>42</v>
@@ -19319,10 +19325,10 @@
         <v>169</v>
       </c>
       <c r="B139" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>538</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>539</v>
       </c>
       <c r="D139" s="15">
         <v>0</v>
@@ -19347,7 +19353,7 @@
         <v>379</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O139" s="19" t="s">
         <v>42</v>
@@ -19359,7 +19365,7 @@
         <v>115</v>
       </c>
       <c r="R139" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S139" s="21">
         <v>3</v>
@@ -19415,10 +19421,10 @@
         <v>170</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="D140" s="6">
         <v>0</v>
@@ -19451,7 +19457,7 @@
         <v>379</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O140" s="10" t="s">
         <v>42</v>
@@ -19519,10 +19525,10 @@
         <v>171</v>
       </c>
       <c r="B141" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>545</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>546</v>
       </c>
       <c r="D141" s="15">
         <v>0</v>
@@ -19555,7 +19561,7 @@
         <v>379</v>
       </c>
       <c r="N141" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O141" s="19" t="s">
         <v>42</v>
@@ -19623,10 +19629,10 @@
         <v>173</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>454</v>
+        <v>1253</v>
       </c>
       <c r="D142" s="6">
         <v>1</v>
@@ -19656,10 +19662,10 @@
         <v>9</v>
       </c>
       <c r="M142" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="N142" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="N142" s="9" t="s">
-        <v>550</v>
       </c>
       <c r="O142" s="10" t="s">
         <v>233</v>
@@ -19680,7 +19686,7 @@
         <v>5</v>
       </c>
       <c r="U142" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V142" s="10"/>
       <c r="W142" s="10"/>
@@ -19694,19 +19700,19 @@
       <c r="AE142" s="10"/>
       <c r="AF142" s="10"/>
       <c r="AG142" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="AH142" s="10" t="s">
         <v>551</v>
-      </c>
-      <c r="AH142" s="10" t="s">
-        <v>552</v>
       </c>
       <c r="AI142" s="10"/>
       <c r="AJ142" s="10"/>
       <c r="AK142" s="10" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="AL142" s="10"/>
       <c r="AM142" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AN142" s="10"/>
       <c r="AO142" s="10"/>
@@ -19714,7 +19720,7 @@
       <c r="AQ142" s="10"/>
       <c r="AR142" s="10"/>
       <c r="AS142" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AT142" s="10"/>
       <c r="AU142" s="10"/>
@@ -19739,10 +19745,10 @@
         <v>174</v>
       </c>
       <c r="B143" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>556</v>
       </c>
       <c r="D143" s="15">
         <v>1</v>
@@ -19772,10 +19778,10 @@
         <v>9</v>
       </c>
       <c r="M143" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="N143" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="N143" s="18" t="s">
-        <v>558</v>
       </c>
       <c r="O143" s="19" t="s">
         <v>233</v>
@@ -19820,7 +19826,7 @@
       <c r="AQ143" s="19"/>
       <c r="AR143" s="19"/>
       <c r="AS143" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AT143" s="19"/>
       <c r="AU143" s="19"/>
@@ -19828,7 +19834,7 @@
       <c r="AW143" s="19"/>
       <c r="AX143" s="19"/>
       <c r="AY143" s="19" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AZ143" s="19"/>
       <c r="BA143" s="19"/>
@@ -19847,7 +19853,7 @@
         <v>176</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>371</v>
@@ -19880,10 +19886,10 @@
         <v>9</v>
       </c>
       <c r="M144" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="N144" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="N144" s="9" t="s">
-        <v>562</v>
       </c>
       <c r="O144" s="10" t="s">
         <v>233</v>
@@ -19920,7 +19926,7 @@
       <c r="AI144" s="10"/>
       <c r="AJ144" s="10"/>
       <c r="AK144" s="10" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="AL144" s="10"/>
       <c r="AM144" s="10"/>
@@ -19953,10 +19959,10 @@
         <v>177</v>
       </c>
       <c r="B145" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>564</v>
       </c>
       <c r="D145" s="15">
         <v>1</v>
@@ -19986,10 +19992,10 @@
         <v>9</v>
       </c>
       <c r="M145" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="N145" s="18" t="s">
         <v>565</v>
-      </c>
-      <c r="N145" s="18" t="s">
-        <v>566</v>
       </c>
       <c r="O145" s="19" t="s">
         <v>233</v>
@@ -20057,10 +20063,10 @@
         <v>178</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="D146" s="6">
         <v>1</v>
@@ -20090,10 +20096,10 @@
         <v>9</v>
       </c>
       <c r="M146" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="N146" s="9" t="s">
         <v>569</v>
-      </c>
-      <c r="N146" s="9" t="s">
-        <v>570</v>
       </c>
       <c r="O146" s="10" t="s">
         <v>233</v>
@@ -20120,10 +20126,10 @@
       <c r="Y146" s="10"/>
       <c r="Z146" s="10"/>
       <c r="AA146" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB146" s="10" t="s">
         <v>571</v>
-      </c>
-      <c r="AB146" s="10" t="s">
-        <v>572</v>
       </c>
       <c r="AC146" s="10"/>
       <c r="AD146" s="10"/>
@@ -20165,10 +20171,10 @@
         <v>179</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D147" s="15">
         <v>1</v>
@@ -20198,10 +20204,10 @@
         <v>9</v>
       </c>
       <c r="M147" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="N147" s="18" t="s">
         <v>574</v>
-      </c>
-      <c r="N147" s="18" t="s">
-        <v>575</v>
       </c>
       <c r="O147" s="19" t="s">
         <v>233</v>
@@ -20228,7 +20234,7 @@
       <c r="Y147" s="19"/>
       <c r="Z147" s="19"/>
       <c r="AA147" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB147" s="19"/>
       <c r="AC147" s="19"/>
@@ -20265,7 +20271,7 @@
       <c r="BH147" s="19"/>
       <c r="BI147" s="19"/>
       <c r="BJ147" s="19" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="148" spans="1:62" ht="210" x14ac:dyDescent="0.25">
@@ -20273,10 +20279,10 @@
         <v>181</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D148" s="6">
         <v>1</v>
@@ -20306,10 +20312,10 @@
         <v>9</v>
       </c>
       <c r="M148" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="N148" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="N148" s="9" t="s">
-        <v>579</v>
       </c>
       <c r="O148" s="10" t="s">
         <v>233</v>
@@ -20377,10 +20383,10 @@
         <v>182</v>
       </c>
       <c r="B149" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>580</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>581</v>
       </c>
       <c r="D149" s="15">
         <v>1</v>
@@ -20410,10 +20416,10 @@
         <v>9</v>
       </c>
       <c r="M149" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="N149" s="18" t="s">
         <v>582</v>
-      </c>
-      <c r="N149" s="18" t="s">
-        <v>583</v>
       </c>
       <c r="O149" s="19" t="s">
         <v>233</v>
@@ -20481,10 +20487,10 @@
         <v>183</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D150" s="6">
         <v>1</v>
@@ -20514,10 +20520,10 @@
         <v>9</v>
       </c>
       <c r="M150" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="N150" s="9" t="s">
         <v>585</v>
-      </c>
-      <c r="N150" s="9" t="s">
-        <v>586</v>
       </c>
       <c r="O150" s="10" t="s">
         <v>233</v>
@@ -20585,10 +20591,10 @@
         <v>184</v>
       </c>
       <c r="B151" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>587</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>588</v>
       </c>
       <c r="D151" s="15">
         <v>1</v>
@@ -20618,10 +20624,10 @@
         <v>9</v>
       </c>
       <c r="M151" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="N151" s="18" t="s">
         <v>589</v>
-      </c>
-      <c r="N151" s="18" t="s">
-        <v>590</v>
       </c>
       <c r="O151" s="19" t="s">
         <v>233</v>
@@ -20642,12 +20648,12 @@
         <v>3</v>
       </c>
       <c r="U151" s="19" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
       <c r="X151" s="19" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Y151" s="19"/>
       <c r="Z151" s="19"/>
@@ -20659,7 +20665,7 @@
       <c r="AF151" s="19"/>
       <c r="AG151" s="19"/>
       <c r="AH151" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AI151" s="19"/>
       <c r="AJ151" s="19"/>
@@ -20672,7 +20678,7 @@
       <c r="AQ151" s="19"/>
       <c r="AR151" s="19"/>
       <c r="AS151" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AT151" s="19"/>
       <c r="AU151" s="19"/>
@@ -20697,10 +20703,10 @@
         <v>185</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="D152" s="6">
         <v>0</v>
@@ -20730,10 +20736,10 @@
         <v>9</v>
       </c>
       <c r="M152" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="N152" s="9" t="s">
         <v>595</v>
-      </c>
-      <c r="N152" s="9" t="s">
-        <v>596</v>
       </c>
       <c r="O152" s="10" t="s">
         <v>233</v>
@@ -20801,10 +20807,10 @@
         <v>186</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D153" s="15">
         <v>1</v>
@@ -20834,10 +20840,10 @@
         <v>9</v>
       </c>
       <c r="M153" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="N153" s="18" t="s">
         <v>598</v>
-      </c>
-      <c r="N153" s="18" t="s">
-        <v>599</v>
       </c>
       <c r="O153" s="19" t="s">
         <v>233</v>
@@ -20882,7 +20888,7 @@
       <c r="AQ153" s="19"/>
       <c r="AR153" s="19"/>
       <c r="AS153" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AT153" s="19"/>
       <c r="AU153" s="19"/>
@@ -20907,10 +20913,10 @@
         <v>187</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="D154" s="6">
         <v>1</v>
@@ -20940,10 +20946,10 @@
         <v>9</v>
       </c>
       <c r="M154" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="N154" s="9" t="s">
         <v>603</v>
-      </c>
-      <c r="N154" s="9" t="s">
-        <v>604</v>
       </c>
       <c r="O154" s="10" t="s">
         <v>233</v>
@@ -20988,7 +20994,7 @@
       <c r="AQ154" s="10"/>
       <c r="AR154" s="10"/>
       <c r="AS154" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT154" s="10"/>
       <c r="AU154" s="10"/>
@@ -20997,7 +21003,7 @@
       <c r="AX154" s="10"/>
       <c r="AY154" s="10"/>
       <c r="AZ154" s="10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="BA154" s="10"/>
       <c r="BB154" s="10"/>
@@ -21015,10 +21021,10 @@
         <v>188</v>
       </c>
       <c r="B155" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C155" s="15" t="s">
         <v>606</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>607</v>
       </c>
       <c r="D155" s="15">
         <v>1</v>
@@ -21048,10 +21054,10 @@
         <v>9</v>
       </c>
       <c r="M155" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="N155" s="18" t="s">
         <v>608</v>
-      </c>
-      <c r="N155" s="18" t="s">
-        <v>609</v>
       </c>
       <c r="O155" s="19" t="s">
         <v>233</v>
@@ -21119,10 +21125,10 @@
         <v>189</v>
       </c>
       <c r="B156" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="D156" s="6">
         <v>1</v>
@@ -21152,10 +21158,10 @@
         <v>9</v>
       </c>
       <c r="M156" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="N156" s="9" t="s">
         <v>612</v>
-      </c>
-      <c r="N156" s="9" t="s">
-        <v>613</v>
       </c>
       <c r="O156" s="10" t="s">
         <v>233</v>
@@ -21213,7 +21219,7 @@
       <c r="BD156" s="10"/>
       <c r="BE156" s="10"/>
       <c r="BF156" s="10" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="BG156" s="10"/>
       <c r="BH156" s="10"/>
@@ -21225,10 +21231,10 @@
         <v>190</v>
       </c>
       <c r="B157" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>614</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>615</v>
       </c>
       <c r="D157" s="15">
         <v>0</v>
@@ -21258,10 +21264,10 @@
         <v>9</v>
       </c>
       <c r="M157" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="N157" s="18" t="s">
         <v>616</v>
-      </c>
-      <c r="N157" s="18" t="s">
-        <v>617</v>
       </c>
       <c r="O157" s="19" t="s">
         <v>233</v>
@@ -21329,10 +21335,10 @@
         <v>191</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>619</v>
       </c>
       <c r="D158" s="6">
         <v>1</v>
@@ -21362,10 +21368,10 @@
         <v>9</v>
       </c>
       <c r="M158" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="N158" s="9" t="s">
         <v>620</v>
-      </c>
-      <c r="N158" s="9" t="s">
-        <v>621</v>
       </c>
       <c r="O158" s="10" t="s">
         <v>233</v>
@@ -21410,7 +21416,7 @@
       <c r="AQ158" s="10"/>
       <c r="AR158" s="10"/>
       <c r="AS158" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AT158" s="10"/>
       <c r="AU158" s="10"/>
@@ -21435,10 +21441,10 @@
         <v>192</v>
       </c>
       <c r="B159" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>623</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>624</v>
       </c>
       <c r="D159" s="15">
         <v>1</v>
@@ -21468,10 +21474,10 @@
         <v>9</v>
       </c>
       <c r="M159" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="N159" s="18" t="s">
         <v>625</v>
-      </c>
-      <c r="N159" s="18" t="s">
-        <v>626</v>
       </c>
       <c r="O159" s="19" t="s">
         <v>233</v>
@@ -21539,10 +21545,10 @@
         <v>193</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D160" s="6">
         <v>1</v>
@@ -21572,10 +21578,10 @@
         <v>9</v>
       </c>
       <c r="M160" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="N160" s="9" t="s">
         <v>628</v>
-      </c>
-      <c r="N160" s="9" t="s">
-        <v>629</v>
       </c>
       <c r="O160" s="10" t="s">
         <v>233</v>
@@ -21604,7 +21610,7 @@
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
       <c r="AC160" s="10" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AD160" s="10"/>
       <c r="AE160" s="10"/>
@@ -21645,10 +21651,10 @@
         <v>194</v>
       </c>
       <c r="B161" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>630</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>631</v>
       </c>
       <c r="D161" s="15">
         <v>0</v>
@@ -21678,10 +21684,10 @@
         <v>9</v>
       </c>
       <c r="M161" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="N161" s="18" t="s">
         <v>632</v>
-      </c>
-      <c r="N161" s="18" t="s">
-        <v>633</v>
       </c>
       <c r="O161" s="19" t="s">
         <v>233</v>
@@ -21726,7 +21732,7 @@
       <c r="AQ161" s="19"/>
       <c r="AR161" s="19"/>
       <c r="AS161" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AT161" s="19"/>
       <c r="AU161" s="19"/>
@@ -21751,10 +21757,10 @@
         <v>195</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>636</v>
       </c>
       <c r="D162" s="6">
         <v>1</v>
@@ -21784,10 +21790,10 @@
         <v>9</v>
       </c>
       <c r="M162" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="N162" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="N162" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="O162" s="10" t="s">
         <v>233</v>
@@ -21809,7 +21815,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W162" s="10"/>
       <c r="X162" s="10"/>
@@ -21825,43 +21831,45 @@
       <c r="AH162" s="10"/>
       <c r="AI162" s="10"/>
       <c r="AJ162" s="10" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="10"/>
       <c r="AM162" s="10"/>
-      <c r="AN162" s="10"/>
+      <c r="AN162" s="10" t="s">
+        <v>1254</v>
+      </c>
       <c r="AO162" s="10"/>
       <c r="AP162" s="10"/>
       <c r="AQ162" s="10"/>
       <c r="AR162" s="10"/>
       <c r="AS162" s="10"/>
       <c r="AT162" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AU162" s="10"/>
       <c r="AV162" s="10"/>
       <c r="AW162" s="10"/>
       <c r="AX162" s="10"/>
       <c r="AY162" s="10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AZ162" s="10"/>
       <c r="BA162" s="10" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="BB162" s="46" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="BC162" s="10"/>
       <c r="BD162" s="10"/>
       <c r="BE162" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="BF162" s="10"/>
       <c r="BG162" s="10"/>
       <c r="BH162" s="10" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="BI162" s="10"/>
       <c r="BJ162" s="10"/>
@@ -21871,10 +21879,10 @@
         <v>196</v>
       </c>
       <c r="B163" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>642</v>
       </c>
       <c r="D163" s="15">
         <v>1</v>
@@ -21904,10 +21912,10 @@
         <v>9</v>
       </c>
       <c r="M163" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="N163" s="18" t="s">
         <v>643</v>
-      </c>
-      <c r="N163" s="18" t="s">
-        <v>644</v>
       </c>
       <c r="O163" s="19" t="s">
         <v>233</v>
@@ -21928,12 +21936,12 @@
         <v>4</v>
       </c>
       <c r="U163" s="19" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="V163" s="19"/>
       <c r="W163" s="19"/>
       <c r="X163" s="19" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
@@ -21948,7 +21956,7 @@
       <c r="AI163" s="19"/>
       <c r="AJ163" s="19"/>
       <c r="AK163" s="19" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="AL163" s="19"/>
       <c r="AM163" s="19"/>
@@ -21958,7 +21966,7 @@
       <c r="AQ163" s="19"/>
       <c r="AR163" s="19"/>
       <c r="AS163" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AT163" s="19"/>
       <c r="AU163" s="19"/>
@@ -21983,10 +21991,10 @@
         <v>197</v>
       </c>
       <c r="B164" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>646</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>647</v>
       </c>
       <c r="D164" s="6">
         <v>1</v>
@@ -22016,10 +22024,10 @@
         <v>9</v>
       </c>
       <c r="M164" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="N164" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="N164" s="9" t="s">
-        <v>649</v>
       </c>
       <c r="O164" s="10" t="s">
         <v>233</v>
@@ -22087,10 +22095,10 @@
         <v>198</v>
       </c>
       <c r="B165" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>650</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>651</v>
       </c>
       <c r="D165" s="15">
         <v>1</v>
@@ -22120,10 +22128,10 @@
         <v>9</v>
       </c>
       <c r="M165" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="N165" s="18" t="s">
         <v>652</v>
-      </c>
-      <c r="N165" s="18" t="s">
-        <v>653</v>
       </c>
       <c r="O165" s="19" t="s">
         <v>233</v>
@@ -22191,10 +22199,10 @@
         <v>199</v>
       </c>
       <c r="B166" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>655</v>
       </c>
       <c r="D166" s="6">
         <v>1</v>
@@ -22224,10 +22232,10 @@
         <v>9</v>
       </c>
       <c r="M166" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="N166" s="9" t="s">
         <v>656</v>
-      </c>
-      <c r="N166" s="9" t="s">
-        <v>657</v>
       </c>
       <c r="O166" s="10" t="s">
         <v>233</v>
@@ -22272,7 +22280,7 @@
       <c r="AQ166" s="10"/>
       <c r="AR166" s="10"/>
       <c r="AS166" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AT166" s="10"/>
       <c r="AU166" s="10"/>
@@ -22297,10 +22305,10 @@
         <v>200</v>
       </c>
       <c r="B167" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>659</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>660</v>
       </c>
       <c r="D167" s="15">
         <v>0</v>
@@ -22330,10 +22338,10 @@
         <v>9</v>
       </c>
       <c r="M167" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="N167" s="18" t="s">
         <v>661</v>
-      </c>
-      <c r="N167" s="18" t="s">
-        <v>662</v>
       </c>
       <c r="O167" s="19" t="s">
         <v>233</v>
@@ -22401,10 +22409,10 @@
         <v>201</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="D168" s="6">
         <v>1</v>
@@ -22434,10 +22442,10 @@
         <v>9</v>
       </c>
       <c r="M168" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="N168" s="9" t="s">
         <v>665</v>
-      </c>
-      <c r="N168" s="9" t="s">
-        <v>666</v>
       </c>
       <c r="O168" s="10" t="s">
         <v>233</v>
@@ -22505,10 +22513,10 @@
         <v>202</v>
       </c>
       <c r="B169" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>667</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>668</v>
       </c>
       <c r="D169" s="15">
         <v>0</v>
@@ -22538,10 +22546,10 @@
         <v>9</v>
       </c>
       <c r="M169" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="N169" s="18" t="s">
         <v>669</v>
-      </c>
-      <c r="N169" s="18" t="s">
-        <v>670</v>
       </c>
       <c r="O169" s="19" t="s">
         <v>233</v>
@@ -22587,7 +22595,7 @@
       <c r="AR169" s="19"/>
       <c r="AS169" s="19"/>
       <c r="AT169" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AU169" s="19"/>
       <c r="AV169" s="19"/>
@@ -22611,10 +22619,10 @@
         <v>203</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="D170" s="6">
         <v>0</v>
@@ -22644,10 +22652,10 @@
         <v>9</v>
       </c>
       <c r="M170" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="N170" s="9" t="s">
         <v>674</v>
-      </c>
-      <c r="N170" s="9" t="s">
-        <v>675</v>
       </c>
       <c r="O170" s="10" t="s">
         <v>233</v>
@@ -22692,7 +22700,7 @@
       <c r="AQ170" s="10"/>
       <c r="AR170" s="10"/>
       <c r="AS170" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AT170" s="10"/>
       <c r="AU170" s="10"/>
@@ -22717,10 +22725,10 @@
         <v>204</v>
       </c>
       <c r="B171" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>677</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>678</v>
       </c>
       <c r="D171" s="15">
         <v>1</v>
@@ -22750,10 +22758,10 @@
         <v>9</v>
       </c>
       <c r="M171" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="N171" s="18" t="s">
         <v>679</v>
-      </c>
-      <c r="N171" s="18" t="s">
-        <v>680</v>
       </c>
       <c r="O171" s="19" t="s">
         <v>240</v>
@@ -22789,7 +22797,7 @@
       <c r="AH171" s="19"/>
       <c r="AI171" s="19"/>
       <c r="AJ171" s="19" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AK171" s="19"/>
       <c r="AL171" s="19"/>
@@ -22809,17 +22817,17 @@
       <c r="AZ171" s="19"/>
       <c r="BA171" s="19"/>
       <c r="BB171" s="46" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="BC171" s="19"/>
       <c r="BD171" s="19"/>
       <c r="BE171" s="19" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="BF171" s="19"/>
       <c r="BG171" s="19"/>
       <c r="BH171" s="19" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="BI171" s="19"/>
       <c r="BJ171" s="19"/>
@@ -22829,10 +22837,10 @@
         <v>205</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>682</v>
       </c>
       <c r="D172" s="6">
         <v>1</v>
@@ -22862,10 +22870,10 @@
         <v>9</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O172" s="10" t="s">
         <v>240</v>
@@ -22933,10 +22941,10 @@
         <v>206</v>
       </c>
       <c r="B173" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>684</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>685</v>
       </c>
       <c r="D173" s="15">
         <v>0</v>
@@ -22966,10 +22974,10 @@
         <v>10</v>
       </c>
       <c r="M173" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="N173" s="18" t="s">
         <v>686</v>
-      </c>
-      <c r="N173" s="18" t="s">
-        <v>687</v>
       </c>
       <c r="O173" s="19" t="s">
         <v>240</v>
@@ -22996,7 +23004,7 @@
       <c r="Y173" s="19"/>
       <c r="Z173" s="19"/>
       <c r="AA173" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AB173" s="19"/>
       <c r="AC173" s="19"/>
@@ -23029,7 +23037,7 @@
       <c r="BD173" s="19"/>
       <c r="BE173" s="19"/>
       <c r="BF173" s="19" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="BG173" s="19"/>
       <c r="BH173" s="19"/>
@@ -23041,10 +23049,10 @@
         <v>207</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>690</v>
       </c>
       <c r="D174" s="6">
         <v>0</v>
@@ -23074,10 +23082,10 @@
         <v>10</v>
       </c>
       <c r="M174" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="N174" s="9" t="s">
         <v>691</v>
-      </c>
-      <c r="N174" s="9" t="s">
-        <v>692</v>
       </c>
       <c r="O174" s="10" t="s">
         <v>240</v>
@@ -23104,7 +23112,7 @@
       <c r="Y174" s="10"/>
       <c r="Z174" s="10"/>
       <c r="AA174" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AB174" s="10"/>
       <c r="AC174" s="10"/>
@@ -23147,10 +23155,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>694</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>695</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -23180,10 +23188,10 @@
         <v>9</v>
       </c>
       <c r="M175" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="N175" s="18" t="s">
         <v>696</v>
-      </c>
-      <c r="N175" s="18" t="s">
-        <v>697</v>
       </c>
       <c r="O175" s="19" t="s">
         <v>240</v>
@@ -23213,7 +23221,7 @@
       <c r="AB175" s="19"/>
       <c r="AC175" s="19"/>
       <c r="AD175" s="19" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AE175" s="19"/>
       <c r="AF175" s="19"/>
@@ -23253,10 +23261,10 @@
         <v>209</v>
       </c>
       <c r="B176" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
@@ -23286,10 +23294,10 @@
         <v>50</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O176" s="10" t="s">
         <v>240</v>
@@ -23319,7 +23327,7 @@
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AE176" s="10"/>
       <c r="AF176" s="10"/>
@@ -23359,10 +23367,10 @@
         <v>210</v>
       </c>
       <c r="B177" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C177" s="15" t="s">
         <v>701</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>702</v>
       </c>
       <c r="D177" s="15">
         <v>0</v>
@@ -23392,10 +23400,10 @@
         <v>10</v>
       </c>
       <c r="M177" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="N177" s="18" t="s">
         <v>703</v>
-      </c>
-      <c r="N177" s="18" t="s">
-        <v>704</v>
       </c>
       <c r="O177" s="19" t="s">
         <v>240</v>
@@ -23463,10 +23471,10 @@
         <v>211</v>
       </c>
       <c r="B178" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>706</v>
       </c>
       <c r="D178" s="6">
         <v>0</v>
@@ -23496,10 +23504,10 @@
         <v>10</v>
       </c>
       <c r="M178" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="N178" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="N178" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="O178" s="10" t="s">
         <v>240</v>
@@ -23567,10 +23575,10 @@
         <v>212</v>
       </c>
       <c r="B179" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>709</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>710</v>
       </c>
       <c r="D179" s="15">
         <v>0</v>
@@ -23600,10 +23608,10 @@
         <v>50</v>
       </c>
       <c r="M179" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="N179" s="18" t="s">
         <v>711</v>
-      </c>
-      <c r="N179" s="18" t="s">
-        <v>712</v>
       </c>
       <c r="O179" s="19" t="s">
         <v>240</v>
@@ -23671,10 +23679,10 @@
         <v>213</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>713</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>714</v>
       </c>
       <c r="D180" s="6">
         <v>0</v>
@@ -23704,10 +23712,10 @@
         <v>50</v>
       </c>
       <c r="M180" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N180" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O180" s="10" t="s">
         <v>240</v>
@@ -23775,10 +23783,10 @@
         <v>214</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -23808,10 +23816,10 @@
         <v>50</v>
       </c>
       <c r="M181" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O181" s="19" t="s">
         <v>240</v>
@@ -23879,10 +23887,10 @@
         <v>215</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>718</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>719</v>
       </c>
       <c r="D182" s="6">
         <v>1</v>
@@ -23912,10 +23920,10 @@
         <v>8</v>
       </c>
       <c r="M182" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="N182" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="N182" s="9" t="s">
-        <v>721</v>
       </c>
       <c r="O182" s="10" t="s">
         <v>261</v>
@@ -23956,7 +23964,7 @@
       <c r="AM182" s="10"/>
       <c r="AN182" s="10"/>
       <c r="AO182" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AP182" s="10"/>
       <c r="AQ182" s="10"/>
@@ -23985,10 +23993,10 @@
         <v>217</v>
       </c>
       <c r="B183" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>723</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>724</v>
       </c>
       <c r="D183" s="15">
         <v>0</v>
@@ -24018,10 +24026,10 @@
         <v>8</v>
       </c>
       <c r="M183" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="N183" s="18" t="s">
         <v>725</v>
-      </c>
-      <c r="N183" s="18" t="s">
-        <v>726</v>
       </c>
       <c r="O183" s="19" t="s">
         <v>261</v>
@@ -24089,10 +24097,10 @@
         <v>218</v>
       </c>
       <c r="B184" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>727</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="D184" s="6">
         <v>0</v>
@@ -24122,10 +24130,10 @@
         <v>46</v>
       </c>
       <c r="M184" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="N184" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="N184" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="O184" s="10" t="s">
         <v>42</v>
@@ -24193,10 +24201,10 @@
         <v>220</v>
       </c>
       <c r="B185" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>731</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>732</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -24226,10 +24234,10 @@
         <v>9</v>
       </c>
       <c r="M185" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="N185" s="18" t="s">
         <v>733</v>
-      </c>
-      <c r="N185" s="18" t="s">
-        <v>734</v>
       </c>
       <c r="O185" s="19" t="s">
         <v>42</v>
@@ -24274,7 +24282,7 @@
       <c r="AQ185" s="19"/>
       <c r="AR185" s="19"/>
       <c r="AS185" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AT185" s="19"/>
       <c r="AU185" s="19"/>
@@ -24299,10 +24307,10 @@
         <v>221</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D186" s="6">
         <v>0</v>
@@ -24332,10 +24340,10 @@
         <v>9</v>
       </c>
       <c r="M186" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="N186" s="9" t="s">
         <v>737</v>
-      </c>
-      <c r="N186" s="9" t="s">
-        <v>738</v>
       </c>
       <c r="O186" s="10" t="s">
         <v>42</v>
@@ -24380,7 +24388,7 @@
       <c r="AQ186" s="10"/>
       <c r="AR186" s="10"/>
       <c r="AS186" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AT186" s="10"/>
       <c r="AU186" s="10"/>
@@ -24405,10 +24413,10 @@
         <v>222</v>
       </c>
       <c r="B187" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>740</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>741</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -24438,10 +24446,10 @@
         <v>46</v>
       </c>
       <c r="M187" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="N187" s="18" t="s">
         <v>742</v>
-      </c>
-      <c r="N187" s="18" t="s">
-        <v>743</v>
       </c>
       <c r="O187" s="19" t="s">
         <v>42</v>
@@ -24482,7 +24490,7 @@
       <c r="AM187" s="19"/>
       <c r="AN187" s="19"/>
       <c r="AO187" s="19" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AP187" s="19"/>
       <c r="AQ187" s="19"/>
@@ -24511,10 +24519,10 @@
         <v>223</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D188" s="6">
         <v>1</v>
@@ -24544,10 +24552,10 @@
         <v>9</v>
       </c>
       <c r="M188" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="N188" s="9" t="s">
         <v>745</v>
-      </c>
-      <c r="N188" s="9" t="s">
-        <v>746</v>
       </c>
       <c r="O188" s="10" t="s">
         <v>42</v>
@@ -24574,7 +24582,7 @@
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
       <c r="AA188" s="10" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AB188" s="10"/>
       <c r="AC188" s="10"/>
@@ -24594,7 +24602,7 @@
       <c r="AQ188" s="10"/>
       <c r="AR188" s="10"/>
       <c r="AS188" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AT188" s="10"/>
       <c r="AU188" s="10"/>
@@ -24619,10 +24627,10 @@
         <v>224</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -24652,10 +24660,10 @@
         <v>9</v>
       </c>
       <c r="M189" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="N189" s="18" t="s">
         <v>749</v>
-      </c>
-      <c r="N189" s="18" t="s">
-        <v>750</v>
       </c>
       <c r="O189" s="19" t="s">
         <v>42</v>
@@ -24676,7 +24684,7 @@
         <v>5</v>
       </c>
       <c r="U189" s="19" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="V189" s="19"/>
       <c r="W189" s="19"/>
@@ -24692,7 +24700,7 @@
       <c r="AG189" s="19"/>
       <c r="AH189" s="19"/>
       <c r="AI189" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AJ189" s="19"/>
       <c r="AK189" s="19"/>
@@ -24706,7 +24714,7 @@
       <c r="AS189" s="19"/>
       <c r="AT189" s="19"/>
       <c r="AU189" s="19" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AV189" s="19"/>
       <c r="AW189" s="19"/>
@@ -24729,10 +24737,10 @@
         <v>225</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="D190" s="6">
         <v>0</v>
@@ -24762,10 +24770,10 @@
         <v>9</v>
       </c>
       <c r="M190" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="N190" s="9" t="s">
         <v>754</v>
-      </c>
-      <c r="N190" s="9" t="s">
-        <v>755</v>
       </c>
       <c r="O190" s="10" t="s">
         <v>42</v>
@@ -24833,10 +24841,10 @@
         <v>226</v>
       </c>
       <c r="B191" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>756</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>757</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -24866,10 +24874,10 @@
         <v>9</v>
       </c>
       <c r="M191" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="N191" s="18" t="s">
         <v>758</v>
-      </c>
-      <c r="N191" s="18" t="s">
-        <v>759</v>
       </c>
       <c r="O191" s="19" t="s">
         <v>42</v>
@@ -24937,10 +24945,10 @@
         <v>227</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="D192" s="6">
         <v>0</v>
@@ -24962,10 +24970,10 @@
         <v>50</v>
       </c>
       <c r="M192" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="N192" s="9" t="s">
         <v>762</v>
-      </c>
-      <c r="N192" s="9" t="s">
-        <v>763</v>
       </c>
       <c r="O192" s="10" t="s">
         <v>42</v>
@@ -25033,10 +25041,10 @@
         <v>228</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -25066,10 +25074,10 @@
         <v>9</v>
       </c>
       <c r="M193" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="N193" s="18" t="s">
         <v>765</v>
-      </c>
-      <c r="N193" s="18" t="s">
-        <v>766</v>
       </c>
       <c r="O193" s="19" t="s">
         <v>42</v>
@@ -25137,10 +25145,10 @@
         <v>230</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>768</v>
       </c>
       <c r="D194" s="6">
         <v>1</v>
@@ -25170,10 +25178,10 @@
         <v>9</v>
       </c>
       <c r="M194" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="N194" s="9" t="s">
         <v>769</v>
-      </c>
-      <c r="N194" s="9" t="s">
-        <v>770</v>
       </c>
       <c r="O194" s="10" t="s">
         <v>240</v>
@@ -25182,7 +25190,7 @@
         <v>5</v>
       </c>
       <c r="Q194" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R194" s="12" t="s">
         <v>44</v>
@@ -25218,7 +25226,7 @@
       <c r="AQ194" s="10"/>
       <c r="AR194" s="10"/>
       <c r="AS194" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AT194" s="10"/>
       <c r="AU194" s="10"/>
@@ -25233,7 +25241,7 @@
       <c r="BD194" s="10"/>
       <c r="BE194" s="10"/>
       <c r="BF194" s="10" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="BG194" s="10"/>
       <c r="BH194" s="10"/>
@@ -25245,10 +25253,10 @@
         <v>231</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>773</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>774</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -25278,10 +25286,10 @@
         <v>8</v>
       </c>
       <c r="M195" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N195" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O195" s="19" t="s">
         <v>240</v>
@@ -25290,7 +25298,7 @@
         <v>5</v>
       </c>
       <c r="Q195" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R195" s="21" t="s">
         <v>44</v>
@@ -25349,10 +25357,10 @@
         <v>232</v>
       </c>
       <c r="B196" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>776</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>777</v>
       </c>
       <c r="D196" s="6">
         <v>1</v>
@@ -25382,10 +25390,10 @@
         <v>8</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N196" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O196" s="10" t="s">
         <v>240</v>
@@ -25394,7 +25402,7 @@
         <v>5</v>
       </c>
       <c r="Q196" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R196" s="12" t="s">
         <v>44</v>
@@ -25453,10 +25461,10 @@
         <v>233</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>779</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>780</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -25486,10 +25494,10 @@
         <v>10</v>
       </c>
       <c r="M197" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N197" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O197" s="19" t="s">
         <v>240</v>
@@ -25498,7 +25506,7 @@
         <v>5</v>
       </c>
       <c r="Q197" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R197" s="21" t="s">
         <v>44</v>
@@ -25511,7 +25519,7 @@
       </c>
       <c r="U197" s="19"/>
       <c r="V197" s="19" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="W197" s="19"/>
       <c r="X197" s="19"/>
@@ -25520,10 +25528,10 @@
       <c r="AA197" s="19"/>
       <c r="AB197" s="19"/>
       <c r="AC197" s="19" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AD197" s="19" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AE197" s="19"/>
       <c r="AF197" s="19"/>
@@ -25548,7 +25556,7 @@
       <c r="AY197" s="19"/>
       <c r="AZ197" s="19"/>
       <c r="BA197" s="19" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="BB197" s="19"/>
       <c r="BC197" s="19"/>
@@ -25565,10 +25573,10 @@
         <v>234</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>782</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>783</v>
       </c>
       <c r="D198" s="6">
         <v>0</v>
@@ -25598,10 +25606,10 @@
         <v>8</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N198" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O198" s="10" t="s">
         <v>240</v>
@@ -25610,7 +25618,7 @@
         <v>5</v>
       </c>
       <c r="Q198" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R198" s="12" t="s">
         <v>44</v>
@@ -25669,10 +25677,10 @@
         <v>235</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>785</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>786</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -25702,10 +25710,10 @@
         <v>9</v>
       </c>
       <c r="M199" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="N199" s="18" t="s">
         <v>787</v>
-      </c>
-      <c r="N199" s="18" t="s">
-        <v>788</v>
       </c>
       <c r="O199" s="19" t="s">
         <v>240</v>
@@ -25714,7 +25722,7 @@
         <v>5</v>
       </c>
       <c r="Q199" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R199" s="21" t="s">
         <v>44</v>
@@ -25729,7 +25737,7 @@
       <c r="V199" s="19"/>
       <c r="W199" s="19"/>
       <c r="X199" s="19" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="Y199" s="19"/>
       <c r="Z199" s="19"/>
@@ -25775,10 +25783,10 @@
         <v>236</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>789</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>790</v>
       </c>
       <c r="D200" s="6">
         <v>0</v>
@@ -25808,10 +25816,10 @@
         <v>9</v>
       </c>
       <c r="M200" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N200" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O200" s="10" t="s">
         <v>240</v>
@@ -25820,7 +25828,7 @@
         <v>5</v>
       </c>
       <c r="Q200" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R200" s="12" t="s">
         <v>44</v>
@@ -25856,7 +25864,7 @@
       <c r="AQ200" s="10"/>
       <c r="AR200" s="10"/>
       <c r="AS200" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AT200" s="10"/>
       <c r="AU200" s="10"/>
@@ -25881,10 +25889,10 @@
         <v>238</v>
       </c>
       <c r="B201" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>793</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>794</v>
       </c>
       <c r="D201" s="15">
         <v>0</v>
@@ -25914,10 +25922,10 @@
         <v>8</v>
       </c>
       <c r="M201" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N201" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O201" s="19" t="s">
         <v>240</v>
@@ -25926,7 +25934,7 @@
         <v>5</v>
       </c>
       <c r="Q201" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R201" s="21" t="s">
         <v>44</v>
@@ -25985,10 +25993,10 @@
         <v>239</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C202" s="30" t="s">
         <v>796</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>797</v>
       </c>
       <c r="D202" s="6">
         <v>0</v>
@@ -26018,10 +26026,10 @@
         <v>8</v>
       </c>
       <c r="M202" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N202" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O202" s="10" t="s">
         <v>240</v>
@@ -26030,7 +26038,7 @@
         <v>5</v>
       </c>
       <c r="Q202" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R202" s="12" t="s">
         <v>44</v>
@@ -26089,10 +26097,10 @@
         <v>244</v>
       </c>
       <c r="B203" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>799</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>800</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -26122,10 +26130,10 @@
         <v>50</v>
       </c>
       <c r="M203" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="N203" s="18" t="s">
         <v>801</v>
-      </c>
-      <c r="N203" s="18" t="s">
-        <v>802</v>
       </c>
       <c r="O203" s="19" t="s">
         <v>240</v>
@@ -26162,7 +26170,7 @@
       <c r="AI203" s="19"/>
       <c r="AJ203" s="19"/>
       <c r="AK203" s="19" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AL203" s="19"/>
       <c r="AM203" s="19"/>
@@ -26195,10 +26203,10 @@
         <v>245</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>803</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>804</v>
       </c>
       <c r="D204" s="6">
         <v>1</v>
@@ -26228,10 +26236,10 @@
         <v>50</v>
       </c>
       <c r="M204" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="N204" s="9" t="s">
         <v>805</v>
-      </c>
-      <c r="N204" s="9" t="s">
-        <v>806</v>
       </c>
       <c r="O204" s="10" t="s">
         <v>240</v>
@@ -26276,7 +26284,7 @@
       <c r="AQ204" s="10"/>
       <c r="AR204" s="10"/>
       <c r="AS204" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AT204" s="10"/>
       <c r="AU204" s="10"/>
@@ -26301,10 +26309,10 @@
         <v>246</v>
       </c>
       <c r="B205" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>808</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>809</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -26334,10 +26342,10 @@
         <v>9</v>
       </c>
       <c r="M205" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N205" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O205" s="19" t="s">
         <v>240</v>
@@ -26405,10 +26413,10 @@
         <v>247</v>
       </c>
       <c r="B206" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="D206" s="6">
         <v>1</v>
@@ -26438,10 +26446,10 @@
         <v>9</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N206" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O206" s="10" t="s">
         <v>240</v>
@@ -26509,10 +26517,10 @@
         <v>248</v>
       </c>
       <c r="B207" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>814</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>815</v>
       </c>
       <c r="D207" s="15">
         <v>1</v>
@@ -26542,10 +26550,10 @@
         <v>9</v>
       </c>
       <c r="M207" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N207" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O207" s="19" t="s">
         <v>240</v>
@@ -26613,10 +26621,10 @@
         <v>249</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D208" s="6">
         <v>1</v>
@@ -26646,10 +26654,10 @@
         <v>50</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N208" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O208" s="10" t="s">
         <v>240</v>
@@ -26717,10 +26725,10 @@
         <v>250</v>
       </c>
       <c r="B209" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="C209" s="15" t="s">
         <v>819</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>820</v>
       </c>
       <c r="D209" s="15">
         <v>0</v>
@@ -26750,10 +26758,10 @@
         <v>9</v>
       </c>
       <c r="M209" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="N209" s="18" t="s">
         <v>821</v>
-      </c>
-      <c r="N209" s="18" t="s">
-        <v>822</v>
       </c>
       <c r="O209" s="19" t="s">
         <v>240</v>
@@ -26762,7 +26770,7 @@
         <v>5</v>
       </c>
       <c r="Q209" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R209" s="21" t="s">
         <v>44</v>
@@ -26798,7 +26806,7 @@
       <c r="AQ209" s="19"/>
       <c r="AR209" s="19"/>
       <c r="AS209" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AT209" s="19"/>
       <c r="AU209" s="19"/>
@@ -26823,10 +26831,10 @@
         <v>251</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D210" s="6">
         <v>0</v>
@@ -26856,10 +26864,10 @@
         <v>9</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N210" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O210" s="10" t="s">
         <v>240</v>
@@ -26868,7 +26876,7 @@
         <v>5</v>
       </c>
       <c r="Q210" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R210" s="12" t="s">
         <v>44</v>
@@ -26904,7 +26912,7 @@
       <c r="AQ210" s="10"/>
       <c r="AR210" s="10"/>
       <c r="AS210" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AT210" s="10"/>
       <c r="AU210" s="10"/>
@@ -26929,10 +26937,10 @@
         <v>252</v>
       </c>
       <c r="B211" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>827</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>828</v>
       </c>
       <c r="D211" s="15">
         <v>0</v>
@@ -26962,10 +26970,10 @@
         <v>9</v>
       </c>
       <c r="M211" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N211" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O211" s="19" t="s">
         <v>240</v>
@@ -26974,7 +26982,7 @@
         <v>5</v>
       </c>
       <c r="Q211" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R211" s="21" t="s">
         <v>44</v>
@@ -27017,7 +27025,7 @@
       <c r="AX211" s="19"/>
       <c r="AY211" s="19"/>
       <c r="AZ211" s="19" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="BA211" s="19"/>
       <c r="BB211" s="19"/>
@@ -27035,10 +27043,10 @@
         <v>253</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D212" s="6">
         <v>0</v>
@@ -27068,10 +27076,10 @@
         <v>9</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N212" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O212" s="10" t="s">
         <v>240</v>
@@ -27080,7 +27088,7 @@
         <v>5</v>
       </c>
       <c r="Q212" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R212" s="12" t="s">
         <v>44</v>
@@ -27139,10 +27147,10 @@
         <v>254</v>
       </c>
       <c r="B213" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>832</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>833</v>
       </c>
       <c r="D213" s="15">
         <v>0</v>
@@ -27172,10 +27180,10 @@
         <v>9</v>
       </c>
       <c r="M213" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N213" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O213" s="19" t="s">
         <v>240</v>
@@ -27184,7 +27192,7 @@
         <v>5</v>
       </c>
       <c r="Q213" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R213" s="21" t="s">
         <v>44</v>
@@ -27227,7 +27235,7 @@
       <c r="AX213" s="19"/>
       <c r="AY213" s="19"/>
       <c r="AZ213" s="19" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="BA213" s="19"/>
       <c r="BB213" s="19"/>
@@ -27245,10 +27253,10 @@
         <v>256</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D214" s="6">
         <v>1</v>
@@ -27278,10 +27286,10 @@
         <v>9</v>
       </c>
       <c r="M214" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="N214" s="9" t="s">
         <v>836</v>
-      </c>
-      <c r="N214" s="9" t="s">
-        <v>837</v>
       </c>
       <c r="O214" s="10" t="s">
         <v>240</v>
@@ -27290,7 +27298,7 @@
         <v>5</v>
       </c>
       <c r="Q214" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R214" s="12" t="s">
         <v>44</v>
@@ -27308,7 +27316,7 @@
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
       <c r="AA214" s="10" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AB214" s="10"/>
       <c r="AC214" s="10"/>
@@ -27351,10 +27359,10 @@
         <v>257</v>
       </c>
       <c r="B215" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>838</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>839</v>
       </c>
       <c r="D215" s="15">
         <v>1</v>
@@ -27384,10 +27392,10 @@
         <v>46</v>
       </c>
       <c r="M215" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N215" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O215" s="19" t="s">
         <v>240</v>
@@ -27396,7 +27404,7 @@
         <v>5</v>
       </c>
       <c r="Q215" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R215" s="21" t="s">
         <v>44</v>
@@ -27414,11 +27422,11 @@
       <c r="Y215" s="19"/>
       <c r="Z215" s="19"/>
       <c r="AA215" s="19" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AB215" s="19"/>
       <c r="AC215" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AD215" s="19"/>
       <c r="AE215" s="19"/>
@@ -27459,10 +27467,10 @@
         <v>258</v>
       </c>
       <c r="B216" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>841</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>842</v>
       </c>
       <c r="D216" s="6">
         <v>0</v>
@@ -27492,10 +27500,10 @@
         <v>9</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="O216" s="10" t="s">
         <v>240</v>
@@ -27504,7 +27512,7 @@
         <v>5</v>
       </c>
       <c r="Q216" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R216" s="12" t="s">
         <v>44</v>
@@ -27563,10 +27571,10 @@
         <v>259</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D217" s="15">
         <v>1</v>
@@ -27596,10 +27604,10 @@
         <v>10</v>
       </c>
       <c r="M217" s="43" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N217" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O217" s="19" t="s">
         <v>240</v>
@@ -27608,7 +27616,7 @@
         <v>5</v>
       </c>
       <c r="Q217" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R217" s="21" t="s">
         <v>44</v>
@@ -27628,7 +27636,7 @@
       <c r="AA217" s="19"/>
       <c r="AB217" s="19"/>
       <c r="AC217" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AD217" s="19"/>
       <c r="AE217" s="19"/>
@@ -27647,7 +27655,7 @@
       <c r="AR217" s="19"/>
       <c r="AS217" s="19"/>
       <c r="AT217" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AU217" s="19"/>
       <c r="AV217" s="19"/>
@@ -27671,10 +27679,10 @@
         <v>261</v>
       </c>
       <c r="B218" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>848</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>849</v>
       </c>
       <c r="D218" s="6">
         <v>0</v>
@@ -27704,10 +27712,10 @@
         <v>10</v>
       </c>
       <c r="M218" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="N218" s="9" t="s">
         <v>850</v>
-      </c>
-      <c r="N218" s="9" t="s">
-        <v>851</v>
       </c>
       <c r="O218" s="10" t="s">
         <v>240</v>
@@ -27736,7 +27744,7 @@
       <c r="AA218" s="10"/>
       <c r="AB218" s="10"/>
       <c r="AC218" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AD218" s="10"/>
       <c r="AE218" s="10"/>
@@ -27777,10 +27785,10 @@
         <v>262</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D219" s="15">
         <v>1</v>
@@ -27810,10 +27818,10 @@
         <v>9</v>
       </c>
       <c r="M219" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N219" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O219" s="19" t="s">
         <v>240</v>
@@ -27881,10 +27889,10 @@
         <v>263</v>
       </c>
       <c r="B220" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>856</v>
       </c>
       <c r="D220" s="6">
         <v>1</v>
@@ -27914,10 +27922,10 @@
         <v>46</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O220" s="10" t="s">
         <v>240</v>
@@ -27939,14 +27947,14 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="W220" s="10"/>
       <c r="X220" s="10"/>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
@@ -27957,7 +27965,7 @@
       <c r="AH220" s="10"/>
       <c r="AI220" s="10"/>
       <c r="AJ220" s="10" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
@@ -27977,10 +27985,10 @@
       <c r="AZ220" s="10"/>
       <c r="BA220" s="10"/>
       <c r="BB220" s="45" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="BC220" s="45" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="BD220" s="10"/>
       <c r="BE220" s="10"/>
@@ -27995,10 +28003,10 @@
         <v>264</v>
       </c>
       <c r="B221" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="C221" s="15" t="s">
         <v>858</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>859</v>
       </c>
       <c r="D221" s="15">
         <v>1</v>
@@ -28028,10 +28036,10 @@
         <v>9</v>
       </c>
       <c r="M221" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="N221" s="18" t="s">
         <v>860</v>
-      </c>
-      <c r="N221" s="18" t="s">
-        <v>861</v>
       </c>
       <c r="O221" s="19" t="s">
         <v>240</v>
@@ -28068,7 +28076,7 @@
       <c r="AI221" s="19"/>
       <c r="AJ221" s="19"/>
       <c r="AK221" s="19" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AL221" s="19"/>
       <c r="AM221" s="19"/>
@@ -28101,10 +28109,10 @@
         <v>265</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D222" s="6">
         <v>1</v>
@@ -28134,10 +28142,10 @@
         <v>9</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O222" s="10" t="s">
         <v>240</v>
@@ -28205,10 +28213,10 @@
         <v>266</v>
       </c>
       <c r="B223" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="C223" s="15" t="s">
         <v>864</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>865</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -28238,10 +28246,10 @@
         <v>9</v>
       </c>
       <c r="M223" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N223" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O223" s="19" t="s">
         <v>240</v>
@@ -28265,7 +28273,7 @@
       <c r="V223" s="19"/>
       <c r="W223" s="19"/>
       <c r="X223" s="19" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="Y223" s="19"/>
       <c r="Z223" s="19"/>
@@ -28280,7 +28288,7 @@
       <c r="AI223" s="19"/>
       <c r="AJ223" s="19"/>
       <c r="AK223" s="19" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="AL223" s="19"/>
       <c r="AM223" s="19"/>
@@ -28290,7 +28298,7 @@
       <c r="AQ223" s="19"/>
       <c r="AR223" s="19"/>
       <c r="AS223" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AT223" s="19"/>
       <c r="AU223" s="19"/>
@@ -28315,10 +28323,10 @@
         <v>267</v>
       </c>
       <c r="B224" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>868</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>869</v>
       </c>
       <c r="D224" s="6">
         <v>0</v>
@@ -28348,10 +28356,10 @@
         <v>8</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N224" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O224" s="10" t="s">
         <v>240</v>
@@ -28419,10 +28427,10 @@
         <v>268</v>
       </c>
       <c r="B225" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="C225" s="15" t="s">
         <v>871</v>
-      </c>
-      <c r="C225" s="15" t="s">
-        <v>872</v>
       </c>
       <c r="D225" s="15">
         <v>0</v>
@@ -28452,10 +28460,10 @@
         <v>46</v>
       </c>
       <c r="M225" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N225" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O225" s="19" t="s">
         <v>240</v>
@@ -28500,7 +28508,7 @@
       <c r="AQ225" s="19"/>
       <c r="AR225" s="19"/>
       <c r="AS225" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AT225" s="19"/>
       <c r="AU225" s="19"/>
@@ -28525,10 +28533,10 @@
         <v>269</v>
       </c>
       <c r="B226" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>875</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>876</v>
       </c>
       <c r="D226" s="6">
         <v>1</v>
@@ -28558,10 +28566,10 @@
         <v>9</v>
       </c>
       <c r="M226" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="N226" s="9" t="s">
         <v>877</v>
-      </c>
-      <c r="N226" s="9" t="s">
-        <v>878</v>
       </c>
       <c r="O226" s="10" t="s">
         <v>240</v>
@@ -28570,7 +28578,7 @@
         <v>5</v>
       </c>
       <c r="Q226" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R226" s="12" t="s">
         <v>44</v>
@@ -28583,7 +28591,7 @@
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="W226" s="10"/>
       <c r="X226" s="10"/>
@@ -28593,17 +28601,17 @@
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AE226" s="10"/>
       <c r="AF226" s="10"/>
       <c r="AG226" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AH226" s="10"/>
       <c r="AI226" s="10"/>
       <c r="AJ226" s="10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="AK226" s="10"/>
       <c r="AL226" s="10"/>
@@ -28637,10 +28645,10 @@
         <v>270</v>
       </c>
       <c r="B227" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="C227" s="15" t="s">
         <v>880</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>881</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -28670,10 +28678,10 @@
         <v>9</v>
       </c>
       <c r="M227" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N227" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="O227" s="19" t="s">
         <v>240</v>
@@ -28682,7 +28690,7 @@
         <v>5</v>
       </c>
       <c r="Q227" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R227" s="21" t="s">
         <v>44</v>
@@ -28727,7 +28735,7 @@
       <c r="AZ227" s="19"/>
       <c r="BA227" s="19"/>
       <c r="BB227" s="46" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="BC227" s="19"/>
       <c r="BD227" s="19"/>
@@ -28743,10 +28751,10 @@
         <v>272</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D228" s="6">
         <v>1</v>
@@ -28776,10 +28784,10 @@
         <v>10</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O228" s="10" t="s">
         <v>240</v>
@@ -28788,7 +28796,7 @@
         <v>5</v>
       </c>
       <c r="Q228" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R228" s="12" t="s">
         <v>44</v>
@@ -28809,7 +28817,7 @@
       <c r="AB228" s="10"/>
       <c r="AC228" s="10"/>
       <c r="AD228" s="10" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AE228" s="10"/>
       <c r="AF228" s="10"/>
@@ -28835,7 +28843,7 @@
       <c r="AZ228" s="10"/>
       <c r="BA228" s="10"/>
       <c r="BB228" s="46" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="BC228" s="10"/>
       <c r="BD228" s="10"/>
@@ -28851,10 +28859,10 @@
         <v>273</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -28884,10 +28892,10 @@
         <v>9</v>
       </c>
       <c r="M229" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N229" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O229" s="19" t="s">
         <v>240</v>
@@ -28896,7 +28904,7 @@
         <v>5</v>
       </c>
       <c r="Q229" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R229" s="21" t="s">
         <v>44</v>
@@ -28923,7 +28931,7 @@
       <c r="AH229" s="19"/>
       <c r="AI229" s="19"/>
       <c r="AJ229" s="19" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AK229" s="19"/>
       <c r="AL229" s="19"/>
@@ -28943,7 +28951,7 @@
       <c r="AZ229" s="19"/>
       <c r="BA229" s="19"/>
       <c r="BB229" s="46" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="BC229" s="19"/>
       <c r="BD229" s="19"/>
@@ -28959,10 +28967,10 @@
         <v>274</v>
       </c>
       <c r="B230" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>887</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>888</v>
       </c>
       <c r="D230" s="6">
         <v>1</v>
@@ -28992,10 +29000,10 @@
         <v>50</v>
       </c>
       <c r="M230" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="N230" s="9" t="s">
         <v>889</v>
-      </c>
-      <c r="N230" s="9" t="s">
-        <v>890</v>
       </c>
       <c r="O230" s="10" t="s">
         <v>240</v>
@@ -29004,7 +29012,7 @@
         <v>10</v>
       </c>
       <c r="Q230" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R230" s="12" t="s">
         <v>44</v>
@@ -29063,10 +29071,10 @@
         <v>275</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D231" s="15">
         <v>0</v>
@@ -29096,10 +29104,10 @@
         <v>9</v>
       </c>
       <c r="M231" s="17" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="N231" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O231" s="19" t="s">
         <v>240</v>
@@ -29108,7 +29116,7 @@
         <v>5</v>
       </c>
       <c r="Q231" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R231" s="21" t="s">
         <v>44</v>
@@ -29151,7 +29159,7 @@
       <c r="AX231" s="19"/>
       <c r="AY231" s="19"/>
       <c r="AZ231" s="19" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="BA231" s="19"/>
       <c r="BB231" s="19"/>
@@ -29169,10 +29177,10 @@
         <v>276</v>
       </c>
       <c r="B232" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>893</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>894</v>
       </c>
       <c r="D232" s="6">
         <v>0</v>
@@ -29202,10 +29210,10 @@
         <v>9</v>
       </c>
       <c r="M232" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O232" s="10" t="s">
         <v>240</v>
@@ -29214,7 +29222,7 @@
         <v>5</v>
       </c>
       <c r="Q232" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R232" s="12" t="s">
         <v>44</v>
@@ -29273,10 +29281,10 @@
         <v>277</v>
       </c>
       <c r="B233" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="C233" s="15" t="s">
         <v>896</v>
-      </c>
-      <c r="C233" s="15" t="s">
-        <v>897</v>
       </c>
       <c r="D233" s="15">
         <v>0</v>
@@ -29306,10 +29314,10 @@
         <v>50</v>
       </c>
       <c r="M233" s="17" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="N233" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O233" s="19" t="s">
         <v>240</v>
@@ -29318,7 +29326,7 @@
         <v>10</v>
       </c>
       <c r="Q233" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R233" s="21" t="s">
         <v>44</v>
@@ -29361,7 +29369,7 @@
       <c r="AX233" s="19"/>
       <c r="AY233" s="19"/>
       <c r="AZ233" s="19" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="BA233" s="19"/>
       <c r="BB233" s="19"/>
@@ -29379,10 +29387,10 @@
         <v>279</v>
       </c>
       <c r="B234" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>899</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>900</v>
       </c>
       <c r="D234" s="6">
         <v>0</v>
@@ -29412,10 +29420,10 @@
         <v>46</v>
       </c>
       <c r="M234" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="N234" s="9" t="s">
         <v>901</v>
-      </c>
-      <c r="N234" s="9" t="s">
-        <v>902</v>
       </c>
       <c r="O234" s="10" t="s">
         <v>240</v>
@@ -29460,7 +29468,7 @@
       <c r="AQ234" s="10"/>
       <c r="AR234" s="10"/>
       <c r="AS234" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AT234" s="10"/>
       <c r="AU234" s="10"/>
@@ -29485,10 +29493,10 @@
         <v>281</v>
       </c>
       <c r="B235" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="C235" s="15" t="s">
         <v>904</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>905</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -29518,10 +29526,10 @@
         <v>10</v>
       </c>
       <c r="M235" s="17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O235" s="19" t="s">
         <v>240</v>
@@ -29543,7 +29551,7 @@
       </c>
       <c r="U235" s="19"/>
       <c r="V235" s="19" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="W235" s="19"/>
       <c r="X235" s="19"/>
@@ -29568,7 +29576,7 @@
       <c r="AQ235" s="19"/>
       <c r="AR235" s="19"/>
       <c r="AS235" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AT235" s="19"/>
       <c r="AU235" s="19"/>
@@ -29593,10 +29601,10 @@
         <v>282</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D236" s="6">
         <v>0</v>
@@ -29626,10 +29634,10 @@
         <v>8</v>
       </c>
       <c r="M236" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="N236" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O236" s="10" t="s">
         <v>240</v>
@@ -29676,7 +29684,7 @@
       <c r="AS236" s="10"/>
       <c r="AT236" s="10"/>
       <c r="AU236" s="10" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
@@ -29699,10 +29707,10 @@
         <v>283</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D237" s="15">
         <v>0</v>
@@ -29732,10 +29740,10 @@
         <v>46</v>
       </c>
       <c r="M237" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="N237" s="18" t="s">
         <v>911</v>
-      </c>
-      <c r="N237" s="18" t="s">
-        <v>912</v>
       </c>
       <c r="O237" s="19" t="s">
         <v>240</v>
@@ -29803,10 +29811,10 @@
         <v>284</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D238" s="6">
         <v>1</v>
@@ -29836,10 +29844,10 @@
         <v>46</v>
       </c>
       <c r="M238" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N238" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O238" s="10" t="s">
         <v>240</v>
@@ -29907,10 +29915,10 @@
         <v>285</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -29940,10 +29948,10 @@
         <v>10</v>
       </c>
       <c r="M239" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N239" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O239" s="19" t="s">
         <v>240</v>
@@ -29973,7 +29981,7 @@
       <c r="AB239" s="19"/>
       <c r="AC239" s="19"/>
       <c r="AD239" s="19" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AE239" s="19"/>
       <c r="AF239" s="19"/>
@@ -29999,7 +30007,7 @@
       <c r="AZ239" s="19"/>
       <c r="BA239" s="19"/>
       <c r="BB239" s="45" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="BC239" s="19"/>
       <c r="BD239" s="19"/>
@@ -30015,10 +30023,10 @@
         <v>286</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D240" s="6">
         <v>1</v>
@@ -30048,10 +30056,10 @@
         <v>50</v>
       </c>
       <c r="M240" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N240" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O240" s="10" t="s">
         <v>240</v>
@@ -30081,7 +30089,7 @@
       <c r="AB240" s="10"/>
       <c r="AC240" s="10"/>
       <c r="AD240" s="10" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AE240" s="10"/>
       <c r="AF240" s="10"/>
@@ -30121,10 +30129,10 @@
         <v>287</v>
       </c>
       <c r="B241" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="C241" s="15" t="s">
         <v>919</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>920</v>
       </c>
       <c r="D241" s="15">
         <v>1</v>
@@ -30154,10 +30162,10 @@
         <v>46</v>
       </c>
       <c r="M241" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N241" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O241" s="19" t="s">
         <v>240</v>
@@ -30198,7 +30206,7 @@
       <c r="AM241" s="19"/>
       <c r="AN241" s="19"/>
       <c r="AO241" s="19" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AP241" s="19"/>
       <c r="AQ241" s="19"/>
@@ -30227,10 +30235,10 @@
         <v>288</v>
       </c>
       <c r="B242" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>922</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>923</v>
       </c>
       <c r="D242" s="6">
         <v>1</v>
@@ -30260,10 +30268,10 @@
         <v>50</v>
       </c>
       <c r="M242" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="N242" s="9" t="s">
         <v>924</v>
-      </c>
-      <c r="N242" s="9" t="s">
-        <v>925</v>
       </c>
       <c r="O242" s="10" t="s">
         <v>240</v>
@@ -30331,10 +30339,10 @@
         <v>289</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D243" s="15">
         <v>1</v>
@@ -30364,10 +30372,10 @@
         <v>8</v>
       </c>
       <c r="M243" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N243" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O243" s="19" t="s">
         <v>240</v>
@@ -30412,7 +30420,7 @@
       <c r="AQ243" s="19"/>
       <c r="AR243" s="19"/>
       <c r="AS243" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AT243" s="19"/>
       <c r="AU243" s="19"/>
@@ -30437,10 +30445,10 @@
         <v>290</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D244" s="6">
         <v>1</v>
@@ -30470,10 +30478,10 @@
         <v>8</v>
       </c>
       <c r="M244" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N244" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="O244" s="10" t="s">
         <v>240</v>
@@ -30501,10 +30509,10 @@
       <c r="Z244" s="10"/>
       <c r="AA244" s="10"/>
       <c r="AB244" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="AC244" s="10" t="s">
         <v>931</v>
-      </c>
-      <c r="AC244" s="10" t="s">
-        <v>932</v>
       </c>
       <c r="AD244" s="10"/>
       <c r="AE244" s="10"/>
@@ -30529,7 +30537,7 @@
       <c r="AX244" s="10"/>
       <c r="AY244" s="10"/>
       <c r="AZ244" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="BA244" s="10"/>
       <c r="BB244" s="10"/>
@@ -30547,10 +30555,10 @@
         <v>291</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D245" s="15">
         <v>0</v>
@@ -30580,10 +30588,10 @@
         <v>46</v>
       </c>
       <c r="M245" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N245" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O245" s="19" t="s">
         <v>240</v>
@@ -30651,10 +30659,10 @@
         <v>292</v>
       </c>
       <c r="B246" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>935</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>936</v>
       </c>
       <c r="D246" s="6">
         <v>1</v>
@@ -30684,10 +30692,10 @@
         <v>46</v>
       </c>
       <c r="M246" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="N246" s="9" t="s">
         <v>937</v>
-      </c>
-      <c r="N246" s="9" t="s">
-        <v>938</v>
       </c>
       <c r="O246" s="10" t="s">
         <v>240</v>
@@ -30755,10 +30763,10 @@
         <v>295</v>
       </c>
       <c r="B247" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="C247" s="15" t="s">
         <v>939</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>940</v>
       </c>
       <c r="D247" s="15">
         <v>1</v>
@@ -30788,10 +30796,10 @@
         <v>10</v>
       </c>
       <c r="M247" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N247" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O247" s="19" t="s">
         <v>240</v>
@@ -30818,7 +30826,7 @@
       <c r="Y247" s="19"/>
       <c r="Z247" s="19"/>
       <c r="AA247" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AB247" s="19"/>
       <c r="AC247" s="19"/>
@@ -30840,7 +30848,7 @@
       <c r="AS247" s="19"/>
       <c r="AT247" s="19"/>
       <c r="AU247" s="19" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AV247" s="19"/>
       <c r="AW247" s="19"/>
@@ -30863,10 +30871,10 @@
         <v>296</v>
       </c>
       <c r="B248" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>943</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>944</v>
       </c>
       <c r="D248" s="6">
         <v>0</v>
@@ -30896,10 +30904,10 @@
         <v>50</v>
       </c>
       <c r="M248" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N248" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O248" s="10" t="s">
         <v>240</v>
@@ -30967,10 +30975,10 @@
         <v>297</v>
       </c>
       <c r="B249" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="C249" s="15" t="s">
         <v>946</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>947</v>
       </c>
       <c r="D249" s="15">
         <v>0</v>
@@ -31000,10 +31008,10 @@
         <v>50</v>
       </c>
       <c r="M249" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="N249" s="18" t="s">
         <v>948</v>
-      </c>
-      <c r="N249" s="18" t="s">
-        <v>949</v>
       </c>
       <c r="O249" s="19" t="s">
         <v>240</v>
@@ -31012,7 +31020,7 @@
         <v>5</v>
       </c>
       <c r="Q249" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R249" s="21" t="s">
         <v>185</v>
@@ -31071,10 +31079,10 @@
         <v>298</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D250" s="6">
         <v>1</v>
@@ -31104,10 +31112,10 @@
         <v>10</v>
       </c>
       <c r="M250" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="N250" s="9" t="s">
         <v>951</v>
-      </c>
-      <c r="N250" s="9" t="s">
-        <v>952</v>
       </c>
       <c r="O250" s="10" t="s">
         <v>240</v>
@@ -31116,7 +31124,7 @@
         <v>5</v>
       </c>
       <c r="Q250" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R250" s="12" t="s">
         <v>185</v>
@@ -31169,7 +31177,7 @@
       <c r="BH250" s="10"/>
       <c r="BI250" s="10"/>
       <c r="BJ250" s="10" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="251" spans="1:62" ht="345" x14ac:dyDescent="0.25">
@@ -31177,10 +31185,10 @@
         <v>300</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D251" s="15">
         <v>0</v>
@@ -31210,10 +31218,10 @@
         <v>10</v>
       </c>
       <c r="M251" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N251" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O251" s="19" t="s">
         <v>240</v>
@@ -31222,7 +31230,7 @@
         <v>5</v>
       </c>
       <c r="Q251" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R251" s="21" t="s">
         <v>185</v>
@@ -31242,7 +31250,7 @@
       <c r="AA251" s="19"/>
       <c r="AB251" s="19"/>
       <c r="AC251" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AD251" s="19"/>
       <c r="AE251" s="19"/>
@@ -31283,10 +31291,10 @@
         <v>301</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>956</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>957</v>
       </c>
       <c r="D252" s="6">
         <v>0</v>
@@ -31316,10 +31324,10 @@
         <v>9</v>
       </c>
       <c r="M252" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N252" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O252" s="10" t="s">
         <v>240</v>
@@ -31328,7 +31336,7 @@
         <v>10</v>
       </c>
       <c r="Q252" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R252" s="12" t="s">
         <v>185</v>
@@ -31387,10 +31395,10 @@
         <v>304</v>
       </c>
       <c r="B253" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="C253" s="15" t="s">
         <v>959</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>960</v>
       </c>
       <c r="D253" s="15">
         <v>1</v>
@@ -31420,10 +31428,10 @@
         <v>8</v>
       </c>
       <c r="M253" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="N253" s="18" t="s">
         <v>961</v>
-      </c>
-      <c r="N253" s="18" t="s">
-        <v>962</v>
       </c>
       <c r="O253" s="19" t="s">
         <v>240</v>
@@ -31432,7 +31440,7 @@
         <v>10</v>
       </c>
       <c r="Q253" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R253" s="21" t="s">
         <v>44</v>
@@ -31491,10 +31499,10 @@
         <v>305</v>
       </c>
       <c r="B254" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>963</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>964</v>
       </c>
       <c r="D254" s="6">
         <v>1</v>
@@ -31524,10 +31532,10 @@
         <v>10</v>
       </c>
       <c r="M254" s="44" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N254" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O254" s="10" t="s">
         <v>240</v>
@@ -31536,7 +31544,7 @@
         <v>5</v>
       </c>
       <c r="Q254" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R254" s="12" t="s">
         <v>44</v>
@@ -31563,7 +31571,7 @@
       <c r="AH254" s="10"/>
       <c r="AI254" s="10"/>
       <c r="AJ254" s="10" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AK254" s="10"/>
       <c r="AL254" s="10"/>
@@ -31580,11 +31588,11 @@
       <c r="AW254" s="10"/>
       <c r="AX254" s="10"/>
       <c r="AY254" s="10" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AZ254" s="10"/>
       <c r="BA254" s="10" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="BB254" s="10"/>
       <c r="BC254" s="10"/>
@@ -31595,7 +31603,7 @@
       <c r="BH254" s="10"/>
       <c r="BI254" s="10"/>
       <c r="BJ254" s="10" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="255" spans="1:62" ht="360" x14ac:dyDescent="0.25">
@@ -31603,10 +31611,10 @@
         <v>306</v>
       </c>
       <c r="B255" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="C255" s="15" t="s">
         <v>966</v>
-      </c>
-      <c r="C255" s="15" t="s">
-        <v>967</v>
       </c>
       <c r="D255" s="15">
         <v>1</v>
@@ -31636,10 +31644,10 @@
         <v>9</v>
       </c>
       <c r="M255" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N255" s="18" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O255" s="19" t="s">
         <v>240</v>
@@ -31648,7 +31656,7 @@
         <v>5</v>
       </c>
       <c r="Q255" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R255" s="21" t="s">
         <v>44</v>
@@ -31684,7 +31692,7 @@
       <c r="AQ255" s="19"/>
       <c r="AR255" s="19"/>
       <c r="AS255" s="19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AT255" s="19"/>
       <c r="AU255" s="19"/>
@@ -31692,7 +31700,7 @@
       <c r="AW255" s="19"/>
       <c r="AX255" s="19"/>
       <c r="AY255" s="19" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AZ255" s="19"/>
       <c r="BA255" s="19"/>
@@ -31701,7 +31709,7 @@
       <c r="BD255" s="19"/>
       <c r="BE255" s="19"/>
       <c r="BF255" s="19" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="BG255" s="19"/>
       <c r="BH255" s="19"/>
@@ -31713,10 +31721,10 @@
         <v>307</v>
       </c>
       <c r="B256" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>970</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>971</v>
       </c>
       <c r="D256" s="6">
         <v>0</v>
@@ -31746,10 +31754,10 @@
         <v>50</v>
       </c>
       <c r="M256" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="N256" s="9" t="s">
         <v>972</v>
-      </c>
-      <c r="N256" s="9" t="s">
-        <v>973</v>
       </c>
       <c r="O256" s="10" t="s">
         <v>240</v>
@@ -31758,7 +31766,7 @@
         <v>5</v>
       </c>
       <c r="Q256" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R256" s="12" t="s">
         <v>185</v>
@@ -31817,10 +31825,10 @@
         <v>308</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>974</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>975</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -31850,10 +31858,10 @@
         <v>9</v>
       </c>
       <c r="M257" s="17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N257" s="18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O257" s="19" t="s">
         <v>240</v>
@@ -31862,7 +31870,7 @@
         <v>5</v>
       </c>
       <c r="Q257" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R257" s="21" t="s">
         <v>185</v>
@@ -31921,10 +31929,10 @@
         <v>309</v>
       </c>
       <c r="B258" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>977</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>978</v>
       </c>
       <c r="D258" s="6">
         <v>1</v>
@@ -31954,10 +31962,10 @@
         <v>46</v>
       </c>
       <c r="M258" s="44" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N258" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O258" s="10" t="s">
         <v>240</v>
@@ -31966,7 +31974,7 @@
         <v>5</v>
       </c>
       <c r="Q258" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R258" s="12" t="s">
         <v>185</v>
@@ -31987,7 +31995,7 @@
       <c r="AB258" s="10"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="10" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AE258" s="10"/>
       <c r="AF258" s="10"/>
@@ -32021,7 +32029,7 @@
       <c r="BH258" s="10"/>
       <c r="BI258" s="10"/>
       <c r="BJ258" s="10" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="259" spans="1:62" ht="240" x14ac:dyDescent="0.25">
@@ -32029,10 +32037,10 @@
         <v>310</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>980</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>981</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -32062,10 +32070,10 @@
         <v>50</v>
       </c>
       <c r="M259" s="17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N259" s="18" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O259" s="19" t="s">
         <v>240</v>
@@ -32074,7 +32082,7 @@
         <v>5</v>
       </c>
       <c r="Q259" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R259" s="21" t="s">
         <v>185</v>
@@ -32087,7 +32095,7 @@
       </c>
       <c r="U259" s="19"/>
       <c r="V259" s="19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="W259" s="19"/>
       <c r="X259" s="19"/>
@@ -32096,7 +32104,7 @@
       <c r="AA259" s="19"/>
       <c r="AB259" s="19"/>
       <c r="AC259" s="19" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AD259" s="19"/>
       <c r="AE259" s="19"/>
@@ -32115,7 +32123,7 @@
       <c r="AR259" s="19"/>
       <c r="AS259" s="19"/>
       <c r="AT259" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AU259" s="19"/>
       <c r="AV259" s="19"/>
@@ -32128,7 +32136,7 @@
       <c r="BC259" s="19"/>
       <c r="BD259" s="19"/>
       <c r="BE259" s="19" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="BF259" s="19"/>
       <c r="BG259" s="19"/>
@@ -32141,10 +32149,10 @@
         <v>311</v>
       </c>
       <c r="B260" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="C260" s="6" t="s">
         <v>984</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>985</v>
       </c>
       <c r="D260" s="6">
         <v>1</v>
@@ -32174,10 +32182,10 @@
         <v>46</v>
       </c>
       <c r="M260" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N260" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O260" s="10" t="s">
         <v>240</v>
@@ -32186,7 +32194,7 @@
         <v>5</v>
       </c>
       <c r="Q260" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R260" s="12" t="s">
         <v>185</v>
@@ -32245,10 +32253,10 @@
         <v>312</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -32268,10 +32276,10 @@
         <v>9</v>
       </c>
       <c r="M261" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="N261" s="18" t="s">
         <v>988</v>
-      </c>
-      <c r="N261" s="18" t="s">
-        <v>989</v>
       </c>
       <c r="O261" s="19" t="s">
         <v>42</v>
@@ -32339,10 +32347,10 @@
         <v>313</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D262" s="6">
         <v>1</v>
@@ -32362,10 +32370,10 @@
         <v>9</v>
       </c>
       <c r="M262" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N262" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O262" s="10" t="s">
         <v>42</v>
@@ -32433,10 +32441,10 @@
         <v>314</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -32456,10 +32464,10 @@
         <v>9</v>
       </c>
       <c r="M263" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N263" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O263" s="19" t="s">
         <v>42</v>
@@ -32527,10 +32535,10 @@
         <v>315</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D264" s="6">
         <v>1</v>
@@ -32550,10 +32558,10 @@
         <v>9</v>
       </c>
       <c r="M264" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N264" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O264" s="10" t="s">
         <v>42</v>
@@ -32621,10 +32629,10 @@
         <v>316</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>996</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>997</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -32644,10 +32652,10 @@
         <v>8</v>
       </c>
       <c r="M265" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="N265" s="33" t="s">
         <v>998</v>
-      </c>
-      <c r="N265" s="33" t="s">
-        <v>999</v>
       </c>
       <c r="O265" s="19" t="s">
         <v>42</v>
@@ -32683,7 +32691,7 @@
       <c r="AH265" s="19"/>
       <c r="AI265" s="19"/>
       <c r="AJ265" s="19" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="AK265" s="19"/>
       <c r="AL265" s="19"/>
@@ -32717,10 +32725,10 @@
         <v>317</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D266" s="6">
         <v>1</v>
@@ -32750,10 +32758,10 @@
         <v>9</v>
       </c>
       <c r="M266" s="8" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N266" s="34" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="O266" s="10" t="s">
         <v>240</v>
@@ -32783,7 +32791,7 @@
       <c r="AB266" s="10"/>
       <c r="AC266" s="10"/>
       <c r="AD266" s="10" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="AE266" s="10"/>
       <c r="AF266" s="10"/>
@@ -32791,7 +32799,7 @@
       <c r="AH266" s="10"/>
       <c r="AI266" s="10"/>
       <c r="AJ266" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="AK266" s="10"/>
       <c r="AL266" s="10"/>
@@ -32811,10 +32819,10 @@
       <c r="AZ266" s="10"/>
       <c r="BA266" s="10"/>
       <c r="BB266" s="46" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="BC266" s="46" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="BD266" s="10"/>
       <c r="BE266" s="10"/>
@@ -32829,10 +32837,10 @@
         <v>318</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D267" s="15">
         <v>1</v>
@@ -32862,10 +32870,10 @@
         <v>9</v>
       </c>
       <c r="M267" s="17" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N267" s="35" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="O267" s="19" t="s">
         <v>240</v>
@@ -32895,7 +32903,7 @@
       <c r="AB267" s="19"/>
       <c r="AC267" s="19"/>
       <c r="AD267" s="47" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AE267" s="19"/>
       <c r="AF267" s="19"/>
@@ -32921,10 +32929,10 @@
       <c r="AZ267" s="19"/>
       <c r="BA267" s="19"/>
       <c r="BB267" s="46" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="BC267" s="46" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="BD267" s="19"/>
       <c r="BE267" s="19"/>
@@ -32939,10 +32947,10 @@
         <v>319</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D268" s="6">
         <v>1</v>
@@ -32972,10 +32980,10 @@
         <v>9</v>
       </c>
       <c r="M268" s="8" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N268" s="34" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="O268" s="10" t="s">
         <v>240</v>
@@ -33010,7 +33018,7 @@
       <c r="AH268" s="10"/>
       <c r="AI268" s="10"/>
       <c r="AJ268" s="10" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="AK268" s="10"/>
       <c r="AL268" s="10"/>
@@ -33030,16 +33038,16 @@
       <c r="AZ268" s="10"/>
       <c r="BA268" s="10"/>
       <c r="BB268" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BC268" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BD268" s="10"/>
       <c r="BE268" s="10"/>
       <c r="BF268" s="10"/>
       <c r="BG268" s="10" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="BH268" s="10"/>
       <c r="BI268" s="10"/>
@@ -33050,10 +33058,10 @@
         <v>320</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D269" s="15">
         <v>1</v>
@@ -33083,10 +33091,10 @@
         <v>9</v>
       </c>
       <c r="M269" s="17" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N269" s="36" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="O269" s="19" t="s">
         <v>240</v>
@@ -33116,7 +33124,7 @@
       <c r="AB269" s="19"/>
       <c r="AC269" s="19"/>
       <c r="AD269" s="10" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AE269" s="19"/>
       <c r="AF269" s="19"/>
@@ -33147,7 +33155,7 @@
       <c r="BE269" s="19"/>
       <c r="BF269" s="19"/>
       <c r="BG269" s="19" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="BH269" s="19"/>
       <c r="BI269" s="19"/>
@@ -33158,10 +33166,10 @@
         <v>321</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C270" s="37" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D270" s="6">
         <v>1</v>
@@ -33189,10 +33197,10 @@
         <v>9</v>
       </c>
       <c r="M270" s="44" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="N270" s="38" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="O270" s="10" t="s">
         <v>261</v>
@@ -33260,10 +33268,10 @@
         <v>322</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D271" s="15">
         <v>1</v>
@@ -33291,10 +33299,10 @@
         <v>9</v>
       </c>
       <c r="M271" s="43" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="N271" s="39" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="O271" s="19" t="s">
         <v>261</v>
@@ -33348,7 +33356,7 @@
       <c r="AZ271" s="19"/>
       <c r="BA271" s="19"/>
       <c r="BB271" s="46" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="BC271" s="19"/>
       <c r="BD271" s="19"/>
@@ -33364,10 +33372,10 @@
         <v>323</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C272" s="37" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D272" s="6">
         <v>1</v>
@@ -33395,10 +33403,10 @@
         <v>9</v>
       </c>
       <c r="M272" s="8" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="N272" s="40" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="O272" s="10" t="s">
         <v>261</v>
@@ -33452,7 +33460,7 @@
       <c r="AZ272" s="10"/>
       <c r="BA272" s="10"/>
       <c r="BB272" s="46" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="BC272" s="10"/>
       <c r="BD272" s="10"/>
@@ -33468,10 +33476,10 @@
         <v>324</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -33491,10 +33499,10 @@
         <v>9</v>
       </c>
       <c r="M273" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="N273" s="39" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="O273" s="19" t="s">
         <v>120</v>
@@ -33540,7 +33548,7 @@
       <c r="AR273" s="19"/>
       <c r="AS273" s="19"/>
       <c r="AT273" s="19" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AU273" s="19"/>
       <c r="AV273" s="19"/>
@@ -33564,10 +33572,10 @@
         <v>325</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D274" s="6">
         <v>1</v>
@@ -33597,10 +33605,10 @@
         <v>10</v>
       </c>
       <c r="M274" s="42" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="N274" s="40" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="O274" s="10" t="s">
         <v>233</v>
@@ -33668,10 +33676,10 @@
         <v>326</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -33701,10 +33709,10 @@
         <v>10</v>
       </c>
       <c r="M275" s="43" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="N275" s="39" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="O275" s="19" t="s">
         <v>233</v>
@@ -33758,10 +33766,10 @@
       <c r="AZ275" s="19"/>
       <c r="BA275" s="19"/>
       <c r="BB275" s="45" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="BC275" s="45" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="BD275" s="19"/>
       <c r="BE275" s="19"/>
@@ -33776,10 +33784,10 @@
         <v>327</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C276" s="41" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D276" s="6">
         <v>1</v>
@@ -33809,10 +33817,10 @@
         <v>10</v>
       </c>
       <c r="M276" s="44" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="N276" s="40" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="O276" s="10" t="s">
         <v>233</v>
@@ -33871,7 +33879,7 @@
       <c r="BE276" s="10"/>
       <c r="BF276" s="10"/>
       <c r="BG276" s="10" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="BH276" s="10"/>
       <c r="BI276" s="10"/>
@@ -33882,10 +33890,10 @@
         <v>328</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D277" s="15">
         <v>1</v>
@@ -33915,10 +33923,10 @@
         <v>10</v>
       </c>
       <c r="M277" s="43" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="N277" s="39" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="O277" s="19" t="s">
         <v>233</v>
@@ -33986,10 +33994,10 @@
         <v>329</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C278" s="41" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D278" s="6">
         <v>1</v>
@@ -34009,10 +34017,10 @@
         <v>50</v>
       </c>
       <c r="M278" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="N278" s="40" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="O278" s="10" t="s">
         <v>42</v>
@@ -34048,7 +34056,7 @@
       <c r="AH278" s="10"/>
       <c r="AI278" s="10"/>
       <c r="AJ278" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="AK278" s="10"/>
       <c r="AL278" s="10"/>
@@ -34082,10 +34090,10 @@
         <v>330</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -34105,10 +34113,10 @@
         <v>46</v>
       </c>
       <c r="M279" s="17" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="N279" s="39" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="O279" s="19" t="s">
         <v>42</v>
@@ -34138,7 +34146,7 @@
       <c r="AB279" s="19"/>
       <c r="AC279" s="19"/>
       <c r="AD279" s="19" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AE279" s="19"/>
       <c r="AF279" s="19"/>
@@ -34178,10 +34186,10 @@
         <v>331</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D280" s="6">
         <v>1</v>
@@ -34211,10 +34219,10 @@
         <v>10</v>
       </c>
       <c r="M280" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="N280" s="33" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="O280" s="10" t="s">
         <v>325</v>
@@ -34269,7 +34277,7 @@
       <c r="BA280" s="10"/>
       <c r="BB280" s="10"/>
       <c r="BC280" s="45" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="BD280" s="10"/>
       <c r="BE280" s="10"/>
@@ -35335,194 +35343,194 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{DBEA4F7C-D91D-42D5-A9F0-4227546DEB86}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{F3A66462-C733-4F84-A333-650FC1E612FB}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{B52FEA71-6457-4A87-BF8A-80E66140FF33}"/>
-    <hyperlink ref="M25" r:id="rId4" xr:uid="{480CAF5D-62DF-44EB-AAD3-EF74B3FE895C}"/>
-    <hyperlink ref="M26" r:id="rId5" xr:uid="{FEE19B37-A11D-496C-A623-6C68292CCB9C}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{0E681385-F95C-4810-911F-7FE74AD9E8D4}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{676D3D64-F0A6-4287-ACAA-E782595C3698}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{93C7EFCC-7633-4CC4-A837-8DD85A7D1D94}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{D2DE797D-8392-44DF-B9E9-B5FDE0B3400D}"/>
-    <hyperlink ref="M31" r:id="rId10" xr:uid="{72694373-E913-4AEC-9120-3A2EC1FFC1FE}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{5198E5DD-71A1-4C34-8BFD-B82B1ED42720}"/>
-    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{3C511F42-B215-40C2-8EB9-2ADFCF2ED118}"/>
-    <hyperlink ref="M34" r:id="rId13" xr:uid="{102EEEAA-A270-4C95-A78C-FD770C3764F8}"/>
-    <hyperlink ref="M35" r:id="rId14" xr:uid="{7509834C-9FAD-4F34-80E9-136AB4F1F4AF}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{19391BF6-CC34-4810-9B57-CBD62C1A3F4D}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{B7778450-B94A-4197-BA3D-04A37016E0B9}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{50824BE8-C72B-4636-A111-233A98F5E317}"/>
-    <hyperlink ref="M43" r:id="rId18" xr:uid="{5F6B3BB3-B81F-4482-9980-C325DEDA28EC}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{B72C1565-3C89-4472-A085-0BCDAEB6D483}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{A004557A-E587-4187-9BF0-D622CDEA887C}"/>
-    <hyperlink ref="M55" r:id="rId21" xr:uid="{8FF51ED9-FA2B-4FA6-A24D-5E0CFD937105}"/>
-    <hyperlink ref="M56" r:id="rId22" xr:uid="{E61BE9BE-B0C8-455D-B0CE-19CF30764BCE}"/>
-    <hyperlink ref="M57" r:id="rId23" xr:uid="{09FBB6E8-32C6-4955-9C66-9C2F50EA7BC0}"/>
-    <hyperlink ref="M58" r:id="rId24" xr:uid="{821E8013-2441-4379-99E6-55AD54045AA4}"/>
-    <hyperlink ref="M59" r:id="rId25" xr:uid="{97835D4A-3995-4D79-8F23-16FA508360C5}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{E0ECF352-975A-4AFC-99E7-14CDB387116D}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{CAD25443-414B-4690-ACD3-7AEA828E99BF}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{8E078868-46B3-4FAC-877C-E3DC439D0ABE}"/>
-    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{D812DE69-5BCE-4884-B688-E4472BD3991C}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{E036E02E-496E-4E3D-943D-13460174329D}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{CCDB0056-26D3-4607-81E7-81B6C657A9B9}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{53A66DCF-7E24-41CE-981E-4A5F9C734E64}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{81209094-69CA-45E1-948E-98951156C0C4}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{0322F51A-09AA-467E-AB86-EBA4411B2B9E}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{6DB030B9-46C3-47A3-A007-1D5592BF0615}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{E372E0E1-7453-4747-B206-447876F0317F}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{D69C0178-A2C3-4ECD-B48B-564240601021}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{BB93A51B-1C89-4D54-8F8A-DAC5363F08A7}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{B130EE15-F75B-4B43-9A6F-EFB5B171D120}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{61CB2366-1D97-4265-8CA3-BBCFB930BA0B}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{217A3C3E-5D19-4B22-9F8B-7D49823E1948}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{D93122C0-CCA6-4322-8386-5B873927AEB5}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{CEDF23A8-4B8A-4411-BE55-B7C33674B6C4}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{EEF524D1-52BF-4867-9869-672E86080E9F}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{4BDA3E83-7B2E-43DE-9E7D-CB180E4D7014}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{86193B8C-B4F5-4941-92FD-90D6462FCD8B}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{22DDB77D-F378-4FBC-8760-5F5EBED0741E}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{A07D00D0-3D56-4FF9-9039-D016876E217A}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{4EAE2FC6-C5ED-4CFE-8E82-87AB0556CFE7}"/>
-    <hyperlink ref="M53" r:id="rId50" xr:uid="{94ADD7A3-AB4F-4185-8997-EF183BC6B96A}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{C82D4FAB-EF8F-4D89-A010-DD799783226C}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{2A3CAD88-87AA-4090-964F-E3C199760655}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{68A65205-8907-4744-8301-614F4D073352}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{899FF39C-EF66-47F3-BEA1-684887D5D57F}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{F2CCAE23-137A-42B0-B05C-3F1093864F51}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{90DC08B8-5119-4DBC-8212-52D31CFAF0D4}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{F7E64664-5C08-4D0F-A015-3CDBDEE7D80B}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{6AE48AEC-E413-4866-9ACE-B5C311A428CD}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{1247339C-BE81-4ACE-938F-5F98AB253FC2}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{5B12A74A-532F-4F75-A65C-A0685991EEC5}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{C9689656-A276-4293-ACFC-9FC0A89764B0}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{ABD1E07C-6693-4F3F-ABB9-AB773F485A2A}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{E32AD6C7-D078-4B31-AD5C-580CF7134451}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{A8BC9ED1-23FB-446F-AA96-DE5AA4F06FD0}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{80B27B37-D414-4AC1-B885-B51BA4F3A056}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{AC0983CE-A48E-4339-902A-EBC66CF50D79}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{22919AC1-6660-4FFA-9300-04D2433D0696}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{C3C12392-3B70-45B8-AD2E-92091B2D2797}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{6F3A89B1-380C-4B38-A1B6-6A3284939469}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{E83EC077-9396-4706-A0E8-9B4CB34270DF}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{12C2EEC7-B9DA-41AB-AD04-94ACBF1A8DE2}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{7AEA23A6-E6C5-48CC-B6C5-BE73C7E41ADF}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{5E0D0B61-ED9A-48FB-9BFC-CBB0EF7FCF86}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{7A1C8395-8D61-444A-802A-08ABA3B8C466}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{9D919FB5-6F41-4957-9151-654BFF906338}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{5F7972C4-2458-48EE-A9E5-EB8B3EC585AD}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{BFADB982-81A3-4205-B17F-71D28BE8F29B}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{CCA19EEB-1B5F-482D-9587-878F6404A4D8}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{16A70946-7435-414A-81E9-E765FDF596D3}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{766AC0D6-BD9A-46F7-8351-CE4311B2D128}"/>
-    <hyperlink ref="M93" r:id="rId81" xr:uid="{CA03723B-97A1-4ADB-8AFD-E18C9E7C2E12}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{4F249356-350E-439F-8D40-C8663797054E}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{83F10AD2-F885-41DE-A4B9-E0E57CE53FB1}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{F78A1FDE-21DB-4AF2-8C87-CE2C3D166EA8}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{B4AE0B98-7CC7-4825-83B6-6ACF40DB77F1}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{6FCC9BAA-3200-4588-8076-08F5A2AA20F8}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{BCC7C249-B29D-424C-AFAA-52057E120401}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{66838A92-337F-4718-BB84-E9AD8A6BA1CC}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{8FEB48CF-67E9-43FC-8BC8-7C12891CA506}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{57E48AB5-9189-472E-8EE1-9F00D08C5D73}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{8A431927-1D3E-454C-AE08-0285FE2962DE}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{B4C75D49-7E01-4997-8DDB-B94DE1B605E1}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{228138EA-9E25-4CC6-97DD-D0B122C6CEA4}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{B0196828-2EB5-4144-B419-6D6C1779A709}"/>
-    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{888257CE-09E4-4256-BCA1-89E9AD722F80}"/>
-    <hyperlink ref="M38" r:id="rId96" xr:uid="{2B125588-7CCD-4694-A2B3-96D5B561C093}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{9FAD8A8B-02FA-4A3A-B348-1C8EB36A0B8E}"/>
-    <hyperlink ref="M91" r:id="rId98" xr:uid="{8AC4E9C6-2921-4B17-987F-4BA5523FBE75}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{0E4D1CE9-1AAF-4DEA-A5FB-993A48724BC3}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{AC10006A-B2B4-4B61-A02E-3C1A8FDAFEF6}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{500D29C3-BDA0-45A7-90AD-630E675FADAC}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{5F588D19-55AA-47E4-8245-C8F22EDB5E44}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{FC75257A-28AB-4B3F-B505-676304065521}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{0ED378CC-9467-4640-9887-5DBC4F69232F}"/>
-    <hyperlink ref="M41" r:id="rId105" xr:uid="{D335199D-5184-4B0C-8841-21AF04CE7902}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{54241AF6-2D82-4B3F-8136-B2B1D67A707C}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{C174D033-6BB2-424E-9369-2D7BEEB53D1C}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{4EEA3949-E464-46A3-83FB-FF80C0774479}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{5F979E8F-03FB-466B-B9A0-B2B67C4EEBBC}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{642E1098-A7FA-4F06-AFD0-24CA8921D9CD}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{3ACEEBD8-7664-4545-A4B4-7B7F66657BA1}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{E57C21E0-4745-4DE5-942B-9C7D01A1650E}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{168419B0-873E-4C17-AEA0-6706A0849E01}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{59AF29FA-1513-4B09-A610-F3E7BE352B6F}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{854850B0-50FD-4D8E-BA73-128E4DC3877C}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{412786B2-E030-4B63-88C9-2D1023B91232}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{F8461A35-2F99-49DB-8F40-D81B973E4BD0}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{E0282E2A-7D0F-46E9-9F88-1583AFACDE59}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{BB509089-8EBC-482A-9840-75569DAD1F4C}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{DD3849CE-A081-4874-AF3E-912A714F79D4}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{6D9FFAFB-4385-446E-BCD9-B4E8E6BB83C5}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{CFA176EE-C91B-4B9B-B1E0-1C42CA877A94}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{25CB538D-586D-453E-8BC1-B38186B45A58}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{315DBD76-2E24-4CEE-BB35-CB7049448DB3}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{609A635B-10B5-4CD6-B6EE-B98DAE1FDA6F}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{E80C5246-7AF5-48E0-90BB-2B6DF7F0834F}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{7A6EC785-D0A1-4322-867C-24E52EBFAA6D}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{1814B103-F123-466F-A996-90085ADA7C36}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{3FB3B522-D257-41C8-9E90-D2BC3D2051D5}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{4C6434ED-0978-4DC9-A2C2-163BE896D705}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{64567349-A7A5-4FDE-8DF0-639CE17FC7D1}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{0D498093-C725-4DCD-8855-157D333CDA75}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{9CC66864-EF40-4713-A211-6189F9465B75}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{FA97D949-9938-4F23-9E2D-F72E73B2D6D2}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{877EB418-7047-42B0-A1EF-9933EB55C4FE}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{EB0C6195-4562-4198-815C-20DAC5E94150}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{A45E976C-EB63-4155-98D4-746E92F25DAD}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{5AD70DA7-81B3-4FB8-A42E-ACB3EB8FBB95}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{E2213020-0DF7-4BFF-9214-EE1484AA2CF3}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{3BD39CA6-DA4B-480F-9A51-52A898131CAE}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{2FDB78DD-3D9E-4D85-8661-247A1B086D6B}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{9575B703-0E67-40BA-842C-6995AE592159}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{704BB1A7-505F-44E0-85A0-C38838233441}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{E5D8E9C4-8380-47FA-9426-84AF1ED5EF36}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{C0ACB62E-B728-456A-91E3-7E88A3E3329F}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{14C648A6-10D8-4B38-AF44-7E9496A00FCA}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{14060152-E258-4433-A6D4-C13C7283E383}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{0B5DE84B-4E70-4044-935D-1EDECF690B7A}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{A29F0919-FFBC-44A3-B323-EB4E7242D44A}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{652946B0-10B7-49E8-B65C-46F302D3173B}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{72E85E92-CCA5-4BD5-84FC-A7E31191F0AF}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{B7332B9E-09F7-40E9-A2AA-C1727BE575B2}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{10CFB4A7-1E68-4B4A-9540-8CB6B682AB83}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{A845C175-E176-42CF-8012-25165EE14659}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{CAD3F888-7786-4FA1-8420-DC3923147E9B}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{7185DF51-D739-449C-B653-CB9C48FCA892}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{4E31B02D-52A4-4AF0-91B2-6079FF7B9BAE}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{05B38E6D-0FE8-4CD9-873D-4623019B212E}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{17DDD98C-ECE4-4C40-B002-E3F61311A763}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{09C96E8D-EACB-4903-A6AA-DA5AFC27339B}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{DE85C86F-8F3E-4175-B0DB-E843C03D5FB8}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{064F9F4A-88F2-464B-88B4-19DB193BFF5A}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{E77B1E17-AAFD-4854-ACA4-E4E40A31F1CA}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{33A07718-01EF-43AA-9672-273547BEA44F}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{F42F9BEA-031C-4A60-A234-04F7338918DC}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{A2AB2754-D11A-4BFC-95C8-D95EE254C256}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{0F9AA415-FE8C-48BB-87B2-F026A46F739C}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{30E78CE5-206F-4B75-97BE-441DD53E802A}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{4D588CA8-C37C-45A2-9F91-21DC13BA0788}"/>
-    <hyperlink ref="M183" r:id="rId170" xr:uid="{A5008301-F2EE-403B-8B4E-D3A8C652E99C}"/>
-    <hyperlink ref="M68" r:id="rId171" xr:uid="{60129C14-B0C1-4A33-9539-C28F4602500C}"/>
-    <hyperlink ref="M8" r:id="rId172" xr:uid="{0A3052DF-774F-49D1-BC4C-0551F80E4D5E}"/>
-    <hyperlink ref="M266" r:id="rId173" xr:uid="{6A65A8AB-37ED-4E56-8E91-6148B8345831}"/>
-    <hyperlink ref="M268" r:id="rId174" xr:uid="{AAE8569F-2A6A-4BF0-B59A-A9032073A15E}"/>
-    <hyperlink ref="M267" r:id="rId175" xr:uid="{DE739C57-79E2-439A-B364-6AFB05D73ECA}"/>
-    <hyperlink ref="M269" r:id="rId176" xr:uid="{BC8BD2CF-7146-4F63-9F2C-136CD7C31C81}"/>
-    <hyperlink ref="M272" r:id="rId177" xr:uid="{C8491FBA-C394-40C3-9F99-371AF99E0064}"/>
-    <hyperlink ref="M274" r:id="rId178" xr:uid="{BFA1D3A0-A16F-41DF-B443-7FC9C3AEF231}"/>
-    <hyperlink ref="M275" r:id="rId179" xr:uid="{CD17F129-9ECC-42A1-A27B-C23EA33E12E1}"/>
-    <hyperlink ref="M276" r:id="rId180" xr:uid="{F38F90D5-978A-479C-9C79-BC2B655DACA1}"/>
-    <hyperlink ref="M277" r:id="rId181" xr:uid="{EDA07AED-0FCE-40EB-BE66-732ACEF2FF74}"/>
-    <hyperlink ref="M280" r:id="rId182" xr:uid="{BDC9E391-376A-409A-8504-32AE7EED9F58}"/>
-    <hyperlink ref="M270" r:id="rId183" xr:uid="{144913C4-F439-4C3E-A34F-1F2C3C1A92EE}"/>
-    <hyperlink ref="M271" r:id="rId184" xr:uid="{7C716BAC-340C-4F0C-8DA2-0EFB4A9ABCB8}"/>
-    <hyperlink ref="M60" r:id="rId185" xr:uid="{65B029F1-65CD-41AA-AF06-386823416E5A}"/>
-    <hyperlink ref="M98" r:id="rId186" xr:uid="{D2E051FC-4242-4BFC-8CD7-E630C22E8396}"/>
-    <hyperlink ref="M125" r:id="rId187" xr:uid="{5A7C91E1-1BEC-4D4C-ACFB-1C6D98859D90}"/>
-    <hyperlink ref="M70" r:id="rId188" xr:uid="{7435DB1C-CED5-4D46-8A0F-C07643B0446B}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{A8CB1C32-D3A5-4B99-AA5F-7E6DF7A41918}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{B947CF67-1BB5-48FE-A860-D08132029A70}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{E3274869-FE72-453F-9580-73E8BBC1D21E}"/>
+    <hyperlink ref="M25" r:id="rId4" xr:uid="{9C654C95-F995-4A39-9EF4-010846C736E9}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{E2BBC63C-5CB8-4881-99A7-3EA549FF51C2}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{BD9485CF-4AF2-4798-8E48-D7777D517A4D}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{7D5CC3A2-0108-443A-9D7F-E56FE0ED914B}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{F5AF1FE7-AAC9-4027-BE16-6DB439593B07}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{5BCBE32F-690F-4191-BA7D-84226C25D198}"/>
+    <hyperlink ref="M31" r:id="rId10" xr:uid="{7048C73C-3E73-4A1A-9C63-33A713F58F39}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{C03F7207-70BE-4B88-8DFF-A2229B4AEAFA}"/>
+    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{FC98E042-EC3F-40DC-BA16-202C290D8482}"/>
+    <hyperlink ref="M34" r:id="rId13" xr:uid="{7D82A758-2935-4F63-8AF7-48D35DC010DF}"/>
+    <hyperlink ref="M35" r:id="rId14" xr:uid="{DCB26A0F-8953-4987-BD8E-E664614114E6}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{744CC1C1-8254-4AB1-8EC7-93ADD4169241}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{E13452D3-BE38-4A68-8AD7-D9620581B839}"/>
+    <hyperlink ref="M42" r:id="rId17" xr:uid="{426446D9-BE67-4AC0-90AB-72BD576142FA}"/>
+    <hyperlink ref="M43" r:id="rId18" xr:uid="{A9E37FB1-940E-4048-A405-3197C21F8D0C}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{AA9C75E5-519D-4392-BEBF-F789EF860DF3}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{6A41B969-D682-44A1-B410-490B9687F524}"/>
+    <hyperlink ref="M55" r:id="rId21" xr:uid="{3B6EBFE3-26A1-435C-BFBE-0B9CAA3CD3B3}"/>
+    <hyperlink ref="M56" r:id="rId22" xr:uid="{BD2AC8F5-B322-4F10-8BE9-0C2424B15911}"/>
+    <hyperlink ref="M57" r:id="rId23" xr:uid="{79AB6C76-B1B8-4EA6-99A3-CF8402FE3967}"/>
+    <hyperlink ref="M58" r:id="rId24" xr:uid="{1E4EFA31-1C31-44CE-9006-4D86F92C32E0}"/>
+    <hyperlink ref="M59" r:id="rId25" xr:uid="{046D2FD5-BC9F-4172-8019-996CA3A2D00E}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{22F352EA-789E-4498-AD6B-0479C5BA513C}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{F51126EE-38E0-4190-85D9-E12D3E89EE58}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{71AEC4C0-5A22-4FA2-8C79-6D1980158830}"/>
+    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{D31F0D56-90CC-4F22-ACA0-D2EB592EDC38}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{38F7BD33-9F95-41F6-B67F-8FC956BEF093}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{1B15801D-505A-428F-8BA5-48EE9676C3C1}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{531F3B0E-439C-4E87-97A0-935E8C4DC1C3}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{D338378F-3868-436A-BB34-15C9F5C0ADF9}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{A5D80EA9-AFE4-4A7A-9393-717053BF6E36}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{23B0F9B6-F3E3-4C3F-BB44-645480B7151E}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{A6100ECF-A2BF-4E59-87AA-6A48BC5EFF08}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{919B0F7C-E0A5-4AE1-9064-E0E9A4F15072}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{CE8BFEB9-B4EE-4CD1-AA8B-00F1DC221B74}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{CE885B4F-A9C3-462C-8649-2DE7914F1E81}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{C91D1034-4408-43AD-BC55-98B47D7C0A5B}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{96C65A98-0462-44F0-8C67-2335C1525FA3}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{3BCBAFC8-68C9-4B25-9487-A384E8E410E9}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{FC29C7ED-D0EF-4B91-A09D-F84B10DCCE2D}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{D8D616C6-DDD2-4971-BD09-2275E99E23BD}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{6C652CFF-3DE3-41FB-840B-11E99622CCCF}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{EB57E69F-50CC-4E1B-8A51-40F61A7C7B9C}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{BC9A681E-9D6C-423B-9E10-396A37D7EBF6}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{077563FA-770B-44EF-8A37-07CDC9AEC1EE}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{B4967E48-2D09-495E-8500-7A5C1687EAB7}"/>
+    <hyperlink ref="M53" r:id="rId50" xr:uid="{C1B6AA83-658F-4DCC-803C-8CEB28EFB7B2}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{C270EF93-DEDB-458D-9A4F-BD9958AB79CA}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{A1237AEE-884F-4BA8-A14D-49280EC8E131}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{68C780F0-9F92-4A17-B48A-C4BBD745FE3F}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{3C3AEF6E-26BA-4105-B6A8-BA89589ABCC2}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{E7A1792C-7F0D-4612-B2F2-F1ADC07EFF96}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{B4DC9E24-34C9-42A5-BD10-7DEEC55057C8}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{308B80FB-79E0-452F-A274-55F1640BBE01}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{0B307CB3-F232-457F-848F-6CC5244A4E68}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{52CCC261-B291-497A-90C3-DF2A04975403}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{5F6F0042-12F6-4CAD-95A7-09876E6E8C83}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{BDD10A57-E580-42AF-A6B9-5C81D34E9865}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{0B52DAF2-7E77-4D91-8F96-CE6015478410}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{F20FAA39-A34E-4502-AE01-7AD8585FAABD}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{D7C273F4-89E5-4474-A85B-FC18EA3A7FDE}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{B6AAE8D6-7542-4AD2-BF75-0D9B888E3682}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{D98843A2-53CF-47BC-BA93-A734D91277E3}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{1F2F62AF-B8C9-4542-9985-9F78A1DF84DD}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{5FD85DF5-0EE3-4242-981A-3842FCFB0AC8}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{4A3443B2-5D10-4289-9B8F-1F458DE85056}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{98CE1096-8BC7-46EC-950C-C052F075019F}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{1541575D-A6BC-4C84-8C5D-CF9D3099C917}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{F10A7CB2-F6B0-4860-B1C5-28C49F6C2529}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{CBCA424A-C92A-46A1-8163-669407DEA1C0}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{D59E1821-266E-483E-A142-917AD95C2B1A}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{DD61C380-A874-4562-8C10-5E315FA61604}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{81E591F4-8FCD-4313-AAF7-573C1771E7CE}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{C1CC7A43-08CE-42DE-ABBB-F173C4C760AA}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{272D860E-2822-42F1-BF93-726A281B6C33}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{91A95F25-A510-428A-8690-411751ACDA15}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{452B657E-B412-4A0F-BF06-2D94CFEF3D33}"/>
+    <hyperlink ref="M93" r:id="rId81" xr:uid="{32E6150F-023D-4963-825A-4BB9E22DA8E7}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{96409CA8-7D61-489B-9238-C575C7255B1E}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{2EF26B30-E534-434F-BCA3-8212FDFB9ABC}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{382FA2F8-578D-4F45-919D-12834058070F}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{58677E2E-833F-4101-B800-506D16928B1D}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{A9143251-F2B4-4C81-A1B0-98927C5B6686}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{41F1E244-0750-4140-A7A5-61A7137D5D24}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{A9B3E1BD-A19B-4FFF-A41F-73C94842E5B9}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{BC5E00E8-458D-4193-964C-6CC609B0B18C}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{F1C58F16-D2A5-4608-AB05-651F74F4CD9D}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{BD465A57-C866-4E7A-9CF2-051A26552377}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{464F5DD9-2CD5-4044-BD99-A4F8DE73ACCF}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{B2ABA14D-809B-4D48-90F3-8C24AA907E85}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{4185F695-5095-4CEF-96E0-4D4B69A52BEA}"/>
+    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{6F6AECEA-EF8B-4712-92D8-F769209C6D35}"/>
+    <hyperlink ref="M38" r:id="rId96" xr:uid="{2746F237-CEC1-48F1-A052-43F364DAF50E}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{938A5446-51C1-4D0B-BD27-3F0C497EA765}"/>
+    <hyperlink ref="M91" r:id="rId98" xr:uid="{A48C85AD-6774-44B9-9A42-72A79A4B86F8}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{EE68F0F0-D6EF-4943-9A5D-DFD6F2773DEA}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{37A2DE69-C5EB-4F5A-B3CD-6F86FBAF10E1}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{CEC001B2-B9FA-4B18-ADC4-22683184837A}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{CB80E99F-4D89-4495-8F86-2CC0043EF1B1}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{C837F1C0-275C-42BB-AB82-0BFF22E9BC71}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{A3C1FA64-765E-471E-9653-8389454F2DF1}"/>
+    <hyperlink ref="M41" r:id="rId105" xr:uid="{6B671942-DB66-4958-B53C-AED54A4FF792}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{C6B5CB61-46B6-41B7-89E0-ED25CAB2940E}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{1E13EF8A-B74E-44AD-9365-265F6E7ED4E2}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{0A31A474-714E-4821-9736-61A27489A6A2}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{7E0FF018-26B5-4341-A3B3-613B1569A4EF}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{74114A2E-AC71-46BF-BD52-95550C841D98}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{2992A880-E629-4DA2-AE33-217F46BA9AA4}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{A6BAAECE-427F-4382-9867-489243D0E070}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{E374A826-EB52-4B64-AE8E-8A6A8AAB914B}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{6E699EAE-17C4-4E55-8AB8-A038956F4F1F}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{B5B953FF-CFC1-492E-8562-D3A612AAFBBE}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{35632EE5-D795-4B9F-A588-2B60B616859C}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{195C5710-3B3A-4F3F-9BE6-C11728B984D5}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{5ECBD68F-168B-4A05-B576-336F66A99014}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{0D49FD92-6CF7-4504-8B2A-1769C5D239CF}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{E9DECB6C-DF89-4067-B3BD-4F0F36C86B3E}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{092E7F9A-0326-45A0-A8F6-176CD979AC4A}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{AAA7EB43-4B95-4473-9CCB-8C40A1B82973}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{A7F3CC3B-1E59-47D2-807B-FF1C1551A729}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{0691A687-4A40-410C-9178-F63E64AF20B4}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{BF8C6081-346A-47B3-B196-78B974926036}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{F6E5EA01-2553-49B7-9CFE-6A00154110BB}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{EBCF3A7E-0347-4837-9959-720FA50423DB}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{6FE6C042-16BF-4AD7-8238-A966821808D2}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{791F5D11-61B8-4141-9FA9-36295363DBCA}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{E2304CE9-528D-4052-8BFC-64FC29AAB1C4}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{6BA39902-C3FC-4C7B-9AB7-9E831F8E7F28}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{1405774E-579C-40CD-985A-F3CEF93B6764}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{129CB10F-C6F7-4895-B01F-8A6B51E2214D}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{9642476F-E5FE-408E-873D-081F98D0E9CD}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{B5EF0E33-50CD-48A0-B010-028C2FD01E22}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{68C681D0-C111-42C9-8018-95F069256C75}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{B3ABAB2D-6883-493F-83E7-6B846FF87F68}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{F5351C82-F7B7-4D06-9701-D4455522FF1E}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{750CDB73-FA14-4441-B49C-78D2957940E3}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{D84AEF9B-7A76-4D36-98E7-8E3C918122B2}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{3B02108C-9C58-4690-8158-7668446AF05D}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{E7BBA03E-3DCE-4FBB-B5C0-40019CEA826C}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{6AEAEF08-B855-4931-8FF7-97C0B06E644A}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{B63C5BA4-6F4D-4883-A96B-0760287569E9}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{6D268A2E-7BDD-4C3B-A08F-94E04CB80E36}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{D3F0F5A4-CCB0-48FD-8EF7-773BA9BCACEF}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{406D9A66-B594-4AE1-B134-D11A4E2E2BFF}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{E3EFE324-0CD6-4072-A17E-34A8251B96E5}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{90BF17B0-0D43-4756-BEA3-300C1EC1586D}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{0DDA3324-07BE-4D0B-806E-8FB782475D1C}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{A2F86419-A81B-42A5-A3BD-504B788CFED7}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{3C5C0560-08B2-48A0-A58D-F196F05BBC19}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{46601E0D-464A-42C5-86BE-CB6600737B87}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{58C02139-92F0-4EDF-B774-9E3C836B02A0}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{5E33E1CC-3B16-4569-9420-A478AA8B5E0C}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{913ACE27-AA94-429F-819A-D4D3FE4CC8FE}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{80405014-5FA8-4B0E-8BBD-6ADB776ED585}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{5862F099-BD7A-49B5-8AE5-AF21F4D072AA}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{5DBED72A-A3DA-402A-8995-BD4BFA94EF64}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{D79B21C4-D897-42AF-B877-600DDEC568E8}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{6A5BDEFF-8E87-46A4-8C45-EEADE98AF9B5}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{F0EBCA03-8C3E-41EE-B869-3ECBFC3D3623}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{3052223A-696D-42BA-866E-A33D6189BC28}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{6837E355-F934-45A3-86FE-C69ADDE7168F}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{A85AC0E9-D51F-4A89-97B6-F499F655D750}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{F1FC07A9-3D2B-49A6-A100-4AB422111D85}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{C73052DE-2DEB-4871-99B6-135D9A6F9CBC}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{5A54DDDF-D37A-467B-852E-2E00E241BCA5}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{C342D5AA-8510-409A-81FD-C450900B1A5C}"/>
+    <hyperlink ref="M183" r:id="rId170" xr:uid="{DCCEEE30-3A51-4143-871B-29DE2EABE49B}"/>
+    <hyperlink ref="M68" r:id="rId171" xr:uid="{90155E76-4912-4358-AC9B-7A9282682E2E}"/>
+    <hyperlink ref="M8" r:id="rId172" xr:uid="{CE84F412-ECAF-421C-A08C-BB413B6277DE}"/>
+    <hyperlink ref="M266" r:id="rId173" xr:uid="{E9F522BF-A524-4B2E-A358-1721EE75F6C7}"/>
+    <hyperlink ref="M268" r:id="rId174" xr:uid="{B0A9C2A6-F524-42B5-A555-6FB5C68F810D}"/>
+    <hyperlink ref="M267" r:id="rId175" xr:uid="{3B637D60-26AB-45D9-B355-F132A364BC22}"/>
+    <hyperlink ref="M269" r:id="rId176" xr:uid="{87139105-1C0B-4285-B73A-A6260F5EF380}"/>
+    <hyperlink ref="M272" r:id="rId177" xr:uid="{50537E63-718E-4FB9-926F-3B9D77120303}"/>
+    <hyperlink ref="M274" r:id="rId178" xr:uid="{EBBCAD96-B719-4A5E-9E1D-BFD83781EC07}"/>
+    <hyperlink ref="M275" r:id="rId179" xr:uid="{7AD951DF-9DFB-402C-8BE1-E7281094984B}"/>
+    <hyperlink ref="M276" r:id="rId180" xr:uid="{8175B0A9-8EB3-436B-82A5-ECA05A1DE397}"/>
+    <hyperlink ref="M277" r:id="rId181" xr:uid="{1BA0EC42-0236-419A-9138-D55CDCBB8980}"/>
+    <hyperlink ref="M280" r:id="rId182" xr:uid="{02D45B7E-1F44-4C36-8F73-242A5F081357}"/>
+    <hyperlink ref="M270" r:id="rId183" xr:uid="{A4F02FA4-A223-4C22-9DDC-06B963CE2974}"/>
+    <hyperlink ref="M271" r:id="rId184" xr:uid="{4A6C84AD-A757-4F20-ACD4-769BEA0BFB07}"/>
+    <hyperlink ref="M60" r:id="rId185" xr:uid="{91BD655E-43B7-438C-8DE9-BE02E473C18B}"/>
+    <hyperlink ref="M98" r:id="rId186" xr:uid="{52DEF36C-D719-4454-B931-E2572A18C221}"/>
+    <hyperlink ref="M125" r:id="rId187" xr:uid="{5583487A-D1E9-4ED9-A9F0-F7CB4109319A}"/>
+    <hyperlink ref="M70" r:id="rId188" xr:uid="{C3EB4448-C159-4532-9AE9-E03BD2D1FFB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId189"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D85AA-CCD9-4DAF-8D7D-357A775CDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE75D0D-2D08-4C8A-AA13-F4DF6EF0C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-28860" yWindow="2805" windowWidth="28920" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={84DEA509-3C58-4A64-9F58-EF0D76D85056}</author>
-    <author>tc={3A7DF3D0-58B9-4F4A-ADD0-ED394295B64E}</author>
-    <author>tc={C6CE448D-D857-4920-AF74-C45B82D7999E}</author>
+    <author>tc={3BF1ADC2-0BCA-4236-A8E9-BD10DB5805F5}</author>
+    <author>tc={8D90FDFF-BE24-4D2A-B747-8FE9E1176081}</author>
+    <author>tc={1B0981F9-36A4-4A31-9135-8053360B0B6D}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{84DEA509-3C58-4A64-9F58-EF0D76D85056}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3BF1ADC2-0BCA-4236-A8E9-BD10DB5805F5}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{3A7DF3D0-58B9-4F4A-ADD0-ED394295B64E}">
+    <comment ref="T43" authorId="1" shapeId="0" xr:uid="{8D90FDFF-BE24-4D2A-B747-8FE9E1176081}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{C6CE448D-D857-4920-AF74-C45B82D7999E}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{1B0981F9-36A4-4A31-9135-8053360B0B6D}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1265">
   <si>
     <t>Nr.</t>
   </si>
@@ -3360,9 +3360,6 @@
     <t>Für potenzielle car sharing ideen</t>
   </si>
   <si>
-    <t>Abwasserwärme für große Wärme Pumpen in der Stadt (Nutzung von großen Wassermengen)</t>
-  </si>
-  <si>
     <t>Durch IoT werden Städte zu intelligenten, effizienten und nachhaltigen Lebensräumen.</t>
   </si>
   <si>
@@ -3396,9 +3393,6 @@
     <t>"Luxusprobleme werden immer mehr Einfluss auf die Westliche Entwicklung haben"</t>
   </si>
   <si>
-    <t>Einsatz von Fernwärmepumpen in zusammenhang mit Abwasser wärme</t>
-  </si>
-  <si>
     <t xml:space="preserve">Industry 5.0 ist noch in Ferne da momentan Industry 4.0 noch existiert.  </t>
   </si>
   <si>
@@ -3415,12 +3409,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fortschritte in der Medizintechnik, Telemedizin und Datenanalyse revolutionieren das Gesundheitswesen, indem Wearables wie Smartwatches und Fitness-Tracker kontinuierlich Gesundheitsdaten überwachen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speicherung von Regenwasser und Abwasser noch effektiver in der Stadt </t>
-  </si>
-  <si>
-    <t>Wassermanagement in den Städten zunehmend wichtiger bei häufigeren Überschwemungen</t>
   </si>
   <si>
     <t>Wasserverbrauch sinkt mit der Reduktion von Tierischen Erzeugnissen</t>
@@ -3840,18 +3828,9 @@
     <t>ZE-LKW um den Warentransport und damit die Lieferketten klimafreundlicher zu gestallten</t>
   </si>
   <si>
-    <t>Laut dem Klimaschutzgesetz des Bundesregierung ist DE verpflichtet bis 2045 komplett aus der fossielen Energiegewinnung auszusteigen. Wasserstoff eignet sich hierbei gut als neuer Energie- und wärmelieferant. (statt Erdgas)</t>
-  </si>
-  <si>
-    <t>Vorhandene Infrastruktur aus Erdgas (Tanker, Turbinen, Pipelines) lassen sich gut auf Wasserstoff ummünzen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Germany is nearly a 100 % gas importer and highly  depending on LNG imports </t>
   </si>
   <si>
-    <t>Vorhandene Infrastruktur aus Erdgas (Tanker, Turbinen, Pipelines) lassen sich gut auf Wasserstoff ummünzen. Daher eignet sich Erdgas weiterhin als Gute Brückentechnologie bis ein verlässliches Wasserstoff-Netz aufgebaut wurde</t>
-  </si>
-  <si>
     <t xml:space="preserve"> LNG infrastructure development in Germany as a response to reduced Russian gas imports</t>
   </si>
   <si>
@@ -3993,16 +3972,10 @@
     <t>Schutz der Anlagen vor dem Winter</t>
   </si>
   <si>
-    <t>Energie in kalten Jahherszeiten</t>
-  </si>
-  <si>
     <t>Gasbetriebene Anlagen in der Winterzeit</t>
   </si>
   <si>
     <t>Alternative Energiequellen wegen Erdgasausstieg bis 2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flächendeckender Ausbau </t>
   </si>
   <si>
     <t>Bis 2030 sollen der Strom aus erneuerbaren Energien auf 80% steigen. Hierbei sollen
@@ -4031,6 +4004,63 @@
   </si>
   <si>
     <t>Die Kunden vordern Grünen Strom</t>
+  </si>
+  <si>
+    <t>Menschen werden komunistischer</t>
+  </si>
+  <si>
+    <t>Menschen werden protektionistischer</t>
+  </si>
+  <si>
+    <t>Soziale Gerechtigkeit vor wirtschaftlichkeit</t>
+  </si>
+  <si>
+    <t>wirtschaftlichkeit wird von Bevölkerung ignoriert und nationale Themen erstarken</t>
+  </si>
+  <si>
+    <t>Polarisierende Kräfte erstarken in der Welt</t>
+  </si>
+  <si>
+    <t>Verstaatlichung von EVus</t>
+  </si>
+  <si>
+    <t>Menschen werden zu extremeren Lösungen polarisiert in bezug auf Klimaschutz</t>
+  </si>
+  <si>
+    <t>Menschen werden zu mehr protektionismus polarisiert und lassen wirtschaftliche folgen außer Acht</t>
+  </si>
+  <si>
+    <t>Bedürfnis nach Umweltschutz steigt</t>
+  </si>
+  <si>
+    <t>Bevölkerung macht Enrgiesicherheit zum Ethischen Problem mit fokus auf nachhaltigkeit</t>
+  </si>
+  <si>
+    <t>Klima Wandel als verstärkter Treiber für sozialen und nachhaltigen Umbau</t>
+  </si>
+  <si>
+    <t>Zusammenschluss und Verstaatlichung von EVU</t>
+  </si>
+  <si>
+    <t>EVU werden zusammengeschlossen für mehr effizienz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Großteil der Bevölkerung fordert mehr klimagerechtigkeit im eiegnen Land </t>
+  </si>
+  <si>
+    <t>Politik geht verstärkt auf Umweltthemen ein, auch wenn unkonventionelle Motheden dabei sind</t>
+  </si>
+  <si>
+    <t>Die Pandemie hat gezeigt dass Abschottung für China positiv verlief</t>
+  </si>
+  <si>
+    <t>Die Menschen wollen mehr Klimaschutz und zwar jetzt!</t>
+  </si>
+  <si>
+    <t>Anlagenschutz im Winter</t>
+  </si>
+  <si>
+    <t>Ausbau erneu. Energie</t>
   </si>
 </sst>
 </file>
@@ -4040,7 +4070,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4139,10 +4169,18 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4215,7 +4253,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4346,6 +4384,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{CFDE625C-6074-4B64-A6A2-99F4C9AD683F}"/>
@@ -4669,14 +4713,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{84DEA509-3C58-4A64-9F58-EF0D76D85056}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{3BF1ADC2-0BCA-4236-A8E9-BD10DB5805F5}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{3A7DF3D0-58B9-4F4A-ADD0-ED394295B64E}">
+  <threadedComment ref="T43" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{8D90FDFF-BE24-4D2A-B747-8FE9E1176081}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{C6CE448D-D857-4920-AF74-C45B82D7999E}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{1B0981F9-36A4-4A31-9135-8053360B0B6D}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -4687,7 +4731,7 @@
   <dimension ref="A1:BJ296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection sqref="A1:BJ280"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4754,22 +4798,22 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>20</v>
@@ -4781,13 +4825,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1132</v>
+        <v>1126</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AF1" s="48" t="s">
+        <v>1128</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>23</v>
@@ -4799,13 +4843,13 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>26</v>
@@ -4817,13 +4861,13 @@
         <v>28</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>29</v>
@@ -4835,13 +4879,13 @@
         <v>31</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>32</v>
@@ -4853,13 +4897,13 @@
         <v>34</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>35</v>
@@ -4871,30 +4915,30 @@
         <v>37</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>717</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>718</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>13.4939689452866</v>
+        <v>2.7581033781576321</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>39</v>
@@ -4918,22 +4962,22 @@
         <v>8</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>40</v>
+        <v>719</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>41</v>
+        <v>720</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="P2" s="11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="S2" s="12">
         <v>5</v>
@@ -4951,8 +4995,12 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
+      <c r="AE2" s="10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>1247</v>
+      </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
       <c r="AI2" s="10"/>
@@ -4961,15 +5009,15 @@
       <c r="AL2" s="10"/>
       <c r="AM2" s="10"/>
       <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
+      <c r="AO2" s="10" t="s">
+        <v>721</v>
+      </c>
       <c r="AP2" s="10"/>
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
       <c r="AT2" s="10"/>
-      <c r="AU2" s="10" t="s">
-        <v>1148</v>
-      </c>
+      <c r="AU2" s="10"/>
       <c r="AV2" s="10"/>
       <c r="AW2" s="10"/>
       <c r="AX2" s="10"/>
@@ -5194,113 +5242,113 @@
       <c r="BI4" s="10"/>
       <c r="BJ4" s="10"/>
     </row>
-    <row r="5" spans="1:62" ht="285" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>14.98890835368721</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="14">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14">
-        <v>3</v>
-      </c>
-      <c r="I5" s="14">
-        <v>5</v>
-      </c>
-      <c r="J5" s="14">
-        <v>2</v>
-      </c>
-      <c r="K5" s="14">
-        <v>1</v>
-      </c>
-      <c r="L5" s="14" t="s">
+    <row r="5" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>140</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3.509541050346443</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="19" t="s">
+      <c r="M5" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="20">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="20" t="s">
+      <c r="P5" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="21">
-        <v>4</v>
-      </c>
-      <c r="T5" s="22">
-        <v>2</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
+      <c r="S5" s="12">
+        <v>2</v>
+      </c>
+      <c r="T5" s="13">
+        <v>2</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -5718,30 +5766,30 @@
       <c r="BI9" s="19"/>
       <c r="BJ9" s="19"/>
     </row>
-    <row r="10" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>15.57937404482786</v>
+        <v>13.4939689452866</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
@@ -5750,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>8</v>
@@ -5759,7 +5807,7 @@
         <v>40</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>42</v>
@@ -5787,9 +5835,7 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
-      <c r="AC10" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
@@ -5807,7 +5853,9 @@
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
+      <c r="AU10" s="10" t="s">
+        <v>1144</v>
+      </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
       <c r="AX10" s="10"/>
@@ -5865,7 +5913,7 @@
         <v>40</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="O11" s="19" t="s">
         <v>42</v>
@@ -5999,8 +6047,12 @@
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
+      <c r="AE12" s="10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>1250</v>
+      </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10" t="s">
@@ -6113,7 +6165,7 @@
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
@@ -6152,7 +6204,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -6458,27 +6510,27 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="10"/>
     </row>
-    <row r="17" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="285" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
       </c>
       <c r="E17" s="16">
-        <v>14.852697401477331</v>
+        <v>14.98890835368721</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
@@ -6487,7 +6539,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" s="14">
         <v>1</v>
@@ -6499,7 +6551,7 @@
         <v>40</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="O17" s="19" t="s">
         <v>42</v>
@@ -6514,17 +6566,15 @@
         <v>44</v>
       </c>
       <c r="S17" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T17" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
-      <c r="X17" s="19" t="s">
-        <v>1150</v>
-      </c>
+      <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
@@ -6537,19 +6587,21 @@
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
+      <c r="AK17" s="19" t="s">
+        <v>1199</v>
+      </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19"/>
       <c r="AN17" s="19"/>
-      <c r="AO17" s="19" t="s">
-        <v>999</v>
-      </c>
+      <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
       <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
+      <c r="AU17" s="19" t="s">
+        <v>1145</v>
+      </c>
       <c r="AV17" s="19"/>
       <c r="AW17" s="19"/>
       <c r="AX17" s="19"/>
@@ -6818,10 +6870,10 @@
         <v>9</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>42</v>
@@ -7060,13 +7112,15 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
+      <c r="AF22" s="10" t="s">
+        <v>1251</v>
+      </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="AL22" s="10"/>
       <c r="AM22" s="10"/>
@@ -7294,7 +7348,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
@@ -7312,215 +7366,219 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="10"/>
     </row>
-    <row r="25" spans="1:62" ht="300" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>28</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>11.229004329184351</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="14">
-        <v>3</v>
-      </c>
-      <c r="H25" s="14">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14">
-        <v>5</v>
-      </c>
-      <c r="J25" s="14">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14">
-        <v>2</v>
-      </c>
-      <c r="L25" s="14" t="s">
+    <row r="25" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>15.57937404482786</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="P25" s="20">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="20" t="s">
+      <c r="M25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="R25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S25" s="21">
-        <v>3</v>
-      </c>
-      <c r="T25" s="22">
-        <v>4</v>
-      </c>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="19"/>
-      <c r="BI25" s="19"/>
-      <c r="BJ25" s="19"/>
+      <c r="S25" s="12">
+        <v>5</v>
+      </c>
+      <c r="T25" s="13">
+        <v>3</v>
+      </c>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
     </row>
-    <row r="26" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>29</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
-        <v>3.5756894586070511</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="5">
-        <v>2</v>
-      </c>
-      <c r="H26" s="5">
-        <v>3</v>
-      </c>
-      <c r="I26" s="5">
-        <v>5</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
-        <v>4</v>
-      </c>
-      <c r="L26" s="5" t="s">
+    <row r="26" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>17</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <v>14.852697401477331</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="14">
+        <v>2</v>
+      </c>
+      <c r="H26" s="14">
+        <v>3</v>
+      </c>
+      <c r="I26" s="14">
+        <v>5</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4</v>
+      </c>
+      <c r="K26" s="14">
+        <v>1</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P26" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S26" s="12">
-        <v>4</v>
-      </c>
-      <c r="T26" s="13">
-        <v>4</v>
-      </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
+      <c r="M26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="20">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="21">
+        <v>2</v>
+      </c>
+      <c r="T26" s="22">
+        <v>4</v>
+      </c>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19" t="s">
+        <v>999</v>
+      </c>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="19"/>
+      <c r="BH26" s="19"/>
+      <c r="BI26" s="19"/>
+      <c r="BJ26" s="19"/>
     </row>
     <row r="27" spans="1:62" ht="300" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
@@ -7942,30 +8000,30 @@
       <c r="BI30" s="10"/>
       <c r="BJ30" s="10"/>
     </row>
-    <row r="31" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="300" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D31" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="16">
-        <v>8.1527948915667494</v>
+        <v>11.229004329184351</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G31" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" s="14">
         <v>5</v>
@@ -7983,7 +8041,7 @@
         <v>127</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>120</v>
@@ -8001,7 +8059,7 @@
         <v>3</v>
       </c>
       <c r="T31" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
@@ -8155,234 +8213,236 @@
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3.5756894586070511</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3</v>
+      </c>
+      <c r="I33" s="5">
+        <v>5</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>4</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S33" s="12">
+        <v>4</v>
+      </c>
+      <c r="T33" s="13">
+        <v>4</v>
+      </c>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10"/>
+    </row>
+    <row r="34" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>34</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="16">
+        <v>8.1527948915667494</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="14">
+        <v>4</v>
+      </c>
+      <c r="H34" s="14">
+        <v>3</v>
+      </c>
+      <c r="I34" s="14">
+        <v>5</v>
+      </c>
+      <c r="J34" s="14">
+        <v>1</v>
+      </c>
+      <c r="K34" s="14">
+        <v>2</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="21">
+        <v>3</v>
+      </c>
+      <c r="T34" s="22">
+        <v>5</v>
+      </c>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="19"/>
+      <c r="BB34" s="19"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="19"/>
+      <c r="BF34" s="19"/>
+      <c r="BG34" s="19"/>
+      <c r="BH34" s="19"/>
+      <c r="BI34" s="19"/>
+      <c r="BJ34" s="19"/>
+    </row>
+    <row r="35" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>36</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B35" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D35" s="15">
         <v>0</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E35" s="16">
         <v>2.388381657690998</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="14">
-        <v>3</v>
-      </c>
-      <c r="H33" s="14">
-        <v>4</v>
-      </c>
-      <c r="I33" s="14">
-        <v>5</v>
-      </c>
-      <c r="J33" s="14">
-        <v>1</v>
-      </c>
-      <c r="K33" s="14">
-        <v>2</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="P33" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="R33" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="S33" s="21">
-        <v>3</v>
-      </c>
-      <c r="T33" s="22">
-        <v>2</v>
-      </c>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="19"/>
-      <c r="AO33" s="19"/>
-      <c r="AP33" s="19"/>
-      <c r="AQ33" s="19"/>
-      <c r="AR33" s="19"/>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="19"/>
-      <c r="AU33" s="19"/>
-      <c r="AV33" s="19"/>
-      <c r="AW33" s="19"/>
-      <c r="AX33" s="19"/>
-      <c r="AY33" s="19"/>
-      <c r="AZ33" s="19"/>
-      <c r="BA33" s="19"/>
-      <c r="BB33" s="19"/>
-      <c r="BC33" s="19"/>
-      <c r="BD33" s="19"/>
-      <c r="BE33" s="19"/>
-      <c r="BF33" s="19"/>
-      <c r="BG33" s="19"/>
-      <c r="BH33" s="19"/>
-      <c r="BI33" s="19"/>
-      <c r="BJ33" s="19"/>
-    </row>
-    <row r="34" spans="1:62" ht="135" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>37</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7">
-        <v>14.39051997445841</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="5">
-        <v>2</v>
-      </c>
-      <c r="H34" s="5">
-        <v>4</v>
-      </c>
-      <c r="I34" s="5">
-        <v>5</v>
-      </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5">
-        <v>3</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P34" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="12">
-        <v>2</v>
-      </c>
-      <c r="T34" s="13">
-        <v>2</v>
-      </c>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
-      <c r="BF34" s="10"/>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="10"/>
-      <c r="BI34" s="10"/>
-      <c r="BJ34" s="10"/>
-    </row>
-    <row r="35" spans="1:62" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
-        <v>38</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="15">
-        <v>1</v>
-      </c>
-      <c r="E35" s="16">
-        <v>4.2709707460831519</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G35" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="14">
         <v>4</v>
@@ -8394,16 +8454,16 @@
         <v>1</v>
       </c>
       <c r="K35" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>120</v>
@@ -8412,7 +8472,7 @@
         <v>5</v>
       </c>
       <c r="Q35" s="20" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="R35" s="21" t="s">
         <v>121</v>
@@ -8431,9 +8491,7 @@
       <c r="Z35" s="19"/>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
-      <c r="AC35" s="19" t="s">
-        <v>1003</v>
-      </c>
+      <c r="AC35" s="19"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
@@ -8535,7 +8593,7 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -8560,7 +8618,7 @@
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
       <c r="AU36" s="10" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
@@ -8578,271 +8636,273 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
     </row>
-    <row r="37" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
-        <v>40</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="15">
+    <row r="37" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="6">
         <v>0</v>
       </c>
-      <c r="E37" s="16">
-        <v>7.2715105660117212</v>
-      </c>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="7">
+        <v>14.39051997445841</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="14">
-        <v>4</v>
-      </c>
-      <c r="H37" s="14">
-        <v>3</v>
-      </c>
-      <c r="I37" s="14">
-        <v>5</v>
-      </c>
-      <c r="J37" s="14">
-        <v>2</v>
-      </c>
-      <c r="K37" s="14">
-        <v>1</v>
-      </c>
-      <c r="L37" s="14" t="s">
+      <c r="G37" s="5">
+        <v>2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>4</v>
+      </c>
+      <c r="I37" s="5">
+        <v>5</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>3</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="O37" s="19" t="s">
+      <c r="M37" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O37" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P37" s="20">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="20" t="s">
+      <c r="P37" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" s="12">
+        <v>2</v>
+      </c>
+      <c r="T37" s="13">
+        <v>2</v>
+      </c>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="10"/>
+      <c r="AW37" s="10"/>
+      <c r="AX37" s="10"/>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="10"/>
+      <c r="BB37" s="10"/>
+      <c r="BC37" s="10"/>
+      <c r="BD37" s="10"/>
+      <c r="BE37" s="10"/>
+      <c r="BF37" s="10"/>
+      <c r="BG37" s="10"/>
+      <c r="BH37" s="10"/>
+      <c r="BI37" s="10"/>
+      <c r="BJ37" s="10"/>
+    </row>
+    <row r="38" spans="1:62" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>38</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="16">
+        <v>4.2709707460831519</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="14">
+        <v>2</v>
+      </c>
+      <c r="H38" s="14">
+        <v>4</v>
+      </c>
+      <c r="I38" s="14">
+        <v>5</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="14">
+        <v>3</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P38" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="R37" s="21" t="s">
+      <c r="R38" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="S37" s="21">
-        <v>5</v>
-      </c>
-      <c r="T37" s="22">
-        <v>2</v>
-      </c>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
-      <c r="AN37" s="19"/>
-      <c r="AO37" s="19"/>
-      <c r="AP37" s="19"/>
-      <c r="AQ37" s="19"/>
-      <c r="AR37" s="19"/>
-      <c r="AS37" s="19"/>
-      <c r="AT37" s="19"/>
-      <c r="AU37" s="19"/>
-      <c r="AV37" s="19"/>
-      <c r="AW37" s="19"/>
-      <c r="AX37" s="19"/>
-      <c r="AY37" s="19"/>
-      <c r="AZ37" s="19"/>
-      <c r="BA37" s="19"/>
-      <c r="BB37" s="19"/>
-      <c r="BC37" s="19"/>
-      <c r="BD37" s="19"/>
-      <c r="BE37" s="19"/>
-      <c r="BF37" s="19"/>
-      <c r="BG37" s="19"/>
-      <c r="BH37" s="19"/>
-      <c r="BI37" s="19"/>
-      <c r="BJ37" s="19"/>
-    </row>
-    <row r="38" spans="1:62" ht="165" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>41</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>6.25061680843171</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5">
-        <v>3</v>
-      </c>
-      <c r="I38" s="5">
-        <v>5</v>
-      </c>
-      <c r="J38" s="5">
-        <v>4</v>
-      </c>
-      <c r="K38" s="5">
-        <v>2</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P38" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S38" s="12">
-        <v>2</v>
-      </c>
-      <c r="T38" s="13">
-        <v>2</v>
-      </c>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
-      <c r="AO38" s="10"/>
-      <c r="AP38" s="10"/>
-      <c r="AQ38" s="10"/>
-      <c r="AR38" s="10"/>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="10"/>
-      <c r="AU38" s="10"/>
-      <c r="AV38" s="10"/>
-      <c r="AW38" s="10"/>
-      <c r="AX38" s="10"/>
-      <c r="AY38" s="10"/>
-      <c r="AZ38" s="10"/>
-      <c r="BA38" s="10"/>
-      <c r="BB38" s="10"/>
-      <c r="BC38" s="10"/>
-      <c r="BD38" s="10"/>
-      <c r="BE38" s="10"/>
-      <c r="BF38" s="10"/>
-      <c r="BG38" s="10"/>
-      <c r="BH38" s="10"/>
-      <c r="BI38" s="10"/>
-      <c r="BJ38" s="10"/>
+      <c r="S38" s="21">
+        <v>3</v>
+      </c>
+      <c r="T38" s="22">
+        <v>2</v>
+      </c>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="19"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="19"/>
+      <c r="BJ38" s="19"/>
     </row>
     <row r="39" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D39" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="16">
-        <v>4.6630920215172731</v>
+        <v>7.2715105660117212</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G39" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" s="14">
         <v>5</v>
       </c>
       <c r="J39" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O39" s="19" t="s">
         <v>120</v>
       </c>
       <c r="P39" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="R39" s="21" t="s">
         <v>121</v>
       </c>
       <c r="S39" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T39" s="22">
         <v>2</v>
@@ -8853,9 +8913,7 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
-      <c r="AA39" s="19" t="s">
-        <v>1005</v>
-      </c>
+      <c r="AA39" s="19"/>
       <c r="AB39" s="19"/>
       <c r="AC39" s="19"/>
       <c r="AD39" s="19"/>
@@ -8875,9 +8933,7 @@
       <c r="AR39" s="19"/>
       <c r="AS39" s="19"/>
       <c r="AT39" s="19"/>
-      <c r="AU39" s="19" t="s">
-        <v>1154</v>
-      </c>
+      <c r="AU39" s="19"/>
       <c r="AV39" s="19"/>
       <c r="AW39" s="19"/>
       <c r="AX39" s="19"/>
@@ -8998,235 +9054,239 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="10"/>
     </row>
-    <row r="41" spans="1:62" ht="225" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+    <row r="41" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>41</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>6.25061680843171</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5">
+        <v>5</v>
+      </c>
+      <c r="J41" s="5">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S41" s="12">
+        <v>2</v>
+      </c>
+      <c r="T41" s="13">
+        <v>2</v>
+      </c>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="10"/>
+      <c r="BA41" s="10"/>
+      <c r="BB41" s="10"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="10"/>
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="10"/>
+      <c r="BH41" s="10"/>
+      <c r="BI41" s="10"/>
+      <c r="BJ41" s="10"/>
+    </row>
+    <row r="42" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>42</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16">
+        <v>4.6630920215172731</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="14">
+        <v>2</v>
+      </c>
+      <c r="H42" s="14">
+        <v>4</v>
+      </c>
+      <c r="I42" s="14">
+        <v>5</v>
+      </c>
+      <c r="J42" s="14">
+        <v>1</v>
+      </c>
+      <c r="K42" s="14">
+        <v>3</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S42" s="21">
+        <v>3</v>
+      </c>
+      <c r="T42" s="22">
+        <v>2</v>
+      </c>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="19"/>
+      <c r="AQ42" s="19"/>
+      <c r="AR42" s="19"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="19"/>
+      <c r="AU42" s="19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AV42" s="19"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="19"/>
+      <c r="AZ42" s="19"/>
+      <c r="BA42" s="19"/>
+      <c r="BB42" s="19"/>
+      <c r="BC42" s="19"/>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="19"/>
+      <c r="BF42" s="19"/>
+      <c r="BG42" s="19"/>
+      <c r="BH42" s="19"/>
+      <c r="BI42" s="19"/>
+      <c r="BJ42" s="19"/>
+    </row>
+    <row r="43" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
         <v>44</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="15">
-        <v>1</v>
-      </c>
-      <c r="E41" s="16">
+      <c r="D43" s="15">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16">
         <v>3.1482541572146441</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="14">
-        <v>4</v>
-      </c>
-      <c r="H41" s="14">
-        <v>2</v>
-      </c>
-      <c r="I41" s="14">
-        <v>5</v>
-      </c>
-      <c r="J41" s="14">
-        <v>1</v>
-      </c>
-      <c r="K41" s="14">
-        <v>3</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="P41" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R41" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="S41" s="21">
-        <v>5</v>
-      </c>
-      <c r="T41" s="22">
-        <v>3</v>
-      </c>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="19"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19"/>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="19"/>
-      <c r="AY41" s="19"/>
-      <c r="AZ41" s="19"/>
-      <c r="BA41" s="19"/>
-      <c r="BB41" s="19"/>
-      <c r="BC41" s="19"/>
-      <c r="BD41" s="19"/>
-      <c r="BE41" s="19"/>
-      <c r="BF41" s="19"/>
-      <c r="BG41" s="19"/>
-      <c r="BH41" s="19"/>
-      <c r="BI41" s="19"/>
-      <c r="BJ41" s="19"/>
-    </row>
-    <row r="42" spans="1:62" ht="165" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>45</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7">
-        <v>6.3054799107318136</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="5">
-        <v>4</v>
-      </c>
-      <c r="H42" s="5">
-        <v>2</v>
-      </c>
-      <c r="I42" s="5">
-        <v>5</v>
-      </c>
-      <c r="J42" s="5">
-        <v>3</v>
-      </c>
-      <c r="K42" s="5">
-        <v>1</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P42" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S42" s="12">
-        <v>2</v>
-      </c>
-      <c r="T42" s="13">
-        <v>1</v>
-      </c>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="10"/>
-      <c r="AT42" s="10"/>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
-      <c r="AW42" s="10"/>
-      <c r="AX42" s="10"/>
-      <c r="AY42" s="10"/>
-      <c r="AZ42" s="10"/>
-      <c r="BA42" s="10"/>
-      <c r="BB42" s="10"/>
-      <c r="BC42" s="10"/>
-      <c r="BD42" s="10"/>
-      <c r="BE42" s="10"/>
-      <c r="BF42" s="10"/>
-      <c r="BG42" s="10"/>
-      <c r="BH42" s="10"/>
-      <c r="BI42" s="10"/>
-      <c r="BJ42" s="10"/>
-    </row>
-    <row r="43" spans="1:62" ht="150" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>46</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0</v>
-      </c>
-      <c r="E43" s="16">
-        <v>6.5457895427666593</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="G43" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43" s="14">
         <v>2</v>
@@ -9235,7 +9295,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K43" s="14">
         <v>3</v>
@@ -9244,10 +9304,10 @@
         <v>8</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O43" s="19" t="s">
         <v>120</v>
@@ -9256,13 +9316,13 @@
         <v>5</v>
       </c>
       <c r="Q43" s="20" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="R43" s="21" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="S43" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" s="22">
         <v>3</v>
@@ -9291,9 +9351,7 @@
       <c r="AP43" s="19"/>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="19"/>
-      <c r="AS43" s="19" t="s">
-        <v>197</v>
-      </c>
+      <c r="AS43" s="19"/>
       <c r="AT43" s="19"/>
       <c r="AU43" s="19"/>
       <c r="AV43" s="19"/>
@@ -9385,8 +9443,12 @@
         <v>1006</v>
       </c>
       <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
+      <c r="AE44" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AF44" s="10" t="s">
+        <v>1253</v>
+      </c>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
       <c r="AI44" s="10"/>
@@ -9699,7 +9761,9 @@
       <c r="AB47" s="19"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
+      <c r="AE47" s="19" t="s">
+        <v>1254</v>
+      </c>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
@@ -9805,7 +9869,9 @@
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
+      <c r="AE48" s="10" t="s">
+        <v>1255</v>
+      </c>
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
       <c r="AH48" s="10"/>
@@ -10203,7 +10269,7 @@
         <v>232</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>233</v>
@@ -10233,7 +10299,7 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
@@ -10268,113 +10334,109 @@
       <c r="BI52" s="10"/>
       <c r="BJ52" s="10"/>
     </row>
-    <row r="53" spans="1:62" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
-        <v>57</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" s="15">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16">
-        <v>11.38421565583562</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="14">
-        <v>4</v>
-      </c>
-      <c r="H53" s="14">
-        <v>1</v>
-      </c>
-      <c r="I53" s="14">
-        <v>5</v>
-      </c>
-      <c r="J53" s="14">
-        <v>3</v>
-      </c>
-      <c r="K53" s="14">
-        <v>2</v>
-      </c>
-      <c r="L53" s="14" t="s">
+    <row r="53" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>45</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
+        <v>6.3054799107318136</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="5">
+        <v>4</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5">
+        <v>5</v>
+      </c>
+      <c r="J53" s="5">
+        <v>3</v>
+      </c>
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+      <c r="L53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M53" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="N53" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="O53" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="P53" s="20">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="20" t="s">
+      <c r="M53" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P53" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="R53" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S53" s="21">
-        <v>4</v>
-      </c>
-      <c r="T53" s="22">
-        <v>3</v>
-      </c>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
-      <c r="AM53" s="19"/>
-      <c r="AN53" s="19"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="19"/>
-      <c r="AQ53" s="19"/>
-      <c r="AR53" s="19"/>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="19"/>
-      <c r="AU53" s="19"/>
-      <c r="AV53" s="19"/>
-      <c r="AW53" s="19"/>
-      <c r="AX53" s="19"/>
-      <c r="AY53" s="19"/>
-      <c r="AZ53" s="19"/>
-      <c r="BA53" s="19" t="s">
-        <v>1012</v>
-      </c>
-      <c r="BB53" s="19"/>
-      <c r="BC53" s="19"/>
-      <c r="BD53" s="19"/>
-      <c r="BE53" s="19"/>
-      <c r="BF53" s="19" t="s">
-        <v>1013</v>
-      </c>
-      <c r="BG53" s="19"/>
-      <c r="BH53" s="19"/>
-      <c r="BI53" s="19"/>
-      <c r="BJ53" s="19"/>
+      <c r="R53" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S53" s="12">
+        <v>2</v>
+      </c>
+      <c r="T53" s="13">
+        <v>1</v>
+      </c>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="10"/>
+      <c r="AQ53" s="10"/>
+      <c r="AR53" s="10"/>
+      <c r="AS53" s="10"/>
+      <c r="AT53" s="10"/>
+      <c r="AU53" s="10"/>
+      <c r="AV53" s="10"/>
+      <c r="AW53" s="10"/>
+      <c r="AX53" s="10"/>
+      <c r="AY53" s="10"/>
+      <c r="AZ53" s="10"/>
+      <c r="BA53" s="10"/>
+      <c r="BB53" s="10"/>
+      <c r="BC53" s="10"/>
+      <c r="BD53" s="10"/>
+      <c r="BE53" s="10"/>
+      <c r="BF53" s="10"/>
+      <c r="BG53" s="10"/>
+      <c r="BH53" s="10"/>
+      <c r="BI53" s="10"/>
+      <c r="BJ53" s="10"/>
     </row>
     <row r="54" spans="1:62" ht="210" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -10462,7 +10524,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
       <c r="AU54" s="10" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
@@ -10480,66 +10542,66 @@
       <c r="BI54" s="10"/>
       <c r="BJ54" s="10"/>
     </row>
-    <row r="55" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="D55" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="16">
-        <v>10.210245495615631</v>
+        <v>6.5457895427666593</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G55" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I55" s="14">
         <v>5</v>
       </c>
       <c r="J55" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K55" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>8</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="P55" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="R55" s="21" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="S55" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
@@ -10565,11 +10627,11 @@
       <c r="AP55" s="19"/>
       <c r="AQ55" s="19"/>
       <c r="AR55" s="19"/>
-      <c r="AS55" s="19"/>
+      <c r="AS55" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="AT55" s="19"/>
-      <c r="AU55" s="19" t="s">
-        <v>1157</v>
-      </c>
+      <c r="AU55" s="19"/>
       <c r="AV55" s="19"/>
       <c r="AW55" s="19"/>
       <c r="AX55" s="19"/>
@@ -10586,127 +10648,129 @@
       <c r="BI55" s="19"/>
       <c r="BJ55" s="19"/>
     </row>
-    <row r="56" spans="1:62" ht="315" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>71</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="7">
-        <v>7.3362865496252327</v>
-      </c>
-      <c r="F56" s="5" t="s">
+    <row r="56" spans="1:62" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>57</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1</v>
+      </c>
+      <c r="E56" s="16">
+        <v>11.38421565583562</v>
+      </c>
+      <c r="F56" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="5">
-        <v>4</v>
-      </c>
-      <c r="H56" s="5">
-        <v>3</v>
-      </c>
-      <c r="I56" s="5">
-        <v>5</v>
-      </c>
-      <c r="J56" s="5">
-        <v>1</v>
-      </c>
-      <c r="K56" s="5">
-        <v>2</v>
-      </c>
-      <c r="L56" s="5" t="s">
+      <c r="G56" s="14">
+        <v>4</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1</v>
+      </c>
+      <c r="I56" s="14">
+        <v>5</v>
+      </c>
+      <c r="J56" s="14">
+        <v>3</v>
+      </c>
+      <c r="K56" s="14">
+        <v>2</v>
+      </c>
+      <c r="L56" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M56" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="P56" s="11">
+      <c r="M56" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="P56" s="20">
         <v>10</v>
       </c>
-      <c r="Q56" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="R56" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S56" s="12">
-        <v>5</v>
-      </c>
-      <c r="T56" s="13">
-        <v>3</v>
-      </c>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="10"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="10"/>
-      <c r="AM56" s="10"/>
-      <c r="AN56" s="10"/>
-      <c r="AO56" s="10"/>
-      <c r="AP56" s="10"/>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10"/>
-      <c r="AS56" s="10"/>
-      <c r="AT56" s="10"/>
-      <c r="AU56" s="10"/>
-      <c r="AV56" s="10"/>
-      <c r="AW56" s="10"/>
-      <c r="AX56" s="10"/>
-      <c r="AY56" s="10"/>
-      <c r="AZ56" s="10"/>
-      <c r="BA56" s="10"/>
-      <c r="BB56" s="10"/>
-      <c r="BC56" s="10"/>
-      <c r="BD56" s="10"/>
-      <c r="BE56" s="10"/>
-      <c r="BF56" s="10"/>
-      <c r="BG56" s="10"/>
-      <c r="BH56" s="10"/>
-      <c r="BI56" s="10"/>
-      <c r="BJ56" s="10"/>
+      <c r="Q56" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="R56" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S56" s="21">
+        <v>4</v>
+      </c>
+      <c r="T56" s="22">
+        <v>3</v>
+      </c>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="19"/>
+      <c r="AL56" s="19"/>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="19"/>
+      <c r="AO56" s="19"/>
+      <c r="AP56" s="19"/>
+      <c r="AQ56" s="19"/>
+      <c r="AR56" s="19"/>
+      <c r="AS56" s="19"/>
+      <c r="AT56" s="19"/>
+      <c r="AU56" s="19"/>
+      <c r="AV56" s="19"/>
+      <c r="AW56" s="19"/>
+      <c r="AX56" s="19"/>
+      <c r="AY56" s="19"/>
+      <c r="AZ56" s="19"/>
+      <c r="BA56" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BB56" s="19"/>
+      <c r="BC56" s="19"/>
+      <c r="BD56" s="19"/>
+      <c r="BE56" s="19"/>
+      <c r="BF56" s="19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="BG56" s="19"/>
+      <c r="BH56" s="19"/>
+      <c r="BI56" s="19"/>
+      <c r="BJ56" s="19"/>
     </row>
-    <row r="57" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62" ht="225" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D57" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="16">
-        <v>6.1305659097616054</v>
+        <v>10.210245495615631</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>79</v>
@@ -10733,13 +10797,13 @@
         <v>239</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O57" s="19" t="s">
         <v>240</v>
       </c>
       <c r="P57" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="20" t="s">
         <v>132</v>
@@ -10751,7 +10815,7 @@
         <v>5</v>
       </c>
       <c r="T57" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U57" s="19"/>
       <c r="V57" s="19"/>
@@ -10780,7 +10844,7 @@
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
       <c r="AU57" s="19" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="AV57" s="19"/>
       <c r="AW57" s="19"/>
@@ -10798,30 +10862,30 @@
       <c r="BI57" s="19"/>
       <c r="BJ57" s="19"/>
     </row>
-    <row r="58" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62" ht="315" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <v>3.750063790197145</v>
+        <v>7.3362865496252327</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G58" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" s="5">
         <v>5</v>
@@ -10836,16 +10900,16 @@
         <v>8</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O58" s="10" t="s">
         <v>240</v>
       </c>
       <c r="P58" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>132</v>
@@ -10866,7 +10930,9 @@
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
+      <c r="AB58" s="10" t="s">
+        <v>248</v>
+      </c>
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
       <c r="AE58" s="10"/>
@@ -10902,21 +10968,21 @@
       <c r="BI58" s="10"/>
       <c r="BJ58" s="10"/>
     </row>
-    <row r="59" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:62" ht="210" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D59" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="16">
-        <v>2.113685458606974</v>
+        <v>6.1305659097616054</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>79</v>
@@ -10931,10 +10997,10 @@
         <v>5</v>
       </c>
       <c r="J59" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="14" t="s">
         <v>8</v>
@@ -10943,7 +11009,7 @@
         <v>239</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O59" s="19" t="s">
         <v>240</v>
@@ -10961,7 +11027,7 @@
         <v>5</v>
       </c>
       <c r="T59" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U59" s="19"/>
       <c r="V59" s="19"/>
@@ -10978,9 +11044,7 @@
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="19" t="s">
-        <v>1209</v>
-      </c>
+      <c r="AJ59" s="19"/>
       <c r="AK59" s="19"/>
       <c r="AL59" s="19"/>
       <c r="AM59" s="19"/>
@@ -10991,7 +11055,9 @@
       <c r="AR59" s="19"/>
       <c r="AS59" s="19"/>
       <c r="AT59" s="19"/>
-      <c r="AU59" s="19"/>
+      <c r="AU59" s="19" t="s">
+        <v>1154</v>
+      </c>
       <c r="AV59" s="19"/>
       <c r="AW59" s="19"/>
       <c r="AX59" s="19"/>
@@ -11106,7 +11172,7 @@
       <c r="BA60" s="10"/>
       <c r="BB60" s="10"/>
       <c r="BC60" s="45" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="BD60" s="10"/>
       <c r="BE60" s="10" t="s">
@@ -11116,7 +11182,7 @@
       <c r="BG60" s="10"/>
       <c r="BH60" s="10"/>
       <c r="BI60" s="10" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="BJ60" s="10"/>
     </row>
@@ -11295,7 +11361,7 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
@@ -11303,7 +11369,7 @@
       <c r="AH62" s="10"/>
       <c r="AI62" s="10"/>
       <c r="AJ62" s="10" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
@@ -11626,7 +11692,7 @@
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
       <c r="AK65" s="19" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="AL65" s="19"/>
       <c r="AM65" s="19"/>
@@ -11770,7 +11836,7 @@
         <v>285</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -12255,7 +12321,7 @@
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
@@ -12282,7 +12348,7 @@
       <c r="BA71" s="19"/>
       <c r="BB71" s="19"/>
       <c r="BC71" s="45" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="BD71" s="19"/>
       <c r="BE71" s="19"/>
@@ -12398,215 +12464,215 @@
       <c r="BI72" s="10"/>
       <c r="BJ72" s="10"/>
     </row>
-    <row r="73" spans="1:62" ht="225" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
-        <v>91</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D73" s="15">
-        <v>1</v>
-      </c>
-      <c r="E73" s="16">
-        <v>7.3242354266104783</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G73" s="14">
-        <v>2</v>
-      </c>
-      <c r="H73" s="14">
-        <v>3</v>
-      </c>
-      <c r="I73" s="14">
-        <v>5</v>
-      </c>
-      <c r="J73" s="14">
-        <v>4</v>
-      </c>
-      <c r="K73" s="14">
-        <v>1</v>
-      </c>
-      <c r="L73" s="14" t="s">
+    <row r="73" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>73</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7">
+        <v>3.750063790197145</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="5">
+        <v>3</v>
+      </c>
+      <c r="H73" s="5">
+        <v>4</v>
+      </c>
+      <c r="I73" s="5">
+        <v>5</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1</v>
+      </c>
+      <c r="K73" s="5">
+        <v>2</v>
+      </c>
+      <c r="L73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M73" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="N73" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="O73" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="P73" s="20">
-        <v>10</v>
-      </c>
-      <c r="Q73" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="R73" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S73" s="21">
-        <v>3</v>
-      </c>
-      <c r="T73" s="22">
-        <v>3</v>
-      </c>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="19"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="19"/>
-      <c r="AB73" s="19"/>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="19"/>
-      <c r="AF73" s="19"/>
-      <c r="AG73" s="19"/>
-      <c r="AH73" s="19"/>
-      <c r="AI73" s="19"/>
-      <c r="AJ73" s="19"/>
-      <c r="AK73" s="19"/>
-      <c r="AL73" s="19"/>
-      <c r="AM73" s="19"/>
-      <c r="AN73" s="19"/>
-      <c r="AO73" s="19"/>
-      <c r="AP73" s="19"/>
-      <c r="AQ73" s="19"/>
-      <c r="AR73" s="19"/>
-      <c r="AS73" s="19"/>
-      <c r="AT73" s="19"/>
-      <c r="AU73" s="19"/>
-      <c r="AV73" s="19"/>
-      <c r="AW73" s="19"/>
-      <c r="AX73" s="19"/>
-      <c r="AY73" s="19"/>
-      <c r="AZ73" s="19"/>
-      <c r="BA73" s="19"/>
-      <c r="BB73" s="19"/>
-      <c r="BC73" s="19"/>
-      <c r="BD73" s="19"/>
-      <c r="BE73" s="19"/>
-      <c r="BF73" s="19"/>
-      <c r="BG73" s="19"/>
-      <c r="BH73" s="19"/>
-      <c r="BI73" s="19"/>
-      <c r="BJ73" s="19"/>
+      <c r="M73" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="P73" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="R73" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S73" s="12">
+        <v>5</v>
+      </c>
+      <c r="T73" s="13">
+        <v>3</v>
+      </c>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="10"/>
+      <c r="AG73" s="10"/>
+      <c r="AH73" s="10"/>
+      <c r="AI73" s="10"/>
+      <c r="AJ73" s="10"/>
+      <c r="AK73" s="10"/>
+      <c r="AL73" s="10"/>
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="10"/>
+      <c r="AO73" s="10"/>
+      <c r="AP73" s="10"/>
+      <c r="AQ73" s="10"/>
+      <c r="AR73" s="10"/>
+      <c r="AS73" s="10"/>
+      <c r="AT73" s="10"/>
+      <c r="AU73" s="10"/>
+      <c r="AV73" s="10"/>
+      <c r="AW73" s="10"/>
+      <c r="AX73" s="10"/>
+      <c r="AY73" s="10"/>
+      <c r="AZ73" s="10"/>
+      <c r="BA73" s="10"/>
+      <c r="BB73" s="10"/>
+      <c r="BC73" s="10"/>
+      <c r="BD73" s="10"/>
+      <c r="BE73" s="10"/>
+      <c r="BF73" s="10"/>
+      <c r="BG73" s="10"/>
+      <c r="BH73" s="10"/>
+      <c r="BI73" s="10"/>
+      <c r="BJ73" s="10"/>
     </row>
-    <row r="74" spans="1:62" ht="315" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>93</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D74" s="6">
-        <v>0</v>
-      </c>
-      <c r="E74" s="7">
-        <v>16.979158117070469</v>
-      </c>
-      <c r="F74" s="5" t="s">
+    <row r="74" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>74</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="15">
+        <v>1</v>
+      </c>
+      <c r="E74" s="16">
+        <v>2.113685458606974</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-      <c r="H74" s="5">
-        <v>2</v>
-      </c>
-      <c r="I74" s="5">
-        <v>5</v>
-      </c>
-      <c r="J74" s="5">
-        <v>4</v>
-      </c>
-      <c r="K74" s="5">
-        <v>3</v>
-      </c>
-      <c r="L74" s="5" t="s">
+      <c r="G74" s="14">
+        <v>3</v>
+      </c>
+      <c r="H74" s="14">
+        <v>4</v>
+      </c>
+      <c r="I74" s="14">
+        <v>5</v>
+      </c>
+      <c r="J74" s="14">
+        <v>2</v>
+      </c>
+      <c r="K74" s="14">
+        <v>1</v>
+      </c>
+      <c r="L74" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M74" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="O74" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="P74" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q74" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="R74" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S74" s="12">
-        <v>4</v>
-      </c>
-      <c r="T74" s="13">
-        <v>4</v>
-      </c>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-      <c r="AF74" s="10"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
-      <c r="AI74" s="10"/>
-      <c r="AJ74" s="10"/>
-      <c r="AK74" s="10"/>
-      <c r="AL74" s="10"/>
-      <c r="AM74" s="10"/>
-      <c r="AN74" s="10"/>
-      <c r="AO74" s="10"/>
-      <c r="AP74" s="10"/>
-      <c r="AQ74" s="10"/>
-      <c r="AR74" s="10"/>
-      <c r="AS74" s="10"/>
-      <c r="AT74" s="10"/>
-      <c r="AU74" s="10"/>
-      <c r="AV74" s="10"/>
-      <c r="AW74" s="10"/>
-      <c r="AX74" s="10"/>
-      <c r="AY74" s="10"/>
-      <c r="AZ74" s="10"/>
-      <c r="BA74" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="BB74" s="10"/>
-      <c r="BC74" s="10"/>
-      <c r="BD74" s="10"/>
-      <c r="BE74" s="10"/>
-      <c r="BF74" s="10"/>
-      <c r="BG74" s="10"/>
-      <c r="BH74" s="10"/>
-      <c r="BI74" s="10"/>
-      <c r="BJ74" s="10"/>
+      <c r="M74" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="N74" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O74" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="P74" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="R74" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S74" s="21">
+        <v>5</v>
+      </c>
+      <c r="T74" s="22">
+        <v>4</v>
+      </c>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="19"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="19"/>
+      <c r="AJ74" s="19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AK74" s="19"/>
+      <c r="AL74" s="19"/>
+      <c r="AM74" s="19"/>
+      <c r="AN74" s="19"/>
+      <c r="AO74" s="19"/>
+      <c r="AP74" s="19"/>
+      <c r="AQ74" s="19"/>
+      <c r="AR74" s="19"/>
+      <c r="AS74" s="19"/>
+      <c r="AT74" s="19"/>
+      <c r="AU74" s="19"/>
+      <c r="AV74" s="19"/>
+      <c r="AW74" s="19"/>
+      <c r="AX74" s="19"/>
+      <c r="AY74" s="19"/>
+      <c r="AZ74" s="19"/>
+      <c r="BA74" s="19"/>
+      <c r="BB74" s="19"/>
+      <c r="BC74" s="19"/>
+      <c r="BD74" s="19"/>
+      <c r="BE74" s="19"/>
+      <c r="BF74" s="19"/>
+      <c r="BG74" s="19"/>
+      <c r="BH74" s="19"/>
+      <c r="BI74" s="19"/>
+      <c r="BJ74" s="19"/>
     </row>
     <row r="75" spans="1:62" ht="210" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
@@ -12810,7 +12876,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
       <c r="AU76" s="10" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
@@ -12866,7 +12932,7 @@
         <v>10</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="N77" s="18" t="s">
         <v>324</v>
@@ -12901,7 +12967,9 @@
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
-      <c r="AE77" s="19"/>
+      <c r="AE77" s="19" t="s">
+        <v>1256</v>
+      </c>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
@@ -12918,7 +12986,7 @@
       <c r="AS77" s="19"/>
       <c r="AT77" s="19"/>
       <c r="AU77" s="19" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="AV77" s="19"/>
       <c r="AW77" s="19"/>
@@ -13009,7 +13077,7 @@
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AE78" s="10"/>
       <c r="AF78" s="10"/>
@@ -13611,7 +13679,7 @@
         <v>353</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="O84" s="10" t="s">
         <v>325</v>
@@ -13953,7 +14021,7 @@
       <c r="AB87" s="19"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AE87" s="19"/>
       <c r="AF87" s="19"/>
@@ -14308,55 +14376,55 @@
     </row>
     <row r="91" spans="1:62" ht="225" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="D91" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="16">
-        <v>3.4540635978024352</v>
+        <v>7.3242354266104783</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G91" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91" s="14">
         <v>5</v>
       </c>
       <c r="J91" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K91" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L91" s="14" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="O91" s="19" t="s">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="P91" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="R91" s="21" t="s">
         <v>44</v>
@@ -14365,7 +14433,7 @@
         <v>3</v>
       </c>
       <c r="T91" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
@@ -14511,114 +14579,118 @@
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
       <c r="BH92" s="10" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="BI92" s="10"/>
       <c r="BJ92" s="10"/>
     </row>
-    <row r="93" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
-        <v>112</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="D93" s="15">
-        <v>1</v>
-      </c>
-      <c r="E93" s="16">
-        <v>10.30159728024538</v>
-      </c>
-      <c r="F93" s="14" t="s">
+    <row r="93" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>93</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7">
+        <v>16.979158117070469</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="14">
-        <v>1</v>
-      </c>
-      <c r="H93" s="14">
-        <v>4</v>
-      </c>
-      <c r="I93" s="14">
-        <v>5</v>
-      </c>
-      <c r="J93" s="14">
-        <v>3</v>
-      </c>
-      <c r="K93" s="14">
-        <v>2</v>
-      </c>
-      <c r="L93" s="14" t="s">
+      <c r="G93" s="5">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5">
+        <v>2</v>
+      </c>
+      <c r="I93" s="5">
+        <v>5</v>
+      </c>
+      <c r="J93" s="5">
+        <v>4</v>
+      </c>
+      <c r="K93" s="5">
+        <v>3</v>
+      </c>
+      <c r="L93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M93" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="N93" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="O93" s="19" t="s">
+      <c r="M93" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="O93" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="P93" s="20">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="R93" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="S93" s="21">
-        <v>4</v>
-      </c>
-      <c r="T93" s="22">
-        <v>3</v>
-      </c>
-      <c r="U93" s="19"/>
-      <c r="V93" s="19"/>
-      <c r="W93" s="19"/>
-      <c r="X93" s="19"/>
-      <c r="Y93" s="19"/>
-      <c r="Z93" s="19"/>
-      <c r="AA93" s="19"/>
-      <c r="AB93" s="19"/>
-      <c r="AC93" s="19"/>
-      <c r="AD93" s="19"/>
-      <c r="AE93" s="19"/>
-      <c r="AF93" s="19"/>
-      <c r="AG93" s="19"/>
-      <c r="AH93" s="19"/>
-      <c r="AI93" s="19"/>
-      <c r="AJ93" s="19"/>
-      <c r="AK93" s="19"/>
-      <c r="AL93" s="19"/>
-      <c r="AM93" s="19"/>
-      <c r="AN93" s="19"/>
-      <c r="AO93" s="19"/>
-      <c r="AP93" s="19"/>
-      <c r="AQ93" s="19"/>
-      <c r="AR93" s="19"/>
-      <c r="AS93" s="19"/>
-      <c r="AT93" s="19"/>
-      <c r="AU93" s="19"/>
-      <c r="AV93" s="19"/>
-      <c r="AW93" s="19"/>
-      <c r="AX93" s="19"/>
-      <c r="AY93" s="19"/>
-      <c r="AZ93" s="19"/>
-      <c r="BA93" s="19"/>
-      <c r="BB93" s="19"/>
-      <c r="BC93" s="19"/>
-      <c r="BD93" s="19"/>
-      <c r="BE93" s="19"/>
-      <c r="BF93" s="19"/>
-      <c r="BG93" s="19"/>
-      <c r="BH93" s="19"/>
-      <c r="BI93" s="19"/>
-      <c r="BJ93" s="19"/>
+      <c r="P93" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q93" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="R93" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S93" s="12">
+        <v>4</v>
+      </c>
+      <c r="T93" s="13">
+        <v>4</v>
+      </c>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="10"/>
+      <c r="AC93" s="10"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AF93" s="10"/>
+      <c r="AG93" s="10"/>
+      <c r="AH93" s="10"/>
+      <c r="AI93" s="10"/>
+      <c r="AJ93" s="10"/>
+      <c r="AK93" s="10"/>
+      <c r="AL93" s="10"/>
+      <c r="AM93" s="10"/>
+      <c r="AN93" s="10"/>
+      <c r="AO93" s="10"/>
+      <c r="AP93" s="10"/>
+      <c r="AQ93" s="10"/>
+      <c r="AR93" s="10"/>
+      <c r="AS93" s="10"/>
+      <c r="AT93" s="10"/>
+      <c r="AU93" s="10"/>
+      <c r="AV93" s="10"/>
+      <c r="AW93" s="10"/>
+      <c r="AX93" s="10"/>
+      <c r="AY93" s="10"/>
+      <c r="AZ93" s="10"/>
+      <c r="BA93" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="BB93" s="10"/>
+      <c r="BC93" s="10"/>
+      <c r="BD93" s="10"/>
+      <c r="BE93" s="10"/>
+      <c r="BF93" s="10"/>
+      <c r="BG93" s="10"/>
+      <c r="BH93" s="10"/>
+      <c r="BI93" s="10"/>
+      <c r="BJ93" s="10"/>
     </row>
     <row r="94" spans="1:62" ht="285" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -14720,7 +14792,7 @@
       <c r="BE94" s="10"/>
       <c r="BF94" s="10"/>
       <c r="BG94" s="10" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="BH94" s="10"/>
       <c r="BI94" s="10"/>
@@ -14907,7 +14979,7 @@
       <c r="AH96" s="10"/>
       <c r="AI96" s="10"/>
       <c r="AJ96" s="10" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
@@ -15154,7 +15226,7 @@
         <v>406</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -15248,7 +15320,7 @@
       <c r="BG99" s="19"/>
       <c r="BH99" s="19"/>
       <c r="BI99" s="19" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="BJ99" s="19"/>
     </row>
@@ -15877,108 +15949,108 @@
       <c r="BJ105" s="19"/>
     </row>
     <row r="106" spans="1:62" ht="225" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>126</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D106" s="6">
+      <c r="A106" s="14">
+        <v>110</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D106" s="15">
         <v>0</v>
       </c>
-      <c r="E106" s="7">
-        <v>11.317343060344889</v>
-      </c>
-      <c r="F106" s="5" t="s">
+      <c r="E106" s="16">
+        <v>3.4540635978024352</v>
+      </c>
+      <c r="F106" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G106" s="5">
-        <v>1</v>
-      </c>
-      <c r="H106" s="5">
-        <v>3</v>
-      </c>
-      <c r="I106" s="5">
-        <v>5</v>
-      </c>
-      <c r="J106" s="5">
-        <v>2</v>
-      </c>
-      <c r="K106" s="5">
-        <v>4</v>
-      </c>
-      <c r="L106" s="5" t="s">
+      <c r="G106" s="14">
+        <v>3</v>
+      </c>
+      <c r="H106" s="14">
+        <v>2</v>
+      </c>
+      <c r="I106" s="14">
+        <v>5</v>
+      </c>
+      <c r="J106" s="14">
+        <v>1</v>
+      </c>
+      <c r="K106" s="14">
+        <v>4</v>
+      </c>
+      <c r="L106" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M106" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="N106" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="O106" s="10" t="s">
+      <c r="M106" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="N106" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="O106" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P106" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q106" s="11" t="s">
+      <c r="P106" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q106" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="R106" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="S106" s="12">
-        <v>2</v>
-      </c>
-      <c r="T106" s="13">
-        <v>1</v>
-      </c>
-      <c r="U106" s="10"/>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
-      <c r="X106" s="10"/>
-      <c r="Y106" s="10"/>
-      <c r="Z106" s="10"/>
-      <c r="AA106" s="10"/>
-      <c r="AB106" s="10"/>
-      <c r="AC106" s="10"/>
-      <c r="AD106" s="10"/>
-      <c r="AE106" s="10"/>
-      <c r="AF106" s="10"/>
-      <c r="AG106" s="10"/>
-      <c r="AH106" s="10"/>
-      <c r="AI106" s="10"/>
-      <c r="AJ106" s="10"/>
-      <c r="AK106" s="10"/>
-      <c r="AL106" s="10"/>
-      <c r="AM106" s="10"/>
-      <c r="AN106" s="10"/>
-      <c r="AO106" s="10"/>
-      <c r="AP106" s="10"/>
-      <c r="AQ106" s="10"/>
-      <c r="AR106" s="10"/>
-      <c r="AS106" s="10"/>
-      <c r="AT106" s="10"/>
-      <c r="AU106" s="10"/>
-      <c r="AV106" s="10"/>
-      <c r="AW106" s="10"/>
-      <c r="AX106" s="10"/>
-      <c r="AY106" s="10"/>
-      <c r="AZ106" s="10"/>
-      <c r="BA106" s="10"/>
-      <c r="BB106" s="10"/>
-      <c r="BC106" s="10"/>
-      <c r="BD106" s="10"/>
-      <c r="BE106" s="10"/>
-      <c r="BF106" s="10"/>
-      <c r="BG106" s="10"/>
-      <c r="BH106" s="10"/>
-      <c r="BI106" s="10"/>
-      <c r="BJ106" s="10"/>
+      <c r="R106" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S106" s="21">
+        <v>3</v>
+      </c>
+      <c r="T106" s="22">
+        <v>1</v>
+      </c>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="19"/>
+      <c r="X106" s="19"/>
+      <c r="Y106" s="19"/>
+      <c r="Z106" s="19"/>
+      <c r="AA106" s="19"/>
+      <c r="AB106" s="19"/>
+      <c r="AC106" s="19"/>
+      <c r="AD106" s="19"/>
+      <c r="AE106" s="19"/>
+      <c r="AF106" s="19"/>
+      <c r="AG106" s="19"/>
+      <c r="AH106" s="19"/>
+      <c r="AI106" s="19"/>
+      <c r="AJ106" s="19"/>
+      <c r="AK106" s="19"/>
+      <c r="AL106" s="19"/>
+      <c r="AM106" s="19"/>
+      <c r="AN106" s="19"/>
+      <c r="AO106" s="19"/>
+      <c r="AP106" s="19"/>
+      <c r="AQ106" s="19"/>
+      <c r="AR106" s="19"/>
+      <c r="AS106" s="19"/>
+      <c r="AT106" s="19"/>
+      <c r="AU106" s="19"/>
+      <c r="AV106" s="19"/>
+      <c r="AW106" s="19"/>
+      <c r="AX106" s="19"/>
+      <c r="AY106" s="19"/>
+      <c r="AZ106" s="19"/>
+      <c r="BA106" s="19"/>
+      <c r="BB106" s="19"/>
+      <c r="BC106" s="19"/>
+      <c r="BD106" s="19"/>
+      <c r="BE106" s="19"/>
+      <c r="BF106" s="19"/>
+      <c r="BG106" s="19"/>
+      <c r="BH106" s="19"/>
+      <c r="BI106" s="19"/>
+      <c r="BJ106" s="19"/>
     </row>
     <row r="107" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
@@ -16508,213 +16580,213 @@
       <c r="BI111" s="19"/>
       <c r="BJ111" s="19"/>
     </row>
-    <row r="112" spans="1:62" ht="390" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>132</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D112" s="6">
-        <v>1</v>
-      </c>
-      <c r="E112" s="7">
-        <v>12.812704560363279</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G112" s="5">
-        <v>4</v>
-      </c>
-      <c r="H112" s="5">
-        <v>3</v>
-      </c>
-      <c r="I112" s="5">
-        <v>5</v>
-      </c>
-      <c r="J112" s="5">
-        <v>1</v>
-      </c>
-      <c r="K112" s="5">
-        <v>2</v>
-      </c>
-      <c r="L112" s="5" t="s">
+    <row r="112" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>112</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D112" s="15">
+        <v>1</v>
+      </c>
+      <c r="E112" s="16">
+        <v>10.30159728024538</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" s="14">
+        <v>1</v>
+      </c>
+      <c r="H112" s="14">
+        <v>4</v>
+      </c>
+      <c r="I112" s="14">
+        <v>5</v>
+      </c>
+      <c r="J112" s="14">
+        <v>3</v>
+      </c>
+      <c r="K112" s="14">
+        <v>2</v>
+      </c>
+      <c r="L112" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M112" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="N112" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="O112" s="10" t="s">
+      <c r="M112" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="N112" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="O112" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="P112" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q112" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="R112" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S112" s="21">
+        <v>4</v>
+      </c>
+      <c r="T112" s="22">
+        <v>3</v>
+      </c>
+      <c r="U112" s="19"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="19"/>
+      <c r="X112" s="19"/>
+      <c r="Y112" s="19"/>
+      <c r="Z112" s="19"/>
+      <c r="AA112" s="19"/>
+      <c r="AB112" s="19"/>
+      <c r="AC112" s="19"/>
+      <c r="AD112" s="19"/>
+      <c r="AE112" s="19"/>
+      <c r="AF112" s="19"/>
+      <c r="AG112" s="19"/>
+      <c r="AH112" s="19"/>
+      <c r="AI112" s="19"/>
+      <c r="AJ112" s="19"/>
+      <c r="AK112" s="19"/>
+      <c r="AL112" s="19"/>
+      <c r="AM112" s="19"/>
+      <c r="AN112" s="19"/>
+      <c r="AO112" s="19"/>
+      <c r="AP112" s="19"/>
+      <c r="AQ112" s="19"/>
+      <c r="AR112" s="19"/>
+      <c r="AS112" s="19"/>
+      <c r="AT112" s="19"/>
+      <c r="AU112" s="19"/>
+      <c r="AV112" s="19"/>
+      <c r="AW112" s="19"/>
+      <c r="AX112" s="19"/>
+      <c r="AY112" s="19"/>
+      <c r="AZ112" s="19"/>
+      <c r="BA112" s="19"/>
+      <c r="BB112" s="19"/>
+      <c r="BC112" s="19"/>
+      <c r="BD112" s="19"/>
+      <c r="BE112" s="19"/>
+      <c r="BF112" s="19"/>
+      <c r="BG112" s="19"/>
+      <c r="BH112" s="19"/>
+      <c r="BI112" s="19"/>
+      <c r="BJ112" s="19"/>
+    </row>
+    <row r="113" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>126</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+      <c r="E113" s="7">
+        <v>11.317343060344889</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G113" s="5">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5">
+        <v>3</v>
+      </c>
+      <c r="I113" s="5">
+        <v>5</v>
+      </c>
+      <c r="J113" s="5">
+        <v>2</v>
+      </c>
+      <c r="K113" s="5">
+        <v>4</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="O113" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P112" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q112" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R112" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S112" s="12">
-        <v>2</v>
-      </c>
-      <c r="T112" s="13">
-        <v>4</v>
-      </c>
-      <c r="U112" s="10"/>
-      <c r="V112" s="10"/>
-      <c r="W112" s="10"/>
-      <c r="X112" s="10"/>
-      <c r="Y112" s="10"/>
-      <c r="Z112" s="10"/>
-      <c r="AA112" s="10"/>
-      <c r="AB112" s="10"/>
-      <c r="AC112" s="10"/>
-      <c r="AD112" s="10"/>
-      <c r="AE112" s="10"/>
-      <c r="AF112" s="10"/>
-      <c r="AG112" s="10"/>
-      <c r="AH112" s="10"/>
-      <c r="AI112" s="10"/>
-      <c r="AJ112" s="10"/>
-      <c r="AK112" s="10"/>
-      <c r="AL112" s="10"/>
-      <c r="AM112" s="10"/>
-      <c r="AN112" s="10"/>
-      <c r="AO112" s="10"/>
-      <c r="AP112" s="10"/>
-      <c r="AQ112" s="10"/>
-      <c r="AR112" s="10"/>
-      <c r="AS112" s="10"/>
-      <c r="AT112" s="10"/>
-      <c r="AU112" s="10"/>
-      <c r="AV112" s="10"/>
-      <c r="AW112" s="10"/>
-      <c r="AX112" s="10"/>
-      <c r="AY112" s="10"/>
-      <c r="AZ112" s="10"/>
-      <c r="BA112" s="10"/>
-      <c r="BB112" s="10"/>
-      <c r="BC112" s="10"/>
-      <c r="BD112" s="10"/>
-      <c r="BE112" s="10"/>
-      <c r="BF112" s="10"/>
-      <c r="BG112" s="10"/>
-      <c r="BH112" s="10"/>
-      <c r="BI112" s="10"/>
-      <c r="BJ112" s="10"/>
-    </row>
-    <row r="113" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
-        <v>133</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="D113" s="15">
-        <v>0</v>
-      </c>
-      <c r="E113" s="16">
-        <v>15.18847409173272</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" s="14">
-        <v>4</v>
-      </c>
-      <c r="H113" s="14">
-        <v>2</v>
-      </c>
-      <c r="I113" s="14">
-        <v>5</v>
-      </c>
-      <c r="J113" s="14">
-        <v>3</v>
-      </c>
-      <c r="K113" s="14">
-        <v>1</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M113" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="N113" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="O113" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="P113" s="20">
-        <v>15</v>
-      </c>
-      <c r="Q113" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="R113" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S113" s="21">
-        <v>1</v>
-      </c>
-      <c r="T113" s="22">
-        <v>1</v>
-      </c>
-      <c r="U113" s="19"/>
-      <c r="V113" s="19"/>
-      <c r="W113" s="19"/>
-      <c r="X113" s="19"/>
-      <c r="Y113" s="19"/>
-      <c r="Z113" s="19"/>
-      <c r="AA113" s="19"/>
-      <c r="AB113" s="19"/>
-      <c r="AC113" s="19"/>
-      <c r="AD113" s="19"/>
-      <c r="AE113" s="19"/>
-      <c r="AF113" s="19"/>
-      <c r="AG113" s="19"/>
-      <c r="AH113" s="19"/>
-      <c r="AI113" s="19"/>
-      <c r="AJ113" s="19"/>
-      <c r="AK113" s="19"/>
-      <c r="AL113" s="19"/>
-      <c r="AM113" s="19"/>
-      <c r="AN113" s="19"/>
-      <c r="AO113" s="19"/>
-      <c r="AP113" s="19"/>
-      <c r="AQ113" s="19"/>
-      <c r="AR113" s="19"/>
-      <c r="AS113" s="19"/>
-      <c r="AT113" s="19"/>
-      <c r="AU113" s="19"/>
-      <c r="AV113" s="19"/>
-      <c r="AW113" s="19"/>
-      <c r="AX113" s="19"/>
-      <c r="AY113" s="19"/>
-      <c r="AZ113" s="19"/>
-      <c r="BA113" s="19"/>
-      <c r="BB113" s="19"/>
-      <c r="BC113" s="19"/>
-      <c r="BD113" s="19"/>
-      <c r="BE113" s="19"/>
-      <c r="BF113" s="19"/>
-      <c r="BG113" s="19"/>
-      <c r="BH113" s="19"/>
-      <c r="BI113" s="19"/>
-      <c r="BJ113" s="19"/>
+      <c r="P113" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R113" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="S113" s="12">
+        <v>2</v>
+      </c>
+      <c r="T113" s="13">
+        <v>1</v>
+      </c>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="10"/>
+      <c r="Z113" s="10"/>
+      <c r="AA113" s="10"/>
+      <c r="AB113" s="10"/>
+      <c r="AC113" s="10"/>
+      <c r="AD113" s="10"/>
+      <c r="AE113" s="10"/>
+      <c r="AF113" s="10"/>
+      <c r="AG113" s="10"/>
+      <c r="AH113" s="10"/>
+      <c r="AI113" s="10"/>
+      <c r="AJ113" s="10"/>
+      <c r="AK113" s="10"/>
+      <c r="AL113" s="10"/>
+      <c r="AM113" s="10"/>
+      <c r="AN113" s="10"/>
+      <c r="AO113" s="10"/>
+      <c r="AP113" s="10"/>
+      <c r="AQ113" s="10"/>
+      <c r="AR113" s="10"/>
+      <c r="AS113" s="10"/>
+      <c r="AT113" s="10"/>
+      <c r="AU113" s="10"/>
+      <c r="AV113" s="10"/>
+      <c r="AW113" s="10"/>
+      <c r="AX113" s="10"/>
+      <c r="AY113" s="10"/>
+      <c r="AZ113" s="10"/>
+      <c r="BA113" s="10"/>
+      <c r="BB113" s="10"/>
+      <c r="BC113" s="10"/>
+      <c r="BD113" s="10"/>
+      <c r="BE113" s="10"/>
+      <c r="BF113" s="10"/>
+      <c r="BG113" s="10"/>
+      <c r="BH113" s="10"/>
+      <c r="BI113" s="10"/>
+      <c r="BJ113" s="10"/>
     </row>
     <row r="114" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
@@ -16724,7 +16796,7 @@
         <v>453</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -16792,7 +16864,7 @@
       <c r="AI114" s="10"/>
       <c r="AJ114" s="10"/>
       <c r="AK114" s="10" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="AL114" s="10"/>
       <c r="AM114" s="10" t="s">
@@ -16800,7 +16872,7 @@
       </c>
       <c r="AN114" s="10"/>
       <c r="AO114" s="10" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="AP114" s="10"/>
       <c r="AQ114" s="10"/>
@@ -17026,219 +17098,217 @@
       <c r="BG116" s="10"/>
       <c r="BH116" s="10"/>
       <c r="BI116" s="19" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="BJ116" s="10"/>
     </row>
-    <row r="117" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="14">
-        <v>139</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="D117" s="15">
-        <v>1</v>
-      </c>
-      <c r="E117" s="16">
-        <v>2.1407696231530191</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G117" s="14">
-        <v>3</v>
-      </c>
-      <c r="H117" s="14">
-        <v>4</v>
-      </c>
-      <c r="I117" s="14">
-        <v>5</v>
-      </c>
-      <c r="J117" s="14">
-        <v>1</v>
-      </c>
-      <c r="K117" s="14">
-        <v>2</v>
-      </c>
-      <c r="L117" s="14" t="s">
+    <row r="117" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>132</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1</v>
+      </c>
+      <c r="E117" s="7">
+        <v>12.812704560363279</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" s="5">
+        <v>4</v>
+      </c>
+      <c r="H117" s="5">
+        <v>3</v>
+      </c>
+      <c r="I117" s="5">
+        <v>5</v>
+      </c>
+      <c r="J117" s="5">
+        <v>1</v>
+      </c>
+      <c r="K117" s="5">
+        <v>2</v>
+      </c>
+      <c r="L117" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M117" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="N117" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="O117" s="19" t="s">
+      <c r="M117" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="O117" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P117" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q117" s="20" t="s">
+      <c r="P117" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q117" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R117" s="21" t="s">
+      <c r="R117" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S117" s="21">
-        <v>4</v>
-      </c>
-      <c r="T117" s="22">
-        <v>4</v>
-      </c>
-      <c r="U117" s="19"/>
-      <c r="V117" s="19"/>
-      <c r="W117" s="19"/>
-      <c r="X117" s="19"/>
-      <c r="Y117" s="19"/>
-      <c r="Z117" s="19"/>
-      <c r="AA117" s="19"/>
-      <c r="AB117" s="19"/>
-      <c r="AC117" s="19"/>
-      <c r="AD117" s="19"/>
-      <c r="AE117" s="19"/>
-      <c r="AF117" s="19"/>
-      <c r="AG117" s="19"/>
-      <c r="AH117" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI117" s="19"/>
-      <c r="AJ117" s="19"/>
-      <c r="AK117" s="19"/>
-      <c r="AL117" s="19"/>
-      <c r="AM117" s="19"/>
-      <c r="AN117" s="19"/>
-      <c r="AO117" s="19"/>
-      <c r="AP117" s="19"/>
-      <c r="AQ117" s="19"/>
-      <c r="AR117" s="19"/>
-      <c r="AS117" s="19"/>
-      <c r="AT117" s="19"/>
-      <c r="AU117" s="19"/>
-      <c r="AV117" s="19"/>
-      <c r="AW117" s="19"/>
-      <c r="AX117" s="19"/>
-      <c r="AY117" s="19"/>
-      <c r="AZ117" s="19"/>
-      <c r="BA117" s="19"/>
-      <c r="BB117" s="19"/>
-      <c r="BC117" s="19"/>
-      <c r="BD117" s="19"/>
-      <c r="BE117" s="19"/>
-      <c r="BF117" s="19"/>
-      <c r="BG117" s="19"/>
-      <c r="BH117" s="19"/>
-      <c r="BI117" s="19"/>
-      <c r="BJ117" s="19"/>
+      <c r="S117" s="12">
+        <v>2</v>
+      </c>
+      <c r="T117" s="13">
+        <v>4</v>
+      </c>
+      <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="10"/>
+      <c r="Z117" s="10"/>
+      <c r="AA117" s="10"/>
+      <c r="AB117" s="10"/>
+      <c r="AC117" s="10"/>
+      <c r="AD117" s="10"/>
+      <c r="AE117" s="10"/>
+      <c r="AF117" s="10"/>
+      <c r="AG117" s="10"/>
+      <c r="AH117" s="10"/>
+      <c r="AI117" s="10"/>
+      <c r="AJ117" s="10"/>
+      <c r="AK117" s="10"/>
+      <c r="AL117" s="10"/>
+      <c r="AM117" s="10"/>
+      <c r="AN117" s="10"/>
+      <c r="AO117" s="10"/>
+      <c r="AP117" s="10"/>
+      <c r="AQ117" s="10"/>
+      <c r="AR117" s="10"/>
+      <c r="AS117" s="10"/>
+      <c r="AT117" s="10"/>
+      <c r="AU117" s="10"/>
+      <c r="AV117" s="10"/>
+      <c r="AW117" s="10"/>
+      <c r="AX117" s="10"/>
+      <c r="AY117" s="10"/>
+      <c r="AZ117" s="10"/>
+      <c r="BA117" s="10"/>
+      <c r="BB117" s="10"/>
+      <c r="BC117" s="10"/>
+      <c r="BD117" s="10"/>
+      <c r="BE117" s="10"/>
+      <c r="BF117" s="10"/>
+      <c r="BG117" s="10"/>
+      <c r="BH117" s="10"/>
+      <c r="BI117" s="10"/>
+      <c r="BJ117" s="10"/>
     </row>
     <row r="118" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
-        <v>140</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D118" s="6">
-        <v>1</v>
-      </c>
-      <c r="E118" s="7">
-        <v>3.509541050346443</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G118" s="5">
-        <v>1</v>
-      </c>
-      <c r="H118" s="5">
-        <v>4</v>
-      </c>
-      <c r="I118" s="5">
-        <v>5</v>
-      </c>
-      <c r="J118" s="5">
-        <v>2</v>
-      </c>
-      <c r="K118" s="5">
-        <v>3</v>
-      </c>
-      <c r="L118" s="5" t="s">
+      <c r="A118" s="14">
+        <v>133</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="D118" s="15">
+        <v>0</v>
+      </c>
+      <c r="E118" s="16">
+        <v>15.18847409173272</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G118" s="14">
+        <v>4</v>
+      </c>
+      <c r="H118" s="14">
+        <v>2</v>
+      </c>
+      <c r="I118" s="14">
+        <v>5</v>
+      </c>
+      <c r="J118" s="14">
+        <v>3</v>
+      </c>
+      <c r="K118" s="14">
+        <v>1</v>
+      </c>
+      <c r="L118" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M118" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="N118" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="O118" s="10" t="s">
+      <c r="M118" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="N118" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="O118" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P118" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q118" s="11" t="s">
+      <c r="P118" s="20">
+        <v>15</v>
+      </c>
+      <c r="Q118" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R118" s="12" t="s">
+      <c r="R118" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S118" s="12">
-        <v>2</v>
-      </c>
-      <c r="T118" s="13">
-        <v>2</v>
-      </c>
-      <c r="U118" s="10"/>
-      <c r="V118" s="10"/>
-      <c r="W118" s="10"/>
-      <c r="X118" s="10"/>
-      <c r="Y118" s="10"/>
-      <c r="Z118" s="10"/>
-      <c r="AA118" s="10"/>
-      <c r="AB118" s="10"/>
-      <c r="AC118" s="10"/>
-      <c r="AD118" s="10"/>
-      <c r="AE118" s="10"/>
-      <c r="AF118" s="10"/>
-      <c r="AG118" s="10"/>
-      <c r="AH118" s="10"/>
-      <c r="AI118" s="10"/>
-      <c r="AJ118" s="10"/>
-      <c r="AK118" s="10"/>
-      <c r="AL118" s="10"/>
-      <c r="AM118" s="10"/>
-      <c r="AN118" s="10"/>
-      <c r="AO118" s="10"/>
-      <c r="AP118" s="10"/>
-      <c r="AQ118" s="10"/>
-      <c r="AR118" s="10"/>
-      <c r="AS118" s="10"/>
-      <c r="AT118" s="10"/>
-      <c r="AU118" s="10"/>
-      <c r="AV118" s="10"/>
-      <c r="AW118" s="10"/>
-      <c r="AX118" s="10"/>
-      <c r="AY118" s="10"/>
-      <c r="AZ118" s="10"/>
-      <c r="BA118" s="10"/>
-      <c r="BB118" s="10"/>
-      <c r="BC118" s="10"/>
-      <c r="BD118" s="10"/>
-      <c r="BE118" s="10"/>
-      <c r="BF118" s="10"/>
-      <c r="BG118" s="10"/>
-      <c r="BH118" s="10"/>
-      <c r="BI118" s="10"/>
-      <c r="BJ118" s="10"/>
+      <c r="S118" s="21">
+        <v>1</v>
+      </c>
+      <c r="T118" s="22">
+        <v>1</v>
+      </c>
+      <c r="U118" s="19"/>
+      <c r="V118" s="19"/>
+      <c r="W118" s="19"/>
+      <c r="X118" s="19"/>
+      <c r="Y118" s="19"/>
+      <c r="Z118" s="19"/>
+      <c r="AA118" s="19"/>
+      <c r="AB118" s="19"/>
+      <c r="AC118" s="19"/>
+      <c r="AD118" s="19"/>
+      <c r="AE118" s="19"/>
+      <c r="AF118" s="19"/>
+      <c r="AG118" s="19"/>
+      <c r="AH118" s="19"/>
+      <c r="AI118" s="19"/>
+      <c r="AJ118" s="19"/>
+      <c r="AK118" s="19"/>
+      <c r="AL118" s="19"/>
+      <c r="AM118" s="19"/>
+      <c r="AN118" s="19"/>
+      <c r="AO118" s="19"/>
+      <c r="AP118" s="19"/>
+      <c r="AQ118" s="19"/>
+      <c r="AR118" s="19"/>
+      <c r="AS118" s="19"/>
+      <c r="AT118" s="19"/>
+      <c r="AU118" s="19"/>
+      <c r="AV118" s="19"/>
+      <c r="AW118" s="19"/>
+      <c r="AX118" s="19"/>
+      <c r="AY118" s="19"/>
+      <c r="AZ118" s="19"/>
+      <c r="BA118" s="19"/>
+      <c r="BB118" s="19"/>
+      <c r="BC118" s="19"/>
+      <c r="BD118" s="19"/>
+      <c r="BE118" s="19"/>
+      <c r="BF118" s="19"/>
+      <c r="BG118" s="19"/>
+      <c r="BH118" s="19"/>
+      <c r="BI118" s="19"/>
+      <c r="BJ118" s="19"/>
     </row>
     <row r="119" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
@@ -17549,108 +17619,110 @@
       <c r="BJ121" s="19"/>
     </row>
     <row r="122" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
-        <v>146</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="D122" s="6">
-        <v>0</v>
-      </c>
-      <c r="E122" s="7">
-        <v>12.124917321927329</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G122" s="5">
-        <v>1</v>
-      </c>
-      <c r="H122" s="5">
-        <v>4</v>
-      </c>
-      <c r="I122" s="5">
-        <v>5</v>
-      </c>
-      <c r="J122" s="5">
-        <v>2</v>
-      </c>
-      <c r="K122" s="5">
-        <v>3</v>
-      </c>
-      <c r="L122" s="5" t="s">
+      <c r="A122" s="14">
+        <v>139</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D122" s="15">
+        <v>1</v>
+      </c>
+      <c r="E122" s="16">
+        <v>2.1407696231530191</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="14">
+        <v>3</v>
+      </c>
+      <c r="H122" s="14">
+        <v>4</v>
+      </c>
+      <c r="I122" s="14">
+        <v>5</v>
+      </c>
+      <c r="J122" s="14">
+        <v>1</v>
+      </c>
+      <c r="K122" s="14">
+        <v>2</v>
+      </c>
+      <c r="L122" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M122" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="N122" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="O122" s="10" t="s">
+      <c r="M122" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="N122" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="O122" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P122" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q122" s="11" t="s">
+      <c r="P122" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q122" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R122" s="12" t="s">
+      <c r="R122" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S122" s="12">
-        <v>3</v>
-      </c>
-      <c r="T122" s="13">
-        <v>1</v>
-      </c>
-      <c r="U122" s="10"/>
-      <c r="V122" s="10"/>
-      <c r="W122" s="10"/>
-      <c r="X122" s="10"/>
-      <c r="Y122" s="10"/>
-      <c r="Z122" s="10"/>
-      <c r="AA122" s="10"/>
-      <c r="AB122" s="10"/>
-      <c r="AC122" s="10"/>
-      <c r="AD122" s="10"/>
-      <c r="AE122" s="10"/>
-      <c r="AF122" s="10"/>
-      <c r="AG122" s="10"/>
-      <c r="AH122" s="10"/>
-      <c r="AI122" s="10"/>
-      <c r="AJ122" s="10"/>
-      <c r="AK122" s="10"/>
-      <c r="AL122" s="10"/>
-      <c r="AM122" s="10"/>
-      <c r="AN122" s="10"/>
-      <c r="AO122" s="10"/>
-      <c r="AP122" s="10"/>
-      <c r="AQ122" s="10"/>
-      <c r="AR122" s="10"/>
-      <c r="AS122" s="10"/>
-      <c r="AT122" s="10"/>
-      <c r="AU122" s="10"/>
-      <c r="AV122" s="10"/>
-      <c r="AW122" s="10"/>
-      <c r="AX122" s="10"/>
-      <c r="AY122" s="10"/>
-      <c r="AZ122" s="10"/>
-      <c r="BA122" s="10"/>
-      <c r="BB122" s="10"/>
-      <c r="BC122" s="10"/>
-      <c r="BD122" s="10"/>
-      <c r="BE122" s="10"/>
-      <c r="BF122" s="10"/>
-      <c r="BG122" s="10"/>
-      <c r="BH122" s="10"/>
-      <c r="BI122" s="10"/>
-      <c r="BJ122" s="10"/>
+      <c r="S122" s="21">
+        <v>4</v>
+      </c>
+      <c r="T122" s="22">
+        <v>4</v>
+      </c>
+      <c r="U122" s="19"/>
+      <c r="V122" s="19"/>
+      <c r="W122" s="19"/>
+      <c r="X122" s="19"/>
+      <c r="Y122" s="19"/>
+      <c r="Z122" s="19"/>
+      <c r="AA122" s="19"/>
+      <c r="AB122" s="19"/>
+      <c r="AC122" s="19"/>
+      <c r="AD122" s="19"/>
+      <c r="AE122" s="19"/>
+      <c r="AF122" s="19"/>
+      <c r="AG122" s="19"/>
+      <c r="AH122" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI122" s="19"/>
+      <c r="AJ122" s="19"/>
+      <c r="AK122" s="19"/>
+      <c r="AL122" s="19"/>
+      <c r="AM122" s="19"/>
+      <c r="AN122" s="19"/>
+      <c r="AO122" s="19"/>
+      <c r="AP122" s="19"/>
+      <c r="AQ122" s="19"/>
+      <c r="AR122" s="19"/>
+      <c r="AS122" s="19"/>
+      <c r="AT122" s="19"/>
+      <c r="AU122" s="19"/>
+      <c r="AV122" s="19"/>
+      <c r="AW122" s="19"/>
+      <c r="AX122" s="19"/>
+      <c r="AY122" s="19"/>
+      <c r="AZ122" s="19"/>
+      <c r="BA122" s="19"/>
+      <c r="BB122" s="19"/>
+      <c r="BC122" s="19"/>
+      <c r="BD122" s="19"/>
+      <c r="BE122" s="19"/>
+      <c r="BF122" s="19"/>
+      <c r="BG122" s="19"/>
+      <c r="BH122" s="19"/>
+      <c r="BI122" s="19"/>
+      <c r="BJ122" s="19"/>
     </row>
     <row r="123" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
@@ -17960,21 +18032,21 @@
       <c r="BI125" s="19"/>
       <c r="BJ125" s="19"/>
     </row>
-    <row r="126" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D126" s="6">
         <v>0</v>
       </c>
       <c r="E126" s="7">
-        <v>10.74692397378235</v>
+        <v>12.124917321927329</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>112</v>
@@ -17983,13 +18055,13 @@
         <v>1</v>
       </c>
       <c r="H126" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126" s="5">
         <v>5</v>
       </c>
       <c r="J126" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K126" s="5">
         <v>3</v>
@@ -17998,16 +18070,16 @@
         <v>8</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="O126" s="10" t="s">
         <v>42</v>
       </c>
       <c r="P126" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q126" s="11" t="s">
         <v>43</v>
@@ -18019,7 +18091,7 @@
         <v>3</v>
       </c>
       <c r="T126" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U126" s="10"/>
       <c r="V126" s="10"/>
@@ -18047,9 +18119,7 @@
       <c r="AR126" s="10"/>
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
-      <c r="AU126" s="10" t="s">
-        <v>1171</v>
-      </c>
+      <c r="AU126" s="10"/>
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
       <c r="AX126" s="10"/>
@@ -18445,7 +18515,7 @@
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
       <c r="X130" s="10" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
@@ -18553,9 +18623,7 @@
       <c r="X131" s="19"/>
       <c r="Y131" s="19"/>
       <c r="Z131" s="19"/>
-      <c r="AA131" s="19" t="s">
-        <v>1036</v>
-      </c>
+      <c r="AA131" s="19"/>
       <c r="AB131" s="19"/>
       <c r="AC131" s="19"/>
       <c r="AD131" s="19"/>
@@ -19320,101 +19388,111 @@
       <c r="BI138" s="10"/>
       <c r="BJ138" s="10"/>
     </row>
-    <row r="139" spans="1:62" ht="240" x14ac:dyDescent="0.25">
-      <c r="A139" s="14">
-        <v>169</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="D139" s="15">
+    <row r="139" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>153</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D139" s="6">
         <v>0</v>
       </c>
-      <c r="E139" s="16">
-        <v>5.8416999546976864</v>
-      </c>
-      <c r="F139" s="14" t="s">
+      <c r="E139" s="7">
+        <v>10.74692397378235</v>
+      </c>
+      <c r="F139" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14">
-        <v>5</v>
-      </c>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="14" t="s">
+      <c r="G139" s="5">
+        <v>1</v>
+      </c>
+      <c r="H139" s="5">
+        <v>2</v>
+      </c>
+      <c r="I139" s="5">
+        <v>5</v>
+      </c>
+      <c r="J139" s="5">
+        <v>4</v>
+      </c>
+      <c r="K139" s="5">
+        <v>3</v>
+      </c>
+      <c r="L139" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M139" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="N139" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="O139" s="19" t="s">
+      <c r="M139" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="O139" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P139" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q139" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R139" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="S139" s="21">
-        <v>3</v>
-      </c>
-      <c r="T139" s="22">
-        <v>1</v>
-      </c>
-      <c r="U139" s="19"/>
-      <c r="V139" s="19"/>
-      <c r="W139" s="19"/>
-      <c r="X139" s="19"/>
-      <c r="Y139" s="19"/>
-      <c r="Z139" s="19"/>
-      <c r="AA139" s="19"/>
-      <c r="AB139" s="19"/>
-      <c r="AC139" s="19"/>
-      <c r="AD139" s="19"/>
-      <c r="AE139" s="19"/>
-      <c r="AF139" s="19"/>
-      <c r="AG139" s="19"/>
-      <c r="AH139" s="19"/>
-      <c r="AI139" s="19"/>
-      <c r="AJ139" s="19"/>
-      <c r="AK139" s="19"/>
-      <c r="AL139" s="19"/>
-      <c r="AM139" s="19"/>
-      <c r="AN139" s="19"/>
-      <c r="AO139" s="19"/>
-      <c r="AP139" s="19"/>
-      <c r="AQ139" s="19"/>
-      <c r="AR139" s="19"/>
-      <c r="AS139" s="19"/>
-      <c r="AT139" s="19"/>
-      <c r="AU139" s="19"/>
-      <c r="AV139" s="19"/>
-      <c r="AW139" s="19"/>
-      <c r="AX139" s="19"/>
-      <c r="AY139" s="19"/>
-      <c r="AZ139" s="19"/>
-      <c r="BA139" s="19"/>
-      <c r="BB139" s="19"/>
-      <c r="BC139" s="19"/>
-      <c r="BD139" s="19"/>
-      <c r="BE139" s="19"/>
-      <c r="BF139" s="19"/>
-      <c r="BG139" s="19"/>
-      <c r="BH139" s="19"/>
-      <c r="BI139" s="19"/>
-      <c r="BJ139" s="19"/>
+      <c r="P139" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q139" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R139" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S139" s="12">
+        <v>3</v>
+      </c>
+      <c r="T139" s="13">
+        <v>2</v>
+      </c>
+      <c r="U139" s="10"/>
+      <c r="V139" s="10"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="10"/>
+      <c r="Y139" s="10"/>
+      <c r="Z139" s="10"/>
+      <c r="AA139" s="10"/>
+      <c r="AB139" s="10"/>
+      <c r="AC139" s="10"/>
+      <c r="AD139" s="10"/>
+      <c r="AE139" s="10"/>
+      <c r="AF139" s="10"/>
+      <c r="AG139" s="10"/>
+      <c r="AH139" s="10"/>
+      <c r="AI139" s="10"/>
+      <c r="AJ139" s="10"/>
+      <c r="AK139" s="10"/>
+      <c r="AL139" s="10"/>
+      <c r="AM139" s="10"/>
+      <c r="AN139" s="10"/>
+      <c r="AO139" s="10"/>
+      <c r="AP139" s="10"/>
+      <c r="AQ139" s="10"/>
+      <c r="AR139" s="10"/>
+      <c r="AS139" s="10"/>
+      <c r="AT139" s="10"/>
+      <c r="AU139" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AV139" s="10"/>
+      <c r="AW139" s="10"/>
+      <c r="AX139" s="10"/>
+      <c r="AY139" s="10"/>
+      <c r="AZ139" s="10"/>
+      <c r="BA139" s="10"/>
+      <c r="BB139" s="10"/>
+      <c r="BC139" s="10"/>
+      <c r="BD139" s="10"/>
+      <c r="BE139" s="10"/>
+      <c r="BF139" s="10"/>
+      <c r="BG139" s="10"/>
+      <c r="BH139" s="10"/>
+      <c r="BI139" s="10"/>
+      <c r="BJ139" s="10"/>
     </row>
     <row r="140" spans="1:62" ht="180" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
@@ -19632,7 +19710,7 @@
         <v>547</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="D142" s="6">
         <v>1</v>
@@ -19708,7 +19786,7 @@
       <c r="AI142" s="10"/>
       <c r="AJ142" s="10"/>
       <c r="AK142" s="10" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="AL142" s="10"/>
       <c r="AM142" s="10" t="s">
@@ -19834,7 +19912,7 @@
       <c r="AW143" s="19"/>
       <c r="AX143" s="19"/>
       <c r="AY143" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AZ143" s="19"/>
       <c r="BA143" s="19"/>
@@ -19926,7 +20004,7 @@
       <c r="AI144" s="10"/>
       <c r="AJ144" s="10"/>
       <c r="AK144" s="10" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="AL144" s="10"/>
       <c r="AM144" s="10"/>
@@ -20271,7 +20349,7 @@
       <c r="BH147" s="19"/>
       <c r="BI147" s="19"/>
       <c r="BJ147" s="19" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="148" spans="1:62" ht="210" x14ac:dyDescent="0.25">
@@ -20648,12 +20726,12 @@
         <v>3</v>
       </c>
       <c r="U151" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
       <c r="X151" s="19" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="Y151" s="19"/>
       <c r="Z151" s="19"/>
@@ -21003,7 +21081,7 @@
       <c r="AX154" s="10"/>
       <c r="AY154" s="10"/>
       <c r="AZ154" s="10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="BA154" s="10"/>
       <c r="BB154" s="10"/>
@@ -21219,7 +21297,7 @@
       <c r="BD156" s="10"/>
       <c r="BE156" s="10"/>
       <c r="BF156" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="BG156" s="10"/>
       <c r="BH156" s="10"/>
@@ -21610,7 +21688,7 @@
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
       <c r="AC160" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AD160" s="10"/>
       <c r="AE160" s="10"/>
@@ -21831,13 +21909,13 @@
       <c r="AH162" s="10"/>
       <c r="AI162" s="10"/>
       <c r="AJ162" s="10" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="10"/>
       <c r="AM162" s="10"/>
       <c r="AN162" s="10" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="AO162" s="10"/>
       <c r="AP162" s="10"/>
@@ -21852,24 +21930,24 @@
       <c r="AW162" s="10"/>
       <c r="AX162" s="10"/>
       <c r="AY162" s="10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AZ162" s="10"/>
       <c r="BA162" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="BB162" s="46" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="BC162" s="10"/>
       <c r="BD162" s="10"/>
       <c r="BE162" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="BF162" s="10"/>
       <c r="BG162" s="10"/>
       <c r="BH162" s="10" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="BI162" s="10"/>
       <c r="BJ162" s="10"/>
@@ -21936,12 +22014,12 @@
         <v>4</v>
       </c>
       <c r="U163" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V163" s="19"/>
       <c r="W163" s="19"/>
       <c r="X163" s="19" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
@@ -21956,7 +22034,7 @@
       <c r="AI163" s="19"/>
       <c r="AJ163" s="19"/>
       <c r="AK163" s="19" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="AL163" s="19"/>
       <c r="AM163" s="19"/>
@@ -22791,13 +22869,15 @@
       <c r="AB171" s="19"/>
       <c r="AC171" s="19"/>
       <c r="AD171" s="19"/>
-      <c r="AE171" s="19"/>
+      <c r="AE171" s="19" t="s">
+        <v>1258</v>
+      </c>
       <c r="AF171" s="19"/>
       <c r="AG171" s="19"/>
       <c r="AH171" s="19"/>
       <c r="AI171" s="19"/>
       <c r="AJ171" s="19" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="AK171" s="19"/>
       <c r="AL171" s="19"/>
@@ -22817,17 +22897,17 @@
       <c r="AZ171" s="19"/>
       <c r="BA171" s="19"/>
       <c r="BB171" s="46" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="BC171" s="19"/>
       <c r="BD171" s="19"/>
       <c r="BE171" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="BF171" s="19"/>
       <c r="BG171" s="19"/>
       <c r="BH171" s="19" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="BI171" s="19"/>
       <c r="BJ171" s="19"/>
@@ -23037,7 +23117,7 @@
       <c r="BD173" s="19"/>
       <c r="BE173" s="19"/>
       <c r="BF173" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="BG173" s="19"/>
       <c r="BH173" s="19"/>
@@ -23221,7 +23301,7 @@
       <c r="AB175" s="19"/>
       <c r="AC175" s="19"/>
       <c r="AD175" s="19" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="AE175" s="19"/>
       <c r="AF175" s="19"/>
@@ -23327,7 +23407,7 @@
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="AE176" s="10"/>
       <c r="AF176" s="10"/>
@@ -23882,111 +23962,101 @@
       <c r="BI181" s="19"/>
       <c r="BJ181" s="19"/>
     </row>
-    <row r="182" spans="1:62" ht="180" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
-        <v>215</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="D182" s="6">
-        <v>1</v>
-      </c>
-      <c r="E182" s="7">
-        <v>2.7581033781576321</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G182" s="5">
-        <v>4</v>
-      </c>
-      <c r="H182" s="5">
-        <v>3</v>
-      </c>
-      <c r="I182" s="5">
-        <v>5</v>
-      </c>
-      <c r="J182" s="5">
-        <v>1</v>
-      </c>
-      <c r="K182" s="5">
-        <v>2</v>
-      </c>
-      <c r="L182" s="5" t="s">
+    <row r="182" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+      <c r="A182" s="14">
+        <v>169</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D182" s="15">
+        <v>0</v>
+      </c>
+      <c r="E182" s="16">
+        <v>5.8416999546976864</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14">
+        <v>5</v>
+      </c>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M182" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="N182" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="O182" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="P182" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q182" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="R182" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S182" s="12">
-        <v>5</v>
-      </c>
-      <c r="T182" s="13">
-        <v>3</v>
-      </c>
-      <c r="U182" s="10"/>
-      <c r="V182" s="10"/>
-      <c r="W182" s="10"/>
-      <c r="X182" s="10"/>
-      <c r="Y182" s="10"/>
-      <c r="Z182" s="10"/>
-      <c r="AA182" s="10"/>
-      <c r="AB182" s="10"/>
-      <c r="AC182" s="10"/>
-      <c r="AD182" s="10"/>
-      <c r="AE182" s="10"/>
-      <c r="AF182" s="10"/>
-      <c r="AG182" s="10"/>
-      <c r="AH182" s="10"/>
-      <c r="AI182" s="10"/>
-      <c r="AJ182" s="10"/>
-      <c r="AK182" s="10"/>
-      <c r="AL182" s="10"/>
-      <c r="AM182" s="10"/>
-      <c r="AN182" s="10"/>
-      <c r="AO182" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="AP182" s="10"/>
-      <c r="AQ182" s="10"/>
-      <c r="AR182" s="10"/>
-      <c r="AS182" s="10"/>
-      <c r="AT182" s="10"/>
-      <c r="AU182" s="10"/>
-      <c r="AV182" s="10"/>
-      <c r="AW182" s="10"/>
-      <c r="AX182" s="10"/>
-      <c r="AY182" s="10"/>
-      <c r="AZ182" s="10"/>
-      <c r="BA182" s="10"/>
-      <c r="BB182" s="10"/>
-      <c r="BC182" s="10"/>
-      <c r="BD182" s="10"/>
-      <c r="BE182" s="10"/>
-      <c r="BF182" s="10"/>
-      <c r="BG182" s="10"/>
-      <c r="BH182" s="10"/>
-      <c r="BI182" s="10"/>
-      <c r="BJ182" s="10"/>
+      <c r="M182" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="N182" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="O182" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P182" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q182" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="R182" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="S182" s="21">
+        <v>3</v>
+      </c>
+      <c r="T182" s="22">
+        <v>1</v>
+      </c>
+      <c r="U182" s="19"/>
+      <c r="V182" s="19"/>
+      <c r="W182" s="19"/>
+      <c r="X182" s="19"/>
+      <c r="Y182" s="19"/>
+      <c r="Z182" s="19"/>
+      <c r="AA182" s="19"/>
+      <c r="AB182" s="19"/>
+      <c r="AC182" s="19"/>
+      <c r="AD182" s="19"/>
+      <c r="AE182" s="19"/>
+      <c r="AF182" s="19"/>
+      <c r="AG182" s="19"/>
+      <c r="AH182" s="19"/>
+      <c r="AI182" s="19"/>
+      <c r="AJ182" s="19"/>
+      <c r="AK182" s="19"/>
+      <c r="AL182" s="19"/>
+      <c r="AM182" s="19"/>
+      <c r="AN182" s="19"/>
+      <c r="AO182" s="19"/>
+      <c r="AP182" s="19"/>
+      <c r="AQ182" s="19"/>
+      <c r="AR182" s="19"/>
+      <c r="AS182" s="19"/>
+      <c r="AT182" s="19"/>
+      <c r="AU182" s="19"/>
+      <c r="AV182" s="19"/>
+      <c r="AW182" s="19"/>
+      <c r="AX182" s="19"/>
+      <c r="AY182" s="19"/>
+      <c r="AZ182" s="19"/>
+      <c r="BA182" s="19"/>
+      <c r="BB182" s="19"/>
+      <c r="BC182" s="19"/>
+      <c r="BD182" s="19"/>
+      <c r="BE182" s="19"/>
+      <c r="BF182" s="19"/>
+      <c r="BG182" s="19"/>
+      <c r="BH182" s="19"/>
+      <c r="BI182" s="19"/>
+      <c r="BJ182" s="19"/>
     </row>
     <row r="183" spans="1:62" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
@@ -24490,7 +24560,7 @@
       <c r="AM187" s="19"/>
       <c r="AN187" s="19"/>
       <c r="AO187" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AP187" s="19"/>
       <c r="AQ187" s="19"/>
@@ -24581,9 +24651,7 @@
       <c r="X188" s="10"/>
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
-      <c r="AA188" s="10" t="s">
-        <v>1048</v>
-      </c>
+      <c r="AA188" s="10"/>
       <c r="AB188" s="10"/>
       <c r="AC188" s="10"/>
       <c r="AD188" s="10"/>
@@ -24684,7 +24752,7 @@
         <v>5</v>
       </c>
       <c r="U189" s="19" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="V189" s="19"/>
       <c r="W189" s="19"/>
@@ -24714,7 +24782,7 @@
       <c r="AS189" s="19"/>
       <c r="AT189" s="19"/>
       <c r="AU189" s="19" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="AV189" s="19"/>
       <c r="AW189" s="19"/>
@@ -25241,7 +25309,7 @@
       <c r="BD194" s="10"/>
       <c r="BE194" s="10"/>
       <c r="BF194" s="10" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="BG194" s="10"/>
       <c r="BH194" s="10"/>
@@ -25519,7 +25587,7 @@
       </c>
       <c r="U197" s="19"/>
       <c r="V197" s="19" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="W197" s="19"/>
       <c r="X197" s="19"/>
@@ -25528,12 +25596,14 @@
       <c r="AA197" s="19"/>
       <c r="AB197" s="19"/>
       <c r="AC197" s="19" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AD197" s="19" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AE197" s="19"/>
+        <v>1178</v>
+      </c>
+      <c r="AE197" s="19" t="s">
+        <v>1259</v>
+      </c>
       <c r="AF197" s="19"/>
       <c r="AG197" s="19"/>
       <c r="AH197" s="19"/>
@@ -25556,7 +25626,7 @@
       <c r="AY197" s="19"/>
       <c r="AZ197" s="19"/>
       <c r="BA197" s="19" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="BB197" s="19"/>
       <c r="BC197" s="19"/>
@@ -25737,7 +25807,7 @@
       <c r="V199" s="19"/>
       <c r="W199" s="19"/>
       <c r="X199" s="19" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="Y199" s="19"/>
       <c r="Z199" s="19"/>
@@ -26170,7 +26240,7 @@
       <c r="AI203" s="19"/>
       <c r="AJ203" s="19"/>
       <c r="AK203" s="19" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="AL203" s="19"/>
       <c r="AM203" s="19"/>
@@ -27025,7 +27095,7 @@
       <c r="AX211" s="19"/>
       <c r="AY211" s="19"/>
       <c r="AZ211" s="19" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="BA211" s="19"/>
       <c r="BB211" s="19"/>
@@ -27235,7 +27305,7 @@
       <c r="AX213" s="19"/>
       <c r="AY213" s="19"/>
       <c r="AZ213" s="19" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="BA213" s="19"/>
       <c r="BB213" s="19"/>
@@ -27315,9 +27385,7 @@
       <c r="X214" s="10"/>
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
-      <c r="AA214" s="10" t="s">
-        <v>1055</v>
-      </c>
+      <c r="AA214" s="10"/>
       <c r="AB214" s="10"/>
       <c r="AC214" s="10"/>
       <c r="AD214" s="10"/>
@@ -27421,12 +27489,10 @@
       <c r="X215" s="19"/>
       <c r="Y215" s="19"/>
       <c r="Z215" s="19"/>
-      <c r="AA215" s="19" t="s">
-        <v>1056</v>
-      </c>
+      <c r="AA215" s="19"/>
       <c r="AB215" s="19"/>
       <c r="AC215" s="19" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="AD215" s="19"/>
       <c r="AE215" s="19"/>
@@ -27947,25 +28013,27 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="W220" s="10"/>
       <c r="X220" s="10"/>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
       <c r="AD220" s="10"/>
-      <c r="AE220" s="10"/>
+      <c r="AE220" s="10" t="s">
+        <v>1260</v>
+      </c>
       <c r="AF220" s="10"/>
       <c r="AG220" s="10"/>
       <c r="AH220" s="10"/>
       <c r="AI220" s="10"/>
       <c r="AJ220" s="10" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
@@ -27985,10 +28053,10 @@
       <c r="AZ220" s="10"/>
       <c r="BA220" s="10"/>
       <c r="BB220" s="45" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="BC220" s="45" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="BD220" s="10"/>
       <c r="BE220" s="10"/>
@@ -28076,7 +28144,7 @@
       <c r="AI221" s="19"/>
       <c r="AJ221" s="19"/>
       <c r="AK221" s="19" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="AL221" s="19"/>
       <c r="AM221" s="19"/>
@@ -28273,7 +28341,7 @@
       <c r="V223" s="19"/>
       <c r="W223" s="19"/>
       <c r="X223" s="19" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="Y223" s="19"/>
       <c r="Z223" s="19"/>
@@ -28288,7 +28356,7 @@
       <c r="AI223" s="19"/>
       <c r="AJ223" s="19"/>
       <c r="AK223" s="19" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="AL223" s="19"/>
       <c r="AM223" s="19"/>
@@ -28591,7 +28659,7 @@
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="W226" s="10"/>
       <c r="X226" s="10"/>
@@ -28601,7 +28669,7 @@
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="AE226" s="10"/>
       <c r="AF226" s="10"/>
@@ -28611,7 +28679,7 @@
       <c r="AH226" s="10"/>
       <c r="AI226" s="10"/>
       <c r="AJ226" s="10" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="AK226" s="10"/>
       <c r="AL226" s="10"/>
@@ -28735,7 +28803,7 @@
       <c r="AZ227" s="19"/>
       <c r="BA227" s="19"/>
       <c r="BB227" s="46" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="BC227" s="19"/>
       <c r="BD227" s="19"/>
@@ -28817,7 +28885,7 @@
       <c r="AB228" s="10"/>
       <c r="AC228" s="10"/>
       <c r="AD228" s="10" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="AE228" s="10"/>
       <c r="AF228" s="10"/>
@@ -28843,7 +28911,7 @@
       <c r="AZ228" s="10"/>
       <c r="BA228" s="10"/>
       <c r="BB228" s="46" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="BC228" s="10"/>
       <c r="BD228" s="10"/>
@@ -28931,7 +28999,7 @@
       <c r="AH229" s="19"/>
       <c r="AI229" s="19"/>
       <c r="AJ229" s="19" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="AK229" s="19"/>
       <c r="AL229" s="19"/>
@@ -28951,7 +29019,7 @@
       <c r="AZ229" s="19"/>
       <c r="BA229" s="19"/>
       <c r="BB229" s="46" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="BC229" s="19"/>
       <c r="BD229" s="19"/>
@@ -29034,7 +29102,9 @@
       <c r="AC230" s="10"/>
       <c r="AD230" s="10"/>
       <c r="AE230" s="10"/>
-      <c r="AF230" s="10"/>
+      <c r="AF230" s="10" t="s">
+        <v>1261</v>
+      </c>
       <c r="AG230" s="10"/>
       <c r="AH230" s="10"/>
       <c r="AI230" s="10"/>
@@ -29159,7 +29229,7 @@
       <c r="AX231" s="19"/>
       <c r="AY231" s="19"/>
       <c r="AZ231" s="19" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="BA231" s="19"/>
       <c r="BB231" s="19"/>
@@ -29369,7 +29439,7 @@
       <c r="AX233" s="19"/>
       <c r="AY233" s="19"/>
       <c r="AZ233" s="19" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="BA233" s="19"/>
       <c r="BB233" s="19"/>
@@ -29551,7 +29621,7 @@
       </c>
       <c r="U235" s="19"/>
       <c r="V235" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="W235" s="19"/>
       <c r="X235" s="19"/>
@@ -29684,7 +29754,7 @@
       <c r="AS236" s="10"/>
       <c r="AT236" s="10"/>
       <c r="AU236" s="10" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
@@ -29981,7 +30051,7 @@
       <c r="AB239" s="19"/>
       <c r="AC239" s="19"/>
       <c r="AD239" s="19" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="AE239" s="19"/>
       <c r="AF239" s="19"/>
@@ -30007,7 +30077,7 @@
       <c r="AZ239" s="19"/>
       <c r="BA239" s="19"/>
       <c r="BB239" s="45" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="BC239" s="19"/>
       <c r="BD239" s="19"/>
@@ -30089,7 +30159,7 @@
       <c r="AB240" s="10"/>
       <c r="AC240" s="10"/>
       <c r="AD240" s="10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="AE240" s="10"/>
       <c r="AF240" s="10"/>
@@ -30206,7 +30276,7 @@
       <c r="AM241" s="19"/>
       <c r="AN241" s="19"/>
       <c r="AO241" s="19" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="AP241" s="19"/>
       <c r="AQ241" s="19"/>
@@ -30537,7 +30607,7 @@
       <c r="AX244" s="10"/>
       <c r="AY244" s="10"/>
       <c r="AZ244" s="10" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="BA244" s="10"/>
       <c r="BB244" s="10"/>
@@ -30848,7 +30918,7 @@
       <c r="AS247" s="19"/>
       <c r="AT247" s="19"/>
       <c r="AU247" s="19" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="AV247" s="19"/>
       <c r="AW247" s="19"/>
@@ -31177,7 +31247,7 @@
       <c r="BH250" s="10"/>
       <c r="BI250" s="10"/>
       <c r="BJ250" s="10" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="251" spans="1:62" ht="345" x14ac:dyDescent="0.25">
@@ -31565,13 +31635,15 @@
       <c r="AB254" s="10"/>
       <c r="AC254" s="10"/>
       <c r="AD254" s="10"/>
-      <c r="AE254" s="10"/>
+      <c r="AE254" s="10" t="s">
+        <v>1262</v>
+      </c>
       <c r="AF254" s="10"/>
       <c r="AG254" s="10"/>
       <c r="AH254" s="10"/>
       <c r="AI254" s="10"/>
       <c r="AJ254" s="10" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="AK254" s="10"/>
       <c r="AL254" s="10"/>
@@ -31588,11 +31660,11 @@
       <c r="AW254" s="10"/>
       <c r="AX254" s="10"/>
       <c r="AY254" s="10" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="AZ254" s="10"/>
       <c r="BA254" s="10" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="BB254" s="10"/>
       <c r="BC254" s="10"/>
@@ -31603,7 +31675,7 @@
       <c r="BH254" s="10"/>
       <c r="BI254" s="10"/>
       <c r="BJ254" s="10" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="255" spans="1:62" ht="360" x14ac:dyDescent="0.25">
@@ -31700,7 +31772,7 @@
       <c r="AW255" s="19"/>
       <c r="AX255" s="19"/>
       <c r="AY255" s="19" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="AZ255" s="19"/>
       <c r="BA255" s="19"/>
@@ -31709,7 +31781,7 @@
       <c r="BD255" s="19"/>
       <c r="BE255" s="19"/>
       <c r="BF255" s="19" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="BG255" s="19"/>
       <c r="BH255" s="19"/>
@@ -31995,7 +32067,7 @@
       <c r="AB258" s="10"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="10" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="AE258" s="10"/>
       <c r="AF258" s="10"/>
@@ -32029,7 +32101,7 @@
       <c r="BH258" s="10"/>
       <c r="BI258" s="10"/>
       <c r="BJ258" s="10" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="259" spans="1:62" ht="240" x14ac:dyDescent="0.25">
@@ -32095,7 +32167,7 @@
       </c>
       <c r="U259" s="19"/>
       <c r="V259" s="19" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="W259" s="19"/>
       <c r="X259" s="19"/>
@@ -32104,7 +32176,7 @@
       <c r="AA259" s="19"/>
       <c r="AB259" s="19"/>
       <c r="AC259" s="19" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="AD259" s="19"/>
       <c r="AE259" s="19"/>
@@ -32136,7 +32208,7 @@
       <c r="BC259" s="19"/>
       <c r="BD259" s="19"/>
       <c r="BE259" s="19" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="BF259" s="19"/>
       <c r="BG259" s="19"/>
@@ -32691,7 +32763,7 @@
       <c r="AH265" s="19"/>
       <c r="AI265" s="19"/>
       <c r="AJ265" s="19" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="AK265" s="19"/>
       <c r="AL265" s="19"/>
@@ -32725,10 +32797,10 @@
         <v>317</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D266" s="6">
         <v>1</v>
@@ -32758,10 +32830,10 @@
         <v>9</v>
       </c>
       <c r="M266" s="8" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="N266" s="34" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="O266" s="10" t="s">
         <v>240</v>
@@ -32790,16 +32862,14 @@
       <c r="AA266" s="10"/>
       <c r="AB266" s="10"/>
       <c r="AC266" s="10"/>
-      <c r="AD266" s="10" t="s">
-        <v>1191</v>
-      </c>
+      <c r="AD266" s="10"/>
       <c r="AE266" s="10"/>
       <c r="AF266" s="10"/>
       <c r="AG266" s="10"/>
       <c r="AH266" s="10"/>
       <c r="AI266" s="10"/>
       <c r="AJ266" s="10" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="AK266" s="10"/>
       <c r="AL266" s="10"/>
@@ -32819,10 +32889,10 @@
       <c r="AZ266" s="10"/>
       <c r="BA266" s="10"/>
       <c r="BB266" s="46" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="BC266" s="46" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="BD266" s="10"/>
       <c r="BE266" s="10"/>
@@ -32837,10 +32907,10 @@
         <v>318</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D267" s="15">
         <v>1</v>
@@ -32870,10 +32940,10 @@
         <v>9</v>
       </c>
       <c r="M267" s="17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N267" s="35" t="s">
         <v>1081</v>
-      </c>
-      <c r="N267" s="35" t="s">
-        <v>1085</v>
       </c>
       <c r="O267" s="19" t="s">
         <v>240</v>
@@ -32902,9 +32972,7 @@
       <c r="AA267" s="19"/>
       <c r="AB267" s="19"/>
       <c r="AC267" s="19"/>
-      <c r="AD267" s="47" t="s">
-        <v>1192</v>
-      </c>
+      <c r="AD267" s="47"/>
       <c r="AE267" s="19"/>
       <c r="AF267" s="19"/>
       <c r="AG267" s="19"/>
@@ -32929,10 +32997,10 @@
       <c r="AZ267" s="19"/>
       <c r="BA267" s="19"/>
       <c r="BB267" s="46" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="BC267" s="46" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="BD267" s="19"/>
       <c r="BE267" s="19"/>
@@ -32947,10 +33015,10 @@
         <v>319</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D268" s="6">
         <v>1</v>
@@ -32980,10 +33048,10 @@
         <v>9</v>
       </c>
       <c r="M268" s="8" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="N268" s="34" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="O268" s="10" t="s">
         <v>240</v>
@@ -33018,7 +33086,7 @@
       <c r="AH268" s="10"/>
       <c r="AI268" s="10"/>
       <c r="AJ268" s="10" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="AK268" s="10"/>
       <c r="AL268" s="10"/>
@@ -33038,16 +33106,16 @@
       <c r="AZ268" s="10"/>
       <c r="BA268" s="10"/>
       <c r="BB268" s="46" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="BC268" s="46" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="BD268" s="10"/>
       <c r="BE268" s="10"/>
       <c r="BF268" s="10"/>
       <c r="BG268" s="10" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="BH268" s="10"/>
       <c r="BI268" s="10"/>
@@ -33058,10 +33126,10 @@
         <v>320</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D269" s="15">
         <v>1</v>
@@ -33091,10 +33159,10 @@
         <v>9</v>
       </c>
       <c r="M269" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N269" s="36" t="s">
         <v>1088</v>
-      </c>
-      <c r="N269" s="36" t="s">
-        <v>1092</v>
       </c>
       <c r="O269" s="19" t="s">
         <v>240</v>
@@ -33123,9 +33191,7 @@
       <c r="AA269" s="19"/>
       <c r="AB269" s="19"/>
       <c r="AC269" s="19"/>
-      <c r="AD269" s="10" t="s">
-        <v>1194</v>
-      </c>
+      <c r="AD269" s="10"/>
       <c r="AE269" s="19"/>
       <c r="AF269" s="19"/>
       <c r="AG269" s="19"/>
@@ -33155,7 +33221,7 @@
       <c r="BE269" s="19"/>
       <c r="BF269" s="19"/>
       <c r="BG269" s="19" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="BH269" s="19"/>
       <c r="BI269" s="19"/>
@@ -33166,10 +33232,10 @@
         <v>321</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C270" s="37" t="s">
-        <v>1242</v>
+        <v>1234</v>
+      </c>
+      <c r="C270" s="49" t="s">
+        <v>1263</v>
       </c>
       <c r="D270" s="6">
         <v>1</v>
@@ -33197,10 +33263,10 @@
         <v>9</v>
       </c>
       <c r="M270" s="44" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="N270" s="38" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="O270" s="10" t="s">
         <v>261</v>
@@ -33268,10 +33334,10 @@
         <v>322</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D271" s="15">
         <v>1</v>
@@ -33299,10 +33365,10 @@
         <v>9</v>
       </c>
       <c r="M271" s="43" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="N271" s="39" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="O271" s="19" t="s">
         <v>261</v>
@@ -33356,7 +33422,7 @@
       <c r="AZ271" s="19"/>
       <c r="BA271" s="19"/>
       <c r="BB271" s="46" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="BC271" s="19"/>
       <c r="BD271" s="19"/>
@@ -33372,10 +33438,10 @@
         <v>323</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C272" s="37" t="s">
-        <v>1245</v>
+        <v>1094</v>
+      </c>
+      <c r="C272" s="49" t="s">
+        <v>1264</v>
       </c>
       <c r="D272" s="6">
         <v>1</v>
@@ -33403,10 +33469,10 @@
         <v>9</v>
       </c>
       <c r="M272" s="8" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="N272" s="40" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="O272" s="10" t="s">
         <v>261</v>
@@ -33460,7 +33526,7 @@
       <c r="AZ272" s="10"/>
       <c r="BA272" s="10"/>
       <c r="BB272" s="46" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="BC272" s="10"/>
       <c r="BD272" s="10"/>
@@ -33476,10 +33542,10 @@
         <v>324</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -33499,10 +33565,10 @@
         <v>9</v>
       </c>
       <c r="M273" s="17" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="N273" s="39" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="O273" s="19" t="s">
         <v>120</v>
@@ -33548,7 +33614,7 @@
       <c r="AR273" s="19"/>
       <c r="AS273" s="19"/>
       <c r="AT273" s="19" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="AU273" s="19"/>
       <c r="AV273" s="19"/>
@@ -33572,10 +33638,10 @@
         <v>325</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D274" s="6">
         <v>1</v>
@@ -33605,10 +33671,10 @@
         <v>10</v>
       </c>
       <c r="M274" s="42" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="N274" s="40" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="O274" s="10" t="s">
         <v>233</v>
@@ -33676,10 +33742,10 @@
         <v>326</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -33709,10 +33775,10 @@
         <v>10</v>
       </c>
       <c r="M275" s="43" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="N275" s="39" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="O275" s="19" t="s">
         <v>233</v>
@@ -33766,10 +33832,10 @@
       <c r="AZ275" s="19"/>
       <c r="BA275" s="19"/>
       <c r="BB275" s="45" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="BC275" s="45" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="BD275" s="19"/>
       <c r="BE275" s="19"/>
@@ -33784,10 +33850,10 @@
         <v>327</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C276" s="41" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D276" s="6">
         <v>1</v>
@@ -33817,10 +33883,10 @@
         <v>10</v>
       </c>
       <c r="M276" s="44" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="N276" s="40" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="O276" s="10" t="s">
         <v>233</v>
@@ -33879,7 +33945,7 @@
       <c r="BE276" s="10"/>
       <c r="BF276" s="10"/>
       <c r="BG276" s="10" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="BH276" s="10"/>
       <c r="BI276" s="10"/>
@@ -33890,10 +33956,10 @@
         <v>328</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D277" s="15">
         <v>1</v>
@@ -33923,10 +33989,10 @@
         <v>10</v>
       </c>
       <c r="M277" s="43" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="N277" s="39" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="O277" s="19" t="s">
         <v>233</v>
@@ -33994,10 +34060,10 @@
         <v>329</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C278" s="41" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D278" s="6">
         <v>1</v>
@@ -34017,10 +34083,10 @@
         <v>50</v>
       </c>
       <c r="M278" s="8" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="N278" s="40" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="O278" s="10" t="s">
         <v>42</v>
@@ -34056,7 +34122,7 @@
       <c r="AH278" s="10"/>
       <c r="AI278" s="10"/>
       <c r="AJ278" s="10" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="AK278" s="10"/>
       <c r="AL278" s="10"/>
@@ -34090,10 +34156,10 @@
         <v>330</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -34113,10 +34179,10 @@
         <v>46</v>
       </c>
       <c r="M279" s="17" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="N279" s="39" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="O279" s="19" t="s">
         <v>42</v>
@@ -34146,7 +34212,7 @@
       <c r="AB279" s="19"/>
       <c r="AC279" s="19"/>
       <c r="AD279" s="19" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="AE279" s="19"/>
       <c r="AF279" s="19"/>
@@ -34186,10 +34252,10 @@
         <v>331</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D280" s="6">
         <v>1</v>
@@ -34219,10 +34285,10 @@
         <v>10</v>
       </c>
       <c r="M280" s="8" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="N280" s="33" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="O280" s="10" t="s">
         <v>325</v>
@@ -34277,7 +34343,7 @@
       <c r="BA280" s="10"/>
       <c r="BB280" s="10"/>
       <c r="BC280" s="45" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="BD280" s="10"/>
       <c r="BE280" s="10"/>
@@ -35325,212 +35391,212 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{AD4CE448-DE2A-48AB-A0D6-32FAB95C56A0}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{22D4F517-FBC4-4636-A7AA-60E380084490}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L49:L296 L2:L47" xr:uid="{E71830F3-1185-44FE-B3BE-901605F23C9D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{EB9E9FFA-66FF-4CF1-BCEB-2C076D86E3EC}">
       <formula1>$BV$19:$BV$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{0736C751-DFB0-4D7F-A7E3-16936F4FD15C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{1A7B8FF7-0F97-410D-8F8F-521FDC11CE4B}">
       <formula1>$BV$13:$BV$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{F4E8242B-D48B-45C9-B039-CD052C4B739D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{0C6BE6B2-7B5D-47E7-A093-0D43C042E911}">
       <formula1>$BS$7:$BS$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q27:Q296 Q1:Q25" xr:uid="{9673A060-2F6F-4839-9E48-AAE910ABA5D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{26C060DF-6817-4F4F-8017-236D119509F1}">
       <formula1>$BT$7:$BT$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{A8CB1C32-D3A5-4B99-AA5F-7E6DF7A41918}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{B947CF67-1BB5-48FE-A860-D08132029A70}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{E3274869-FE72-453F-9580-73E8BBC1D21E}"/>
-    <hyperlink ref="M25" r:id="rId4" xr:uid="{9C654C95-F995-4A39-9EF4-010846C736E9}"/>
-    <hyperlink ref="M26" r:id="rId5" xr:uid="{E2BBC63C-5CB8-4881-99A7-3EA549FF51C2}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{BD9485CF-4AF2-4798-8E48-D7777D517A4D}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{7D5CC3A2-0108-443A-9D7F-E56FE0ED914B}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{F5AF1FE7-AAC9-4027-BE16-6DB439593B07}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{5BCBE32F-690F-4191-BA7D-84226C25D198}"/>
-    <hyperlink ref="M31" r:id="rId10" xr:uid="{7048C73C-3E73-4A1A-9C63-33A713F58F39}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{C03F7207-70BE-4B88-8DFF-A2229B4AEAFA}"/>
-    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{FC98E042-EC3F-40DC-BA16-202C290D8482}"/>
-    <hyperlink ref="M34" r:id="rId13" xr:uid="{7D82A758-2935-4F63-8AF7-48D35DC010DF}"/>
-    <hyperlink ref="M35" r:id="rId14" xr:uid="{DCB26A0F-8953-4987-BD8E-E664614114E6}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{744CC1C1-8254-4AB1-8EC7-93ADD4169241}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{E13452D3-BE38-4A68-8AD7-D9620581B839}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{426446D9-BE67-4AC0-90AB-72BD576142FA}"/>
-    <hyperlink ref="M43" r:id="rId18" xr:uid="{A9E37FB1-940E-4048-A405-3197C21F8D0C}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{AA9C75E5-519D-4392-BEBF-F789EF860DF3}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{6A41B969-D682-44A1-B410-490B9687F524}"/>
-    <hyperlink ref="M55" r:id="rId21" xr:uid="{3B6EBFE3-26A1-435C-BFBE-0B9CAA3CD3B3}"/>
-    <hyperlink ref="M56" r:id="rId22" xr:uid="{BD2AC8F5-B322-4F10-8BE9-0C2424B15911}"/>
-    <hyperlink ref="M57" r:id="rId23" xr:uid="{79AB6C76-B1B8-4EA6-99A3-CF8402FE3967}"/>
-    <hyperlink ref="M58" r:id="rId24" xr:uid="{1E4EFA31-1C31-44CE-9006-4D86F92C32E0}"/>
-    <hyperlink ref="M59" r:id="rId25" xr:uid="{046D2FD5-BC9F-4172-8019-996CA3A2D00E}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{22F352EA-789E-4498-AD6B-0479C5BA513C}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{F51126EE-38E0-4190-85D9-E12D3E89EE58}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{71AEC4C0-5A22-4FA2-8C79-6D1980158830}"/>
-    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{D31F0D56-90CC-4F22-ACA0-D2EB592EDC38}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{38F7BD33-9F95-41F6-B67F-8FC956BEF093}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{1B15801D-505A-428F-8BA5-48EE9676C3C1}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{531F3B0E-439C-4E87-97A0-935E8C4DC1C3}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{D338378F-3868-436A-BB34-15C9F5C0ADF9}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{A5D80EA9-AFE4-4A7A-9393-717053BF6E36}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{23B0F9B6-F3E3-4C3F-BB44-645480B7151E}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{A6100ECF-A2BF-4E59-87AA-6A48BC5EFF08}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{919B0F7C-E0A5-4AE1-9064-E0E9A4F15072}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{CE8BFEB9-B4EE-4CD1-AA8B-00F1DC221B74}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{CE885B4F-A9C3-462C-8649-2DE7914F1E81}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{C91D1034-4408-43AD-BC55-98B47D7C0A5B}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{96C65A98-0462-44F0-8C67-2335C1525FA3}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{3BCBAFC8-68C9-4B25-9487-A384E8E410E9}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{FC29C7ED-D0EF-4B91-A09D-F84B10DCCE2D}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{D8D616C6-DDD2-4971-BD09-2275E99E23BD}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{6C652CFF-3DE3-41FB-840B-11E99622CCCF}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{EB57E69F-50CC-4E1B-8A51-40F61A7C7B9C}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{BC9A681E-9D6C-423B-9E10-396A37D7EBF6}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{077563FA-770B-44EF-8A37-07CDC9AEC1EE}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{B4967E48-2D09-495E-8500-7A5C1687EAB7}"/>
-    <hyperlink ref="M53" r:id="rId50" xr:uid="{C1B6AA83-658F-4DCC-803C-8CEB28EFB7B2}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{C270EF93-DEDB-458D-9A4F-BD9958AB79CA}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{A1237AEE-884F-4BA8-A14D-49280EC8E131}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{68C780F0-9F92-4A17-B48A-C4BBD745FE3F}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{3C3AEF6E-26BA-4105-B6A8-BA89589ABCC2}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{E7A1792C-7F0D-4612-B2F2-F1ADC07EFF96}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{B4DC9E24-34C9-42A5-BD10-7DEEC55057C8}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{308B80FB-79E0-452F-A274-55F1640BBE01}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{0B307CB3-F232-457F-848F-6CC5244A4E68}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{52CCC261-B291-497A-90C3-DF2A04975403}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{5F6F0042-12F6-4CAD-95A7-09876E6E8C83}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{BDD10A57-E580-42AF-A6B9-5C81D34E9865}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{0B52DAF2-7E77-4D91-8F96-CE6015478410}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{F20FAA39-A34E-4502-AE01-7AD8585FAABD}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{D7C273F4-89E5-4474-A85B-FC18EA3A7FDE}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{B6AAE8D6-7542-4AD2-BF75-0D9B888E3682}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{D98843A2-53CF-47BC-BA93-A734D91277E3}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{1F2F62AF-B8C9-4542-9985-9F78A1DF84DD}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{5FD85DF5-0EE3-4242-981A-3842FCFB0AC8}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{4A3443B2-5D10-4289-9B8F-1F458DE85056}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{98CE1096-8BC7-46EC-950C-C052F075019F}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{1541575D-A6BC-4C84-8C5D-CF9D3099C917}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{F10A7CB2-F6B0-4860-B1C5-28C49F6C2529}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{CBCA424A-C92A-46A1-8163-669407DEA1C0}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{D59E1821-266E-483E-A142-917AD95C2B1A}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{DD61C380-A874-4562-8C10-5E315FA61604}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{81E591F4-8FCD-4313-AAF7-573C1771E7CE}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{C1CC7A43-08CE-42DE-ABBB-F173C4C760AA}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{272D860E-2822-42F1-BF93-726A281B6C33}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{91A95F25-A510-428A-8690-411751ACDA15}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{452B657E-B412-4A0F-BF06-2D94CFEF3D33}"/>
-    <hyperlink ref="M93" r:id="rId81" xr:uid="{32E6150F-023D-4963-825A-4BB9E22DA8E7}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{96409CA8-7D61-489B-9238-C575C7255B1E}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{2EF26B30-E534-434F-BCA3-8212FDFB9ABC}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{382FA2F8-578D-4F45-919D-12834058070F}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{58677E2E-833F-4101-B800-506D16928B1D}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{A9143251-F2B4-4C81-A1B0-98927C5B6686}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{41F1E244-0750-4140-A7A5-61A7137D5D24}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{A9B3E1BD-A19B-4FFF-A41F-73C94842E5B9}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{BC5E00E8-458D-4193-964C-6CC609B0B18C}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{F1C58F16-D2A5-4608-AB05-651F74F4CD9D}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{BD465A57-C866-4E7A-9CF2-051A26552377}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{464F5DD9-2CD5-4044-BD99-A4F8DE73ACCF}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{B2ABA14D-809B-4D48-90F3-8C24AA907E85}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{4185F695-5095-4CEF-96E0-4D4B69A52BEA}"/>
-    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{6F6AECEA-EF8B-4712-92D8-F769209C6D35}"/>
-    <hyperlink ref="M38" r:id="rId96" xr:uid="{2746F237-CEC1-48F1-A052-43F364DAF50E}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{938A5446-51C1-4D0B-BD27-3F0C497EA765}"/>
-    <hyperlink ref="M91" r:id="rId98" xr:uid="{A48C85AD-6774-44B9-9A42-72A79A4B86F8}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{EE68F0F0-D6EF-4943-9A5D-DFD6F2773DEA}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{37A2DE69-C5EB-4F5A-B3CD-6F86FBAF10E1}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{CEC001B2-B9FA-4B18-ADC4-22683184837A}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{CB80E99F-4D89-4495-8F86-2CC0043EF1B1}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{C837F1C0-275C-42BB-AB82-0BFF22E9BC71}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{A3C1FA64-765E-471E-9653-8389454F2DF1}"/>
-    <hyperlink ref="M41" r:id="rId105" xr:uid="{6B671942-DB66-4958-B53C-AED54A4FF792}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{C6B5CB61-46B6-41B7-89E0-ED25CAB2940E}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{1E13EF8A-B74E-44AD-9365-265F6E7ED4E2}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{0A31A474-714E-4821-9736-61A27489A6A2}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{7E0FF018-26B5-4341-A3B3-613B1569A4EF}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{74114A2E-AC71-46BF-BD52-95550C841D98}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{2992A880-E629-4DA2-AE33-217F46BA9AA4}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{A6BAAECE-427F-4382-9867-489243D0E070}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{E374A826-EB52-4B64-AE8E-8A6A8AAB914B}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{6E699EAE-17C4-4E55-8AB8-A038956F4F1F}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{B5B953FF-CFC1-492E-8562-D3A612AAFBBE}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{35632EE5-D795-4B9F-A588-2B60B616859C}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{195C5710-3B3A-4F3F-9BE6-C11728B984D5}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{5ECBD68F-168B-4A05-B576-336F66A99014}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{0D49FD92-6CF7-4504-8B2A-1769C5D239CF}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{E9DECB6C-DF89-4067-B3BD-4F0F36C86B3E}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{092E7F9A-0326-45A0-A8F6-176CD979AC4A}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{AAA7EB43-4B95-4473-9CCB-8C40A1B82973}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{A7F3CC3B-1E59-47D2-807B-FF1C1551A729}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{0691A687-4A40-410C-9178-F63E64AF20B4}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{BF8C6081-346A-47B3-B196-78B974926036}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{F6E5EA01-2553-49B7-9CFE-6A00154110BB}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{EBCF3A7E-0347-4837-9959-720FA50423DB}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{6FE6C042-16BF-4AD7-8238-A966821808D2}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{791F5D11-61B8-4141-9FA9-36295363DBCA}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{E2304CE9-528D-4052-8BFC-64FC29AAB1C4}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{6BA39902-C3FC-4C7B-9AB7-9E831F8E7F28}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{1405774E-579C-40CD-985A-F3CEF93B6764}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{129CB10F-C6F7-4895-B01F-8A6B51E2214D}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{9642476F-E5FE-408E-873D-081F98D0E9CD}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{B5EF0E33-50CD-48A0-B010-028C2FD01E22}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{68C681D0-C111-42C9-8018-95F069256C75}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{B3ABAB2D-6883-493F-83E7-6B846FF87F68}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{F5351C82-F7B7-4D06-9701-D4455522FF1E}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{750CDB73-FA14-4441-B49C-78D2957940E3}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{D84AEF9B-7A76-4D36-98E7-8E3C918122B2}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{3B02108C-9C58-4690-8158-7668446AF05D}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{E7BBA03E-3DCE-4FBB-B5C0-40019CEA826C}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{6AEAEF08-B855-4931-8FF7-97C0B06E644A}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{B63C5BA4-6F4D-4883-A96B-0760287569E9}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{6D268A2E-7BDD-4C3B-A08F-94E04CB80E36}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{D3F0F5A4-CCB0-48FD-8EF7-773BA9BCACEF}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{406D9A66-B594-4AE1-B134-D11A4E2E2BFF}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{E3EFE324-0CD6-4072-A17E-34A8251B96E5}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{90BF17B0-0D43-4756-BEA3-300C1EC1586D}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{0DDA3324-07BE-4D0B-806E-8FB782475D1C}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{A2F86419-A81B-42A5-A3BD-504B788CFED7}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{3C5C0560-08B2-48A0-A58D-F196F05BBC19}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{46601E0D-464A-42C5-86BE-CB6600737B87}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{58C02139-92F0-4EDF-B774-9E3C836B02A0}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{5E33E1CC-3B16-4569-9420-A478AA8B5E0C}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{913ACE27-AA94-429F-819A-D4D3FE4CC8FE}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{80405014-5FA8-4B0E-8BBD-6ADB776ED585}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{5862F099-BD7A-49B5-8AE5-AF21F4D072AA}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{5DBED72A-A3DA-402A-8995-BD4BFA94EF64}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{D79B21C4-D897-42AF-B877-600DDEC568E8}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{6A5BDEFF-8E87-46A4-8C45-EEADE98AF9B5}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{F0EBCA03-8C3E-41EE-B869-3ECBFC3D3623}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{3052223A-696D-42BA-866E-A33D6189BC28}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{6837E355-F934-45A3-86FE-C69ADDE7168F}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{A85AC0E9-D51F-4A89-97B6-F499F655D750}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{F1FC07A9-3D2B-49A6-A100-4AB422111D85}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{C73052DE-2DEB-4871-99B6-135D9A6F9CBC}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{5A54DDDF-D37A-467B-852E-2E00E241BCA5}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{C342D5AA-8510-409A-81FD-C450900B1A5C}"/>
-    <hyperlink ref="M183" r:id="rId170" xr:uid="{DCCEEE30-3A51-4143-871B-29DE2EABE49B}"/>
-    <hyperlink ref="M68" r:id="rId171" xr:uid="{90155E76-4912-4358-AC9B-7A9282682E2E}"/>
-    <hyperlink ref="M8" r:id="rId172" xr:uid="{CE84F412-ECAF-421C-A08C-BB413B6277DE}"/>
-    <hyperlink ref="M266" r:id="rId173" xr:uid="{E9F522BF-A524-4B2E-A358-1721EE75F6C7}"/>
-    <hyperlink ref="M268" r:id="rId174" xr:uid="{B0A9C2A6-F524-42B5-A555-6FB5C68F810D}"/>
-    <hyperlink ref="M267" r:id="rId175" xr:uid="{3B637D60-26AB-45D9-B355-F132A364BC22}"/>
-    <hyperlink ref="M269" r:id="rId176" xr:uid="{87139105-1C0B-4285-B73A-A6260F5EF380}"/>
-    <hyperlink ref="M272" r:id="rId177" xr:uid="{50537E63-718E-4FB9-926F-3B9D77120303}"/>
-    <hyperlink ref="M274" r:id="rId178" xr:uid="{EBBCAD96-B719-4A5E-9E1D-BFD83781EC07}"/>
-    <hyperlink ref="M275" r:id="rId179" xr:uid="{7AD951DF-9DFB-402C-8BE1-E7281094984B}"/>
-    <hyperlink ref="M276" r:id="rId180" xr:uid="{8175B0A9-8EB3-436B-82A5-ECA05A1DE397}"/>
-    <hyperlink ref="M277" r:id="rId181" xr:uid="{1BA0EC42-0236-419A-9138-D55CDCBB8980}"/>
-    <hyperlink ref="M280" r:id="rId182" xr:uid="{02D45B7E-1F44-4C36-8F73-242A5F081357}"/>
-    <hyperlink ref="M270" r:id="rId183" xr:uid="{A4F02FA4-A223-4C22-9DDC-06B963CE2974}"/>
-    <hyperlink ref="M271" r:id="rId184" xr:uid="{4A6C84AD-A757-4F20-ACD4-769BEA0BFB07}"/>
-    <hyperlink ref="M60" r:id="rId185" xr:uid="{91BD655E-43B7-438C-8DE9-BE02E473C18B}"/>
-    <hyperlink ref="M98" r:id="rId186" xr:uid="{52DEF36C-D719-4454-B931-E2572A18C221}"/>
-    <hyperlink ref="M125" r:id="rId187" xr:uid="{5583487A-D1E9-4ED9-A9F0-F7CB4109319A}"/>
-    <hyperlink ref="M70" r:id="rId188" xr:uid="{C3EB4448-C159-4532-9AE9-E03BD2D1FFB9}"/>
+    <hyperlink ref="M10" r:id="rId1" xr:uid="{50EA4B0B-AE55-4458-9B41-9F3785F94EAA}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{F29F610C-6AD9-48B4-A37F-3B7F9E285E49}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{675FA020-C5D9-406D-8D10-819F364D0EFE}"/>
+    <hyperlink ref="M31" r:id="rId4" xr:uid="{B1486AE8-B876-4624-91E2-FFCCAAEAC540}"/>
+    <hyperlink ref="M33" r:id="rId5" xr:uid="{DD9261D1-FB5A-4DF2-BA02-9F7B600BB65D}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{42A69A10-F032-4947-962A-4FE1A01AFDA4}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{853D6EC2-B451-4BA4-8F8F-08D52F7AAC10}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{C63221D2-D510-4A7A-A573-68C4318129C1}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{740F43B0-5649-43F4-954A-D4A5D2C38B6E}"/>
+    <hyperlink ref="M34" r:id="rId10" xr:uid="{396C5070-BA18-4C68-929B-9872AE272020}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{16ED8C4D-D8FC-4557-9DE7-DF9AF1A46580}"/>
+    <hyperlink ref="M35" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{236E2370-1EAA-4A39-8F8E-1563CBE30AB1}"/>
+    <hyperlink ref="M37" r:id="rId13" xr:uid="{3F945178-3EA0-4756-9B5F-D727A1D24C8A}"/>
+    <hyperlink ref="M38" r:id="rId14" xr:uid="{E7D3E9BF-41DB-4762-A8E1-77B23CA8BAB2}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{20A69692-B693-4C17-AEF3-77851F7D904C}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{48A762A9-84EE-4384-BC8F-376599598D06}"/>
+    <hyperlink ref="M53" r:id="rId17" xr:uid="{32FC5C99-9DFD-49D3-944E-AD7C07132277}"/>
+    <hyperlink ref="M55" r:id="rId18" xr:uid="{FE1D9CB9-8310-4D50-B988-4F93FAC8743B}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{4EF25B68-D682-4172-81C6-A097152D8B3D}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{47F5093D-E448-4F28-A844-68301D5A738E}"/>
+    <hyperlink ref="M57" r:id="rId21" xr:uid="{6B705820-FFAD-433E-846D-49628D79F3D4}"/>
+    <hyperlink ref="M58" r:id="rId22" xr:uid="{6FF2B14B-17DE-4EC8-98D2-35E2D0A62FC2}"/>
+    <hyperlink ref="M59" r:id="rId23" xr:uid="{F03B36A9-0655-431C-9492-C5FA5154D4B6}"/>
+    <hyperlink ref="M73" r:id="rId24" xr:uid="{534FB15C-33BB-46E3-983E-33A4F15A16EA}"/>
+    <hyperlink ref="M74" r:id="rId25" xr:uid="{8CE70FB9-50D3-4C81-853B-06AD6C09F458}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{C606174E-4F23-4E58-AD0D-4F894CDD1AE8}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{EB2DBAEF-3354-4E74-9E93-17AE01ADC876}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{0B1B5739-A496-41D5-B1F0-F9B9AA71E70B}"/>
+    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{BBBBA814-8A41-4357-81C9-C92DB1A23318}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{B9F28A0B-EF59-4460-BEFC-44BBF871AF9C}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{45DD9A87-98E2-4C55-BB8A-2D16AE824389}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{E4ED0AD6-D47D-4787-9EA3-0F8105A02619}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{7CAA18E3-CE02-4424-AEE7-E7EE06F9E8BC}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{A9FDD2B3-F7D2-42B4-B261-A875C51993EC}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{01D5A47F-DD51-45B9-ADC9-018F0E46D77B}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{61E1041F-BF19-43C6-9621-3875E2D0832C}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{3CF0A7BF-50C3-4E99-98A6-59AD5DE44306}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{5C426573-323D-4638-B1C2-A754353CA471}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{8207265B-B447-4F56-BFF9-47406D1ACBC5}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{68D26CD9-D894-4D2C-B44D-3B86FF3816B4}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{1E82B3E1-ED40-4449-8D2B-9CCDD5FDE78F}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{64ECC0AF-6D12-4E7B-BB8B-236872F47465}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{1109A423-E319-434B-94BD-6C875231A3E3}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{3D49EA63-D0E3-4EB5-BE91-D16C18F44A65}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{2DF55B2B-AB21-4436-BCC5-3631C7DE9872}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{16E9ECE1-0235-45E9-A5FB-F36A94921DC3}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{C8BCAD68-3480-46FE-851D-793C09A0D23E}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{2CCA0BB9-F03F-452C-B89F-E73659C6BE37}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{330633D8-5FB9-4407-8525-56CCA9A2E71C}"/>
+    <hyperlink ref="M56" r:id="rId50" xr:uid="{5D1FDB45-5A9A-4229-9ED1-103BD9A45941}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{5A0BF1DD-9FB5-4435-9BFD-B051BC2739C2}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{22DA1EB9-CD96-4875-B419-DCCC6F91BB76}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{15CC8E97-AA73-4169-B357-E6079EC2C17D}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{7D8E642D-E151-4D0B-9BAF-130A70E109C5}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{02A1C19C-A395-4542-B7B2-7B68CDF2895B}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{6B6254FA-7536-4D8B-91B2-45366296314C}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{188185CF-3919-437E-AD82-777638C32BD1}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{8313B7E9-7268-44D5-912C-32E3DB739939}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{56F4DA1B-FB73-4820-8247-D2CCEDF8248A}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{48B8990B-C016-4009-8380-3C6CC4674DA7}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{ACF0E0BC-1B4D-4E25-B07D-B9F7E2EB80C5}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{9E899927-2F0F-41A3-B963-7057A757C8E6}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{5F44FF73-E80C-43C4-B108-B434DB9C104E}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{2BE12114-4E01-4CB6-B07C-646129F0E45F}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{31887A87-9FBB-4BC8-8031-DDC72CFA0815}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{BE3D9309-4476-4501-A163-E9E6E4AAF156}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{B4761DFD-A35A-4CB7-BC90-FCDBF85E61A7}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{2EFCE3A9-F153-4CF7-8483-E5A2C0DB59AA}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{5013FCAF-C1AE-4D4C-BFA8-655ECB245A0B}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{01B13F0C-9D8B-414B-BBC0-090D233D46F4}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{82E314E8-800A-492C-9F0F-49B37E2DDA0F}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{3671B5C0-DF19-487A-80E7-3306BFC20EE6}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{2241B697-CA86-453B-8620-A78B10E20212}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{5A0FF9E1-BFAF-48F9-BEF9-554841E1C9F2}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{9BCBDA94-9F91-4EC2-BAC8-F4B319B580C7}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{C5F22D8E-38E4-4A85-B53D-D80B3D1C603D}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{96E88CC8-5FC3-4574-AEAA-CD315530D7D5}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{580F9FD7-E620-4259-B489-4A2EBDD709E5}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{3C6CD194-9706-4CD6-A98A-A5E90DB337E2}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{D9B72A70-0B7D-4C27-BC66-2823FF38ECA9}"/>
+    <hyperlink ref="M112" r:id="rId81" xr:uid="{4EA0EC46-3F87-4769-89E2-7F2A7D241925}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{2A5F925F-B786-48F5-9EA8-336E31DA0F31}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{8A515721-32F3-400A-94C6-3BFF2CC42C40}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{C4299C1A-5380-4F07-9E9C-93FF6C1EC250}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{B2D6F1DF-7255-4EE7-921D-C88FE7B3BD0D}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{FB1AA6C0-B2D2-449F-9BE1-9401A54E227E}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{90EFFA42-5A6F-406A-A5B9-81DB85F73459}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{EC0F2461-BFFF-484F-B2AC-430A5091D72A}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{E376EAD1-D7A0-49A2-A08A-022E09B7374F}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{14FF62D1-F2E5-489F-B24B-CE294FBF21D8}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{4D0512F7-7154-4220-B568-77B8353B3BF0}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{ADE76572-45E4-40A6-8D60-60640F59CB7C}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{E88FD873-CCD8-404F-811E-EBFC58E70CAF}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{22FB6919-94F8-4603-A110-9372BF31B6E8}"/>
+    <hyperlink ref="M39" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{FC348D3C-EECA-49BE-84C0-C8D0BBB8D7DF}"/>
+    <hyperlink ref="M41" r:id="rId96" xr:uid="{E2D150BC-D841-4B22-99B7-7FAAC35FE6FB}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{41D27291-F2D9-4CA6-9325-D7DC837699F8}"/>
+    <hyperlink ref="M106" r:id="rId98" xr:uid="{B1ED217A-203D-4092-99E1-D087B7A86F1E}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{32FAEA13-DD70-4AC9-AECB-22690DEE521D}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{15A99E90-4AE5-4502-BD56-B5529023CB15}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{94D163CE-6298-4FD7-8397-E8FC218D4EF7}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{904C2157-C256-4DB7-B5E5-488E5F1D21D5}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{1630180C-29ED-441A-8AE2-AEBB8821DB80}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{FA97ECA0-6BA5-4185-9563-6A4D746543A3}"/>
+    <hyperlink ref="M43" r:id="rId105" xr:uid="{01720B96-ACF2-4F66-9233-B6F3199C4897}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{9976FBFB-1901-49B7-8889-DA7935C0DA49}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{9F00FA99-E5A8-4E88-8E44-BD95B94DAE5D}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{929A0138-EB0F-44CF-B7E5-08E12D78E204}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{AAF9E950-1410-4C86-8820-FE5984C41109}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{E4851338-FB60-4B56-9467-5BCB2EB3BEC8}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{6C212433-2252-4DF2-B34E-2A0FAFB37F99}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{B415AAF7-357B-495F-81E2-4FD356034D8B}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{88F61CEE-D31B-4665-8B5E-C1B8E4397B8E}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{9B14D7CC-1E44-4273-922D-D2C3766879DB}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{49FE9D28-DFDA-463B-92AB-182E4B8BCAFA}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{ADE0D54D-5EDD-487F-BE3F-C9D7828DDEDF}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{BA36B0BC-DBD8-4D7A-97C0-8A6097D4E01E}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{BB831CA1-7AB7-4301-9DF6-B6D9F69E91BA}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{140DFFEC-88C4-4956-862A-EFF88CDE9F8E}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{B48052C1-5092-4CF5-A174-CEC746C577C7}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{329469D8-41B0-4EF8-A4C2-E0D2566F303B}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{6D1804E9-81F6-410F-8AA7-11B38B977F69}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{28B19A5C-66F3-49F3-8DA4-B8084718014B}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{5000D4CA-A163-4967-9F8F-D33639247B4D}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{7AAB06F4-5272-4BF8-A467-F061E4415435}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{654F6667-C750-43D6-BAB1-6969263A865D}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{330AEE68-7DB1-4F77-AFB4-21927CBE2E32}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{39650265-2D81-423D-B20E-C7C49D195F4D}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{4C1FDF45-DAA8-4C9A-ACCA-ACAD57556138}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{0505AA99-00BF-418A-A28A-C3F415CCB4A5}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{C6B41474-7524-43F0-8A56-0E1116D47178}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{519B1C27-6275-4F62-A2C4-255D077309A8}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{693A0E30-E979-4700-820D-136BEB9E8121}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{934D149D-029B-4634-B03C-A6A4CA82C943}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{737F578F-9A9F-49CE-AA1D-AD4BFCFE4709}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{0AA3B8BB-A9E1-493D-8B03-81861F4B923A}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{CE339931-7D13-439A-8C51-52C1A685A1DE}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{2CD223A4-FD7B-4119-9DAA-D98808EA7012}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{F8063461-B586-4161-BD6D-C62F8B83E5AA}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{B9016FDB-2AFB-425C-9166-60F9A3AEF5CC}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{A8226C10-765E-46A9-B27F-7B8A73BAA30F}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{E7D8D900-D583-4194-833B-4BF28D169352}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{4A5BC736-ECE9-4D6E-8DE2-579889898A45}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{AEA9B717-7679-476B-B7E9-78E353AC177B}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{FA121FDD-72F5-47C7-BBC8-27BDE27FC720}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{B99FDC20-1AE4-42DA-A70E-13D5EABA0EA8}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{51279A23-3A62-4FC3-9219-AA39DDD9FED8}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{447B0C26-0D67-49EA-8D29-644AC7246D93}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{EEA71A80-2F6C-4B58-82EB-333AEB64B1E2}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{B5137BF7-7749-4C83-B607-C6CF63CAD8F0}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{2413565C-64C2-4D9C-A773-4C84DCDD8D8D}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{17A5D51E-683D-46CC-B143-12540C1464DA}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{C3501949-DD25-4577-9591-ABF5BE83B67D}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{C1960262-C884-4D0F-90DC-A962AB0BD066}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{0CA3B526-050E-4BFB-A138-48EB4FB28D2A}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{3B7BE8EA-C2C9-4634-8E1B-A9F3B73CA6F6}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{B84BDFE4-36DE-4439-955C-AC951750E6AF}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{7D902DDD-B0AC-48F4-A601-06F621FBA92B}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{CB1E515E-ADC2-4E63-8FD4-457B3402B512}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{E190A8A8-247B-406A-8B9B-330C248A8847}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{5C16E202-787E-4E2D-8AA1-5B8313EBB91C}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{0798F569-A256-4522-986F-B6FBD8737C2F}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{727F0CC3-1C84-4D68-B4A0-65AB48C1735B}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{FE9D8D8E-E0A3-409C-BE1D-083DE4C5AAE8}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{55725909-F258-4FC2-8E3D-AA8972A42255}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{090B86B1-6FE3-448F-A3F4-9EE58AA55228}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{F1B0D104-2108-4D83-88E6-6E093786DA51}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{C0CCE4E7-9E68-4C55-8F6F-6124A44C9D38}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{BBF68FC2-42F5-4F76-9AB3-EB8BFDD08030}"/>
+    <hyperlink ref="M183" r:id="rId170" xr:uid="{50B3E53F-C245-4955-8135-F79B463A4DB4}"/>
+    <hyperlink ref="M68" r:id="rId171" xr:uid="{F33349C4-23EA-473E-A6A5-846B3AF6FFBE}"/>
+    <hyperlink ref="M8" r:id="rId172" xr:uid="{A1E7F72C-8C49-470B-B203-5E2F59E914C5}"/>
+    <hyperlink ref="M266" r:id="rId173" xr:uid="{CA0477C7-05D2-46C4-8814-5CAFF256D984}"/>
+    <hyperlink ref="M268" r:id="rId174" xr:uid="{2710E56C-71B6-4F53-AC1A-28063A2051FE}"/>
+    <hyperlink ref="M267" r:id="rId175" xr:uid="{17991AFD-F283-407E-9FA5-4AB162DAD842}"/>
+    <hyperlink ref="M269" r:id="rId176" xr:uid="{65824239-7927-464B-BE36-1726BC42DFC5}"/>
+    <hyperlink ref="M272" r:id="rId177" xr:uid="{5739C73D-93B4-41E1-9CE2-0D3C30BD5FAC}"/>
+    <hyperlink ref="M274" r:id="rId178" xr:uid="{DD0F6218-80DE-4B2B-B9C6-233C9066F2BA}"/>
+    <hyperlink ref="M275" r:id="rId179" xr:uid="{CCF1A0EF-135A-4ECB-BD88-D90412D38981}"/>
+    <hyperlink ref="M276" r:id="rId180" xr:uid="{5CF23233-6E50-4590-9DC4-EDCE2F9E196B}"/>
+    <hyperlink ref="M277" r:id="rId181" xr:uid="{5A8FBBA1-74C8-4911-BAEA-07FB9E263AAE}"/>
+    <hyperlink ref="M280" r:id="rId182" xr:uid="{AEB51699-499C-4BF2-8D25-43B1309A641E}"/>
+    <hyperlink ref="M270" r:id="rId183" xr:uid="{145848C3-A076-4EEE-B08F-67289B2F5616}"/>
+    <hyperlink ref="M271" r:id="rId184" xr:uid="{54684EFF-4D10-475B-A6BF-024E7F05FEFB}"/>
+    <hyperlink ref="M60" r:id="rId185" xr:uid="{D1670C14-5BA8-48E2-9E55-B47CFE87C908}"/>
+    <hyperlink ref="M98" r:id="rId186" xr:uid="{DFAA84F6-834F-4024-9D3A-4F6D4074512A}"/>
+    <hyperlink ref="M125" r:id="rId187" xr:uid="{4EB49D5F-6CB6-4756-9198-44E216E87AFF}"/>
+    <hyperlink ref="M70" r:id="rId188" xr:uid="{45932198-707C-454C-BAF1-22526252C6F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId189"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE75D0D-2D08-4C8A-AA13-F4DF6EF0C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67C470D-CA25-49E2-BA0F-06DC5F7C4C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="2805" windowWidth="28920" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3BF1ADC2-0BCA-4236-A8E9-BD10DB5805F5}</author>
-    <author>tc={8D90FDFF-BE24-4D2A-B747-8FE9E1176081}</author>
-    <author>tc={1B0981F9-36A4-4A31-9135-8053360B0B6D}</author>
+    <author>tc={A74DEE0B-E9F7-4E3B-84B5-11BB01D50FA9}</author>
+    <author>tc={FF6CADD8-DE8B-4318-BCDF-6EDB801EEC3B}</author>
+    <author>tc={FD6854A8-9D60-40D9-9F16-D70190542FA6}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3BF1ADC2-0BCA-4236-A8E9-BD10DB5805F5}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A74DEE0B-E9F7-4E3B-84B5-11BB01D50FA9}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T43" authorId="1" shapeId="0" xr:uid="{8D90FDFF-BE24-4D2A-B747-8FE9E1176081}">
+    <comment ref="T43" authorId="1" shapeId="0" xr:uid="{FF6CADD8-DE8B-4318-BCDF-6EDB801EEC3B}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{1B0981F9-36A4-4A31-9135-8053360B0B6D}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{FD6854A8-9D60-40D9-9F16-D70190542FA6}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -4039,9 +4039,6 @@
     <t>Klima Wandel als verstärkter Treiber für sozialen und nachhaltigen Umbau</t>
   </si>
   <si>
-    <t>Zusammenschluss und Verstaatlichung von EVU</t>
-  </si>
-  <si>
     <t>EVU werden zusammengeschlossen für mehr effizienz</t>
   </si>
   <si>
@@ -4061,6 +4058,9 @@
   </si>
   <si>
     <t>Ausbau erneu. Energie</t>
+  </si>
+  <si>
+    <t>Verstärkter Staatlicher protectionismus in DE</t>
   </si>
 </sst>
 </file>
@@ -4713,14 +4713,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{3BF1ADC2-0BCA-4236-A8E9-BD10DB5805F5}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{A74DEE0B-E9F7-4E3B-84B5-11BB01D50FA9}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T43" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{8D90FDFF-BE24-4D2A-B747-8FE9E1176081}">
+  <threadedComment ref="T43" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{FF6CADD8-DE8B-4318-BCDF-6EDB801EEC3B}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{1B0981F9-36A4-4A31-9135-8053360B0B6D}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{FD6854A8-9D60-40D9-9F16-D70190542FA6}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -4730,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
   <dimension ref="A1:BJ296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection sqref="A1:BJ296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7111,9 +7111,11 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
+      <c r="AE22" s="10" t="s">
+        <v>1251</v>
+      </c>
       <c r="AF22" s="10" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -14655,9 +14657,7 @@
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
-      <c r="AE93" s="10" t="s">
-        <v>1257</v>
-      </c>
+      <c r="AE93" s="10"/>
       <c r="AF93" s="10"/>
       <c r="AG93" s="10"/>
       <c r="AH93" s="10"/>
@@ -22870,7 +22870,7 @@
       <c r="AC171" s="19"/>
       <c r="AD171" s="19"/>
       <c r="AE171" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AF171" s="19"/>
       <c r="AG171" s="19"/>
@@ -25602,7 +25602,7 @@
         <v>1178</v>
       </c>
       <c r="AE197" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AF197" s="19"/>
       <c r="AG197" s="19"/>
@@ -28026,7 +28026,7 @@
       <c r="AC220" s="10"/>
       <c r="AD220" s="10"/>
       <c r="AE220" s="10" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AF220" s="10"/>
       <c r="AG220" s="10"/>
@@ -29103,7 +29103,7 @@
       <c r="AD230" s="10"/>
       <c r="AE230" s="10"/>
       <c r="AF230" s="10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AG230" s="10"/>
       <c r="AH230" s="10"/>
@@ -31636,7 +31636,7 @@
       <c r="AC254" s="10"/>
       <c r="AD254" s="10"/>
       <c r="AE254" s="10" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AF254" s="10"/>
       <c r="AG254" s="10"/>
@@ -33235,7 +33235,7 @@
         <v>1234</v>
       </c>
       <c r="C270" s="49" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D270" s="6">
         <v>1</v>
@@ -33441,7 +33441,7 @@
         <v>1094</v>
       </c>
       <c r="C272" s="49" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D272" s="6">
         <v>1</v>
@@ -35391,212 +35391,212 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{22D4F517-FBC4-4636-A7AA-60E380084490}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{00988520-5A1F-4776-80C0-EC6F25A3EF74}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{EB9E9FFA-66FF-4CF1-BCEB-2C076D86E3EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{A2BBAF87-16C1-43B2-B03D-1E6B1AD55180}">
       <formula1>$BV$19:$BV$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{1A7B8FF7-0F97-410D-8F8F-521FDC11CE4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{EA007194-C61A-429A-8828-C72CACC26E8A}">
       <formula1>$BV$13:$BV$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{0C6BE6B2-7B5D-47E7-A093-0D43C042E911}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{76602A23-5A0C-47A6-9DDC-A5D3E33251AB}">
       <formula1>$BS$7:$BS$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{26C060DF-6817-4F4F-8017-236D119509F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{886C66F4-94D6-479B-B5AB-FA6CE7C2F90E}">
       <formula1>$BT$7:$BT$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{50EA4B0B-AE55-4458-9B41-9F3785F94EAA}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{F29F610C-6AD9-48B4-A37F-3B7F9E285E49}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{675FA020-C5D9-406D-8D10-819F364D0EFE}"/>
-    <hyperlink ref="M31" r:id="rId4" xr:uid="{B1486AE8-B876-4624-91E2-FFCCAAEAC540}"/>
-    <hyperlink ref="M33" r:id="rId5" xr:uid="{DD9261D1-FB5A-4DF2-BA02-9F7B600BB65D}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{42A69A10-F032-4947-962A-4FE1A01AFDA4}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{853D6EC2-B451-4BA4-8F8F-08D52F7AAC10}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{C63221D2-D510-4A7A-A573-68C4318129C1}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{740F43B0-5649-43F4-954A-D4A5D2C38B6E}"/>
-    <hyperlink ref="M34" r:id="rId10" xr:uid="{396C5070-BA18-4C68-929B-9872AE272020}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{16ED8C4D-D8FC-4557-9DE7-DF9AF1A46580}"/>
-    <hyperlink ref="M35" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{236E2370-1EAA-4A39-8F8E-1563CBE30AB1}"/>
-    <hyperlink ref="M37" r:id="rId13" xr:uid="{3F945178-3EA0-4756-9B5F-D727A1D24C8A}"/>
-    <hyperlink ref="M38" r:id="rId14" xr:uid="{E7D3E9BF-41DB-4762-A8E1-77B23CA8BAB2}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{20A69692-B693-4C17-AEF3-77851F7D904C}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{48A762A9-84EE-4384-BC8F-376599598D06}"/>
-    <hyperlink ref="M53" r:id="rId17" xr:uid="{32FC5C99-9DFD-49D3-944E-AD7C07132277}"/>
-    <hyperlink ref="M55" r:id="rId18" xr:uid="{FE1D9CB9-8310-4D50-B988-4F93FAC8743B}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{4EF25B68-D682-4172-81C6-A097152D8B3D}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{47F5093D-E448-4F28-A844-68301D5A738E}"/>
-    <hyperlink ref="M57" r:id="rId21" xr:uid="{6B705820-FFAD-433E-846D-49628D79F3D4}"/>
-    <hyperlink ref="M58" r:id="rId22" xr:uid="{6FF2B14B-17DE-4EC8-98D2-35E2D0A62FC2}"/>
-    <hyperlink ref="M59" r:id="rId23" xr:uid="{F03B36A9-0655-431C-9492-C5FA5154D4B6}"/>
-    <hyperlink ref="M73" r:id="rId24" xr:uid="{534FB15C-33BB-46E3-983E-33A4F15A16EA}"/>
-    <hyperlink ref="M74" r:id="rId25" xr:uid="{8CE70FB9-50D3-4C81-853B-06AD6C09F458}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{C606174E-4F23-4E58-AD0D-4F894CDD1AE8}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{EB2DBAEF-3354-4E74-9E93-17AE01ADC876}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{0B1B5739-A496-41D5-B1F0-F9B9AA71E70B}"/>
-    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{BBBBA814-8A41-4357-81C9-C92DB1A23318}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{B9F28A0B-EF59-4460-BEFC-44BBF871AF9C}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{45DD9A87-98E2-4C55-BB8A-2D16AE824389}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{E4ED0AD6-D47D-4787-9EA3-0F8105A02619}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{7CAA18E3-CE02-4424-AEE7-E7EE06F9E8BC}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{A9FDD2B3-F7D2-42B4-B261-A875C51993EC}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{01D5A47F-DD51-45B9-ADC9-018F0E46D77B}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{61E1041F-BF19-43C6-9621-3875E2D0832C}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{3CF0A7BF-50C3-4E99-98A6-59AD5DE44306}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{5C426573-323D-4638-B1C2-A754353CA471}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{8207265B-B447-4F56-BFF9-47406D1ACBC5}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{68D26CD9-D894-4D2C-B44D-3B86FF3816B4}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{1E82B3E1-ED40-4449-8D2B-9CCDD5FDE78F}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{64ECC0AF-6D12-4E7B-BB8B-236872F47465}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{1109A423-E319-434B-94BD-6C875231A3E3}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{3D49EA63-D0E3-4EB5-BE91-D16C18F44A65}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{2DF55B2B-AB21-4436-BCC5-3631C7DE9872}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{16E9ECE1-0235-45E9-A5FB-F36A94921DC3}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{C8BCAD68-3480-46FE-851D-793C09A0D23E}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{2CCA0BB9-F03F-452C-B89F-E73659C6BE37}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{330633D8-5FB9-4407-8525-56CCA9A2E71C}"/>
-    <hyperlink ref="M56" r:id="rId50" xr:uid="{5D1FDB45-5A9A-4229-9ED1-103BD9A45941}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{5A0BF1DD-9FB5-4435-9BFD-B051BC2739C2}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{22DA1EB9-CD96-4875-B419-DCCC6F91BB76}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{15CC8E97-AA73-4169-B357-E6079EC2C17D}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{7D8E642D-E151-4D0B-9BAF-130A70E109C5}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{02A1C19C-A395-4542-B7B2-7B68CDF2895B}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{6B6254FA-7536-4D8B-91B2-45366296314C}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{188185CF-3919-437E-AD82-777638C32BD1}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{8313B7E9-7268-44D5-912C-32E3DB739939}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{56F4DA1B-FB73-4820-8247-D2CCEDF8248A}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{48B8990B-C016-4009-8380-3C6CC4674DA7}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{ACF0E0BC-1B4D-4E25-B07D-B9F7E2EB80C5}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{9E899927-2F0F-41A3-B963-7057A757C8E6}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{5F44FF73-E80C-43C4-B108-B434DB9C104E}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{2BE12114-4E01-4CB6-B07C-646129F0E45F}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{31887A87-9FBB-4BC8-8031-DDC72CFA0815}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{BE3D9309-4476-4501-A163-E9E6E4AAF156}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{B4761DFD-A35A-4CB7-BC90-FCDBF85E61A7}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{2EFCE3A9-F153-4CF7-8483-E5A2C0DB59AA}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{5013FCAF-C1AE-4D4C-BFA8-655ECB245A0B}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{01B13F0C-9D8B-414B-BBC0-090D233D46F4}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{82E314E8-800A-492C-9F0F-49B37E2DDA0F}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{3671B5C0-DF19-487A-80E7-3306BFC20EE6}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{2241B697-CA86-453B-8620-A78B10E20212}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{5A0FF9E1-BFAF-48F9-BEF9-554841E1C9F2}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{9BCBDA94-9F91-4EC2-BAC8-F4B319B580C7}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{C5F22D8E-38E4-4A85-B53D-D80B3D1C603D}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{96E88CC8-5FC3-4574-AEAA-CD315530D7D5}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{580F9FD7-E620-4259-B489-4A2EBDD709E5}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{3C6CD194-9706-4CD6-A98A-A5E90DB337E2}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{D9B72A70-0B7D-4C27-BC66-2823FF38ECA9}"/>
-    <hyperlink ref="M112" r:id="rId81" xr:uid="{4EA0EC46-3F87-4769-89E2-7F2A7D241925}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{2A5F925F-B786-48F5-9EA8-336E31DA0F31}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{8A515721-32F3-400A-94C6-3BFF2CC42C40}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{C4299C1A-5380-4F07-9E9C-93FF6C1EC250}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{B2D6F1DF-7255-4EE7-921D-C88FE7B3BD0D}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{FB1AA6C0-B2D2-449F-9BE1-9401A54E227E}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{90EFFA42-5A6F-406A-A5B9-81DB85F73459}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{EC0F2461-BFFF-484F-B2AC-430A5091D72A}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{E376EAD1-D7A0-49A2-A08A-022E09B7374F}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{14FF62D1-F2E5-489F-B24B-CE294FBF21D8}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{4D0512F7-7154-4220-B568-77B8353B3BF0}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{ADE76572-45E4-40A6-8D60-60640F59CB7C}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{E88FD873-CCD8-404F-811E-EBFC58E70CAF}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{22FB6919-94F8-4603-A110-9372BF31B6E8}"/>
-    <hyperlink ref="M39" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{FC348D3C-EECA-49BE-84C0-C8D0BBB8D7DF}"/>
-    <hyperlink ref="M41" r:id="rId96" xr:uid="{E2D150BC-D841-4B22-99B7-7FAAC35FE6FB}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{41D27291-F2D9-4CA6-9325-D7DC837699F8}"/>
-    <hyperlink ref="M106" r:id="rId98" xr:uid="{B1ED217A-203D-4092-99E1-D087B7A86F1E}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{32FAEA13-DD70-4AC9-AECB-22690DEE521D}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{15A99E90-4AE5-4502-BD56-B5529023CB15}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{94D163CE-6298-4FD7-8397-E8FC218D4EF7}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{904C2157-C256-4DB7-B5E5-488E5F1D21D5}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{1630180C-29ED-441A-8AE2-AEBB8821DB80}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{FA97ECA0-6BA5-4185-9563-6A4D746543A3}"/>
-    <hyperlink ref="M43" r:id="rId105" xr:uid="{01720B96-ACF2-4F66-9233-B6F3199C4897}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{9976FBFB-1901-49B7-8889-DA7935C0DA49}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{9F00FA99-E5A8-4E88-8E44-BD95B94DAE5D}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{929A0138-EB0F-44CF-B7E5-08E12D78E204}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{AAF9E950-1410-4C86-8820-FE5984C41109}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{E4851338-FB60-4B56-9467-5BCB2EB3BEC8}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{6C212433-2252-4DF2-B34E-2A0FAFB37F99}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{B415AAF7-357B-495F-81E2-4FD356034D8B}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{88F61CEE-D31B-4665-8B5E-C1B8E4397B8E}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{9B14D7CC-1E44-4273-922D-D2C3766879DB}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{49FE9D28-DFDA-463B-92AB-182E4B8BCAFA}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{ADE0D54D-5EDD-487F-BE3F-C9D7828DDEDF}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{BA36B0BC-DBD8-4D7A-97C0-8A6097D4E01E}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{BB831CA1-7AB7-4301-9DF6-B6D9F69E91BA}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{140DFFEC-88C4-4956-862A-EFF88CDE9F8E}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{B48052C1-5092-4CF5-A174-CEC746C577C7}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{329469D8-41B0-4EF8-A4C2-E0D2566F303B}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{6D1804E9-81F6-410F-8AA7-11B38B977F69}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{28B19A5C-66F3-49F3-8DA4-B8084718014B}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{5000D4CA-A163-4967-9F8F-D33639247B4D}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{7AAB06F4-5272-4BF8-A467-F061E4415435}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{654F6667-C750-43D6-BAB1-6969263A865D}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{330AEE68-7DB1-4F77-AFB4-21927CBE2E32}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{39650265-2D81-423D-B20E-C7C49D195F4D}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{4C1FDF45-DAA8-4C9A-ACCA-ACAD57556138}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{0505AA99-00BF-418A-A28A-C3F415CCB4A5}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{C6B41474-7524-43F0-8A56-0E1116D47178}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{519B1C27-6275-4F62-A2C4-255D077309A8}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{693A0E30-E979-4700-820D-136BEB9E8121}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{934D149D-029B-4634-B03C-A6A4CA82C943}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{737F578F-9A9F-49CE-AA1D-AD4BFCFE4709}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{0AA3B8BB-A9E1-493D-8B03-81861F4B923A}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{CE339931-7D13-439A-8C51-52C1A685A1DE}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{2CD223A4-FD7B-4119-9DAA-D98808EA7012}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{F8063461-B586-4161-BD6D-C62F8B83E5AA}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{B9016FDB-2AFB-425C-9166-60F9A3AEF5CC}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{A8226C10-765E-46A9-B27F-7B8A73BAA30F}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{E7D8D900-D583-4194-833B-4BF28D169352}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{4A5BC736-ECE9-4D6E-8DE2-579889898A45}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{AEA9B717-7679-476B-B7E9-78E353AC177B}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{FA121FDD-72F5-47C7-BBC8-27BDE27FC720}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{B99FDC20-1AE4-42DA-A70E-13D5EABA0EA8}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{51279A23-3A62-4FC3-9219-AA39DDD9FED8}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{447B0C26-0D67-49EA-8D29-644AC7246D93}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{EEA71A80-2F6C-4B58-82EB-333AEB64B1E2}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{B5137BF7-7749-4C83-B607-C6CF63CAD8F0}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{2413565C-64C2-4D9C-A773-4C84DCDD8D8D}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{17A5D51E-683D-46CC-B143-12540C1464DA}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{C3501949-DD25-4577-9591-ABF5BE83B67D}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{C1960262-C884-4D0F-90DC-A962AB0BD066}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{0CA3B526-050E-4BFB-A138-48EB4FB28D2A}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{3B7BE8EA-C2C9-4634-8E1B-A9F3B73CA6F6}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{B84BDFE4-36DE-4439-955C-AC951750E6AF}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{7D902DDD-B0AC-48F4-A601-06F621FBA92B}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{CB1E515E-ADC2-4E63-8FD4-457B3402B512}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{E190A8A8-247B-406A-8B9B-330C248A8847}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{5C16E202-787E-4E2D-8AA1-5B8313EBB91C}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{0798F569-A256-4522-986F-B6FBD8737C2F}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{727F0CC3-1C84-4D68-B4A0-65AB48C1735B}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{FE9D8D8E-E0A3-409C-BE1D-083DE4C5AAE8}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{55725909-F258-4FC2-8E3D-AA8972A42255}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{090B86B1-6FE3-448F-A3F4-9EE58AA55228}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{F1B0D104-2108-4D83-88E6-6E093786DA51}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{C0CCE4E7-9E68-4C55-8F6F-6124A44C9D38}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{BBF68FC2-42F5-4F76-9AB3-EB8BFDD08030}"/>
-    <hyperlink ref="M183" r:id="rId170" xr:uid="{50B3E53F-C245-4955-8135-F79B463A4DB4}"/>
-    <hyperlink ref="M68" r:id="rId171" xr:uid="{F33349C4-23EA-473E-A6A5-846B3AF6FFBE}"/>
-    <hyperlink ref="M8" r:id="rId172" xr:uid="{A1E7F72C-8C49-470B-B203-5E2F59E914C5}"/>
-    <hyperlink ref="M266" r:id="rId173" xr:uid="{CA0477C7-05D2-46C4-8814-5CAFF256D984}"/>
-    <hyperlink ref="M268" r:id="rId174" xr:uid="{2710E56C-71B6-4F53-AC1A-28063A2051FE}"/>
-    <hyperlink ref="M267" r:id="rId175" xr:uid="{17991AFD-F283-407E-9FA5-4AB162DAD842}"/>
-    <hyperlink ref="M269" r:id="rId176" xr:uid="{65824239-7927-464B-BE36-1726BC42DFC5}"/>
-    <hyperlink ref="M272" r:id="rId177" xr:uid="{5739C73D-93B4-41E1-9CE2-0D3C30BD5FAC}"/>
-    <hyperlink ref="M274" r:id="rId178" xr:uid="{DD0F6218-80DE-4B2B-B9C6-233C9066F2BA}"/>
-    <hyperlink ref="M275" r:id="rId179" xr:uid="{CCF1A0EF-135A-4ECB-BD88-D90412D38981}"/>
-    <hyperlink ref="M276" r:id="rId180" xr:uid="{5CF23233-6E50-4590-9DC4-EDCE2F9E196B}"/>
-    <hyperlink ref="M277" r:id="rId181" xr:uid="{5A8FBBA1-74C8-4911-BAEA-07FB9E263AAE}"/>
-    <hyperlink ref="M280" r:id="rId182" xr:uid="{AEB51699-499C-4BF2-8D25-43B1309A641E}"/>
-    <hyperlink ref="M270" r:id="rId183" xr:uid="{145848C3-A076-4EEE-B08F-67289B2F5616}"/>
-    <hyperlink ref="M271" r:id="rId184" xr:uid="{54684EFF-4D10-475B-A6BF-024E7F05FEFB}"/>
-    <hyperlink ref="M60" r:id="rId185" xr:uid="{D1670C14-5BA8-48E2-9E55-B47CFE87C908}"/>
-    <hyperlink ref="M98" r:id="rId186" xr:uid="{DFAA84F6-834F-4024-9D3A-4F6D4074512A}"/>
-    <hyperlink ref="M125" r:id="rId187" xr:uid="{4EB49D5F-6CB6-4756-9198-44E216E87AFF}"/>
-    <hyperlink ref="M70" r:id="rId188" xr:uid="{45932198-707C-454C-BAF1-22526252C6F3}"/>
+    <hyperlink ref="M10" r:id="rId1" xr:uid="{DD8F4164-D12C-49F5-B023-FD918167DC1F}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{9B834422-C47E-4C56-B0D2-A9BD844FB81A}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{69D43E48-4C54-449C-95C3-F159C32021B2}"/>
+    <hyperlink ref="M31" r:id="rId4" xr:uid="{CD80215F-00E9-4DAE-B182-AF89B6D66144}"/>
+    <hyperlink ref="M33" r:id="rId5" xr:uid="{86A72D9D-C9A3-429A-B5BB-9CD1FD7C10CD}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{B8C2A03C-2175-470F-94B3-FAD31A465E94}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{79E8ECBC-3E32-4CF0-99F8-20F5B84BCAB0}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{B9E6DA7C-1E5B-496C-9CA2-F492219AEC42}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{642767B6-39DD-4962-ABC5-6361EAC7829A}"/>
+    <hyperlink ref="M34" r:id="rId10" xr:uid="{A12F5467-8065-4A46-92BA-7C1CE5A49686}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{54B6C656-F82D-4827-94CC-33B0AF055981}"/>
+    <hyperlink ref="M35" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{A05AC10A-ABD7-40DE-A82A-70E1BCAB3A06}"/>
+    <hyperlink ref="M37" r:id="rId13" xr:uid="{8BBACB7D-AB27-4642-A6A0-CC3B7F1F3165}"/>
+    <hyperlink ref="M38" r:id="rId14" xr:uid="{2EEA787D-F37D-4AED-82B8-25A45A2BA9C7}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{BB5F06D3-06B0-4C04-83DD-DFCB39F6F57D}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{217506D1-D231-41BF-B241-B48D5FCB5D55}"/>
+    <hyperlink ref="M53" r:id="rId17" xr:uid="{7D623536-E32A-40A2-A2EC-C7000BDF818F}"/>
+    <hyperlink ref="M55" r:id="rId18" xr:uid="{CC967066-7D26-4331-A5BC-9517B4B471E5}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{D946248D-73DD-44F9-9593-D1E1684DB042}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{DDB6F2E4-FCBF-4A48-8504-56B4DA3AFAC1}"/>
+    <hyperlink ref="M57" r:id="rId21" xr:uid="{66B85687-034C-48BB-9DA3-7860782EFF2C}"/>
+    <hyperlink ref="M58" r:id="rId22" xr:uid="{B876FBFD-9E11-4186-A665-2B4910A36136}"/>
+    <hyperlink ref="M59" r:id="rId23" xr:uid="{979F4119-B41C-4DC5-A42F-7A7E35BE05CC}"/>
+    <hyperlink ref="M73" r:id="rId24" xr:uid="{892CCFA3-4EE1-4509-A4CD-345FF3DD7BDA}"/>
+    <hyperlink ref="M74" r:id="rId25" xr:uid="{D2A50981-9F24-4768-9D01-8ECE09B13E2F}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{38C05728-300A-4988-948F-80E8389E8C96}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{E7355243-C65C-47A6-85D7-0028442B45AE}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{934CA849-552A-47AF-ABE5-111946D444FC}"/>
+    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{341B27B0-AF2D-4B51-8855-F3E0219D6104}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{8642E8A8-CB71-4D67-A054-792AA2DA3214}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{73A6FF85-1ECF-4871-9AA7-117F60719AF6}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{F75321BA-B5B4-4DB6-8DEA-AE0841461BFA}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{303F3E49-B4B4-4785-8F55-070CC73829BF}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{9137C2AD-1751-4D91-BCDC-98B2CDB812CF}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{F76F18A1-57D5-4248-9DA1-0FFEAC5D2BDE}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{2D409881-F370-418E-8C1E-40293D92F4AE}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{F903EE16-A37A-4C8C-AC00-157653D2E852}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{03AE523C-F017-4E58-BF0C-82A5C34EECCF}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{0BD57108-AEF9-4DB9-9A1F-CC8E4A46C276}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{00765D5C-1897-4745-ADA8-C4725D8F84DF}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{BC5E8871-C7D9-41A8-A1BD-2F7F5742B508}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{2A2DFC61-3714-47AB-BAE1-0AC2341AB806}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{6E771C9E-D876-4B78-92B6-E76E85E8DF45}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{516E896D-187D-4726-858F-1DAECF38176C}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{833BAF45-62EC-4FBD-8C2A-0EB95A9C630F}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{8E2B1D35-B1E0-4055-9076-54F84A9DE920}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{353B4416-4401-4E20-82C9-3DF2DA9537DA}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{714F65F9-909F-4F5C-830C-2CF202DF997A}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{DE03F247-43C2-4335-9059-4C6D5F0ED1FA}"/>
+    <hyperlink ref="M56" r:id="rId50" xr:uid="{DEDBBA31-4849-432D-80AF-A56495FAB16C}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{69382F8C-F49E-47A3-8A8E-08A1CE904E95}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{86A5F2A0-0AC5-4885-BD99-95C8939CE67C}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{8402CFFD-5C04-42B3-A6F5-E9BF64531873}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{DAB24EE7-B381-45FF-A339-571B47A4E756}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{7190C309-5194-4A58-85E8-9E915BD54CAC}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{645B6E20-DD2F-4FEB-99E0-491056CA360D}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{2F60A856-9165-4563-B6CA-D80DADF097FB}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{6CCB0190-BDA4-43E0-A76A-DA3A83E479C9}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{E2A23FC2-F6EA-47B6-AD7A-509573A4C7EB}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{7C69AB67-BC91-4B78-85CB-F0F0278588E1}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{AD0206F9-381E-405E-9D1D-6787E4F00C0D}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{AEB8E84C-BFF7-4523-897F-5B797BF7ED2B}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{4D297797-9FBF-4917-8C13-FCE4EF26DD4C}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{AAE00DC1-6705-493A-99E7-7845C1FFF168}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{7F37F11D-2566-499F-B9CA-2C0F607E88CE}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{C041EA33-0039-4224-A90E-B44FACE5E563}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{388AC22A-DE80-4DD9-B159-2BB713D8044F}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{2F36091A-46F4-4B9B-B018-A85E317BB9B2}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{6C2AB6F3-4547-4782-91A1-4011AE13FD42}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{13E623B0-9960-4722-AC03-4C28D9A64B75}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{42D38771-4421-4E03-8F43-B4D42E814CA6}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{CA5E3723-83D1-49DA-86CF-BD2E133FA73F}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{8BB2AEEF-7CFB-4F71-93DA-DBBBBF818D80}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{87440061-B3FA-45D2-8B6D-F93F774CEAFE}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{29249759-74E4-42C8-8CA8-0BD95210ADA4}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{8A3F3476-21F7-48B6-B7E0-36AA2D679D09}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{0DE5EBE1-4057-4708-A914-D04D25FD1E9B}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{5CCA7101-1E97-442C-9151-D70954438364}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{97205B5C-DAD3-4295-8F04-1C5B99E6E033}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{6CECD8A4-40F7-415E-A990-1A8B5FE86BAA}"/>
+    <hyperlink ref="M112" r:id="rId81" xr:uid="{A27193DC-E316-4184-8457-DC34E0094855}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{A96B568B-C712-4C59-A25C-A5CCA96344EF}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{BD21E3C0-1795-415D-9CFA-6AE0A87FA977}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{D1792B32-DF1E-4E68-ABEC-5166478C1418}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{602D78BD-0B3F-446A-813B-A87F4937A02F}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{09826DDA-C2F7-4ECE-A300-D8F00CE2D5FC}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{DA4A85BF-0EC4-4879-A931-0B4A053FBCBD}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{C691DE21-BCA3-45E1-891E-688DE762030C}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{F385FCFF-1097-4458-A0D2-79D18973A4DE}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{A9A7F52E-C8AA-41C3-8153-DF038D89B011}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{48A2E3E4-48D7-4F15-9EE5-F237DB0906AF}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{E005BDF4-706E-48C1-839C-8444D5C80436}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{423D006A-9909-4362-A250-F43E708E1C8B}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{8436FF40-E8BA-43CD-9EB0-40C56CC2E77A}"/>
+    <hyperlink ref="M39" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{E2F6BC79-FC36-40A5-B875-E883EBBB5385}"/>
+    <hyperlink ref="M41" r:id="rId96" xr:uid="{AA9F1442-1BC2-4FB0-A583-934FA35FEC76}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{24AD22D4-3EAC-4BFC-AA56-1A732E45FDB6}"/>
+    <hyperlink ref="M106" r:id="rId98" xr:uid="{07B5F14E-75BF-4D15-AD57-40A6C8C8B545}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{7494462A-5240-4DB0-B086-3E3FDECA2C5B}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{1EA8306E-EA78-4D95-89B6-A6F4C0BF9BFA}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{8B05C322-DAF2-4C17-8F8C-34E2E268B3DB}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{1C089ACF-2950-4627-A1CB-590F0C4FB229}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{D88CFC15-18AB-44F0-ADED-0738F5818978}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{85106F90-6C2C-408A-8397-05339A7143FE}"/>
+    <hyperlink ref="M43" r:id="rId105" xr:uid="{EDB9674B-7FFB-4268-8141-976CC7A2C044}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{59A086E0-4E05-4001-8F7D-525B338D8FDF}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{5303085C-D451-4A1F-AC1B-148F8C62B937}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{A6C509EB-5169-4AA6-A802-2C9EEA7EADED}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{C01B79BB-C56E-44AE-A743-F83271786F32}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{B413562F-64F2-45B2-B465-E9897BEC1A0D}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{116955D1-A3B3-4FA9-809F-1984CF0619D3}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{D6275F94-554F-47C0-8B6E-CDCBE03D12CC}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{854544E1-BD48-41FA-B8F0-A70993140E06}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{6D756318-B49B-4A14-BF08-4B6DBA665CCE}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{84F3E693-29EC-4FBC-A731-D8E4BABCA4B0}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{8F44CE65-4C52-4631-ABEC-204709F86D7E}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{96955C89-7218-4A97-BF61-3F69A634D020}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{32CB10F5-4FBE-4D9C-94F7-AD8A65366E55}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{CFECB7E2-BA61-46A8-8304-37EB9A270BDF}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{7FBCE2C0-B7B3-4CAE-9927-BEC5CB79565A}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{F0FD9B83-6EB4-4768-8C78-C3A75BC0B49A}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{1D5F7109-EF5E-4CFE-9DB5-51CF95B6A4BD}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{AFDFC4F9-A8B8-4CF8-901E-F77076AC55DC}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{75FC79F5-0B67-41FC-BD98-519B8E78FB69}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{FC9672C1-F04A-4E0E-9D73-61442CCCBC3B}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{00C56ADA-C58E-4FA8-B415-51BEF3D64628}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{16DE9234-52D8-48E0-B817-09CD6AFFD27A}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{E13F5FE8-D8C7-4F76-A7AF-17287C6ED594}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{DD6798F1-B83B-426E-8A95-F6E0D7ABDC31}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{A668626C-8102-45FA-BC00-87D974D22DB6}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{25F6C2FD-6D41-4546-8B2F-F9ABA74034C0}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{F9E5071E-2A8E-4C73-B83E-D249667AD53A}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{182DCBBE-E81D-4FAB-ADCF-E86B0C7381C3}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{5B5B542F-EA80-4F52-B133-117FC25875B6}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{71D71405-61C5-49AF-BF85-07FF443E2B18}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{E6D2B596-7169-4B06-BC95-274DA62D79A9}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{302C4DFB-0383-400E-9B86-F876C8D3F2B5}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{D3B4DBA8-8D6F-4773-8026-B5DA1B72227E}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{7043CC14-F2BF-4A93-B30E-D6D4E1A85850}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{E79068C1-F95D-4C38-BA63-04B5C8F8479D}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{BF156544-D82E-41A9-8523-EA7035168DC4}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{3A10ADC6-7DC3-4DE4-8893-ABC96784042B}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{84BB7603-E615-4626-838E-D7AB38B58354}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{0504AC09-9D68-4C9B-BE76-FFBAC1802394}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{D272F534-422B-420F-93D7-F0773EEE3DF1}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{49E0B8D6-AFFB-4C97-BC2C-944404976D2B}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{7DB5A081-BBFD-45D5-A7BC-82BF0BAA6F0B}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{A7E8AC81-B271-48F9-B65F-3CADD3574B49}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{541F9ADB-480E-4004-BD8E-78D2ECF6CBD3}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{27F2A582-B742-45DA-B551-010AD5912B31}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{9E4B0B5C-D1E6-43EA-B66C-7DBAA4BA3887}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{B7237077-7B11-4618-AD89-E89C93201E03}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{4B60F6FC-0EBA-42D3-9288-F55A93E44F9F}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{0E6C7ADD-A862-4FF7-8702-B33BF6B0B25F}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{C32EBB6B-39FD-487A-BE77-78C74D768AF4}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{69D66191-B1A7-44AD-B7BF-F80873D04DD5}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{BEA19F5F-0D74-432D-B968-BA4FF2055C27}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{EA3DBAE1-F46B-4388-9AC7-8274F2BADFB8}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{39197132-808D-4F1A-82C1-BD493FEE8F16}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{07FB03F6-6A2C-4B24-9F3B-4825BE2B73A5}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{DDDBEA9E-C1CF-42A1-9245-87571BAC90FC}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{CDEE536A-B79B-4D42-A4FB-F0A77543B84E}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{C239E3D4-ECD2-425A-BE4E-5270FE8B2362}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{0980A790-E331-431F-813D-B2ECFDB65864}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{F223C3F0-68C3-4069-92D6-86B670859FBD}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{E0B75EBF-340C-4420-94C9-BB5CE79C8783}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{F5FEA824-BE7D-4394-B157-B7186D50030A}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{D92A208C-7154-4B6C-BF94-0C0FC19EB44B}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{3C115A62-BFD4-4567-9B44-B7E1750F6B0D}"/>
+    <hyperlink ref="M183" r:id="rId170" xr:uid="{BD99680B-4F45-44CE-948A-ABD549977C9F}"/>
+    <hyperlink ref="M68" r:id="rId171" xr:uid="{4CE9089C-A366-45DA-9F4F-4A5D435C6799}"/>
+    <hyperlink ref="M8" r:id="rId172" xr:uid="{132DA6F2-77CF-4540-B8BD-5E48F0246F5C}"/>
+    <hyperlink ref="M266" r:id="rId173" xr:uid="{80677898-E4C9-4DBA-9363-CAD616BC2FDA}"/>
+    <hyperlink ref="M268" r:id="rId174" xr:uid="{B86DBDEF-79BD-4B8A-A240-BC8C94E0D73F}"/>
+    <hyperlink ref="M267" r:id="rId175" xr:uid="{85513A16-ED64-414F-93F8-5C8A5F6A5ED5}"/>
+    <hyperlink ref="M269" r:id="rId176" xr:uid="{F72A66FE-9C0D-44E1-9DA0-807EE8D9243D}"/>
+    <hyperlink ref="M272" r:id="rId177" xr:uid="{50329FC5-5F91-407E-A897-6F230306E149}"/>
+    <hyperlink ref="M274" r:id="rId178" xr:uid="{07AFF1EB-67E8-46DA-A08C-E25CBE430666}"/>
+    <hyperlink ref="M275" r:id="rId179" xr:uid="{1F0DB9B9-FC72-4B2B-8A17-999658CE6220}"/>
+    <hyperlink ref="M276" r:id="rId180" xr:uid="{2923AA9C-7A06-4E32-A349-50DB3B75E98A}"/>
+    <hyperlink ref="M277" r:id="rId181" xr:uid="{C02E676E-632F-4EEF-92A8-4E5BBB66EC7D}"/>
+    <hyperlink ref="M280" r:id="rId182" xr:uid="{A87DD8F7-443E-48CF-8D31-08DCFB50208D}"/>
+    <hyperlink ref="M270" r:id="rId183" xr:uid="{6090D116-660A-4BA7-B73F-9B4C5CC319A1}"/>
+    <hyperlink ref="M271" r:id="rId184" xr:uid="{3A636E6A-9AA8-4157-B3BA-4AFD0BC43F7F}"/>
+    <hyperlink ref="M60" r:id="rId185" xr:uid="{75C7F43C-ABB9-4C58-856E-98E9F292E254}"/>
+    <hyperlink ref="M98" r:id="rId186" xr:uid="{45CCAE28-D1E0-42C0-9E8E-3268C436C3D7}"/>
+    <hyperlink ref="M125" r:id="rId187" xr:uid="{0AA3B558-0E00-4ADD-8F41-BFE29E1FC091}"/>
+    <hyperlink ref="M70" r:id="rId188" xr:uid="{1C8633F9-48EF-4978-A4BC-93E3DFC3DD23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId189"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67C470D-CA25-49E2-BA0F-06DC5F7C4C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B44260-32A8-48F2-B47A-7DD3899E49DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-28860" yWindow="2805" windowWidth="28920" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A74DEE0B-E9F7-4E3B-84B5-11BB01D50FA9}</author>
-    <author>tc={FF6CADD8-DE8B-4318-BCDF-6EDB801EEC3B}</author>
-    <author>tc={FD6854A8-9D60-40D9-9F16-D70190542FA6}</author>
+    <author>tc={460D4B39-B104-41C1-9310-59FBF64C92FA}</author>
+    <author>tc={552EB692-1BC6-424F-8CC5-2B1937D3E3B6}</author>
+    <author>tc={AD5B1E31-4265-4FFF-AA60-99EF45811DE6}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A74DEE0B-E9F7-4E3B-84B5-11BB01D50FA9}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{460D4B39-B104-41C1-9310-59FBF64C92FA}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T43" authorId="1" shapeId="0" xr:uid="{FF6CADD8-DE8B-4318-BCDF-6EDB801EEC3B}">
+    <comment ref="T43" authorId="1" shapeId="0" xr:uid="{552EB692-1BC6-424F-8CC5-2B1937D3E3B6}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{FD6854A8-9D60-40D9-9F16-D70190542FA6}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{AD5B1E31-4265-4FFF-AA60-99EF45811DE6}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1269">
   <si>
     <t>Nr.</t>
   </si>
@@ -969,9 +969,6 @@
     <t>https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/Foresight_PurposeEconomy_Kurzfassung.pdf?__blob=publicationFile&amp;v=2</t>
   </si>
   <si>
-    <t>Veränderung auf dem Arbeitsmarkt. Der neuen Generation reiccht es nicht mehr "nur " eine Job zu haben. Sie wollen sicch mit diesem identifizieren</t>
-  </si>
-  <si>
     <t>Klimaneutrale Industrie</t>
   </si>
   <si>
@@ -4061,6 +4058,21 @@
   </si>
   <si>
     <t>Verstärkter Staatlicher protectionismus in DE</t>
+  </si>
+  <si>
+    <t>Veränderung auf dem Arbeitsmarkt. Der neuen Generation reiccht es nicht mehr "nur " eine Job zu haben. Sie wollen sich mit diesem identifizieren</t>
+  </si>
+  <si>
+    <t>Change of human behavior (farming, infrastucture, living) caused by global warming</t>
+  </si>
+  <si>
+    <t>Development of the LNG infrastructure in Germany</t>
+  </si>
+  <si>
+    <t>Germany's commitment to converting the energy supply to renewable energy sources</t>
+  </si>
+  <si>
+    <t>Key renewable electricity production and storage technologies – including solar PV, wind and batteries – are expected to continue getting cheaper quickly through a combination of research, economies of scale and ongoing improvements to manufacturing and installation (i.e. learning-by-doing).</t>
   </si>
 </sst>
 </file>
@@ -4070,7 +4082,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4182,6 +4194,11 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4253,7 +4270,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4390,6 +4407,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{CFDE625C-6074-4B64-A6A2-99F4C9AD683F}"/>
@@ -4713,14 +4731,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{A74DEE0B-E9F7-4E3B-84B5-11BB01D50FA9}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{460D4B39-B104-41C1-9310-59FBF64C92FA}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T43" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{FF6CADD8-DE8B-4318-BCDF-6EDB801EEC3B}">
+  <threadedComment ref="T43" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{552EB692-1BC6-424F-8CC5-2B1937D3E3B6}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{FD6854A8-9D60-40D9-9F16-D70190542FA6}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{AD5B1E31-4265-4FFF-AA60-99EF45811DE6}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -4730,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
   <dimension ref="A1:BJ296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection sqref="A1:BJ296"/>
     </sheetView>
   </sheetViews>
@@ -4798,22 +4816,22 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>1198</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>20</v>
@@ -4825,13 +4843,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AE1" s="48" t="s">
         <v>1126</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>1127</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>1128</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>23</v>
@@ -4843,13 +4861,13 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>26</v>
@@ -4861,13 +4879,13 @@
         <v>28</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>29</v>
@@ -4879,13 +4897,13 @@
         <v>31</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>32</v>
@@ -4897,13 +4915,13 @@
         <v>34</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>35</v>
@@ -4915,13 +4933,13 @@
         <v>37</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="180" x14ac:dyDescent="0.25">
@@ -4929,10 +4947,10 @@
         <v>215</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>718</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -4962,10 +4980,10 @@
         <v>8</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>719</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>720</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>261</v>
@@ -4996,10 +5014,10 @@
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
       <c r="AE2" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AF2" s="10" t="s">
         <v>1246</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>1247</v>
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
@@ -5009,11 +5027,11 @@
       <c r="AL2" s="10"/>
       <c r="AM2" s="10"/>
       <c r="AN2" s="10"/>
-      <c r="AO2" s="10" t="s">
-        <v>721</v>
-      </c>
+      <c r="AO2" s="10"/>
       <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
+      <c r="AQ2" s="10" t="s">
+        <v>720</v>
+      </c>
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
       <c r="AT2" s="10"/>
@@ -5117,7 +5135,9 @@
       <c r="AN3" s="19"/>
       <c r="AO3" s="19"/>
       <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
+      <c r="AQ3" s="19" t="s">
+        <v>998</v>
+      </c>
       <c r="AR3" s="19"/>
       <c r="AS3" s="19"/>
       <c r="AT3" s="19"/>
@@ -5221,7 +5241,9 @@
       <c r="AN4" s="10"/>
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
+      <c r="AQ4" s="10" t="s">
+        <v>1006</v>
+      </c>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
@@ -5247,10 +5269,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -5280,10 +5302,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>471</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>472</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>42</v>
@@ -5314,10 +5336,10 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AF5" s="10" t="s">
         <v>1248</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>1249</v>
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
@@ -5329,7 +5351,9 @@
       <c r="AN5" s="10"/>
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
+      <c r="AQ5" s="10" t="s">
+        <v>1242</v>
+      </c>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
       <c r="AT5" s="10"/>
@@ -5433,7 +5457,9 @@
       <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
       <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
+      <c r="AQ6" s="19" t="s">
+        <v>1045</v>
+      </c>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
@@ -5537,7 +5563,9 @@
       <c r="AN7" s="19"/>
       <c r="AO7" s="19"/>
       <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
+      <c r="AQ7" s="19" t="s">
+        <v>1058</v>
+      </c>
       <c r="AR7" s="19"/>
       <c r="AS7" s="19"/>
       <c r="AT7" s="19"/>
@@ -5854,7 +5882,7 @@
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
       <c r="AU10" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
@@ -5913,7 +5941,7 @@
         <v>40</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="O11" s="19" t="s">
         <v>42</v>
@@ -6048,10 +6076,10 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
@@ -6165,7 +6193,7 @@
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
@@ -6204,7 +6232,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -6588,7 +6616,7 @@
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19"/>
@@ -6600,7 +6628,7 @@
       <c r="AS17" s="19"/>
       <c r="AT17" s="19"/>
       <c r="AU17" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AV17" s="19"/>
       <c r="AW17" s="19"/>
@@ -6870,10 +6898,10 @@
         <v>9</v>
       </c>
       <c r="M20" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>1070</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>1071</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>42</v>
@@ -7018,7 +7046,9 @@
       <c r="AM21" s="19"/>
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
+      <c r="AP21" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
@@ -7112,17 +7142,17 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AL22" s="10"/>
       <c r="AM22" s="10"/>
@@ -7212,10 +7242,10 @@
         <v>2</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
@@ -7328,7 +7358,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
@@ -7350,7 +7380,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
@@ -7539,7 +7569,7 @@
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
       <c r="X26" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
@@ -7557,11 +7587,11 @@
       <c r="AL26" s="19"/>
       <c r="AM26" s="19"/>
       <c r="AN26" s="19"/>
-      <c r="AO26" s="19" t="s">
-        <v>999</v>
-      </c>
+      <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
-      <c r="AQ26" s="19"/>
+      <c r="AQ26" s="19" t="s">
+        <v>998</v>
+      </c>
       <c r="AR26" s="19"/>
       <c r="AS26" s="19"/>
       <c r="AT26" s="19"/>
@@ -8294,7 +8324,7 @@
       <c r="AK33" s="10"/>
       <c r="AL33" s="10"/>
       <c r="AM33" s="10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AN33" s="10"/>
       <c r="AO33" s="10"/>
@@ -8590,12 +8620,12 @@
         <v>5</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -8620,7 +8650,7 @@
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
       <c r="AU36" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
@@ -8812,7 +8842,7 @@
       <c r="AA38" s="19"/>
       <c r="AB38" s="19"/>
       <c r="AC38" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
@@ -9228,7 +9258,7 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
       <c r="AA42" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AB42" s="19"/>
       <c r="AC42" s="19"/>
@@ -9250,7 +9280,7 @@
       <c r="AS42" s="19"/>
       <c r="AT42" s="19"/>
       <c r="AU42" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AV42" s="19"/>
       <c r="AW42" s="19"/>
@@ -9442,14 +9472,14 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AF44" s="10" t="s">
         <v>1252</v>
-      </c>
-      <c r="AF44" s="10" t="s">
-        <v>1253</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
@@ -9459,11 +9489,11 @@
       <c r="AL44" s="10"/>
       <c r="AM44" s="10"/>
       <c r="AN44" s="10"/>
-      <c r="AO44" s="10" t="s">
-        <v>1007</v>
-      </c>
+      <c r="AO44" s="10"/>
       <c r="AP44" s="10"/>
-      <c r="AQ44" s="10"/>
+      <c r="AQ44" s="10" t="s">
+        <v>1006</v>
+      </c>
       <c r="AR44" s="10"/>
       <c r="AS44" s="10"/>
       <c r="AT44" s="10"/>
@@ -9764,7 +9794,7 @@
       <c r="AC47" s="19"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
@@ -9872,7 +9902,7 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
@@ -9883,7 +9913,9 @@
       <c r="AL48" s="10"/>
       <c r="AM48" s="10"/>
       <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
+      <c r="AO48" s="10" t="s">
+        <v>1168</v>
+      </c>
       <c r="AP48" s="10"/>
       <c r="AQ48" s="10"/>
       <c r="AR48" s="10"/>
@@ -10082,7 +10114,7 @@
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
@@ -10097,7 +10129,7 @@
       <c r="AL50" s="10"/>
       <c r="AM50" s="10"/>
       <c r="AN50" s="10" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AO50" s="10"/>
       <c r="AP50" s="10"/>
@@ -10112,7 +10144,7 @@
       <c r="AY50" s="10"/>
       <c r="AZ50" s="10"/>
       <c r="BA50" s="10" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="BB50" s="10"/>
       <c r="BC50" s="10"/>
@@ -10223,7 +10255,7 @@
       <c r="BD51" s="19"/>
       <c r="BE51" s="19"/>
       <c r="BF51" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="BG51" s="19"/>
       <c r="BH51" s="19"/>
@@ -10271,7 +10303,7 @@
         <v>232</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>233</v>
@@ -10301,7 +10333,7 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
@@ -10526,7 +10558,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
       <c r="AU54" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
@@ -10744,14 +10776,14 @@
       <c r="AY56" s="19"/>
       <c r="AZ56" s="19"/>
       <c r="BA56" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="BB56" s="19"/>
       <c r="BC56" s="19"/>
       <c r="BD56" s="19"/>
       <c r="BE56" s="19"/>
       <c r="BF56" s="19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BG56" s="19"/>
       <c r="BH56" s="19"/>
@@ -10846,7 +10878,7 @@
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
       <c r="AU57" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AV57" s="19"/>
       <c r="AW57" s="19"/>
@@ -11058,7 +11090,7 @@
       <c r="AS59" s="19"/>
       <c r="AT59" s="19"/>
       <c r="AU59" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AV59" s="19"/>
       <c r="AW59" s="19"/>
@@ -11139,7 +11171,7 @@
       </c>
       <c r="U60" s="10"/>
       <c r="V60" s="10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
@@ -11174,17 +11206,17 @@
       <c r="BA60" s="10"/>
       <c r="BB60" s="10"/>
       <c r="BC60" s="45" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="BD60" s="10"/>
       <c r="BE60" s="10" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF60" s="10"/>
       <c r="BG60" s="10"/>
       <c r="BH60" s="10"/>
       <c r="BI60" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="BJ60" s="10"/>
     </row>
@@ -11363,7 +11395,7 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
@@ -11371,7 +11403,7 @@
       <c r="AH62" s="10"/>
       <c r="AI62" s="10"/>
       <c r="AJ62" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
@@ -11396,7 +11428,7 @@
       <c r="BC62" s="10"/>
       <c r="BD62" s="10"/>
       <c r="BE62" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF62" s="10"/>
       <c r="BG62" s="10"/>
@@ -11498,13 +11530,13 @@
       <c r="AY63" s="19"/>
       <c r="AZ63" s="19"/>
       <c r="BA63" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="BB63" s="19"/>
       <c r="BC63" s="19"/>
       <c r="BD63" s="19"/>
       <c r="BE63" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF63" s="19"/>
       <c r="BG63" s="19"/>
@@ -11616,7 +11648,7 @@
       <c r="BI64" s="10"/>
       <c r="BJ64" s="10"/>
     </row>
-    <row r="65" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:62" ht="225" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>81</v>
       </c>
@@ -11657,7 +11689,7 @@
         <v>280</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>281</v>
+        <v>1264</v>
       </c>
       <c r="O65" s="19" t="s">
         <v>261</v>
@@ -11694,7 +11726,7 @@
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
       <c r="AK65" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AL65" s="19"/>
       <c r="AM65" s="19"/>
@@ -11727,10 +11759,10 @@
         <v>83</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -11760,10 +11792,10 @@
         <v>50</v>
       </c>
       <c r="M66" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="N66" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>284</v>
       </c>
       <c r="O66" s="10" t="s">
         <v>261</v>
@@ -11785,7 +11817,7 @@
       </c>
       <c r="U66" s="10"/>
       <c r="V66" s="10" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
@@ -11822,7 +11854,7 @@
       <c r="BC66" s="10"/>
       <c r="BD66" s="10"/>
       <c r="BE66" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="BF66" s="10"/>
       <c r="BG66" s="10"/>
@@ -11835,10 +11867,10 @@
         <v>84</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -11868,10 +11900,10 @@
         <v>9</v>
       </c>
       <c r="M67" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="N67" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="N67" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="O67" s="19" t="s">
         <v>261</v>
@@ -11924,14 +11956,14 @@
       <c r="AY67" s="19"/>
       <c r="AZ67" s="19"/>
       <c r="BA67" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="BB67" s="19"/>
       <c r="BC67" s="19"/>
       <c r="BD67" s="19"/>
       <c r="BE67" s="19"/>
       <c r="BF67" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="BG67" s="19"/>
       <c r="BH67" s="19"/>
@@ -11943,10 +11975,10 @@
         <v>86</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="D68" s="6">
         <v>0</v>
@@ -11976,10 +12008,10 @@
         <v>9</v>
       </c>
       <c r="M68" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>291</v>
       </c>
       <c r="O68" s="10" t="s">
         <v>261</v>
@@ -12047,10 +12079,10 @@
         <v>87</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>293</v>
       </c>
       <c r="D69" s="15">
         <v>1</v>
@@ -12080,13 +12112,13 @@
         <v>50</v>
       </c>
       <c r="M69" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="N69" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="N69" s="18" t="s">
+      <c r="O69" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="O69" s="19" t="s">
-        <v>296</v>
       </c>
       <c r="P69" s="20">
         <v>5</v>
@@ -12151,10 +12183,10 @@
         <v>88</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -12184,13 +12216,13 @@
         <v>10</v>
       </c>
       <c r="M70" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="N70" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="N70" s="9" t="s">
-        <v>300</v>
-      </c>
       <c r="O70" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P70" s="11">
         <v>10</v>
@@ -12233,7 +12265,7 @@
       <c r="AR70" s="10"/>
       <c r="AS70" s="10"/>
       <c r="AT70" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AU70" s="10"/>
       <c r="AV70" s="10"/>
@@ -12257,10 +12289,10 @@
         <v>89</v>
       </c>
       <c r="B71" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
@@ -12290,13 +12322,13 @@
         <v>46</v>
       </c>
       <c r="M71" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P71" s="20">
         <v>5</v>
@@ -12323,7 +12355,7 @@
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
@@ -12350,7 +12382,7 @@
       <c r="BA71" s="19"/>
       <c r="BB71" s="19"/>
       <c r="BC71" s="45" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="BD71" s="19"/>
       <c r="BE71" s="19"/>
@@ -12365,10 +12397,10 @@
         <v>90</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -12398,13 +12430,13 @@
         <v>50</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P72" s="11">
         <v>5</v>
@@ -12441,7 +12473,7 @@
       <c r="AL72" s="10"/>
       <c r="AM72" s="10"/>
       <c r="AN72" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO72" s="10"/>
       <c r="AP72" s="10"/>
@@ -12647,7 +12679,7 @@
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AK74" s="19"/>
       <c r="AL74" s="19"/>
@@ -12681,10 +12713,10 @@
         <v>94</v>
       </c>
       <c r="B75" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="D75" s="15">
         <v>1</v>
@@ -12714,13 +12746,13 @@
         <v>50</v>
       </c>
       <c r="M75" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O75" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P75" s="20">
         <v>5</v>
@@ -12750,7 +12782,7 @@
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
@@ -12765,7 +12797,7 @@
       <c r="AR75" s="19"/>
       <c r="AS75" s="19"/>
       <c r="AT75" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AU75" s="19"/>
       <c r="AV75" s="19"/>
@@ -12789,10 +12821,10 @@
         <v>95</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -12822,13 +12854,13 @@
         <v>10</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P76" s="11">
         <v>5</v>
@@ -12847,7 +12879,7 @@
       </c>
       <c r="U76" s="10"/>
       <c r="V76" s="10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="W76" s="10"/>
       <c r="X76" s="10"/>
@@ -12856,7 +12888,7 @@
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
       <c r="AC76" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
@@ -12868,7 +12900,7 @@
       <c r="AK76" s="10"/>
       <c r="AL76" s="10"/>
       <c r="AM76" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN76" s="10"/>
       <c r="AO76" s="10"/>
@@ -12878,7 +12910,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
       <c r="AU76" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
@@ -12934,13 +12966,13 @@
         <v>10</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="N77" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="O77" s="19" t="s">
         <v>324</v>
-      </c>
-      <c r="O77" s="19" t="s">
-        <v>325</v>
       </c>
       <c r="P77" s="20">
         <v>15</v>
@@ -12964,13 +12996,13 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
       <c r="AA77" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
@@ -12988,7 +13020,7 @@
       <c r="AS77" s="19"/>
       <c r="AT77" s="19"/>
       <c r="AU77" s="19" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AV77" s="19"/>
       <c r="AW77" s="19"/>
@@ -13011,10 +13043,10 @@
         <v>97</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -13044,13 +13076,13 @@
         <v>50</v>
       </c>
       <c r="M78" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="N78" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="N78" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="O78" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P78" s="11">
         <v>15</v>
@@ -13069,7 +13101,7 @@
       </c>
       <c r="U78" s="10"/>
       <c r="V78" s="10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="W78" s="10"/>
       <c r="X78" s="10"/>
@@ -13079,7 +13111,7 @@
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AE78" s="10"/>
       <c r="AF78" s="10"/>
@@ -13097,7 +13129,7 @@
       <c r="AR78" s="10"/>
       <c r="AS78" s="10"/>
       <c r="AT78" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AU78" s="10"/>
       <c r="AV78" s="10"/>
@@ -13121,10 +13153,10 @@
         <v>98</v>
       </c>
       <c r="B79" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="D79" s="15">
         <v>0</v>
@@ -13154,13 +13186,13 @@
         <v>50</v>
       </c>
       <c r="M79" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="N79" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="N79" s="18" t="s">
-        <v>335</v>
-      </c>
       <c r="O79" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P79" s="20">
         <v>15</v>
@@ -13225,10 +13257,10 @@
         <v>99</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D80" s="6">
         <v>0</v>
@@ -13258,13 +13290,13 @@
         <v>50</v>
       </c>
       <c r="M80" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="N80" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="N80" s="9" t="s">
-        <v>338</v>
-      </c>
       <c r="O80" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P80" s="11">
         <v>10</v>
@@ -13329,10 +13361,10 @@
         <v>100</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D81" s="15">
         <v>1</v>
@@ -13362,13 +13394,13 @@
         <v>50</v>
       </c>
       <c r="M81" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="N81" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="N81" s="18" t="s">
-        <v>341</v>
-      </c>
       <c r="O81" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P81" s="20">
         <v>15</v>
@@ -13405,7 +13437,9 @@
       <c r="AL81" s="19"/>
       <c r="AM81" s="19"/>
       <c r="AN81" s="19"/>
-      <c r="AO81" s="19"/>
+      <c r="AO81" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="AP81" s="19"/>
       <c r="AQ81" s="19"/>
       <c r="AR81" s="19"/>
@@ -13422,7 +13456,7 @@
       <c r="BC81" s="19"/>
       <c r="BD81" s="19"/>
       <c r="BE81" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="BF81" s="19"/>
       <c r="BG81" s="19"/>
@@ -13435,10 +13469,10 @@
         <v>101</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="D82" s="6">
         <v>0</v>
@@ -13468,13 +13502,13 @@
         <v>9</v>
       </c>
       <c r="M82" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="N82" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="N82" s="9" t="s">
-        <v>345</v>
-      </c>
       <c r="O82" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P82" s="11">
         <v>5</v>
@@ -13539,10 +13573,10 @@
         <v>102</v>
       </c>
       <c r="B83" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>347</v>
       </c>
       <c r="D83" s="15">
         <v>1</v>
@@ -13572,13 +13606,13 @@
         <v>9</v>
       </c>
       <c r="M83" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="N83" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="N83" s="18" t="s">
-        <v>349</v>
-      </c>
       <c r="O83" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P83" s="20">
         <v>15</v>
@@ -13615,13 +13649,15 @@
       <c r="AL83" s="19"/>
       <c r="AM83" s="19"/>
       <c r="AN83" s="19"/>
-      <c r="AO83" s="19"/>
+      <c r="AO83" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="AP83" s="19"/>
       <c r="AQ83" s="19"/>
       <c r="AR83" s="19"/>
       <c r="AS83" s="19"/>
       <c r="AT83" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AU83" s="19"/>
       <c r="AV83" s="19"/>
@@ -13645,10 +13681,10 @@
         <v>103</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -13678,13 +13714,13 @@
         <v>9</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O84" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P84" s="11">
         <v>10</v>
@@ -13749,10 +13785,10 @@
         <v>104</v>
       </c>
       <c r="B85" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="D85" s="15">
         <v>1</v>
@@ -13782,13 +13818,13 @@
         <v>9</v>
       </c>
       <c r="M85" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="N85" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="N85" s="18" t="s">
-        <v>357</v>
-      </c>
       <c r="O85" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P85" s="20">
         <v>10</v>
@@ -13853,10 +13889,10 @@
         <v>105</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D86" s="6">
         <v>0</v>
@@ -13886,13 +13922,13 @@
         <v>9</v>
       </c>
       <c r="M86" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="N86" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="N86" s="9" t="s">
-        <v>360</v>
-      </c>
       <c r="O86" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P86" s="11">
         <v>15</v>
@@ -13957,10 +13993,10 @@
         <v>106</v>
       </c>
       <c r="B87" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>362</v>
       </c>
       <c r="D87" s="15">
         <v>0</v>
@@ -13990,13 +14026,13 @@
         <v>50</v>
       </c>
       <c r="M87" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="N87" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="N87" s="18" t="s">
-        <v>364</v>
-      </c>
       <c r="O87" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P87" s="20">
         <v>10</v>
@@ -14005,7 +14041,7 @@
         <v>169</v>
       </c>
       <c r="R87" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S87" s="21">
         <v>3</v>
@@ -14023,7 +14059,7 @@
       <c r="AB87" s="19"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AE87" s="19"/>
       <c r="AF87" s="19"/>
@@ -14041,7 +14077,7 @@
       <c r="AR87" s="19"/>
       <c r="AS87" s="19"/>
       <c r="AT87" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AU87" s="19"/>
       <c r="AV87" s="19"/>
@@ -14065,10 +14101,10 @@
         <v>107</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D88" s="6">
         <v>0</v>
@@ -14098,13 +14134,13 @@
         <v>9</v>
       </c>
       <c r="M88" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="N88" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="N88" s="9" t="s">
-        <v>369</v>
-      </c>
       <c r="O88" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P88" s="11">
         <v>15</v>
@@ -14141,7 +14177,9 @@
       <c r="AL88" s="10"/>
       <c r="AM88" s="10"/>
       <c r="AN88" s="10"/>
-      <c r="AO88" s="10"/>
+      <c r="AO88" s="10" t="s">
+        <v>1168</v>
+      </c>
       <c r="AP88" s="10"/>
       <c r="AQ88" s="10"/>
       <c r="AR88" s="10"/>
@@ -14169,10 +14207,10 @@
         <v>108</v>
       </c>
       <c r="B89" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>371</v>
       </c>
       <c r="D89" s="15">
         <v>0</v>
@@ -14202,13 +14240,13 @@
         <v>9</v>
       </c>
       <c r="M89" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="N89" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="N89" s="18" t="s">
-        <v>373</v>
-      </c>
       <c r="O89" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P89" s="20">
         <v>10</v>
@@ -14250,7 +14288,7 @@
       <c r="AQ89" s="19"/>
       <c r="AR89" s="19"/>
       <c r="AS89" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AT89" s="19"/>
       <c r="AU89" s="19"/>
@@ -14275,10 +14313,10 @@
         <v>109</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -14308,13 +14346,13 @@
         <v>10</v>
       </c>
       <c r="M90" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="N90" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="N90" s="9" t="s">
-        <v>377</v>
-      </c>
       <c r="O90" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P90" s="11">
         <v>5</v>
@@ -14369,7 +14407,7 @@
       <c r="BD90" s="10"/>
       <c r="BE90" s="10"/>
       <c r="BF90" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="BG90" s="10"/>
       <c r="BH90" s="10"/>
@@ -14381,10 +14419,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="D91" s="15">
         <v>1</v>
@@ -14414,13 +14452,13 @@
         <v>8</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O91" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P91" s="20">
         <v>10</v>
@@ -14485,10 +14523,10 @@
         <v>111</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
@@ -14497,7 +14535,7 @@
         <v>9.5829832348515396</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G92" s="5">
         <v>1</v>
@@ -14518,13 +14556,13 @@
         <v>50</v>
       </c>
       <c r="M92" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N92" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="N92" s="9" t="s">
-        <v>384</v>
-      </c>
       <c r="O92" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P92" s="11">
         <v>10</v>
@@ -14581,7 +14619,7 @@
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
       <c r="BH92" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="BI92" s="10"/>
       <c r="BJ92" s="10"/>
@@ -14591,10 +14629,10 @@
         <v>93</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="D93" s="6">
         <v>0</v>
@@ -14624,13 +14662,13 @@
         <v>8</v>
       </c>
       <c r="M93" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N93" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="N93" s="9" t="s">
-        <v>315</v>
-      </c>
       <c r="O93" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P93" s="11">
         <v>15</v>
@@ -14680,7 +14718,7 @@
       <c r="AY93" s="10"/>
       <c r="AZ93" s="10"/>
       <c r="BA93" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="BB93" s="10"/>
       <c r="BC93" s="10"/>
@@ -14697,10 +14735,10 @@
         <v>114</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
@@ -14730,13 +14768,13 @@
         <v>50</v>
       </c>
       <c r="M94" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="N94" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="N94" s="9" t="s">
-        <v>392</v>
-      </c>
       <c r="O94" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P94" s="11">
         <v>10</v>
@@ -14792,7 +14830,7 @@
       <c r="BE94" s="10"/>
       <c r="BF94" s="10"/>
       <c r="BG94" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="BH94" s="10"/>
       <c r="BI94" s="10"/>
@@ -14803,10 +14841,10 @@
         <v>115</v>
       </c>
       <c r="B95" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>393</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>394</v>
       </c>
       <c r="D95" s="15">
         <v>1</v>
@@ -14836,13 +14874,13 @@
         <v>50</v>
       </c>
       <c r="M95" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="N95" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="N95" s="18" t="s">
-        <v>396</v>
-      </c>
       <c r="O95" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P95" s="20">
         <v>5</v>
@@ -14907,10 +14945,10 @@
         <v>116</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -14940,13 +14978,13 @@
         <v>46</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O96" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P96" s="11">
         <v>5</v>
@@ -14979,7 +15017,7 @@
       <c r="AH96" s="10"/>
       <c r="AI96" s="10"/>
       <c r="AJ96" s="10" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
@@ -15013,10 +15051,10 @@
         <v>117</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>399</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>400</v>
       </c>
       <c r="D97" s="15">
         <v>1</v>
@@ -15046,13 +15084,13 @@
         <v>50</v>
       </c>
       <c r="M97" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O97" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P97" s="20">
         <v>5</v>
@@ -15082,7 +15120,7 @@
       <c r="AE97" s="19"/>
       <c r="AF97" s="19"/>
       <c r="AG97" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH97" s="19"/>
       <c r="AI97" s="19"/>
@@ -15119,10 +15157,10 @@
         <v>118</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
@@ -15155,10 +15193,10 @@
         <v>108</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O98" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P98" s="11">
         <v>10</v>
@@ -15223,10 +15261,10 @@
         <v>119</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -15235,7 +15273,7 @@
         <v>10.736364088877609</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G99" s="14">
         <v>4</v>
@@ -15259,10 +15297,10 @@
         <v>108</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O99" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P99" s="20">
         <v>10</v>
@@ -15320,7 +15358,7 @@
       <c r="BG99" s="19"/>
       <c r="BH99" s="19"/>
       <c r="BI99" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BJ99" s="19"/>
     </row>
@@ -15329,10 +15367,10 @@
         <v>120</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="D100" s="6">
         <v>0</v>
@@ -15365,10 +15403,10 @@
         <v>108</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O100" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P100" s="11">
         <v>10</v>
@@ -15433,10 +15471,10 @@
         <v>121</v>
       </c>
       <c r="B101" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>409</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>410</v>
       </c>
       <c r="D101" s="15">
         <v>0</v>
@@ -15469,10 +15507,10 @@
         <v>108</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P101" s="20">
         <v>10</v>
@@ -15537,10 +15575,10 @@
         <v>122</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>411</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>412</v>
       </c>
       <c r="D102" s="6">
         <v>0</v>
@@ -15573,10 +15611,10 @@
         <v>108</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O102" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P102" s="11">
         <v>10</v>
@@ -15641,10 +15679,10 @@
         <v>123</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D103" s="15">
         <v>0</v>
@@ -15674,10 +15712,10 @@
         <v>10</v>
       </c>
       <c r="M103" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="N103" s="18" t="s">
         <v>414</v>
-      </c>
-      <c r="N103" s="18" t="s">
-        <v>415</v>
       </c>
       <c r="O103" s="19" t="s">
         <v>42</v>
@@ -15745,10 +15783,10 @@
         <v>124</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="D104" s="6">
         <v>0</v>
@@ -15778,10 +15816,10 @@
         <v>10</v>
       </c>
       <c r="M104" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="N104" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="N104" s="9" t="s">
-        <v>419</v>
       </c>
       <c r="O104" s="10" t="s">
         <v>42</v>
@@ -15849,10 +15887,10 @@
         <v>125</v>
       </c>
       <c r="B105" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>421</v>
       </c>
       <c r="D105" s="15">
         <v>0</v>
@@ -15882,10 +15920,10 @@
         <v>10</v>
       </c>
       <c r="M105" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="N105" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="N105" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="O105" s="19" t="s">
         <v>42</v>
@@ -15953,10 +15991,10 @@
         <v>110</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
@@ -15986,10 +16024,10 @@
         <v>8</v>
       </c>
       <c r="M106" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="N106" s="18" t="s">
         <v>379</v>
-      </c>
-      <c r="N106" s="18" t="s">
-        <v>380</v>
       </c>
       <c r="O106" s="19" t="s">
         <v>42</v>
@@ -16057,10 +16095,10 @@
         <v>127</v>
       </c>
       <c r="B107" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>427</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>428</v>
       </c>
       <c r="D107" s="15">
         <v>1</v>
@@ -16090,10 +16128,10 @@
         <v>10</v>
       </c>
       <c r="M107" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="N107" s="18" t="s">
         <v>429</v>
-      </c>
-      <c r="N107" s="18" t="s">
-        <v>430</v>
       </c>
       <c r="O107" s="19" t="s">
         <v>42</v>
@@ -16120,11 +16158,11 @@
       <c r="Y107" s="19"/>
       <c r="Z107" s="19"/>
       <c r="AA107" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AB107" s="19"/>
       <c r="AC107" s="19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AD107" s="19"/>
       <c r="AE107" s="19"/>
@@ -16157,7 +16195,9 @@
       <c r="BF107" s="19"/>
       <c r="BG107" s="19"/>
       <c r="BH107" s="19"/>
-      <c r="BI107" s="19"/>
+      <c r="BI107" s="19" t="s">
+        <v>1265</v>
+      </c>
       <c r="BJ107" s="19"/>
     </row>
     <row r="108" spans="1:62" ht="330" x14ac:dyDescent="0.25">
@@ -16165,10 +16205,10 @@
         <v>128</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -16198,10 +16238,10 @@
         <v>9</v>
       </c>
       <c r="M108" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="N108" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="N108" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="O108" s="10" t="s">
         <v>42</v>
@@ -16269,10 +16309,10 @@
         <v>129</v>
       </c>
       <c r="B109" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>435</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>436</v>
       </c>
       <c r="D109" s="15">
         <v>1</v>
@@ -16302,10 +16342,10 @@
         <v>50</v>
       </c>
       <c r="M109" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="N109" s="18" t="s">
         <v>437</v>
-      </c>
-      <c r="N109" s="18" t="s">
-        <v>438</v>
       </c>
       <c r="O109" s="19" t="s">
         <v>42</v>
@@ -16373,10 +16413,10 @@
         <v>130</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D110" s="6">
         <v>0</v>
@@ -16406,10 +16446,10 @@
         <v>9</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O110" s="10" t="s">
         <v>42</v>
@@ -16449,13 +16489,15 @@
       <c r="AL110" s="10"/>
       <c r="AM110" s="10"/>
       <c r="AN110" s="10"/>
-      <c r="AO110" s="10"/>
+      <c r="AO110" s="10" t="s">
+        <v>1168</v>
+      </c>
       <c r="AP110" s="10"/>
       <c r="AQ110" s="10"/>
       <c r="AR110" s="10"/>
       <c r="AS110" s="10"/>
       <c r="AT110" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AU110" s="10"/>
       <c r="AV110" s="10"/>
@@ -16468,7 +16510,7 @@
       <c r="BC110" s="10"/>
       <c r="BD110" s="10"/>
       <c r="BE110" s="10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="BF110" s="10"/>
       <c r="BG110" s="10"/>
@@ -16481,10 +16523,10 @@
         <v>131</v>
       </c>
       <c r="B111" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>442</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>443</v>
       </c>
       <c r="D111" s="15">
         <v>0</v>
@@ -16514,10 +16556,10 @@
         <v>9</v>
       </c>
       <c r="M111" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="N111" s="18" t="s">
         <v>444</v>
-      </c>
-      <c r="N111" s="18" t="s">
-        <v>445</v>
       </c>
       <c r="O111" s="19" t="s">
         <v>42</v>
@@ -16585,10 +16627,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>386</v>
       </c>
       <c r="D112" s="15">
         <v>1</v>
@@ -16618,13 +16660,13 @@
         <v>8</v>
       </c>
       <c r="M112" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="N112" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="N112" s="18" t="s">
-        <v>388</v>
-      </c>
       <c r="O112" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P112" s="20">
         <v>10</v>
@@ -16689,10 +16731,10 @@
         <v>126</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D113" s="6">
         <v>0</v>
@@ -16722,10 +16764,10 @@
         <v>8</v>
       </c>
       <c r="M113" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="N113" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="N113" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="O113" s="10" t="s">
         <v>42</v>
@@ -16737,7 +16779,7 @@
         <v>115</v>
       </c>
       <c r="R113" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S113" s="12">
         <v>2</v>
@@ -16793,10 +16835,10 @@
         <v>136</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -16822,10 +16864,10 @@
         <v>46</v>
       </c>
       <c r="M114" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="N114" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="N114" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="O114" s="10" t="s">
         <v>42</v>
@@ -16846,7 +16888,7 @@
         <v>5</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V114" s="10"/>
       <c r="W114" s="10"/>
@@ -16864,18 +16906,18 @@
       <c r="AI114" s="10"/>
       <c r="AJ114" s="10"/>
       <c r="AK114" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AL114" s="10"/>
       <c r="AM114" s="10" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AN114" s="10"/>
-      <c r="AO114" s="10" t="s">
-        <v>1243</v>
-      </c>
+      <c r="AO114" s="10"/>
       <c r="AP114" s="10"/>
-      <c r="AQ114" s="10"/>
+      <c r="AQ114" s="10" t="s">
+        <v>1242</v>
+      </c>
       <c r="AR114" s="10"/>
       <c r="AS114" s="10"/>
       <c r="AT114" s="10"/>
@@ -16884,10 +16926,10 @@
       <c r="AW114" s="10"/>
       <c r="AX114" s="10"/>
       <c r="AY114" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AZ114" s="10" t="s">
         <v>1033</v>
-      </c>
-      <c r="AZ114" s="10" t="s">
-        <v>1034</v>
       </c>
       <c r="BA114" s="10"/>
       <c r="BB114" s="10"/>
@@ -16905,10 +16947,10 @@
         <v>137</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>457</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>458</v>
       </c>
       <c r="D115" s="15">
         <v>1</v>
@@ -16930,10 +16972,10 @@
         <v>9</v>
       </c>
       <c r="M115" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="N115" s="18" t="s">
         <v>459</v>
-      </c>
-      <c r="N115" s="18" t="s">
-        <v>460</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>42</v>
@@ -17001,10 +17043,10 @@
         <v>138</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -17034,10 +17076,10 @@
         <v>46</v>
       </c>
       <c r="M116" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="N116" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="O116" s="10" t="s">
         <v>42</v>
@@ -17098,7 +17140,7 @@
       <c r="BG116" s="10"/>
       <c r="BH116" s="10"/>
       <c r="BI116" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="BJ116" s="10"/>
     </row>
@@ -17107,10 +17149,10 @@
         <v>132</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -17140,10 +17182,10 @@
         <v>8</v>
       </c>
       <c r="M117" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="N117" s="9" t="s">
         <v>447</v>
-      </c>
-      <c r="N117" s="9" t="s">
-        <v>448</v>
       </c>
       <c r="O117" s="10" t="s">
         <v>42</v>
@@ -17211,10 +17253,10 @@
         <v>133</v>
       </c>
       <c r="B118" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>449</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>450</v>
       </c>
       <c r="D118" s="15">
         <v>0</v>
@@ -17244,10 +17286,10 @@
         <v>8</v>
       </c>
       <c r="M118" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="N118" s="18" t="s">
         <v>451</v>
-      </c>
-      <c r="N118" s="18" t="s">
-        <v>452</v>
       </c>
       <c r="O118" s="19" t="s">
         <v>42</v>
@@ -17315,10 +17357,10 @@
         <v>142</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>473</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>474</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
@@ -17348,10 +17390,10 @@
         <v>10</v>
       </c>
       <c r="M119" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="N119" s="32" t="s">
         <v>475</v>
-      </c>
-      <c r="N119" s="32" t="s">
-        <v>476</v>
       </c>
       <c r="O119" s="14" t="s">
         <v>42</v>
@@ -17419,10 +17461,10 @@
         <v>144</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -17448,10 +17490,10 @@
         <v>50</v>
       </c>
       <c r="M120" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="N120" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="N120" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="O120" s="10" t="s">
         <v>42</v>
@@ -17519,10 +17561,10 @@
         <v>145</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
@@ -17552,10 +17594,10 @@
         <v>9</v>
       </c>
       <c r="M121" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="N121" s="18" t="s">
         <v>481</v>
-      </c>
-      <c r="N121" s="18" t="s">
-        <v>482</v>
       </c>
       <c r="O121" s="19" t="s">
         <v>42</v>
@@ -17623,10 +17665,10 @@
         <v>139</v>
       </c>
       <c r="B122" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C122" s="15" t="s">
         <v>464</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>465</v>
       </c>
       <c r="D122" s="15">
         <v>1</v>
@@ -17656,10 +17698,10 @@
         <v>8</v>
       </c>
       <c r="M122" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="N122" s="18" t="s">
         <v>466</v>
-      </c>
-      <c r="N122" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="O122" s="19" t="s">
         <v>42</v>
@@ -17693,7 +17735,7 @@
       <c r="AF122" s="19"/>
       <c r="AG122" s="19"/>
       <c r="AH122" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI122" s="19"/>
       <c r="AJ122" s="19"/>
@@ -17729,10 +17771,10 @@
         <v>147</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D123" s="15">
         <v>1</v>
@@ -17762,10 +17804,10 @@
         <v>9</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O123" s="19" t="s">
         <v>42</v>
@@ -17833,10 +17875,10 @@
         <v>151</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="D124" s="6">
         <v>1</v>
@@ -17860,10 +17902,10 @@
         <v>50</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O124" s="10" t="s">
         <v>42</v>
@@ -17908,7 +17950,7 @@
       <c r="AQ124" s="10"/>
       <c r="AR124" s="10"/>
       <c r="AS124" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AT124" s="10"/>
       <c r="AU124" s="10"/>
@@ -17933,10 +17975,10 @@
         <v>152</v>
       </c>
       <c r="B125" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>492</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>493</v>
       </c>
       <c r="D125" s="15">
         <v>1</v>
@@ -17966,10 +18008,10 @@
         <v>10</v>
       </c>
       <c r="M125" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O125" s="19" t="s">
         <v>42</v>
@@ -18037,10 +18079,10 @@
         <v>146</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D126" s="6">
         <v>0</v>
@@ -18070,10 +18112,10 @@
         <v>8</v>
       </c>
       <c r="M126" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="N126" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="N126" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="O126" s="10" t="s">
         <v>42</v>
@@ -18141,10 +18183,10 @@
         <v>154</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
@@ -18174,10 +18216,10 @@
         <v>10</v>
       </c>
       <c r="M127" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="N127" s="18" t="s">
         <v>498</v>
-      </c>
-      <c r="N127" s="18" t="s">
-        <v>499</v>
       </c>
       <c r="O127" s="19" t="s">
         <v>42</v>
@@ -18217,7 +18259,7 @@
       <c r="AL127" s="19"/>
       <c r="AM127" s="19"/>
       <c r="AN127" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AO127" s="19"/>
       <c r="AP127" s="19"/>
@@ -18247,10 +18289,10 @@
         <v>155</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D128" s="6">
         <v>0</v>
@@ -18280,10 +18322,10 @@
         <v>50</v>
       </c>
       <c r="M128" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="N128" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="N128" s="9" t="s">
-        <v>503</v>
       </c>
       <c r="O128" s="10" t="s">
         <v>42</v>
@@ -18324,7 +18366,9 @@
       <c r="AM128" s="10"/>
       <c r="AN128" s="10"/>
       <c r="AO128" s="10"/>
-      <c r="AP128" s="10"/>
+      <c r="AP128" s="10" t="s">
+        <v>1168</v>
+      </c>
       <c r="AQ128" s="10"/>
       <c r="AR128" s="10"/>
       <c r="AS128" s="10"/>
@@ -18351,10 +18395,10 @@
         <v>156</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D129" s="15">
         <v>1</v>
@@ -18384,10 +18428,10 @@
         <v>9</v>
       </c>
       <c r="M129" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="N129" s="18" t="s">
         <v>505</v>
-      </c>
-      <c r="N129" s="18" t="s">
-        <v>506</v>
       </c>
       <c r="O129" s="19" t="s">
         <v>42</v>
@@ -18455,10 +18499,10 @@
         <v>157</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="D130" s="6">
         <v>1</v>
@@ -18488,10 +18532,10 @@
         <v>10</v>
       </c>
       <c r="M130" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="N130" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="N130" s="9" t="s">
-        <v>510</v>
       </c>
       <c r="O130" s="10" t="s">
         <v>42</v>
@@ -18515,7 +18559,7 @@
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
       <c r="X130" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
@@ -18561,10 +18605,10 @@
         <v>158</v>
       </c>
       <c r="B131" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>512</v>
       </c>
       <c r="D131" s="15">
         <v>1</v>
@@ -18594,10 +18638,10 @@
         <v>10</v>
       </c>
       <c r="M131" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="N131" s="18" t="s">
         <v>513</v>
-      </c>
-      <c r="N131" s="18" t="s">
-        <v>514</v>
       </c>
       <c r="O131" s="19" t="s">
         <v>42</v>
@@ -18665,10 +18709,10 @@
         <v>159</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D132" s="6">
         <v>0</v>
@@ -18698,10 +18742,10 @@
         <v>9</v>
       </c>
       <c r="M132" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="N132" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="N132" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="O132" s="10" t="s">
         <v>42</v>
@@ -18769,10 +18813,10 @@
         <v>161</v>
       </c>
       <c r="B133" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>518</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>519</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
@@ -18802,10 +18846,10 @@
         <v>9</v>
       </c>
       <c r="M133" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="N133" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="N133" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="O133" s="19" t="s">
         <v>42</v>
@@ -18873,10 +18917,10 @@
         <v>162</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="D134" s="6">
         <v>1</v>
@@ -18906,10 +18950,10 @@
         <v>10</v>
       </c>
       <c r="M134" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="N134" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="N134" s="9" t="s">
-        <v>525</v>
       </c>
       <c r="O134" s="10" t="s">
         <v>42</v>
@@ -18977,10 +19021,10 @@
         <v>163</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
@@ -19010,10 +19054,10 @@
         <v>9</v>
       </c>
       <c r="M135" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N135" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O135" s="19" t="s">
         <v>42</v>
@@ -19081,10 +19125,10 @@
         <v>164</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="D136" s="6">
         <v>0</v>
@@ -19114,10 +19158,10 @@
         <v>9</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O136" s="10" t="s">
         <v>42</v>
@@ -19185,10 +19229,10 @@
         <v>165</v>
       </c>
       <c r="B137" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>531</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>532</v>
       </c>
       <c r="D137" s="15">
         <v>0</v>
@@ -19218,10 +19262,10 @@
         <v>10</v>
       </c>
       <c r="M137" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O137" s="19" t="s">
         <v>42</v>
@@ -19289,10 +19333,10 @@
         <v>166</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="D138" s="6">
         <v>1</v>
@@ -19322,10 +19366,10 @@
         <v>9</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O138" s="10" t="s">
         <v>42</v>
@@ -19393,10 +19437,10 @@
         <v>153</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D139" s="6">
         <v>0</v>
@@ -19426,10 +19470,10 @@
         <v>8</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O139" s="10" t="s">
         <v>42</v>
@@ -19476,7 +19520,7 @@
       <c r="AS139" s="10"/>
       <c r="AT139" s="10"/>
       <c r="AU139" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AV139" s="10"/>
       <c r="AW139" s="10"/>
@@ -19499,10 +19543,10 @@
         <v>170</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="D140" s="6">
         <v>0</v>
@@ -19532,10 +19576,10 @@
         <v>9</v>
       </c>
       <c r="M140" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O140" s="10" t="s">
         <v>42</v>
@@ -19603,10 +19647,10 @@
         <v>171</v>
       </c>
       <c r="B141" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="D141" s="15">
         <v>0</v>
@@ -19636,10 +19680,10 @@
         <v>9</v>
       </c>
       <c r="M141" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N141" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O141" s="19" t="s">
         <v>42</v>
@@ -19707,10 +19751,10 @@
         <v>173</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D142" s="6">
         <v>1</v>
@@ -19740,10 +19784,10 @@
         <v>9</v>
       </c>
       <c r="M142" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N142" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="N142" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="O142" s="10" t="s">
         <v>233</v>
@@ -19764,7 +19808,7 @@
         <v>5</v>
       </c>
       <c r="U142" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V142" s="10"/>
       <c r="W142" s="10"/>
@@ -19778,19 +19822,19 @@
       <c r="AE142" s="10"/>
       <c r="AF142" s="10"/>
       <c r="AG142" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="AH142" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="AH142" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="AI142" s="10"/>
       <c r="AJ142" s="10"/>
       <c r="AK142" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AL142" s="10"/>
       <c r="AM142" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN142" s="10"/>
       <c r="AO142" s="10"/>
@@ -19798,7 +19842,7 @@
       <c r="AQ142" s="10"/>
       <c r="AR142" s="10"/>
       <c r="AS142" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AT142" s="10"/>
       <c r="AU142" s="10"/>
@@ -19823,10 +19867,10 @@
         <v>174</v>
       </c>
       <c r="B143" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="D143" s="15">
         <v>1</v>
@@ -19856,10 +19900,10 @@
         <v>9</v>
       </c>
       <c r="M143" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="N143" s="18" t="s">
         <v>556</v>
-      </c>
-      <c r="N143" s="18" t="s">
-        <v>557</v>
       </c>
       <c r="O143" s="19" t="s">
         <v>233</v>
@@ -19904,7 +19948,7 @@
       <c r="AQ143" s="19"/>
       <c r="AR143" s="19"/>
       <c r="AS143" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AT143" s="19"/>
       <c r="AU143" s="19"/>
@@ -19912,7 +19956,7 @@
       <c r="AW143" s="19"/>
       <c r="AX143" s="19"/>
       <c r="AY143" s="19" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AZ143" s="19"/>
       <c r="BA143" s="19"/>
@@ -19931,10 +19975,10 @@
         <v>176</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D144" s="6">
         <v>1</v>
@@ -19964,10 +20008,10 @@
         <v>9</v>
       </c>
       <c r="M144" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="N144" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="N144" s="9" t="s">
-        <v>561</v>
       </c>
       <c r="O144" s="10" t="s">
         <v>233</v>
@@ -20004,7 +20048,7 @@
       <c r="AI144" s="10"/>
       <c r="AJ144" s="10"/>
       <c r="AK144" s="10" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AL144" s="10"/>
       <c r="AM144" s="10"/>
@@ -20037,10 +20081,10 @@
         <v>177</v>
       </c>
       <c r="B145" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>562</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>563</v>
       </c>
       <c r="D145" s="15">
         <v>1</v>
@@ -20070,10 +20114,10 @@
         <v>9</v>
       </c>
       <c r="M145" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="N145" s="18" t="s">
         <v>564</v>
-      </c>
-      <c r="N145" s="18" t="s">
-        <v>565</v>
       </c>
       <c r="O145" s="19" t="s">
         <v>233</v>
@@ -20141,10 +20185,10 @@
         <v>178</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="D146" s="6">
         <v>1</v>
@@ -20174,10 +20218,10 @@
         <v>9</v>
       </c>
       <c r="M146" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="N146" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="N146" s="9" t="s">
-        <v>569</v>
       </c>
       <c r="O146" s="10" t="s">
         <v>233</v>
@@ -20204,10 +20248,10 @@
       <c r="Y146" s="10"/>
       <c r="Z146" s="10"/>
       <c r="AA146" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB146" s="10" t="s">
         <v>570</v>
-      </c>
-      <c r="AB146" s="10" t="s">
-        <v>571</v>
       </c>
       <c r="AC146" s="10"/>
       <c r="AD146" s="10"/>
@@ -20249,10 +20293,10 @@
         <v>179</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D147" s="15">
         <v>1</v>
@@ -20282,10 +20326,10 @@
         <v>9</v>
       </c>
       <c r="M147" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="N147" s="18" t="s">
         <v>573</v>
-      </c>
-      <c r="N147" s="18" t="s">
-        <v>574</v>
       </c>
       <c r="O147" s="19" t="s">
         <v>233</v>
@@ -20312,7 +20356,7 @@
       <c r="Y147" s="19"/>
       <c r="Z147" s="19"/>
       <c r="AA147" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AB147" s="19"/>
       <c r="AC147" s="19"/>
@@ -20349,7 +20393,7 @@
       <c r="BH147" s="19"/>
       <c r="BI147" s="19"/>
       <c r="BJ147" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="148" spans="1:62" ht="210" x14ac:dyDescent="0.25">
@@ -20357,10 +20401,10 @@
         <v>181</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D148" s="6">
         <v>1</v>
@@ -20390,10 +20434,10 @@
         <v>9</v>
       </c>
       <c r="M148" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="N148" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="N148" s="9" t="s">
-        <v>578</v>
       </c>
       <c r="O148" s="10" t="s">
         <v>233</v>
@@ -20461,10 +20505,10 @@
         <v>182</v>
       </c>
       <c r="B149" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>579</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>580</v>
       </c>
       <c r="D149" s="15">
         <v>1</v>
@@ -20494,10 +20538,10 @@
         <v>9</v>
       </c>
       <c r="M149" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="N149" s="18" t="s">
         <v>581</v>
-      </c>
-      <c r="N149" s="18" t="s">
-        <v>582</v>
       </c>
       <c r="O149" s="19" t="s">
         <v>233</v>
@@ -20565,10 +20609,10 @@
         <v>183</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D150" s="6">
         <v>1</v>
@@ -20598,10 +20642,10 @@
         <v>9</v>
       </c>
       <c r="M150" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="N150" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="N150" s="9" t="s">
-        <v>585</v>
       </c>
       <c r="O150" s="10" t="s">
         <v>233</v>
@@ -20669,10 +20713,10 @@
         <v>184</v>
       </c>
       <c r="B151" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>586</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>587</v>
       </c>
       <c r="D151" s="15">
         <v>1</v>
@@ -20702,10 +20746,10 @@
         <v>9</v>
       </c>
       <c r="M151" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="N151" s="18" t="s">
         <v>588</v>
-      </c>
-      <c r="N151" s="18" t="s">
-        <v>589</v>
       </c>
       <c r="O151" s="19" t="s">
         <v>233</v>
@@ -20726,12 +20770,12 @@
         <v>3</v>
       </c>
       <c r="U151" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
       <c r="X151" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Y151" s="19"/>
       <c r="Z151" s="19"/>
@@ -20743,7 +20787,7 @@
       <c r="AF151" s="19"/>
       <c r="AG151" s="19"/>
       <c r="AH151" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AI151" s="19"/>
       <c r="AJ151" s="19"/>
@@ -20756,7 +20800,7 @@
       <c r="AQ151" s="19"/>
       <c r="AR151" s="19"/>
       <c r="AS151" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AT151" s="19"/>
       <c r="AU151" s="19"/>
@@ -20781,10 +20825,10 @@
         <v>185</v>
       </c>
       <c r="B152" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>593</v>
       </c>
       <c r="D152" s="6">
         <v>0</v>
@@ -20814,10 +20858,10 @@
         <v>9</v>
       </c>
       <c r="M152" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="N152" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="N152" s="9" t="s">
-        <v>595</v>
       </c>
       <c r="O152" s="10" t="s">
         <v>233</v>
@@ -20885,10 +20929,10 @@
         <v>186</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D153" s="15">
         <v>1</v>
@@ -20918,10 +20962,10 @@
         <v>9</v>
       </c>
       <c r="M153" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="N153" s="18" t="s">
         <v>597</v>
-      </c>
-      <c r="N153" s="18" t="s">
-        <v>598</v>
       </c>
       <c r="O153" s="19" t="s">
         <v>233</v>
@@ -20966,7 +21010,7 @@
       <c r="AQ153" s="19"/>
       <c r="AR153" s="19"/>
       <c r="AS153" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AT153" s="19"/>
       <c r="AU153" s="19"/>
@@ -20991,10 +21035,10 @@
         <v>187</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>601</v>
       </c>
       <c r="D154" s="6">
         <v>1</v>
@@ -21024,10 +21068,10 @@
         <v>9</v>
       </c>
       <c r="M154" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="N154" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="N154" s="9" t="s">
-        <v>603</v>
       </c>
       <c r="O154" s="10" t="s">
         <v>233</v>
@@ -21072,7 +21116,7 @@
       <c r="AQ154" s="10"/>
       <c r="AR154" s="10"/>
       <c r="AS154" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT154" s="10"/>
       <c r="AU154" s="10"/>
@@ -21081,7 +21125,7 @@
       <c r="AX154" s="10"/>
       <c r="AY154" s="10"/>
       <c r="AZ154" s="10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="BA154" s="10"/>
       <c r="BB154" s="10"/>
@@ -21099,10 +21143,10 @@
         <v>188</v>
       </c>
       <c r="B155" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="C155" s="15" t="s">
         <v>605</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>606</v>
       </c>
       <c r="D155" s="15">
         <v>1</v>
@@ -21132,10 +21176,10 @@
         <v>9</v>
       </c>
       <c r="M155" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="N155" s="18" t="s">
         <v>607</v>
-      </c>
-      <c r="N155" s="18" t="s">
-        <v>608</v>
       </c>
       <c r="O155" s="19" t="s">
         <v>233</v>
@@ -21203,10 +21247,10 @@
         <v>189</v>
       </c>
       <c r="B156" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="D156" s="6">
         <v>1</v>
@@ -21236,10 +21280,10 @@
         <v>9</v>
       </c>
       <c r="M156" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="N156" s="9" t="s">
         <v>611</v>
-      </c>
-      <c r="N156" s="9" t="s">
-        <v>612</v>
       </c>
       <c r="O156" s="10" t="s">
         <v>233</v>
@@ -21297,7 +21341,7 @@
       <c r="BD156" s="10"/>
       <c r="BE156" s="10"/>
       <c r="BF156" s="10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="BG156" s="10"/>
       <c r="BH156" s="10"/>
@@ -21309,10 +21353,10 @@
         <v>190</v>
       </c>
       <c r="B157" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="D157" s="15">
         <v>0</v>
@@ -21342,10 +21386,10 @@
         <v>9</v>
       </c>
       <c r="M157" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="N157" s="18" t="s">
         <v>615</v>
-      </c>
-      <c r="N157" s="18" t="s">
-        <v>616</v>
       </c>
       <c r="O157" s="19" t="s">
         <v>233</v>
@@ -21413,10 +21457,10 @@
         <v>191</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="D158" s="6">
         <v>1</v>
@@ -21446,10 +21490,10 @@
         <v>9</v>
       </c>
       <c r="M158" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="N158" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="N158" s="9" t="s">
-        <v>620</v>
       </c>
       <c r="O158" s="10" t="s">
         <v>233</v>
@@ -21494,7 +21538,7 @@
       <c r="AQ158" s="10"/>
       <c r="AR158" s="10"/>
       <c r="AS158" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AT158" s="10"/>
       <c r="AU158" s="10"/>
@@ -21519,10 +21563,10 @@
         <v>192</v>
       </c>
       <c r="B159" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>622</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>623</v>
       </c>
       <c r="D159" s="15">
         <v>1</v>
@@ -21552,10 +21596,10 @@
         <v>9</v>
       </c>
       <c r="M159" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="N159" s="18" t="s">
         <v>624</v>
-      </c>
-      <c r="N159" s="18" t="s">
-        <v>625</v>
       </c>
       <c r="O159" s="19" t="s">
         <v>233</v>
@@ -21623,10 +21667,10 @@
         <v>193</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D160" s="6">
         <v>1</v>
@@ -21656,10 +21700,10 @@
         <v>9</v>
       </c>
       <c r="M160" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="N160" s="9" t="s">
         <v>627</v>
-      </c>
-      <c r="N160" s="9" t="s">
-        <v>628</v>
       </c>
       <c r="O160" s="10" t="s">
         <v>233</v>
@@ -21688,7 +21732,7 @@
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
       <c r="AC160" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AD160" s="10"/>
       <c r="AE160" s="10"/>
@@ -21729,10 +21773,10 @@
         <v>194</v>
       </c>
       <c r="B161" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>629</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>630</v>
       </c>
       <c r="D161" s="15">
         <v>0</v>
@@ -21762,10 +21806,10 @@
         <v>9</v>
       </c>
       <c r="M161" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="N161" s="18" t="s">
         <v>631</v>
-      </c>
-      <c r="N161" s="18" t="s">
-        <v>632</v>
       </c>
       <c r="O161" s="19" t="s">
         <v>233</v>
@@ -21810,7 +21854,7 @@
       <c r="AQ161" s="19"/>
       <c r="AR161" s="19"/>
       <c r="AS161" s="19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AT161" s="19"/>
       <c r="AU161" s="19"/>
@@ -21835,10 +21879,10 @@
         <v>195</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>635</v>
       </c>
       <c r="D162" s="6">
         <v>1</v>
@@ -21868,10 +21912,10 @@
         <v>9</v>
       </c>
       <c r="M162" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="N162" s="9" t="s">
         <v>636</v>
-      </c>
-      <c r="N162" s="9" t="s">
-        <v>637</v>
       </c>
       <c r="O162" s="10" t="s">
         <v>233</v>
@@ -21893,7 +21937,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="W162" s="10"/>
       <c r="X162" s="10"/>
@@ -21909,13 +21953,13 @@
       <c r="AH162" s="10"/>
       <c r="AI162" s="10"/>
       <c r="AJ162" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="10"/>
       <c r="AM162" s="10"/>
       <c r="AN162" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AO162" s="10"/>
       <c r="AP162" s="10"/>
@@ -21923,31 +21967,31 @@
       <c r="AR162" s="10"/>
       <c r="AS162" s="10"/>
       <c r="AT162" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AU162" s="10"/>
       <c r="AV162" s="10"/>
       <c r="AW162" s="10"/>
       <c r="AX162" s="10"/>
       <c r="AY162" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AZ162" s="10"/>
       <c r="BA162" s="10" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="BB162" s="46" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="BC162" s="10"/>
       <c r="BD162" s="10"/>
       <c r="BE162" s="10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="BF162" s="10"/>
       <c r="BG162" s="10"/>
       <c r="BH162" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="BI162" s="10"/>
       <c r="BJ162" s="10"/>
@@ -21957,10 +22001,10 @@
         <v>196</v>
       </c>
       <c r="B163" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>640</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>641</v>
       </c>
       <c r="D163" s="15">
         <v>1</v>
@@ -21990,10 +22034,10 @@
         <v>9</v>
       </c>
       <c r="M163" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="N163" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="N163" s="18" t="s">
-        <v>643</v>
       </c>
       <c r="O163" s="19" t="s">
         <v>233</v>
@@ -22014,12 +22058,12 @@
         <v>4</v>
       </c>
       <c r="U163" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V163" s="19"/>
       <c r="W163" s="19"/>
       <c r="X163" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
@@ -22034,7 +22078,7 @@
       <c r="AI163" s="19"/>
       <c r="AJ163" s="19"/>
       <c r="AK163" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AL163" s="19"/>
       <c r="AM163" s="19"/>
@@ -22044,7 +22088,7 @@
       <c r="AQ163" s="19"/>
       <c r="AR163" s="19"/>
       <c r="AS163" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AT163" s="19"/>
       <c r="AU163" s="19"/>
@@ -22069,10 +22113,10 @@
         <v>197</v>
       </c>
       <c r="B164" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>645</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>646</v>
       </c>
       <c r="D164" s="6">
         <v>1</v>
@@ -22102,10 +22146,10 @@
         <v>9</v>
       </c>
       <c r="M164" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="N164" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="N164" s="9" t="s">
-        <v>648</v>
       </c>
       <c r="O164" s="10" t="s">
         <v>233</v>
@@ -22173,10 +22217,10 @@
         <v>198</v>
       </c>
       <c r="B165" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>649</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>650</v>
       </c>
       <c r="D165" s="15">
         <v>1</v>
@@ -22206,10 +22250,10 @@
         <v>9</v>
       </c>
       <c r="M165" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="N165" s="18" t="s">
         <v>651</v>
-      </c>
-      <c r="N165" s="18" t="s">
-        <v>652</v>
       </c>
       <c r="O165" s="19" t="s">
         <v>233</v>
@@ -22277,10 +22321,10 @@
         <v>199</v>
       </c>
       <c r="B166" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="D166" s="6">
         <v>1</v>
@@ -22310,10 +22354,10 @@
         <v>9</v>
       </c>
       <c r="M166" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="N166" s="9" t="s">
         <v>655</v>
-      </c>
-      <c r="N166" s="9" t="s">
-        <v>656</v>
       </c>
       <c r="O166" s="10" t="s">
         <v>233</v>
@@ -22358,7 +22402,7 @@
       <c r="AQ166" s="10"/>
       <c r="AR166" s="10"/>
       <c r="AS166" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AT166" s="10"/>
       <c r="AU166" s="10"/>
@@ -22383,10 +22427,10 @@
         <v>200</v>
       </c>
       <c r="B167" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>658</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>659</v>
       </c>
       <c r="D167" s="15">
         <v>0</v>
@@ -22416,10 +22460,10 @@
         <v>9</v>
       </c>
       <c r="M167" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="N167" s="18" t="s">
         <v>660</v>
-      </c>
-      <c r="N167" s="18" t="s">
-        <v>661</v>
       </c>
       <c r="O167" s="19" t="s">
         <v>233</v>
@@ -22487,10 +22531,10 @@
         <v>201</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>663</v>
       </c>
       <c r="D168" s="6">
         <v>1</v>
@@ -22520,10 +22564,10 @@
         <v>9</v>
       </c>
       <c r="M168" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="N168" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="N168" s="9" t="s">
-        <v>665</v>
       </c>
       <c r="O168" s="10" t="s">
         <v>233</v>
@@ -22591,10 +22635,10 @@
         <v>202</v>
       </c>
       <c r="B169" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>666</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>667</v>
       </c>
       <c r="D169" s="15">
         <v>0</v>
@@ -22624,10 +22668,10 @@
         <v>9</v>
       </c>
       <c r="M169" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="N169" s="18" t="s">
         <v>668</v>
-      </c>
-      <c r="N169" s="18" t="s">
-        <v>669</v>
       </c>
       <c r="O169" s="19" t="s">
         <v>233</v>
@@ -22673,7 +22717,7 @@
       <c r="AR169" s="19"/>
       <c r="AS169" s="19"/>
       <c r="AT169" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AU169" s="19"/>
       <c r="AV169" s="19"/>
@@ -22697,10 +22741,10 @@
         <v>203</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>672</v>
       </c>
       <c r="D170" s="6">
         <v>0</v>
@@ -22730,10 +22774,10 @@
         <v>9</v>
       </c>
       <c r="M170" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="N170" s="9" t="s">
         <v>673</v>
-      </c>
-      <c r="N170" s="9" t="s">
-        <v>674</v>
       </c>
       <c r="O170" s="10" t="s">
         <v>233</v>
@@ -22778,7 +22822,7 @@
       <c r="AQ170" s="10"/>
       <c r="AR170" s="10"/>
       <c r="AS170" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AT170" s="10"/>
       <c r="AU170" s="10"/>
@@ -22803,10 +22847,10 @@
         <v>204</v>
       </c>
       <c r="B171" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>676</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>677</v>
       </c>
       <c r="D171" s="15">
         <v>1</v>
@@ -22836,10 +22880,10 @@
         <v>9</v>
       </c>
       <c r="M171" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="N171" s="18" t="s">
         <v>678</v>
-      </c>
-      <c r="N171" s="18" t="s">
-        <v>679</v>
       </c>
       <c r="O171" s="19" t="s">
         <v>240</v>
@@ -22870,14 +22914,14 @@
       <c r="AC171" s="19"/>
       <c r="AD171" s="19"/>
       <c r="AE171" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AF171" s="19"/>
       <c r="AG171" s="19"/>
       <c r="AH171" s="19"/>
       <c r="AI171" s="19"/>
       <c r="AJ171" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AK171" s="19"/>
       <c r="AL171" s="19"/>
@@ -22897,17 +22941,17 @@
       <c r="AZ171" s="19"/>
       <c r="BA171" s="19"/>
       <c r="BB171" s="46" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="BC171" s="19"/>
       <c r="BD171" s="19"/>
       <c r="BE171" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="BF171" s="19"/>
       <c r="BG171" s="19"/>
       <c r="BH171" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="BI171" s="19"/>
       <c r="BJ171" s="19"/>
@@ -22917,10 +22961,10 @@
         <v>205</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>681</v>
       </c>
       <c r="D172" s="6">
         <v>1</v>
@@ -22950,10 +22994,10 @@
         <v>9</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O172" s="10" t="s">
         <v>240</v>
@@ -23021,10 +23065,10 @@
         <v>206</v>
       </c>
       <c r="B173" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>683</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>684</v>
       </c>
       <c r="D173" s="15">
         <v>0</v>
@@ -23054,10 +23098,10 @@
         <v>10</v>
       </c>
       <c r="M173" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="N173" s="18" t="s">
         <v>685</v>
-      </c>
-      <c r="N173" s="18" t="s">
-        <v>686</v>
       </c>
       <c r="O173" s="19" t="s">
         <v>240</v>
@@ -23084,7 +23128,7 @@
       <c r="Y173" s="19"/>
       <c r="Z173" s="19"/>
       <c r="AA173" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AB173" s="19"/>
       <c r="AC173" s="19"/>
@@ -23117,7 +23161,7 @@
       <c r="BD173" s="19"/>
       <c r="BE173" s="19"/>
       <c r="BF173" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="BG173" s="19"/>
       <c r="BH173" s="19"/>
@@ -23129,10 +23173,10 @@
         <v>207</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="D174" s="6">
         <v>0</v>
@@ -23162,10 +23206,10 @@
         <v>10</v>
       </c>
       <c r="M174" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="N174" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="N174" s="9" t="s">
-        <v>691</v>
       </c>
       <c r="O174" s="10" t="s">
         <v>240</v>
@@ -23177,7 +23221,7 @@
         <v>115</v>
       </c>
       <c r="R174" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S174" s="12">
         <v>3</v>
@@ -23192,7 +23236,7 @@
       <c r="Y174" s="10"/>
       <c r="Z174" s="10"/>
       <c r="AA174" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AB174" s="10"/>
       <c r="AC174" s="10"/>
@@ -23235,10 +23279,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>693</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>694</v>
       </c>
       <c r="D175" s="15">
         <v>1</v>
@@ -23268,10 +23312,10 @@
         <v>9</v>
       </c>
       <c r="M175" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="N175" s="18" t="s">
         <v>695</v>
-      </c>
-      <c r="N175" s="18" t="s">
-        <v>696</v>
       </c>
       <c r="O175" s="19" t="s">
         <v>240</v>
@@ -23301,7 +23345,7 @@
       <c r="AB175" s="19"/>
       <c r="AC175" s="19"/>
       <c r="AD175" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AE175" s="19"/>
       <c r="AF175" s="19"/>
@@ -23341,10 +23385,10 @@
         <v>209</v>
       </c>
       <c r="B176" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>697</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>698</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
@@ -23374,10 +23418,10 @@
         <v>50</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O176" s="10" t="s">
         <v>240</v>
@@ -23407,7 +23451,7 @@
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AE176" s="10"/>
       <c r="AF176" s="10"/>
@@ -23447,10 +23491,10 @@
         <v>210</v>
       </c>
       <c r="B177" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="C177" s="15" t="s">
         <v>700</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>701</v>
       </c>
       <c r="D177" s="15">
         <v>0</v>
@@ -23480,10 +23524,10 @@
         <v>10</v>
       </c>
       <c r="M177" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="N177" s="18" t="s">
         <v>702</v>
-      </c>
-      <c r="N177" s="18" t="s">
-        <v>703</v>
       </c>
       <c r="O177" s="19" t="s">
         <v>240</v>
@@ -23551,10 +23595,10 @@
         <v>211</v>
       </c>
       <c r="B178" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>705</v>
       </c>
       <c r="D178" s="6">
         <v>0</v>
@@ -23584,10 +23628,10 @@
         <v>10</v>
       </c>
       <c r="M178" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="N178" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="N178" s="9" t="s">
-        <v>707</v>
       </c>
       <c r="O178" s="10" t="s">
         <v>240</v>
@@ -23655,10 +23699,10 @@
         <v>212</v>
       </c>
       <c r="B179" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>708</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>709</v>
       </c>
       <c r="D179" s="15">
         <v>0</v>
@@ -23688,10 +23732,10 @@
         <v>50</v>
       </c>
       <c r="M179" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="N179" s="18" t="s">
         <v>710</v>
-      </c>
-      <c r="N179" s="18" t="s">
-        <v>711</v>
       </c>
       <c r="O179" s="19" t="s">
         <v>240</v>
@@ -23703,7 +23747,7 @@
         <v>132</v>
       </c>
       <c r="R179" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S179" s="21">
         <v>4</v>
@@ -23759,10 +23803,10 @@
         <v>213</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>712</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>713</v>
       </c>
       <c r="D180" s="6">
         <v>0</v>
@@ -23792,10 +23836,10 @@
         <v>50</v>
       </c>
       <c r="M180" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N180" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O180" s="10" t="s">
         <v>240</v>
@@ -23807,7 +23851,7 @@
         <v>132</v>
       </c>
       <c r="R180" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S180" s="12">
         <v>4</v>
@@ -23863,10 +23907,10 @@
         <v>214</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D181" s="15">
         <v>1</v>
@@ -23896,10 +23940,10 @@
         <v>50</v>
       </c>
       <c r="M181" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N181" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O181" s="19" t="s">
         <v>240</v>
@@ -23967,10 +24011,10 @@
         <v>169</v>
       </c>
       <c r="B182" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C182" s="15" t="s">
         <v>537</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>538</v>
       </c>
       <c r="D182" s="15">
         <v>0</v>
@@ -23992,10 +24036,10 @@
         <v>8</v>
       </c>
       <c r="M182" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N182" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O182" s="19" t="s">
         <v>42</v>
@@ -24007,7 +24051,7 @@
         <v>115</v>
       </c>
       <c r="R182" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S182" s="21">
         <v>3</v>
@@ -24063,10 +24107,10 @@
         <v>217</v>
       </c>
       <c r="B183" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>722</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>723</v>
       </c>
       <c r="D183" s="15">
         <v>0</v>
@@ -24096,10 +24140,10 @@
         <v>8</v>
       </c>
       <c r="M183" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="N183" s="18" t="s">
         <v>724</v>
-      </c>
-      <c r="N183" s="18" t="s">
-        <v>725</v>
       </c>
       <c r="O183" s="19" t="s">
         <v>261</v>
@@ -24167,10 +24211,10 @@
         <v>218</v>
       </c>
       <c r="B184" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="D184" s="6">
         <v>0</v>
@@ -24200,10 +24244,10 @@
         <v>46</v>
       </c>
       <c r="M184" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="N184" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="N184" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="O184" s="10" t="s">
         <v>42</v>
@@ -24271,10 +24315,10 @@
         <v>220</v>
       </c>
       <c r="B185" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>730</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>731</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -24304,10 +24348,10 @@
         <v>9</v>
       </c>
       <c r="M185" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="N185" s="18" t="s">
         <v>732</v>
-      </c>
-      <c r="N185" s="18" t="s">
-        <v>733</v>
       </c>
       <c r="O185" s="19" t="s">
         <v>42</v>
@@ -24352,7 +24396,7 @@
       <c r="AQ185" s="19"/>
       <c r="AR185" s="19"/>
       <c r="AS185" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AT185" s="19"/>
       <c r="AU185" s="19"/>
@@ -24377,10 +24421,10 @@
         <v>221</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D186" s="6">
         <v>0</v>
@@ -24410,10 +24454,10 @@
         <v>9</v>
       </c>
       <c r="M186" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="N186" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="N186" s="9" t="s">
-        <v>737</v>
       </c>
       <c r="O186" s="10" t="s">
         <v>42</v>
@@ -24458,7 +24502,7 @@
       <c r="AQ186" s="10"/>
       <c r="AR186" s="10"/>
       <c r="AS186" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AT186" s="10"/>
       <c r="AU186" s="10"/>
@@ -24483,10 +24527,10 @@
         <v>222</v>
       </c>
       <c r="B187" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>739</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>740</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -24516,10 +24560,10 @@
         <v>46</v>
       </c>
       <c r="M187" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="N187" s="18" t="s">
         <v>741</v>
-      </c>
-      <c r="N187" s="18" t="s">
-        <v>742</v>
       </c>
       <c r="O187" s="19" t="s">
         <v>42</v>
@@ -24559,11 +24603,11 @@
       <c r="AL187" s="19"/>
       <c r="AM187" s="19"/>
       <c r="AN187" s="19"/>
-      <c r="AO187" s="19" t="s">
-        <v>1046</v>
-      </c>
+      <c r="AO187" s="19"/>
       <c r="AP187" s="19"/>
-      <c r="AQ187" s="19"/>
+      <c r="AQ187" s="19" t="s">
+        <v>1045</v>
+      </c>
       <c r="AR187" s="19"/>
       <c r="AS187" s="19"/>
       <c r="AT187" s="19"/>
@@ -24589,10 +24633,10 @@
         <v>223</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D188" s="6">
         <v>1</v>
@@ -24622,10 +24666,10 @@
         <v>9</v>
       </c>
       <c r="M188" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="N188" s="9" t="s">
         <v>744</v>
-      </c>
-      <c r="N188" s="9" t="s">
-        <v>745</v>
       </c>
       <c r="O188" s="10" t="s">
         <v>42</v>
@@ -24670,7 +24714,7 @@
       <c r="AQ188" s="10"/>
       <c r="AR188" s="10"/>
       <c r="AS188" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AT188" s="10"/>
       <c r="AU188" s="10"/>
@@ -24695,10 +24739,10 @@
         <v>224</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -24728,10 +24772,10 @@
         <v>9</v>
       </c>
       <c r="M189" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="N189" s="18" t="s">
         <v>748</v>
-      </c>
-      <c r="N189" s="18" t="s">
-        <v>749</v>
       </c>
       <c r="O189" s="19" t="s">
         <v>42</v>
@@ -24752,7 +24796,7 @@
         <v>5</v>
       </c>
       <c r="U189" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="V189" s="19"/>
       <c r="W189" s="19"/>
@@ -24768,7 +24812,7 @@
       <c r="AG189" s="19"/>
       <c r="AH189" s="19"/>
       <c r="AI189" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AJ189" s="19"/>
       <c r="AK189" s="19"/>
@@ -24782,7 +24826,7 @@
       <c r="AS189" s="19"/>
       <c r="AT189" s="19"/>
       <c r="AU189" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AV189" s="19"/>
       <c r="AW189" s="19"/>
@@ -24805,10 +24849,10 @@
         <v>225</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>751</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="D190" s="6">
         <v>0</v>
@@ -24838,10 +24882,10 @@
         <v>9</v>
       </c>
       <c r="M190" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="N190" s="9" t="s">
         <v>753</v>
-      </c>
-      <c r="N190" s="9" t="s">
-        <v>754</v>
       </c>
       <c r="O190" s="10" t="s">
         <v>42</v>
@@ -24909,10 +24953,10 @@
         <v>226</v>
       </c>
       <c r="B191" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>755</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>756</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
@@ -24942,10 +24986,10 @@
         <v>9</v>
       </c>
       <c r="M191" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="N191" s="18" t="s">
         <v>757</v>
-      </c>
-      <c r="N191" s="18" t="s">
-        <v>758</v>
       </c>
       <c r="O191" s="19" t="s">
         <v>42</v>
@@ -25013,10 +25057,10 @@
         <v>227</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>760</v>
       </c>
       <c r="D192" s="6">
         <v>0</v>
@@ -25038,10 +25082,10 @@
         <v>50</v>
       </c>
       <c r="M192" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="N192" s="9" t="s">
         <v>761</v>
-      </c>
-      <c r="N192" s="9" t="s">
-        <v>762</v>
       </c>
       <c r="O192" s="10" t="s">
         <v>42</v>
@@ -25109,10 +25153,10 @@
         <v>228</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
@@ -25142,10 +25186,10 @@
         <v>9</v>
       </c>
       <c r="M193" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="N193" s="18" t="s">
         <v>764</v>
-      </c>
-      <c r="N193" s="18" t="s">
-        <v>765</v>
       </c>
       <c r="O193" s="19" t="s">
         <v>42</v>
@@ -25185,7 +25229,9 @@
       <c r="AL193" s="19"/>
       <c r="AM193" s="19"/>
       <c r="AN193" s="19"/>
-      <c r="AO193" s="19"/>
+      <c r="AO193" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="AP193" s="19"/>
       <c r="AQ193" s="19"/>
       <c r="AR193" s="19"/>
@@ -25213,10 +25259,10 @@
         <v>230</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>766</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>767</v>
       </c>
       <c r="D194" s="6">
         <v>1</v>
@@ -25246,10 +25292,10 @@
         <v>9</v>
       </c>
       <c r="M194" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="N194" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="N194" s="9" t="s">
-        <v>769</v>
       </c>
       <c r="O194" s="10" t="s">
         <v>240</v>
@@ -25258,7 +25304,7 @@
         <v>5</v>
       </c>
       <c r="Q194" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R194" s="12" t="s">
         <v>44</v>
@@ -25294,7 +25340,7 @@
       <c r="AQ194" s="10"/>
       <c r="AR194" s="10"/>
       <c r="AS194" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AT194" s="10"/>
       <c r="AU194" s="10"/>
@@ -25309,7 +25355,7 @@
       <c r="BD194" s="10"/>
       <c r="BE194" s="10"/>
       <c r="BF194" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BG194" s="10"/>
       <c r="BH194" s="10"/>
@@ -25321,10 +25367,10 @@
         <v>231</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>772</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>773</v>
       </c>
       <c r="D195" s="15">
         <v>1</v>
@@ -25354,10 +25400,10 @@
         <v>8</v>
       </c>
       <c r="M195" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N195" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O195" s="19" t="s">
         <v>240</v>
@@ -25366,7 +25412,7 @@
         <v>5</v>
       </c>
       <c r="Q195" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R195" s="21" t="s">
         <v>44</v>
@@ -25425,10 +25471,10 @@
         <v>232</v>
       </c>
       <c r="B196" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>776</v>
       </c>
       <c r="D196" s="6">
         <v>1</v>
@@ -25458,10 +25504,10 @@
         <v>8</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N196" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O196" s="10" t="s">
         <v>240</v>
@@ -25470,7 +25516,7 @@
         <v>5</v>
       </c>
       <c r="Q196" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R196" s="12" t="s">
         <v>44</v>
@@ -25529,10 +25575,10 @@
         <v>233</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>778</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>779</v>
       </c>
       <c r="D197" s="15">
         <v>1</v>
@@ -25562,10 +25608,10 @@
         <v>10</v>
       </c>
       <c r="M197" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N197" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O197" s="19" t="s">
         <v>240</v>
@@ -25574,7 +25620,7 @@
         <v>5</v>
       </c>
       <c r="Q197" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R197" s="21" t="s">
         <v>44</v>
@@ -25587,7 +25633,7 @@
       </c>
       <c r="U197" s="19"/>
       <c r="V197" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="W197" s="19"/>
       <c r="X197" s="19"/>
@@ -25596,13 +25642,13 @@
       <c r="AA197" s="19"/>
       <c r="AB197" s="19"/>
       <c r="AC197" s="19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AD197" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AE197" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AF197" s="19"/>
       <c r="AG197" s="19"/>
@@ -25626,7 +25672,7 @@
       <c r="AY197" s="19"/>
       <c r="AZ197" s="19"/>
       <c r="BA197" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="BB197" s="19"/>
       <c r="BC197" s="19"/>
@@ -25643,10 +25689,10 @@
         <v>234</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>781</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>782</v>
       </c>
       <c r="D198" s="6">
         <v>0</v>
@@ -25676,10 +25722,10 @@
         <v>8</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N198" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O198" s="10" t="s">
         <v>240</v>
@@ -25688,7 +25734,7 @@
         <v>5</v>
       </c>
       <c r="Q198" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R198" s="12" t="s">
         <v>44</v>
@@ -25747,10 +25793,10 @@
         <v>235</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>784</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>785</v>
       </c>
       <c r="D199" s="15">
         <v>1</v>
@@ -25780,10 +25826,10 @@
         <v>9</v>
       </c>
       <c r="M199" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="N199" s="18" t="s">
         <v>786</v>
-      </c>
-      <c r="N199" s="18" t="s">
-        <v>787</v>
       </c>
       <c r="O199" s="19" t="s">
         <v>240</v>
@@ -25792,7 +25838,7 @@
         <v>5</v>
       </c>
       <c r="Q199" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R199" s="21" t="s">
         <v>44</v>
@@ -25807,7 +25853,7 @@
       <c r="V199" s="19"/>
       <c r="W199" s="19"/>
       <c r="X199" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Y199" s="19"/>
       <c r="Z199" s="19"/>
@@ -25853,10 +25899,10 @@
         <v>236</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>789</v>
       </c>
       <c r="D200" s="6">
         <v>0</v>
@@ -25886,10 +25932,10 @@
         <v>9</v>
       </c>
       <c r="M200" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N200" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O200" s="10" t="s">
         <v>240</v>
@@ -25898,7 +25944,7 @@
         <v>5</v>
       </c>
       <c r="Q200" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R200" s="12" t="s">
         <v>44</v>
@@ -25934,7 +25980,7 @@
       <c r="AQ200" s="10"/>
       <c r="AR200" s="10"/>
       <c r="AS200" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AT200" s="10"/>
       <c r="AU200" s="10"/>
@@ -25959,10 +26005,10 @@
         <v>238</v>
       </c>
       <c r="B201" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>792</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>793</v>
       </c>
       <c r="D201" s="15">
         <v>0</v>
@@ -25992,10 +26038,10 @@
         <v>8</v>
       </c>
       <c r="M201" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N201" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O201" s="19" t="s">
         <v>240</v>
@@ -26004,7 +26050,7 @@
         <v>5</v>
       </c>
       <c r="Q201" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R201" s="21" t="s">
         <v>44</v>
@@ -26063,10 +26109,10 @@
         <v>239</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C202" s="30" t="s">
         <v>795</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>796</v>
       </c>
       <c r="D202" s="6">
         <v>0</v>
@@ -26096,10 +26142,10 @@
         <v>8</v>
       </c>
       <c r="M202" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N202" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O202" s="10" t="s">
         <v>240</v>
@@ -26108,7 +26154,7 @@
         <v>5</v>
       </c>
       <c r="Q202" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R202" s="12" t="s">
         <v>44</v>
@@ -26167,10 +26213,10 @@
         <v>244</v>
       </c>
       <c r="B203" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>798</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>799</v>
       </c>
       <c r="D203" s="15">
         <v>1</v>
@@ -26200,10 +26246,10 @@
         <v>50</v>
       </c>
       <c r="M203" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="N203" s="18" t="s">
         <v>800</v>
-      </c>
-      <c r="N203" s="18" t="s">
-        <v>801</v>
       </c>
       <c r="O203" s="19" t="s">
         <v>240</v>
@@ -26240,7 +26286,7 @@
       <c r="AI203" s="19"/>
       <c r="AJ203" s="19"/>
       <c r="AK203" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AL203" s="19"/>
       <c r="AM203" s="19"/>
@@ -26273,10 +26319,10 @@
         <v>245</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>803</v>
       </c>
       <c r="D204" s="6">
         <v>1</v>
@@ -26306,10 +26352,10 @@
         <v>50</v>
       </c>
       <c r="M204" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="N204" s="9" t="s">
         <v>804</v>
-      </c>
-      <c r="N204" s="9" t="s">
-        <v>805</v>
       </c>
       <c r="O204" s="10" t="s">
         <v>240</v>
@@ -26354,7 +26400,7 @@
       <c r="AQ204" s="10"/>
       <c r="AR204" s="10"/>
       <c r="AS204" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AT204" s="10"/>
       <c r="AU204" s="10"/>
@@ -26379,10 +26425,10 @@
         <v>246</v>
       </c>
       <c r="B205" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>807</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>808</v>
       </c>
       <c r="D205" s="15">
         <v>1</v>
@@ -26412,10 +26458,10 @@
         <v>9</v>
       </c>
       <c r="M205" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N205" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O205" s="19" t="s">
         <v>240</v>
@@ -26483,10 +26529,10 @@
         <v>247</v>
       </c>
       <c r="B206" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>811</v>
       </c>
       <c r="D206" s="6">
         <v>1</v>
@@ -26516,10 +26562,10 @@
         <v>9</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N206" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O206" s="10" t="s">
         <v>240</v>
@@ -26587,10 +26633,10 @@
         <v>248</v>
       </c>
       <c r="B207" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>813</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>814</v>
       </c>
       <c r="D207" s="15">
         <v>1</v>
@@ -26620,10 +26666,10 @@
         <v>9</v>
       </c>
       <c r="M207" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N207" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O207" s="19" t="s">
         <v>240</v>
@@ -26691,10 +26737,10 @@
         <v>249</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D208" s="6">
         <v>1</v>
@@ -26724,10 +26770,10 @@
         <v>50</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N208" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O208" s="10" t="s">
         <v>240</v>
@@ -26795,10 +26841,10 @@
         <v>250</v>
       </c>
       <c r="B209" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C209" s="15" t="s">
         <v>818</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>819</v>
       </c>
       <c r="D209" s="15">
         <v>0</v>
@@ -26828,10 +26874,10 @@
         <v>9</v>
       </c>
       <c r="M209" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="N209" s="18" t="s">
         <v>820</v>
-      </c>
-      <c r="N209" s="18" t="s">
-        <v>821</v>
       </c>
       <c r="O209" s="19" t="s">
         <v>240</v>
@@ -26840,7 +26886,7 @@
         <v>5</v>
       </c>
       <c r="Q209" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R209" s="21" t="s">
         <v>44</v>
@@ -26876,7 +26922,7 @@
       <c r="AQ209" s="19"/>
       <c r="AR209" s="19"/>
       <c r="AS209" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AT209" s="19"/>
       <c r="AU209" s="19"/>
@@ -26901,10 +26947,10 @@
         <v>251</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D210" s="6">
         <v>0</v>
@@ -26934,10 +26980,10 @@
         <v>9</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N210" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O210" s="10" t="s">
         <v>240</v>
@@ -26946,7 +26992,7 @@
         <v>5</v>
       </c>
       <c r="Q210" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R210" s="12" t="s">
         <v>44</v>
@@ -26982,7 +27028,7 @@
       <c r="AQ210" s="10"/>
       <c r="AR210" s="10"/>
       <c r="AS210" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AT210" s="10"/>
       <c r="AU210" s="10"/>
@@ -27007,10 +27053,10 @@
         <v>252</v>
       </c>
       <c r="B211" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>826</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>827</v>
       </c>
       <c r="D211" s="15">
         <v>0</v>
@@ -27040,10 +27086,10 @@
         <v>9</v>
       </c>
       <c r="M211" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N211" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O211" s="19" t="s">
         <v>240</v>
@@ -27052,7 +27098,7 @@
         <v>5</v>
       </c>
       <c r="Q211" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R211" s="21" t="s">
         <v>44</v>
@@ -27095,7 +27141,7 @@
       <c r="AX211" s="19"/>
       <c r="AY211" s="19"/>
       <c r="AZ211" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BA211" s="19"/>
       <c r="BB211" s="19"/>
@@ -27113,10 +27159,10 @@
         <v>253</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D212" s="6">
         <v>0</v>
@@ -27146,10 +27192,10 @@
         <v>9</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N212" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O212" s="10" t="s">
         <v>240</v>
@@ -27158,7 +27204,7 @@
         <v>5</v>
       </c>
       <c r="Q212" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R212" s="12" t="s">
         <v>44</v>
@@ -27217,10 +27263,10 @@
         <v>254</v>
       </c>
       <c r="B213" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>831</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>832</v>
       </c>
       <c r="D213" s="15">
         <v>0</v>
@@ -27250,10 +27296,10 @@
         <v>9</v>
       </c>
       <c r="M213" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N213" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O213" s="19" t="s">
         <v>240</v>
@@ -27262,7 +27308,7 @@
         <v>5</v>
       </c>
       <c r="Q213" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R213" s="21" t="s">
         <v>44</v>
@@ -27305,7 +27351,7 @@
       <c r="AX213" s="19"/>
       <c r="AY213" s="19"/>
       <c r="AZ213" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BA213" s="19"/>
       <c r="BB213" s="19"/>
@@ -27323,10 +27369,10 @@
         <v>256</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D214" s="6">
         <v>1</v>
@@ -27356,10 +27402,10 @@
         <v>9</v>
       </c>
       <c r="M214" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="N214" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="N214" s="9" t="s">
-        <v>836</v>
       </c>
       <c r="O214" s="10" t="s">
         <v>240</v>
@@ -27368,7 +27414,7 @@
         <v>5</v>
       </c>
       <c r="Q214" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R214" s="12" t="s">
         <v>44</v>
@@ -27427,10 +27473,10 @@
         <v>257</v>
       </c>
       <c r="B215" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>837</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>838</v>
       </c>
       <c r="D215" s="15">
         <v>1</v>
@@ -27460,10 +27506,10 @@
         <v>46</v>
       </c>
       <c r="M215" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N215" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O215" s="19" t="s">
         <v>240</v>
@@ -27472,7 +27518,7 @@
         <v>5</v>
       </c>
       <c r="Q215" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R215" s="21" t="s">
         <v>44</v>
@@ -27492,7 +27538,7 @@
       <c r="AA215" s="19"/>
       <c r="AB215" s="19"/>
       <c r="AC215" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AD215" s="19"/>
       <c r="AE215" s="19"/>
@@ -27533,10 +27579,10 @@
         <v>258</v>
       </c>
       <c r="B216" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>840</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>841</v>
       </c>
       <c r="D216" s="6">
         <v>0</v>
@@ -27566,10 +27612,10 @@
         <v>9</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O216" s="10" t="s">
         <v>240</v>
@@ -27578,7 +27624,7 @@
         <v>5</v>
       </c>
       <c r="Q216" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R216" s="12" t="s">
         <v>44</v>
@@ -27637,10 +27683,10 @@
         <v>259</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D217" s="15">
         <v>1</v>
@@ -27670,10 +27716,10 @@
         <v>10</v>
       </c>
       <c r="M217" s="43" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N217" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O217" s="19" t="s">
         <v>240</v>
@@ -27682,7 +27728,7 @@
         <v>5</v>
       </c>
       <c r="Q217" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R217" s="21" t="s">
         <v>44</v>
@@ -27702,7 +27748,7 @@
       <c r="AA217" s="19"/>
       <c r="AB217" s="19"/>
       <c r="AC217" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AD217" s="19"/>
       <c r="AE217" s="19"/>
@@ -27721,7 +27767,7 @@
       <c r="AR217" s="19"/>
       <c r="AS217" s="19"/>
       <c r="AT217" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AU217" s="19"/>
       <c r="AV217" s="19"/>
@@ -27745,10 +27791,10 @@
         <v>261</v>
       </c>
       <c r="B218" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>847</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>848</v>
       </c>
       <c r="D218" s="6">
         <v>0</v>
@@ -27778,10 +27824,10 @@
         <v>10</v>
       </c>
       <c r="M218" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="N218" s="9" t="s">
         <v>849</v>
-      </c>
-      <c r="N218" s="9" t="s">
-        <v>850</v>
       </c>
       <c r="O218" s="10" t="s">
         <v>240</v>
@@ -27810,7 +27856,7 @@
       <c r="AA218" s="10"/>
       <c r="AB218" s="10"/>
       <c r="AC218" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AD218" s="10"/>
       <c r="AE218" s="10"/>
@@ -27851,10 +27897,10 @@
         <v>262</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D219" s="15">
         <v>1</v>
@@ -27884,10 +27930,10 @@
         <v>9</v>
       </c>
       <c r="M219" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N219" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O219" s="19" t="s">
         <v>240</v>
@@ -27955,10 +28001,10 @@
         <v>263</v>
       </c>
       <c r="B220" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>855</v>
       </c>
       <c r="D220" s="6">
         <v>1</v>
@@ -27988,10 +28034,10 @@
         <v>46</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O220" s="10" t="s">
         <v>240</v>
@@ -28013,34 +28059,36 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="W220" s="10"/>
       <c r="X220" s="10"/>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
       <c r="AD220" s="10"/>
       <c r="AE220" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AF220" s="10"/>
       <c r="AG220" s="10"/>
       <c r="AH220" s="10"/>
       <c r="AI220" s="10"/>
       <c r="AJ220" s="10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
       <c r="AM220" s="10"/>
       <c r="AN220" s="10"/>
       <c r="AO220" s="10"/>
-      <c r="AP220" s="10"/>
+      <c r="AP220" s="10" t="s">
+        <v>1168</v>
+      </c>
       <c r="AQ220" s="10"/>
       <c r="AR220" s="10"/>
       <c r="AS220" s="10"/>
@@ -28053,10 +28101,10 @@
       <c r="AZ220" s="10"/>
       <c r="BA220" s="10"/>
       <c r="BB220" s="45" t="s">
+        <v>1217</v>
+      </c>
+      <c r="BC220" s="45" t="s">
         <v>1218</v>
-      </c>
-      <c r="BC220" s="45" t="s">
-        <v>1219</v>
       </c>
       <c r="BD220" s="10"/>
       <c r="BE220" s="10"/>
@@ -28071,10 +28119,10 @@
         <v>264</v>
       </c>
       <c r="B221" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="C221" s="15" t="s">
         <v>857</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>858</v>
       </c>
       <c r="D221" s="15">
         <v>1</v>
@@ -28104,10 +28152,10 @@
         <v>9</v>
       </c>
       <c r="M221" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="N221" s="18" t="s">
         <v>859</v>
-      </c>
-      <c r="N221" s="18" t="s">
-        <v>860</v>
       </c>
       <c r="O221" s="19" t="s">
         <v>240</v>
@@ -28144,7 +28192,7 @@
       <c r="AI221" s="19"/>
       <c r="AJ221" s="19"/>
       <c r="AK221" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AL221" s="19"/>
       <c r="AM221" s="19"/>
@@ -28177,10 +28225,10 @@
         <v>265</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D222" s="6">
         <v>1</v>
@@ -28210,10 +28258,10 @@
         <v>9</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O222" s="10" t="s">
         <v>240</v>
@@ -28281,10 +28329,10 @@
         <v>266</v>
       </c>
       <c r="B223" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="C223" s="15" t="s">
         <v>863</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>864</v>
       </c>
       <c r="D223" s="15">
         <v>1</v>
@@ -28314,10 +28362,10 @@
         <v>9</v>
       </c>
       <c r="M223" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="N223" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O223" s="19" t="s">
         <v>240</v>
@@ -28341,7 +28389,7 @@
       <c r="V223" s="19"/>
       <c r="W223" s="19"/>
       <c r="X223" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Y223" s="19"/>
       <c r="Z223" s="19"/>
@@ -28356,7 +28404,7 @@
       <c r="AI223" s="19"/>
       <c r="AJ223" s="19"/>
       <c r="AK223" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AL223" s="19"/>
       <c r="AM223" s="19"/>
@@ -28366,7 +28414,7 @@
       <c r="AQ223" s="19"/>
       <c r="AR223" s="19"/>
       <c r="AS223" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AT223" s="19"/>
       <c r="AU223" s="19"/>
@@ -28391,10 +28439,10 @@
         <v>267</v>
       </c>
       <c r="B224" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>867</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>868</v>
       </c>
       <c r="D224" s="6">
         <v>0</v>
@@ -28424,10 +28472,10 @@
         <v>8</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="N224" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O224" s="10" t="s">
         <v>240</v>
@@ -28495,10 +28543,10 @@
         <v>268</v>
       </c>
       <c r="B225" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="C225" s="15" t="s">
         <v>870</v>
-      </c>
-      <c r="C225" s="15" t="s">
-        <v>871</v>
       </c>
       <c r="D225" s="15">
         <v>0</v>
@@ -28528,10 +28576,10 @@
         <v>46</v>
       </c>
       <c r="M225" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="N225" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O225" s="19" t="s">
         <v>240</v>
@@ -28576,7 +28624,7 @@
       <c r="AQ225" s="19"/>
       <c r="AR225" s="19"/>
       <c r="AS225" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AT225" s="19"/>
       <c r="AU225" s="19"/>
@@ -28601,10 +28649,10 @@
         <v>269</v>
       </c>
       <c r="B226" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>874</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>875</v>
       </c>
       <c r="D226" s="6">
         <v>1</v>
@@ -28634,10 +28682,10 @@
         <v>9</v>
       </c>
       <c r="M226" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="N226" s="9" t="s">
         <v>876</v>
-      </c>
-      <c r="N226" s="9" t="s">
-        <v>877</v>
       </c>
       <c r="O226" s="10" t="s">
         <v>240</v>
@@ -28646,7 +28694,7 @@
         <v>5</v>
       </c>
       <c r="Q226" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R226" s="12" t="s">
         <v>44</v>
@@ -28659,7 +28707,7 @@
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="W226" s="10"/>
       <c r="X226" s="10"/>
@@ -28669,17 +28717,17 @@
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AE226" s="10"/>
       <c r="AF226" s="10"/>
       <c r="AG226" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AH226" s="10"/>
       <c r="AI226" s="10"/>
       <c r="AJ226" s="10" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AK226" s="10"/>
       <c r="AL226" s="10"/>
@@ -28713,10 +28761,10 @@
         <v>270</v>
       </c>
       <c r="B227" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="C227" s="15" t="s">
         <v>879</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>880</v>
       </c>
       <c r="D227" s="15">
         <v>1</v>
@@ -28746,10 +28794,10 @@
         <v>9</v>
       </c>
       <c r="M227" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N227" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O227" s="19" t="s">
         <v>240</v>
@@ -28758,7 +28806,7 @@
         <v>5</v>
       </c>
       <c r="Q227" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R227" s="21" t="s">
         <v>44</v>
@@ -28803,7 +28851,7 @@
       <c r="AZ227" s="19"/>
       <c r="BA227" s="19"/>
       <c r="BB227" s="46" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="BC227" s="19"/>
       <c r="BD227" s="19"/>
@@ -28819,10 +28867,10 @@
         <v>272</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D228" s="6">
         <v>1</v>
@@ -28852,10 +28900,10 @@
         <v>10</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O228" s="10" t="s">
         <v>240</v>
@@ -28864,7 +28912,7 @@
         <v>5</v>
       </c>
       <c r="Q228" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R228" s="12" t="s">
         <v>44</v>
@@ -28885,7 +28933,7 @@
       <c r="AB228" s="10"/>
       <c r="AC228" s="10"/>
       <c r="AD228" s="10" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AE228" s="10"/>
       <c r="AF228" s="10"/>
@@ -28911,7 +28959,7 @@
       <c r="AZ228" s="10"/>
       <c r="BA228" s="10"/>
       <c r="BB228" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="BC228" s="10"/>
       <c r="BD228" s="10"/>
@@ -28927,10 +28975,10 @@
         <v>273</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D229" s="15">
         <v>1</v>
@@ -28960,10 +29008,10 @@
         <v>9</v>
       </c>
       <c r="M229" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N229" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O229" s="19" t="s">
         <v>240</v>
@@ -28972,7 +29020,7 @@
         <v>5</v>
       </c>
       <c r="Q229" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R229" s="21" t="s">
         <v>44</v>
@@ -28999,7 +29047,7 @@
       <c r="AH229" s="19"/>
       <c r="AI229" s="19"/>
       <c r="AJ229" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AK229" s="19"/>
       <c r="AL229" s="19"/>
@@ -29019,7 +29067,7 @@
       <c r="AZ229" s="19"/>
       <c r="BA229" s="19"/>
       <c r="BB229" s="46" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="BC229" s="19"/>
       <c r="BD229" s="19"/>
@@ -29035,10 +29083,10 @@
         <v>274</v>
       </c>
       <c r="B230" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>886</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>887</v>
       </c>
       <c r="D230" s="6">
         <v>1</v>
@@ -29068,10 +29116,10 @@
         <v>50</v>
       </c>
       <c r="M230" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="N230" s="9" t="s">
         <v>888</v>
-      </c>
-      <c r="N230" s="9" t="s">
-        <v>889</v>
       </c>
       <c r="O230" s="10" t="s">
         <v>240</v>
@@ -29080,7 +29128,7 @@
         <v>10</v>
       </c>
       <c r="Q230" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R230" s="12" t="s">
         <v>44</v>
@@ -29103,7 +29151,7 @@
       <c r="AD230" s="10"/>
       <c r="AE230" s="10"/>
       <c r="AF230" s="10" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AG230" s="10"/>
       <c r="AH230" s="10"/>
@@ -29141,10 +29189,10 @@
         <v>275</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D231" s="15">
         <v>0</v>
@@ -29174,10 +29222,10 @@
         <v>9</v>
       </c>
       <c r="M231" s="17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N231" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="O231" s="19" t="s">
         <v>240</v>
@@ -29186,7 +29234,7 @@
         <v>5</v>
       </c>
       <c r="Q231" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R231" s="21" t="s">
         <v>44</v>
@@ -29229,7 +29277,7 @@
       <c r="AX231" s="19"/>
       <c r="AY231" s="19"/>
       <c r="AZ231" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="BA231" s="19"/>
       <c r="BB231" s="19"/>
@@ -29247,10 +29295,10 @@
         <v>276</v>
       </c>
       <c r="B232" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>892</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>893</v>
       </c>
       <c r="D232" s="6">
         <v>0</v>
@@ -29280,10 +29328,10 @@
         <v>9</v>
       </c>
       <c r="M232" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O232" s="10" t="s">
         <v>240</v>
@@ -29292,7 +29340,7 @@
         <v>5</v>
       </c>
       <c r="Q232" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R232" s="12" t="s">
         <v>44</v>
@@ -29351,10 +29399,10 @@
         <v>277</v>
       </c>
       <c r="B233" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="C233" s="15" t="s">
         <v>895</v>
-      </c>
-      <c r="C233" s="15" t="s">
-        <v>896</v>
       </c>
       <c r="D233" s="15">
         <v>0</v>
@@ -29384,10 +29432,10 @@
         <v>50</v>
       </c>
       <c r="M233" s="17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N233" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O233" s="19" t="s">
         <v>240</v>
@@ -29396,7 +29444,7 @@
         <v>10</v>
       </c>
       <c r="Q233" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R233" s="21" t="s">
         <v>44</v>
@@ -29439,7 +29487,7 @@
       <c r="AX233" s="19"/>
       <c r="AY233" s="19"/>
       <c r="AZ233" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BA233" s="19"/>
       <c r="BB233" s="19"/>
@@ -29457,10 +29505,10 @@
         <v>279</v>
       </c>
       <c r="B234" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="D234" s="6">
         <v>0</v>
@@ -29490,10 +29538,10 @@
         <v>46</v>
       </c>
       <c r="M234" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="N234" s="9" t="s">
         <v>900</v>
-      </c>
-      <c r="N234" s="9" t="s">
-        <v>901</v>
       </c>
       <c r="O234" s="10" t="s">
         <v>240</v>
@@ -29538,7 +29586,7 @@
       <c r="AQ234" s="10"/>
       <c r="AR234" s="10"/>
       <c r="AS234" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AT234" s="10"/>
       <c r="AU234" s="10"/>
@@ -29563,10 +29611,10 @@
         <v>281</v>
       </c>
       <c r="B235" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="C235" s="15" t="s">
         <v>903</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>904</v>
       </c>
       <c r="D235" s="15">
         <v>1</v>
@@ -29596,10 +29644,10 @@
         <v>10</v>
       </c>
       <c r="M235" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O235" s="19" t="s">
         <v>240</v>
@@ -29621,7 +29669,7 @@
       </c>
       <c r="U235" s="19"/>
       <c r="V235" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="W235" s="19"/>
       <c r="X235" s="19"/>
@@ -29646,7 +29694,7 @@
       <c r="AQ235" s="19"/>
       <c r="AR235" s="19"/>
       <c r="AS235" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AT235" s="19"/>
       <c r="AU235" s="19"/>
@@ -29671,10 +29719,10 @@
         <v>282</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D236" s="6">
         <v>0</v>
@@ -29704,10 +29752,10 @@
         <v>8</v>
       </c>
       <c r="M236" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N236" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O236" s="10" t="s">
         <v>240</v>
@@ -29754,7 +29802,7 @@
       <c r="AS236" s="10"/>
       <c r="AT236" s="10"/>
       <c r="AU236" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
@@ -29777,10 +29825,10 @@
         <v>283</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D237" s="15">
         <v>0</v>
@@ -29810,10 +29858,10 @@
         <v>46</v>
       </c>
       <c r="M237" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="N237" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="N237" s="18" t="s">
-        <v>911</v>
       </c>
       <c r="O237" s="19" t="s">
         <v>240</v>
@@ -29881,10 +29929,10 @@
         <v>284</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D238" s="6">
         <v>1</v>
@@ -29914,10 +29962,10 @@
         <v>46</v>
       </c>
       <c r="M238" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="N238" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O238" s="10" t="s">
         <v>240</v>
@@ -29985,10 +30033,10 @@
         <v>285</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D239" s="15">
         <v>1</v>
@@ -30018,10 +30066,10 @@
         <v>10</v>
       </c>
       <c r="M239" s="17" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="N239" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O239" s="19" t="s">
         <v>240</v>
@@ -30051,7 +30099,7 @@
       <c r="AB239" s="19"/>
       <c r="AC239" s="19"/>
       <c r="AD239" s="19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AE239" s="19"/>
       <c r="AF239" s="19"/>
@@ -30077,7 +30125,7 @@
       <c r="AZ239" s="19"/>
       <c r="BA239" s="19"/>
       <c r="BB239" s="45" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="BC239" s="19"/>
       <c r="BD239" s="19"/>
@@ -30093,10 +30141,10 @@
         <v>286</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D240" s="6">
         <v>1</v>
@@ -30126,10 +30174,10 @@
         <v>50</v>
       </c>
       <c r="M240" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="N240" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O240" s="10" t="s">
         <v>240</v>
@@ -30159,7 +30207,7 @@
       <c r="AB240" s="10"/>
       <c r="AC240" s="10"/>
       <c r="AD240" s="10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AE240" s="10"/>
       <c r="AF240" s="10"/>
@@ -30199,10 +30247,10 @@
         <v>287</v>
       </c>
       <c r="B241" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="C241" s="15" t="s">
         <v>918</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>919</v>
       </c>
       <c r="D241" s="15">
         <v>1</v>
@@ -30232,10 +30280,10 @@
         <v>46</v>
       </c>
       <c r="M241" s="17" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="N241" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O241" s="19" t="s">
         <v>240</v>
@@ -30275,11 +30323,11 @@
       <c r="AL241" s="19"/>
       <c r="AM241" s="19"/>
       <c r="AN241" s="19"/>
-      <c r="AO241" s="19" t="s">
-        <v>1059</v>
-      </c>
+      <c r="AO241" s="19"/>
       <c r="AP241" s="19"/>
-      <c r="AQ241" s="19"/>
+      <c r="AQ241" s="19" t="s">
+        <v>1058</v>
+      </c>
       <c r="AR241" s="19"/>
       <c r="AS241" s="19"/>
       <c r="AT241" s="19"/>
@@ -30305,10 +30353,10 @@
         <v>288</v>
       </c>
       <c r="B242" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>921</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>922</v>
       </c>
       <c r="D242" s="6">
         <v>1</v>
@@ -30338,10 +30386,10 @@
         <v>50</v>
       </c>
       <c r="M242" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="N242" s="9" t="s">
         <v>923</v>
-      </c>
-      <c r="N242" s="9" t="s">
-        <v>924</v>
       </c>
       <c r="O242" s="10" t="s">
         <v>240</v>
@@ -30409,10 +30457,10 @@
         <v>289</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D243" s="15">
         <v>1</v>
@@ -30442,10 +30490,10 @@
         <v>8</v>
       </c>
       <c r="M243" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N243" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O243" s="19" t="s">
         <v>240</v>
@@ -30490,7 +30538,7 @@
       <c r="AQ243" s="19"/>
       <c r="AR243" s="19"/>
       <c r="AS243" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AT243" s="19"/>
       <c r="AU243" s="19"/>
@@ -30515,10 +30563,10 @@
         <v>290</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D244" s="6">
         <v>1</v>
@@ -30548,10 +30596,10 @@
         <v>8</v>
       </c>
       <c r="M244" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N244" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O244" s="10" t="s">
         <v>240</v>
@@ -30579,10 +30627,10 @@
       <c r="Z244" s="10"/>
       <c r="AA244" s="10"/>
       <c r="AB244" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="AC244" s="10" t="s">
         <v>930</v>
-      </c>
-      <c r="AC244" s="10" t="s">
-        <v>931</v>
       </c>
       <c r="AD244" s="10"/>
       <c r="AE244" s="10"/>
@@ -30607,7 +30655,7 @@
       <c r="AX244" s="10"/>
       <c r="AY244" s="10"/>
       <c r="AZ244" s="10" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="BA244" s="10"/>
       <c r="BB244" s="10"/>
@@ -30625,10 +30673,10 @@
         <v>291</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D245" s="15">
         <v>0</v>
@@ -30658,10 +30706,10 @@
         <v>46</v>
       </c>
       <c r="M245" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N245" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O245" s="19" t="s">
         <v>240</v>
@@ -30702,7 +30750,9 @@
       <c r="AM245" s="19"/>
       <c r="AN245" s="19"/>
       <c r="AO245" s="19"/>
-      <c r="AP245" s="19"/>
+      <c r="AP245" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="AQ245" s="19"/>
       <c r="AR245" s="19"/>
       <c r="AS245" s="19"/>
@@ -30729,10 +30779,10 @@
         <v>292</v>
       </c>
       <c r="B246" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>934</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>935</v>
       </c>
       <c r="D246" s="6">
         <v>1</v>
@@ -30762,10 +30812,10 @@
         <v>46</v>
       </c>
       <c r="M246" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="N246" s="9" t="s">
         <v>936</v>
-      </c>
-      <c r="N246" s="9" t="s">
-        <v>937</v>
       </c>
       <c r="O246" s="10" t="s">
         <v>240</v>
@@ -30833,10 +30883,10 @@
         <v>295</v>
       </c>
       <c r="B247" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C247" s="15" t="s">
         <v>938</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>939</v>
       </c>
       <c r="D247" s="15">
         <v>1</v>
@@ -30866,10 +30916,10 @@
         <v>10</v>
       </c>
       <c r="M247" s="17" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N247" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O247" s="19" t="s">
         <v>240</v>
@@ -30896,7 +30946,7 @@
       <c r="Y247" s="19"/>
       <c r="Z247" s="19"/>
       <c r="AA247" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AB247" s="19"/>
       <c r="AC247" s="19"/>
@@ -30918,7 +30968,7 @@
       <c r="AS247" s="19"/>
       <c r="AT247" s="19"/>
       <c r="AU247" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AV247" s="19"/>
       <c r="AW247" s="19"/>
@@ -30941,10 +30991,10 @@
         <v>296</v>
       </c>
       <c r="B248" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>942</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>943</v>
       </c>
       <c r="D248" s="6">
         <v>0</v>
@@ -30974,10 +31024,10 @@
         <v>50</v>
       </c>
       <c r="M248" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N248" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O248" s="10" t="s">
         <v>240</v>
@@ -31045,10 +31095,10 @@
         <v>297</v>
       </c>
       <c r="B249" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="C249" s="15" t="s">
         <v>945</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>946</v>
       </c>
       <c r="D249" s="15">
         <v>0</v>
@@ -31078,10 +31128,10 @@
         <v>50</v>
       </c>
       <c r="M249" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="N249" s="18" t="s">
         <v>947</v>
-      </c>
-      <c r="N249" s="18" t="s">
-        <v>948</v>
       </c>
       <c r="O249" s="19" t="s">
         <v>240</v>
@@ -31090,7 +31140,7 @@
         <v>5</v>
       </c>
       <c r="Q249" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R249" s="21" t="s">
         <v>185</v>
@@ -31149,10 +31199,10 @@
         <v>298</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D250" s="6">
         <v>1</v>
@@ -31182,10 +31232,10 @@
         <v>10</v>
       </c>
       <c r="M250" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="N250" s="9" t="s">
         <v>950</v>
-      </c>
-      <c r="N250" s="9" t="s">
-        <v>951</v>
       </c>
       <c r="O250" s="10" t="s">
         <v>240</v>
@@ -31194,7 +31244,7 @@
         <v>5</v>
       </c>
       <c r="Q250" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R250" s="12" t="s">
         <v>185</v>
@@ -31247,7 +31297,7 @@
       <c r="BH250" s="10"/>
       <c r="BI250" s="10"/>
       <c r="BJ250" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="251" spans="1:62" ht="345" x14ac:dyDescent="0.25">
@@ -31255,10 +31305,10 @@
         <v>300</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D251" s="15">
         <v>0</v>
@@ -31288,10 +31338,10 @@
         <v>10</v>
       </c>
       <c r="M251" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N251" s="18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O251" s="19" t="s">
         <v>240</v>
@@ -31300,7 +31350,7 @@
         <v>5</v>
       </c>
       <c r="Q251" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R251" s="21" t="s">
         <v>185</v>
@@ -31320,7 +31370,7 @@
       <c r="AA251" s="19"/>
       <c r="AB251" s="19"/>
       <c r="AC251" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AD251" s="19"/>
       <c r="AE251" s="19"/>
@@ -31361,10 +31411,10 @@
         <v>301</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>955</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>956</v>
       </c>
       <c r="D252" s="6">
         <v>0</v>
@@ -31394,10 +31444,10 @@
         <v>9</v>
       </c>
       <c r="M252" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N252" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O252" s="10" t="s">
         <v>240</v>
@@ -31406,7 +31456,7 @@
         <v>10</v>
       </c>
       <c r="Q252" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R252" s="12" t="s">
         <v>185</v>
@@ -31465,10 +31515,10 @@
         <v>304</v>
       </c>
       <c r="B253" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="C253" s="15" t="s">
         <v>958</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>959</v>
       </c>
       <c r="D253" s="15">
         <v>1</v>
@@ -31498,10 +31548,10 @@
         <v>8</v>
       </c>
       <c r="M253" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="N253" s="18" t="s">
         <v>960</v>
-      </c>
-      <c r="N253" s="18" t="s">
-        <v>961</v>
       </c>
       <c r="O253" s="19" t="s">
         <v>240</v>
@@ -31510,7 +31560,7 @@
         <v>10</v>
       </c>
       <c r="Q253" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R253" s="21" t="s">
         <v>44</v>
@@ -31569,10 +31619,10 @@
         <v>305</v>
       </c>
       <c r="B254" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>962</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>963</v>
       </c>
       <c r="D254" s="6">
         <v>1</v>
@@ -31602,10 +31652,10 @@
         <v>10</v>
       </c>
       <c r="M254" s="44" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N254" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O254" s="10" t="s">
         <v>240</v>
@@ -31614,7 +31664,7 @@
         <v>5</v>
       </c>
       <c r="Q254" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R254" s="12" t="s">
         <v>44</v>
@@ -31636,14 +31686,14 @@
       <c r="AC254" s="10"/>
       <c r="AD254" s="10"/>
       <c r="AE254" s="10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AF254" s="10"/>
       <c r="AG254" s="10"/>
       <c r="AH254" s="10"/>
       <c r="AI254" s="10"/>
       <c r="AJ254" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AK254" s="10"/>
       <c r="AL254" s="10"/>
@@ -31660,11 +31710,11 @@
       <c r="AW254" s="10"/>
       <c r="AX254" s="10"/>
       <c r="AY254" s="10" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AZ254" s="10"/>
       <c r="BA254" s="10" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="BB254" s="10"/>
       <c r="BC254" s="10"/>
@@ -31675,7 +31725,7 @@
       <c r="BH254" s="10"/>
       <c r="BI254" s="10"/>
       <c r="BJ254" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="255" spans="1:62" ht="360" x14ac:dyDescent="0.25">
@@ -31683,10 +31733,10 @@
         <v>306</v>
       </c>
       <c r="B255" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="C255" s="15" t="s">
         <v>965</v>
-      </c>
-      <c r="C255" s="15" t="s">
-        <v>966</v>
       </c>
       <c r="D255" s="15">
         <v>1</v>
@@ -31716,10 +31766,10 @@
         <v>9</v>
       </c>
       <c r="M255" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N255" s="18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O255" s="19" t="s">
         <v>240</v>
@@ -31728,7 +31778,7 @@
         <v>5</v>
       </c>
       <c r="Q255" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R255" s="21" t="s">
         <v>44</v>
@@ -31764,7 +31814,7 @@
       <c r="AQ255" s="19"/>
       <c r="AR255" s="19"/>
       <c r="AS255" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AT255" s="19"/>
       <c r="AU255" s="19"/>
@@ -31772,7 +31822,7 @@
       <c r="AW255" s="19"/>
       <c r="AX255" s="19"/>
       <c r="AY255" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AZ255" s="19"/>
       <c r="BA255" s="19"/>
@@ -31781,7 +31831,7 @@
       <c r="BD255" s="19"/>
       <c r="BE255" s="19"/>
       <c r="BF255" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="BG255" s="19"/>
       <c r="BH255" s="19"/>
@@ -31793,10 +31843,10 @@
         <v>307</v>
       </c>
       <c r="B256" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>969</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>970</v>
       </c>
       <c r="D256" s="6">
         <v>0</v>
@@ -31826,10 +31876,10 @@
         <v>50</v>
       </c>
       <c r="M256" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="N256" s="9" t="s">
         <v>971</v>
-      </c>
-      <c r="N256" s="9" t="s">
-        <v>972</v>
       </c>
       <c r="O256" s="10" t="s">
         <v>240</v>
@@ -31838,7 +31888,7 @@
         <v>5</v>
       </c>
       <c r="Q256" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R256" s="12" t="s">
         <v>185</v>
@@ -31897,10 +31947,10 @@
         <v>308</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>973</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>974</v>
       </c>
       <c r="D257" s="15">
         <v>1</v>
@@ -31930,10 +31980,10 @@
         <v>9</v>
       </c>
       <c r="M257" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N257" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O257" s="19" t="s">
         <v>240</v>
@@ -31942,7 +31992,7 @@
         <v>5</v>
       </c>
       <c r="Q257" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R257" s="21" t="s">
         <v>185</v>
@@ -32001,10 +32051,10 @@
         <v>309</v>
       </c>
       <c r="B258" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>976</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>977</v>
       </c>
       <c r="D258" s="6">
         <v>1</v>
@@ -32034,10 +32084,10 @@
         <v>46</v>
       </c>
       <c r="M258" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N258" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O258" s="10" t="s">
         <v>240</v>
@@ -32046,7 +32096,7 @@
         <v>5</v>
       </c>
       <c r="Q258" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R258" s="12" t="s">
         <v>185</v>
@@ -32067,7 +32117,7 @@
       <c r="AB258" s="10"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AE258" s="10"/>
       <c r="AF258" s="10"/>
@@ -32101,7 +32151,7 @@
       <c r="BH258" s="10"/>
       <c r="BI258" s="10"/>
       <c r="BJ258" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="259" spans="1:62" ht="240" x14ac:dyDescent="0.25">
@@ -32109,10 +32159,10 @@
         <v>310</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>979</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>980</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -32142,10 +32192,10 @@
         <v>50</v>
       </c>
       <c r="M259" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N259" s="18" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O259" s="19" t="s">
         <v>240</v>
@@ -32154,7 +32204,7 @@
         <v>5</v>
       </c>
       <c r="Q259" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R259" s="21" t="s">
         <v>185</v>
@@ -32167,7 +32217,7 @@
       </c>
       <c r="U259" s="19"/>
       <c r="V259" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="W259" s="19"/>
       <c r="X259" s="19"/>
@@ -32176,7 +32226,7 @@
       <c r="AA259" s="19"/>
       <c r="AB259" s="19"/>
       <c r="AC259" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AD259" s="19"/>
       <c r="AE259" s="19"/>
@@ -32195,7 +32245,7 @@
       <c r="AR259" s="19"/>
       <c r="AS259" s="19"/>
       <c r="AT259" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AU259" s="19"/>
       <c r="AV259" s="19"/>
@@ -32208,7 +32258,7 @@
       <c r="BC259" s="19"/>
       <c r="BD259" s="19"/>
       <c r="BE259" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="BF259" s="19"/>
       <c r="BG259" s="19"/>
@@ -32221,10 +32271,10 @@
         <v>311</v>
       </c>
       <c r="B260" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C260" s="6" t="s">
         <v>983</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>984</v>
       </c>
       <c r="D260" s="6">
         <v>1</v>
@@ -32254,10 +32304,10 @@
         <v>46</v>
       </c>
       <c r="M260" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N260" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O260" s="10" t="s">
         <v>240</v>
@@ -32266,7 +32316,7 @@
         <v>5</v>
       </c>
       <c r="Q260" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R260" s="12" t="s">
         <v>185</v>
@@ -32325,10 +32375,10 @@
         <v>312</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D261" s="15">
         <v>1</v>
@@ -32348,10 +32398,10 @@
         <v>9</v>
       </c>
       <c r="M261" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="N261" s="18" t="s">
         <v>987</v>
-      </c>
-      <c r="N261" s="18" t="s">
-        <v>988</v>
       </c>
       <c r="O261" s="19" t="s">
         <v>42</v>
@@ -32419,10 +32469,10 @@
         <v>313</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D262" s="6">
         <v>1</v>
@@ -32442,10 +32492,10 @@
         <v>9</v>
       </c>
       <c r="M262" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N262" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O262" s="10" t="s">
         <v>42</v>
@@ -32513,10 +32563,10 @@
         <v>314</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D263" s="15">
         <v>1</v>
@@ -32536,10 +32586,10 @@
         <v>9</v>
       </c>
       <c r="M263" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N263" s="18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O263" s="19" t="s">
         <v>42</v>
@@ -32607,10 +32657,10 @@
         <v>315</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D264" s="6">
         <v>1</v>
@@ -32630,10 +32680,10 @@
         <v>9</v>
       </c>
       <c r="M264" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N264" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O264" s="10" t="s">
         <v>42</v>
@@ -32701,10 +32751,10 @@
         <v>316</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>994</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>995</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>996</v>
       </c>
       <c r="D265" s="15">
         <v>1</v>
@@ -32724,10 +32774,10 @@
         <v>8</v>
       </c>
       <c r="M265" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="N265" s="33" t="s">
         <v>997</v>
-      </c>
-      <c r="N265" s="33" t="s">
-        <v>998</v>
       </c>
       <c r="O265" s="19" t="s">
         <v>42</v>
@@ -32763,7 +32813,7 @@
       <c r="AH265" s="19"/>
       <c r="AI265" s="19"/>
       <c r="AJ265" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AK265" s="19"/>
       <c r="AL265" s="19"/>
@@ -32797,10 +32847,10 @@
         <v>317</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D266" s="6">
         <v>1</v>
@@ -32830,10 +32880,10 @@
         <v>9</v>
       </c>
       <c r="M266" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N266" s="34" t="s">
         <v>1077</v>
-      </c>
-      <c r="N266" s="34" t="s">
-        <v>1078</v>
       </c>
       <c r="O266" s="10" t="s">
         <v>240</v>
@@ -32869,7 +32919,7 @@
       <c r="AH266" s="10"/>
       <c r="AI266" s="10"/>
       <c r="AJ266" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AK266" s="10"/>
       <c r="AL266" s="10"/>
@@ -32889,15 +32939,17 @@
       <c r="AZ266" s="10"/>
       <c r="BA266" s="10"/>
       <c r="BB266" s="46" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="BC266" s="46" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="BD266" s="10"/>
       <c r="BE266" s="10"/>
       <c r="BF266" s="10"/>
-      <c r="BG266" s="10"/>
+      <c r="BG266" s="10" t="s">
+        <v>1266</v>
+      </c>
       <c r="BH266" s="10"/>
       <c r="BI266" s="10"/>
       <c r="BJ266" s="10"/>
@@ -32907,10 +32959,10 @@
         <v>318</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>1079</v>
-      </c>
-      <c r="C267" s="15" t="s">
-        <v>1080</v>
       </c>
       <c r="D267" s="15">
         <v>1</v>
@@ -32940,10 +32992,10 @@
         <v>9</v>
       </c>
       <c r="M267" s="17" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="N267" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O267" s="19" t="s">
         <v>240</v>
@@ -32997,10 +33049,10 @@
       <c r="AZ267" s="19"/>
       <c r="BA267" s="19"/>
       <c r="BB267" s="46" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="BC267" s="46" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="BD267" s="19"/>
       <c r="BE267" s="19"/>
@@ -33015,10 +33067,10 @@
         <v>319</v>
       </c>
       <c r="B268" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>1082</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>1083</v>
       </c>
       <c r="D268" s="6">
         <v>1</v>
@@ -33048,10 +33100,10 @@
         <v>9</v>
       </c>
       <c r="M268" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N268" s="34" t="s">
         <v>1084</v>
-      </c>
-      <c r="N268" s="34" t="s">
-        <v>1085</v>
       </c>
       <c r="O268" s="10" t="s">
         <v>240</v>
@@ -33086,7 +33138,7 @@
       <c r="AH268" s="10"/>
       <c r="AI268" s="10"/>
       <c r="AJ268" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AK268" s="10"/>
       <c r="AL268" s="10"/>
@@ -33106,16 +33158,16 @@
       <c r="AZ268" s="10"/>
       <c r="BA268" s="10"/>
       <c r="BB268" s="46" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="BC268" s="46" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="BD268" s="10"/>
       <c r="BE268" s="10"/>
       <c r="BF268" s="10"/>
       <c r="BG268" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="BH268" s="10"/>
       <c r="BI268" s="10"/>
@@ -33126,10 +33178,10 @@
         <v>320</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C269" s="15" t="s">
         <v>1086</v>
-      </c>
-      <c r="C269" s="15" t="s">
-        <v>1087</v>
       </c>
       <c r="D269" s="15">
         <v>1</v>
@@ -33159,10 +33211,10 @@
         <v>9</v>
       </c>
       <c r="M269" s="17" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="N269" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O269" s="19" t="s">
         <v>240</v>
@@ -33221,7 +33273,7 @@
       <c r="BE269" s="19"/>
       <c r="BF269" s="19"/>
       <c r="BG269" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="BH269" s="19"/>
       <c r="BI269" s="19"/>
@@ -33232,10 +33284,10 @@
         <v>321</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C270" s="49" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D270" s="6">
         <v>1</v>
@@ -33263,10 +33315,10 @@
         <v>9</v>
       </c>
       <c r="M270" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N270" s="38" t="s">
         <v>1089</v>
-      </c>
-      <c r="N270" s="38" t="s">
-        <v>1090</v>
       </c>
       <c r="O270" s="10" t="s">
         <v>261</v>
@@ -33334,10 +33386,10 @@
         <v>322</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D271" s="15">
         <v>1</v>
@@ -33365,10 +33417,10 @@
         <v>9</v>
       </c>
       <c r="M271" s="43" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N271" s="39" t="s">
         <v>1092</v>
-      </c>
-      <c r="N271" s="39" t="s">
-        <v>1093</v>
       </c>
       <c r="O271" s="19" t="s">
         <v>261</v>
@@ -33422,7 +33474,7 @@
       <c r="AZ271" s="19"/>
       <c r="BA271" s="19"/>
       <c r="BB271" s="46" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="BC271" s="19"/>
       <c r="BD271" s="19"/>
@@ -33438,10 +33490,10 @@
         <v>323</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C272" s="49" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D272" s="6">
         <v>1</v>
@@ -33469,10 +33521,10 @@
         <v>9</v>
       </c>
       <c r="M272" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="N272" s="40" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O272" s="10" t="s">
         <v>261</v>
@@ -33526,14 +33578,16 @@
       <c r="AZ272" s="10"/>
       <c r="BA272" s="10"/>
       <c r="BB272" s="46" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="BC272" s="10"/>
       <c r="BD272" s="10"/>
       <c r="BE272" s="10"/>
       <c r="BF272" s="10"/>
       <c r="BG272" s="10"/>
-      <c r="BH272" s="10"/>
+      <c r="BH272" s="10" t="s">
+        <v>1267</v>
+      </c>
       <c r="BI272" s="10"/>
       <c r="BJ272" s="10"/>
     </row>
@@ -33542,10 +33596,10 @@
         <v>324</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -33565,10 +33619,10 @@
         <v>9</v>
       </c>
       <c r="M273" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N273" s="39" t="s">
         <v>1097</v>
-      </c>
-      <c r="N273" s="39" t="s">
-        <v>1098</v>
       </c>
       <c r="O273" s="19" t="s">
         <v>120</v>
@@ -33614,7 +33668,7 @@
       <c r="AR273" s="19"/>
       <c r="AS273" s="19"/>
       <c r="AT273" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AU273" s="19"/>
       <c r="AV273" s="19"/>
@@ -33638,10 +33692,10 @@
         <v>325</v>
       </c>
       <c r="B274" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C274" s="41" t="s">
         <v>1099</v>
-      </c>
-      <c r="C274" s="41" t="s">
-        <v>1100</v>
       </c>
       <c r="D274" s="6">
         <v>1</v>
@@ -33671,10 +33725,10 @@
         <v>10</v>
       </c>
       <c r="M274" s="42" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N274" s="40" t="s">
         <v>1101</v>
-      </c>
-      <c r="N274" s="40" t="s">
-        <v>1102</v>
       </c>
       <c r="O274" s="10" t="s">
         <v>233</v>
@@ -33733,7 +33787,9 @@
       <c r="BE274" s="10"/>
       <c r="BF274" s="10"/>
       <c r="BG274" s="10"/>
-      <c r="BH274" s="10"/>
+      <c r="BH274" s="50" t="s">
+        <v>1268</v>
+      </c>
       <c r="BI274" s="10"/>
       <c r="BJ274" s="10"/>
     </row>
@@ -33742,10 +33798,10 @@
         <v>326</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -33775,10 +33831,10 @@
         <v>10</v>
       </c>
       <c r="M275" s="43" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N275" s="39" t="s">
         <v>1104</v>
-      </c>
-      <c r="N275" s="39" t="s">
-        <v>1105</v>
       </c>
       <c r="O275" s="19" t="s">
         <v>233</v>
@@ -33832,16 +33888,16 @@
       <c r="AZ275" s="19"/>
       <c r="BA275" s="19"/>
       <c r="BB275" s="45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="BC275" s="45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="BD275" s="19"/>
       <c r="BE275" s="19"/>
       <c r="BF275" s="19"/>
       <c r="BG275" s="19"/>
-      <c r="BH275" s="19"/>
+      <c r="BH275" s="50"/>
       <c r="BI275" s="19"/>
       <c r="BJ275" s="19"/>
     </row>
@@ -33850,10 +33906,10 @@
         <v>327</v>
       </c>
       <c r="B276" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C276" s="41" t="s">
         <v>1106</v>
-      </c>
-      <c r="C276" s="41" t="s">
-        <v>1107</v>
       </c>
       <c r="D276" s="6">
         <v>1</v>
@@ -33883,10 +33939,10 @@
         <v>10</v>
       </c>
       <c r="M276" s="44" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N276" s="40" t="s">
         <v>1108</v>
-      </c>
-      <c r="N276" s="40" t="s">
-        <v>1109</v>
       </c>
       <c r="O276" s="10" t="s">
         <v>233</v>
@@ -33945,9 +34001,9 @@
       <c r="BE276" s="10"/>
       <c r="BF276" s="10"/>
       <c r="BG276" s="10" t="s">
-        <v>1190</v>
-      </c>
-      <c r="BH276" s="10"/>
+        <v>1189</v>
+      </c>
+      <c r="BH276" s="50"/>
       <c r="BI276" s="10"/>
       <c r="BJ276" s="10"/>
     </row>
@@ -33956,10 +34012,10 @@
         <v>328</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C277" s="15" t="s">
         <v>1110</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>1111</v>
       </c>
       <c r="D277" s="15">
         <v>1</v>
@@ -33989,10 +34045,10 @@
         <v>10</v>
       </c>
       <c r="M277" s="43" t="s">
+        <v>1111</v>
+      </c>
+      <c r="N277" s="39" t="s">
         <v>1112</v>
-      </c>
-      <c r="N277" s="39" t="s">
-        <v>1113</v>
       </c>
       <c r="O277" s="19" t="s">
         <v>233</v>
@@ -34051,7 +34107,7 @@
       <c r="BE277" s="19"/>
       <c r="BF277" s="19"/>
       <c r="BG277" s="19"/>
-      <c r="BH277" s="19"/>
+      <c r="BH277" s="50"/>
       <c r="BI277" s="19"/>
       <c r="BJ277" s="19"/>
     </row>
@@ -34060,10 +34116,10 @@
         <v>329</v>
       </c>
       <c r="B278" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C278" s="41" t="s">
         <v>1114</v>
-      </c>
-      <c r="C278" s="41" t="s">
-        <v>1115</v>
       </c>
       <c r="D278" s="6">
         <v>1</v>
@@ -34083,10 +34139,10 @@
         <v>50</v>
       </c>
       <c r="M278" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N278" s="40" t="s">
         <v>1116</v>
-      </c>
-      <c r="N278" s="40" t="s">
-        <v>1117</v>
       </c>
       <c r="O278" s="10" t="s">
         <v>42</v>
@@ -34122,7 +34178,7 @@
       <c r="AH278" s="10"/>
       <c r="AI278" s="10"/>
       <c r="AJ278" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AK278" s="10"/>
       <c r="AL278" s="10"/>
@@ -34156,10 +34212,10 @@
         <v>330</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C279" s="15" t="s">
         <v>1118</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>1119</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -34179,10 +34235,10 @@
         <v>46</v>
       </c>
       <c r="M279" s="17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N279" s="39" t="s">
         <v>1120</v>
-      </c>
-      <c r="N279" s="39" t="s">
-        <v>1121</v>
       </c>
       <c r="O279" s="19" t="s">
         <v>42</v>
@@ -34212,7 +34268,7 @@
       <c r="AB279" s="19"/>
       <c r="AC279" s="19"/>
       <c r="AD279" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AE279" s="19"/>
       <c r="AF279" s="19"/>
@@ -34252,10 +34308,10 @@
         <v>331</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C280" s="41" t="s">
         <v>1122</v>
-      </c>
-      <c r="C280" s="41" t="s">
-        <v>1123</v>
       </c>
       <c r="D280" s="6">
         <v>1</v>
@@ -34285,13 +34341,13 @@
         <v>10</v>
       </c>
       <c r="M280" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N280" s="33" t="s">
         <v>1124</v>
       </c>
-      <c r="N280" s="33" t="s">
-        <v>1125</v>
-      </c>
       <c r="O280" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P280" s="11">
         <v>10</v>
@@ -34343,7 +34399,7 @@
       <c r="BA280" s="10"/>
       <c r="BB280" s="10"/>
       <c r="BC280" s="45" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="BD280" s="10"/>
       <c r="BE280" s="10"/>
@@ -35391,212 +35447,212 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{00988520-5A1F-4776-80C0-EC6F25A3EF74}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{B2798E95-6B8E-45D5-B941-FC0E1B148A2D}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{A2BBAF87-16C1-43B2-B03D-1E6B1AD55180}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{2ABA6452-5EF6-4078-B385-F02AD94D5303}">
       <formula1>$BV$19:$BV$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{EA007194-C61A-429A-8828-C72CACC26E8A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{06E5E221-4B2F-4C08-A0C6-69A966F21993}">
       <formula1>$BV$13:$BV$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{76602A23-5A0C-47A6-9DDC-A5D3E33251AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{BB0D5F6E-2F7D-45C1-A44D-07BCA785F318}">
       <formula1>$BS$7:$BS$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{886C66F4-94D6-479B-B5AB-FA6CE7C2F90E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{6CC8819D-4558-45F0-AF81-B43A87DA6944}">
       <formula1>$BT$7:$BT$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{DD8F4164-D12C-49F5-B023-FD918167DC1F}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{9B834422-C47E-4C56-B0D2-A9BD844FB81A}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{69D43E48-4C54-449C-95C3-F159C32021B2}"/>
-    <hyperlink ref="M31" r:id="rId4" xr:uid="{CD80215F-00E9-4DAE-B182-AF89B6D66144}"/>
-    <hyperlink ref="M33" r:id="rId5" xr:uid="{86A72D9D-C9A3-429A-B5BB-9CD1FD7C10CD}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{B8C2A03C-2175-470F-94B3-FAD31A465E94}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{79E8ECBC-3E32-4CF0-99F8-20F5B84BCAB0}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{B9E6DA7C-1E5B-496C-9CA2-F492219AEC42}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{642767B6-39DD-4962-ABC5-6361EAC7829A}"/>
-    <hyperlink ref="M34" r:id="rId10" xr:uid="{A12F5467-8065-4A46-92BA-7C1CE5A49686}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{54B6C656-F82D-4827-94CC-33B0AF055981}"/>
-    <hyperlink ref="M35" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{A05AC10A-ABD7-40DE-A82A-70E1BCAB3A06}"/>
-    <hyperlink ref="M37" r:id="rId13" xr:uid="{8BBACB7D-AB27-4642-A6A0-CC3B7F1F3165}"/>
-    <hyperlink ref="M38" r:id="rId14" xr:uid="{2EEA787D-F37D-4AED-82B8-25A45A2BA9C7}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{BB5F06D3-06B0-4C04-83DD-DFCB39F6F57D}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{217506D1-D231-41BF-B241-B48D5FCB5D55}"/>
-    <hyperlink ref="M53" r:id="rId17" xr:uid="{7D623536-E32A-40A2-A2EC-C7000BDF818F}"/>
-    <hyperlink ref="M55" r:id="rId18" xr:uid="{CC967066-7D26-4331-A5BC-9517B4B471E5}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{D946248D-73DD-44F9-9593-D1E1684DB042}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{DDB6F2E4-FCBF-4A48-8504-56B4DA3AFAC1}"/>
-    <hyperlink ref="M57" r:id="rId21" xr:uid="{66B85687-034C-48BB-9DA3-7860782EFF2C}"/>
-    <hyperlink ref="M58" r:id="rId22" xr:uid="{B876FBFD-9E11-4186-A665-2B4910A36136}"/>
-    <hyperlink ref="M59" r:id="rId23" xr:uid="{979F4119-B41C-4DC5-A42F-7A7E35BE05CC}"/>
-    <hyperlink ref="M73" r:id="rId24" xr:uid="{892CCFA3-4EE1-4509-A4CD-345FF3DD7BDA}"/>
-    <hyperlink ref="M74" r:id="rId25" xr:uid="{D2A50981-9F24-4768-9D01-8ECE09B13E2F}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{38C05728-300A-4988-948F-80E8389E8C96}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{E7355243-C65C-47A6-85D7-0028442B45AE}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{934CA849-552A-47AF-ABE5-111946D444FC}"/>
-    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{341B27B0-AF2D-4B51-8855-F3E0219D6104}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{8642E8A8-CB71-4D67-A054-792AA2DA3214}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{73A6FF85-1ECF-4871-9AA7-117F60719AF6}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{F75321BA-B5B4-4DB6-8DEA-AE0841461BFA}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{303F3E49-B4B4-4785-8F55-070CC73829BF}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{9137C2AD-1751-4D91-BCDC-98B2CDB812CF}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{F76F18A1-57D5-4248-9DA1-0FFEAC5D2BDE}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{2D409881-F370-418E-8C1E-40293D92F4AE}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{F903EE16-A37A-4C8C-AC00-157653D2E852}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{03AE523C-F017-4E58-BF0C-82A5C34EECCF}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{0BD57108-AEF9-4DB9-9A1F-CC8E4A46C276}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{00765D5C-1897-4745-ADA8-C4725D8F84DF}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{BC5E8871-C7D9-41A8-A1BD-2F7F5742B508}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{2A2DFC61-3714-47AB-BAE1-0AC2341AB806}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{6E771C9E-D876-4B78-92B6-E76E85E8DF45}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{516E896D-187D-4726-858F-1DAECF38176C}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{833BAF45-62EC-4FBD-8C2A-0EB95A9C630F}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{8E2B1D35-B1E0-4055-9076-54F84A9DE920}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{353B4416-4401-4E20-82C9-3DF2DA9537DA}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{714F65F9-909F-4F5C-830C-2CF202DF997A}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{DE03F247-43C2-4335-9059-4C6D5F0ED1FA}"/>
-    <hyperlink ref="M56" r:id="rId50" xr:uid="{DEDBBA31-4849-432D-80AF-A56495FAB16C}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{69382F8C-F49E-47A3-8A8E-08A1CE904E95}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{86A5F2A0-0AC5-4885-BD99-95C8939CE67C}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{8402CFFD-5C04-42B3-A6F5-E9BF64531873}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{DAB24EE7-B381-45FF-A339-571B47A4E756}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{7190C309-5194-4A58-85E8-9E915BD54CAC}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{645B6E20-DD2F-4FEB-99E0-491056CA360D}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{2F60A856-9165-4563-B6CA-D80DADF097FB}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{6CCB0190-BDA4-43E0-A76A-DA3A83E479C9}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{E2A23FC2-F6EA-47B6-AD7A-509573A4C7EB}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{7C69AB67-BC91-4B78-85CB-F0F0278588E1}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{AD0206F9-381E-405E-9D1D-6787E4F00C0D}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{AEB8E84C-BFF7-4523-897F-5B797BF7ED2B}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{4D297797-9FBF-4917-8C13-FCE4EF26DD4C}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{AAE00DC1-6705-493A-99E7-7845C1FFF168}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{7F37F11D-2566-499F-B9CA-2C0F607E88CE}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{C041EA33-0039-4224-A90E-B44FACE5E563}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{388AC22A-DE80-4DD9-B159-2BB713D8044F}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{2F36091A-46F4-4B9B-B018-A85E317BB9B2}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{6C2AB6F3-4547-4782-91A1-4011AE13FD42}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{13E623B0-9960-4722-AC03-4C28D9A64B75}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{42D38771-4421-4E03-8F43-B4D42E814CA6}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{CA5E3723-83D1-49DA-86CF-BD2E133FA73F}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{8BB2AEEF-7CFB-4F71-93DA-DBBBBF818D80}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{87440061-B3FA-45D2-8B6D-F93F774CEAFE}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{29249759-74E4-42C8-8CA8-0BD95210ADA4}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{8A3F3476-21F7-48B6-B7E0-36AA2D679D09}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{0DE5EBE1-4057-4708-A914-D04D25FD1E9B}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{5CCA7101-1E97-442C-9151-D70954438364}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{97205B5C-DAD3-4295-8F04-1C5B99E6E033}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{6CECD8A4-40F7-415E-A990-1A8B5FE86BAA}"/>
-    <hyperlink ref="M112" r:id="rId81" xr:uid="{A27193DC-E316-4184-8457-DC34E0094855}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{A96B568B-C712-4C59-A25C-A5CCA96344EF}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{BD21E3C0-1795-415D-9CFA-6AE0A87FA977}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{D1792B32-DF1E-4E68-ABEC-5166478C1418}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{602D78BD-0B3F-446A-813B-A87F4937A02F}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{09826DDA-C2F7-4ECE-A300-D8F00CE2D5FC}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{DA4A85BF-0EC4-4879-A931-0B4A053FBCBD}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{C691DE21-BCA3-45E1-891E-688DE762030C}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{F385FCFF-1097-4458-A0D2-79D18973A4DE}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{A9A7F52E-C8AA-41C3-8153-DF038D89B011}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{48A2E3E4-48D7-4F15-9EE5-F237DB0906AF}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{E005BDF4-706E-48C1-839C-8444D5C80436}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{423D006A-9909-4362-A250-F43E708E1C8B}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{8436FF40-E8BA-43CD-9EB0-40C56CC2E77A}"/>
-    <hyperlink ref="M39" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{E2F6BC79-FC36-40A5-B875-E883EBBB5385}"/>
-    <hyperlink ref="M41" r:id="rId96" xr:uid="{AA9F1442-1BC2-4FB0-A583-934FA35FEC76}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{24AD22D4-3EAC-4BFC-AA56-1A732E45FDB6}"/>
-    <hyperlink ref="M106" r:id="rId98" xr:uid="{07B5F14E-75BF-4D15-AD57-40A6C8C8B545}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{7494462A-5240-4DB0-B086-3E3FDECA2C5B}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{1EA8306E-EA78-4D95-89B6-A6F4C0BF9BFA}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{8B05C322-DAF2-4C17-8F8C-34E2E268B3DB}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{1C089ACF-2950-4627-A1CB-590F0C4FB229}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{D88CFC15-18AB-44F0-ADED-0738F5818978}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{85106F90-6C2C-408A-8397-05339A7143FE}"/>
-    <hyperlink ref="M43" r:id="rId105" xr:uid="{EDB9674B-7FFB-4268-8141-976CC7A2C044}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{59A086E0-4E05-4001-8F7D-525B338D8FDF}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{5303085C-D451-4A1F-AC1B-148F8C62B937}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{A6C509EB-5169-4AA6-A802-2C9EEA7EADED}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{C01B79BB-C56E-44AE-A743-F83271786F32}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{B413562F-64F2-45B2-B465-E9897BEC1A0D}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{116955D1-A3B3-4FA9-809F-1984CF0619D3}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{D6275F94-554F-47C0-8B6E-CDCBE03D12CC}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{854544E1-BD48-41FA-B8F0-A70993140E06}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{6D756318-B49B-4A14-BF08-4B6DBA665CCE}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{84F3E693-29EC-4FBC-A731-D8E4BABCA4B0}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{8F44CE65-4C52-4631-ABEC-204709F86D7E}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{96955C89-7218-4A97-BF61-3F69A634D020}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{32CB10F5-4FBE-4D9C-94F7-AD8A65366E55}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{CFECB7E2-BA61-46A8-8304-37EB9A270BDF}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{7FBCE2C0-B7B3-4CAE-9927-BEC5CB79565A}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{F0FD9B83-6EB4-4768-8C78-C3A75BC0B49A}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{1D5F7109-EF5E-4CFE-9DB5-51CF95B6A4BD}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{AFDFC4F9-A8B8-4CF8-901E-F77076AC55DC}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{75FC79F5-0B67-41FC-BD98-519B8E78FB69}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{FC9672C1-F04A-4E0E-9D73-61442CCCBC3B}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{00C56ADA-C58E-4FA8-B415-51BEF3D64628}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{16DE9234-52D8-48E0-B817-09CD6AFFD27A}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{E13F5FE8-D8C7-4F76-A7AF-17287C6ED594}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{DD6798F1-B83B-426E-8A95-F6E0D7ABDC31}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{A668626C-8102-45FA-BC00-87D974D22DB6}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{25F6C2FD-6D41-4546-8B2F-F9ABA74034C0}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{F9E5071E-2A8E-4C73-B83E-D249667AD53A}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{182DCBBE-E81D-4FAB-ADCF-E86B0C7381C3}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{5B5B542F-EA80-4F52-B133-117FC25875B6}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{71D71405-61C5-49AF-BF85-07FF443E2B18}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{E6D2B596-7169-4B06-BC95-274DA62D79A9}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{302C4DFB-0383-400E-9B86-F876C8D3F2B5}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{D3B4DBA8-8D6F-4773-8026-B5DA1B72227E}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{7043CC14-F2BF-4A93-B30E-D6D4E1A85850}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{E79068C1-F95D-4C38-BA63-04B5C8F8479D}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{BF156544-D82E-41A9-8523-EA7035168DC4}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{3A10ADC6-7DC3-4DE4-8893-ABC96784042B}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{84BB7603-E615-4626-838E-D7AB38B58354}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{0504AC09-9D68-4C9B-BE76-FFBAC1802394}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{D272F534-422B-420F-93D7-F0773EEE3DF1}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{49E0B8D6-AFFB-4C97-BC2C-944404976D2B}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{7DB5A081-BBFD-45D5-A7BC-82BF0BAA6F0B}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{A7E8AC81-B271-48F9-B65F-3CADD3574B49}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{541F9ADB-480E-4004-BD8E-78D2ECF6CBD3}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{27F2A582-B742-45DA-B551-010AD5912B31}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{9E4B0B5C-D1E6-43EA-B66C-7DBAA4BA3887}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{B7237077-7B11-4618-AD89-E89C93201E03}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{4B60F6FC-0EBA-42D3-9288-F55A93E44F9F}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{0E6C7ADD-A862-4FF7-8702-B33BF6B0B25F}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{C32EBB6B-39FD-487A-BE77-78C74D768AF4}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{69D66191-B1A7-44AD-B7BF-F80873D04DD5}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{BEA19F5F-0D74-432D-B968-BA4FF2055C27}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{EA3DBAE1-F46B-4388-9AC7-8274F2BADFB8}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{39197132-808D-4F1A-82C1-BD493FEE8F16}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{07FB03F6-6A2C-4B24-9F3B-4825BE2B73A5}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{DDDBEA9E-C1CF-42A1-9245-87571BAC90FC}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{CDEE536A-B79B-4D42-A4FB-F0A77543B84E}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{C239E3D4-ECD2-425A-BE4E-5270FE8B2362}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{0980A790-E331-431F-813D-B2ECFDB65864}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{F223C3F0-68C3-4069-92D6-86B670859FBD}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{E0B75EBF-340C-4420-94C9-BB5CE79C8783}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{F5FEA824-BE7D-4394-B157-B7186D50030A}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{D92A208C-7154-4B6C-BF94-0C0FC19EB44B}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{3C115A62-BFD4-4567-9B44-B7E1750F6B0D}"/>
-    <hyperlink ref="M183" r:id="rId170" xr:uid="{BD99680B-4F45-44CE-948A-ABD549977C9F}"/>
-    <hyperlink ref="M68" r:id="rId171" xr:uid="{4CE9089C-A366-45DA-9F4F-4A5D435C6799}"/>
-    <hyperlink ref="M8" r:id="rId172" xr:uid="{132DA6F2-77CF-4540-B8BD-5E48F0246F5C}"/>
-    <hyperlink ref="M266" r:id="rId173" xr:uid="{80677898-E4C9-4DBA-9363-CAD616BC2FDA}"/>
-    <hyperlink ref="M268" r:id="rId174" xr:uid="{B86DBDEF-79BD-4B8A-A240-BC8C94E0D73F}"/>
-    <hyperlink ref="M267" r:id="rId175" xr:uid="{85513A16-ED64-414F-93F8-5C8A5F6A5ED5}"/>
-    <hyperlink ref="M269" r:id="rId176" xr:uid="{F72A66FE-9C0D-44E1-9DA0-807EE8D9243D}"/>
-    <hyperlink ref="M272" r:id="rId177" xr:uid="{50329FC5-5F91-407E-A897-6F230306E149}"/>
-    <hyperlink ref="M274" r:id="rId178" xr:uid="{07AFF1EB-67E8-46DA-A08C-E25CBE430666}"/>
-    <hyperlink ref="M275" r:id="rId179" xr:uid="{1F0DB9B9-FC72-4B2B-8A17-999658CE6220}"/>
-    <hyperlink ref="M276" r:id="rId180" xr:uid="{2923AA9C-7A06-4E32-A349-50DB3B75E98A}"/>
-    <hyperlink ref="M277" r:id="rId181" xr:uid="{C02E676E-632F-4EEF-92A8-4E5BBB66EC7D}"/>
-    <hyperlink ref="M280" r:id="rId182" xr:uid="{A87DD8F7-443E-48CF-8D31-08DCFB50208D}"/>
-    <hyperlink ref="M270" r:id="rId183" xr:uid="{6090D116-660A-4BA7-B73F-9B4C5CC319A1}"/>
-    <hyperlink ref="M271" r:id="rId184" xr:uid="{3A636E6A-9AA8-4157-B3BA-4AFD0BC43F7F}"/>
-    <hyperlink ref="M60" r:id="rId185" xr:uid="{75C7F43C-ABB9-4C58-856E-98E9F292E254}"/>
-    <hyperlink ref="M98" r:id="rId186" xr:uid="{45CCAE28-D1E0-42C0-9E8E-3268C436C3D7}"/>
-    <hyperlink ref="M125" r:id="rId187" xr:uid="{0AA3B558-0E00-4ADD-8F41-BFE29E1FC091}"/>
-    <hyperlink ref="M70" r:id="rId188" xr:uid="{1C8633F9-48EF-4978-A4BC-93E3DFC3DD23}"/>
+    <hyperlink ref="M10" r:id="rId1" xr:uid="{D11452B4-EBE5-4980-8F92-84E0BF5258AA}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{C15776BD-B96C-4AF1-84AB-A6B6E1FF847D}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{18A75340-009C-4699-9FD0-13D70D790442}"/>
+    <hyperlink ref="M31" r:id="rId4" xr:uid="{906102D9-416C-418C-8549-5280341AF7B5}"/>
+    <hyperlink ref="M33" r:id="rId5" xr:uid="{17AB9CC2-7F4C-40BF-A846-D1F3BF042CA0}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{52FDC060-A924-4878-9DED-FF164D0212D0}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{3E81DAC1-DA9F-4550-A913-2A4D0BDDA193}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{B46DC75A-63A5-4808-AF5A-BDD2AE4E9F6E}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{155D8A70-AF86-4FA5-ACD6-F6F796DBB7B8}"/>
+    <hyperlink ref="M34" r:id="rId10" xr:uid="{916B2E2C-2B68-47EB-9D81-A9CD011895DD}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{84BCD3AC-CB99-4D52-A019-2A46C0B95EAA}"/>
+    <hyperlink ref="M35" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{A8621A35-A2BC-4A59-AE8B-5B8136C9F766}"/>
+    <hyperlink ref="M37" r:id="rId13" xr:uid="{568F4982-71C8-4797-8F07-0A7CEA090E4D}"/>
+    <hyperlink ref="M38" r:id="rId14" xr:uid="{F12779DE-7328-4144-9C4D-6B690CFCD097}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{A10E8572-A8A2-401D-8C9D-081E4F91FFC1}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{4C2835B4-3B69-4671-B980-B92FB941F4EE}"/>
+    <hyperlink ref="M53" r:id="rId17" xr:uid="{3FED69EB-6C67-4DB3-BD56-D0B55F1EF994}"/>
+    <hyperlink ref="M55" r:id="rId18" xr:uid="{F0B98A6C-30FB-4E1A-A267-25D831EBB6EB}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{68061B39-4C7F-4ABB-8BDE-AFAF150DE640}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{EF7C7890-AFB5-4E0D-9892-4DF18FB68F00}"/>
+    <hyperlink ref="M57" r:id="rId21" xr:uid="{89C21BDD-A5D0-4A96-A0E5-D7ED0A06D45C}"/>
+    <hyperlink ref="M58" r:id="rId22" xr:uid="{51898621-B533-4CCE-8909-D3168FFFC346}"/>
+    <hyperlink ref="M59" r:id="rId23" xr:uid="{37C02881-34F9-470D-972F-9B4B8420531E}"/>
+    <hyperlink ref="M73" r:id="rId24" xr:uid="{46AEF08B-7ACA-4D58-8064-1512718685AB}"/>
+    <hyperlink ref="M74" r:id="rId25" xr:uid="{5A385767-5CE0-4A23-861C-1417E6520E91}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{11986B19-0A12-4C6A-983B-3439356F1E31}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{C44BC0CB-806B-49BD-ADB0-01DDC6F663A8}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{AE25E218-E019-47D5-A734-F883234E38D8}"/>
+    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{35BD77CD-BCB6-4394-B7C2-66C5C6D73735}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{DE2DD9B1-F935-403E-9E67-FFD9E50B466C}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{EC053F93-442B-4712-A183-2EE8C95E0068}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{C7A1153E-B6FC-4BAE-870E-80BC88ED292A}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{6B7B1D51-C893-412F-97C8-2F69E3BC4F5E}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{396BF0A4-844E-48E3-9B0D-A17448514A54}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{AF54872F-0F2C-41D3-BAB1-FA6929F57F98}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{D2688D45-A201-4643-977A-35E2E794F702}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{AB603442-76B5-4E94-A45D-653A2A05099D}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{A5FA5A61-104D-4068-9753-694CE34F4ED4}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{1F966184-EC0D-4823-84F4-6EEC06384EAD}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{57233B7D-9FC7-441C-9DE1-1E11DA11C818}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{3E07F6E7-250C-4050-8134-6A27080BE7C0}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{27AB5657-83B4-4F0C-BF2E-8155A2B30F72}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{2855B0DB-CCE6-4D9A-8F4A-26F39D7909D5}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{3E9258C5-D549-4C43-AE69-0CE4054677B8}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{200593D4-BED8-4E3A-B814-95F52BAB9A56}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{9F2CFE06-E9E2-41A2-8456-0AFDC8DF5673}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{491271CB-ADA8-4227-9B2C-30D3CD6FC2B0}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{9F39413D-01E3-4558-9FC1-E66ED1A9E858}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{7465F7A0-72F8-4BEE-928F-02C881EF9148}"/>
+    <hyperlink ref="M56" r:id="rId50" xr:uid="{4EFEDC3D-2C54-424A-AD01-8812D07A4CB6}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{A5C59800-7065-4DC4-8399-640E19CCFD93}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{DB28DC16-2EC8-4C8E-9B01-5F325E6DF5D1}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{88E92C20-1216-4FAE-BBB7-7AFBE6494F03}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{D167783A-7D8D-4030-990A-EEBEBEE77C11}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{87D383B0-236F-4393-8005-8F049D877DBC}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{F059674D-8AE0-4F95-9E4D-D62B0D81A640}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{FF6B88C7-90B5-498F-ABEB-56A47C3C516D}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{A6E0C35D-2C07-438C-8364-71539D51880E}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{FA4D11D5-D29A-4DF2-9ADC-36595865216E}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{7666596B-B2E2-43A9-9F8C-91ABD91F4586}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{D8E6638A-AB89-42E4-8E42-68132F58AA28}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{494BCA40-07C9-4883-92C4-788FF3C8F50A}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{C87B39D5-1C41-448D-A2C0-6BF93C267F09}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{B8CEDAB3-F2B2-4D56-9BEC-324F9F8F4A42}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{9E4D4F05-1B89-4866-B41A-CDFFD2B956E3}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{FBF79A7C-CF38-416E-B921-A167FF52582B}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{4633027C-F21B-48BD-A306-815621AAD6C5}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{8B5FB93B-F373-44A1-B48A-F90CE515806F}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{38DCD5B4-FEFD-4E40-B4FD-9099FA7927C0}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{E6CB98A1-F6D6-4121-AEE6-B5C52EF4BEBD}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{10AE15CA-FACE-49FA-98D2-948C832AA5C7}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{98B0F502-659A-485C-ADC7-FE4F708BA353}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{6E5DD847-BB19-42FE-A697-8912FC174AB8}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{DC5041B8-8E58-45DA-9728-8F050A957821}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{6415E243-6141-4011-8E21-6BFEA9F58D50}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{976D9703-A80C-4A93-81F9-D673D53AB008}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{65D30EA3-AC93-4979-AFD8-B0F3BB5CEAA4}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{3982BD96-F70E-454D-96C1-C82AE3A8665B}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{F4E8745A-F0CC-4985-BDF0-AF82599BC0B4}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{0AB21B5C-5C59-471F-B202-F44D4C1514A5}"/>
+    <hyperlink ref="M112" r:id="rId81" xr:uid="{6391A003-9D79-433D-8B84-A005DE11B6A2}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{ECC15CBD-D1D9-4F7A-82AA-5B74A170EBC3}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{C5D73CEE-C40D-4354-A4A5-8952BC35F319}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{60F66F2D-AE1E-4E05-AEC2-14A2DC217856}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{BB514C10-A13A-4898-BFB7-2384AF31AEA6}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{2952B52E-685F-463A-BDAE-FA2BD4F07E4A}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{FA67F41B-54C5-483A-872E-E0DD0D40EEE7}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{6176A6AF-21FF-4641-BC64-E5BCE419AED5}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{277A9FC5-3CF1-4580-844C-97C92AD32567}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{7C784BAF-ADAE-44FC-B72C-8DFF798F9452}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{5D0339D0-4A3D-4AAA-A097-3B4D9CDEE12B}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{4F37A769-67F6-4E8B-834B-507354422A0D}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{C419E90F-BEE0-4CDB-89BC-A601AC06FDC6}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{0574CBB9-5AA0-492F-BFF2-2320A97AB605}"/>
+    <hyperlink ref="M39" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{6266F708-843C-495A-9D45-1B347406BE66}"/>
+    <hyperlink ref="M41" r:id="rId96" xr:uid="{7C7DC510-EC44-4F1F-A253-D8E5C8E91498}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{E2D09BAF-E9A8-4BDD-91C8-AA96273B3781}"/>
+    <hyperlink ref="M106" r:id="rId98" xr:uid="{5D700F9C-3902-45A3-A03E-B853059C9A22}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{E035C899-228A-4B53-ACEB-BF75C9BFBF74}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{93C31023-C071-4B86-88A9-3DDA344511A5}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{509E6AE9-6F93-405A-887A-54672C4E2C6A}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{A0271B50-0654-45A4-9D65-4EEADB088534}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{61B78869-B910-4221-9B90-BA22D7F0840B}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{4B7D782D-CD6D-48B1-8CCD-ADCF67020E13}"/>
+    <hyperlink ref="M43" r:id="rId105" xr:uid="{7B3A49F2-7412-42DB-8314-9642D5ABC3B4}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{69ACBDB2-C407-486F-964F-7EFBA5EB1BBD}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{8ACFD821-7044-436D-A70A-62343AF843D8}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{C19E69BD-EECB-4285-9B26-A5F76CB446C0}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{54793643-66CA-46D5-A2E2-E9B3B48C1600}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{A6F89A36-E611-429A-BFD2-F26D7662B170}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{99F462BF-1EA2-4670-A3B7-332A8E0CDDB8}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{9E82E8D4-E48F-4527-B1F8-8B833CAE0132}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{27302598-B7DE-4BF5-A417-0061DB4D3F73}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{B649BC95-6810-4910-9EF2-7DCABA7A9ECF}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{E471BBDD-9408-4923-993D-44739FBD0B4D}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{AAF0C418-B3C1-4693-95C9-88CB74EB3A5C}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{E38CADD0-020A-4AD8-B82D-9FA57F69695D}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{77F38C34-4EF8-401C-89BC-1516B5BAE1C4}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{15967116-8252-4F1C-9B97-18B4E20656F5}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{EC871A3B-D47B-42A6-8C8E-E674590CF2DB}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{BAE9AE14-63B2-42E9-AC78-7DF1BDFA89BC}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{174BDB31-740A-4CEA-9F08-9029F80FB932}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{01A5426B-7FED-47A4-93E1-548152605274}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{0FA304B2-6F7A-4322-AC5D-A411331DD22D}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{A18C2072-C2EF-4445-BDF2-1512EB301361}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{BE301B22-F029-485B-89A8-488C390F3B44}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{D6AD930E-D338-4A42-A171-D266D0FB77F4}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{7F8F4517-3B13-4386-A586-C539C0BE25EE}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{8F828FEF-AF87-454D-AD39-08E81F2547F3}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{3C05A1B2-FA76-4097-B966-2841B331AEB0}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{4B5218E2-DBCD-4D36-90F0-D9EA1CDB85D8}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{A1729390-7E92-46FF-B278-EF08D0F6F829}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{821575E1-15FD-4AFB-8836-9D69D2949FBA}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{EDAFD72C-42CD-4997-9D83-491177056019}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{48AED077-5CA4-46CC-9D3C-2FA08CE2D394}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{67661691-2537-4C2F-AAA4-00B2923AA67F}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{5F338211-E22E-4092-A064-2899C36D5A2F}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{A15C0B3B-C5B3-4190-8A25-4494437DAF79}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{7C9D897D-2852-453D-9033-C0CE1DCE7F92}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{BBDE2A95-F05B-49A5-8720-B58F5C777445}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{62682396-36CA-49C6-A29C-759238624478}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{029861BD-643D-4FD0-82A9-ED5FBF3DF570}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{97D37815-6452-4A60-B17A-F5D0831E0D8E}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{067BFC71-FB90-4DEC-BA6C-12E981981A55}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{51047CA2-5946-447F-997B-67783E6F07CC}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{534A24A0-FEBE-4A87-A072-D908D0CC0279}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{06E5DF6D-AB86-4F12-A9A9-F29A1585D318}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{5A390250-2C7A-425E-A352-17ED052C9A39}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{73A446A5-AE81-4793-8C84-484E9193A6AC}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{63946DA8-C93A-401A-A28D-BA059F1F2748}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{416A0D2E-0538-4087-9A10-7C208C9EBB64}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{0EE72A77-FC47-4AFE-B985-03C62FF5EDFF}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{D36D6111-50C6-4084-9BDD-269DABE4F17F}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{FDDDEBD6-59C7-4B35-ABE6-9C9C2A1E7C2D}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{9F61EF05-C85C-4810-BF86-42E403E5A687}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{3183D2AE-635C-4573-A3BE-D71D014D83D8}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{EEC9730B-ED3D-48FD-BF8E-FFC7902FD12B}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{F578CE3F-7346-4223-832D-FD4F9FAB07AE}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{96BC3763-9636-4D03-9463-36071086DB38}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{05885682-F9F8-4490-821E-5AB1774B3A8E}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{015B598A-9FC4-4034-B01A-514D97EFA45A}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{A62F744D-8DAD-4D9A-BD46-E5BA5AD1BD87}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{E9530068-7739-404E-93EC-3D85ECF76088}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{67F71F81-2DD8-438A-8366-39D24B7187ED}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{F4CE9BA1-CDCA-4E7A-AB86-AB95C6C8A9FB}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{323975B9-EDC9-4ADA-96E4-6C332DBF81D7}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{74F80B61-A052-42F0-8C07-794D9399B6FF}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{B6CCF8EB-B3E0-40A7-98FD-AA0C8DDC25AD}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{3076C9AC-327C-44F1-B376-DAC97E84608C}"/>
+    <hyperlink ref="M183" r:id="rId170" xr:uid="{2747D618-17C6-4E27-BDA1-6214AAEF63EF}"/>
+    <hyperlink ref="M68" r:id="rId171" xr:uid="{DA41B060-23FA-44BF-A867-F0191442F117}"/>
+    <hyperlink ref="M8" r:id="rId172" xr:uid="{61AD736B-AE9B-4F34-9022-0444C54C9D53}"/>
+    <hyperlink ref="M266" r:id="rId173" xr:uid="{47B7BB10-C935-4942-B04F-94EC07498741}"/>
+    <hyperlink ref="M268" r:id="rId174" xr:uid="{7DA5EAE8-1E09-4590-BF7B-D6416E67F83B}"/>
+    <hyperlink ref="M267" r:id="rId175" xr:uid="{06992984-6C13-4AC7-87C3-48B56556B480}"/>
+    <hyperlink ref="M269" r:id="rId176" xr:uid="{994B42D3-C817-420A-BAD1-51DBB6E9407D}"/>
+    <hyperlink ref="M272" r:id="rId177" xr:uid="{3D7D2D56-31ED-46BA-8D54-94CB594BF7C6}"/>
+    <hyperlink ref="M274" r:id="rId178" xr:uid="{88587802-0105-4C54-AC4D-E979B1187B10}"/>
+    <hyperlink ref="M275" r:id="rId179" xr:uid="{3D14B7F6-890C-4F80-8B58-732D172B1625}"/>
+    <hyperlink ref="M276" r:id="rId180" xr:uid="{1A57EE10-8327-4478-8393-3146C709BE44}"/>
+    <hyperlink ref="M277" r:id="rId181" xr:uid="{C9DFE39B-493E-49BD-B369-1BE3861360F5}"/>
+    <hyperlink ref="M280" r:id="rId182" xr:uid="{9DC59772-1D06-4532-8402-74F2B192EC6A}"/>
+    <hyperlink ref="M270" r:id="rId183" xr:uid="{1FEA985D-36E1-4321-8216-B0E16AADF224}"/>
+    <hyperlink ref="M271" r:id="rId184" xr:uid="{D0CD8B88-46E3-419E-9FC0-A6D4E32F0B8E}"/>
+    <hyperlink ref="M60" r:id="rId185" xr:uid="{B3F59A5D-67CF-4F3A-8820-09F9CF32051C}"/>
+    <hyperlink ref="M98" r:id="rId186" xr:uid="{C6205911-50D2-467A-B370-0D24F7131923}"/>
+    <hyperlink ref="M125" r:id="rId187" xr:uid="{D3B3068B-7767-48E3-B49B-0E58F9C75A97}"/>
+    <hyperlink ref="M70" r:id="rId188" xr:uid="{3AD34B3F-8C26-43FE-8098-709F76ECE115}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId189"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B44260-32A8-48F2-B47A-7DD3899E49DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2307A-CBDE-4075-B0D3-A49F8EBC26D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="2805" windowWidth="28920" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={460D4B39-B104-41C1-9310-59FBF64C92FA}</author>
-    <author>tc={552EB692-1BC6-424F-8CC5-2B1937D3E3B6}</author>
-    <author>tc={AD5B1E31-4265-4FFF-AA60-99EF45811DE6}</author>
+    <author>tc={9755877A-18FF-4D31-AF7F-269FAC3C3D0D}</author>
+    <author>tc={29E5C23C-379F-4A4D-921F-1A710C883D0C}</author>
+    <author>tc={53A89C99-36E3-4745-9587-6461CCA977E3}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{460D4B39-B104-41C1-9310-59FBF64C92FA}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9755877A-18FF-4D31-AF7F-269FAC3C3D0D}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T43" authorId="1" shapeId="0" xr:uid="{552EB692-1BC6-424F-8CC5-2B1937D3E3B6}">
+    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{29E5C23C-379F-4A4D-921F-1A710C883D0C}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{AD5B1E31-4265-4FFF-AA60-99EF45811DE6}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{53A89C99-36E3-4745-9587-6461CCA977E3}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1277">
   <si>
     <t>Nr.</t>
   </si>
@@ -4073,6 +4073,30 @@
   </si>
   <si>
     <t>Key renewable electricity production and storage technologies – including solar PV, wind and batteries – are expected to continue getting cheaper quickly through a combination of research, economies of scale and ongoing improvements to manufacturing and installation (i.e. learning-by-doing).</t>
+  </si>
+  <si>
+    <t>xdhdh</t>
+  </si>
+  <si>
+    <t>xzhrzhrd</t>
+  </si>
+  <si>
+    <t>xrdghrdgd</t>
+  </si>
+  <si>
+    <t>xdrhdhr</t>
+  </si>
+  <si>
+    <t>xdrhdrh</t>
+  </si>
+  <si>
+    <t>xdhdrh</t>
+  </si>
+  <si>
+    <t>dhdhr</t>
+  </si>
+  <si>
+    <t>xdh</t>
   </si>
 </sst>
 </file>
@@ -4192,7 +4216,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4731,14 +4755,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{460D4B39-B104-41C1-9310-59FBF64C92FA}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{9755877A-18FF-4D31-AF7F-269FAC3C3D0D}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T43" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{552EB692-1BC6-424F-8CC5-2B1937D3E3B6}">
+  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{29E5C23C-379F-4A4D-921F-1A710C883D0C}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{AD5B1E31-4265-4FFF-AA60-99EF45811DE6}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{53A89C99-36E3-4745-9587-6461CCA977E3}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -4748,8 +4772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
   <dimension ref="A1:BJ296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection sqref="A1:BJ296"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4942,21 +4966,21 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>716</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>717</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>2.7581033781576321</v>
+        <v>13.4939689452866</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>39</v>
@@ -4980,22 +5004,22 @@
         <v>8</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>718</v>
+        <v>40</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>719</v>
+        <v>41</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="P2" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="S2" s="12">
         <v>5</v>
@@ -5013,12 +5037,8 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
-      <c r="AE2" s="10" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>1246</v>
-      </c>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
       <c r="AI2" s="10"/>
@@ -5029,13 +5049,13 @@
       <c r="AN2" s="10"/>
       <c r="AO2" s="10"/>
       <c r="AP2" s="10"/>
-      <c r="AQ2" s="10" t="s">
-        <v>720</v>
-      </c>
+      <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
       <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
+      <c r="AU2" s="10" t="s">
+        <v>1143</v>
+      </c>
       <c r="AV2" s="10"/>
       <c r="AW2" s="10"/>
       <c r="AX2" s="10"/>
@@ -5264,115 +5284,113 @@
       <c r="BI4" s="10"/>
       <c r="BJ4" s="10"/>
     </row>
-    <row r="5" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>140</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.509541050346443</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5" t="s">
+    <row r="5" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>14.98890835368721</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="14">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14">
+        <v>3</v>
+      </c>
+      <c r="I5" s="14">
+        <v>5</v>
+      </c>
+      <c r="J5" s="14">
+        <v>2</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="M5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="11" t="s">
+      <c r="P5" s="20">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="12">
-        <v>2</v>
-      </c>
-      <c r="T5" s="13">
-        <v>2</v>
-      </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10" t="s">
-        <v>1247</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="10"/>
-      <c r="BG5" s="10"/>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="10"/>
-      <c r="BJ5" s="10"/>
+      <c r="S5" s="21">
+        <v>4</v>
+      </c>
+      <c r="T5" s="22">
+        <v>2</v>
+      </c>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
     </row>
     <row r="6" spans="1:62" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -5794,30 +5812,30 @@
       <c r="BI9" s="19"/>
       <c r="BJ9" s="19"/>
     </row>
-    <row r="10" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>13.4939689452866</v>
+        <v>15.57937404482786</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
@@ -5826,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>8</v>
@@ -5835,7 +5853,7 @@
         <v>40</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>42</v>
@@ -5863,7 +5881,9 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
+      <c r="AC10" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
@@ -5881,9 +5901,7 @@
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
-      <c r="AU10" s="10" t="s">
-        <v>1143</v>
-      </c>
+      <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
       <c r="AX10" s="10"/>
@@ -6538,27 +6556,27 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="10"/>
     </row>
-    <row r="17" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
       </c>
       <c r="E17" s="16">
-        <v>14.98890835368721</v>
+        <v>14.852697401477331</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
@@ -6567,7 +6585,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" s="14">
         <v>1</v>
@@ -6579,7 +6597,7 @@
         <v>40</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="O17" s="19" t="s">
         <v>42</v>
@@ -6594,15 +6612,17 @@
         <v>44</v>
       </c>
       <c r="S17" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T17" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="X17" s="19" t="s">
+        <v>1145</v>
+      </c>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
@@ -6615,21 +6635,19 @@
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="19" t="s">
-        <v>1198</v>
-      </c>
+      <c r="AK17" s="19"/>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19"/>
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
+      <c r="AQ17" s="19" t="s">
+        <v>998</v>
+      </c>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
       <c r="AT17" s="19"/>
-      <c r="AU17" s="19" t="s">
-        <v>1144</v>
-      </c>
+      <c r="AU17" s="19"/>
       <c r="AV17" s="19"/>
       <c r="AW17" s="19"/>
       <c r="AX17" s="19"/>
@@ -7047,7 +7065,7 @@
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19" t="s">
-        <v>1168</v>
+        <v>1269</v>
       </c>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
@@ -7398,219 +7416,215 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="10"/>
     </row>
-    <row r="25" spans="1:62" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>28</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>11.229004329184351</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="14">
+        <v>3</v>
+      </c>
+      <c r="H25" s="14">
+        <v>4</v>
+      </c>
+      <c r="I25" s="14">
+        <v>5</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>2</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="20">
         <v>10</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>15.57937404482786</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="5">
-        <v>3</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2</v>
-      </c>
-      <c r="I25" s="5">
-        <v>5</v>
-      </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5">
-        <v>4</v>
-      </c>
-      <c r="L25" s="5" t="s">
+      <c r="Q25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="21">
+        <v>3</v>
+      </c>
+      <c r="T25" s="22">
+        <v>4</v>
+      </c>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="19"/>
+      <c r="BH25" s="19"/>
+      <c r="BI25" s="19"/>
+      <c r="BJ25" s="19"/>
+    </row>
+    <row r="26" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3.5756894586070511</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>5</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>4</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P25" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="12">
-        <v>5</v>
-      </c>
-      <c r="T25" s="13">
-        <v>3</v>
-      </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
-      <c r="BF25" s="10"/>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="10"/>
-      <c r="BI25" s="10"/>
-      <c r="BJ25" s="10"/>
-    </row>
-    <row r="26" spans="1:62" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>17</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16">
-        <v>14.852697401477331</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="14">
-        <v>2</v>
-      </c>
-      <c r="H26" s="14">
-        <v>3</v>
-      </c>
-      <c r="I26" s="14">
-        <v>5</v>
-      </c>
-      <c r="J26" s="14">
-        <v>4</v>
-      </c>
-      <c r="K26" s="14">
-        <v>1</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="P26" s="20">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="21">
-        <v>2</v>
-      </c>
-      <c r="T26" s="22">
-        <v>4</v>
-      </c>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19" t="s">
-        <v>1145</v>
-      </c>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
-      <c r="AQ26" s="19" t="s">
-        <v>998</v>
-      </c>
-      <c r="AR26" s="19"/>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
-      <c r="BA26" s="19"/>
-      <c r="BB26" s="19"/>
-      <c r="BC26" s="19"/>
-      <c r="BD26" s="19"/>
-      <c r="BE26" s="19"/>
-      <c r="BF26" s="19"/>
-      <c r="BG26" s="19"/>
-      <c r="BH26" s="19"/>
-      <c r="BI26" s="19"/>
-      <c r="BJ26" s="19"/>
+      <c r="M26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S26" s="12">
+        <v>4</v>
+      </c>
+      <c r="T26" s="13">
+        <v>4</v>
+      </c>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+      <c r="BG26" s="10"/>
+      <c r="BH26" s="10"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
     </row>
     <row r="27" spans="1:62" ht="300" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
@@ -8032,30 +8046,30 @@
       <c r="BI30" s="10"/>
       <c r="BJ30" s="10"/>
     </row>
-    <row r="31" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="225" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="16">
-        <v>11.229004329184351</v>
+        <v>8.1527948915667494</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G31" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="14">
         <v>5</v>
@@ -8073,7 +8087,7 @@
         <v>127</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>120</v>
@@ -8091,7 +8105,7 @@
         <v>3</v>
       </c>
       <c r="T31" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
@@ -8245,236 +8259,234 @@
       <c r="BJ32" s="10"/>
     </row>
     <row r="33" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>29</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>3.5756894586070511</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="5">
-        <v>2</v>
-      </c>
-      <c r="H33" s="5">
-        <v>3</v>
-      </c>
-      <c r="I33" s="5">
-        <v>5</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5">
-        <v>4</v>
-      </c>
-      <c r="L33" s="5" t="s">
+      <c r="A33" s="14">
+        <v>36</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>2.388381657690998</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="14">
+        <v>3</v>
+      </c>
+      <c r="H33" s="14">
+        <v>4</v>
+      </c>
+      <c r="I33" s="14">
+        <v>5</v>
+      </c>
+      <c r="J33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14">
+        <v>2</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="O33" s="10" t="s">
+      <c r="M33" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="P33" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="R33" s="12" t="s">
+      <c r="P33" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="S33" s="12">
-        <v>4</v>
-      </c>
-      <c r="T33" s="13">
-        <v>4</v>
-      </c>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="10"/>
+      <c r="S33" s="21">
+        <v>3</v>
+      </c>
+      <c r="T33" s="22">
+        <v>2</v>
+      </c>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="19"/>
+      <c r="BA33" s="19"/>
+      <c r="BB33" s="19"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="19"/>
+      <c r="BE33" s="19"/>
+      <c r="BF33" s="19"/>
+      <c r="BG33" s="19"/>
+      <c r="BH33" s="19"/>
+      <c r="BI33" s="19"/>
+      <c r="BJ33" s="19"/>
     </row>
-    <row r="34" spans="1:62" ht="225" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>34</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="15">
-        <v>1</v>
-      </c>
-      <c r="E34" s="16">
-        <v>8.1527948915667494</v>
-      </c>
-      <c r="F34" s="14" t="s">
+    <row r="34" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>37</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>14.39051997445841</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="14">
-        <v>4</v>
-      </c>
-      <c r="H34" s="14">
-        <v>3</v>
-      </c>
-      <c r="I34" s="14">
-        <v>5</v>
-      </c>
-      <c r="J34" s="14">
-        <v>1</v>
-      </c>
-      <c r="K34" s="14">
-        <v>2</v>
-      </c>
-      <c r="L34" s="14" t="s">
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>4</v>
+      </c>
+      <c r="I34" s="5">
+        <v>5</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>3</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="O34" s="19" t="s">
+      <c r="M34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P34" s="20">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="20" t="s">
+      <c r="P34" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R34" s="21" t="s">
+      <c r="R34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S34" s="21">
-        <v>3</v>
-      </c>
-      <c r="T34" s="22">
-        <v>5</v>
-      </c>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="19"/>
-      <c r="BB34" s="19"/>
-      <c r="BC34" s="19"/>
-      <c r="BD34" s="19"/>
-      <c r="BE34" s="19"/>
-      <c r="BF34" s="19"/>
-      <c r="BG34" s="19"/>
-      <c r="BH34" s="19"/>
-      <c r="BI34" s="19"/>
-      <c r="BJ34" s="19"/>
+      <c r="S34" s="12">
+        <v>2</v>
+      </c>
+      <c r="T34" s="13">
+        <v>2</v>
+      </c>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
     </row>
-    <row r="35" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D35" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="16">
-        <v>2.388381657690998</v>
+        <v>4.2709707460831519</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G35" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="14">
         <v>4</v>
@@ -8486,16 +8498,16 @@
         <v>1</v>
       </c>
       <c r="K35" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>120</v>
@@ -8504,7 +8516,7 @@
         <v>5</v>
       </c>
       <c r="Q35" s="20" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="R35" s="21" t="s">
         <v>121</v>
@@ -8523,7 +8535,9 @@
       <c r="Z35" s="19"/>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
+      <c r="AC35" s="19" t="s">
+        <v>1002</v>
+      </c>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
@@ -8668,273 +8682,271 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
     </row>
-    <row r="37" spans="1:62" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>37</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="6">
+    <row r="37" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>40</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="15">
         <v>0</v>
       </c>
-      <c r="E37" s="7">
-        <v>14.39051997445841</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="16">
+        <v>7.2715105660117212</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="5">
-        <v>2</v>
-      </c>
-      <c r="H37" s="5">
-        <v>4</v>
-      </c>
-      <c r="I37" s="5">
-        <v>5</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5">
-        <v>3</v>
-      </c>
-      <c r="L37" s="5" t="s">
+      <c r="G37" s="14">
+        <v>4</v>
+      </c>
+      <c r="H37" s="14">
+        <v>3</v>
+      </c>
+      <c r="I37" s="14">
+        <v>5</v>
+      </c>
+      <c r="J37" s="14">
+        <v>2</v>
+      </c>
+      <c r="K37" s="14">
+        <v>1</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O37" s="10" t="s">
+      <c r="M37" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O37" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="P37" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" s="12">
-        <v>2</v>
-      </c>
-      <c r="T37" s="13">
-        <v>2</v>
-      </c>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="10"/>
-      <c r="AO37" s="10"/>
-      <c r="AP37" s="10"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="10"/>
-      <c r="AU37" s="10"/>
-      <c r="AV37" s="10"/>
-      <c r="AW37" s="10"/>
-      <c r="AX37" s="10"/>
-      <c r="AY37" s="10"/>
-      <c r="AZ37" s="10"/>
-      <c r="BA37" s="10"/>
-      <c r="BB37" s="10"/>
-      <c r="BC37" s="10"/>
-      <c r="BD37" s="10"/>
-      <c r="BE37" s="10"/>
-      <c r="BF37" s="10"/>
-      <c r="BG37" s="10"/>
-      <c r="BH37" s="10"/>
-      <c r="BI37" s="10"/>
-      <c r="BJ37" s="10"/>
+      <c r="P37" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S37" s="21">
+        <v>5</v>
+      </c>
+      <c r="T37" s="22">
+        <v>2</v>
+      </c>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="19"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="19"/>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19"/>
+      <c r="BF37" s="19"/>
+      <c r="BG37" s="19"/>
+      <c r="BH37" s="19"/>
+      <c r="BI37" s="19"/>
+      <c r="BJ37" s="19"/>
     </row>
-    <row r="38" spans="1:62" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>38</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="15">
-        <v>1</v>
-      </c>
-      <c r="E38" s="16">
-        <v>4.2709707460831519</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="14">
-        <v>2</v>
-      </c>
-      <c r="H38" s="14">
-        <v>4</v>
-      </c>
-      <c r="I38" s="14">
-        <v>5</v>
-      </c>
-      <c r="J38" s="14">
-        <v>1</v>
-      </c>
-      <c r="K38" s="14">
-        <v>3</v>
-      </c>
-      <c r="L38" s="14" t="s">
+    <row r="38" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>41</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>6.25061680843171</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>3</v>
+      </c>
+      <c r="I38" s="5">
+        <v>5</v>
+      </c>
+      <c r="J38" s="5">
+        <v>4</v>
+      </c>
+      <c r="K38" s="5">
+        <v>2</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="O38" s="19" t="s">
+      <c r="M38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P38" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="20" t="s">
+      <c r="P38" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="R38" s="21" t="s">
+      <c r="R38" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="21">
-        <v>3</v>
-      </c>
-      <c r="T38" s="22">
-        <v>2</v>
-      </c>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="19"/>
-      <c r="AO38" s="19"/>
-      <c r="AP38" s="19"/>
-      <c r="AQ38" s="19"/>
-      <c r="AR38" s="19"/>
-      <c r="AS38" s="19"/>
-      <c r="AT38" s="19"/>
-      <c r="AU38" s="19"/>
-      <c r="AV38" s="19"/>
-      <c r="AW38" s="19"/>
-      <c r="AX38" s="19"/>
-      <c r="AY38" s="19"/>
-      <c r="AZ38" s="19"/>
-      <c r="BA38" s="19"/>
-      <c r="BB38" s="19"/>
-      <c r="BC38" s="19"/>
-      <c r="BD38" s="19"/>
-      <c r="BE38" s="19"/>
-      <c r="BF38" s="19"/>
-      <c r="BG38" s="19"/>
-      <c r="BH38" s="19"/>
-      <c r="BI38" s="19"/>
-      <c r="BJ38" s="19"/>
+      <c r="S38" s="12">
+        <v>2</v>
+      </c>
+      <c r="T38" s="13">
+        <v>2</v>
+      </c>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10"/>
+      <c r="BE38" s="10"/>
+      <c r="BF38" s="10"/>
+      <c r="BG38" s="10"/>
+      <c r="BH38" s="10"/>
+      <c r="BI38" s="10"/>
+      <c r="BJ38" s="10"/>
     </row>
     <row r="39" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D39" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="16">
-        <v>7.2715105660117212</v>
+        <v>4.6630920215172731</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G39" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="14">
         <v>5</v>
       </c>
       <c r="J39" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O39" s="19" t="s">
         <v>120</v>
       </c>
       <c r="P39" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="R39" s="21" t="s">
         <v>121</v>
       </c>
       <c r="S39" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" s="22">
         <v>2</v>
@@ -8945,7 +8957,9 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
+      <c r="AA39" s="19" t="s">
+        <v>1004</v>
+      </c>
       <c r="AB39" s="19"/>
       <c r="AC39" s="19"/>
       <c r="AD39" s="19"/>
@@ -8965,7 +8979,9 @@
       <c r="AR39" s="19"/>
       <c r="AS39" s="19"/>
       <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
+      <c r="AU39" s="19" t="s">
+        <v>1149</v>
+      </c>
       <c r="AV39" s="19"/>
       <c r="AW39" s="19"/>
       <c r="AX39" s="19"/>
@@ -9086,239 +9102,235 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="10"/>
     </row>
-    <row r="41" spans="1:62" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>41</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="6">
+    <row r="41" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>44</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="16">
+        <v>3.1482541572146441</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="14">
+        <v>4</v>
+      </c>
+      <c r="H41" s="14">
+        <v>2</v>
+      </c>
+      <c r="I41" s="14">
+        <v>5</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14">
+        <v>3</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S41" s="21">
+        <v>5</v>
+      </c>
+      <c r="T41" s="22">
+        <v>3</v>
+      </c>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19"/>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="19"/>
+      <c r="BB41" s="19"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="19"/>
+      <c r="BF41" s="19"/>
+      <c r="BG41" s="19"/>
+      <c r="BH41" s="19"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="19"/>
+    </row>
+    <row r="42" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
+        <v>6.3054799107318136</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="5">
+        <v>4</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>5</v>
+      </c>
+      <c r="J42" s="5">
+        <v>3</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S42" s="12">
+        <v>2</v>
+      </c>
+      <c r="T42" s="13">
+        <v>1</v>
+      </c>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
+      <c r="AY42" s="10"/>
+      <c r="AZ42" s="10"/>
+      <c r="BA42" s="10"/>
+      <c r="BB42" s="10"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="10"/>
+      <c r="BE42" s="10"/>
+      <c r="BF42" s="10"/>
+      <c r="BG42" s="10"/>
+      <c r="BH42" s="10"/>
+      <c r="BI42" s="10"/>
+      <c r="BJ42" s="10"/>
+    </row>
+    <row r="43" spans="1:62" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>46</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="15">
         <v>0</v>
       </c>
-      <c r="E41" s="7">
-        <v>6.25061680843171</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E43" s="16">
+        <v>6.5457895427666593</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>3</v>
-      </c>
-      <c r="I41" s="5">
-        <v>5</v>
-      </c>
-      <c r="J41" s="5">
-        <v>4</v>
-      </c>
-      <c r="K41" s="5">
-        <v>2</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P41" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="R41" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S41" s="12">
-        <v>2</v>
-      </c>
-      <c r="T41" s="13">
-        <v>2</v>
-      </c>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="10"/>
-      <c r="AO41" s="10"/>
-      <c r="AP41" s="10"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="10"/>
-      <c r="AV41" s="10"/>
-      <c r="AW41" s="10"/>
-      <c r="AX41" s="10"/>
-      <c r="AY41" s="10"/>
-      <c r="AZ41" s="10"/>
-      <c r="BA41" s="10"/>
-      <c r="BB41" s="10"/>
-      <c r="BC41" s="10"/>
-      <c r="BD41" s="10"/>
-      <c r="BE41" s="10"/>
-      <c r="BF41" s="10"/>
-      <c r="BG41" s="10"/>
-      <c r="BH41" s="10"/>
-      <c r="BI41" s="10"/>
-      <c r="BJ41" s="10"/>
-    </row>
-    <row r="42" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>42</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="15">
-        <v>1</v>
-      </c>
-      <c r="E42" s="16">
-        <v>4.6630920215172731</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="14">
-        <v>2</v>
-      </c>
-      <c r="H42" s="14">
-        <v>4</v>
-      </c>
-      <c r="I42" s="14">
-        <v>5</v>
-      </c>
-      <c r="J42" s="14">
-        <v>1</v>
-      </c>
-      <c r="K42" s="14">
-        <v>3</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="P42" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R42" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="S42" s="21">
-        <v>3</v>
-      </c>
-      <c r="T42" s="22">
-        <v>2</v>
-      </c>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-      <c r="AK42" s="19"/>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="19"/>
-      <c r="AP42" s="19"/>
-      <c r="AQ42" s="19"/>
-      <c r="AR42" s="19"/>
-      <c r="AS42" s="19"/>
-      <c r="AT42" s="19"/>
-      <c r="AU42" s="19" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AV42" s="19"/>
-      <c r="AW42" s="19"/>
-      <c r="AX42" s="19"/>
-      <c r="AY42" s="19"/>
-      <c r="AZ42" s="19"/>
-      <c r="BA42" s="19"/>
-      <c r="BB42" s="19"/>
-      <c r="BC42" s="19"/>
-      <c r="BD42" s="19"/>
-      <c r="BE42" s="19"/>
-      <c r="BF42" s="19"/>
-      <c r="BG42" s="19"/>
-      <c r="BH42" s="19"/>
-      <c r="BI42" s="19"/>
-      <c r="BJ42" s="19"/>
-    </row>
-    <row r="43" spans="1:62" ht="225" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>44</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="15">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16">
-        <v>3.1482541572146441</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="G43" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H43" s="14">
         <v>2</v>
@@ -9327,7 +9339,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K43" s="14">
         <v>3</v>
@@ -9336,10 +9348,10 @@
         <v>8</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O43" s="19" t="s">
         <v>120</v>
@@ -9348,13 +9360,13 @@
         <v>5</v>
       </c>
       <c r="Q43" s="20" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="R43" s="21" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="S43" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" s="22">
         <v>3</v>
@@ -9383,7 +9395,9 @@
       <c r="AP43" s="19"/>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="19"/>
-      <c r="AS43" s="19"/>
+      <c r="AS43" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="AT43" s="19"/>
       <c r="AU43" s="19"/>
       <c r="AV43" s="19"/>
@@ -9914,7 +9928,7 @@
       <c r="AM48" s="10"/>
       <c r="AN48" s="10"/>
       <c r="AO48" s="10" t="s">
-        <v>1168</v>
+        <v>1270</v>
       </c>
       <c r="AP48" s="10"/>
       <c r="AQ48" s="10"/>
@@ -10368,109 +10382,113 @@
       <c r="BI52" s="10"/>
       <c r="BJ52" s="10"/>
     </row>
-    <row r="53" spans="1:62" ht="165" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>45</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7">
-        <v>6.3054799107318136</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="5">
-        <v>4</v>
-      </c>
-      <c r="H53" s="5">
-        <v>2</v>
-      </c>
-      <c r="I53" s="5">
-        <v>5</v>
-      </c>
-      <c r="J53" s="5">
-        <v>3</v>
-      </c>
-      <c r="K53" s="5">
-        <v>1</v>
-      </c>
-      <c r="L53" s="5" t="s">
+    <row r="53" spans="1:62" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>57</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="15">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16">
+        <v>11.38421565583562</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="14">
+        <v>4</v>
+      </c>
+      <c r="H53" s="14">
+        <v>1</v>
+      </c>
+      <c r="I53" s="14">
+        <v>5</v>
+      </c>
+      <c r="J53" s="14">
+        <v>3</v>
+      </c>
+      <c r="K53" s="14">
+        <v>2</v>
+      </c>
+      <c r="L53" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M53" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O53" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P53" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q53" s="11" t="s">
+      <c r="M53" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="O53" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="P53" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="R53" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S53" s="12">
-        <v>2</v>
-      </c>
-      <c r="T53" s="13">
-        <v>1</v>
-      </c>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="10"/>
-      <c r="AE53" s="10"/>
-      <c r="AF53" s="10"/>
-      <c r="AG53" s="10"/>
-      <c r="AH53" s="10"/>
-      <c r="AI53" s="10"/>
-      <c r="AJ53" s="10"/>
-      <c r="AK53" s="10"/>
-      <c r="AL53" s="10"/>
-      <c r="AM53" s="10"/>
-      <c r="AN53" s="10"/>
-      <c r="AO53" s="10"/>
-      <c r="AP53" s="10"/>
-      <c r="AQ53" s="10"/>
-      <c r="AR53" s="10"/>
-      <c r="AS53" s="10"/>
-      <c r="AT53" s="10"/>
-      <c r="AU53" s="10"/>
-      <c r="AV53" s="10"/>
-      <c r="AW53" s="10"/>
-      <c r="AX53" s="10"/>
-      <c r="AY53" s="10"/>
-      <c r="AZ53" s="10"/>
-      <c r="BA53" s="10"/>
-      <c r="BB53" s="10"/>
-      <c r="BC53" s="10"/>
-      <c r="BD53" s="10"/>
-      <c r="BE53" s="10"/>
-      <c r="BF53" s="10"/>
-      <c r="BG53" s="10"/>
-      <c r="BH53" s="10"/>
-      <c r="BI53" s="10"/>
-      <c r="BJ53" s="10"/>
+      <c r="R53" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S53" s="21">
+        <v>4</v>
+      </c>
+      <c r="T53" s="22">
+        <v>3</v>
+      </c>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="19"/>
+      <c r="AM53" s="19"/>
+      <c r="AN53" s="19"/>
+      <c r="AO53" s="19"/>
+      <c r="AP53" s="19"/>
+      <c r="AQ53" s="19"/>
+      <c r="AR53" s="19"/>
+      <c r="AS53" s="19"/>
+      <c r="AT53" s="19"/>
+      <c r="AU53" s="19"/>
+      <c r="AV53" s="19"/>
+      <c r="AW53" s="19"/>
+      <c r="AX53" s="19"/>
+      <c r="AY53" s="19"/>
+      <c r="AZ53" s="19"/>
+      <c r="BA53" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BB53" s="19"/>
+      <c r="BC53" s="19"/>
+      <c r="BD53" s="19"/>
+      <c r="BE53" s="19"/>
+      <c r="BF53" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BG53" s="19"/>
+      <c r="BH53" s="19"/>
+      <c r="BI53" s="19"/>
+      <c r="BJ53" s="19"/>
     </row>
     <row r="54" spans="1:62" ht="210" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -10576,66 +10594,66 @@
       <c r="BI54" s="10"/>
       <c r="BJ54" s="10"/>
     </row>
-    <row r="55" spans="1:62" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62" ht="225" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="D55" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="16">
-        <v>6.5457895427666593</v>
+        <v>10.210245495615631</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="G55" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" s="14">
         <v>5</v>
       </c>
       <c r="J55" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K55" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>8</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="P55" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="R55" s="21" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="S55" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
@@ -10661,11 +10679,11 @@
       <c r="AP55" s="19"/>
       <c r="AQ55" s="19"/>
       <c r="AR55" s="19"/>
-      <c r="AS55" s="19" t="s">
-        <v>197</v>
-      </c>
+      <c r="AS55" s="19"/>
       <c r="AT55" s="19"/>
-      <c r="AU55" s="19"/>
+      <c r="AU55" s="19" t="s">
+        <v>1152</v>
+      </c>
       <c r="AV55" s="19"/>
       <c r="AW55" s="19"/>
       <c r="AX55" s="19"/>
@@ -10682,129 +10700,127 @@
       <c r="BI55" s="19"/>
       <c r="BJ55" s="19"/>
     </row>
-    <row r="56" spans="1:62" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
-        <v>57</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" s="15">
-        <v>1</v>
-      </c>
-      <c r="E56" s="16">
-        <v>11.38421565583562</v>
-      </c>
-      <c r="F56" s="14" t="s">
+    <row r="56" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>71</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
+        <v>7.3362865496252327</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="14">
-        <v>4</v>
-      </c>
-      <c r="H56" s="14">
-        <v>1</v>
-      </c>
-      <c r="I56" s="14">
-        <v>5</v>
-      </c>
-      <c r="J56" s="14">
-        <v>3</v>
-      </c>
-      <c r="K56" s="14">
-        <v>2</v>
-      </c>
-      <c r="L56" s="14" t="s">
+      <c r="G56" s="5">
+        <v>4</v>
+      </c>
+      <c r="H56" s="5">
+        <v>3</v>
+      </c>
+      <c r="I56" s="5">
+        <v>5</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
+        <v>2</v>
+      </c>
+      <c r="L56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M56" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="N56" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="O56" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="P56" s="20">
+      <c r="M56" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="P56" s="11">
         <v>10</v>
       </c>
-      <c r="Q56" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="R56" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S56" s="21">
-        <v>4</v>
-      </c>
-      <c r="T56" s="22">
-        <v>3</v>
-      </c>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="19"/>
-      <c r="AA56" s="19"/>
-      <c r="AB56" s="19"/>
-      <c r="AC56" s="19"/>
-      <c r="AD56" s="19"/>
-      <c r="AE56" s="19"/>
-      <c r="AF56" s="19"/>
-      <c r="AG56" s="19"/>
-      <c r="AH56" s="19"/>
-      <c r="AI56" s="19"/>
-      <c r="AJ56" s="19"/>
-      <c r="AK56" s="19"/>
-      <c r="AL56" s="19"/>
-      <c r="AM56" s="19"/>
-      <c r="AN56" s="19"/>
-      <c r="AO56" s="19"/>
-      <c r="AP56" s="19"/>
-      <c r="AQ56" s="19"/>
-      <c r="AR56" s="19"/>
-      <c r="AS56" s="19"/>
-      <c r="AT56" s="19"/>
-      <c r="AU56" s="19"/>
-      <c r="AV56" s="19"/>
-      <c r="AW56" s="19"/>
-      <c r="AX56" s="19"/>
-      <c r="AY56" s="19"/>
-      <c r="AZ56" s="19"/>
-      <c r="BA56" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="BB56" s="19"/>
-      <c r="BC56" s="19"/>
-      <c r="BD56" s="19"/>
-      <c r="BE56" s="19"/>
-      <c r="BF56" s="19" t="s">
-        <v>1012</v>
-      </c>
-      <c r="BG56" s="19"/>
-      <c r="BH56" s="19"/>
-      <c r="BI56" s="19"/>
-      <c r="BJ56" s="19"/>
+      <c r="Q56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S56" s="12">
+        <v>5</v>
+      </c>
+      <c r="T56" s="13">
+        <v>3</v>
+      </c>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
+      <c r="AQ56" s="10"/>
+      <c r="AR56" s="10"/>
+      <c r="AS56" s="10"/>
+      <c r="AT56" s="10"/>
+      <c r="AU56" s="10"/>
+      <c r="AV56" s="10"/>
+      <c r="AW56" s="10"/>
+      <c r="AX56" s="10"/>
+      <c r="AY56" s="10"/>
+      <c r="AZ56" s="10"/>
+      <c r="BA56" s="10"/>
+      <c r="BB56" s="10"/>
+      <c r="BC56" s="10"/>
+      <c r="BD56" s="10"/>
+      <c r="BE56" s="10"/>
+      <c r="BF56" s="10"/>
+      <c r="BG56" s="10"/>
+      <c r="BH56" s="10"/>
+      <c r="BI56" s="10"/>
+      <c r="BJ56" s="10"/>
     </row>
-    <row r="57" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62" ht="210" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D57" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="16">
-        <v>10.210245495615631</v>
+        <v>6.1305659097616054</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>79</v>
@@ -10831,13 +10847,13 @@
         <v>239</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="O57" s="19" t="s">
         <v>240</v>
       </c>
       <c r="P57" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q57" s="20" t="s">
         <v>132</v>
@@ -10849,7 +10865,7 @@
         <v>5</v>
       </c>
       <c r="T57" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U57" s="19"/>
       <c r="V57" s="19"/>
@@ -10878,7 +10894,7 @@
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
       <c r="AU57" s="19" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="AV57" s="19"/>
       <c r="AW57" s="19"/>
@@ -10896,30 +10912,30 @@
       <c r="BI57" s="19"/>
       <c r="BJ57" s="19"/>
     </row>
-    <row r="58" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <v>7.3362865496252327</v>
+        <v>3.750063790197145</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G58" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I58" s="5">
         <v>5</v>
@@ -10934,16 +10950,16 @@
         <v>8</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O58" s="10" t="s">
         <v>240</v>
       </c>
       <c r="P58" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>132</v>
@@ -10964,9 +10980,7 @@
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
-      <c r="AB58" s="10" t="s">
-        <v>248</v>
-      </c>
+      <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
       <c r="AE58" s="10"/>
@@ -11002,21 +11016,21 @@
       <c r="BI58" s="10"/>
       <c r="BJ58" s="10"/>
     </row>
-    <row r="59" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:62" ht="240" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D59" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="16">
-        <v>6.1305659097616054</v>
+        <v>2.113685458606974</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>79</v>
@@ -11031,10 +11045,10 @@
         <v>5</v>
       </c>
       <c r="J59" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59" s="14" t="s">
         <v>8</v>
@@ -11043,7 +11057,7 @@
         <v>239</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O59" s="19" t="s">
         <v>240</v>
@@ -11061,7 +11075,7 @@
         <v>5</v>
       </c>
       <c r="T59" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U59" s="19"/>
       <c r="V59" s="19"/>
@@ -11078,7 +11092,9 @@
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
+      <c r="AJ59" s="19" t="s">
+        <v>1201</v>
+      </c>
       <c r="AK59" s="19"/>
       <c r="AL59" s="19"/>
       <c r="AM59" s="19"/>
@@ -11089,9 +11105,7 @@
       <c r="AR59" s="19"/>
       <c r="AS59" s="19"/>
       <c r="AT59" s="19"/>
-      <c r="AU59" s="19" t="s">
-        <v>1153</v>
-      </c>
+      <c r="AU59" s="19"/>
       <c r="AV59" s="19"/>
       <c r="AW59" s="19"/>
       <c r="AX59" s="19"/>
@@ -12498,215 +12512,215 @@
       <c r="BI72" s="10"/>
       <c r="BJ72" s="10"/>
     </row>
-    <row r="73" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>73</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D73" s="6">
+    <row r="73" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>91</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1</v>
+      </c>
+      <c r="E73" s="16">
+        <v>7.3242354266104783</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" s="14">
+        <v>2</v>
+      </c>
+      <c r="H73" s="14">
+        <v>3</v>
+      </c>
+      <c r="I73" s="14">
+        <v>5</v>
+      </c>
+      <c r="J73" s="14">
+        <v>4</v>
+      </c>
+      <c r="K73" s="14">
+        <v>1</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="N73" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="O73" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="P73" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="R73" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S73" s="21">
+        <v>3</v>
+      </c>
+      <c r="T73" s="22">
+        <v>3</v>
+      </c>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="19"/>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="19"/>
+      <c r="AJ73" s="19"/>
+      <c r="AK73" s="19"/>
+      <c r="AL73" s="19"/>
+      <c r="AM73" s="19"/>
+      <c r="AN73" s="19"/>
+      <c r="AO73" s="19"/>
+      <c r="AP73" s="19"/>
+      <c r="AQ73" s="19"/>
+      <c r="AR73" s="19"/>
+      <c r="AS73" s="19"/>
+      <c r="AT73" s="19"/>
+      <c r="AU73" s="19"/>
+      <c r="AV73" s="19"/>
+      <c r="AW73" s="19"/>
+      <c r="AX73" s="19"/>
+      <c r="AY73" s="19"/>
+      <c r="AZ73" s="19"/>
+      <c r="BA73" s="19"/>
+      <c r="BB73" s="19"/>
+      <c r="BC73" s="19"/>
+      <c r="BD73" s="19"/>
+      <c r="BE73" s="19"/>
+      <c r="BF73" s="19"/>
+      <c r="BG73" s="19"/>
+      <c r="BH73" s="19"/>
+      <c r="BI73" s="19"/>
+      <c r="BJ73" s="19"/>
+    </row>
+    <row r="74" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>93</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D74" s="6">
         <v>0</v>
       </c>
-      <c r="E73" s="7">
-        <v>3.750063790197145</v>
-      </c>
-      <c r="F73" s="5" t="s">
+      <c r="E74" s="7">
+        <v>16.979158117070469</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="5">
-        <v>3</v>
-      </c>
-      <c r="H73" s="5">
-        <v>4</v>
-      </c>
-      <c r="I73" s="5">
-        <v>5</v>
-      </c>
-      <c r="J73" s="5">
-        <v>1</v>
-      </c>
-      <c r="K73" s="5">
-        <v>2</v>
-      </c>
-      <c r="L73" s="5" t="s">
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2</v>
+      </c>
+      <c r="I74" s="5">
+        <v>5</v>
+      </c>
+      <c r="J74" s="5">
+        <v>4</v>
+      </c>
+      <c r="K74" s="5">
+        <v>3</v>
+      </c>
+      <c r="L74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M73" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="N73" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="O73" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="P73" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q73" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="R73" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S73" s="12">
-        <v>5</v>
-      </c>
-      <c r="T73" s="13">
-        <v>3</v>
-      </c>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-      <c r="AF73" s="10"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="10"/>
-      <c r="AI73" s="10"/>
-      <c r="AJ73" s="10"/>
-      <c r="AK73" s="10"/>
-      <c r="AL73" s="10"/>
-      <c r="AM73" s="10"/>
-      <c r="AN73" s="10"/>
-      <c r="AO73" s="10"/>
-      <c r="AP73" s="10"/>
-      <c r="AQ73" s="10"/>
-      <c r="AR73" s="10"/>
-      <c r="AS73" s="10"/>
-      <c r="AT73" s="10"/>
-      <c r="AU73" s="10"/>
-      <c r="AV73" s="10"/>
-      <c r="AW73" s="10"/>
-      <c r="AX73" s="10"/>
-      <c r="AY73" s="10"/>
-      <c r="AZ73" s="10"/>
-      <c r="BA73" s="10"/>
-      <c r="BB73" s="10"/>
-      <c r="BC73" s="10"/>
-      <c r="BD73" s="10"/>
-      <c r="BE73" s="10"/>
-      <c r="BF73" s="10"/>
-      <c r="BG73" s="10"/>
-      <c r="BH73" s="10"/>
-      <c r="BI73" s="10"/>
-      <c r="BJ73" s="10"/>
-    </row>
-    <row r="74" spans="1:62" ht="240" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
-        <v>74</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D74" s="15">
-        <v>1</v>
-      </c>
-      <c r="E74" s="16">
-        <v>2.113685458606974</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="14">
-        <v>3</v>
-      </c>
-      <c r="H74" s="14">
-        <v>4</v>
-      </c>
-      <c r="I74" s="14">
-        <v>5</v>
-      </c>
-      <c r="J74" s="14">
-        <v>2</v>
-      </c>
-      <c r="K74" s="14">
-        <v>1</v>
-      </c>
-      <c r="L74" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M74" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="N74" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="O74" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="P74" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q74" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="R74" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="S74" s="21">
-        <v>5</v>
-      </c>
-      <c r="T74" s="22">
-        <v>4</v>
-      </c>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="19"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="19"/>
-      <c r="AB74" s="19"/>
-      <c r="AC74" s="19"/>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="19"/>
-      <c r="AF74" s="19"/>
-      <c r="AG74" s="19"/>
-      <c r="AH74" s="19"/>
-      <c r="AI74" s="19"/>
-      <c r="AJ74" s="19" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AK74" s="19"/>
-      <c r="AL74" s="19"/>
-      <c r="AM74" s="19"/>
-      <c r="AN74" s="19"/>
-      <c r="AO74" s="19"/>
-      <c r="AP74" s="19"/>
-      <c r="AQ74" s="19"/>
-      <c r="AR74" s="19"/>
-      <c r="AS74" s="19"/>
-      <c r="AT74" s="19"/>
-      <c r="AU74" s="19"/>
-      <c r="AV74" s="19"/>
-      <c r="AW74" s="19"/>
-      <c r="AX74" s="19"/>
-      <c r="AY74" s="19"/>
-      <c r="AZ74" s="19"/>
-      <c r="BA74" s="19"/>
-      <c r="BB74" s="19"/>
-      <c r="BC74" s="19"/>
-      <c r="BD74" s="19"/>
-      <c r="BE74" s="19"/>
-      <c r="BF74" s="19"/>
-      <c r="BG74" s="19"/>
-      <c r="BH74" s="19"/>
-      <c r="BI74" s="19"/>
-      <c r="BJ74" s="19"/>
+      <c r="M74" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="P74" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q74" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="R74" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S74" s="12">
+        <v>4</v>
+      </c>
+      <c r="T74" s="13">
+        <v>4</v>
+      </c>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="10"/>
+      <c r="AO74" s="10"/>
+      <c r="AP74" s="10"/>
+      <c r="AQ74" s="10"/>
+      <c r="AR74" s="10"/>
+      <c r="AS74" s="10"/>
+      <c r="AT74" s="10"/>
+      <c r="AU74" s="10"/>
+      <c r="AV74" s="10"/>
+      <c r="AW74" s="10"/>
+      <c r="AX74" s="10"/>
+      <c r="AY74" s="10"/>
+      <c r="AZ74" s="10"/>
+      <c r="BA74" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BB74" s="10"/>
+      <c r="BC74" s="10"/>
+      <c r="BD74" s="10"/>
+      <c r="BE74" s="10"/>
+      <c r="BF74" s="10"/>
+      <c r="BG74" s="10"/>
+      <c r="BH74" s="10"/>
+      <c r="BI74" s="10"/>
+      <c r="BJ74" s="10"/>
     </row>
     <row r="75" spans="1:62" ht="210" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
@@ -13438,7 +13452,7 @@
       <c r="AM81" s="19"/>
       <c r="AN81" s="19"/>
       <c r="AO81" s="19" t="s">
-        <v>1168</v>
+        <v>1271</v>
       </c>
       <c r="AP81" s="19"/>
       <c r="AQ81" s="19"/>
@@ -13650,7 +13664,7 @@
       <c r="AM83" s="19"/>
       <c r="AN83" s="19"/>
       <c r="AO83" s="19" t="s">
-        <v>1168</v>
+        <v>1272</v>
       </c>
       <c r="AP83" s="19"/>
       <c r="AQ83" s="19"/>
@@ -14178,7 +14192,7 @@
       <c r="AM88" s="10"/>
       <c r="AN88" s="10"/>
       <c r="AO88" s="10" t="s">
-        <v>1168</v>
+        <v>1273</v>
       </c>
       <c r="AP88" s="10"/>
       <c r="AQ88" s="10"/>
@@ -14416,55 +14430,55 @@
     </row>
     <row r="91" spans="1:62" ht="225" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="D91" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="16">
-        <v>7.3242354266104783</v>
+        <v>3.4540635978024352</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G91" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" s="14">
         <v>5</v>
       </c>
       <c r="J91" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K91" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L91" s="14" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="O91" s="19" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="P91" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="R91" s="21" t="s">
         <v>44</v>
@@ -14473,7 +14487,7 @@
         <v>3</v>
       </c>
       <c r="T91" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
@@ -14624,111 +14638,109 @@
       <c r="BI92" s="10"/>
       <c r="BJ92" s="10"/>
     </row>
-    <row r="93" spans="1:62" ht="315" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>93</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D93" s="6">
-        <v>0</v>
-      </c>
-      <c r="E93" s="7">
-        <v>16.979158117070469</v>
-      </c>
-      <c r="F93" s="5" t="s">
+    <row r="93" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>112</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1</v>
+      </c>
+      <c r="E93" s="16">
+        <v>10.30159728024538</v>
+      </c>
+      <c r="F93" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="5">
-        <v>1</v>
-      </c>
-      <c r="H93" s="5">
-        <v>2</v>
-      </c>
-      <c r="I93" s="5">
-        <v>5</v>
-      </c>
-      <c r="J93" s="5">
-        <v>4</v>
-      </c>
-      <c r="K93" s="5">
-        <v>3</v>
-      </c>
-      <c r="L93" s="5" t="s">
+      <c r="G93" s="14">
+        <v>1</v>
+      </c>
+      <c r="H93" s="14">
+        <v>4</v>
+      </c>
+      <c r="I93" s="14">
+        <v>5</v>
+      </c>
+      <c r="J93" s="14">
+        <v>3</v>
+      </c>
+      <c r="K93" s="14">
+        <v>2</v>
+      </c>
+      <c r="L93" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M93" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="O93" s="10" t="s">
+      <c r="M93" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="N93" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="O93" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="P93" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q93" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="R93" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S93" s="12">
-        <v>4</v>
-      </c>
-      <c r="T93" s="13">
-        <v>4</v>
-      </c>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="10"/>
-      <c r="Z93" s="10"/>
-      <c r="AA93" s="10"/>
-      <c r="AB93" s="10"/>
-      <c r="AC93" s="10"/>
-      <c r="AD93" s="10"/>
-      <c r="AE93" s="10"/>
-      <c r="AF93" s="10"/>
-      <c r="AG93" s="10"/>
-      <c r="AH93" s="10"/>
-      <c r="AI93" s="10"/>
-      <c r="AJ93" s="10"/>
-      <c r="AK93" s="10"/>
-      <c r="AL93" s="10"/>
-      <c r="AM93" s="10"/>
-      <c r="AN93" s="10"/>
-      <c r="AO93" s="10"/>
-      <c r="AP93" s="10"/>
-      <c r="AQ93" s="10"/>
-      <c r="AR93" s="10"/>
-      <c r="AS93" s="10"/>
-      <c r="AT93" s="10"/>
-      <c r="AU93" s="10"/>
-      <c r="AV93" s="10"/>
-      <c r="AW93" s="10"/>
-      <c r="AX93" s="10"/>
-      <c r="AY93" s="10"/>
-      <c r="AZ93" s="10"/>
-      <c r="BA93" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="BB93" s="10"/>
-      <c r="BC93" s="10"/>
-      <c r="BD93" s="10"/>
-      <c r="BE93" s="10"/>
-      <c r="BF93" s="10"/>
-      <c r="BG93" s="10"/>
-      <c r="BH93" s="10"/>
-      <c r="BI93" s="10"/>
-      <c r="BJ93" s="10"/>
+      <c r="P93" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="R93" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S93" s="21">
+        <v>4</v>
+      </c>
+      <c r="T93" s="22">
+        <v>3</v>
+      </c>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
+      <c r="Y93" s="19"/>
+      <c r="Z93" s="19"/>
+      <c r="AA93" s="19"/>
+      <c r="AB93" s="19"/>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="19"/>
+      <c r="AE93" s="19"/>
+      <c r="AF93" s="19"/>
+      <c r="AG93" s="19"/>
+      <c r="AH93" s="19"/>
+      <c r="AI93" s="19"/>
+      <c r="AJ93" s="19"/>
+      <c r="AK93" s="19"/>
+      <c r="AL93" s="19"/>
+      <c r="AM93" s="19"/>
+      <c r="AN93" s="19"/>
+      <c r="AO93" s="19"/>
+      <c r="AP93" s="19"/>
+      <c r="AQ93" s="19"/>
+      <c r="AR93" s="19"/>
+      <c r="AS93" s="19"/>
+      <c r="AT93" s="19"/>
+      <c r="AU93" s="19"/>
+      <c r="AV93" s="19"/>
+      <c r="AW93" s="19"/>
+      <c r="AX93" s="19"/>
+      <c r="AY93" s="19"/>
+      <c r="AZ93" s="19"/>
+      <c r="BA93" s="19"/>
+      <c r="BB93" s="19"/>
+      <c r="BC93" s="19"/>
+      <c r="BD93" s="19"/>
+      <c r="BE93" s="19"/>
+      <c r="BF93" s="19"/>
+      <c r="BG93" s="19"/>
+      <c r="BH93" s="19"/>
+      <c r="BI93" s="19"/>
+      <c r="BJ93" s="19"/>
     </row>
     <row r="94" spans="1:62" ht="285" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -15987,108 +15999,108 @@
       <c r="BJ105" s="19"/>
     </row>
     <row r="106" spans="1:62" ht="225" x14ac:dyDescent="0.25">
-      <c r="A106" s="14">
-        <v>110</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D106" s="15">
+      <c r="A106" s="5">
+        <v>126</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D106" s="6">
         <v>0</v>
       </c>
-      <c r="E106" s="16">
-        <v>3.4540635978024352</v>
-      </c>
-      <c r="F106" s="14" t="s">
+      <c r="E106" s="7">
+        <v>11.317343060344889</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G106" s="14">
-        <v>3</v>
-      </c>
-      <c r="H106" s="14">
-        <v>2</v>
-      </c>
-      <c r="I106" s="14">
-        <v>5</v>
-      </c>
-      <c r="J106" s="14">
-        <v>1</v>
-      </c>
-      <c r="K106" s="14">
-        <v>4</v>
-      </c>
-      <c r="L106" s="14" t="s">
+      <c r="G106" s="5">
+        <v>1</v>
+      </c>
+      <c r="H106" s="5">
+        <v>3</v>
+      </c>
+      <c r="I106" s="5">
+        <v>5</v>
+      </c>
+      <c r="J106" s="5">
+        <v>2</v>
+      </c>
+      <c r="K106" s="5">
+        <v>4</v>
+      </c>
+      <c r="L106" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M106" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="N106" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="O106" s="19" t="s">
+      <c r="M106" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="O106" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P106" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q106" s="20" t="s">
+      <c r="P106" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q106" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="R106" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S106" s="21">
-        <v>3</v>
-      </c>
-      <c r="T106" s="22">
-        <v>1</v>
-      </c>
-      <c r="U106" s="19"/>
-      <c r="V106" s="19"/>
-      <c r="W106" s="19"/>
-      <c r="X106" s="19"/>
-      <c r="Y106" s="19"/>
-      <c r="Z106" s="19"/>
-      <c r="AA106" s="19"/>
-      <c r="AB106" s="19"/>
-      <c r="AC106" s="19"/>
-      <c r="AD106" s="19"/>
-      <c r="AE106" s="19"/>
-      <c r="AF106" s="19"/>
-      <c r="AG106" s="19"/>
-      <c r="AH106" s="19"/>
-      <c r="AI106" s="19"/>
-      <c r="AJ106" s="19"/>
-      <c r="AK106" s="19"/>
-      <c r="AL106" s="19"/>
-      <c r="AM106" s="19"/>
-      <c r="AN106" s="19"/>
-      <c r="AO106" s="19"/>
-      <c r="AP106" s="19"/>
-      <c r="AQ106" s="19"/>
-      <c r="AR106" s="19"/>
-      <c r="AS106" s="19"/>
-      <c r="AT106" s="19"/>
-      <c r="AU106" s="19"/>
-      <c r="AV106" s="19"/>
-      <c r="AW106" s="19"/>
-      <c r="AX106" s="19"/>
-      <c r="AY106" s="19"/>
-      <c r="AZ106" s="19"/>
-      <c r="BA106" s="19"/>
-      <c r="BB106" s="19"/>
-      <c r="BC106" s="19"/>
-      <c r="BD106" s="19"/>
-      <c r="BE106" s="19"/>
-      <c r="BF106" s="19"/>
-      <c r="BG106" s="19"/>
-      <c r="BH106" s="19"/>
-      <c r="BI106" s="19"/>
-      <c r="BJ106" s="19"/>
+      <c r="R106" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="S106" s="12">
+        <v>2</v>
+      </c>
+      <c r="T106" s="13">
+        <v>1</v>
+      </c>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="10"/>
+      <c r="AA106" s="10"/>
+      <c r="AB106" s="10"/>
+      <c r="AC106" s="10"/>
+      <c r="AD106" s="10"/>
+      <c r="AE106" s="10"/>
+      <c r="AF106" s="10"/>
+      <c r="AG106" s="10"/>
+      <c r="AH106" s="10"/>
+      <c r="AI106" s="10"/>
+      <c r="AJ106" s="10"/>
+      <c r="AK106" s="10"/>
+      <c r="AL106" s="10"/>
+      <c r="AM106" s="10"/>
+      <c r="AN106" s="10"/>
+      <c r="AO106" s="10"/>
+      <c r="AP106" s="10"/>
+      <c r="AQ106" s="10"/>
+      <c r="AR106" s="10"/>
+      <c r="AS106" s="10"/>
+      <c r="AT106" s="10"/>
+      <c r="AU106" s="10"/>
+      <c r="AV106" s="10"/>
+      <c r="AW106" s="10"/>
+      <c r="AX106" s="10"/>
+      <c r="AY106" s="10"/>
+      <c r="AZ106" s="10"/>
+      <c r="BA106" s="10"/>
+      <c r="BB106" s="10"/>
+      <c r="BC106" s="10"/>
+      <c r="BD106" s="10"/>
+      <c r="BE106" s="10"/>
+      <c r="BF106" s="10"/>
+      <c r="BG106" s="10"/>
+      <c r="BH106" s="10"/>
+      <c r="BI106" s="10"/>
+      <c r="BJ106" s="10"/>
     </row>
     <row r="107" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
@@ -16490,7 +16502,7 @@
       <c r="AM110" s="10"/>
       <c r="AN110" s="10"/>
       <c r="AO110" s="10" t="s">
-        <v>1168</v>
+        <v>1273</v>
       </c>
       <c r="AP110" s="10"/>
       <c r="AQ110" s="10"/>
@@ -16622,213 +16634,213 @@
       <c r="BI111" s="19"/>
       <c r="BJ111" s="19"/>
     </row>
-    <row r="112" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="14">
+    <row r="112" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>132</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+      <c r="E112" s="7">
+        <v>12.812704560363279</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G112" s="5">
+        <v>4</v>
+      </c>
+      <c r="H112" s="5">
+        <v>3</v>
+      </c>
+      <c r="I112" s="5">
+        <v>5</v>
+      </c>
+      <c r="J112" s="5">
+        <v>1</v>
+      </c>
+      <c r="K112" s="5">
+        <v>2</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="O112" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P112" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q112" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R112" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S112" s="12">
+        <v>2</v>
+      </c>
+      <c r="T112" s="13">
+        <v>4</v>
+      </c>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+      <c r="Z112" s="10"/>
+      <c r="AA112" s="10"/>
+      <c r="AB112" s="10"/>
+      <c r="AC112" s="10"/>
+      <c r="AD112" s="10"/>
+      <c r="AE112" s="10"/>
+      <c r="AF112" s="10"/>
+      <c r="AG112" s="10"/>
+      <c r="AH112" s="10"/>
+      <c r="AI112" s="10"/>
+      <c r="AJ112" s="10"/>
+      <c r="AK112" s="10"/>
+      <c r="AL112" s="10"/>
+      <c r="AM112" s="10"/>
+      <c r="AN112" s="10"/>
+      <c r="AO112" s="10"/>
+      <c r="AP112" s="10"/>
+      <c r="AQ112" s="10"/>
+      <c r="AR112" s="10"/>
+      <c r="AS112" s="10"/>
+      <c r="AT112" s="10"/>
+      <c r="AU112" s="10"/>
+      <c r="AV112" s="10"/>
+      <c r="AW112" s="10"/>
+      <c r="AX112" s="10"/>
+      <c r="AY112" s="10"/>
+      <c r="AZ112" s="10"/>
+      <c r="BA112" s="10"/>
+      <c r="BB112" s="10"/>
+      <c r="BC112" s="10"/>
+      <c r="BD112" s="10"/>
+      <c r="BE112" s="10"/>
+      <c r="BF112" s="10"/>
+      <c r="BG112" s="10"/>
+      <c r="BH112" s="10"/>
+      <c r="BI112" s="10"/>
+      <c r="BJ112" s="10"/>
+    </row>
+    <row r="113" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>133</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D113" s="15">
+        <v>0</v>
+      </c>
+      <c r="E113" s="16">
+        <v>15.18847409173272</v>
+      </c>
+      <c r="F113" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D112" s="15">
-        <v>1</v>
-      </c>
-      <c r="E112" s="16">
-        <v>10.30159728024538</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G112" s="14">
-        <v>1</v>
-      </c>
-      <c r="H112" s="14">
-        <v>4</v>
-      </c>
-      <c r="I112" s="14">
-        <v>5</v>
-      </c>
-      <c r="J112" s="14">
-        <v>3</v>
-      </c>
-      <c r="K112" s="14">
-        <v>2</v>
-      </c>
-      <c r="L112" s="14" t="s">
+      <c r="G113" s="14">
+        <v>4</v>
+      </c>
+      <c r="H113" s="14">
+        <v>2</v>
+      </c>
+      <c r="I113" s="14">
+        <v>5</v>
+      </c>
+      <c r="J113" s="14">
+        <v>3</v>
+      </c>
+      <c r="K113" s="14">
+        <v>1</v>
+      </c>
+      <c r="L113" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M112" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="N112" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="O112" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="P112" s="20">
-        <v>10</v>
-      </c>
-      <c r="Q112" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="R112" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="S112" s="21">
-        <v>4</v>
-      </c>
-      <c r="T112" s="22">
-        <v>3</v>
-      </c>
-      <c r="U112" s="19"/>
-      <c r="V112" s="19"/>
-      <c r="W112" s="19"/>
-      <c r="X112" s="19"/>
-      <c r="Y112" s="19"/>
-      <c r="Z112" s="19"/>
-      <c r="AA112" s="19"/>
-      <c r="AB112" s="19"/>
-      <c r="AC112" s="19"/>
-      <c r="AD112" s="19"/>
-      <c r="AE112" s="19"/>
-      <c r="AF112" s="19"/>
-      <c r="AG112" s="19"/>
-      <c r="AH112" s="19"/>
-      <c r="AI112" s="19"/>
-      <c r="AJ112" s="19"/>
-      <c r="AK112" s="19"/>
-      <c r="AL112" s="19"/>
-      <c r="AM112" s="19"/>
-      <c r="AN112" s="19"/>
-      <c r="AO112" s="19"/>
-      <c r="AP112" s="19"/>
-      <c r="AQ112" s="19"/>
-      <c r="AR112" s="19"/>
-      <c r="AS112" s="19"/>
-      <c r="AT112" s="19"/>
-      <c r="AU112" s="19"/>
-      <c r="AV112" s="19"/>
-      <c r="AW112" s="19"/>
-      <c r="AX112" s="19"/>
-      <c r="AY112" s="19"/>
-      <c r="AZ112" s="19"/>
-      <c r="BA112" s="19"/>
-      <c r="BB112" s="19"/>
-      <c r="BC112" s="19"/>
-      <c r="BD112" s="19"/>
-      <c r="BE112" s="19"/>
-      <c r="BF112" s="19"/>
-      <c r="BG112" s="19"/>
-      <c r="BH112" s="19"/>
-      <c r="BI112" s="19"/>
-      <c r="BJ112" s="19"/>
-    </row>
-    <row r="113" spans="1:62" ht="225" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
-        <v>126</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D113" s="6">
-        <v>0</v>
-      </c>
-      <c r="E113" s="7">
-        <v>11.317343060344889</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" s="5">
-        <v>1</v>
-      </c>
-      <c r="H113" s="5">
-        <v>3</v>
-      </c>
-      <c r="I113" s="5">
-        <v>5</v>
-      </c>
-      <c r="J113" s="5">
-        <v>2</v>
-      </c>
-      <c r="K113" s="5">
-        <v>4</v>
-      </c>
-      <c r="L113" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M113" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="N113" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="O113" s="10" t="s">
+      <c r="M113" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="N113" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="O113" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P113" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="R113" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="S113" s="12">
-        <v>2</v>
-      </c>
-      <c r="T113" s="13">
-        <v>1</v>
-      </c>
-      <c r="U113" s="10"/>
-      <c r="V113" s="10"/>
-      <c r="W113" s="10"/>
-      <c r="X113" s="10"/>
-      <c r="Y113" s="10"/>
-      <c r="Z113" s="10"/>
-      <c r="AA113" s="10"/>
-      <c r="AB113" s="10"/>
-      <c r="AC113" s="10"/>
-      <c r="AD113" s="10"/>
-      <c r="AE113" s="10"/>
-      <c r="AF113" s="10"/>
-      <c r="AG113" s="10"/>
-      <c r="AH113" s="10"/>
-      <c r="AI113" s="10"/>
-      <c r="AJ113" s="10"/>
-      <c r="AK113" s="10"/>
-      <c r="AL113" s="10"/>
-      <c r="AM113" s="10"/>
-      <c r="AN113" s="10"/>
-      <c r="AO113" s="10"/>
-      <c r="AP113" s="10"/>
-      <c r="AQ113" s="10"/>
-      <c r="AR113" s="10"/>
-      <c r="AS113" s="10"/>
-      <c r="AT113" s="10"/>
-      <c r="AU113" s="10"/>
-      <c r="AV113" s="10"/>
-      <c r="AW113" s="10"/>
-      <c r="AX113" s="10"/>
-      <c r="AY113" s="10"/>
-      <c r="AZ113" s="10"/>
-      <c r="BA113" s="10"/>
-      <c r="BB113" s="10"/>
-      <c r="BC113" s="10"/>
-      <c r="BD113" s="10"/>
-      <c r="BE113" s="10"/>
-      <c r="BF113" s="10"/>
-      <c r="BG113" s="10"/>
-      <c r="BH113" s="10"/>
-      <c r="BI113" s="10"/>
-      <c r="BJ113" s="10"/>
+      <c r="P113" s="20">
+        <v>15</v>
+      </c>
+      <c r="Q113" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R113" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S113" s="21">
+        <v>1</v>
+      </c>
+      <c r="T113" s="22">
+        <v>1</v>
+      </c>
+      <c r="U113" s="19"/>
+      <c r="V113" s="19"/>
+      <c r="W113" s="19"/>
+      <c r="X113" s="19"/>
+      <c r="Y113" s="19"/>
+      <c r="Z113" s="19"/>
+      <c r="AA113" s="19"/>
+      <c r="AB113" s="19"/>
+      <c r="AC113" s="19"/>
+      <c r="AD113" s="19"/>
+      <c r="AE113" s="19"/>
+      <c r="AF113" s="19"/>
+      <c r="AG113" s="19"/>
+      <c r="AH113" s="19"/>
+      <c r="AI113" s="19"/>
+      <c r="AJ113" s="19"/>
+      <c r="AK113" s="19"/>
+      <c r="AL113" s="19"/>
+      <c r="AM113" s="19"/>
+      <c r="AN113" s="19"/>
+      <c r="AO113" s="19"/>
+      <c r="AP113" s="19"/>
+      <c r="AQ113" s="19"/>
+      <c r="AR113" s="19"/>
+      <c r="AS113" s="19"/>
+      <c r="AT113" s="19"/>
+      <c r="AU113" s="19"/>
+      <c r="AV113" s="19"/>
+      <c r="AW113" s="19"/>
+      <c r="AX113" s="19"/>
+      <c r="AY113" s="19"/>
+      <c r="AZ113" s="19"/>
+      <c r="BA113" s="19"/>
+      <c r="BB113" s="19"/>
+      <c r="BC113" s="19"/>
+      <c r="BD113" s="19"/>
+      <c r="BE113" s="19"/>
+      <c r="BF113" s="19"/>
+      <c r="BG113" s="19"/>
+      <c r="BH113" s="19"/>
+      <c r="BI113" s="19"/>
+      <c r="BJ113" s="19"/>
     </row>
     <row r="114" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
@@ -17144,213 +17156,221 @@
       </c>
       <c r="BJ116" s="10"/>
     </row>
-    <row r="117" spans="1:62" ht="390" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <v>132</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1</v>
-      </c>
-      <c r="E117" s="7">
-        <v>12.812704560363279</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G117" s="5">
-        <v>4</v>
-      </c>
-      <c r="H117" s="5">
-        <v>3</v>
-      </c>
-      <c r="I117" s="5">
-        <v>5</v>
-      </c>
-      <c r="J117" s="5">
-        <v>1</v>
-      </c>
-      <c r="K117" s="5">
-        <v>2</v>
-      </c>
-      <c r="L117" s="5" t="s">
+    <row r="117" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>139</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D117" s="15">
+        <v>1</v>
+      </c>
+      <c r="E117" s="16">
+        <v>2.1407696231530191</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="14">
+        <v>3</v>
+      </c>
+      <c r="H117" s="14">
+        <v>4</v>
+      </c>
+      <c r="I117" s="14">
+        <v>5</v>
+      </c>
+      <c r="J117" s="14">
+        <v>1</v>
+      </c>
+      <c r="K117" s="14">
+        <v>2</v>
+      </c>
+      <c r="L117" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M117" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="N117" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="O117" s="10" t="s">
+      <c r="M117" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="N117" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="O117" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P117" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q117" s="11" t="s">
+      <c r="P117" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q117" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R117" s="12" t="s">
+      <c r="R117" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S117" s="12">
-        <v>2</v>
-      </c>
-      <c r="T117" s="13">
-        <v>4</v>
-      </c>
-      <c r="U117" s="10"/>
-      <c r="V117" s="10"/>
-      <c r="W117" s="10"/>
-      <c r="X117" s="10"/>
-      <c r="Y117" s="10"/>
-      <c r="Z117" s="10"/>
-      <c r="AA117" s="10"/>
-      <c r="AB117" s="10"/>
-      <c r="AC117" s="10"/>
-      <c r="AD117" s="10"/>
-      <c r="AE117" s="10"/>
-      <c r="AF117" s="10"/>
-      <c r="AG117" s="10"/>
-      <c r="AH117" s="10"/>
-      <c r="AI117" s="10"/>
-      <c r="AJ117" s="10"/>
-      <c r="AK117" s="10"/>
-      <c r="AL117" s="10"/>
-      <c r="AM117" s="10"/>
-      <c r="AN117" s="10"/>
-      <c r="AO117" s="10"/>
-      <c r="AP117" s="10"/>
-      <c r="AQ117" s="10"/>
-      <c r="AR117" s="10"/>
-      <c r="AS117" s="10"/>
-      <c r="AT117" s="10"/>
-      <c r="AU117" s="10"/>
-      <c r="AV117" s="10"/>
-      <c r="AW117" s="10"/>
-      <c r="AX117" s="10"/>
-      <c r="AY117" s="10"/>
-      <c r="AZ117" s="10"/>
-      <c r="BA117" s="10"/>
-      <c r="BB117" s="10"/>
-      <c r="BC117" s="10"/>
-      <c r="BD117" s="10"/>
-      <c r="BE117" s="10"/>
-      <c r="BF117" s="10"/>
-      <c r="BG117" s="10"/>
-      <c r="BH117" s="10"/>
-      <c r="BI117" s="10"/>
-      <c r="BJ117" s="10"/>
+      <c r="S117" s="21">
+        <v>4</v>
+      </c>
+      <c r="T117" s="22">
+        <v>4</v>
+      </c>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="19"/>
+      <c r="X117" s="19"/>
+      <c r="Y117" s="19"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+      <c r="AB117" s="19"/>
+      <c r="AC117" s="19"/>
+      <c r="AD117" s="19"/>
+      <c r="AE117" s="19"/>
+      <c r="AF117" s="19"/>
+      <c r="AG117" s="19"/>
+      <c r="AH117" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI117" s="19"/>
+      <c r="AJ117" s="19"/>
+      <c r="AK117" s="19"/>
+      <c r="AL117" s="19"/>
+      <c r="AM117" s="19"/>
+      <c r="AN117" s="19"/>
+      <c r="AO117" s="19"/>
+      <c r="AP117" s="19"/>
+      <c r="AQ117" s="19"/>
+      <c r="AR117" s="19"/>
+      <c r="AS117" s="19"/>
+      <c r="AT117" s="19"/>
+      <c r="AU117" s="19"/>
+      <c r="AV117" s="19"/>
+      <c r="AW117" s="19"/>
+      <c r="AX117" s="19"/>
+      <c r="AY117" s="19"/>
+      <c r="AZ117" s="19"/>
+      <c r="BA117" s="19"/>
+      <c r="BB117" s="19"/>
+      <c r="BC117" s="19"/>
+      <c r="BD117" s="19"/>
+      <c r="BE117" s="19"/>
+      <c r="BF117" s="19"/>
+      <c r="BG117" s="19"/>
+      <c r="BH117" s="19"/>
+      <c r="BI117" s="19"/>
+      <c r="BJ117" s="19"/>
     </row>
     <row r="118" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="14">
-        <v>133</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="D118" s="15">
-        <v>0</v>
-      </c>
-      <c r="E118" s="16">
-        <v>15.18847409173272</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G118" s="14">
-        <v>4</v>
-      </c>
-      <c r="H118" s="14">
-        <v>2</v>
-      </c>
-      <c r="I118" s="14">
-        <v>5</v>
-      </c>
-      <c r="J118" s="14">
-        <v>3</v>
-      </c>
-      <c r="K118" s="14">
-        <v>1</v>
-      </c>
-      <c r="L118" s="14" t="s">
+      <c r="A118" s="5">
+        <v>140</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1</v>
+      </c>
+      <c r="E118" s="7">
+        <v>3.509541050346443</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1</v>
+      </c>
+      <c r="H118" s="5">
+        <v>4</v>
+      </c>
+      <c r="I118" s="5">
+        <v>5</v>
+      </c>
+      <c r="J118" s="5">
+        <v>2</v>
+      </c>
+      <c r="K118" s="5">
+        <v>3</v>
+      </c>
+      <c r="L118" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M118" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="N118" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="O118" s="19" t="s">
+      <c r="M118" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="N118" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="O118" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P118" s="20">
-        <v>15</v>
-      </c>
-      <c r="Q118" s="20" t="s">
+      <c r="P118" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q118" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R118" s="21" t="s">
+      <c r="R118" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S118" s="21">
-        <v>1</v>
-      </c>
-      <c r="T118" s="22">
-        <v>1</v>
-      </c>
-      <c r="U118" s="19"/>
-      <c r="V118" s="19"/>
-      <c r="W118" s="19"/>
-      <c r="X118" s="19"/>
-      <c r="Y118" s="19"/>
-      <c r="Z118" s="19"/>
-      <c r="AA118" s="19"/>
-      <c r="AB118" s="19"/>
-      <c r="AC118" s="19"/>
-      <c r="AD118" s="19"/>
-      <c r="AE118" s="19"/>
-      <c r="AF118" s="19"/>
-      <c r="AG118" s="19"/>
-      <c r="AH118" s="19"/>
-      <c r="AI118" s="19"/>
-      <c r="AJ118" s="19"/>
-      <c r="AK118" s="19"/>
-      <c r="AL118" s="19"/>
-      <c r="AM118" s="19"/>
-      <c r="AN118" s="19"/>
-      <c r="AO118" s="19"/>
-      <c r="AP118" s="19"/>
-      <c r="AQ118" s="19"/>
-      <c r="AR118" s="19"/>
-      <c r="AS118" s="19"/>
-      <c r="AT118" s="19"/>
-      <c r="AU118" s="19"/>
-      <c r="AV118" s="19"/>
-      <c r="AW118" s="19"/>
-      <c r="AX118" s="19"/>
-      <c r="AY118" s="19"/>
-      <c r="AZ118" s="19"/>
-      <c r="BA118" s="19"/>
-      <c r="BB118" s="19"/>
-      <c r="BC118" s="19"/>
-      <c r="BD118" s="19"/>
-      <c r="BE118" s="19"/>
-      <c r="BF118" s="19"/>
-      <c r="BG118" s="19"/>
-      <c r="BH118" s="19"/>
-      <c r="BI118" s="19"/>
-      <c r="BJ118" s="19"/>
+      <c r="S118" s="12">
+        <v>2</v>
+      </c>
+      <c r="T118" s="13">
+        <v>2</v>
+      </c>
+      <c r="U118" s="10"/>
+      <c r="V118" s="10"/>
+      <c r="W118" s="10"/>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="10"/>
+      <c r="Z118" s="10"/>
+      <c r="AA118" s="10"/>
+      <c r="AB118" s="10"/>
+      <c r="AC118" s="10"/>
+      <c r="AD118" s="10"/>
+      <c r="AE118" s="10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AF118" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AG118" s="10"/>
+      <c r="AH118" s="10"/>
+      <c r="AI118" s="10"/>
+      <c r="AJ118" s="10"/>
+      <c r="AK118" s="10"/>
+      <c r="AL118" s="10"/>
+      <c r="AM118" s="10"/>
+      <c r="AN118" s="10"/>
+      <c r="AO118" s="10"/>
+      <c r="AP118" s="10"/>
+      <c r="AQ118" s="10" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AR118" s="10"/>
+      <c r="AS118" s="10"/>
+      <c r="AT118" s="10"/>
+      <c r="AU118" s="10"/>
+      <c r="AV118" s="10"/>
+      <c r="AW118" s="10"/>
+      <c r="AX118" s="10"/>
+      <c r="AY118" s="10"/>
+      <c r="AZ118" s="10"/>
+      <c r="BA118" s="10"/>
+      <c r="BB118" s="10"/>
+      <c r="BC118" s="10"/>
+      <c r="BD118" s="10"/>
+      <c r="BE118" s="10"/>
+      <c r="BF118" s="10"/>
+      <c r="BG118" s="10"/>
+      <c r="BH118" s="10"/>
+      <c r="BI118" s="10"/>
+      <c r="BJ118" s="10"/>
     </row>
     <row r="119" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
@@ -17661,110 +17681,108 @@
       <c r="BJ121" s="19"/>
     </row>
     <row r="122" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="14">
-        <v>139</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="D122" s="15">
-        <v>1</v>
-      </c>
-      <c r="E122" s="16">
-        <v>2.1407696231530191</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G122" s="14">
-        <v>3</v>
-      </c>
-      <c r="H122" s="14">
-        <v>4</v>
-      </c>
-      <c r="I122" s="14">
-        <v>5</v>
-      </c>
-      <c r="J122" s="14">
-        <v>1</v>
-      </c>
-      <c r="K122" s="14">
-        <v>2</v>
-      </c>
-      <c r="L122" s="14" t="s">
+      <c r="A122" s="5">
+        <v>146</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D122" s="6">
+        <v>0</v>
+      </c>
+      <c r="E122" s="7">
+        <v>12.124917321927329</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G122" s="5">
+        <v>1</v>
+      </c>
+      <c r="H122" s="5">
+        <v>4</v>
+      </c>
+      <c r="I122" s="5">
+        <v>5</v>
+      </c>
+      <c r="J122" s="5">
+        <v>2</v>
+      </c>
+      <c r="K122" s="5">
+        <v>3</v>
+      </c>
+      <c r="L122" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M122" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="N122" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="O122" s="19" t="s">
+      <c r="M122" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="O122" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P122" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q122" s="20" t="s">
+      <c r="P122" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q122" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R122" s="21" t="s">
+      <c r="R122" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S122" s="21">
-        <v>4</v>
-      </c>
-      <c r="T122" s="22">
-        <v>4</v>
-      </c>
-      <c r="U122" s="19"/>
-      <c r="V122" s="19"/>
-      <c r="W122" s="19"/>
-      <c r="X122" s="19"/>
-      <c r="Y122" s="19"/>
-      <c r="Z122" s="19"/>
-      <c r="AA122" s="19"/>
-      <c r="AB122" s="19"/>
-      <c r="AC122" s="19"/>
-      <c r="AD122" s="19"/>
-      <c r="AE122" s="19"/>
-      <c r="AF122" s="19"/>
-      <c r="AG122" s="19"/>
-      <c r="AH122" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="AI122" s="19"/>
-      <c r="AJ122" s="19"/>
-      <c r="AK122" s="19"/>
-      <c r="AL122" s="19"/>
-      <c r="AM122" s="19"/>
-      <c r="AN122" s="19"/>
-      <c r="AO122" s="19"/>
-      <c r="AP122" s="19"/>
-      <c r="AQ122" s="19"/>
-      <c r="AR122" s="19"/>
-      <c r="AS122" s="19"/>
-      <c r="AT122" s="19"/>
-      <c r="AU122" s="19"/>
-      <c r="AV122" s="19"/>
-      <c r="AW122" s="19"/>
-      <c r="AX122" s="19"/>
-      <c r="AY122" s="19"/>
-      <c r="AZ122" s="19"/>
-      <c r="BA122" s="19"/>
-      <c r="BB122" s="19"/>
-      <c r="BC122" s="19"/>
-      <c r="BD122" s="19"/>
-      <c r="BE122" s="19"/>
-      <c r="BF122" s="19"/>
-      <c r="BG122" s="19"/>
-      <c r="BH122" s="19"/>
-      <c r="BI122" s="19"/>
-      <c r="BJ122" s="19"/>
+      <c r="S122" s="12">
+        <v>3</v>
+      </c>
+      <c r="T122" s="13">
+        <v>1</v>
+      </c>
+      <c r="U122" s="10"/>
+      <c r="V122" s="10"/>
+      <c r="W122" s="10"/>
+      <c r="X122" s="10"/>
+      <c r="Y122" s="10"/>
+      <c r="Z122" s="10"/>
+      <c r="AA122" s="10"/>
+      <c r="AB122" s="10"/>
+      <c r="AC122" s="10"/>
+      <c r="AD122" s="10"/>
+      <c r="AE122" s="10"/>
+      <c r="AF122" s="10"/>
+      <c r="AG122" s="10"/>
+      <c r="AH122" s="10"/>
+      <c r="AI122" s="10"/>
+      <c r="AJ122" s="10"/>
+      <c r="AK122" s="10"/>
+      <c r="AL122" s="10"/>
+      <c r="AM122" s="10"/>
+      <c r="AN122" s="10"/>
+      <c r="AO122" s="10"/>
+      <c r="AP122" s="10"/>
+      <c r="AQ122" s="10"/>
+      <c r="AR122" s="10"/>
+      <c r="AS122" s="10"/>
+      <c r="AT122" s="10"/>
+      <c r="AU122" s="10"/>
+      <c r="AV122" s="10"/>
+      <c r="AW122" s="10"/>
+      <c r="AX122" s="10"/>
+      <c r="AY122" s="10"/>
+      <c r="AZ122" s="10"/>
+      <c r="BA122" s="10"/>
+      <c r="BB122" s="10"/>
+      <c r="BC122" s="10"/>
+      <c r="BD122" s="10"/>
+      <c r="BE122" s="10"/>
+      <c r="BF122" s="10"/>
+      <c r="BG122" s="10"/>
+      <c r="BH122" s="10"/>
+      <c r="BI122" s="10"/>
+      <c r="BJ122" s="10"/>
     </row>
     <row r="123" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
@@ -18074,21 +18092,21 @@
       <c r="BI125" s="19"/>
       <c r="BJ125" s="19"/>
     </row>
-    <row r="126" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:62" ht="345" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D126" s="6">
         <v>0</v>
       </c>
       <c r="E126" s="7">
-        <v>12.124917321927329</v>
+        <v>10.74692397378235</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>112</v>
@@ -18097,13 +18115,13 @@
         <v>1</v>
       </c>
       <c r="H126" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126" s="5">
         <v>5</v>
       </c>
       <c r="J126" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K126" s="5">
         <v>3</v>
@@ -18112,16 +18130,16 @@
         <v>8</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="O126" s="10" t="s">
         <v>42</v>
       </c>
       <c r="P126" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q126" s="11" t="s">
         <v>43</v>
@@ -18133,7 +18151,7 @@
         <v>3</v>
       </c>
       <c r="T126" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U126" s="10"/>
       <c r="V126" s="10"/>
@@ -18161,7 +18179,9 @@
       <c r="AR126" s="10"/>
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
-      <c r="AU126" s="10"/>
+      <c r="AU126" s="10" t="s">
+        <v>1166</v>
+      </c>
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
       <c r="AX126" s="10"/>
@@ -18367,7 +18387,7 @@
       <c r="AN128" s="10"/>
       <c r="AO128" s="10"/>
       <c r="AP128" s="10" t="s">
-        <v>1168</v>
+        <v>1274</v>
       </c>
       <c r="AQ128" s="10"/>
       <c r="AR128" s="10"/>
@@ -19432,111 +19452,101 @@
       <c r="BI138" s="10"/>
       <c r="BJ138" s="10"/>
     </row>
-    <row r="139" spans="1:62" ht="345" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>153</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D139" s="6">
+    <row r="139" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+      <c r="A139" s="14">
+        <v>169</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D139" s="15">
         <v>0</v>
       </c>
-      <c r="E139" s="7">
-        <v>10.74692397378235</v>
-      </c>
-      <c r="F139" s="5" t="s">
+      <c r="E139" s="16">
+        <v>5.8416999546976864</v>
+      </c>
+      <c r="F139" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G139" s="5">
-        <v>1</v>
-      </c>
-      <c r="H139" s="5">
-        <v>2</v>
-      </c>
-      <c r="I139" s="5">
-        <v>5</v>
-      </c>
-      <c r="J139" s="5">
-        <v>4</v>
-      </c>
-      <c r="K139" s="5">
-        <v>3</v>
-      </c>
-      <c r="L139" s="5" t="s">
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14">
+        <v>5</v>
+      </c>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M139" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="N139" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="O139" s="10" t="s">
+      <c r="M139" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="N139" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="O139" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P139" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q139" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R139" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S139" s="12">
-        <v>3</v>
-      </c>
-      <c r="T139" s="13">
-        <v>2</v>
-      </c>
-      <c r="U139" s="10"/>
-      <c r="V139" s="10"/>
-      <c r="W139" s="10"/>
-      <c r="X139" s="10"/>
-      <c r="Y139" s="10"/>
-      <c r="Z139" s="10"/>
-      <c r="AA139" s="10"/>
-      <c r="AB139" s="10"/>
-      <c r="AC139" s="10"/>
-      <c r="AD139" s="10"/>
-      <c r="AE139" s="10"/>
-      <c r="AF139" s="10"/>
-      <c r="AG139" s="10"/>
-      <c r="AH139" s="10"/>
-      <c r="AI139" s="10"/>
-      <c r="AJ139" s="10"/>
-      <c r="AK139" s="10"/>
-      <c r="AL139" s="10"/>
-      <c r="AM139" s="10"/>
-      <c r="AN139" s="10"/>
-      <c r="AO139" s="10"/>
-      <c r="AP139" s="10"/>
-      <c r="AQ139" s="10"/>
-      <c r="AR139" s="10"/>
-      <c r="AS139" s="10"/>
-      <c r="AT139" s="10"/>
-      <c r="AU139" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AV139" s="10"/>
-      <c r="AW139" s="10"/>
-      <c r="AX139" s="10"/>
-      <c r="AY139" s="10"/>
-      <c r="AZ139" s="10"/>
-      <c r="BA139" s="10"/>
-      <c r="BB139" s="10"/>
-      <c r="BC139" s="10"/>
-      <c r="BD139" s="10"/>
-      <c r="BE139" s="10"/>
-      <c r="BF139" s="10"/>
-      <c r="BG139" s="10"/>
-      <c r="BH139" s="10"/>
-      <c r="BI139" s="10"/>
-      <c r="BJ139" s="10"/>
+      <c r="P139" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q139" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="R139" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="S139" s="21">
+        <v>3</v>
+      </c>
+      <c r="T139" s="22">
+        <v>1</v>
+      </c>
+      <c r="U139" s="19"/>
+      <c r="V139" s="19"/>
+      <c r="W139" s="19"/>
+      <c r="X139" s="19"/>
+      <c r="Y139" s="19"/>
+      <c r="Z139" s="19"/>
+      <c r="AA139" s="19"/>
+      <c r="AB139" s="19"/>
+      <c r="AC139" s="19"/>
+      <c r="AD139" s="19"/>
+      <c r="AE139" s="19"/>
+      <c r="AF139" s="19"/>
+      <c r="AG139" s="19"/>
+      <c r="AH139" s="19"/>
+      <c r="AI139" s="19"/>
+      <c r="AJ139" s="19"/>
+      <c r="AK139" s="19"/>
+      <c r="AL139" s="19"/>
+      <c r="AM139" s="19"/>
+      <c r="AN139" s="19"/>
+      <c r="AO139" s="19"/>
+      <c r="AP139" s="19"/>
+      <c r="AQ139" s="19"/>
+      <c r="AR139" s="19"/>
+      <c r="AS139" s="19"/>
+      <c r="AT139" s="19"/>
+      <c r="AU139" s="19"/>
+      <c r="AV139" s="19"/>
+      <c r="AW139" s="19"/>
+      <c r="AX139" s="19"/>
+      <c r="AY139" s="19"/>
+      <c r="AZ139" s="19"/>
+      <c r="BA139" s="19"/>
+      <c r="BB139" s="19"/>
+      <c r="BC139" s="19"/>
+      <c r="BD139" s="19"/>
+      <c r="BE139" s="19"/>
+      <c r="BF139" s="19"/>
+      <c r="BG139" s="19"/>
+      <c r="BH139" s="19"/>
+      <c r="BI139" s="19"/>
+      <c r="BJ139" s="19"/>
     </row>
     <row r="140" spans="1:62" ht="180" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
@@ -24006,101 +24016,115 @@
       <c r="BI181" s="19"/>
       <c r="BJ181" s="19"/>
     </row>
-    <row r="182" spans="1:62" ht="240" x14ac:dyDescent="0.25">
-      <c r="A182" s="14">
-        <v>169</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="D182" s="15">
-        <v>0</v>
-      </c>
-      <c r="E182" s="16">
-        <v>5.8416999546976864</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14">
-        <v>5</v>
-      </c>
-      <c r="J182" s="14"/>
-      <c r="K182" s="14"/>
-      <c r="L182" s="14" t="s">
+    <row r="182" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <v>215</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D182" s="6">
+        <v>1</v>
+      </c>
+      <c r="E182" s="7">
+        <v>2.7581033781576321</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" s="5">
+        <v>4</v>
+      </c>
+      <c r="H182" s="5">
+        <v>3</v>
+      </c>
+      <c r="I182" s="5">
+        <v>5</v>
+      </c>
+      <c r="J182" s="5">
+        <v>1</v>
+      </c>
+      <c r="K182" s="5">
+        <v>2</v>
+      </c>
+      <c r="L182" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M182" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="N182" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="O182" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="P182" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q182" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R182" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="S182" s="21">
-        <v>3</v>
-      </c>
-      <c r="T182" s="22">
-        <v>1</v>
-      </c>
-      <c r="U182" s="19"/>
-      <c r="V182" s="19"/>
-      <c r="W182" s="19"/>
-      <c r="X182" s="19"/>
-      <c r="Y182" s="19"/>
-      <c r="Z182" s="19"/>
-      <c r="AA182" s="19"/>
-      <c r="AB182" s="19"/>
-      <c r="AC182" s="19"/>
-      <c r="AD182" s="19"/>
-      <c r="AE182" s="19"/>
-      <c r="AF182" s="19"/>
-      <c r="AG182" s="19"/>
-      <c r="AH182" s="19"/>
-      <c r="AI182" s="19"/>
-      <c r="AJ182" s="19"/>
-      <c r="AK182" s="19"/>
-      <c r="AL182" s="19"/>
-      <c r="AM182" s="19"/>
-      <c r="AN182" s="19"/>
-      <c r="AO182" s="19"/>
-      <c r="AP182" s="19"/>
-      <c r="AQ182" s="19"/>
-      <c r="AR182" s="19"/>
-      <c r="AS182" s="19"/>
-      <c r="AT182" s="19"/>
-      <c r="AU182" s="19"/>
-      <c r="AV182" s="19"/>
-      <c r="AW182" s="19"/>
-      <c r="AX182" s="19"/>
-      <c r="AY182" s="19"/>
-      <c r="AZ182" s="19"/>
-      <c r="BA182" s="19"/>
-      <c r="BB182" s="19"/>
-      <c r="BC182" s="19"/>
-      <c r="BD182" s="19"/>
-      <c r="BE182" s="19"/>
-      <c r="BF182" s="19"/>
-      <c r="BG182" s="19"/>
-      <c r="BH182" s="19"/>
-      <c r="BI182" s="19"/>
-      <c r="BJ182" s="19"/>
+      <c r="M182" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="N182" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="O182" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="P182" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q182" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="R182" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S182" s="12">
+        <v>5</v>
+      </c>
+      <c r="T182" s="13">
+        <v>3</v>
+      </c>
+      <c r="U182" s="10"/>
+      <c r="V182" s="10"/>
+      <c r="W182" s="10"/>
+      <c r="X182" s="10"/>
+      <c r="Y182" s="10"/>
+      <c r="Z182" s="10"/>
+      <c r="AA182" s="10"/>
+      <c r="AB182" s="10"/>
+      <c r="AC182" s="10"/>
+      <c r="AD182" s="10"/>
+      <c r="AE182" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AF182" s="10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AG182" s="10"/>
+      <c r="AH182" s="10"/>
+      <c r="AI182" s="10"/>
+      <c r="AJ182" s="10"/>
+      <c r="AK182" s="10"/>
+      <c r="AL182" s="10"/>
+      <c r="AM182" s="10"/>
+      <c r="AN182" s="10"/>
+      <c r="AO182" s="10"/>
+      <c r="AP182" s="10"/>
+      <c r="AQ182" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="AR182" s="10"/>
+      <c r="AS182" s="10"/>
+      <c r="AT182" s="10"/>
+      <c r="AU182" s="10"/>
+      <c r="AV182" s="10"/>
+      <c r="AW182" s="10"/>
+      <c r="AX182" s="10"/>
+      <c r="AY182" s="10"/>
+      <c r="AZ182" s="10"/>
+      <c r="BA182" s="10"/>
+      <c r="BB182" s="10"/>
+      <c r="BC182" s="10"/>
+      <c r="BD182" s="10"/>
+      <c r="BE182" s="10"/>
+      <c r="BF182" s="10"/>
+      <c r="BG182" s="10"/>
+      <c r="BH182" s="10"/>
+      <c r="BI182" s="10"/>
+      <c r="BJ182" s="10"/>
     </row>
     <row r="183" spans="1:62" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
@@ -25230,7 +25254,7 @@
       <c r="AM193" s="19"/>
       <c r="AN193" s="19"/>
       <c r="AO193" s="19" t="s">
-        <v>1168</v>
+        <v>1275</v>
       </c>
       <c r="AP193" s="19"/>
       <c r="AQ193" s="19"/>
@@ -28087,7 +28111,7 @@
       <c r="AN220" s="10"/>
       <c r="AO220" s="10"/>
       <c r="AP220" s="10" t="s">
-        <v>1168</v>
+        <v>1269</v>
       </c>
       <c r="AQ220" s="10"/>
       <c r="AR220" s="10"/>
@@ -30751,7 +30775,7 @@
       <c r="AN245" s="19"/>
       <c r="AO245" s="19"/>
       <c r="AP245" s="19" t="s">
-        <v>1168</v>
+        <v>1276</v>
       </c>
       <c r="AQ245" s="19"/>
       <c r="AR245" s="19"/>
@@ -35447,212 +35471,212 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{B2798E95-6B8E-45D5-B941-FC0E1B148A2D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{572DAB6F-C9F8-440A-93B8-C3C1E53DB74C}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{2ABA6452-5EF6-4078-B385-F02AD94D5303}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{A7BFDC70-2B6F-4CF6-A4B0-D44B26E8E89E}">
       <formula1>$BV$19:$BV$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{06E5E221-4B2F-4C08-A0C6-69A966F21993}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{9EC47226-BB5B-4F5D-9D10-C8A473E9658F}">
       <formula1>$BV$13:$BV$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{BB0D5F6E-2F7D-45C1-A44D-07BCA785F318}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{61EE0331-3A4D-4A6A-AF57-D73316E62AE9}">
       <formula1>$BS$7:$BS$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{6CC8819D-4558-45F0-AF81-B43A87DA6944}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{E3885E42-A2CB-4999-BF86-5DD52F666107}">
       <formula1>$BT$7:$BT$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{D11452B4-EBE5-4980-8F92-84E0BF5258AA}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{C15776BD-B96C-4AF1-84AB-A6B6E1FF847D}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{18A75340-009C-4699-9FD0-13D70D790442}"/>
-    <hyperlink ref="M31" r:id="rId4" xr:uid="{906102D9-416C-418C-8549-5280341AF7B5}"/>
-    <hyperlink ref="M33" r:id="rId5" xr:uid="{17AB9CC2-7F4C-40BF-A846-D1F3BF042CA0}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{52FDC060-A924-4878-9DED-FF164D0212D0}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{3E81DAC1-DA9F-4550-A913-2A4D0BDDA193}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{B46DC75A-63A5-4808-AF5A-BDD2AE4E9F6E}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{155D8A70-AF86-4FA5-ACD6-F6F796DBB7B8}"/>
-    <hyperlink ref="M34" r:id="rId10" xr:uid="{916B2E2C-2B68-47EB-9D81-A9CD011895DD}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{84BCD3AC-CB99-4D52-A019-2A46C0B95EAA}"/>
-    <hyperlink ref="M35" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{A8621A35-A2BC-4A59-AE8B-5B8136C9F766}"/>
-    <hyperlink ref="M37" r:id="rId13" xr:uid="{568F4982-71C8-4797-8F07-0A7CEA090E4D}"/>
-    <hyperlink ref="M38" r:id="rId14" xr:uid="{F12779DE-7328-4144-9C4D-6B690CFCD097}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{A10E8572-A8A2-401D-8C9D-081E4F91FFC1}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{4C2835B4-3B69-4671-B980-B92FB941F4EE}"/>
-    <hyperlink ref="M53" r:id="rId17" xr:uid="{3FED69EB-6C67-4DB3-BD56-D0B55F1EF994}"/>
-    <hyperlink ref="M55" r:id="rId18" xr:uid="{F0B98A6C-30FB-4E1A-A267-25D831EBB6EB}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{68061B39-4C7F-4ABB-8BDE-AFAF150DE640}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{EF7C7890-AFB5-4E0D-9892-4DF18FB68F00}"/>
-    <hyperlink ref="M57" r:id="rId21" xr:uid="{89C21BDD-A5D0-4A96-A0E5-D7ED0A06D45C}"/>
-    <hyperlink ref="M58" r:id="rId22" xr:uid="{51898621-B533-4CCE-8909-D3168FFFC346}"/>
-    <hyperlink ref="M59" r:id="rId23" xr:uid="{37C02881-34F9-470D-972F-9B4B8420531E}"/>
-    <hyperlink ref="M73" r:id="rId24" xr:uid="{46AEF08B-7ACA-4D58-8064-1512718685AB}"/>
-    <hyperlink ref="M74" r:id="rId25" xr:uid="{5A385767-5CE0-4A23-861C-1417E6520E91}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{11986B19-0A12-4C6A-983B-3439356F1E31}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{C44BC0CB-806B-49BD-ADB0-01DDC6F663A8}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{AE25E218-E019-47D5-A734-F883234E38D8}"/>
-    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{35BD77CD-BCB6-4394-B7C2-66C5C6D73735}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{DE2DD9B1-F935-403E-9E67-FFD9E50B466C}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{EC053F93-442B-4712-A183-2EE8C95E0068}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{C7A1153E-B6FC-4BAE-870E-80BC88ED292A}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{6B7B1D51-C893-412F-97C8-2F69E3BC4F5E}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{396BF0A4-844E-48E3-9B0D-A17448514A54}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{AF54872F-0F2C-41D3-BAB1-FA6929F57F98}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{D2688D45-A201-4643-977A-35E2E794F702}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{AB603442-76B5-4E94-A45D-653A2A05099D}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{A5FA5A61-104D-4068-9753-694CE34F4ED4}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{1F966184-EC0D-4823-84F4-6EEC06384EAD}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{57233B7D-9FC7-441C-9DE1-1E11DA11C818}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{3E07F6E7-250C-4050-8134-6A27080BE7C0}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{27AB5657-83B4-4F0C-BF2E-8155A2B30F72}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{2855B0DB-CCE6-4D9A-8F4A-26F39D7909D5}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{3E9258C5-D549-4C43-AE69-0CE4054677B8}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{200593D4-BED8-4E3A-B814-95F52BAB9A56}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{9F2CFE06-E9E2-41A2-8456-0AFDC8DF5673}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{491271CB-ADA8-4227-9B2C-30D3CD6FC2B0}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{9F39413D-01E3-4558-9FC1-E66ED1A9E858}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{7465F7A0-72F8-4BEE-928F-02C881EF9148}"/>
-    <hyperlink ref="M56" r:id="rId50" xr:uid="{4EFEDC3D-2C54-424A-AD01-8812D07A4CB6}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{A5C59800-7065-4DC4-8399-640E19CCFD93}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{DB28DC16-2EC8-4C8E-9B01-5F325E6DF5D1}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{88E92C20-1216-4FAE-BBB7-7AFBE6494F03}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{D167783A-7D8D-4030-990A-EEBEBEE77C11}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{87D383B0-236F-4393-8005-8F049D877DBC}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{F059674D-8AE0-4F95-9E4D-D62B0D81A640}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{FF6B88C7-90B5-498F-ABEB-56A47C3C516D}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{A6E0C35D-2C07-438C-8364-71539D51880E}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{FA4D11D5-D29A-4DF2-9ADC-36595865216E}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{7666596B-B2E2-43A9-9F8C-91ABD91F4586}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{D8E6638A-AB89-42E4-8E42-68132F58AA28}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{494BCA40-07C9-4883-92C4-788FF3C8F50A}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{C87B39D5-1C41-448D-A2C0-6BF93C267F09}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{B8CEDAB3-F2B2-4D56-9BEC-324F9F8F4A42}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{9E4D4F05-1B89-4866-B41A-CDFFD2B956E3}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{FBF79A7C-CF38-416E-B921-A167FF52582B}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{4633027C-F21B-48BD-A306-815621AAD6C5}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{8B5FB93B-F373-44A1-B48A-F90CE515806F}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{38DCD5B4-FEFD-4E40-B4FD-9099FA7927C0}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{E6CB98A1-F6D6-4121-AEE6-B5C52EF4BEBD}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{10AE15CA-FACE-49FA-98D2-948C832AA5C7}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{98B0F502-659A-485C-ADC7-FE4F708BA353}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{6E5DD847-BB19-42FE-A697-8912FC174AB8}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{DC5041B8-8E58-45DA-9728-8F050A957821}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{6415E243-6141-4011-8E21-6BFEA9F58D50}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{976D9703-A80C-4A93-81F9-D673D53AB008}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{65D30EA3-AC93-4979-AFD8-B0F3BB5CEAA4}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{3982BD96-F70E-454D-96C1-C82AE3A8665B}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{F4E8745A-F0CC-4985-BDF0-AF82599BC0B4}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{0AB21B5C-5C59-471F-B202-F44D4C1514A5}"/>
-    <hyperlink ref="M112" r:id="rId81" xr:uid="{6391A003-9D79-433D-8B84-A005DE11B6A2}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{ECC15CBD-D1D9-4F7A-82AA-5B74A170EBC3}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{C5D73CEE-C40D-4354-A4A5-8952BC35F319}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{60F66F2D-AE1E-4E05-AEC2-14A2DC217856}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{BB514C10-A13A-4898-BFB7-2384AF31AEA6}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{2952B52E-685F-463A-BDAE-FA2BD4F07E4A}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{FA67F41B-54C5-483A-872E-E0DD0D40EEE7}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{6176A6AF-21FF-4641-BC64-E5BCE419AED5}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{277A9FC5-3CF1-4580-844C-97C92AD32567}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{7C784BAF-ADAE-44FC-B72C-8DFF798F9452}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{5D0339D0-4A3D-4AAA-A097-3B4D9CDEE12B}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{4F37A769-67F6-4E8B-834B-507354422A0D}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{C419E90F-BEE0-4CDB-89BC-A601AC06FDC6}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{0574CBB9-5AA0-492F-BFF2-2320A97AB605}"/>
-    <hyperlink ref="M39" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{6266F708-843C-495A-9D45-1B347406BE66}"/>
-    <hyperlink ref="M41" r:id="rId96" xr:uid="{7C7DC510-EC44-4F1F-A253-D8E5C8E91498}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{E2D09BAF-E9A8-4BDD-91C8-AA96273B3781}"/>
-    <hyperlink ref="M106" r:id="rId98" xr:uid="{5D700F9C-3902-45A3-A03E-B853059C9A22}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{E035C899-228A-4B53-ACEB-BF75C9BFBF74}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{93C31023-C071-4B86-88A9-3DDA344511A5}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{509E6AE9-6F93-405A-887A-54672C4E2C6A}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{A0271B50-0654-45A4-9D65-4EEADB088534}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{61B78869-B910-4221-9B90-BA22D7F0840B}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{4B7D782D-CD6D-48B1-8CCD-ADCF67020E13}"/>
-    <hyperlink ref="M43" r:id="rId105" xr:uid="{7B3A49F2-7412-42DB-8314-9642D5ABC3B4}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{69ACBDB2-C407-486F-964F-7EFBA5EB1BBD}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{8ACFD821-7044-436D-A70A-62343AF843D8}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{C19E69BD-EECB-4285-9B26-A5F76CB446C0}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{54793643-66CA-46D5-A2E2-E9B3B48C1600}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{A6F89A36-E611-429A-BFD2-F26D7662B170}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{99F462BF-1EA2-4670-A3B7-332A8E0CDDB8}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{9E82E8D4-E48F-4527-B1F8-8B833CAE0132}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{27302598-B7DE-4BF5-A417-0061DB4D3F73}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{B649BC95-6810-4910-9EF2-7DCABA7A9ECF}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{E471BBDD-9408-4923-993D-44739FBD0B4D}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{AAF0C418-B3C1-4693-95C9-88CB74EB3A5C}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{E38CADD0-020A-4AD8-B82D-9FA57F69695D}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{77F38C34-4EF8-401C-89BC-1516B5BAE1C4}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{15967116-8252-4F1C-9B97-18B4E20656F5}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{EC871A3B-D47B-42A6-8C8E-E674590CF2DB}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{BAE9AE14-63B2-42E9-AC78-7DF1BDFA89BC}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{174BDB31-740A-4CEA-9F08-9029F80FB932}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{01A5426B-7FED-47A4-93E1-548152605274}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{0FA304B2-6F7A-4322-AC5D-A411331DD22D}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{A18C2072-C2EF-4445-BDF2-1512EB301361}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{BE301B22-F029-485B-89A8-488C390F3B44}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{D6AD930E-D338-4A42-A171-D266D0FB77F4}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{7F8F4517-3B13-4386-A586-C539C0BE25EE}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{8F828FEF-AF87-454D-AD39-08E81F2547F3}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{3C05A1B2-FA76-4097-B966-2841B331AEB0}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{4B5218E2-DBCD-4D36-90F0-D9EA1CDB85D8}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{A1729390-7E92-46FF-B278-EF08D0F6F829}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{821575E1-15FD-4AFB-8836-9D69D2949FBA}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{EDAFD72C-42CD-4997-9D83-491177056019}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{48AED077-5CA4-46CC-9D3C-2FA08CE2D394}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{67661691-2537-4C2F-AAA4-00B2923AA67F}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{5F338211-E22E-4092-A064-2899C36D5A2F}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{A15C0B3B-C5B3-4190-8A25-4494437DAF79}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{7C9D897D-2852-453D-9033-C0CE1DCE7F92}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{BBDE2A95-F05B-49A5-8720-B58F5C777445}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{62682396-36CA-49C6-A29C-759238624478}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{029861BD-643D-4FD0-82A9-ED5FBF3DF570}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{97D37815-6452-4A60-B17A-F5D0831E0D8E}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{067BFC71-FB90-4DEC-BA6C-12E981981A55}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{51047CA2-5946-447F-997B-67783E6F07CC}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{534A24A0-FEBE-4A87-A072-D908D0CC0279}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{06E5DF6D-AB86-4F12-A9A9-F29A1585D318}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{5A390250-2C7A-425E-A352-17ED052C9A39}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{73A446A5-AE81-4793-8C84-484E9193A6AC}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{63946DA8-C93A-401A-A28D-BA059F1F2748}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{416A0D2E-0538-4087-9A10-7C208C9EBB64}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{0EE72A77-FC47-4AFE-B985-03C62FF5EDFF}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{D36D6111-50C6-4084-9BDD-269DABE4F17F}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{FDDDEBD6-59C7-4B35-ABE6-9C9C2A1E7C2D}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{9F61EF05-C85C-4810-BF86-42E403E5A687}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{3183D2AE-635C-4573-A3BE-D71D014D83D8}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{EEC9730B-ED3D-48FD-BF8E-FFC7902FD12B}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{F578CE3F-7346-4223-832D-FD4F9FAB07AE}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{96BC3763-9636-4D03-9463-36071086DB38}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{05885682-F9F8-4490-821E-5AB1774B3A8E}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{015B598A-9FC4-4034-B01A-514D97EFA45A}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{A62F744D-8DAD-4D9A-BD46-E5BA5AD1BD87}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{E9530068-7739-404E-93EC-3D85ECF76088}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{67F71F81-2DD8-438A-8366-39D24B7187ED}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{F4CE9BA1-CDCA-4E7A-AB86-AB95C6C8A9FB}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{323975B9-EDC9-4ADA-96E4-6C332DBF81D7}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{74F80B61-A052-42F0-8C07-794D9399B6FF}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{B6CCF8EB-B3E0-40A7-98FD-AA0C8DDC25AD}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{3076C9AC-327C-44F1-B376-DAC97E84608C}"/>
-    <hyperlink ref="M183" r:id="rId170" xr:uid="{2747D618-17C6-4E27-BDA1-6214AAEF63EF}"/>
-    <hyperlink ref="M68" r:id="rId171" xr:uid="{DA41B060-23FA-44BF-A867-F0191442F117}"/>
-    <hyperlink ref="M8" r:id="rId172" xr:uid="{61AD736B-AE9B-4F34-9022-0444C54C9D53}"/>
-    <hyperlink ref="M266" r:id="rId173" xr:uid="{47B7BB10-C935-4942-B04F-94EC07498741}"/>
-    <hyperlink ref="M268" r:id="rId174" xr:uid="{7DA5EAE8-1E09-4590-BF7B-D6416E67F83B}"/>
-    <hyperlink ref="M267" r:id="rId175" xr:uid="{06992984-6C13-4AC7-87C3-48B56556B480}"/>
-    <hyperlink ref="M269" r:id="rId176" xr:uid="{994B42D3-C817-420A-BAD1-51DBB6E9407D}"/>
-    <hyperlink ref="M272" r:id="rId177" xr:uid="{3D7D2D56-31ED-46BA-8D54-94CB594BF7C6}"/>
-    <hyperlink ref="M274" r:id="rId178" xr:uid="{88587802-0105-4C54-AC4D-E979B1187B10}"/>
-    <hyperlink ref="M275" r:id="rId179" xr:uid="{3D14B7F6-890C-4F80-8B58-732D172B1625}"/>
-    <hyperlink ref="M276" r:id="rId180" xr:uid="{1A57EE10-8327-4478-8393-3146C709BE44}"/>
-    <hyperlink ref="M277" r:id="rId181" xr:uid="{C9DFE39B-493E-49BD-B369-1BE3861360F5}"/>
-    <hyperlink ref="M280" r:id="rId182" xr:uid="{9DC59772-1D06-4532-8402-74F2B192EC6A}"/>
-    <hyperlink ref="M270" r:id="rId183" xr:uid="{1FEA985D-36E1-4321-8216-B0E16AADF224}"/>
-    <hyperlink ref="M271" r:id="rId184" xr:uid="{D0CD8B88-46E3-419E-9FC0-A6D4E32F0B8E}"/>
-    <hyperlink ref="M60" r:id="rId185" xr:uid="{B3F59A5D-67CF-4F3A-8820-09F9CF32051C}"/>
-    <hyperlink ref="M98" r:id="rId186" xr:uid="{C6205911-50D2-467A-B370-0D24F7131923}"/>
-    <hyperlink ref="M125" r:id="rId187" xr:uid="{D3B3068B-7767-48E3-B49B-0E58F9C75A97}"/>
-    <hyperlink ref="M70" r:id="rId188" xr:uid="{3AD34B3F-8C26-43FE-8098-709F76ECE115}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{9A9CD9CD-8989-49D8-B04F-EB029FD882E6}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{87712561-C55D-4DF3-A1F2-0563F68B8B5D}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{8CF85B91-5513-4B01-9CCA-14A567AE123A}"/>
+    <hyperlink ref="M25" r:id="rId4" xr:uid="{7FA8FB84-04B9-4B80-8E32-7AA5F07B2DBC}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{8DCBFB17-B7B3-482D-98B5-46D422882C3C}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{A2573824-4046-4110-B515-15C89593C9A2}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{643405EA-490D-4172-AE7E-2486D4BD01E6}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{925A6627-6FD6-46C9-A935-331CA4A9D774}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{6CF976E2-E66D-4DE8-8F78-6043405F6ACA}"/>
+    <hyperlink ref="M31" r:id="rId10" xr:uid="{156A21D9-DD61-499B-9E91-F6B2A123CC35}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{D3C4252F-86D4-48B8-A7F7-0C1552257A17}"/>
+    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{2C58D20E-D52A-463C-B638-4FFFBCC77354}"/>
+    <hyperlink ref="M34" r:id="rId13" xr:uid="{A01A3534-EF45-4DD4-B2E4-E0329B7512B7}"/>
+    <hyperlink ref="M35" r:id="rId14" xr:uid="{FA3CC32B-38F8-45EA-95CC-5011AD96487B}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{BCACC2D1-D5B3-4DE2-A215-7CCF7380F26D}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{B1B70C89-C5C5-4EBF-A479-AD0679D7440F}"/>
+    <hyperlink ref="M42" r:id="rId17" xr:uid="{5A6BED12-74FD-424D-82AB-31684F8286DF}"/>
+    <hyperlink ref="M43" r:id="rId18" xr:uid="{6A874A63-0DA0-4E7B-9F2F-F98D0C217B83}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{A860FF0D-4DEF-44FE-89DF-B2E975CDEBFE}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{6E3C3E07-84DF-4BC4-97DE-D9978B2459D1}"/>
+    <hyperlink ref="M55" r:id="rId21" xr:uid="{8A76ADA7-70BE-44E1-BD17-93E26370DD32}"/>
+    <hyperlink ref="M56" r:id="rId22" xr:uid="{5048937E-13AC-4079-AD55-14BE8B682C5D}"/>
+    <hyperlink ref="M57" r:id="rId23" xr:uid="{373C0574-75AC-493E-941A-3A64543DF17A}"/>
+    <hyperlink ref="M58" r:id="rId24" xr:uid="{C693F8A4-984C-41D4-B8CD-CE62EF5AFA18}"/>
+    <hyperlink ref="M59" r:id="rId25" xr:uid="{43A30510-EA3A-4E9E-8E0F-16648C142831}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{780E9352-6BD0-44F7-9AC7-E2CDDD324B7A}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{A9BD0290-EF92-4C15-8828-4F2BADE7F7A8}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{49B313BD-4774-4810-BE29-980C89724F2A}"/>
+    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{C2960067-00D2-4E74-93B2-AD78FCAFC7CA}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{1D033B3A-237F-4345-8F62-E9ADF9DEB1F2}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{17A1FEC1-A6AD-4F2F-BC6D-C6F9443B0649}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{7E083A6C-FB75-4B98-AF02-A412FA797EAF}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{2FB53B5A-BD04-4C37-BA95-4E8ACECA1AD9}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{F6E778A1-B211-48D3-8512-0C8CF877CC04}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{42605DBB-C1D4-4CCB-842A-A64DF6132561}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{C3BF4349-FE10-4354-B1B0-8DF22F9DEA7F}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{9D932648-B6AF-4C3F-AB2A-FBB97FFE73BE}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{A355F700-BA48-4F97-8F95-D7A584636CC0}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{2A8174B0-A4BB-4CD7-BAEE-5D5352825A82}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{DA1DACD7-B28F-4E14-ACED-B6DC10F71303}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{1ECACCD7-E0B6-40EF-AC3A-383876E5EA3B}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{92EA58D9-9B2A-4ADB-8A34-5C257D9E19B2}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{A9BB2B8F-DF15-4021-BDA5-FC4B4A648B3B}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{D5C8D733-FD5B-4C65-98ED-0B8219364D15}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{095F54F9-8F1D-40CF-BA14-CDCBAB66A6A7}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{A89B852C-7BC8-4D10-9E38-576613BCCBA4}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{C3EAE7E4-9C59-42D5-9C01-7181724B129D}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{2B251322-CB45-4080-9ECB-D693AD680E07}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{A86E25DF-7391-44CC-AF25-C16362089D8F}"/>
+    <hyperlink ref="M53" r:id="rId50" xr:uid="{D62288D4-61A7-4E5E-884C-85476CC5E81F}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{9C5B695D-2BAB-4A97-9FFB-8B606C8CC3B0}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{C8DD77BA-3016-4CAB-9617-CE9CF80A9818}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{33FBD2F1-72A1-4E88-9BE1-7599A1A5B460}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{94B0F755-7CBD-4D85-9C21-F5DD32F92A99}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{F613D37F-0A00-4065-A7DB-028B8E569127}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{AD6A0767-4499-4A11-AB51-193483BE8070}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{F91C5E4D-7988-4AC3-AD25-5A879D891E66}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{4E426A4B-8C5B-4616-87A3-343BD66C4693}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{F165EF8B-6409-4B65-AE02-417D9CA7709C}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{FBA9B24B-E928-4F2A-B63E-32FB89DEC107}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{C16EA40E-84D7-4646-B276-6B6F24C24F7C}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{2107C38F-2774-4F85-A4BD-AD7D16D11BDF}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{C6664859-6B75-4A9D-85EC-4D7FE9234735}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{8375BB33-C4D9-4AF2-B21B-74AB61B76007}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{3F3C7003-AC56-4FA8-836A-1CB65CA34C35}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{34E09AC6-3449-43D3-9528-1886991B1BF4}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{9AEBC953-E101-4B24-886A-89548D948CD5}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{185A10B1-52BD-47F7-8499-E9F92BE2D2B8}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{E41DA53B-174C-4F94-960B-A385B16181C5}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{E53E6D00-20B0-4B16-AD06-A30C8FB65382}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{F4EF6390-D6ED-432C-9E93-8CEC91667149}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{8203A0FA-8BBD-49D5-9DFE-6C46F9ACC319}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{BC2DAEAB-D7E8-43C0-A1AC-C56F0D6391B9}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{781B6602-6A66-44F1-A42C-6AA0F8DB1906}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{E4C87274-7DF7-425C-B9E4-42495CE5E033}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{F3480CF8-2951-44BD-9CB3-924D109864B5}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{9D58CB59-8C7B-4864-8691-36ADB0A2C5A3}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{CC9C7C17-5C21-46B6-9AB7-91B6CCE91051}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{28046EF2-AFFB-4024-AAC9-C2C21328D169}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{D0F8904F-132E-42F4-B4A1-7D626C2C98AB}"/>
+    <hyperlink ref="M93" r:id="rId81" xr:uid="{E2FDCCFF-E9FC-4784-919F-35E2CC44E70F}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{7EF186DC-CD74-445B-A63A-827A7650EE09}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{EC22D56A-AC62-43FD-9B0A-F2A06384D010}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{FF082254-EB91-4609-B237-1DF7E34CCC54}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{D14C5203-58AD-4DEC-88E3-331F45B9D26B}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{9100D646-2BA5-4D1F-AB0E-BD86820BB45F}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{A4ACD7F8-ED4A-4A14-89B0-7E42444ADDC3}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{F2813897-7A6C-4FA8-A6FB-5AAA7399CDA2}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{9F351AE5-5A41-473A-B6C9-9F83DD36797C}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{0B1A6C7E-15FD-48E1-A431-09C045D8E8CD}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{46170050-6679-4A41-8D8C-84E95C51C76E}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{FBF76183-1CA6-41AF-A0A4-DCC1AB84959A}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{75BBBD3B-6D71-4F0D-B868-FEB626D794E6}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{147D6EA1-53FC-4676-95F0-0D0D549F4CED}"/>
+    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{32FEF9F5-9DA9-4817-88F8-7CAA7E6E1CD2}"/>
+    <hyperlink ref="M38" r:id="rId96" xr:uid="{7A8F5BAE-EFBC-4B90-A886-0E2B87978D7B}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{B62BF203-C760-49AF-9917-90A964612185}"/>
+    <hyperlink ref="M91" r:id="rId98" xr:uid="{E09011BC-80C8-4B66-B5F9-5BF6CF54A900}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{AF2A8667-0AB1-4D95-B30E-B5B87E982BD0}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{08AC4417-4FF6-4EA4-88D8-134070579877}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{A03B47E0-E4DF-4C18-8913-7A672A22D9C9}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{9BA8DFEC-B6A4-423C-933D-55E5B5091818}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{92831892-3739-452E-BF50-4B1A039A0C34}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{0972A701-9B35-4A3F-A413-886905E74DEA}"/>
+    <hyperlink ref="M41" r:id="rId105" xr:uid="{8D6EADB8-1039-49A7-9F09-45EEDB97AD67}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{696AA6BC-CED0-47E0-B693-8029CEDC1EE8}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{15EE2ADF-B67D-4107-BADB-6FE53F9A6DD7}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{AA6ACD0E-8C0B-4B6B-B740-C13DDDF39A44}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{0AFD87BC-7DE3-49D5-A69F-2E28332B2328}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{2304972F-94BF-4EEF-9021-1D0ED9E23211}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{F21FD6E1-8CE4-4E33-AC26-C640A5E79FAC}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{E4829662-BF68-4289-A99D-088DE138BF1D}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{AE595F6D-AA84-4CD7-9DEB-F6D7D44AE5B6}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{BD823A8A-E5A0-48B8-AF1C-8B445E3D7EDB}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{911E150F-6520-4F56-B252-484AAEA2D62B}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{63FAA9E4-99FF-43D1-BA60-267FE5A331EC}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{2EC93F97-7D74-472B-993F-E0B5BDD5754D}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{338F1101-853E-48EC-8E8D-2B49CA21CA59}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{3A1ADB8A-2521-4C1B-831A-6F5767B136FF}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{648AED8D-5EC6-4788-8104-0643A2ADEF80}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{B7B537E6-9880-442B-ADD0-5502D1FDD0AE}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{5081ECD0-B48A-4602-A32D-CE94E43F4486}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{01436851-C9BC-4FA8-8607-5D8B12E20356}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{02991E14-E091-41A7-B088-41C493F3D7FB}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{AF9466AF-74C6-4065-A6BA-36BF46A36951}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{9F96FAC2-DBBE-4230-8818-FB07D14EC6F8}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{54F10331-0F3D-47CA-8036-DDD28D2E5B37}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{B130A8E7-985B-47AD-A73A-0F3EE7ADA247}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{D57BAFFB-3203-4369-8B09-BF156DE9E46A}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{7E15E8EC-0275-4C1F-B848-BA9533D8FC2B}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{26804C15-9FB1-4AE0-9DBD-263372D1C457}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{20AE4580-18B6-4478-8841-BB18896B54B7}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{C8B13609-C06E-4A88-B3F7-C5F959E07A90}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{FAFFD81F-B36E-404C-B2CE-F825066D64A4}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{DB2A9250-7FDA-40D1-AD91-890A55765B98}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{15AE3882-FB60-442C-A438-B5C6AEDCC859}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{786F4AE5-F4D8-4C38-A891-852BB12ADFC6}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{0FD3D8D2-5914-486A-A949-B4FE9B39ED45}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{BBF49488-6571-4EC8-B07F-A7407B862B6D}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{F7163218-4C6F-4B77-A2CC-CBA3F68CB31D}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{A4861E65-19C7-4A33-8D56-881C1670402D}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{48728431-12FB-4621-A1F8-BF0F4AC8EBBD}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{9497D1E9-FE4C-4231-9D22-0FA5F5FF8226}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{F5F58BEB-C756-47E7-B33F-BE1B11D8F5FC}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{128981C7-0AA3-4B24-8EA9-B68073140AC7}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{DDF376DD-EFCD-4AB3-A6B6-3AE836CB54ED}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{A57F4FF1-2AE0-4B30-88CE-5402E7D2C34B}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{F597B2A4-80C9-41A6-8A21-0ABECDA5A72B}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{7CA58406-3BAC-487C-BF1E-5432B4D3B139}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{AF961A69-78C0-4641-A60F-5F97B9952D78}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{53C71BA9-3AD6-4BB4-B599-E31DCF1622D0}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{76C48766-98BA-4BC5-AFE4-50513D06893B}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{698B178B-8EA3-4725-81BB-25F839311377}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{B306F620-131C-4C9A-81FD-5CAA68E2BEC1}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{28477F0F-3324-442E-938D-BC77A883DE47}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{BA036133-58F9-49BE-8EE2-469A79480A16}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{FFA56031-948A-4233-908F-19C804186644}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{52082631-9FF4-4A9E-B751-BC45082A9A2F}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{4E05F683-D06B-47F5-B4A0-B4D31D79FAAB}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{572F7E53-5AA2-4D59-8CAE-1B2A7036FDE0}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{B34B399E-B4B0-46A5-9B40-AAB65B0A1EFE}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{424D6141-94D6-4ACE-A7AD-BE022F6AF9B5}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{42F3921A-DE52-4924-9948-E424836CFF22}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{0B891F31-7A69-4211-ACBC-723D4C125546}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{47908607-FCC1-4B81-AFAD-2F57AFC20C81}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{66057A30-DD77-4EB0-9FDD-403545802729}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{2CF7164C-8D79-4F8F-A622-0390197D3D75}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{AC2E66CC-F8B9-43AB-84DA-DEAB2B20A348}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{18075BCD-1A80-4270-ADDC-362B03579A29}"/>
+    <hyperlink ref="M183" r:id="rId170" xr:uid="{252A78D8-AE06-4369-8FE5-ED221647C65C}"/>
+    <hyperlink ref="M68" r:id="rId171" xr:uid="{80577EC7-37AA-4FFB-A5B1-F0FFFB954387}"/>
+    <hyperlink ref="M8" r:id="rId172" xr:uid="{7C483880-1BA6-44E0-8C89-2679A077A8A1}"/>
+    <hyperlink ref="M266" r:id="rId173" xr:uid="{23128A70-A5E0-4337-BC9B-1DBB84429CEA}"/>
+    <hyperlink ref="M268" r:id="rId174" xr:uid="{64002476-6774-47C1-9AA8-1890F4FC2966}"/>
+    <hyperlink ref="M267" r:id="rId175" xr:uid="{B0731427-CEF6-4FCD-822C-89028E9D1ECF}"/>
+    <hyperlink ref="M269" r:id="rId176" xr:uid="{BEDFD95A-2856-4A2B-8F38-4E137A6DFCB7}"/>
+    <hyperlink ref="M272" r:id="rId177" xr:uid="{5EC890A2-E43C-4B6F-BC4E-9EAB10C68893}"/>
+    <hyperlink ref="M274" r:id="rId178" xr:uid="{9DABB553-D1DD-4629-9B44-8104B3E4FA1F}"/>
+    <hyperlink ref="M275" r:id="rId179" xr:uid="{B96ED231-D443-42FB-937D-86805B625907}"/>
+    <hyperlink ref="M276" r:id="rId180" xr:uid="{0E2CCA7C-A86B-4026-A4F8-D5A203B7445E}"/>
+    <hyperlink ref="M277" r:id="rId181" xr:uid="{7E3D838E-7831-48DC-BBF0-6B30464D60CD}"/>
+    <hyperlink ref="M280" r:id="rId182" xr:uid="{73239A88-63FC-4D21-B4CA-2AE6FBB4064B}"/>
+    <hyperlink ref="M270" r:id="rId183" xr:uid="{E2C1CE7D-0577-46DA-B08B-74AC1F1342DE}"/>
+    <hyperlink ref="M271" r:id="rId184" xr:uid="{62A04D58-693A-41E7-9E31-97D1834607DB}"/>
+    <hyperlink ref="M60" r:id="rId185" xr:uid="{F6B3BDE7-9D36-46C4-B61D-EE896F5C352B}"/>
+    <hyperlink ref="M98" r:id="rId186" xr:uid="{C1707BED-6F12-4EED-AA06-C5622DBF4287}"/>
+    <hyperlink ref="M125" r:id="rId187" xr:uid="{B4EE768F-B621-4167-A5BB-59B842D4068E}"/>
+    <hyperlink ref="M70" r:id="rId188" xr:uid="{3DD92A78-7C6A-4486-B403-6EBA187965F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId189"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2307A-CBDE-4075-B0D3-A49F8EBC26D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009F1F4-CFB8-4A7D-B98B-131FC1ED17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
@@ -4106,7 +4106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4211,12 +4211,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4431,7 +4425,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{CFDE625C-6074-4B64-A6A2-99F4C9AD683F}"/>
@@ -4772,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
   <dimension ref="A1:BJ296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AP211" sqref="AP211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009F1F4-CFB8-4A7D-B98B-131FC1ED17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0455A2CA-1DD6-49D4-B20F-CB4D18EF23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="1287">
   <si>
     <t>Nr.</t>
   </si>
@@ -4098,6 +4098,36 @@
   <si>
     <t>xdh</t>
   </si>
+  <si>
+    <t>Combi01</t>
+  </si>
+  <si>
+    <t>Combi02</t>
+  </si>
+  <si>
+    <t>Combi03</t>
+  </si>
+  <si>
+    <t>Combi04</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+  </si>
+  <si>
+    <t>xxxxxxx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
 </sst>
 </file>
 
@@ -4106,7 +4136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4217,6 +4247,12 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4288,7 +4324,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4426,6 +4462,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{CFDE625C-6074-4B64-A6A2-99F4C9AD683F}"/>
@@ -4453,9 +4490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4493,7 +4530,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4599,7 +4636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4741,7 +4778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4764,15 +4801,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
-  <dimension ref="A1:BJ296"/>
+  <dimension ref="A1:BN296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AP211" sqref="AP211"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BL3" sqref="BL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:62" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4959,8 +4996,20 @@
       <c r="BJ1" s="1" t="s">
         <v>1142</v>
       </c>
+      <c r="BK1" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>1280</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5065,8 +5114,12 @@
       <c r="BH2" s="10"/>
       <c r="BI2" s="10"/>
       <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
     </row>
-    <row r="3" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5171,8 +5224,12 @@
       <c r="BH3" s="19"/>
       <c r="BI3" s="19"/>
       <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
     </row>
-    <row r="4" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5277,8 +5334,12 @@
       <c r="BH4" s="10"/>
       <c r="BI4" s="10"/>
       <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
     </row>
-    <row r="5" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5385,8 +5446,12 @@
       <c r="BH5" s="19"/>
       <c r="BI5" s="19"/>
       <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
     </row>
-    <row r="6" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -5491,8 +5556,12 @@
       <c r="BH6" s="10"/>
       <c r="BI6" s="10"/>
       <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
     </row>
-    <row r="7" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -5597,8 +5666,12 @@
       <c r="BH7" s="19"/>
       <c r="BI7" s="19"/>
       <c r="BJ7" s="19"/>
+      <c r="BK7" s="19"/>
+      <c r="BL7" s="19"/>
+      <c r="BM7" s="19"/>
+      <c r="BN7" s="19"/>
     </row>
-    <row r="8" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -5701,8 +5774,12 @@
       <c r="BH8" s="10"/>
       <c r="BI8" s="10"/>
       <c r="BJ8" s="10"/>
+      <c r="BK8" s="10"/>
+      <c r="BL8" s="10"/>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="10"/>
     </row>
-    <row r="9" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>9</v>
       </c>
@@ -5805,8 +5882,12 @@
       <c r="BH9" s="19"/>
       <c r="BI9" s="19"/>
       <c r="BJ9" s="19"/>
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19"/>
     </row>
-    <row r="10" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>10</v>
       </c>
@@ -5911,8 +5992,12 @@
       <c r="BH10" s="10"/>
       <c r="BI10" s="10"/>
       <c r="BJ10" s="10"/>
+      <c r="BK10" s="10"/>
+      <c r="BL10" s="10"/>
+      <c r="BM10" s="10"/>
+      <c r="BN10" s="10"/>
     </row>
-    <row r="11" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>11</v>
       </c>
@@ -6015,8 +6100,12 @@
       <c r="BH11" s="19"/>
       <c r="BI11" s="19"/>
       <c r="BJ11" s="19"/>
+      <c r="BK11" s="19"/>
+      <c r="BL11" s="19"/>
+      <c r="BM11" s="19"/>
+      <c r="BN11" s="19"/>
     </row>
-    <row r="12" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -6125,8 +6214,12 @@
       <c r="BH12" s="10"/>
       <c r="BI12" s="10"/>
       <c r="BJ12" s="10"/>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="10"/>
+      <c r="BM12" s="10"/>
+      <c r="BN12" s="10"/>
     </row>
-    <row r="13" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>13</v>
       </c>
@@ -6235,8 +6328,12 @@
       <c r="BH13" s="19"/>
       <c r="BI13" s="19"/>
       <c r="BJ13" s="19"/>
+      <c r="BK13" s="19"/>
+      <c r="BL13" s="19"/>
+      <c r="BM13" s="19"/>
+      <c r="BN13" s="19"/>
     </row>
-    <row r="14" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>14</v>
       </c>
@@ -6341,8 +6438,12 @@
       <c r="BH14" s="10"/>
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="10"/>
+      <c r="BM14" s="10"/>
+      <c r="BN14" s="10"/>
     </row>
-    <row r="15" spans="1:62" ht="255" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -6445,8 +6546,12 @@
       <c r="BH15" s="19"/>
       <c r="BI15" s="19"/>
       <c r="BJ15" s="19"/>
+      <c r="BK15" s="19"/>
+      <c r="BL15" s="19"/>
+      <c r="BM15" s="19"/>
+      <c r="BN15" s="19"/>
     </row>
-    <row r="16" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>16</v>
       </c>
@@ -6549,8 +6654,12 @@
       <c r="BH16" s="10"/>
       <c r="BI16" s="10"/>
       <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
     </row>
-    <row r="17" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -6657,8 +6766,12 @@
       <c r="BH17" s="19"/>
       <c r="BI17" s="19"/>
       <c r="BJ17" s="19"/>
+      <c r="BK17" s="19"/>
+      <c r="BL17" s="19"/>
+      <c r="BM17" s="19"/>
+      <c r="BN17" s="19"/>
     </row>
-    <row r="18" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>19</v>
       </c>
@@ -6767,8 +6880,12 @@
       <c r="BH18" s="10"/>
       <c r="BI18" s="10"/>
       <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="10"/>
+      <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
     </row>
-    <row r="19" spans="1:62" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>20</v>
       </c>
@@ -6871,8 +6988,12 @@
       <c r="BH19" s="19"/>
       <c r="BI19" s="19"/>
       <c r="BJ19" s="19"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="19"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="19"/>
     </row>
-    <row r="20" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>21</v>
       </c>
@@ -6975,8 +7096,12 @@
       <c r="BH20" s="10"/>
       <c r="BI20" s="10"/>
       <c r="BJ20" s="10"/>
+      <c r="BK20" s="10"/>
+      <c r="BL20" s="10"/>
+      <c r="BM20" s="10"/>
+      <c r="BN20" s="10"/>
     </row>
-    <row r="21" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>22</v>
       </c>
@@ -7081,8 +7206,12 @@
       <c r="BH21" s="19"/>
       <c r="BI21" s="19"/>
       <c r="BJ21" s="19"/>
+      <c r="BK21" s="19"/>
+      <c r="BL21" s="19"/>
+      <c r="BM21" s="19"/>
+      <c r="BN21" s="19"/>
     </row>
-    <row r="22" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>24</v>
       </c>
@@ -7191,8 +7320,12 @@
       <c r="BH22" s="10"/>
       <c r="BI22" s="10"/>
       <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
+      <c r="BL22" s="10"/>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
     </row>
-    <row r="23" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>26</v>
       </c>
@@ -7301,8 +7434,12 @@
       <c r="BH23" s="19"/>
       <c r="BI23" s="19"/>
       <c r="BJ23" s="19"/>
+      <c r="BK23" s="19"/>
+      <c r="BL23" s="19"/>
+      <c r="BM23" s="19"/>
+      <c r="BN23" s="19"/>
     </row>
-    <row r="24" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>27</v>
       </c>
@@ -7409,8 +7546,12 @@
       <c r="BH24" s="10"/>
       <c r="BI24" s="10"/>
       <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="10"/>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
     </row>
-    <row r="25" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>28</v>
       </c>
@@ -7513,8 +7654,12 @@
       <c r="BH25" s="19"/>
       <c r="BI25" s="19"/>
       <c r="BJ25" s="19"/>
+      <c r="BK25" s="19"/>
+      <c r="BL25" s="19"/>
+      <c r="BM25" s="19"/>
+      <c r="BN25" s="19"/>
     </row>
-    <row r="26" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>29</v>
       </c>
@@ -7619,8 +7764,12 @@
       <c r="BH26" s="10"/>
       <c r="BI26" s="10"/>
       <c r="BJ26" s="10"/>
+      <c r="BK26" s="10"/>
+      <c r="BL26" s="10"/>
+      <c r="BM26" s="10"/>
+      <c r="BN26" s="10"/>
     </row>
-    <row r="27" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>30</v>
       </c>
@@ -7723,8 +7872,12 @@
       <c r="BH27" s="19"/>
       <c r="BI27" s="19"/>
       <c r="BJ27" s="19"/>
+      <c r="BK27" s="19"/>
+      <c r="BL27" s="19"/>
+      <c r="BM27" s="19"/>
+      <c r="BN27" s="19"/>
     </row>
-    <row r="28" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>31</v>
       </c>
@@ -7829,8 +7982,12 @@
       <c r="BH28" s="10"/>
       <c r="BI28" s="10"/>
       <c r="BJ28" s="10"/>
+      <c r="BK28" s="10"/>
+      <c r="BL28" s="10"/>
+      <c r="BM28" s="10"/>
+      <c r="BN28" s="10"/>
     </row>
-    <row r="29" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>32</v>
       </c>
@@ -7933,8 +8090,12 @@
       <c r="BH29" s="19"/>
       <c r="BI29" s="19"/>
       <c r="BJ29" s="19"/>
+      <c r="BK29" s="19"/>
+      <c r="BL29" s="19"/>
+      <c r="BM29" s="19"/>
+      <c r="BN29" s="19"/>
     </row>
-    <row r="30" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>33</v>
       </c>
@@ -8039,8 +8200,12 @@
       <c r="BH30" s="10"/>
       <c r="BI30" s="10"/>
       <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
     </row>
-    <row r="31" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>34</v>
       </c>
@@ -8143,8 +8308,12 @@
       <c r="BH31" s="19"/>
       <c r="BI31" s="19"/>
       <c r="BJ31" s="19"/>
+      <c r="BK31" s="19"/>
+      <c r="BL31" s="19"/>
+      <c r="BM31" s="19"/>
+      <c r="BN31" s="19"/>
     </row>
-    <row r="32" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>35</v>
       </c>
@@ -8251,8 +8420,12 @@
       <c r="BH32" s="10"/>
       <c r="BI32" s="10"/>
       <c r="BJ32" s="10"/>
+      <c r="BK32" s="10"/>
+      <c r="BL32" s="10"/>
+      <c r="BM32" s="10"/>
+      <c r="BN32" s="10"/>
     </row>
-    <row r="33" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>36</v>
       </c>
@@ -8355,8 +8528,12 @@
       <c r="BH33" s="19"/>
       <c r="BI33" s="19"/>
       <c r="BJ33" s="19"/>
+      <c r="BK33" s="19"/>
+      <c r="BL33" s="19"/>
+      <c r="BM33" s="19"/>
+      <c r="BN33" s="19"/>
     </row>
-    <row r="34" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>37</v>
       </c>
@@ -8459,8 +8636,12 @@
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
     </row>
-    <row r="35" spans="1:62" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>38</v>
       </c>
@@ -8565,8 +8746,12 @@
       <c r="BH35" s="19"/>
       <c r="BI35" s="19"/>
       <c r="BJ35" s="19"/>
+      <c r="BK35" s="19"/>
+      <c r="BL35" s="19"/>
+      <c r="BM35" s="19"/>
+      <c r="BN35" s="19"/>
     </row>
-    <row r="36" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>39</v>
       </c>
@@ -8675,8 +8860,12 @@
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
+      <c r="BK36" s="10"/>
+      <c r="BL36" s="10"/>
+      <c r="BM36" s="10"/>
+      <c r="BN36" s="10"/>
     </row>
-    <row r="37" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>40</v>
       </c>
@@ -8779,8 +8968,12 @@
       <c r="BH37" s="19"/>
       <c r="BI37" s="19"/>
       <c r="BJ37" s="19"/>
+      <c r="BK37" s="19"/>
+      <c r="BL37" s="19"/>
+      <c r="BM37" s="19"/>
+      <c r="BN37" s="19"/>
     </row>
-    <row r="38" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>41</v>
       </c>
@@ -8883,8 +9076,12 @@
       <c r="BH38" s="10"/>
       <c r="BI38" s="10"/>
       <c r="BJ38" s="10"/>
+      <c r="BK38" s="10"/>
+      <c r="BL38" s="10"/>
+      <c r="BM38" s="10"/>
+      <c r="BN38" s="10"/>
     </row>
-    <row r="39" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>42</v>
       </c>
@@ -8991,8 +9188,12 @@
       <c r="BH39" s="19"/>
       <c r="BI39" s="19"/>
       <c r="BJ39" s="19"/>
+      <c r="BK39" s="19"/>
+      <c r="BL39" s="19"/>
+      <c r="BM39" s="19"/>
+      <c r="BN39" s="19"/>
     </row>
-    <row r="40" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43</v>
       </c>
@@ -9095,8 +9296,12 @@
       <c r="BH40" s="10"/>
       <c r="BI40" s="10"/>
       <c r="BJ40" s="10"/>
+      <c r="BK40" s="10"/>
+      <c r="BL40" s="10"/>
+      <c r="BM40" s="10"/>
+      <c r="BN40" s="10"/>
     </row>
-    <row r="41" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>44</v>
       </c>
@@ -9199,8 +9404,12 @@
       <c r="BH41" s="19"/>
       <c r="BI41" s="19"/>
       <c r="BJ41" s="19"/>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="19"/>
+      <c r="BM41" s="19"/>
+      <c r="BN41" s="19"/>
     </row>
-    <row r="42" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>45</v>
       </c>
@@ -9303,8 +9512,12 @@
       <c r="BH42" s="10"/>
       <c r="BI42" s="10"/>
       <c r="BJ42" s="10"/>
+      <c r="BK42" s="10"/>
+      <c r="BL42" s="10"/>
+      <c r="BM42" s="10"/>
+      <c r="BN42" s="10"/>
     </row>
-    <row r="43" spans="1:62" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>46</v>
       </c>
@@ -9409,8 +9622,12 @@
       <c r="BH43" s="19"/>
       <c r="BI43" s="19"/>
       <c r="BJ43" s="19"/>
+      <c r="BK43" s="19"/>
+      <c r="BL43" s="19"/>
+      <c r="BM43" s="19"/>
+      <c r="BN43" s="19"/>
     </row>
-    <row r="44" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>47</v>
       </c>
@@ -9521,8 +9738,14 @@
       <c r="BH44" s="10"/>
       <c r="BI44" s="10"/>
       <c r="BJ44" s="10"/>
+      <c r="BK44" s="10"/>
+      <c r="BL44" s="10" t="s">
+        <v>1281</v>
+      </c>
+      <c r="BM44" s="10"/>
+      <c r="BN44" s="10"/>
     </row>
-    <row r="45" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>48</v>
       </c>
@@ -9625,8 +9848,12 @@
       <c r="BH45" s="19"/>
       <c r="BI45" s="19"/>
       <c r="BJ45" s="19"/>
+      <c r="BK45" s="19"/>
+      <c r="BL45" s="19"/>
+      <c r="BM45" s="19"/>
+      <c r="BN45" s="19"/>
     </row>
-    <row r="46" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>49</v>
       </c>
@@ -9729,8 +9956,12 @@
       <c r="BH46" s="10"/>
       <c r="BI46" s="10"/>
       <c r="BJ46" s="10"/>
+      <c r="BK46" s="10"/>
+      <c r="BL46" s="10"/>
+      <c r="BM46" s="10"/>
+      <c r="BN46" s="10"/>
     </row>
-    <row r="47" spans="1:62" ht="405" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" ht="405" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>50</v>
       </c>
@@ -9837,8 +10068,12 @@
       <c r="BH47" s="19"/>
       <c r="BI47" s="19"/>
       <c r="BJ47" s="19"/>
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="19"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="19"/>
     </row>
-    <row r="48" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>51</v>
       </c>
@@ -9945,8 +10180,12 @@
       <c r="BH48" s="10"/>
       <c r="BI48" s="10"/>
       <c r="BJ48" s="10"/>
+      <c r="BK48" s="10"/>
+      <c r="BL48" s="10"/>
+      <c r="BM48" s="10"/>
+      <c r="BN48" s="10"/>
     </row>
-    <row r="49" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>52</v>
       </c>
@@ -10053,8 +10292,12 @@
       <c r="BH49" s="19"/>
       <c r="BI49" s="19"/>
       <c r="BJ49" s="19"/>
+      <c r="BK49" s="19"/>
+      <c r="BL49" s="19"/>
+      <c r="BM49" s="19"/>
+      <c r="BN49" s="19"/>
     </row>
-    <row r="50" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>53</v>
       </c>
@@ -10163,8 +10406,12 @@
       <c r="BH50" s="10"/>
       <c r="BI50" s="10"/>
       <c r="BJ50" s="10"/>
+      <c r="BK50" s="10"/>
+      <c r="BL50" s="10"/>
+      <c r="BM50" s="10"/>
+      <c r="BN50" s="10"/>
     </row>
-    <row r="51" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>54</v>
       </c>
@@ -10269,8 +10516,12 @@
       <c r="BH51" s="19"/>
       <c r="BI51" s="19"/>
       <c r="BJ51" s="19"/>
+      <c r="BK51" s="19"/>
+      <c r="BL51" s="19"/>
+      <c r="BM51" s="19"/>
+      <c r="BN51" s="19"/>
     </row>
-    <row r="52" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>56</v>
       </c>
@@ -10375,8 +10626,12 @@
       <c r="BH52" s="10"/>
       <c r="BI52" s="10"/>
       <c r="BJ52" s="10"/>
+      <c r="BK52" s="10"/>
+      <c r="BL52" s="10"/>
+      <c r="BM52" s="10"/>
+      <c r="BN52" s="10"/>
     </row>
-    <row r="53" spans="1:62" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>57</v>
       </c>
@@ -10483,8 +10738,12 @@
       <c r="BH53" s="19"/>
       <c r="BI53" s="19"/>
       <c r="BJ53" s="19"/>
+      <c r="BK53" s="19"/>
+      <c r="BL53" s="19"/>
+      <c r="BM53" s="19"/>
+      <c r="BN53" s="19"/>
     </row>
-    <row r="54" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" ht="210" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>69</v>
       </c>
@@ -10587,8 +10846,12 @@
       <c r="BH54" s="10"/>
       <c r="BI54" s="10"/>
       <c r="BJ54" s="10"/>
+      <c r="BK54" s="10"/>
+      <c r="BL54" s="10"/>
+      <c r="BM54" s="10"/>
+      <c r="BN54" s="10"/>
     </row>
-    <row r="55" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>70</v>
       </c>
@@ -10693,8 +10956,12 @@
       <c r="BH55" s="19"/>
       <c r="BI55" s="19"/>
       <c r="BJ55" s="19"/>
+      <c r="BK55" s="19"/>
+      <c r="BL55" s="19"/>
+      <c r="BM55" s="19"/>
+      <c r="BN55" s="19"/>
     </row>
-    <row r="56" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>71</v>
       </c>
@@ -10799,8 +11066,12 @@
       <c r="BH56" s="10"/>
       <c r="BI56" s="10"/>
       <c r="BJ56" s="10"/>
+      <c r="BK56" s="10"/>
+      <c r="BL56" s="10"/>
+      <c r="BM56" s="10"/>
+      <c r="BN56" s="10"/>
     </row>
-    <row r="57" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" ht="210" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>72</v>
       </c>
@@ -10905,8 +11176,12 @@
       <c r="BH57" s="19"/>
       <c r="BI57" s="19"/>
       <c r="BJ57" s="19"/>
+      <c r="BK57" s="19"/>
+      <c r="BL57" s="19"/>
+      <c r="BM57" s="19"/>
+      <c r="BN57" s="19"/>
     </row>
-    <row r="58" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>73</v>
       </c>
@@ -11009,8 +11284,12 @@
       <c r="BH58" s="10"/>
       <c r="BI58" s="10"/>
       <c r="BJ58" s="10"/>
+      <c r="BK58" s="10"/>
+      <c r="BL58" s="10"/>
+      <c r="BM58" s="10"/>
+      <c r="BN58" s="10"/>
     </row>
-    <row r="59" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" ht="240" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>74</v>
       </c>
@@ -11115,8 +11394,12 @@
       <c r="BH59" s="19"/>
       <c r="BI59" s="19"/>
       <c r="BJ59" s="19"/>
+      <c r="BK59" s="19"/>
+      <c r="BL59" s="19"/>
+      <c r="BM59" s="19"/>
+      <c r="BN59" s="19"/>
     </row>
-    <row r="60" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>76</v>
       </c>
@@ -11227,8 +11510,14 @@
         <v>1155</v>
       </c>
       <c r="BJ60" s="10"/>
+      <c r="BK60" s="10"/>
+      <c r="BL60" s="10"/>
+      <c r="BM60" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BN60" s="10"/>
     </row>
-    <row r="61" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>77</v>
       </c>
@@ -11331,8 +11620,12 @@
       <c r="BH61" s="19"/>
       <c r="BI61" s="19"/>
       <c r="BJ61" s="19"/>
+      <c r="BK61" s="19"/>
+      <c r="BL61" s="19"/>
+      <c r="BM61" s="19"/>
+      <c r="BN61" s="19"/>
     </row>
-    <row r="62" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>78</v>
       </c>
@@ -11443,8 +11736,12 @@
       <c r="BH62" s="10"/>
       <c r="BI62" s="10"/>
       <c r="BJ62" s="10"/>
+      <c r="BK62" s="10"/>
+      <c r="BL62" s="10"/>
+      <c r="BM62" s="10"/>
+      <c r="BN62" s="10"/>
     </row>
-    <row r="63" spans="1:62" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>79</v>
       </c>
@@ -11551,8 +11848,12 @@
       <c r="BH63" s="19"/>
       <c r="BI63" s="19"/>
       <c r="BJ63" s="19"/>
+      <c r="BK63" s="19"/>
+      <c r="BL63" s="19"/>
+      <c r="BM63" s="19"/>
+      <c r="BN63" s="19"/>
     </row>
-    <row r="64" spans="1:62" ht="150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>80</v>
       </c>
@@ -11655,8 +11956,12 @@
       <c r="BH64" s="10"/>
       <c r="BI64" s="10"/>
       <c r="BJ64" s="10"/>
+      <c r="BK64" s="10"/>
+      <c r="BL64" s="10"/>
+      <c r="BM64" s="10"/>
+      <c r="BN64" s="10"/>
     </row>
-    <row r="65" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>81</v>
       </c>
@@ -11761,8 +12066,12 @@
       <c r="BH65" s="19"/>
       <c r="BI65" s="19"/>
       <c r="BJ65" s="19"/>
+      <c r="BK65" s="19"/>
+      <c r="BL65" s="19"/>
+      <c r="BM65" s="19"/>
+      <c r="BN65" s="19"/>
     </row>
-    <row r="66" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>83</v>
       </c>
@@ -11869,8 +12178,12 @@
       <c r="BH66" s="10"/>
       <c r="BI66" s="10"/>
       <c r="BJ66" s="10"/>
+      <c r="BK66" s="10"/>
+      <c r="BL66" s="10"/>
+      <c r="BM66" s="10"/>
+      <c r="BN66" s="10"/>
     </row>
-    <row r="67" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" ht="240" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>84</v>
       </c>
@@ -11977,8 +12290,12 @@
       <c r="BH67" s="19"/>
       <c r="BI67" s="19"/>
       <c r="BJ67" s="19"/>
+      <c r="BK67" s="19"/>
+      <c r="BL67" s="19"/>
+      <c r="BM67" s="19"/>
+      <c r="BN67" s="19"/>
     </row>
-    <row r="68" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>86</v>
       </c>
@@ -12081,8 +12398,12 @@
       <c r="BH68" s="10"/>
       <c r="BI68" s="10"/>
       <c r="BJ68" s="10"/>
+      <c r="BK68" s="10"/>
+      <c r="BL68" s="10"/>
+      <c r="BM68" s="10"/>
+      <c r="BN68" s="10"/>
     </row>
-    <row r="69" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>87</v>
       </c>
@@ -12185,8 +12506,12 @@
       <c r="BH69" s="19"/>
       <c r="BI69" s="19"/>
       <c r="BJ69" s="19"/>
+      <c r="BK69" s="19"/>
+      <c r="BL69" s="19"/>
+      <c r="BM69" s="19"/>
+      <c r="BN69" s="19"/>
     </row>
-    <row r="70" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>88</v>
       </c>
@@ -12291,8 +12616,12 @@
       <c r="BH70" s="10"/>
       <c r="BI70" s="10"/>
       <c r="BJ70" s="10"/>
+      <c r="BK70" s="10"/>
+      <c r="BL70" s="10"/>
+      <c r="BM70" s="10"/>
+      <c r="BN70" s="10"/>
     </row>
-    <row r="71" spans="1:62" ht="255" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" ht="255" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>89</v>
       </c>
@@ -12399,8 +12728,12 @@
       <c r="BH71" s="19"/>
       <c r="BI71" s="19"/>
       <c r="BJ71" s="19"/>
+      <c r="BK71" s="19"/>
+      <c r="BL71" s="19"/>
+      <c r="BM71" s="19"/>
+      <c r="BN71" s="19"/>
     </row>
-    <row r="72" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>90</v>
       </c>
@@ -12505,8 +12838,12 @@
       <c r="BH72" s="10"/>
       <c r="BI72" s="10"/>
       <c r="BJ72" s="10"/>
+      <c r="BK72" s="10"/>
+      <c r="BL72" s="10"/>
+      <c r="BM72" s="10"/>
+      <c r="BN72" s="10"/>
     </row>
-    <row r="73" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>91</v>
       </c>
@@ -12609,8 +12946,12 @@
       <c r="BH73" s="19"/>
       <c r="BI73" s="19"/>
       <c r="BJ73" s="19"/>
+      <c r="BK73" s="19"/>
+      <c r="BL73" s="19"/>
+      <c r="BM73" s="19"/>
+      <c r="BN73" s="19"/>
     </row>
-    <row r="74" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>93</v>
       </c>
@@ -12715,8 +13056,12 @@
       <c r="BH74" s="10"/>
       <c r="BI74" s="10"/>
       <c r="BJ74" s="10"/>
+      <c r="BK74" s="10"/>
+      <c r="BL74" s="10"/>
+      <c r="BM74" s="10"/>
+      <c r="BN74" s="10"/>
     </row>
-    <row r="75" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" ht="210" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>94</v>
       </c>
@@ -12823,8 +13168,12 @@
       <c r="BH75" s="19"/>
       <c r="BI75" s="19"/>
       <c r="BJ75" s="19"/>
+      <c r="BK75" s="19"/>
+      <c r="BL75" s="19"/>
+      <c r="BM75" s="19"/>
+      <c r="BN75" s="19"/>
     </row>
-    <row r="76" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>95</v>
       </c>
@@ -12935,8 +13284,12 @@
       <c r="BH76" s="10"/>
       <c r="BI76" s="10"/>
       <c r="BJ76" s="10"/>
+      <c r="BK76" s="10"/>
+      <c r="BL76" s="10"/>
+      <c r="BM76" s="10"/>
+      <c r="BN76" s="10"/>
     </row>
-    <row r="77" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>96</v>
       </c>
@@ -13045,8 +13398,12 @@
       <c r="BH77" s="19"/>
       <c r="BI77" s="19"/>
       <c r="BJ77" s="19"/>
+      <c r="BK77" s="19"/>
+      <c r="BL77" s="19"/>
+      <c r="BM77" s="19"/>
+      <c r="BN77" s="19"/>
     </row>
-    <row r="78" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>97</v>
       </c>
@@ -13155,8 +13512,12 @@
       <c r="BH78" s="10"/>
       <c r="BI78" s="10"/>
       <c r="BJ78" s="10"/>
+      <c r="BK78" s="10"/>
+      <c r="BL78" s="10"/>
+      <c r="BM78" s="10"/>
+      <c r="BN78" s="10"/>
     </row>
-    <row r="79" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>98</v>
       </c>
@@ -13259,8 +13620,12 @@
       <c r="BH79" s="19"/>
       <c r="BI79" s="19"/>
       <c r="BJ79" s="19"/>
+      <c r="BK79" s="19"/>
+      <c r="BL79" s="19"/>
+      <c r="BM79" s="19"/>
+      <c r="BN79" s="19"/>
     </row>
-    <row r="80" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>99</v>
       </c>
@@ -13363,8 +13728,12 @@
       <c r="BH80" s="10"/>
       <c r="BI80" s="10"/>
       <c r="BJ80" s="10"/>
+      <c r="BK80" s="10"/>
+      <c r="BL80" s="10"/>
+      <c r="BM80" s="10"/>
+      <c r="BN80" s="10"/>
     </row>
-    <row r="81" spans="1:62" ht="195" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" ht="195" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>100</v>
       </c>
@@ -13471,8 +13840,12 @@
       <c r="BH81" s="19"/>
       <c r="BI81" s="19"/>
       <c r="BJ81" s="19"/>
+      <c r="BK81" s="19"/>
+      <c r="BL81" s="19"/>
+      <c r="BM81" s="19"/>
+      <c r="BN81" s="19"/>
     </row>
-    <row r="82" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>101</v>
       </c>
@@ -13575,8 +13948,12 @@
       <c r="BH82" s="10"/>
       <c r="BI82" s="10"/>
       <c r="BJ82" s="10"/>
+      <c r="BK82" s="10"/>
+      <c r="BL82" s="10"/>
+      <c r="BM82" s="10"/>
+      <c r="BN82" s="10"/>
     </row>
-    <row r="83" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>102</v>
       </c>
@@ -13683,8 +14060,12 @@
       <c r="BH83" s="19"/>
       <c r="BI83" s="19"/>
       <c r="BJ83" s="19"/>
+      <c r="BK83" s="19"/>
+      <c r="BL83" s="19"/>
+      <c r="BM83" s="19"/>
+      <c r="BN83" s="19"/>
     </row>
-    <row r="84" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>103</v>
       </c>
@@ -13787,8 +14168,12 @@
       <c r="BH84" s="10"/>
       <c r="BI84" s="10"/>
       <c r="BJ84" s="10"/>
+      <c r="BK84" s="10"/>
+      <c r="BL84" s="10"/>
+      <c r="BM84" s="10"/>
+      <c r="BN84" s="10"/>
     </row>
-    <row r="85" spans="1:62" ht="255" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:66" ht="255" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>104</v>
       </c>
@@ -13891,8 +14276,12 @@
       <c r="BH85" s="19"/>
       <c r="BI85" s="19"/>
       <c r="BJ85" s="19"/>
+      <c r="BK85" s="19"/>
+      <c r="BL85" s="19"/>
+      <c r="BM85" s="19"/>
+      <c r="BN85" s="19"/>
     </row>
-    <row r="86" spans="1:62" ht="270" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:66" ht="270" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>105</v>
       </c>
@@ -13995,8 +14384,12 @@
       <c r="BH86" s="10"/>
       <c r="BI86" s="10"/>
       <c r="BJ86" s="10"/>
+      <c r="BK86" s="10"/>
+      <c r="BL86" s="10"/>
+      <c r="BM86" s="10"/>
+      <c r="BN86" s="10"/>
     </row>
-    <row r="87" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>106</v>
       </c>
@@ -14103,8 +14496,12 @@
       <c r="BH87" s="19"/>
       <c r="BI87" s="19"/>
       <c r="BJ87" s="19"/>
+      <c r="BK87" s="19"/>
+      <c r="BL87" s="19"/>
+      <c r="BM87" s="19"/>
+      <c r="BN87" s="19"/>
     </row>
-    <row r="88" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>107</v>
       </c>
@@ -14209,8 +14606,12 @@
       <c r="BH88" s="10"/>
       <c r="BI88" s="10"/>
       <c r="BJ88" s="10"/>
+      <c r="BK88" s="10"/>
+      <c r="BL88" s="10"/>
+      <c r="BM88" s="10"/>
+      <c r="BN88" s="10"/>
     </row>
-    <row r="89" spans="1:62" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>108</v>
       </c>
@@ -14315,8 +14716,12 @@
       <c r="BH89" s="19"/>
       <c r="BI89" s="19"/>
       <c r="BJ89" s="19"/>
+      <c r="BK89" s="19"/>
+      <c r="BL89" s="19"/>
+      <c r="BM89" s="19"/>
+      <c r="BN89" s="19"/>
     </row>
-    <row r="90" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>109</v>
       </c>
@@ -14421,8 +14826,12 @@
       <c r="BH90" s="10"/>
       <c r="BI90" s="10"/>
       <c r="BJ90" s="10"/>
+      <c r="BK90" s="10"/>
+      <c r="BL90" s="10"/>
+      <c r="BM90" s="10"/>
+      <c r="BN90" s="10"/>
     </row>
-    <row r="91" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>110</v>
       </c>
@@ -14525,8 +14934,12 @@
       <c r="BH91" s="19"/>
       <c r="BI91" s="19"/>
       <c r="BJ91" s="19"/>
+      <c r="BK91" s="19"/>
+      <c r="BL91" s="19"/>
+      <c r="BM91" s="19"/>
+      <c r="BN91" s="19"/>
     </row>
-    <row r="92" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>111</v>
       </c>
@@ -14631,8 +15044,14 @@
       </c>
       <c r="BI92" s="10"/>
       <c r="BJ92" s="10"/>
+      <c r="BK92" s="10"/>
+      <c r="BL92" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="BM92" s="10"/>
+      <c r="BN92" s="10"/>
     </row>
-    <row r="93" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>112</v>
       </c>
@@ -14735,8 +15154,12 @@
       <c r="BH93" s="19"/>
       <c r="BI93" s="19"/>
       <c r="BJ93" s="19"/>
+      <c r="BK93" s="19"/>
+      <c r="BL93" s="19"/>
+      <c r="BM93" s="19"/>
+      <c r="BN93" s="19"/>
     </row>
-    <row r="94" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>114</v>
       </c>
@@ -14841,8 +15264,14 @@
       <c r="BH94" s="10"/>
       <c r="BI94" s="10"/>
       <c r="BJ94" s="10"/>
+      <c r="BK94" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BL94" s="10"/>
+      <c r="BM94" s="10"/>
+      <c r="BN94" s="10"/>
     </row>
-    <row r="95" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>115</v>
       </c>
@@ -14945,8 +15374,12 @@
       <c r="BH95" s="19"/>
       <c r="BI95" s="19"/>
       <c r="BJ95" s="19"/>
+      <c r="BK95" s="19"/>
+      <c r="BL95" s="19"/>
+      <c r="BM95" s="19"/>
+      <c r="BN95" s="19"/>
     </row>
-    <row r="96" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>116</v>
       </c>
@@ -15051,8 +15484,12 @@
       <c r="BH96" s="10"/>
       <c r="BI96" s="10"/>
       <c r="BJ96" s="10"/>
+      <c r="BK96" s="10"/>
+      <c r="BL96" s="10"/>
+      <c r="BM96" s="10"/>
+      <c r="BN96" s="10"/>
     </row>
-    <row r="97" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>117</v>
       </c>
@@ -15157,8 +15594,12 @@
       <c r="BH97" s="19"/>
       <c r="BI97" s="19"/>
       <c r="BJ97" s="19"/>
+      <c r="BK97" s="19"/>
+      <c r="BL97" s="19"/>
+      <c r="BM97" s="19"/>
+      <c r="BN97" s="19"/>
     </row>
-    <row r="98" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>118</v>
       </c>
@@ -15261,8 +15702,12 @@
       <c r="BH98" s="10"/>
       <c r="BI98" s="10"/>
       <c r="BJ98" s="10"/>
+      <c r="BK98" s="10"/>
+      <c r="BL98" s="10"/>
+      <c r="BM98" s="10"/>
+      <c r="BN98" s="10"/>
     </row>
-    <row r="99" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>119</v>
       </c>
@@ -15367,8 +15812,14 @@
         <v>1164</v>
       </c>
       <c r="BJ99" s="19"/>
+      <c r="BK99" s="19"/>
+      <c r="BL99" s="19"/>
+      <c r="BM99" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BN99" s="19"/>
     </row>
-    <row r="100" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>120</v>
       </c>
@@ -15471,8 +15922,12 @@
       <c r="BH100" s="10"/>
       <c r="BI100" s="10"/>
       <c r="BJ100" s="10"/>
+      <c r="BK100" s="10"/>
+      <c r="BL100" s="10"/>
+      <c r="BM100" s="10"/>
+      <c r="BN100" s="10"/>
     </row>
-    <row r="101" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>121</v>
       </c>
@@ -15575,8 +16030,12 @@
       <c r="BH101" s="19"/>
       <c r="BI101" s="19"/>
       <c r="BJ101" s="19"/>
+      <c r="BK101" s="19"/>
+      <c r="BL101" s="19"/>
+      <c r="BM101" s="19"/>
+      <c r="BN101" s="19"/>
     </row>
-    <row r="102" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>122</v>
       </c>
@@ -15679,8 +16138,12 @@
       <c r="BH102" s="10"/>
       <c r="BI102" s="10"/>
       <c r="BJ102" s="10"/>
+      <c r="BK102" s="10"/>
+      <c r="BL102" s="10"/>
+      <c r="BM102" s="10"/>
+      <c r="BN102" s="10"/>
     </row>
-    <row r="103" spans="1:62" ht="270" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" ht="270" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>123</v>
       </c>
@@ -15783,8 +16246,12 @@
       <c r="BH103" s="19"/>
       <c r="BI103" s="19"/>
       <c r="BJ103" s="19"/>
+      <c r="BK103" s="19"/>
+      <c r="BL103" s="19"/>
+      <c r="BM103" s="19"/>
+      <c r="BN103" s="19"/>
     </row>
-    <row r="104" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>124</v>
       </c>
@@ -15887,8 +16354,12 @@
       <c r="BH104" s="10"/>
       <c r="BI104" s="10"/>
       <c r="BJ104" s="10"/>
+      <c r="BK104" s="10"/>
+      <c r="BL104" s="10"/>
+      <c r="BM104" s="10"/>
+      <c r="BN104" s="10"/>
     </row>
-    <row r="105" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" ht="240" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>125</v>
       </c>
@@ -15991,8 +16462,12 @@
       <c r="BH105" s="19"/>
       <c r="BI105" s="19"/>
       <c r="BJ105" s="19"/>
+      <c r="BK105" s="19"/>
+      <c r="BL105" s="19"/>
+      <c r="BM105" s="19"/>
+      <c r="BN105" s="19"/>
     </row>
-    <row r="106" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>126</v>
       </c>
@@ -16095,8 +16570,12 @@
       <c r="BH106" s="10"/>
       <c r="BI106" s="10"/>
       <c r="BJ106" s="10"/>
+      <c r="BK106" s="10"/>
+      <c r="BL106" s="10"/>
+      <c r="BM106" s="10"/>
+      <c r="BN106" s="10"/>
     </row>
-    <row r="107" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>127</v>
       </c>
@@ -16205,8 +16684,14 @@
         <v>1265</v>
       </c>
       <c r="BJ107" s="19"/>
+      <c r="BK107" s="19"/>
+      <c r="BL107" s="19"/>
+      <c r="BM107" s="19" t="s">
+        <v>1265</v>
+      </c>
+      <c r="BN107" s="19"/>
     </row>
-    <row r="108" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>128</v>
       </c>
@@ -16309,8 +16794,12 @@
       <c r="BH108" s="10"/>
       <c r="BI108" s="10"/>
       <c r="BJ108" s="10"/>
+      <c r="BK108" s="10"/>
+      <c r="BL108" s="10"/>
+      <c r="BM108" s="10"/>
+      <c r="BN108" s="10"/>
     </row>
-    <row r="109" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>129</v>
       </c>
@@ -16413,8 +16902,12 @@
       <c r="BH109" s="19"/>
       <c r="BI109" s="19"/>
       <c r="BJ109" s="19"/>
+      <c r="BK109" s="19"/>
+      <c r="BL109" s="19"/>
+      <c r="BM109" s="19"/>
+      <c r="BN109" s="19"/>
     </row>
-    <row r="110" spans="1:62" ht="375" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:66" ht="375" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>130</v>
       </c>
@@ -16523,8 +17016,14 @@
       <c r="BH110" s="10"/>
       <c r="BI110" s="10"/>
       <c r="BJ110" s="10"/>
+      <c r="BK110" s="10"/>
+      <c r="BL110" s="10" t="s">
+        <v>1283</v>
+      </c>
+      <c r="BM110" s="10"/>
+      <c r="BN110" s="10"/>
     </row>
-    <row r="111" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>131</v>
       </c>
@@ -16627,8 +17126,12 @@
       <c r="BH111" s="19"/>
       <c r="BI111" s="19"/>
       <c r="BJ111" s="19"/>
+      <c r="BK111" s="19"/>
+      <c r="BL111" s="19"/>
+      <c r="BM111" s="19"/>
+      <c r="BN111" s="19"/>
     </row>
-    <row r="112" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>132</v>
       </c>
@@ -16731,8 +17234,12 @@
       <c r="BH112" s="10"/>
       <c r="BI112" s="10"/>
       <c r="BJ112" s="10"/>
+      <c r="BK112" s="10"/>
+      <c r="BL112" s="10"/>
+      <c r="BM112" s="10"/>
+      <c r="BN112" s="10"/>
     </row>
-    <row r="113" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>133</v>
       </c>
@@ -16835,8 +17342,12 @@
       <c r="BH113" s="19"/>
       <c r="BI113" s="19"/>
       <c r="BJ113" s="19"/>
+      <c r="BK113" s="19"/>
+      <c r="BL113" s="19"/>
+      <c r="BM113" s="19"/>
+      <c r="BN113" s="19"/>
     </row>
-    <row r="114" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>136</v>
       </c>
@@ -16947,8 +17458,12 @@
       <c r="BH114" s="10"/>
       <c r="BI114" s="10"/>
       <c r="BJ114" s="10"/>
+      <c r="BK114" s="10"/>
+      <c r="BL114" s="10"/>
+      <c r="BM114" s="10"/>
+      <c r="BN114" s="10"/>
     </row>
-    <row r="115" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>137</v>
       </c>
@@ -17043,8 +17558,12 @@
       <c r="BH115" s="19"/>
       <c r="BI115" s="19"/>
       <c r="BJ115" s="19"/>
+      <c r="BK115" s="19"/>
+      <c r="BL115" s="19"/>
+      <c r="BM115" s="19"/>
+      <c r="BN115" s="19"/>
     </row>
-    <row r="116" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>138</v>
       </c>
@@ -17149,8 +17668,14 @@
         <v>1165</v>
       </c>
       <c r="BJ116" s="10"/>
+      <c r="BK116" s="10"/>
+      <c r="BL116" s="10"/>
+      <c r="BM116" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BN116" s="10"/>
     </row>
-    <row r="117" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>139</v>
       </c>
@@ -17255,8 +17780,12 @@
       <c r="BH117" s="19"/>
       <c r="BI117" s="19"/>
       <c r="BJ117" s="19"/>
+      <c r="BK117" s="19"/>
+      <c r="BL117" s="19"/>
+      <c r="BM117" s="19"/>
+      <c r="BN117" s="19"/>
     </row>
-    <row r="118" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>140</v>
       </c>
@@ -17365,8 +17894,12 @@
       <c r="BH118" s="10"/>
       <c r="BI118" s="10"/>
       <c r="BJ118" s="10"/>
+      <c r="BK118" s="10"/>
+      <c r="BL118" s="10"/>
+      <c r="BM118" s="10"/>
+      <c r="BN118" s="10"/>
     </row>
-    <row r="119" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>142</v>
       </c>
@@ -17469,8 +18002,12 @@
       <c r="BH119" s="19"/>
       <c r="BI119" s="19"/>
       <c r="BJ119" s="19"/>
+      <c r="BK119" s="19"/>
+      <c r="BL119" s="19"/>
+      <c r="BM119" s="19"/>
+      <c r="BN119" s="19"/>
     </row>
-    <row r="120" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>144</v>
       </c>
@@ -17569,8 +18106,12 @@
       <c r="BH120" s="10"/>
       <c r="BI120" s="10"/>
       <c r="BJ120" s="10"/>
+      <c r="BK120" s="10"/>
+      <c r="BL120" s="10"/>
+      <c r="BM120" s="10"/>
+      <c r="BN120" s="10"/>
     </row>
-    <row r="121" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>145</v>
       </c>
@@ -17673,8 +18214,12 @@
       <c r="BH121" s="19"/>
       <c r="BI121" s="19"/>
       <c r="BJ121" s="19"/>
+      <c r="BK121" s="19"/>
+      <c r="BL121" s="19"/>
+      <c r="BM121" s="19"/>
+      <c r="BN121" s="19"/>
     </row>
-    <row r="122" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>146</v>
       </c>
@@ -17777,8 +18322,12 @@
       <c r="BH122" s="10"/>
       <c r="BI122" s="10"/>
       <c r="BJ122" s="10"/>
+      <c r="BK122" s="10"/>
+      <c r="BL122" s="10"/>
+      <c r="BM122" s="10"/>
+      <c r="BN122" s="10"/>
     </row>
-    <row r="123" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>147</v>
       </c>
@@ -17881,8 +18430,12 @@
       <c r="BH123" s="19"/>
       <c r="BI123" s="19"/>
       <c r="BJ123" s="19"/>
+      <c r="BK123" s="19"/>
+      <c r="BL123" s="19"/>
+      <c r="BM123" s="19"/>
+      <c r="BN123" s="19"/>
     </row>
-    <row r="124" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>151</v>
       </c>
@@ -17981,8 +18534,12 @@
       <c r="BH124" s="10"/>
       <c r="BI124" s="10"/>
       <c r="BJ124" s="10"/>
+      <c r="BK124" s="10"/>
+      <c r="BL124" s="10"/>
+      <c r="BM124" s="10"/>
+      <c r="BN124" s="10"/>
     </row>
-    <row r="125" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>152</v>
       </c>
@@ -18085,8 +18642,12 @@
       <c r="BH125" s="19"/>
       <c r="BI125" s="19"/>
       <c r="BJ125" s="19"/>
+      <c r="BK125" s="19"/>
+      <c r="BL125" s="19"/>
+      <c r="BM125" s="19"/>
+      <c r="BN125" s="19"/>
     </row>
-    <row r="126" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>153</v>
       </c>
@@ -18191,8 +18752,12 @@
       <c r="BH126" s="10"/>
       <c r="BI126" s="10"/>
       <c r="BJ126" s="10"/>
+      <c r="BK126" s="10"/>
+      <c r="BL126" s="10"/>
+      <c r="BM126" s="10"/>
+      <c r="BN126" s="10"/>
     </row>
-    <row r="127" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
         <v>154</v>
       </c>
@@ -18297,8 +18862,12 @@
       <c r="BH127" s="19"/>
       <c r="BI127" s="19"/>
       <c r="BJ127" s="19"/>
+      <c r="BK127" s="19"/>
+      <c r="BL127" s="19"/>
+      <c r="BM127" s="19"/>
+      <c r="BN127" s="19"/>
     </row>
-    <row r="128" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>155</v>
       </c>
@@ -18403,8 +18972,12 @@
       <c r="BH128" s="10"/>
       <c r="BI128" s="10"/>
       <c r="BJ128" s="10"/>
+      <c r="BK128" s="10"/>
+      <c r="BL128" s="10"/>
+      <c r="BM128" s="10"/>
+      <c r="BN128" s="10"/>
     </row>
-    <row r="129" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>156</v>
       </c>
@@ -18507,8 +19080,12 @@
       <c r="BH129" s="19"/>
       <c r="BI129" s="19"/>
       <c r="BJ129" s="19"/>
+      <c r="BK129" s="19"/>
+      <c r="BL129" s="19"/>
+      <c r="BM129" s="19"/>
+      <c r="BN129" s="19"/>
     </row>
-    <row r="130" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>157</v>
       </c>
@@ -18613,8 +19190,12 @@
       <c r="BH130" s="10"/>
       <c r="BI130" s="10"/>
       <c r="BJ130" s="10"/>
+      <c r="BK130" s="10"/>
+      <c r="BL130" s="10"/>
+      <c r="BM130" s="10"/>
+      <c r="BN130" s="10"/>
     </row>
-    <row r="131" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>158</v>
       </c>
@@ -18717,8 +19298,12 @@
       <c r="BH131" s="19"/>
       <c r="BI131" s="19"/>
       <c r="BJ131" s="19"/>
+      <c r="BK131" s="19"/>
+      <c r="BL131" s="19"/>
+      <c r="BM131" s="19"/>
+      <c r="BN131" s="19"/>
     </row>
-    <row r="132" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>159</v>
       </c>
@@ -18821,8 +19406,12 @@
       <c r="BH132" s="10"/>
       <c r="BI132" s="10"/>
       <c r="BJ132" s="10"/>
+      <c r="BK132" s="10"/>
+      <c r="BL132" s="10"/>
+      <c r="BM132" s="10"/>
+      <c r="BN132" s="10"/>
     </row>
-    <row r="133" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>161</v>
       </c>
@@ -18925,8 +19514,12 @@
       <c r="BH133" s="19"/>
       <c r="BI133" s="19"/>
       <c r="BJ133" s="19"/>
+      <c r="BK133" s="19"/>
+      <c r="BL133" s="19"/>
+      <c r="BM133" s="19"/>
+      <c r="BN133" s="19"/>
     </row>
-    <row r="134" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>162</v>
       </c>
@@ -19029,8 +19622,12 @@
       <c r="BH134" s="10"/>
       <c r="BI134" s="10"/>
       <c r="BJ134" s="10"/>
+      <c r="BK134" s="10"/>
+      <c r="BL134" s="10"/>
+      <c r="BM134" s="10"/>
+      <c r="BN134" s="10"/>
     </row>
-    <row r="135" spans="1:62" ht="150" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:66" ht="150" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>163</v>
       </c>
@@ -19133,8 +19730,12 @@
       <c r="BH135" s="19"/>
       <c r="BI135" s="19"/>
       <c r="BJ135" s="19"/>
+      <c r="BK135" s="19"/>
+      <c r="BL135" s="19"/>
+      <c r="BM135" s="19"/>
+      <c r="BN135" s="19"/>
     </row>
-    <row r="136" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>164</v>
       </c>
@@ -19237,8 +19838,12 @@
       <c r="BH136" s="10"/>
       <c r="BI136" s="10"/>
       <c r="BJ136" s="10"/>
+      <c r="BK136" s="10"/>
+      <c r="BL136" s="10"/>
+      <c r="BM136" s="10"/>
+      <c r="BN136" s="10"/>
     </row>
-    <row r="137" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>165</v>
       </c>
@@ -19341,8 +19946,12 @@
       <c r="BH137" s="19"/>
       <c r="BI137" s="19"/>
       <c r="BJ137" s="19"/>
+      <c r="BK137" s="19"/>
+      <c r="BL137" s="19"/>
+      <c r="BM137" s="19"/>
+      <c r="BN137" s="19"/>
     </row>
-    <row r="138" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>166</v>
       </c>
@@ -19445,8 +20054,12 @@
       <c r="BH138" s="10"/>
       <c r="BI138" s="10"/>
       <c r="BJ138" s="10"/>
+      <c r="BK138" s="10"/>
+      <c r="BL138" s="10"/>
+      <c r="BM138" s="10"/>
+      <c r="BN138" s="10"/>
     </row>
-    <row r="139" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:66" ht="240" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>169</v>
       </c>
@@ -19541,8 +20154,12 @@
       <c r="BH139" s="19"/>
       <c r="BI139" s="19"/>
       <c r="BJ139" s="19"/>
+      <c r="BK139" s="19"/>
+      <c r="BL139" s="19"/>
+      <c r="BM139" s="19"/>
+      <c r="BN139" s="19"/>
     </row>
-    <row r="140" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>170</v>
       </c>
@@ -19645,8 +20262,12 @@
       <c r="BH140" s="10"/>
       <c r="BI140" s="10"/>
       <c r="BJ140" s="10"/>
+      <c r="BK140" s="10"/>
+      <c r="BL140" s="10"/>
+      <c r="BM140" s="10"/>
+      <c r="BN140" s="10"/>
     </row>
-    <row r="141" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>171</v>
       </c>
@@ -19749,8 +20370,12 @@
       <c r="BH141" s="19"/>
       <c r="BI141" s="19"/>
       <c r="BJ141" s="19"/>
+      <c r="BK141" s="19"/>
+      <c r="BL141" s="19"/>
+      <c r="BM141" s="19"/>
+      <c r="BN141" s="19"/>
     </row>
-    <row r="142" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>173</v>
       </c>
@@ -19865,8 +20490,12 @@
       <c r="BH142" s="10"/>
       <c r="BI142" s="10"/>
       <c r="BJ142" s="10"/>
+      <c r="BK142" s="10"/>
+      <c r="BL142" s="10"/>
+      <c r="BM142" s="10"/>
+      <c r="BN142" s="10"/>
     </row>
-    <row r="143" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>174</v>
       </c>
@@ -19973,8 +20602,12 @@
       <c r="BH143" s="19"/>
       <c r="BI143" s="19"/>
       <c r="BJ143" s="19"/>
+      <c r="BK143" s="19"/>
+      <c r="BL143" s="19"/>
+      <c r="BM143" s="19"/>
+      <c r="BN143" s="19"/>
     </row>
-    <row r="144" spans="1:62" ht="150" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" ht="150" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>176</v>
       </c>
@@ -20079,8 +20712,12 @@
       <c r="BH144" s="10"/>
       <c r="BI144" s="10"/>
       <c r="BJ144" s="10"/>
+      <c r="BK144" s="10"/>
+      <c r="BL144" s="10"/>
+      <c r="BM144" s="10"/>
+      <c r="BN144" s="10"/>
     </row>
-    <row r="145" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>177</v>
       </c>
@@ -20183,8 +20820,12 @@
       <c r="BH145" s="19"/>
       <c r="BI145" s="19"/>
       <c r="BJ145" s="19"/>
+      <c r="BK145" s="19"/>
+      <c r="BL145" s="19"/>
+      <c r="BM145" s="19"/>
+      <c r="BN145" s="19"/>
     </row>
-    <row r="146" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>178</v>
       </c>
@@ -20291,8 +20932,14 @@
       <c r="BH146" s="10"/>
       <c r="BI146" s="10"/>
       <c r="BJ146" s="10"/>
+      <c r="BK146" s="10"/>
+      <c r="BL146" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="BM146" s="10"/>
+      <c r="BN146" s="10"/>
     </row>
-    <row r="147" spans="1:62" ht="255" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:66" ht="255" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>179</v>
       </c>
@@ -20399,8 +21046,12 @@
       <c r="BJ147" s="19" t="s">
         <v>1168</v>
       </c>
+      <c r="BK147" s="19"/>
+      <c r="BL147" s="19"/>
+      <c r="BM147" s="19"/>
+      <c r="BN147" s="19"/>
     </row>
-    <row r="148" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:66" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>181</v>
       </c>
@@ -20503,8 +21154,12 @@
       <c r="BH148" s="10"/>
       <c r="BI148" s="10"/>
       <c r="BJ148" s="10"/>
+      <c r="BK148" s="10"/>
+      <c r="BL148" s="10"/>
+      <c r="BM148" s="10"/>
+      <c r="BN148" s="10"/>
     </row>
-    <row r="149" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>182</v>
       </c>
@@ -20607,8 +21262,12 @@
       <c r="BH149" s="19"/>
       <c r="BI149" s="19"/>
       <c r="BJ149" s="19"/>
+      <c r="BK149" s="19"/>
+      <c r="BL149" s="19"/>
+      <c r="BM149" s="19"/>
+      <c r="BN149" s="19"/>
     </row>
-    <row r="150" spans="1:62" ht="375" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:66" ht="375" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>183</v>
       </c>
@@ -20711,8 +21370,12 @@
       <c r="BH150" s="10"/>
       <c r="BI150" s="10"/>
       <c r="BJ150" s="10"/>
+      <c r="BK150" s="10"/>
+      <c r="BL150" s="10"/>
+      <c r="BM150" s="10"/>
+      <c r="BN150" s="10"/>
     </row>
-    <row r="151" spans="1:62" ht="90" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>184</v>
       </c>
@@ -20823,8 +21486,12 @@
       <c r="BH151" s="19"/>
       <c r="BI151" s="19"/>
       <c r="BJ151" s="19"/>
+      <c r="BK151" s="19"/>
+      <c r="BL151" s="19"/>
+      <c r="BM151" s="19"/>
+      <c r="BN151" s="19"/>
     </row>
-    <row r="152" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>185</v>
       </c>
@@ -20927,8 +21594,12 @@
       <c r="BH152" s="10"/>
       <c r="BI152" s="10"/>
       <c r="BJ152" s="10"/>
+      <c r="BK152" s="10"/>
+      <c r="BL152" s="10"/>
+      <c r="BM152" s="10"/>
+      <c r="BN152" s="10"/>
     </row>
-    <row r="153" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>186</v>
       </c>
@@ -21033,8 +21704,12 @@
       <c r="BH153" s="19"/>
       <c r="BI153" s="19"/>
       <c r="BJ153" s="19"/>
+      <c r="BK153" s="19"/>
+      <c r="BL153" s="19"/>
+      <c r="BM153" s="19"/>
+      <c r="BN153" s="19"/>
     </row>
-    <row r="154" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:66" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>187</v>
       </c>
@@ -21141,8 +21816,12 @@
       <c r="BH154" s="10"/>
       <c r="BI154" s="10"/>
       <c r="BJ154" s="10"/>
+      <c r="BK154" s="10"/>
+      <c r="BL154" s="10"/>
+      <c r="BM154" s="10"/>
+      <c r="BN154" s="10"/>
     </row>
-    <row r="155" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>188</v>
       </c>
@@ -21245,8 +21924,12 @@
       <c r="BH155" s="19"/>
       <c r="BI155" s="19"/>
       <c r="BJ155" s="19"/>
+      <c r="BK155" s="19"/>
+      <c r="BL155" s="19"/>
+      <c r="BM155" s="19"/>
+      <c r="BN155" s="19"/>
     </row>
-    <row r="156" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>189</v>
       </c>
@@ -21351,8 +22034,12 @@
       <c r="BH156" s="10"/>
       <c r="BI156" s="10"/>
       <c r="BJ156" s="10"/>
+      <c r="BK156" s="10"/>
+      <c r="BL156" s="10"/>
+      <c r="BM156" s="10"/>
+      <c r="BN156" s="10"/>
     </row>
-    <row r="157" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>190</v>
       </c>
@@ -21455,8 +22142,12 @@
       <c r="BH157" s="19"/>
       <c r="BI157" s="19"/>
       <c r="BJ157" s="19"/>
+      <c r="BK157" s="19"/>
+      <c r="BL157" s="19"/>
+      <c r="BM157" s="19"/>
+      <c r="BN157" s="19"/>
     </row>
-    <row r="158" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>191</v>
       </c>
@@ -21561,8 +22252,12 @@
       <c r="BH158" s="10"/>
       <c r="BI158" s="10"/>
       <c r="BJ158" s="10"/>
+      <c r="BK158" s="10"/>
+      <c r="BL158" s="10"/>
+      <c r="BM158" s="10"/>
+      <c r="BN158" s="10"/>
     </row>
-    <row r="159" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>192</v>
       </c>
@@ -21665,8 +22360,12 @@
       <c r="BH159" s="19"/>
       <c r="BI159" s="19"/>
       <c r="BJ159" s="19"/>
+      <c r="BK159" s="19"/>
+      <c r="BL159" s="19"/>
+      <c r="BM159" s="19"/>
+      <c r="BN159" s="19"/>
     </row>
-    <row r="160" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>193</v>
       </c>
@@ -21771,8 +22470,12 @@
       <c r="BH160" s="10"/>
       <c r="BI160" s="10"/>
       <c r="BJ160" s="10"/>
+      <c r="BK160" s="10"/>
+      <c r="BL160" s="10"/>
+      <c r="BM160" s="10"/>
+      <c r="BN160" s="10"/>
     </row>
-    <row r="161" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>194</v>
       </c>
@@ -21877,8 +22580,12 @@
       <c r="BH161" s="19"/>
       <c r="BI161" s="19"/>
       <c r="BJ161" s="19"/>
+      <c r="BK161" s="19"/>
+      <c r="BL161" s="19"/>
+      <c r="BM161" s="19"/>
+      <c r="BN161" s="19"/>
     </row>
-    <row r="162" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>195</v>
       </c>
@@ -21999,8 +22706,14 @@
       </c>
       <c r="BI162" s="10"/>
       <c r="BJ162" s="10"/>
+      <c r="BK162" s="10"/>
+      <c r="BL162" s="10" t="s">
+        <v>1284</v>
+      </c>
+      <c r="BM162" s="10"/>
+      <c r="BN162" s="10"/>
     </row>
-    <row r="163" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>196</v>
       </c>
@@ -22111,8 +22824,12 @@
       <c r="BH163" s="19"/>
       <c r="BI163" s="19"/>
       <c r="BJ163" s="19"/>
+      <c r="BK163" s="19"/>
+      <c r="BL163" s="19"/>
+      <c r="BM163" s="19"/>
+      <c r="BN163" s="19"/>
     </row>
-    <row r="164" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>197</v>
       </c>
@@ -22215,8 +22932,12 @@
       <c r="BH164" s="10"/>
       <c r="BI164" s="10"/>
       <c r="BJ164" s="10"/>
+      <c r="BK164" s="10"/>
+      <c r="BL164" s="10"/>
+      <c r="BM164" s="10"/>
+      <c r="BN164" s="10"/>
     </row>
-    <row r="165" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>198</v>
       </c>
@@ -22319,8 +23040,12 @@
       <c r="BH165" s="19"/>
       <c r="BI165" s="19"/>
       <c r="BJ165" s="19"/>
+      <c r="BK165" s="19"/>
+      <c r="BL165" s="19"/>
+      <c r="BM165" s="19"/>
+      <c r="BN165" s="19"/>
     </row>
-    <row r="166" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>199</v>
       </c>
@@ -22425,8 +23150,12 @@
       <c r="BH166" s="10"/>
       <c r="BI166" s="10"/>
       <c r="BJ166" s="10"/>
+      <c r="BK166" s="10"/>
+      <c r="BL166" s="10"/>
+      <c r="BM166" s="10"/>
+      <c r="BN166" s="10"/>
     </row>
-    <row r="167" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>200</v>
       </c>
@@ -22529,8 +23258,12 @@
       <c r="BH167" s="19"/>
       <c r="BI167" s="19"/>
       <c r="BJ167" s="19"/>
+      <c r="BK167" s="19"/>
+      <c r="BL167" s="19"/>
+      <c r="BM167" s="19"/>
+      <c r="BN167" s="19"/>
     </row>
-    <row r="168" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>201</v>
       </c>
@@ -22633,8 +23366,12 @@
       <c r="BH168" s="10"/>
       <c r="BI168" s="10"/>
       <c r="BJ168" s="10"/>
+      <c r="BK168" s="10"/>
+      <c r="BL168" s="10"/>
+      <c r="BM168" s="10"/>
+      <c r="BN168" s="10"/>
     </row>
-    <row r="169" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>202</v>
       </c>
@@ -22739,8 +23476,12 @@
       <c r="BH169" s="19"/>
       <c r="BI169" s="19"/>
       <c r="BJ169" s="19"/>
+      <c r="BK169" s="19"/>
+      <c r="BL169" s="19"/>
+      <c r="BM169" s="19"/>
+      <c r="BN169" s="19"/>
     </row>
-    <row r="170" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>203</v>
       </c>
@@ -22845,8 +23586,12 @@
       <c r="BH170" s="10"/>
       <c r="BI170" s="10"/>
       <c r="BJ170" s="10"/>
+      <c r="BK170" s="10"/>
+      <c r="BL170" s="10"/>
+      <c r="BM170" s="10"/>
+      <c r="BN170" s="10"/>
     </row>
-    <row r="171" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>204</v>
       </c>
@@ -22959,8 +23704,14 @@
       </c>
       <c r="BI171" s="19"/>
       <c r="BJ171" s="19"/>
+      <c r="BK171" s="19"/>
+      <c r="BL171" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="BM171" s="19"/>
+      <c r="BN171" s="19"/>
     </row>
-    <row r="172" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>205</v>
       </c>
@@ -23063,8 +23814,12 @@
       <c r="BH172" s="10"/>
       <c r="BI172" s="10"/>
       <c r="BJ172" s="10"/>
+      <c r="BK172" s="10"/>
+      <c r="BL172" s="10"/>
+      <c r="BM172" s="10"/>
+      <c r="BN172" s="10"/>
     </row>
-    <row r="173" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>206</v>
       </c>
@@ -23171,8 +23926,12 @@
       <c r="BH173" s="19"/>
       <c r="BI173" s="19"/>
       <c r="BJ173" s="19"/>
+      <c r="BK173" s="19"/>
+      <c r="BL173" s="19"/>
+      <c r="BM173" s="19"/>
+      <c r="BN173" s="19"/>
     </row>
-    <row r="174" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:66" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>207</v>
       </c>
@@ -23277,8 +24036,12 @@
       <c r="BH174" s="10"/>
       <c r="BI174" s="10"/>
       <c r="BJ174" s="10"/>
+      <c r="BK174" s="10"/>
+      <c r="BL174" s="10"/>
+      <c r="BM174" s="10"/>
+      <c r="BN174" s="10"/>
     </row>
-    <row r="175" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>208</v>
       </c>
@@ -23383,8 +24146,12 @@
       <c r="BH175" s="19"/>
       <c r="BI175" s="19"/>
       <c r="BJ175" s="19"/>
+      <c r="BK175" s="19"/>
+      <c r="BL175" s="19"/>
+      <c r="BM175" s="19"/>
+      <c r="BN175" s="19"/>
     </row>
-    <row r="176" spans="1:62" ht="405" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:66" ht="405" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>209</v>
       </c>
@@ -23489,8 +24256,12 @@
       <c r="BH176" s="10"/>
       <c r="BI176" s="10"/>
       <c r="BJ176" s="10"/>
+      <c r="BK176" s="10"/>
+      <c r="BL176" s="10"/>
+      <c r="BM176" s="10"/>
+      <c r="BN176" s="10"/>
     </row>
-    <row r="177" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>210</v>
       </c>
@@ -23593,8 +24364,12 @@
       <c r="BH177" s="19"/>
       <c r="BI177" s="19"/>
       <c r="BJ177" s="19"/>
+      <c r="BK177" s="19"/>
+      <c r="BL177" s="19"/>
+      <c r="BM177" s="19"/>
+      <c r="BN177" s="19"/>
     </row>
-    <row r="178" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>211</v>
       </c>
@@ -23697,8 +24472,12 @@
       <c r="BH178" s="10"/>
       <c r="BI178" s="10"/>
       <c r="BJ178" s="10"/>
+      <c r="BK178" s="10"/>
+      <c r="BL178" s="10"/>
+      <c r="BM178" s="10"/>
+      <c r="BN178" s="10"/>
     </row>
-    <row r="179" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>212</v>
       </c>
@@ -23801,8 +24580,12 @@
       <c r="BH179" s="19"/>
       <c r="BI179" s="19"/>
       <c r="BJ179" s="19"/>
+      <c r="BK179" s="19"/>
+      <c r="BL179" s="19"/>
+      <c r="BM179" s="19"/>
+      <c r="BN179" s="19"/>
     </row>
-    <row r="180" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>213</v>
       </c>
@@ -23905,8 +24688,12 @@
       <c r="BH180" s="10"/>
       <c r="BI180" s="10"/>
       <c r="BJ180" s="10"/>
+      <c r="BK180" s="10"/>
+      <c r="BL180" s="10"/>
+      <c r="BM180" s="10"/>
+      <c r="BN180" s="10"/>
     </row>
-    <row r="181" spans="1:62" ht="375" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:66" ht="375" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>214</v>
       </c>
@@ -24009,8 +24796,12 @@
       <c r="BH181" s="19"/>
       <c r="BI181" s="19"/>
       <c r="BJ181" s="19"/>
+      <c r="BK181" s="19"/>
+      <c r="BL181" s="19"/>
+      <c r="BM181" s="19"/>
+      <c r="BN181" s="19"/>
     </row>
-    <row r="182" spans="1:62" ht="180" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>215</v>
       </c>
@@ -24119,8 +24910,12 @@
       <c r="BH182" s="10"/>
       <c r="BI182" s="10"/>
       <c r="BJ182" s="10"/>
+      <c r="BK182" s="10"/>
+      <c r="BL182" s="10"/>
+      <c r="BM182" s="10"/>
+      <c r="BN182" s="10"/>
     </row>
-    <row r="183" spans="1:62" ht="105" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:66" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>217</v>
       </c>
@@ -24223,8 +25018,12 @@
       <c r="BH183" s="19"/>
       <c r="BI183" s="19"/>
       <c r="BJ183" s="19"/>
+      <c r="BK183" s="19"/>
+      <c r="BL183" s="19"/>
+      <c r="BM183" s="19"/>
+      <c r="BN183" s="19"/>
     </row>
-    <row r="184" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:66" ht="240" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>218</v>
       </c>
@@ -24327,8 +25126,12 @@
       <c r="BH184" s="10"/>
       <c r="BI184" s="10"/>
       <c r="BJ184" s="10"/>
+      <c r="BK184" s="10"/>
+      <c r="BL184" s="10"/>
+      <c r="BM184" s="10"/>
+      <c r="BN184" s="10"/>
     </row>
-    <row r="185" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
         <v>220</v>
       </c>
@@ -24433,8 +25236,12 @@
       <c r="BH185" s="19"/>
       <c r="BI185" s="19"/>
       <c r="BJ185" s="19"/>
+      <c r="BK185" s="19"/>
+      <c r="BL185" s="19"/>
+      <c r="BM185" s="19"/>
+      <c r="BN185" s="19"/>
     </row>
-    <row r="186" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>221</v>
       </c>
@@ -24539,8 +25346,12 @@
       <c r="BH186" s="10"/>
       <c r="BI186" s="10"/>
       <c r="BJ186" s="10"/>
+      <c r="BK186" s="10"/>
+      <c r="BL186" s="10"/>
+      <c r="BM186" s="10"/>
+      <c r="BN186" s="10"/>
     </row>
-    <row r="187" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>222</v>
       </c>
@@ -24645,8 +25456,12 @@
       <c r="BH187" s="19"/>
       <c r="BI187" s="19"/>
       <c r="BJ187" s="19"/>
+      <c r="BK187" s="19"/>
+      <c r="BL187" s="19"/>
+      <c r="BM187" s="19"/>
+      <c r="BN187" s="19"/>
     </row>
-    <row r="188" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>223</v>
       </c>
@@ -24751,8 +25566,12 @@
       <c r="BH188" s="10"/>
       <c r="BI188" s="10"/>
       <c r="BJ188" s="10"/>
+      <c r="BK188" s="10"/>
+      <c r="BL188" s="10"/>
+      <c r="BM188" s="10"/>
+      <c r="BN188" s="10"/>
     </row>
-    <row r="189" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
         <v>224</v>
       </c>
@@ -24861,8 +25680,12 @@
       <c r="BH189" s="19"/>
       <c r="BI189" s="19"/>
       <c r="BJ189" s="19"/>
+      <c r="BK189" s="19"/>
+      <c r="BL189" s="19"/>
+      <c r="BM189" s="19"/>
+      <c r="BN189" s="19"/>
     </row>
-    <row r="190" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>225</v>
       </c>
@@ -24965,8 +25788,12 @@
       <c r="BH190" s="10"/>
       <c r="BI190" s="10"/>
       <c r="BJ190" s="10"/>
+      <c r="BK190" s="10"/>
+      <c r="BL190" s="10"/>
+      <c r="BM190" s="10"/>
+      <c r="BN190" s="10"/>
     </row>
-    <row r="191" spans="1:62" ht="405" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:66" ht="405" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>226</v>
       </c>
@@ -25069,8 +25896,12 @@
       <c r="BH191" s="19"/>
       <c r="BI191" s="19"/>
       <c r="BJ191" s="19"/>
+      <c r="BK191" s="19"/>
+      <c r="BL191" s="19"/>
+      <c r="BM191" s="19"/>
+      <c r="BN191" s="19"/>
     </row>
-    <row r="192" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>227</v>
       </c>
@@ -25165,8 +25996,12 @@
       <c r="BH192" s="10"/>
       <c r="BI192" s="10"/>
       <c r="BJ192" s="10"/>
+      <c r="BK192" s="10"/>
+      <c r="BL192" s="10"/>
+      <c r="BM192" s="10"/>
+      <c r="BN192" s="10"/>
     </row>
-    <row r="193" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>228</v>
       </c>
@@ -25271,8 +26106,12 @@
       <c r="BH193" s="19"/>
       <c r="BI193" s="19"/>
       <c r="BJ193" s="19"/>
+      <c r="BK193" s="19"/>
+      <c r="BL193" s="19"/>
+      <c r="BM193" s="19"/>
+      <c r="BN193" s="19"/>
     </row>
-    <row r="194" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>230</v>
       </c>
@@ -25379,8 +26218,12 @@
       <c r="BH194" s="10"/>
       <c r="BI194" s="10"/>
       <c r="BJ194" s="10"/>
+      <c r="BK194" s="10"/>
+      <c r="BL194" s="10"/>
+      <c r="BM194" s="10"/>
+      <c r="BN194" s="10"/>
     </row>
-    <row r="195" spans="1:62" ht="360" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>231</v>
       </c>
@@ -25483,8 +26326,12 @@
       <c r="BH195" s="19"/>
       <c r="BI195" s="19"/>
       <c r="BJ195" s="19"/>
+      <c r="BK195" s="19"/>
+      <c r="BL195" s="19"/>
+      <c r="BM195" s="19"/>
+      <c r="BN195" s="19"/>
     </row>
-    <row r="196" spans="1:62" ht="405" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:66" ht="405" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>232</v>
       </c>
@@ -25587,8 +26434,12 @@
       <c r="BH196" s="10"/>
       <c r="BI196" s="10"/>
       <c r="BJ196" s="10"/>
+      <c r="BK196" s="10"/>
+      <c r="BL196" s="10"/>
+      <c r="BM196" s="10"/>
+      <c r="BN196" s="10"/>
     </row>
-    <row r="197" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>233</v>
       </c>
@@ -25701,8 +26552,14 @@
       <c r="BH197" s="19"/>
       <c r="BI197" s="19"/>
       <c r="BJ197" s="19"/>
+      <c r="BK197" s="19"/>
+      <c r="BL197" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BM197" s="19"/>
+      <c r="BN197" s="19"/>
     </row>
-    <row r="198" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>234</v>
       </c>
@@ -25805,8 +26662,12 @@
       <c r="BH198" s="10"/>
       <c r="BI198" s="10"/>
       <c r="BJ198" s="10"/>
+      <c r="BK198" s="10"/>
+      <c r="BL198" s="10"/>
+      <c r="BM198" s="10"/>
+      <c r="BN198" s="10"/>
     </row>
-    <row r="199" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>235</v>
       </c>
@@ -25911,8 +26772,12 @@
       <c r="BH199" s="19"/>
       <c r="BI199" s="19"/>
       <c r="BJ199" s="19"/>
+      <c r="BK199" s="19"/>
+      <c r="BL199" s="19"/>
+      <c r="BM199" s="19"/>
+      <c r="BN199" s="19"/>
     </row>
-    <row r="200" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>236</v>
       </c>
@@ -26017,8 +26882,12 @@
       <c r="BH200" s="10"/>
       <c r="BI200" s="10"/>
       <c r="BJ200" s="10"/>
+      <c r="BK200" s="10"/>
+      <c r="BL200" s="10"/>
+      <c r="BM200" s="10"/>
+      <c r="BN200" s="10"/>
     </row>
-    <row r="201" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>238</v>
       </c>
@@ -26121,8 +26990,12 @@
       <c r="BH201" s="19"/>
       <c r="BI201" s="19"/>
       <c r="BJ201" s="19"/>
+      <c r="BK201" s="19"/>
+      <c r="BL201" s="19"/>
+      <c r="BM201" s="19"/>
+      <c r="BN201" s="19"/>
     </row>
-    <row r="202" spans="1:62" ht="405" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:66" ht="405" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>239</v>
       </c>
@@ -26225,8 +27098,12 @@
       <c r="BH202" s="10"/>
       <c r="BI202" s="10"/>
       <c r="BJ202" s="10"/>
+      <c r="BK202" s="10"/>
+      <c r="BL202" s="10"/>
+      <c r="BM202" s="10"/>
+      <c r="BN202" s="10"/>
     </row>
-    <row r="203" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>244</v>
       </c>
@@ -26331,8 +27208,12 @@
       <c r="BH203" s="19"/>
       <c r="BI203" s="19"/>
       <c r="BJ203" s="19"/>
+      <c r="BK203" s="19"/>
+      <c r="BL203" s="19"/>
+      <c r="BM203" s="19"/>
+      <c r="BN203" s="19"/>
     </row>
-    <row r="204" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>245</v>
       </c>
@@ -26437,8 +27318,12 @@
       <c r="BH204" s="10"/>
       <c r="BI204" s="10"/>
       <c r="BJ204" s="10"/>
+      <c r="BK204" s="10"/>
+      <c r="BL204" s="10"/>
+      <c r="BM204" s="10"/>
+      <c r="BN204" s="10"/>
     </row>
-    <row r="205" spans="1:62" ht="360" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>246</v>
       </c>
@@ -26541,8 +27426,12 @@
       <c r="BH205" s="19"/>
       <c r="BI205" s="19"/>
       <c r="BJ205" s="19"/>
+      <c r="BK205" s="19"/>
+      <c r="BL205" s="19"/>
+      <c r="BM205" s="19"/>
+      <c r="BN205" s="19"/>
     </row>
-    <row r="206" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>247</v>
       </c>
@@ -26645,8 +27534,12 @@
       <c r="BH206" s="10"/>
       <c r="BI206" s="10"/>
       <c r="BJ206" s="10"/>
+      <c r="BK206" s="10"/>
+      <c r="BL206" s="10"/>
+      <c r="BM206" s="10"/>
+      <c r="BN206" s="10"/>
     </row>
-    <row r="207" spans="1:62" ht="375" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:66" ht="375" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>248</v>
       </c>
@@ -26749,8 +27642,12 @@
       <c r="BH207" s="19"/>
       <c r="BI207" s="19"/>
       <c r="BJ207" s="19"/>
+      <c r="BK207" s="19"/>
+      <c r="BL207" s="19"/>
+      <c r="BM207" s="19"/>
+      <c r="BN207" s="19"/>
     </row>
-    <row r="208" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>249</v>
       </c>
@@ -26853,8 +27750,12 @@
       <c r="BH208" s="10"/>
       <c r="BI208" s="10"/>
       <c r="BJ208" s="10"/>
+      <c r="BK208" s="10"/>
+      <c r="BL208" s="10"/>
+      <c r="BM208" s="10"/>
+      <c r="BN208" s="10"/>
     </row>
-    <row r="209" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>250</v>
       </c>
@@ -26959,8 +27860,12 @@
       <c r="BH209" s="19"/>
       <c r="BI209" s="19"/>
       <c r="BJ209" s="19"/>
+      <c r="BK209" s="19"/>
+      <c r="BL209" s="19"/>
+      <c r="BM209" s="19"/>
+      <c r="BN209" s="19"/>
     </row>
-    <row r="210" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>251</v>
       </c>
@@ -27065,8 +27970,12 @@
       <c r="BH210" s="10"/>
       <c r="BI210" s="10"/>
       <c r="BJ210" s="10"/>
+      <c r="BK210" s="10"/>
+      <c r="BL210" s="10"/>
+      <c r="BM210" s="10"/>
+      <c r="BN210" s="10"/>
     </row>
-    <row r="211" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
         <v>252</v>
       </c>
@@ -27171,8 +28080,12 @@
       <c r="BH211" s="19"/>
       <c r="BI211" s="19"/>
       <c r="BJ211" s="19"/>
+      <c r="BK211" s="19"/>
+      <c r="BL211" s="19"/>
+      <c r="BM211" s="19"/>
+      <c r="BN211" s="19"/>
     </row>
-    <row r="212" spans="1:62" ht="360" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>253</v>
       </c>
@@ -27275,8 +28188,12 @@
       <c r="BH212" s="10"/>
       <c r="BI212" s="10"/>
       <c r="BJ212" s="10"/>
+      <c r="BK212" s="10"/>
+      <c r="BL212" s="10"/>
+      <c r="BM212" s="10"/>
+      <c r="BN212" s="10"/>
     </row>
-    <row r="213" spans="1:62" ht="360" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>254</v>
       </c>
@@ -27381,8 +28298,12 @@
       <c r="BH213" s="19"/>
       <c r="BI213" s="19"/>
       <c r="BJ213" s="19"/>
+      <c r="BK213" s="19"/>
+      <c r="BL213" s="19"/>
+      <c r="BM213" s="19"/>
+      <c r="BN213" s="19"/>
     </row>
-    <row r="214" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>256</v>
       </c>
@@ -27485,8 +28406,12 @@
       <c r="BH214" s="10"/>
       <c r="BI214" s="10"/>
       <c r="BJ214" s="10"/>
+      <c r="BK214" s="10"/>
+      <c r="BL214" s="10"/>
+      <c r="BM214" s="10"/>
+      <c r="BN214" s="10"/>
     </row>
-    <row r="215" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>257</v>
       </c>
@@ -27591,8 +28516,12 @@
       <c r="BH215" s="19"/>
       <c r="BI215" s="19"/>
       <c r="BJ215" s="19"/>
+      <c r="BK215" s="19"/>
+      <c r="BL215" s="19"/>
+      <c r="BM215" s="19"/>
+      <c r="BN215" s="19"/>
     </row>
-    <row r="216" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>258</v>
       </c>
@@ -27695,8 +28624,12 @@
       <c r="BH216" s="10"/>
       <c r="BI216" s="10"/>
       <c r="BJ216" s="10"/>
+      <c r="BK216" s="10"/>
+      <c r="BL216" s="10"/>
+      <c r="BM216" s="10"/>
+      <c r="BN216" s="10"/>
     </row>
-    <row r="217" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
         <v>259</v>
       </c>
@@ -27803,8 +28736,12 @@
       <c r="BH217" s="19"/>
       <c r="BI217" s="19"/>
       <c r="BJ217" s="19"/>
+      <c r="BK217" s="19"/>
+      <c r="BL217" s="19"/>
+      <c r="BM217" s="19"/>
+      <c r="BN217" s="19"/>
     </row>
-    <row r="218" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>261</v>
       </c>
@@ -27909,8 +28846,12 @@
       <c r="BH218" s="10"/>
       <c r="BI218" s="10"/>
       <c r="BJ218" s="10"/>
+      <c r="BK218" s="10"/>
+      <c r="BL218" s="10"/>
+      <c r="BM218" s="10"/>
+      <c r="BN218" s="10"/>
     </row>
-    <row r="219" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>262</v>
       </c>
@@ -28013,8 +28954,12 @@
       <c r="BH219" s="19"/>
       <c r="BI219" s="19"/>
       <c r="BJ219" s="19"/>
+      <c r="BK219" s="19"/>
+      <c r="BL219" s="19"/>
+      <c r="BM219" s="19"/>
+      <c r="BN219" s="19"/>
     </row>
-    <row r="220" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>263</v>
       </c>
@@ -28131,8 +29076,14 @@
       <c r="BH220" s="10"/>
       <c r="BI220" s="10"/>
       <c r="BJ220" s="10"/>
+      <c r="BK220" s="10"/>
+      <c r="BL220" s="10" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BM220" s="10"/>
+      <c r="BN220" s="10"/>
     </row>
-    <row r="221" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>264</v>
       </c>
@@ -28237,8 +29188,12 @@
       <c r="BH221" s="19"/>
       <c r="BI221" s="19"/>
       <c r="BJ221" s="19"/>
+      <c r="BK221" s="19"/>
+      <c r="BL221" s="19"/>
+      <c r="BM221" s="19"/>
+      <c r="BN221" s="19"/>
     </row>
-    <row r="222" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>265</v>
       </c>
@@ -28341,8 +29296,12 @@
       <c r="BH222" s="10"/>
       <c r="BI222" s="10"/>
       <c r="BJ222" s="10"/>
+      <c r="BK222" s="10"/>
+      <c r="BL222" s="10"/>
+      <c r="BM222" s="10"/>
+      <c r="BN222" s="10"/>
     </row>
-    <row r="223" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>266</v>
       </c>
@@ -28451,8 +29410,12 @@
       <c r="BH223" s="19"/>
       <c r="BI223" s="19"/>
       <c r="BJ223" s="19"/>
+      <c r="BK223" s="19"/>
+      <c r="BL223" s="19"/>
+      <c r="BM223" s="19"/>
+      <c r="BN223" s="19"/>
     </row>
-    <row r="224" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>267</v>
       </c>
@@ -28555,8 +29518,12 @@
       <c r="BH224" s="10"/>
       <c r="BI224" s="10"/>
       <c r="BJ224" s="10"/>
+      <c r="BK224" s="10"/>
+      <c r="BL224" s="10"/>
+      <c r="BM224" s="10"/>
+      <c r="BN224" s="10"/>
     </row>
-    <row r="225" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
         <v>268</v>
       </c>
@@ -28661,8 +29628,12 @@
       <c r="BH225" s="19"/>
       <c r="BI225" s="19"/>
       <c r="BJ225" s="19"/>
+      <c r="BK225" s="19"/>
+      <c r="BL225" s="19"/>
+      <c r="BM225" s="19"/>
+      <c r="BN225" s="19"/>
     </row>
-    <row r="226" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>269</v>
       </c>
@@ -28773,8 +29744,14 @@
       <c r="BH226" s="10"/>
       <c r="BI226" s="10"/>
       <c r="BJ226" s="10"/>
+      <c r="BK226" s="10"/>
+      <c r="BL226" s="10" t="s">
+        <v>1286</v>
+      </c>
+      <c r="BM226" s="10"/>
+      <c r="BN226" s="10"/>
     </row>
-    <row r="227" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>270</v>
       </c>
@@ -28879,8 +29856,14 @@
       <c r="BH227" s="19"/>
       <c r="BI227" s="19"/>
       <c r="BJ227" s="19"/>
+      <c r="BK227" s="19"/>
+      <c r="BL227" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="BM227" s="19"/>
+      <c r="BN227" s="19"/>
     </row>
-    <row r="228" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>272</v>
       </c>
@@ -28987,8 +29970,12 @@
       <c r="BH228" s="10"/>
       <c r="BI228" s="10"/>
       <c r="BJ228" s="10"/>
+      <c r="BK228" s="10"/>
+      <c r="BL228" s="10"/>
+      <c r="BM228" s="10"/>
+      <c r="BN228" s="10"/>
     </row>
-    <row r="229" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>273</v>
       </c>
@@ -29095,8 +30082,12 @@
       <c r="BH229" s="19"/>
       <c r="BI229" s="19"/>
       <c r="BJ229" s="19"/>
+      <c r="BK229" s="19"/>
+      <c r="BL229" s="19"/>
+      <c r="BM229" s="19"/>
+      <c r="BN229" s="19"/>
     </row>
-    <row r="230" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>274</v>
       </c>
@@ -29201,8 +30192,12 @@
       <c r="BH230" s="10"/>
       <c r="BI230" s="10"/>
       <c r="BJ230" s="10"/>
+      <c r="BK230" s="10"/>
+      <c r="BL230" s="10"/>
+      <c r="BM230" s="10"/>
+      <c r="BN230" s="10"/>
     </row>
-    <row r="231" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>275</v>
       </c>
@@ -29307,8 +30302,12 @@
       <c r="BH231" s="19"/>
       <c r="BI231" s="19"/>
       <c r="BJ231" s="19"/>
+      <c r="BK231" s="19"/>
+      <c r="BL231" s="19"/>
+      <c r="BM231" s="19"/>
+      <c r="BN231" s="19"/>
     </row>
-    <row r="232" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>276</v>
       </c>
@@ -29411,8 +30410,12 @@
       <c r="BH232" s="10"/>
       <c r="BI232" s="10"/>
       <c r="BJ232" s="10"/>
+      <c r="BK232" s="10"/>
+      <c r="BL232" s="10"/>
+      <c r="BM232" s="10"/>
+      <c r="BN232" s="10"/>
     </row>
-    <row r="233" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>277</v>
       </c>
@@ -29517,8 +30520,12 @@
       <c r="BH233" s="19"/>
       <c r="BI233" s="19"/>
       <c r="BJ233" s="19"/>
+      <c r="BK233" s="19"/>
+      <c r="BL233" s="19"/>
+      <c r="BM233" s="19"/>
+      <c r="BN233" s="19"/>
     </row>
-    <row r="234" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>279</v>
       </c>
@@ -29623,8 +30630,12 @@
       <c r="BH234" s="10"/>
       <c r="BI234" s="10"/>
       <c r="BJ234" s="10"/>
+      <c r="BK234" s="10"/>
+      <c r="BL234" s="10"/>
+      <c r="BM234" s="10"/>
+      <c r="BN234" s="10"/>
     </row>
-    <row r="235" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>281</v>
       </c>
@@ -29731,8 +30742,12 @@
       <c r="BH235" s="19"/>
       <c r="BI235" s="19"/>
       <c r="BJ235" s="19"/>
+      <c r="BK235" s="19"/>
+      <c r="BL235" s="19"/>
+      <c r="BM235" s="19"/>
+      <c r="BN235" s="19"/>
     </row>
-    <row r="236" spans="1:62" ht="390" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>282</v>
       </c>
@@ -29837,8 +30852,12 @@
       <c r="BH236" s="10"/>
       <c r="BI236" s="10"/>
       <c r="BJ236" s="10"/>
+      <c r="BK236" s="10"/>
+      <c r="BL236" s="10"/>
+      <c r="BM236" s="10"/>
+      <c r="BN236" s="10"/>
     </row>
-    <row r="237" spans="1:62" ht="360" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>283</v>
       </c>
@@ -29941,8 +30960,12 @@
       <c r="BH237" s="19"/>
       <c r="BI237" s="19"/>
       <c r="BJ237" s="19"/>
+      <c r="BK237" s="19"/>
+      <c r="BL237" s="19"/>
+      <c r="BM237" s="19"/>
+      <c r="BN237" s="19"/>
     </row>
-    <row r="238" spans="1:62" ht="405" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:66" ht="405" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>284</v>
       </c>
@@ -30045,8 +31068,12 @@
       <c r="BH238" s="10"/>
       <c r="BI238" s="10"/>
       <c r="BJ238" s="10"/>
+      <c r="BK238" s="10"/>
+      <c r="BL238" s="10"/>
+      <c r="BM238" s="10"/>
+      <c r="BN238" s="10"/>
     </row>
-    <row r="239" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>285</v>
       </c>
@@ -30153,8 +31180,12 @@
       <c r="BH239" s="19"/>
       <c r="BI239" s="19"/>
       <c r="BJ239" s="19"/>
+      <c r="BK239" s="19"/>
+      <c r="BL239" s="19"/>
+      <c r="BM239" s="19"/>
+      <c r="BN239" s="19"/>
     </row>
-    <row r="240" spans="1:62" ht="360" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>286</v>
       </c>
@@ -30259,8 +31290,12 @@
       <c r="BH240" s="10"/>
       <c r="BI240" s="10"/>
       <c r="BJ240" s="10"/>
+      <c r="BK240" s="10"/>
+      <c r="BL240" s="10"/>
+      <c r="BM240" s="10"/>
+      <c r="BN240" s="10"/>
     </row>
-    <row r="241" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>287</v>
       </c>
@@ -30365,8 +31400,12 @@
       <c r="BH241" s="19"/>
       <c r="BI241" s="19"/>
       <c r="BJ241" s="19"/>
+      <c r="BK241" s="19"/>
+      <c r="BL241" s="19"/>
+      <c r="BM241" s="19"/>
+      <c r="BN241" s="19"/>
     </row>
-    <row r="242" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>288</v>
       </c>
@@ -30469,8 +31508,12 @@
       <c r="BH242" s="10"/>
       <c r="BI242" s="10"/>
       <c r="BJ242" s="10"/>
+      <c r="BK242" s="10"/>
+      <c r="BL242" s="10"/>
+      <c r="BM242" s="10"/>
+      <c r="BN242" s="10"/>
     </row>
-    <row r="243" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>289</v>
       </c>
@@ -30575,8 +31618,12 @@
       <c r="BH243" s="19"/>
       <c r="BI243" s="19"/>
       <c r="BJ243" s="19"/>
+      <c r="BK243" s="19"/>
+      <c r="BL243" s="19"/>
+      <c r="BM243" s="19"/>
+      <c r="BN243" s="19"/>
     </row>
-    <row r="244" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>290</v>
       </c>
@@ -30685,8 +31732,12 @@
       <c r="BH244" s="10"/>
       <c r="BI244" s="10"/>
       <c r="BJ244" s="10"/>
+      <c r="BK244" s="10"/>
+      <c r="BL244" s="10"/>
+      <c r="BM244" s="10"/>
+      <c r="BN244" s="10"/>
     </row>
-    <row r="245" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>291</v>
       </c>
@@ -30791,8 +31842,14 @@
       <c r="BH245" s="19"/>
       <c r="BI245" s="19"/>
       <c r="BJ245" s="19"/>
+      <c r="BK245" s="19"/>
+      <c r="BL245" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BM245" s="19"/>
+      <c r="BN245" s="19"/>
     </row>
-    <row r="246" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>292</v>
       </c>
@@ -30895,8 +31952,12 @@
       <c r="BH246" s="10"/>
       <c r="BI246" s="10"/>
       <c r="BJ246" s="10"/>
+      <c r="BK246" s="10"/>
+      <c r="BL246" s="10"/>
+      <c r="BM246" s="10"/>
+      <c r="BN246" s="10"/>
     </row>
-    <row r="247" spans="1:62" ht="270" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:66" ht="270" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>295</v>
       </c>
@@ -31003,8 +32064,12 @@
       <c r="BH247" s="19"/>
       <c r="BI247" s="19"/>
       <c r="BJ247" s="19"/>
+      <c r="BK247" s="19"/>
+      <c r="BL247" s="19"/>
+      <c r="BM247" s="19"/>
+      <c r="BN247" s="19"/>
     </row>
-    <row r="248" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>296</v>
       </c>
@@ -31107,8 +32172,12 @@
       <c r="BH248" s="10"/>
       <c r="BI248" s="10"/>
       <c r="BJ248" s="10"/>
+      <c r="BK248" s="10"/>
+      <c r="BL248" s="10"/>
+      <c r="BM248" s="10"/>
+      <c r="BN248" s="10"/>
     </row>
-    <row r="249" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>297</v>
       </c>
@@ -31211,8 +32280,12 @@
       <c r="BH249" s="19"/>
       <c r="BI249" s="19"/>
       <c r="BJ249" s="19"/>
+      <c r="BK249" s="19"/>
+      <c r="BL249" s="19"/>
+      <c r="BM249" s="19"/>
+      <c r="BN249" s="19"/>
     </row>
-    <row r="250" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>298</v>
       </c>
@@ -31317,8 +32390,14 @@
       <c r="BJ250" s="10" t="s">
         <v>1168</v>
       </c>
+      <c r="BK250" s="10"/>
+      <c r="BL250" s="10"/>
+      <c r="BM250" s="10"/>
+      <c r="BN250" s="10" t="s">
+        <v>1168</v>
+      </c>
     </row>
-    <row r="251" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>300</v>
       </c>
@@ -31423,8 +32502,12 @@
       <c r="BH251" s="19"/>
       <c r="BI251" s="19"/>
       <c r="BJ251" s="19"/>
+      <c r="BK251" s="19"/>
+      <c r="BL251" s="19"/>
+      <c r="BM251" s="19"/>
+      <c r="BN251" s="19"/>
     </row>
-    <row r="252" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>301</v>
       </c>
@@ -31527,8 +32610,12 @@
       <c r="BH252" s="10"/>
       <c r="BI252" s="10"/>
       <c r="BJ252" s="10"/>
+      <c r="BK252" s="10"/>
+      <c r="BL252" s="10"/>
+      <c r="BM252" s="10"/>
+      <c r="BN252" s="10"/>
     </row>
-    <row r="253" spans="1:62" ht="315" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:66" ht="315" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>304</v>
       </c>
@@ -31631,8 +32718,12 @@
       <c r="BH253" s="19"/>
       <c r="BI253" s="19"/>
       <c r="BJ253" s="19"/>
+      <c r="BK253" s="19"/>
+      <c r="BL253" s="19"/>
+      <c r="BM253" s="19"/>
+      <c r="BN253" s="19"/>
     </row>
-    <row r="254" spans="1:62" ht="360" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>305</v>
       </c>
@@ -31745,8 +32836,14 @@
       <c r="BJ254" s="10" t="s">
         <v>1168</v>
       </c>
+      <c r="BK254" s="10"/>
+      <c r="BL254" s="10"/>
+      <c r="BM254" s="10"/>
+      <c r="BN254" s="10" t="s">
+        <v>1168</v>
+      </c>
     </row>
-    <row r="255" spans="1:62" ht="360" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>306</v>
       </c>
@@ -31855,8 +32952,12 @@
       <c r="BH255" s="19"/>
       <c r="BI255" s="19"/>
       <c r="BJ255" s="19"/>
+      <c r="BK255" s="19"/>
+      <c r="BL255" s="19"/>
+      <c r="BM255" s="19"/>
+      <c r="BN255" s="19"/>
     </row>
-    <row r="256" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>307</v>
       </c>
@@ -31959,8 +33060,12 @@
       <c r="BH256" s="10"/>
       <c r="BI256" s="10"/>
       <c r="BJ256" s="10"/>
+      <c r="BK256" s="10"/>
+      <c r="BL256" s="10"/>
+      <c r="BM256" s="10"/>
+      <c r="BN256" s="10"/>
     </row>
-    <row r="257" spans="1:62" ht="330" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:66" ht="330" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>308</v>
       </c>
@@ -32063,8 +33168,12 @@
       <c r="BH257" s="19"/>
       <c r="BI257" s="19"/>
       <c r="BJ257" s="19"/>
+      <c r="BK257" s="19"/>
+      <c r="BL257" s="19"/>
+      <c r="BM257" s="19"/>
+      <c r="BN257" s="19"/>
     </row>
-    <row r="258" spans="1:62" ht="375" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:66" ht="375" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>309</v>
       </c>
@@ -32171,8 +33280,14 @@
       <c r="BJ258" s="10" t="s">
         <v>1168</v>
       </c>
+      <c r="BK258" s="10"/>
+      <c r="BL258" s="10"/>
+      <c r="BM258" s="10"/>
+      <c r="BN258" s="10" t="s">
+        <v>1168</v>
+      </c>
     </row>
-    <row r="259" spans="1:62" ht="240" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:66" ht="240" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>310</v>
       </c>
@@ -32283,8 +33398,14 @@
       <c r="BH259" s="19"/>
       <c r="BI259" s="19"/>
       <c r="BJ259" s="19"/>
+      <c r="BK259" s="19"/>
+      <c r="BL259" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="BM259" s="19"/>
+      <c r="BN259" s="19"/>
     </row>
-    <row r="260" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>311</v>
       </c>
@@ -32387,8 +33508,12 @@
       <c r="BH260" s="10"/>
       <c r="BI260" s="10"/>
       <c r="BJ260" s="10"/>
+      <c r="BK260" s="10"/>
+      <c r="BL260" s="10"/>
+      <c r="BM260" s="10"/>
+      <c r="BN260" s="10"/>
     </row>
-    <row r="261" spans="1:62" ht="225" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>312</v>
       </c>
@@ -32481,8 +33606,12 @@
       <c r="BH261" s="19"/>
       <c r="BI261" s="19"/>
       <c r="BJ261" s="19"/>
+      <c r="BK261" s="19"/>
+      <c r="BL261" s="19"/>
+      <c r="BM261" s="19"/>
+      <c r="BN261" s="19"/>
     </row>
-    <row r="262" spans="1:62" ht="345" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>313</v>
       </c>
@@ -32575,8 +33704,12 @@
       <c r="BH262" s="10"/>
       <c r="BI262" s="10"/>
       <c r="BJ262" s="10"/>
+      <c r="BK262" s="10"/>
+      <c r="BL262" s="10"/>
+      <c r="BM262" s="10"/>
+      <c r="BN262" s="10"/>
     </row>
-    <row r="263" spans="1:62" ht="285" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:66" ht="285" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>314</v>
       </c>
@@ -32669,8 +33802,12 @@
       <c r="BH263" s="19"/>
       <c r="BI263" s="19"/>
       <c r="BJ263" s="19"/>
+      <c r="BK263" s="19"/>
+      <c r="BL263" s="19"/>
+      <c r="BM263" s="19"/>
+      <c r="BN263" s="19"/>
     </row>
-    <row r="264" spans="1:62" ht="210" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:66" ht="210" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>315</v>
       </c>
@@ -32763,8 +33900,12 @@
       <c r="BH264" s="10"/>
       <c r="BI264" s="10"/>
       <c r="BJ264" s="10"/>
+      <c r="BK264" s="10"/>
+      <c r="BL264" s="10"/>
+      <c r="BM264" s="10"/>
+      <c r="BN264" s="10"/>
     </row>
-    <row r="265" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>316</v>
       </c>
@@ -32859,8 +34000,12 @@
       <c r="BH265" s="19"/>
       <c r="BI265" s="19"/>
       <c r="BJ265" s="19"/>
+      <c r="BK265" s="19"/>
+      <c r="BL265" s="19"/>
+      <c r="BM265" s="19"/>
+      <c r="BN265" s="19"/>
     </row>
-    <row r="266" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>317</v>
       </c>
@@ -32971,8 +34116,14 @@
       <c r="BH266" s="10"/>
       <c r="BI266" s="10"/>
       <c r="BJ266" s="10"/>
+      <c r="BK266" s="10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="BL266" s="10"/>
+      <c r="BM266" s="10"/>
+      <c r="BN266" s="10"/>
     </row>
-    <row r="267" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>318</v>
       </c>
@@ -33079,8 +34230,12 @@
       <c r="BH267" s="19"/>
       <c r="BI267" s="19"/>
       <c r="BJ267" s="19"/>
+      <c r="BK267" s="19"/>
+      <c r="BL267" s="19"/>
+      <c r="BM267" s="19"/>
+      <c r="BN267" s="19"/>
     </row>
-    <row r="268" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>319</v>
       </c>
@@ -33190,8 +34345,14 @@
       <c r="BH268" s="10"/>
       <c r="BI268" s="10"/>
       <c r="BJ268" s="10"/>
+      <c r="BK268" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="BL268" s="10"/>
+      <c r="BM268" s="10"/>
+      <c r="BN268" s="10"/>
     </row>
-    <row r="269" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>320</v>
       </c>
@@ -33296,8 +34457,14 @@
       <c r="BH269" s="19"/>
       <c r="BI269" s="19"/>
       <c r="BJ269" s="19"/>
+      <c r="BK269" s="19" t="s">
+        <v>1187</v>
+      </c>
+      <c r="BL269" s="19"/>
+      <c r="BM269" s="19"/>
+      <c r="BN269" s="19"/>
     </row>
-    <row r="270" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>321</v>
       </c>
@@ -33398,8 +34565,12 @@
       <c r="BH270" s="10"/>
       <c r="BI270" s="10"/>
       <c r="BJ270" s="10"/>
+      <c r="BK270" s="10"/>
+      <c r="BL270" s="10"/>
+      <c r="BM270" s="10"/>
+      <c r="BN270" s="10"/>
     </row>
-    <row r="271" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A271" s="14">
         <v>322</v>
       </c>
@@ -33502,8 +34673,12 @@
       <c r="BH271" s="19"/>
       <c r="BI271" s="19"/>
       <c r="BJ271" s="19"/>
+      <c r="BK271" s="19"/>
+      <c r="BL271" s="19"/>
+      <c r="BM271" s="19"/>
+      <c r="BN271" s="19"/>
     </row>
-    <row r="272" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>323</v>
       </c>
@@ -33608,8 +34783,12 @@
       </c>
       <c r="BI272" s="10"/>
       <c r="BJ272" s="10"/>
+      <c r="BK272" s="10"/>
+      <c r="BL272" s="10"/>
+      <c r="BM272" s="10"/>
+      <c r="BN272" s="10"/>
     </row>
-    <row r="273" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>324</v>
       </c>
@@ -33704,8 +34883,12 @@
       <c r="BH273" s="19"/>
       <c r="BI273" s="19"/>
       <c r="BJ273" s="19"/>
+      <c r="BK273" s="19"/>
+      <c r="BL273" s="19"/>
+      <c r="BM273" s="19"/>
+      <c r="BN273" s="19"/>
     </row>
-    <row r="274" spans="1:62" ht="165" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:66" ht="165" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>325</v>
       </c>
@@ -33810,8 +34993,12 @@
       </c>
       <c r="BI274" s="10"/>
       <c r="BJ274" s="10"/>
+      <c r="BK274" s="10"/>
+      <c r="BL274" s="51"/>
+      <c r="BM274" s="10"/>
+      <c r="BN274" s="10"/>
     </row>
-    <row r="275" spans="1:62" ht="120" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:66" ht="120" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>326</v>
       </c>
@@ -33918,8 +35105,12 @@
       <c r="BH275" s="50"/>
       <c r="BI275" s="19"/>
       <c r="BJ275" s="19"/>
+      <c r="BK275" s="19"/>
+      <c r="BL275" s="51"/>
+      <c r="BM275" s="19"/>
+      <c r="BN275" s="19"/>
     </row>
-    <row r="276" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>327</v>
       </c>
@@ -34024,8 +35215,14 @@
       <c r="BH276" s="50"/>
       <c r="BI276" s="10"/>
       <c r="BJ276" s="10"/>
+      <c r="BK276" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="BL276" s="51"/>
+      <c r="BM276" s="10"/>
+      <c r="BN276" s="10"/>
     </row>
-    <row r="277" spans="1:62" ht="120" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:66" ht="120" x14ac:dyDescent="0.25">
       <c r="A277" s="14">
         <v>328</v>
       </c>
@@ -34128,8 +35325,12 @@
       <c r="BH277" s="50"/>
       <c r="BI277" s="19"/>
       <c r="BJ277" s="19"/>
+      <c r="BK277" s="19"/>
+      <c r="BL277" s="51"/>
+      <c r="BM277" s="19"/>
+      <c r="BN277" s="19"/>
     </row>
-    <row r="278" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>329</v>
       </c>
@@ -34224,8 +35425,12 @@
       <c r="BH278" s="10"/>
       <c r="BI278" s="10"/>
       <c r="BJ278" s="10"/>
+      <c r="BK278" s="10"/>
+      <c r="BL278" s="10"/>
+      <c r="BM278" s="10"/>
+      <c r="BN278" s="10"/>
     </row>
-    <row r="279" spans="1:62" ht="300" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:66" ht="300" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>330</v>
       </c>
@@ -34320,8 +35525,12 @@
       <c r="BH279" s="19"/>
       <c r="BI279" s="19"/>
       <c r="BJ279" s="19"/>
+      <c r="BK279" s="19"/>
+      <c r="BL279" s="19"/>
+      <c r="BM279" s="19"/>
+      <c r="BN279" s="19"/>
     </row>
-    <row r="280" spans="1:62" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A280" s="14">
         <v>331</v>
       </c>
@@ -34426,8 +35635,12 @@
       <c r="BH280" s="10"/>
       <c r="BI280" s="10"/>
       <c r="BJ280" s="10"/>
+      <c r="BK280" s="10"/>
+      <c r="BL280" s="10"/>
+      <c r="BM280" s="10"/>
+      <c r="BN280" s="10"/>
     </row>
-    <row r="281" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>332</v>
       </c>
@@ -34492,8 +35705,12 @@
       <c r="BH281" s="19"/>
       <c r="BI281" s="19"/>
       <c r="BJ281" s="19"/>
+      <c r="BK281" s="19"/>
+      <c r="BL281" s="19"/>
+      <c r="BM281" s="19"/>
+      <c r="BN281" s="19"/>
     </row>
-    <row r="282" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>333</v>
       </c>
@@ -34558,8 +35775,12 @@
       <c r="BH282" s="10"/>
       <c r="BI282" s="10"/>
       <c r="BJ282" s="10"/>
+      <c r="BK282" s="10"/>
+      <c r="BL282" s="10"/>
+      <c r="BM282" s="10"/>
+      <c r="BN282" s="10"/>
     </row>
-    <row r="283" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>334</v>
       </c>
@@ -34624,8 +35845,12 @@
       <c r="BH283" s="19"/>
       <c r="BI283" s="19"/>
       <c r="BJ283" s="19"/>
+      <c r="BK283" s="19"/>
+      <c r="BL283" s="19"/>
+      <c r="BM283" s="19"/>
+      <c r="BN283" s="19"/>
     </row>
-    <row r="284" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>335</v>
       </c>
@@ -34690,8 +35915,12 @@
       <c r="BH284" s="10"/>
       <c r="BI284" s="10"/>
       <c r="BJ284" s="10"/>
+      <c r="BK284" s="10"/>
+      <c r="BL284" s="10"/>
+      <c r="BM284" s="10"/>
+      <c r="BN284" s="10"/>
     </row>
-    <row r="285" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>336</v>
       </c>
@@ -34756,8 +35985,12 @@
       <c r="BH285" s="19"/>
       <c r="BI285" s="19"/>
       <c r="BJ285" s="19"/>
+      <c r="BK285" s="19"/>
+      <c r="BL285" s="19"/>
+      <c r="BM285" s="19"/>
+      <c r="BN285" s="19"/>
     </row>
-    <row r="286" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="14">
         <v>337</v>
       </c>
@@ -34822,8 +36055,12 @@
       <c r="BH286" s="10"/>
       <c r="BI286" s="10"/>
       <c r="BJ286" s="10"/>
+      <c r="BK286" s="10"/>
+      <c r="BL286" s="10"/>
+      <c r="BM286" s="10"/>
+      <c r="BN286" s="10"/>
     </row>
-    <row r="287" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="15"/>
       <c r="C287" s="15"/>
@@ -34886,8 +36123,12 @@
       <c r="BH287" s="19"/>
       <c r="BI287" s="19"/>
       <c r="BJ287" s="19"/>
+      <c r="BK287" s="19"/>
+      <c r="BL287" s="19"/>
+      <c r="BM287" s="19"/>
+      <c r="BN287" s="19"/>
     </row>
-    <row r="288" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="37"/>
@@ -34950,8 +36191,12 @@
       <c r="BH288" s="10"/>
       <c r="BI288" s="10"/>
       <c r="BJ288" s="10"/>
+      <c r="BK288" s="10"/>
+      <c r="BL288" s="10"/>
+      <c r="BM288" s="10"/>
+      <c r="BN288" s="10"/>
     </row>
-    <row r="289" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" s="15"/>
       <c r="C289" s="15"/>
@@ -35014,8 +36259,12 @@
       <c r="BH289" s="19"/>
       <c r="BI289" s="19"/>
       <c r="BJ289" s="19"/>
+      <c r="BK289" s="19"/>
+      <c r="BL289" s="19"/>
+      <c r="BM289" s="19"/>
+      <c r="BN289" s="19"/>
     </row>
-    <row r="290" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="37"/>
@@ -35078,8 +36327,12 @@
       <c r="BH290" s="10"/>
       <c r="BI290" s="10"/>
       <c r="BJ290" s="10"/>
+      <c r="BK290" s="10"/>
+      <c r="BL290" s="10"/>
+      <c r="BM290" s="10"/>
+      <c r="BN290" s="10"/>
     </row>
-    <row r="291" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="15"/>
       <c r="C291" s="15"/>
@@ -35142,8 +36395,12 @@
       <c r="BH291" s="19"/>
       <c r="BI291" s="19"/>
       <c r="BJ291" s="19"/>
+      <c r="BK291" s="19"/>
+      <c r="BL291" s="19"/>
+      <c r="BM291" s="19"/>
+      <c r="BN291" s="19"/>
     </row>
-    <row r="292" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="37"/>
@@ -35206,8 +36463,12 @@
       <c r="BH292" s="10"/>
       <c r="BI292" s="10"/>
       <c r="BJ292" s="10"/>
+      <c r="BK292" s="10"/>
+      <c r="BL292" s="10"/>
+      <c r="BM292" s="10"/>
+      <c r="BN292" s="10"/>
     </row>
-    <row r="293" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="15"/>
       <c r="C293" s="15"/>
@@ -35270,8 +36531,12 @@
       <c r="BH293" s="19"/>
       <c r="BI293" s="19"/>
       <c r="BJ293" s="19"/>
+      <c r="BK293" s="19"/>
+      <c r="BL293" s="19"/>
+      <c r="BM293" s="19"/>
+      <c r="BN293" s="19"/>
     </row>
-    <row r="294" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="6"/>
       <c r="C294" s="37"/>
@@ -35334,8 +36599,12 @@
       <c r="BH294" s="10"/>
       <c r="BI294" s="10"/>
       <c r="BJ294" s="10"/>
+      <c r="BK294" s="10"/>
+      <c r="BL294" s="10"/>
+      <c r="BM294" s="10"/>
+      <c r="BN294" s="10"/>
     </row>
-    <row r="295" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="15"/>
       <c r="C295" s="15"/>
@@ -35398,8 +36667,12 @@
       <c r="BH295" s="19"/>
       <c r="BI295" s="19"/>
       <c r="BJ295" s="19"/>
+      <c r="BK295" s="19"/>
+      <c r="BL295" s="19"/>
+      <c r="BM295" s="19"/>
+      <c r="BN295" s="19"/>
     </row>
-    <row r="296" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="37"/>
@@ -35462,6 +36735,10 @@
       <c r="BH296" s="10"/>
       <c r="BI296" s="10"/>
       <c r="BJ296" s="10"/>
+      <c r="BK296" s="10"/>
+      <c r="BL296" s="10"/>
+      <c r="BM296" s="10"/>
+      <c r="BN296" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="5">

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0455A2CA-1DD6-49D4-B20F-CB4D18EF23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E827706-8038-45B9-8B44-9E7BEEE0CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="1288">
   <si>
     <t>Nr.</t>
   </si>
@@ -4127,6 +4127,9 @@
   </si>
   <si>
     <t>xxxx</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
   </si>
 </sst>
 </file>
@@ -4803,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
   <dimension ref="A1:BN296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BL3" sqref="BL3"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BK3" sqref="BK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,7 +5671,9 @@
       <c r="BJ7" s="19"/>
       <c r="BK7" s="19"/>
       <c r="BL7" s="19"/>
-      <c r="BM7" s="19"/>
+      <c r="BM7" s="19" t="s">
+        <v>1282</v>
+      </c>
       <c r="BN7" s="19"/>
     </row>
     <row r="8" spans="1:66" ht="135" x14ac:dyDescent="0.25">
@@ -5776,7 +5781,9 @@
       <c r="BJ8" s="10"/>
       <c r="BK8" s="10"/>
       <c r="BL8" s="10"/>
-      <c r="BM8" s="10"/>
+      <c r="BM8" s="10" t="s">
+        <v>1282</v>
+      </c>
       <c r="BN8" s="10"/>
     </row>
     <row r="9" spans="1:66" ht="135" x14ac:dyDescent="0.25">
@@ -6217,7 +6224,9 @@
       <c r="BK12" s="10"/>
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
-      <c r="BN12" s="10"/>
+      <c r="BN12" s="10" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="13" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -7323,7 +7332,9 @@
       <c r="BK22" s="10"/>
       <c r="BL22" s="10"/>
       <c r="BM22" s="10"/>
-      <c r="BN22" s="10"/>
+      <c r="BN22" s="10" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="23" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -9742,7 +9753,9 @@
       <c r="BL44" s="10" t="s">
         <v>1281</v>
       </c>
-      <c r="BM44" s="10"/>
+      <c r="BM44" s="10" t="s">
+        <v>1287</v>
+      </c>
       <c r="BN44" s="10"/>
     </row>
     <row r="45" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
@@ -11510,10 +11523,12 @@
         <v>1155</v>
       </c>
       <c r="BJ60" s="10"/>
-      <c r="BK60" s="10"/>
+      <c r="BK60" s="10" t="s">
+        <v>1287</v>
+      </c>
       <c r="BL60" s="10"/>
       <c r="BM60" s="10" t="s">
-        <v>1155</v>
+        <v>1282</v>
       </c>
       <c r="BN60" s="10"/>
     </row>
@@ -11739,7 +11754,9 @@
       <c r="BK62" s="10"/>
       <c r="BL62" s="10"/>
       <c r="BM62" s="10"/>
-      <c r="BN62" s="10"/>
+      <c r="BN62" s="10" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="63" spans="1:66" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
@@ -12508,7 +12525,9 @@
       <c r="BJ69" s="19"/>
       <c r="BK69" s="19"/>
       <c r="BL69" s="19"/>
-      <c r="BM69" s="19"/>
+      <c r="BM69" s="19" t="s">
+        <v>1287</v>
+      </c>
       <c r="BN69" s="19"/>
     </row>
     <row r="70" spans="1:66" ht="165" x14ac:dyDescent="0.25">
@@ -13171,7 +13190,9 @@
       <c r="BK75" s="19"/>
       <c r="BL75" s="19"/>
       <c r="BM75" s="19"/>
-      <c r="BN75" s="19"/>
+      <c r="BN75" s="19" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="76" spans="1:66" ht="390" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
@@ -13515,7 +13536,9 @@
       <c r="BK78" s="10"/>
       <c r="BL78" s="10"/>
       <c r="BM78" s="10"/>
-      <c r="BN78" s="10"/>
+      <c r="BN78" s="10" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="79" spans="1:66" ht="180" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
@@ -14171,7 +14194,9 @@
       <c r="BK84" s="10"/>
       <c r="BL84" s="10"/>
       <c r="BM84" s="10"/>
-      <c r="BN84" s="10"/>
+      <c r="BN84" s="10" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="85" spans="1:66" ht="255" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
@@ -14387,7 +14412,9 @@
       <c r="BK86" s="10"/>
       <c r="BL86" s="10"/>
       <c r="BM86" s="10"/>
-      <c r="BN86" s="10"/>
+      <c r="BN86" s="10" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="87" spans="1:66" ht="225" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
@@ -15265,7 +15292,7 @@
       <c r="BI94" s="10"/>
       <c r="BJ94" s="10"/>
       <c r="BK94" s="10" t="s">
-        <v>1163</v>
+        <v>1286</v>
       </c>
       <c r="BL94" s="10"/>
       <c r="BM94" s="10"/>
@@ -15814,9 +15841,7 @@
       <c r="BJ99" s="19"/>
       <c r="BK99" s="19"/>
       <c r="BL99" s="19"/>
-      <c r="BM99" s="19" t="s">
-        <v>1164</v>
-      </c>
+      <c r="BM99" s="19"/>
       <c r="BN99" s="19"/>
     </row>
     <row r="100" spans="1:66" ht="165" x14ac:dyDescent="0.25">
@@ -16686,9 +16711,7 @@
       <c r="BJ107" s="19"/>
       <c r="BK107" s="19"/>
       <c r="BL107" s="19"/>
-      <c r="BM107" s="19" t="s">
-        <v>1265</v>
-      </c>
+      <c r="BM107" s="19"/>
       <c r="BN107" s="19"/>
     </row>
     <row r="108" spans="1:66" ht="330" x14ac:dyDescent="0.25">
@@ -17021,7 +17044,9 @@
         <v>1283</v>
       </c>
       <c r="BM110" s="10"/>
-      <c r="BN110" s="10"/>
+      <c r="BN110" s="10" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="111" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
@@ -18972,7 +18997,9 @@
       <c r="BH128" s="10"/>
       <c r="BI128" s="10"/>
       <c r="BJ128" s="10"/>
-      <c r="BK128" s="10"/>
+      <c r="BK128" s="10" t="s">
+        <v>1287</v>
+      </c>
       <c r="BL128" s="10"/>
       <c r="BM128" s="10"/>
       <c r="BN128" s="10"/>
@@ -23814,7 +23841,9 @@
       <c r="BH172" s="10"/>
       <c r="BI172" s="10"/>
       <c r="BJ172" s="10"/>
-      <c r="BK172" s="10"/>
+      <c r="BK172" s="10" t="s">
+        <v>1285</v>
+      </c>
       <c r="BL172" s="10"/>
       <c r="BM172" s="10"/>
       <c r="BN172" s="10"/>
@@ -24912,7 +24941,9 @@
       <c r="BJ182" s="10"/>
       <c r="BK182" s="10"/>
       <c r="BL182" s="10"/>
-      <c r="BM182" s="10"/>
+      <c r="BM182" s="10" t="s">
+        <v>1282</v>
+      </c>
       <c r="BN182" s="10"/>
     </row>
     <row r="183" spans="1:66" ht="105" x14ac:dyDescent="0.25">
@@ -32393,9 +32424,7 @@
       <c r="BK250" s="10"/>
       <c r="BL250" s="10"/>
       <c r="BM250" s="10"/>
-      <c r="BN250" s="10" t="s">
-        <v>1168</v>
-      </c>
+      <c r="BN250" s="10"/>
     </row>
     <row r="251" spans="1:66" ht="345" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
@@ -32839,9 +32868,7 @@
       <c r="BK254" s="10"/>
       <c r="BL254" s="10"/>
       <c r="BM254" s="10"/>
-      <c r="BN254" s="10" t="s">
-        <v>1168</v>
-      </c>
+      <c r="BN254" s="10"/>
     </row>
     <row r="255" spans="1:66" ht="360" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
@@ -33283,9 +33310,7 @@
       <c r="BK258" s="10"/>
       <c r="BL258" s="10"/>
       <c r="BM258" s="10"/>
-      <c r="BN258" s="10" t="s">
-        <v>1168</v>
-      </c>
+      <c r="BN258" s="10"/>
     </row>
     <row r="259" spans="1:66" ht="240" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
@@ -34116,9 +34141,7 @@
       <c r="BH266" s="10"/>
       <c r="BI266" s="10"/>
       <c r="BJ266" s="10"/>
-      <c r="BK266" s="10" t="s">
-        <v>1266</v>
-      </c>
+      <c r="BK266" s="10"/>
       <c r="BL266" s="10"/>
       <c r="BM266" s="10"/>
       <c r="BN266" s="10"/>
@@ -34230,7 +34253,9 @@
       <c r="BH267" s="19"/>
       <c r="BI267" s="19"/>
       <c r="BJ267" s="19"/>
-      <c r="BK267" s="19"/>
+      <c r="BK267" s="19" t="s">
+        <v>1282</v>
+      </c>
       <c r="BL267" s="19"/>
       <c r="BM267" s="19"/>
       <c r="BN267" s="19"/>
@@ -34345,9 +34370,7 @@
       <c r="BH268" s="10"/>
       <c r="BI268" s="10"/>
       <c r="BJ268" s="10"/>
-      <c r="BK268" s="10" t="s">
-        <v>1186</v>
-      </c>
+      <c r="BK268" s="10"/>
       <c r="BL268" s="10"/>
       <c r="BM268" s="10"/>
       <c r="BN268" s="10"/>
@@ -34458,7 +34481,7 @@
       <c r="BI269" s="19"/>
       <c r="BJ269" s="19"/>
       <c r="BK269" s="19" t="s">
-        <v>1187</v>
+        <v>1282</v>
       </c>
       <c r="BL269" s="19"/>
       <c r="BM269" s="19"/>
@@ -35215,9 +35238,7 @@
       <c r="BH276" s="50"/>
       <c r="BI276" s="10"/>
       <c r="BJ276" s="10"/>
-      <c r="BK276" s="10" t="s">
-        <v>1189</v>
-      </c>
+      <c r="BK276" s="10"/>
       <c r="BL276" s="51"/>
       <c r="BM276" s="10"/>
       <c r="BN276" s="10"/>
@@ -35427,7 +35448,9 @@
       <c r="BJ278" s="10"/>
       <c r="BK278" s="10"/>
       <c r="BL278" s="10"/>
-      <c r="BM278" s="10"/>
+      <c r="BM278" s="10" t="s">
+        <v>1282</v>
+      </c>
       <c r="BN278" s="10"/>
     </row>
     <row r="279" spans="1:66" ht="300" x14ac:dyDescent="0.25">
@@ -35528,7 +35551,9 @@
       <c r="BK279" s="19"/>
       <c r="BL279" s="19"/>
       <c r="BM279" s="19"/>
-      <c r="BN279" s="19"/>
+      <c r="BN279" s="19" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="280" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A280" s="14">

--- a/indikatoren.xlsx
+++ b/indikatoren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E827706-8038-45B9-8B44-9E7BEEE0CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0671D7-170E-4B7F-BC16-C64CE7E0D153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3B66726-B981-43AD-9244-AF1A9A2AEAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9755877A-18FF-4D31-AF7F-269FAC3C3D0D}</author>
-    <author>tc={29E5C23C-379F-4A4D-921F-1A710C883D0C}</author>
-    <author>tc={53A89C99-36E3-4745-9587-6461CCA977E3}</author>
+    <author>tc={EFE8E8DD-9D58-489B-A051-CD8C33E310EF}</author>
+    <author>tc={6076918F-C868-4E58-A53A-CE1B1A0312E9}</author>
+    <author>tc={19DF259E-1A7B-4F4A-BF0E-C4306B861FA1}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9755877A-18FF-4D31-AF7F-269FAC3C3D0D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EFE8E8DD-9D58-489B-A051-CD8C33E310EF}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +52,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{29E5C23C-379F-4A4D-921F-1A710C883D0C}">
+    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{6076918F-C868-4E58-A53A-CE1B1A0312E9}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
     Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</t>
       </text>
     </comment>
-    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{53A89C99-36E3-4745-9587-6461CCA977E3}">
+    <comment ref="T44" authorId="2" shapeId="0" xr:uid="{19DF259E-1A7B-4F4A-BF0E-C4306B861FA1}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1290">
   <si>
     <t>Nr.</t>
   </si>
@@ -3519,9 +3519,6 @@
     <t>Brückentech. Erdgas</t>
   </si>
   <si>
-    <t>Mit dem fortschreitenden Ausbau dargebotsabhängiger Erzeugungskapazitäten wird über das Jahr gesehen zwar immer mehr Strom aus Wind- und Sonne erzeugt. Gleichzeitig lassen sich Zeiten mit einer besonders niedrigen Einspeisung aus erneuerbaren Energien nicht vermeiden. Auch das Konzept einer „Dunkelflaute“, bei der beispielsweise im Winter eine geringe Erzeugung aus Wind- und Solarenergie auf einen saisonal hohen Strombedarf trifft, muss in der Planung berücksichtigt werden. Erdgaskraftwerke sind besonders geeignet, diese Unsicherheiten abzudecken und den Ausbau erneuerbarer Energien langfristig zu begleiten.</t>
-  </si>
-  <si>
     <t>https://www.adesso.de/de/news/blog/winter-und-erneuerbare-energien-widerspricht-sich-das.jsp</t>
   </si>
   <si>
@@ -4075,9 +4072,6 @@
     <t>Key renewable electricity production and storage technologies – including solar PV, wind and batteries – are expected to continue getting cheaper quickly through a combination of research, economies of scale and ongoing improvements to manufacturing and installation (i.e. learning-by-doing).</t>
   </si>
   <si>
-    <t>xdhdh</t>
-  </si>
-  <si>
     <t>xzhrzhrd</t>
   </si>
   <si>
@@ -4090,15 +4084,9 @@
     <t>xdrhdrh</t>
   </si>
   <si>
-    <t>xdhdrh</t>
-  </si>
-  <si>
     <t>dhdhr</t>
   </si>
   <si>
-    <t>xdh</t>
-  </si>
-  <si>
     <t>Combi01</t>
   </si>
   <si>
@@ -4130,6 +4118,25 @@
   </si>
   <si>
     <t>xxxxx</t>
+  </si>
+  <si>
+    <t>Combi05</t>
+  </si>
+  <si>
+    <t>xdhdheateataetaeteat</t>
+  </si>
+  <si>
+    <t>xdhdrhaetaetaetaet</t>
+  </si>
+  <si>
+    <t>xdhdhaetaetataetaetae</t>
+  </si>
+  <si>
+    <t>xdhaetaetataetat</t>
+  </si>
+  <si>
+    <t>Mit dem fortschreitenden Ausbau dargebotsabhängiger Erzeugungskapazitäten wird über das Jahr gesehen zwar immer mehr Strom aus Wind- und Sonne erzeugt. Gleichzeitig lassen sich Zeiten mit einer besonders niedrigen Einspeisung aus erneuerbaren Energien nicht vermeiden. Auch das Konzept einer „Dunkelflaute“, bei der beispielsweise im Winter eine geringe Erzeugung aus Wind- und Solarenergie auf einen saisonal hohen Strombedarf trifft, muss in der Planung berücksichtigt werden. Erdgaskraftwerke sind besonders geeignet, diese Unsicherheiten abzudecken und den Ausbau erneuerbarer Energien langfristig zu begleiten.
++ Fracking</t>
   </si>
 </sst>
 </file>
@@ -4249,12 +4256,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4327,7 +4335,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4465,7 +4473,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{CFDE625C-6074-4B64-A6A2-99F4C9AD683F}"/>
@@ -4789,14 +4796,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{9755877A-18FF-4D31-AF7F-269FAC3C3D0D}">
+  <threadedComment ref="D1" dT="2023-11-10T08:49:49.44" personId="{0F048C9B-6967-41C5-9F48-6CB01BF0886A}" id="{EFE8E8DD-9D58-489B-A051-CD8C33E310EF}">
     <text xml:space="preserve">1 behalten, 0 nicht mehr relevant für die Fragestellung
 </text>
   </threadedComment>
-  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{29E5C23C-379F-4A4D-921F-1A710C883D0C}">
+  <threadedComment ref="T41" dT="2023-10-06T15:06:24.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{6076918F-C868-4E58-A53A-CE1B1A0312E9}">
     <text>Abhängig von der Auslegung, nicht beachten schlecht! Beachten gut</text>
   </threadedComment>
-  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{53A89C99-36E3-4745-9587-6461CCA977E3}">
+  <threadedComment ref="T44" dT="2023-10-06T15:16:14.55" personId="{3EC102B8-7C03-4233-AF2D-EE71B7BC049D}" id="{19DF259E-1A7B-4F4A-BF0E-C4306B861FA1}">
     <text>Kann von extrem positiv zu extrem negativ gehen</text>
   </threadedComment>
 </ThreadedComments>
@@ -4804,15 +4811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A5B6E-A67A-417D-B728-0D3FCA71EC49}">
-  <dimension ref="A1:BN296"/>
+  <dimension ref="A1:BO296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BK3" sqref="BK3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:BO296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4874,22 +4881,22 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>20</v>
@@ -4901,13 +4908,13 @@
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AE1" s="48" t="s">
         <v>1125</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>1126</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>1127</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>23</v>
@@ -4919,13 +4926,13 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>26</v>
@@ -4937,13 +4944,13 @@
         <v>28</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>29</v>
@@ -4955,13 +4962,13 @@
         <v>31</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>32</v>
@@ -4973,13 +4980,13 @@
         <v>34</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>35</v>
@@ -4991,28 +4998,31 @@
         <v>37</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1142</v>
-      </c>
       <c r="BK1" s="1" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>1280</v>
+        <v>1276</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>1284</v>
       </c>
     </row>
-    <row r="2" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5100,7 +5110,7 @@
       <c r="AS2" s="10"/>
       <c r="AT2" s="10"/>
       <c r="AU2" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AV2" s="10"/>
       <c r="AW2" s="10"/>
@@ -5121,8 +5131,9 @@
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
       <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
     </row>
-    <row r="3" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5231,8 +5242,9 @@
       <c r="BL3" s="19"/>
       <c r="BM3" s="19"/>
       <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
     </row>
-    <row r="4" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5341,8 +5353,9 @@
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
       <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
     </row>
-    <row r="5" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5420,7 +5433,7 @@
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
       <c r="AK5" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AL5" s="19"/>
       <c r="AM5" s="19"/>
@@ -5432,7 +5445,7 @@
       <c r="AS5" s="19"/>
       <c r="AT5" s="19"/>
       <c r="AU5" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AV5" s="19"/>
       <c r="AW5" s="19"/>
@@ -5453,8 +5466,9 @@
       <c r="BL5" s="19"/>
       <c r="BM5" s="19"/>
       <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
     </row>
-    <row r="6" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -5563,8 +5577,9 @@
       <c r="BL6" s="10"/>
       <c r="BM6" s="10"/>
       <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
     </row>
-    <row r="7" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -5672,11 +5687,14 @@
       <c r="BK7" s="19"/>
       <c r="BL7" s="19"/>
       <c r="BM7" s="19" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BN7" s="19"/>
+      <c r="BO7" s="19" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -5782,11 +5800,12 @@
       <c r="BK8" s="10"/>
       <c r="BL8" s="10"/>
       <c r="BM8" s="10" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BN8" s="10"/>
+      <c r="BO8" s="10"/>
     </row>
-    <row r="9" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>9</v>
       </c>
@@ -5893,8 +5912,9 @@
       <c r="BL9" s="19"/>
       <c r="BM9" s="19"/>
       <c r="BN9" s="19"/>
+      <c r="BO9" s="19"/>
     </row>
-    <row r="10" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>10</v>
       </c>
@@ -6003,8 +6023,9 @@
       <c r="BL10" s="10"/>
       <c r="BM10" s="10"/>
       <c r="BN10" s="10"/>
+      <c r="BO10" s="10"/>
     </row>
-    <row r="11" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>11</v>
       </c>
@@ -6111,8 +6132,9 @@
       <c r="BL11" s="19"/>
       <c r="BM11" s="19"/>
       <c r="BN11" s="19"/>
+      <c r="BO11" s="19"/>
     </row>
-    <row r="12" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -6184,10 +6206,10 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
@@ -6225,10 +6247,13 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
       <c r="BN12" s="10" t="s">
-        <v>1285</v>
+        <v>1281</v>
+      </c>
+      <c r="BO12" s="10" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>13</v>
       </c>
@@ -6307,7 +6332,7 @@
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
@@ -6341,8 +6366,9 @@
       <c r="BL13" s="19"/>
       <c r="BM13" s="19"/>
       <c r="BN13" s="19"/>
+      <c r="BO13" s="19"/>
     </row>
-    <row r="14" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>14</v>
       </c>
@@ -6451,8 +6477,9 @@
       <c r="BL14" s="10"/>
       <c r="BM14" s="10"/>
       <c r="BN14" s="10"/>
+      <c r="BO14" s="10"/>
     </row>
-    <row r="15" spans="1:66" ht="255" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -6559,8 +6586,9 @@
       <c r="BL15" s="19"/>
       <c r="BM15" s="19"/>
       <c r="BN15" s="19"/>
+      <c r="BO15" s="19"/>
     </row>
-    <row r="16" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>16</v>
       </c>
@@ -6667,8 +6695,9 @@
       <c r="BL16" s="10"/>
       <c r="BM16" s="10"/>
       <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
     </row>
-    <row r="17" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -6733,7 +6762,7 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
@@ -6779,8 +6808,9 @@
       <c r="BL17" s="19"/>
       <c r="BM17" s="19"/>
       <c r="BN17" s="19"/>
+      <c r="BO17" s="19"/>
     </row>
-    <row r="18" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>19</v>
       </c>
@@ -6893,8 +6923,9 @@
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
       <c r="BN18" s="10"/>
+      <c r="BO18" s="10"/>
     </row>
-    <row r="19" spans="1:66" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>20</v>
       </c>
@@ -7001,8 +7032,9 @@
       <c r="BL19" s="19"/>
       <c r="BM19" s="19"/>
       <c r="BN19" s="19"/>
+      <c r="BO19" s="19"/>
     </row>
-    <row r="20" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>21</v>
       </c>
@@ -7109,8 +7141,9 @@
       <c r="BL20" s="10"/>
       <c r="BM20" s="10"/>
       <c r="BN20" s="10"/>
+      <c r="BO20" s="10"/>
     </row>
-    <row r="21" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>22</v>
       </c>
@@ -7121,7 +7154,7 @@
         <v>107</v>
       </c>
       <c r="D21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="16">
         <v>7.9037076128595984</v>
@@ -7193,7 +7226,7 @@
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19" t="s">
-        <v>1269</v>
+        <v>1285</v>
       </c>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
@@ -7219,8 +7252,9 @@
       <c r="BL21" s="19"/>
       <c r="BM21" s="19"/>
       <c r="BN21" s="19"/>
+      <c r="BO21" s="19"/>
     </row>
-    <row r="22" spans="1:66" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>24</v>
       </c>
@@ -7292,17 +7326,17 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AL22" s="10"/>
       <c r="AM22" s="10"/>
@@ -7333,10 +7367,13 @@
       <c r="BL22" s="10"/>
       <c r="BM22" s="10"/>
       <c r="BN22" s="10" t="s">
-        <v>1282</v>
+        <v>1278</v>
+      </c>
+      <c r="BO22" s="10" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="23" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>26</v>
       </c>
@@ -7449,8 +7486,9 @@
       <c r="BL23" s="19"/>
       <c r="BM23" s="19"/>
       <c r="BN23" s="19"/>
+      <c r="BO23" s="19"/>
     </row>
-    <row r="24" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>27</v>
       </c>
@@ -7540,7 +7578,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
@@ -7561,8 +7599,9 @@
       <c r="BL24" s="10"/>
       <c r="BM24" s="10"/>
       <c r="BN24" s="10"/>
+      <c r="BO24" s="10"/>
     </row>
-    <row r="25" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>28</v>
       </c>
@@ -7669,8 +7708,9 @@
       <c r="BL25" s="19"/>
       <c r="BM25" s="19"/>
       <c r="BN25" s="19"/>
+      <c r="BO25" s="19"/>
     </row>
-    <row r="26" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>29</v>
       </c>
@@ -7779,8 +7819,9 @@
       <c r="BL26" s="10"/>
       <c r="BM26" s="10"/>
       <c r="BN26" s="10"/>
+      <c r="BO26" s="10"/>
     </row>
-    <row r="27" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>30</v>
       </c>
@@ -7887,8 +7928,9 @@
       <c r="BL27" s="19"/>
       <c r="BM27" s="19"/>
       <c r="BN27" s="19"/>
+      <c r="BO27" s="19"/>
     </row>
-    <row r="28" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>31</v>
       </c>
@@ -7997,8 +8039,9 @@
       <c r="BL28" s="10"/>
       <c r="BM28" s="10"/>
       <c r="BN28" s="10"/>
+      <c r="BO28" s="10"/>
     </row>
-    <row r="29" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>32</v>
       </c>
@@ -8105,8 +8148,9 @@
       <c r="BL29" s="19"/>
       <c r="BM29" s="19"/>
       <c r="BN29" s="19"/>
+      <c r="BO29" s="19"/>
     </row>
-    <row r="30" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>33</v>
       </c>
@@ -8215,8 +8259,9 @@
       <c r="BL30" s="10"/>
       <c r="BM30" s="10"/>
       <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
     </row>
-    <row r="31" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>34</v>
       </c>
@@ -8323,8 +8368,9 @@
       <c r="BL31" s="19"/>
       <c r="BM31" s="19"/>
       <c r="BN31" s="19"/>
+      <c r="BO31" s="19"/>
     </row>
-    <row r="32" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>35</v>
       </c>
@@ -8435,8 +8481,9 @@
       <c r="BL32" s="10"/>
       <c r="BM32" s="10"/>
       <c r="BN32" s="10"/>
+      <c r="BO32" s="10"/>
     </row>
-    <row r="33" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>36</v>
       </c>
@@ -8543,8 +8590,9 @@
       <c r="BL33" s="19"/>
       <c r="BM33" s="19"/>
       <c r="BN33" s="19"/>
+      <c r="BO33" s="19"/>
     </row>
-    <row r="34" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>37</v>
       </c>
@@ -8651,8 +8699,9 @@
       <c r="BL34" s="10"/>
       <c r="BM34" s="10"/>
       <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
     </row>
-    <row r="35" spans="1:66" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>38</v>
       </c>
@@ -8761,8 +8810,9 @@
       <c r="BL35" s="19"/>
       <c r="BM35" s="19"/>
       <c r="BN35" s="19"/>
+      <c r="BO35" s="19"/>
     </row>
-    <row r="36" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>39</v>
       </c>
@@ -8829,7 +8879,7 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -8854,7 +8904,7 @@
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
       <c r="AU36" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
@@ -8875,8 +8925,9 @@
       <c r="BL36" s="10"/>
       <c r="BM36" s="10"/>
       <c r="BN36" s="10"/>
+      <c r="BO36" s="10"/>
     </row>
-    <row r="37" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>40</v>
       </c>
@@ -8983,8 +9034,9 @@
       <c r="BL37" s="19"/>
       <c r="BM37" s="19"/>
       <c r="BN37" s="19"/>
+      <c r="BO37" s="19"/>
     </row>
-    <row r="38" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>41</v>
       </c>
@@ -9091,8 +9143,9 @@
       <c r="BL38" s="10"/>
       <c r="BM38" s="10"/>
       <c r="BN38" s="10"/>
+      <c r="BO38" s="10"/>
     </row>
-    <row r="39" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>42</v>
       </c>
@@ -9182,7 +9235,7 @@
       <c r="AS39" s="19"/>
       <c r="AT39" s="19"/>
       <c r="AU39" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AV39" s="19"/>
       <c r="AW39" s="19"/>
@@ -9203,8 +9256,9 @@
       <c r="BL39" s="19"/>
       <c r="BM39" s="19"/>
       <c r="BN39" s="19"/>
+      <c r="BO39" s="19"/>
     </row>
-    <row r="40" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43</v>
       </c>
@@ -9311,8 +9365,9 @@
       <c r="BL40" s="10"/>
       <c r="BM40" s="10"/>
       <c r="BN40" s="10"/>
+      <c r="BO40" s="10"/>
     </row>
-    <row r="41" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>44</v>
       </c>
@@ -9419,8 +9474,9 @@
       <c r="BL41" s="19"/>
       <c r="BM41" s="19"/>
       <c r="BN41" s="19"/>
+      <c r="BO41" s="19"/>
     </row>
-    <row r="42" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>45</v>
       </c>
@@ -9527,8 +9583,9 @@
       <c r="BL42" s="10"/>
       <c r="BM42" s="10"/>
       <c r="BN42" s="10"/>
+      <c r="BO42" s="10"/>
     </row>
-    <row r="43" spans="1:66" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>46</v>
       </c>
@@ -9637,8 +9694,9 @@
       <c r="BL43" s="19"/>
       <c r="BM43" s="19"/>
       <c r="BN43" s="19"/>
+      <c r="BO43" s="19"/>
     </row>
-    <row r="44" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>47</v>
       </c>
@@ -9712,10 +9770,10 @@
       </c>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AF44" s="10" t="s">
         <v>1251</v>
-      </c>
-      <c r="AF44" s="10" t="s">
-        <v>1252</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
@@ -9751,14 +9809,17 @@
       <c r="BJ44" s="10"/>
       <c r="BK44" s="10"/>
       <c r="BL44" s="10" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="BM44" s="10" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="BN44" s="10"/>
+      <c r="BO44" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="45" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>48</v>
       </c>
@@ -9865,8 +9926,9 @@
       <c r="BL45" s="19"/>
       <c r="BM45" s="19"/>
       <c r="BN45" s="19"/>
+      <c r="BO45" s="19"/>
     </row>
-    <row r="46" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>49</v>
       </c>
@@ -9973,8 +10035,9 @@
       <c r="BL46" s="10"/>
       <c r="BM46" s="10"/>
       <c r="BN46" s="10"/>
+      <c r="BO46" s="10"/>
     </row>
-    <row r="47" spans="1:66" ht="405" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:67" ht="405" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>50</v>
       </c>
@@ -10046,7 +10109,7 @@
       <c r="AC47" s="19"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
@@ -10085,8 +10148,11 @@
       <c r="BL47" s="19"/>
       <c r="BM47" s="19"/>
       <c r="BN47" s="19"/>
+      <c r="BO47" s="19" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="48" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>51</v>
       </c>
@@ -10158,7 +10224,7 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
@@ -10170,7 +10236,7 @@
       <c r="AM48" s="10"/>
       <c r="AN48" s="10"/>
       <c r="AO48" s="10" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="AP48" s="10"/>
       <c r="AQ48" s="10"/>
@@ -10197,8 +10263,9 @@
       <c r="BL48" s="10"/>
       <c r="BM48" s="10"/>
       <c r="BN48" s="10"/>
+      <c r="BO48" s="10"/>
     </row>
-    <row r="49" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>52</v>
       </c>
@@ -10309,8 +10376,9 @@
       <c r="BL49" s="19"/>
       <c r="BM49" s="19"/>
       <c r="BN49" s="19"/>
+      <c r="BO49" s="19"/>
     </row>
-    <row r="50" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>53</v>
       </c>
@@ -10423,8 +10491,9 @@
       <c r="BL50" s="10"/>
       <c r="BM50" s="10"/>
       <c r="BN50" s="10"/>
+      <c r="BO50" s="10"/>
     </row>
-    <row r="51" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>54</v>
       </c>
@@ -10533,8 +10602,9 @@
       <c r="BL51" s="19"/>
       <c r="BM51" s="19"/>
       <c r="BN51" s="19"/>
+      <c r="BO51" s="19"/>
     </row>
-    <row r="52" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>56</v>
       </c>
@@ -10605,7 +10675,7 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
@@ -10643,8 +10713,9 @@
       <c r="BL52" s="10"/>
       <c r="BM52" s="10"/>
       <c r="BN52" s="10"/>
+      <c r="BO52" s="10"/>
     </row>
-    <row r="53" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:67" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>57</v>
       </c>
@@ -10755,8 +10826,9 @@
       <c r="BL53" s="19"/>
       <c r="BM53" s="19"/>
       <c r="BN53" s="19"/>
+      <c r="BO53" s="19"/>
     </row>
-    <row r="54" spans="1:66" ht="210" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67" ht="210" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>69</v>
       </c>
@@ -10842,7 +10914,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
       <c r="AU54" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
@@ -10863,8 +10935,9 @@
       <c r="BL54" s="10"/>
       <c r="BM54" s="10"/>
       <c r="BN54" s="10"/>
+      <c r="BO54" s="10"/>
     </row>
-    <row r="55" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>70</v>
       </c>
@@ -10952,7 +11025,7 @@
       <c r="AS55" s="19"/>
       <c r="AT55" s="19"/>
       <c r="AU55" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AV55" s="19"/>
       <c r="AW55" s="19"/>
@@ -10973,8 +11046,9 @@
       <c r="BL55" s="19"/>
       <c r="BM55" s="19"/>
       <c r="BN55" s="19"/>
+      <c r="BO55" s="19"/>
     </row>
-    <row r="56" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>71</v>
       </c>
@@ -11083,8 +11157,9 @@
       <c r="BL56" s="10"/>
       <c r="BM56" s="10"/>
       <c r="BN56" s="10"/>
+      <c r="BO56" s="10"/>
     </row>
-    <row r="57" spans="1:66" ht="210" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:67" ht="210" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>72</v>
       </c>
@@ -11172,7 +11247,7 @@
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
       <c r="AU57" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AV57" s="19"/>
       <c r="AW57" s="19"/>
@@ -11193,8 +11268,9 @@
       <c r="BL57" s="19"/>
       <c r="BM57" s="19"/>
       <c r="BN57" s="19"/>
+      <c r="BO57" s="19"/>
     </row>
-    <row r="58" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>73</v>
       </c>
@@ -11301,8 +11377,9 @@
       <c r="BL58" s="10"/>
       <c r="BM58" s="10"/>
       <c r="BN58" s="10"/>
+      <c r="BO58" s="10"/>
     </row>
-    <row r="59" spans="1:66" ht="240" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:67" ht="240" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>74</v>
       </c>
@@ -11379,7 +11456,7 @@
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
       <c r="AJ59" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AK59" s="19"/>
       <c r="AL59" s="19"/>
@@ -11411,8 +11488,11 @@
       <c r="BL59" s="19"/>
       <c r="BM59" s="19"/>
       <c r="BN59" s="19"/>
+      <c r="BO59" s="19" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="60" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>76</v>
       </c>
@@ -11510,7 +11590,7 @@
       <c r="BA60" s="10"/>
       <c r="BB60" s="10"/>
       <c r="BC60" s="45" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="BD60" s="10"/>
       <c r="BE60" s="10" t="s">
@@ -11520,19 +11600,20 @@
       <c r="BG60" s="10"/>
       <c r="BH60" s="10"/>
       <c r="BI60" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="BJ60" s="10"/>
       <c r="BK60" s="10" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="BL60" s="10"/>
       <c r="BM60" s="10" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BN60" s="10"/>
+      <c r="BO60" s="10"/>
     </row>
-    <row r="61" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>77</v>
       </c>
@@ -11639,8 +11720,9 @@
       <c r="BL61" s="19"/>
       <c r="BM61" s="19"/>
       <c r="BN61" s="19"/>
+      <c r="BO61" s="19"/>
     </row>
-    <row r="62" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>78</v>
       </c>
@@ -11711,7 +11793,7 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
@@ -11719,7 +11801,7 @@
       <c r="AH62" s="10"/>
       <c r="AI62" s="10"/>
       <c r="AJ62" s="10" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
@@ -11755,10 +11837,11 @@
       <c r="BL62" s="10"/>
       <c r="BM62" s="10"/>
       <c r="BN62" s="10" t="s">
-        <v>1287</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="BO62" s="10"/>
     </row>
-    <row r="63" spans="1:66" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:67" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>79</v>
       </c>
@@ -11869,8 +11952,9 @@
       <c r="BL63" s="19"/>
       <c r="BM63" s="19"/>
       <c r="BN63" s="19"/>
+      <c r="BO63" s="19"/>
     </row>
-    <row r="64" spans="1:66" ht="150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:67" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>80</v>
       </c>
@@ -11977,8 +12061,11 @@
       <c r="BL64" s="10"/>
       <c r="BM64" s="10"/>
       <c r="BN64" s="10"/>
+      <c r="BO64" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="65" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>81</v>
       </c>
@@ -12019,7 +12106,7 @@
         <v>280</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O65" s="19" t="s">
         <v>261</v>
@@ -12056,7 +12143,7 @@
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
       <c r="AK65" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AL65" s="19"/>
       <c r="AM65" s="19"/>
@@ -12087,8 +12174,9 @@
       <c r="BL65" s="19"/>
       <c r="BM65" s="19"/>
       <c r="BN65" s="19"/>
+      <c r="BO65" s="19"/>
     </row>
-    <row r="66" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>83</v>
       </c>
@@ -12199,8 +12287,11 @@
       <c r="BL66" s="10"/>
       <c r="BM66" s="10"/>
       <c r="BN66" s="10"/>
+      <c r="BO66" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="67" spans="1:66" ht="240" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:67" ht="240" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>84</v>
       </c>
@@ -12311,8 +12402,9 @@
       <c r="BL67" s="19"/>
       <c r="BM67" s="19"/>
       <c r="BN67" s="19"/>
+      <c r="BO67" s="19"/>
     </row>
-    <row r="68" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>86</v>
       </c>
@@ -12419,8 +12511,9 @@
       <c r="BL68" s="10"/>
       <c r="BM68" s="10"/>
       <c r="BN68" s="10"/>
+      <c r="BO68" s="10"/>
     </row>
-    <row r="69" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>87</v>
       </c>
@@ -12526,11 +12619,12 @@
       <c r="BK69" s="19"/>
       <c r="BL69" s="19"/>
       <c r="BM69" s="19" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="BN69" s="19"/>
+      <c r="BO69" s="19"/>
     </row>
-    <row r="70" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>88</v>
       </c>
@@ -12639,8 +12733,9 @@
       <c r="BL70" s="10"/>
       <c r="BM70" s="10"/>
       <c r="BN70" s="10"/>
+      <c r="BO70" s="10"/>
     </row>
-    <row r="71" spans="1:66" ht="255" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:67" ht="255" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>89</v>
       </c>
@@ -12711,7 +12806,7 @@
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
@@ -12738,7 +12833,7 @@
       <c r="BA71" s="19"/>
       <c r="BB71" s="19"/>
       <c r="BC71" s="45" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="BD71" s="19"/>
       <c r="BE71" s="19"/>
@@ -12751,8 +12846,9 @@
       <c r="BL71" s="19"/>
       <c r="BM71" s="19"/>
       <c r="BN71" s="19"/>
+      <c r="BO71" s="19"/>
     </row>
-    <row r="72" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>90</v>
       </c>
@@ -12861,8 +12957,9 @@
       <c r="BL72" s="10"/>
       <c r="BM72" s="10"/>
       <c r="BN72" s="10"/>
+      <c r="BO72" s="10"/>
     </row>
-    <row r="73" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>91</v>
       </c>
@@ -12969,8 +13066,9 @@
       <c r="BL73" s="19"/>
       <c r="BM73" s="19"/>
       <c r="BN73" s="19"/>
+      <c r="BO73" s="19"/>
     </row>
-    <row r="74" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>93</v>
       </c>
@@ -13079,8 +13177,9 @@
       <c r="BL74" s="10"/>
       <c r="BM74" s="10"/>
       <c r="BN74" s="10"/>
+      <c r="BO74" s="10"/>
     </row>
-    <row r="75" spans="1:66" ht="210" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:67" ht="210" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>94</v>
       </c>
@@ -13191,10 +13290,11 @@
       <c r="BL75" s="19"/>
       <c r="BM75" s="19"/>
       <c r="BN75" s="19" t="s">
-        <v>1287</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="BO75" s="19"/>
     </row>
-    <row r="76" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>95</v>
       </c>
@@ -13288,7 +13388,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
       <c r="AU76" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
@@ -13309,8 +13409,9 @@
       <c r="BL76" s="10"/>
       <c r="BM76" s="10"/>
       <c r="BN76" s="10"/>
+      <c r="BO76" s="10"/>
     </row>
-    <row r="77" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>96</v>
       </c>
@@ -13384,7 +13485,7 @@
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
@@ -13402,7 +13503,7 @@
       <c r="AS77" s="19"/>
       <c r="AT77" s="19"/>
       <c r="AU77" s="19" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV77" s="19"/>
       <c r="AW77" s="19"/>
@@ -13423,8 +13524,9 @@
       <c r="BL77" s="19"/>
       <c r="BM77" s="19"/>
       <c r="BN77" s="19"/>
+      <c r="BO77" s="19"/>
     </row>
-    <row r="78" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>97</v>
       </c>
@@ -13497,7 +13599,7 @@
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AE78" s="10"/>
       <c r="AF78" s="10"/>
@@ -13537,10 +13639,11 @@
       <c r="BL78" s="10"/>
       <c r="BM78" s="10"/>
       <c r="BN78" s="10" t="s">
-        <v>1287</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="BO78" s="10"/>
     </row>
-    <row r="79" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>98</v>
       </c>
@@ -13647,8 +13750,9 @@
       <c r="BL79" s="19"/>
       <c r="BM79" s="19"/>
       <c r="BN79" s="19"/>
+      <c r="BO79" s="19"/>
     </row>
-    <row r="80" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>99</v>
       </c>
@@ -13755,8 +13859,9 @@
       <c r="BL80" s="10"/>
       <c r="BM80" s="10"/>
       <c r="BN80" s="10"/>
+      <c r="BO80" s="10"/>
     </row>
-    <row r="81" spans="1:66" ht="195" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:67" ht="195" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>100</v>
       </c>
@@ -13838,7 +13943,7 @@
       <c r="AM81" s="19"/>
       <c r="AN81" s="19"/>
       <c r="AO81" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="AP81" s="19"/>
       <c r="AQ81" s="19"/>
@@ -13867,8 +13972,9 @@
       <c r="BL81" s="19"/>
       <c r="BM81" s="19"/>
       <c r="BN81" s="19"/>
+      <c r="BO81" s="19"/>
     </row>
-    <row r="82" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>101</v>
       </c>
@@ -13975,8 +14081,9 @@
       <c r="BL82" s="10"/>
       <c r="BM82" s="10"/>
       <c r="BN82" s="10"/>
+      <c r="BO82" s="10"/>
     </row>
-    <row r="83" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>102</v>
       </c>
@@ -14058,7 +14165,7 @@
       <c r="AM83" s="19"/>
       <c r="AN83" s="19"/>
       <c r="AO83" s="19" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AP83" s="19"/>
       <c r="AQ83" s="19"/>
@@ -14087,8 +14194,9 @@
       <c r="BL83" s="19"/>
       <c r="BM83" s="19"/>
       <c r="BN83" s="19"/>
+      <c r="BO83" s="19"/>
     </row>
-    <row r="84" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:67" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>103</v>
       </c>
@@ -14195,10 +14303,11 @@
       <c r="BL84" s="10"/>
       <c r="BM84" s="10"/>
       <c r="BN84" s="10" t="s">
-        <v>1282</v>
-      </c>
+        <v>1278</v>
+      </c>
+      <c r="BO84" s="10"/>
     </row>
-    <row r="85" spans="1:66" ht="255" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:67" ht="255" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>104</v>
       </c>
@@ -14305,8 +14414,9 @@
       <c r="BL85" s="19"/>
       <c r="BM85" s="19"/>
       <c r="BN85" s="19"/>
+      <c r="BO85" s="19"/>
     </row>
-    <row r="86" spans="1:66" ht="270" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:67" ht="270" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>105</v>
       </c>
@@ -14413,10 +14523,11 @@
       <c r="BL86" s="10"/>
       <c r="BM86" s="10"/>
       <c r="BN86" s="10" t="s">
-        <v>1282</v>
-      </c>
+        <v>1278</v>
+      </c>
+      <c r="BO86" s="10"/>
     </row>
-    <row r="87" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>106</v>
       </c>
@@ -14487,7 +14598,7 @@
       <c r="AB87" s="19"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AE87" s="19"/>
       <c r="AF87" s="19"/>
@@ -14527,8 +14638,9 @@
       <c r="BL87" s="19"/>
       <c r="BM87" s="19"/>
       <c r="BN87" s="19"/>
+      <c r="BO87" s="19"/>
     </row>
-    <row r="88" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>107</v>
       </c>
@@ -14610,7 +14722,7 @@
       <c r="AM88" s="10"/>
       <c r="AN88" s="10"/>
       <c r="AO88" s="10" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="AP88" s="10"/>
       <c r="AQ88" s="10"/>
@@ -14637,8 +14749,9 @@
       <c r="BL88" s="10"/>
       <c r="BM88" s="10"/>
       <c r="BN88" s="10"/>
+      <c r="BO88" s="10"/>
     </row>
-    <row r="89" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:67" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>108</v>
       </c>
@@ -14747,8 +14860,9 @@
       <c r="BL89" s="19"/>
       <c r="BM89" s="19"/>
       <c r="BN89" s="19"/>
+      <c r="BO89" s="19"/>
     </row>
-    <row r="90" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>109</v>
       </c>
@@ -14857,8 +14971,9 @@
       <c r="BL90" s="10"/>
       <c r="BM90" s="10"/>
       <c r="BN90" s="10"/>
+      <c r="BO90" s="10"/>
     </row>
-    <row r="91" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>110</v>
       </c>
@@ -14965,8 +15080,9 @@
       <c r="BL91" s="19"/>
       <c r="BM91" s="19"/>
       <c r="BN91" s="19"/>
+      <c r="BO91" s="19"/>
     </row>
-    <row r="92" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>111</v>
       </c>
@@ -15067,18 +15183,21 @@
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
       <c r="BH92" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="BI92" s="10"/>
       <c r="BJ92" s="10"/>
       <c r="BK92" s="10"/>
       <c r="BL92" s="10" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BM92" s="10"/>
       <c r="BN92" s="10"/>
+      <c r="BO92" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="93" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>112</v>
       </c>
@@ -15185,8 +15304,9 @@
       <c r="BL93" s="19"/>
       <c r="BM93" s="19"/>
       <c r="BN93" s="19"/>
+      <c r="BO93" s="19"/>
     </row>
-    <row r="94" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>114</v>
       </c>
@@ -15286,19 +15406,20 @@
       <c r="BE94" s="10"/>
       <c r="BF94" s="10"/>
       <c r="BG94" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="BH94" s="10"/>
       <c r="BI94" s="10"/>
       <c r="BJ94" s="10"/>
       <c r="BK94" s="10" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="BL94" s="10"/>
       <c r="BM94" s="10"/>
       <c r="BN94" s="10"/>
+      <c r="BO94" s="10"/>
     </row>
-    <row r="95" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>115</v>
       </c>
@@ -15405,8 +15526,11 @@
       <c r="BL95" s="19"/>
       <c r="BM95" s="19"/>
       <c r="BN95" s="19"/>
+      <c r="BO95" s="19" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="96" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>116</v>
       </c>
@@ -15483,7 +15607,7 @@
       <c r="AH96" s="10"/>
       <c r="AI96" s="10"/>
       <c r="AJ96" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
@@ -15515,8 +15639,9 @@
       <c r="BL96" s="10"/>
       <c r="BM96" s="10"/>
       <c r="BN96" s="10"/>
+      <c r="BO96" s="10"/>
     </row>
-    <row r="97" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>117</v>
       </c>
@@ -15625,8 +15750,9 @@
       <c r="BL97" s="19"/>
       <c r="BM97" s="19"/>
       <c r="BN97" s="19"/>
+      <c r="BO97" s="19"/>
     </row>
-    <row r="98" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>118</v>
       </c>
@@ -15733,8 +15859,9 @@
       <c r="BL98" s="10"/>
       <c r="BM98" s="10"/>
       <c r="BN98" s="10"/>
+      <c r="BO98" s="10"/>
     </row>
-    <row r="99" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>119</v>
       </c>
@@ -15742,7 +15869,7 @@
         <v>405</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D99" s="15">
         <v>1</v>
@@ -15836,15 +15963,16 @@
       <c r="BG99" s="19"/>
       <c r="BH99" s="19"/>
       <c r="BI99" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="BJ99" s="19"/>
       <c r="BK99" s="19"/>
       <c r="BL99" s="19"/>
       <c r="BM99" s="19"/>
       <c r="BN99" s="19"/>
+      <c r="BO99" s="19"/>
     </row>
-    <row r="100" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>120</v>
       </c>
@@ -15951,8 +16079,9 @@
       <c r="BL100" s="10"/>
       <c r="BM100" s="10"/>
       <c r="BN100" s="10"/>
+      <c r="BO100" s="10"/>
     </row>
-    <row r="101" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>121</v>
       </c>
@@ -16059,8 +16188,9 @@
       <c r="BL101" s="19"/>
       <c r="BM101" s="19"/>
       <c r="BN101" s="19"/>
+      <c r="BO101" s="19"/>
     </row>
-    <row r="102" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>122</v>
       </c>
@@ -16167,8 +16297,9 @@
       <c r="BL102" s="10"/>
       <c r="BM102" s="10"/>
       <c r="BN102" s="10"/>
+      <c r="BO102" s="10"/>
     </row>
-    <row r="103" spans="1:66" ht="270" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:67" ht="270" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>123</v>
       </c>
@@ -16275,8 +16406,9 @@
       <c r="BL103" s="19"/>
       <c r="BM103" s="19"/>
       <c r="BN103" s="19"/>
+      <c r="BO103" s="19"/>
     </row>
-    <row r="104" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>124</v>
       </c>
@@ -16383,8 +16515,9 @@
       <c r="BL104" s="10"/>
       <c r="BM104" s="10"/>
       <c r="BN104" s="10"/>
+      <c r="BO104" s="10"/>
     </row>
-    <row r="105" spans="1:66" ht="240" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:67" ht="240" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>125</v>
       </c>
@@ -16491,8 +16624,9 @@
       <c r="BL105" s="19"/>
       <c r="BM105" s="19"/>
       <c r="BN105" s="19"/>
+      <c r="BO105" s="19"/>
     </row>
-    <row r="106" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>126</v>
       </c>
@@ -16599,8 +16733,9 @@
       <c r="BL106" s="10"/>
       <c r="BM106" s="10"/>
       <c r="BN106" s="10"/>
+      <c r="BO106" s="10"/>
     </row>
-    <row r="107" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>127</v>
       </c>
@@ -16706,15 +16841,16 @@
       <c r="BG107" s="19"/>
       <c r="BH107" s="19"/>
       <c r="BI107" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="BJ107" s="19"/>
       <c r="BK107" s="19"/>
       <c r="BL107" s="19"/>
       <c r="BM107" s="19"/>
       <c r="BN107" s="19"/>
+      <c r="BO107" s="19"/>
     </row>
-    <row r="108" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>128</v>
       </c>
@@ -16821,8 +16957,9 @@
       <c r="BL108" s="10"/>
       <c r="BM108" s="10"/>
       <c r="BN108" s="10"/>
+      <c r="BO108" s="10"/>
     </row>
-    <row r="109" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>129</v>
       </c>
@@ -16929,8 +17066,9 @@
       <c r="BL109" s="19"/>
       <c r="BM109" s="19"/>
       <c r="BN109" s="19"/>
+      <c r="BO109" s="19"/>
     </row>
-    <row r="110" spans="1:66" ht="375" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:67" ht="375" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>130</v>
       </c>
@@ -17012,7 +17150,7 @@
       <c r="AM110" s="10"/>
       <c r="AN110" s="10"/>
       <c r="AO110" s="10" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="AP110" s="10"/>
       <c r="AQ110" s="10"/>
@@ -17041,14 +17179,17 @@
       <c r="BJ110" s="10"/>
       <c r="BK110" s="10"/>
       <c r="BL110" s="10" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="BM110" s="10"/>
       <c r="BN110" s="10" t="s">
-        <v>1282</v>
+        <v>1278</v>
+      </c>
+      <c r="BO110" s="10" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="111" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>131</v>
       </c>
@@ -17155,8 +17296,9 @@
       <c r="BL111" s="19"/>
       <c r="BM111" s="19"/>
       <c r="BN111" s="19"/>
+      <c r="BO111" s="19"/>
     </row>
-    <row r="112" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>132</v>
       </c>
@@ -17263,8 +17405,9 @@
       <c r="BL112" s="10"/>
       <c r="BM112" s="10"/>
       <c r="BN112" s="10"/>
+      <c r="BO112" s="10"/>
     </row>
-    <row r="113" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>133</v>
       </c>
@@ -17371,8 +17514,9 @@
       <c r="BL113" s="19"/>
       <c r="BM113" s="19"/>
       <c r="BN113" s="19"/>
+      <c r="BO113" s="19"/>
     </row>
-    <row r="114" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>136</v>
       </c>
@@ -17380,7 +17524,7 @@
         <v>452</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -17448,7 +17592,7 @@
       <c r="AI114" s="10"/>
       <c r="AJ114" s="10"/>
       <c r="AK114" s="10" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AL114" s="10"/>
       <c r="AM114" s="10" t="s">
@@ -17458,7 +17602,7 @@
       <c r="AO114" s="10"/>
       <c r="AP114" s="10"/>
       <c r="AQ114" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AR114" s="10"/>
       <c r="AS114" s="10"/>
@@ -17487,8 +17631,9 @@
       <c r="BL114" s="10"/>
       <c r="BM114" s="10"/>
       <c r="BN114" s="10"/>
+      <c r="BO114" s="10"/>
     </row>
-    <row r="115" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>137</v>
       </c>
@@ -17587,8 +17732,9 @@
       <c r="BL115" s="19"/>
       <c r="BM115" s="19"/>
       <c r="BN115" s="19"/>
+      <c r="BO115" s="19"/>
     </row>
-    <row r="116" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>138</v>
       </c>
@@ -17690,17 +17836,18 @@
       <c r="BG116" s="10"/>
       <c r="BH116" s="10"/>
       <c r="BI116" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BJ116" s="10"/>
       <c r="BK116" s="10"/>
       <c r="BL116" s="10"/>
       <c r="BM116" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BN116" s="10"/>
+      <c r="BO116" s="10"/>
     </row>
-    <row r="117" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>139</v>
       </c>
@@ -17809,8 +17956,9 @@
       <c r="BL117" s="19"/>
       <c r="BM117" s="19"/>
       <c r="BN117" s="19"/>
+      <c r="BO117" s="19"/>
     </row>
-    <row r="118" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>140</v>
       </c>
@@ -17882,10 +18030,10 @@
       <c r="AC118" s="10"/>
       <c r="AD118" s="10"/>
       <c r="AE118" s="10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AF118" s="10" t="s">
         <v>1247</v>
-      </c>
-      <c r="AF118" s="10" t="s">
-        <v>1248</v>
       </c>
       <c r="AG118" s="10"/>
       <c r="AH118" s="10"/>
@@ -17898,7 +18046,7 @@
       <c r="AO118" s="10"/>
       <c r="AP118" s="10"/>
       <c r="AQ118" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AR118" s="10"/>
       <c r="AS118" s="10"/>
@@ -17923,8 +18071,9 @@
       <c r="BL118" s="10"/>
       <c r="BM118" s="10"/>
       <c r="BN118" s="10"/>
+      <c r="BO118" s="10"/>
     </row>
-    <row r="119" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>142</v>
       </c>
@@ -18031,8 +18180,9 @@
       <c r="BL119" s="19"/>
       <c r="BM119" s="19"/>
       <c r="BN119" s="19"/>
+      <c r="BO119" s="19"/>
     </row>
-    <row r="120" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>144</v>
       </c>
@@ -18135,8 +18285,9 @@
       <c r="BL120" s="10"/>
       <c r="BM120" s="10"/>
       <c r="BN120" s="10"/>
+      <c r="BO120" s="10"/>
     </row>
-    <row r="121" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>145</v>
       </c>
@@ -18243,8 +18394,9 @@
       <c r="BL121" s="19"/>
       <c r="BM121" s="19"/>
       <c r="BN121" s="19"/>
+      <c r="BO121" s="19"/>
     </row>
-    <row r="122" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>146</v>
       </c>
@@ -18351,8 +18503,9 @@
       <c r="BL122" s="10"/>
       <c r="BM122" s="10"/>
       <c r="BN122" s="10"/>
+      <c r="BO122" s="10"/>
     </row>
-    <row r="123" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>147</v>
       </c>
@@ -18459,8 +18612,9 @@
       <c r="BL123" s="19"/>
       <c r="BM123" s="19"/>
       <c r="BN123" s="19"/>
+      <c r="BO123" s="19"/>
     </row>
-    <row r="124" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>151</v>
       </c>
@@ -18563,8 +18717,9 @@
       <c r="BL124" s="10"/>
       <c r="BM124" s="10"/>
       <c r="BN124" s="10"/>
+      <c r="BO124" s="10"/>
     </row>
-    <row r="125" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>152</v>
       </c>
@@ -18671,8 +18826,9 @@
       <c r="BL125" s="19"/>
       <c r="BM125" s="19"/>
       <c r="BN125" s="19"/>
+      <c r="BO125" s="19"/>
     </row>
-    <row r="126" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>153</v>
       </c>
@@ -18760,7 +18916,7 @@
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
       <c r="AU126" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
@@ -18781,8 +18937,9 @@
       <c r="BL126" s="10"/>
       <c r="BM126" s="10"/>
       <c r="BN126" s="10"/>
+      <c r="BO126" s="10"/>
     </row>
-    <row r="127" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
         <v>154</v>
       </c>
@@ -18891,8 +19048,9 @@
       <c r="BL127" s="19"/>
       <c r="BM127" s="19"/>
       <c r="BN127" s="19"/>
+      <c r="BO127" s="19"/>
     </row>
-    <row r="128" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>155</v>
       </c>
@@ -18903,7 +19061,7 @@
         <v>500</v>
       </c>
       <c r="D128" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" s="7">
         <v>10.85758604093053</v>
@@ -18975,7 +19133,7 @@
       <c r="AN128" s="10"/>
       <c r="AO128" s="10"/>
       <c r="AP128" s="10" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="AQ128" s="10"/>
       <c r="AR128" s="10"/>
@@ -18998,13 +19156,16 @@
       <c r="BI128" s="10"/>
       <c r="BJ128" s="10"/>
       <c r="BK128" s="10" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="BL128" s="10"/>
       <c r="BM128" s="10"/>
       <c r="BN128" s="10"/>
+      <c r="BO128" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="129" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>156</v>
       </c>
@@ -19111,8 +19272,9 @@
       <c r="BL129" s="19"/>
       <c r="BM129" s="19"/>
       <c r="BN129" s="19"/>
+      <c r="BO129" s="19"/>
     </row>
-    <row r="130" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>157</v>
       </c>
@@ -19177,7 +19339,7 @@
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
       <c r="X130" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
@@ -19221,8 +19383,9 @@
       <c r="BL130" s="10"/>
       <c r="BM130" s="10"/>
       <c r="BN130" s="10"/>
+      <c r="BO130" s="10"/>
     </row>
-    <row r="131" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>158</v>
       </c>
@@ -19329,8 +19492,9 @@
       <c r="BL131" s="19"/>
       <c r="BM131" s="19"/>
       <c r="BN131" s="19"/>
+      <c r="BO131" s="19"/>
     </row>
-    <row r="132" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>159</v>
       </c>
@@ -19437,8 +19601,9 @@
       <c r="BL132" s="10"/>
       <c r="BM132" s="10"/>
       <c r="BN132" s="10"/>
+      <c r="BO132" s="10"/>
     </row>
-    <row r="133" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>161</v>
       </c>
@@ -19545,8 +19710,9 @@
       <c r="BL133" s="19"/>
       <c r="BM133" s="19"/>
       <c r="BN133" s="19"/>
+      <c r="BO133" s="19"/>
     </row>
-    <row r="134" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>162</v>
       </c>
@@ -19653,8 +19819,9 @@
       <c r="BL134" s="10"/>
       <c r="BM134" s="10"/>
       <c r="BN134" s="10"/>
+      <c r="BO134" s="10"/>
     </row>
-    <row r="135" spans="1:66" ht="150" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:67" ht="150" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>163</v>
       </c>
@@ -19761,8 +19928,9 @@
       <c r="BL135" s="19"/>
       <c r="BM135" s="19"/>
       <c r="BN135" s="19"/>
+      <c r="BO135" s="19"/>
     </row>
-    <row r="136" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>164</v>
       </c>
@@ -19869,8 +20037,9 @@
       <c r="BL136" s="10"/>
       <c r="BM136" s="10"/>
       <c r="BN136" s="10"/>
+      <c r="BO136" s="10"/>
     </row>
-    <row r="137" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>165</v>
       </c>
@@ -19977,8 +20146,9 @@
       <c r="BL137" s="19"/>
       <c r="BM137" s="19"/>
       <c r="BN137" s="19"/>
+      <c r="BO137" s="19"/>
     </row>
-    <row r="138" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>166</v>
       </c>
@@ -20085,8 +20255,9 @@
       <c r="BL138" s="10"/>
       <c r="BM138" s="10"/>
       <c r="BN138" s="10"/>
+      <c r="BO138" s="10"/>
     </row>
-    <row r="139" spans="1:66" ht="240" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:67" ht="240" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>169</v>
       </c>
@@ -20185,8 +20356,9 @@
       <c r="BL139" s="19"/>
       <c r="BM139" s="19"/>
       <c r="BN139" s="19"/>
+      <c r="BO139" s="19"/>
     </row>
-    <row r="140" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>170</v>
       </c>
@@ -20293,8 +20465,9 @@
       <c r="BL140" s="10"/>
       <c r="BM140" s="10"/>
       <c r="BN140" s="10"/>
+      <c r="BO140" s="10"/>
     </row>
-    <row r="141" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>171</v>
       </c>
@@ -20401,8 +20574,9 @@
       <c r="BL141" s="19"/>
       <c r="BM141" s="19"/>
       <c r="BN141" s="19"/>
+      <c r="BO141" s="19"/>
     </row>
-    <row r="142" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>173</v>
       </c>
@@ -20410,7 +20584,7 @@
         <v>546</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D142" s="6">
         <v>1</v>
@@ -20486,7 +20660,7 @@
       <c r="AI142" s="10"/>
       <c r="AJ142" s="10"/>
       <c r="AK142" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AL142" s="10"/>
       <c r="AM142" s="10" t="s">
@@ -20521,8 +20695,9 @@
       <c r="BL142" s="10"/>
       <c r="BM142" s="10"/>
       <c r="BN142" s="10"/>
+      <c r="BO142" s="10"/>
     </row>
-    <row r="143" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>174</v>
       </c>
@@ -20633,8 +20808,9 @@
       <c r="BL143" s="19"/>
       <c r="BM143" s="19"/>
       <c r="BN143" s="19"/>
+      <c r="BO143" s="19"/>
     </row>
-    <row r="144" spans="1:66" ht="150" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:67" ht="150" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>176</v>
       </c>
@@ -20712,7 +20888,7 @@
       <c r="AI144" s="10"/>
       <c r="AJ144" s="10"/>
       <c r="AK144" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AL144" s="10"/>
       <c r="AM144" s="10"/>
@@ -20743,8 +20919,9 @@
       <c r="BL144" s="10"/>
       <c r="BM144" s="10"/>
       <c r="BN144" s="10"/>
+      <c r="BO144" s="10"/>
     </row>
-    <row r="145" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>177</v>
       </c>
@@ -20851,8 +21028,9 @@
       <c r="BL145" s="19"/>
       <c r="BM145" s="19"/>
       <c r="BN145" s="19"/>
+      <c r="BO145" s="19"/>
     </row>
-    <row r="146" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>178</v>
       </c>
@@ -20961,12 +21139,13 @@
       <c r="BJ146" s="10"/>
       <c r="BK146" s="10"/>
       <c r="BL146" s="10" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BM146" s="10"/>
       <c r="BN146" s="10"/>
+      <c r="BO146" s="10"/>
     </row>
-    <row r="147" spans="1:66" ht="255" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:67" ht="255" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>179</v>
       </c>
@@ -21071,14 +21250,15 @@
       <c r="BH147" s="19"/>
       <c r="BI147" s="19"/>
       <c r="BJ147" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="BK147" s="19"/>
       <c r="BL147" s="19"/>
       <c r="BM147" s="19"/>
       <c r="BN147" s="19"/>
+      <c r="BO147" s="19"/>
     </row>
-    <row r="148" spans="1:66" ht="210" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:67" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>181</v>
       </c>
@@ -21185,8 +21365,9 @@
       <c r="BL148" s="10"/>
       <c r="BM148" s="10"/>
       <c r="BN148" s="10"/>
+      <c r="BO148" s="10"/>
     </row>
-    <row r="149" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>182</v>
       </c>
@@ -21293,8 +21474,9 @@
       <c r="BL149" s="19"/>
       <c r="BM149" s="19"/>
       <c r="BN149" s="19"/>
+      <c r="BO149" s="19"/>
     </row>
-    <row r="150" spans="1:66" ht="375" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:67" ht="375" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>183</v>
       </c>
@@ -21401,8 +21583,9 @@
       <c r="BL150" s="10"/>
       <c r="BM150" s="10"/>
       <c r="BN150" s="10"/>
+      <c r="BO150" s="10"/>
     </row>
-    <row r="151" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:67" ht="90" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>184</v>
       </c>
@@ -21469,7 +21652,7 @@
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
       <c r="X151" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Y151" s="19"/>
       <c r="Z151" s="19"/>
@@ -21517,8 +21700,9 @@
       <c r="BL151" s="19"/>
       <c r="BM151" s="19"/>
       <c r="BN151" s="19"/>
+      <c r="BO151" s="19"/>
     </row>
-    <row r="152" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>185</v>
       </c>
@@ -21625,8 +21809,9 @@
       <c r="BL152" s="10"/>
       <c r="BM152" s="10"/>
       <c r="BN152" s="10"/>
+      <c r="BO152" s="10"/>
     </row>
-    <row r="153" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>186</v>
       </c>
@@ -21735,8 +21920,9 @@
       <c r="BL153" s="19"/>
       <c r="BM153" s="19"/>
       <c r="BN153" s="19"/>
+      <c r="BO153" s="19"/>
     </row>
-    <row r="154" spans="1:66" ht="210" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:67" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>187</v>
       </c>
@@ -21847,8 +22033,9 @@
       <c r="BL154" s="10"/>
       <c r="BM154" s="10"/>
       <c r="BN154" s="10"/>
+      <c r="BO154" s="10"/>
     </row>
-    <row r="155" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>188</v>
       </c>
@@ -21955,8 +22142,9 @@
       <c r="BL155" s="19"/>
       <c r="BM155" s="19"/>
       <c r="BN155" s="19"/>
+      <c r="BO155" s="19"/>
     </row>
-    <row r="156" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>189</v>
       </c>
@@ -22065,8 +22253,9 @@
       <c r="BL156" s="10"/>
       <c r="BM156" s="10"/>
       <c r="BN156" s="10"/>
+      <c r="BO156" s="10"/>
     </row>
-    <row r="157" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>190</v>
       </c>
@@ -22173,8 +22362,9 @@
       <c r="BL157" s="19"/>
       <c r="BM157" s="19"/>
       <c r="BN157" s="19"/>
+      <c r="BO157" s="19"/>
     </row>
-    <row r="158" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>191</v>
       </c>
@@ -22283,8 +22473,9 @@
       <c r="BL158" s="10"/>
       <c r="BM158" s="10"/>
       <c r="BN158" s="10"/>
+      <c r="BO158" s="10"/>
     </row>
-    <row r="159" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>192</v>
       </c>
@@ -22391,8 +22582,9 @@
       <c r="BL159" s="19"/>
       <c r="BM159" s="19"/>
       <c r="BN159" s="19"/>
+      <c r="BO159" s="19"/>
     </row>
-    <row r="160" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>193</v>
       </c>
@@ -22501,8 +22693,9 @@
       <c r="BL160" s="10"/>
       <c r="BM160" s="10"/>
       <c r="BN160" s="10"/>
+      <c r="BO160" s="10"/>
     </row>
-    <row r="161" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>194</v>
       </c>
@@ -22611,8 +22804,9 @@
       <c r="BL161" s="19"/>
       <c r="BM161" s="19"/>
       <c r="BN161" s="19"/>
+      <c r="BO161" s="19"/>
     </row>
-    <row r="162" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>195</v>
       </c>
@@ -22691,13 +22885,13 @@
       <c r="AH162" s="10"/>
       <c r="AI162" s="10"/>
       <c r="AJ162" s="10" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="10"/>
       <c r="AM162" s="10"/>
       <c r="AN162" s="10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AO162" s="10"/>
       <c r="AP162" s="10"/>
@@ -22719,7 +22913,7 @@
         <v>1020</v>
       </c>
       <c r="BB162" s="46" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="BC162" s="10"/>
       <c r="BD162" s="10"/>
@@ -22729,18 +22923,21 @@
       <c r="BF162" s="10"/>
       <c r="BG162" s="10"/>
       <c r="BH162" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="BI162" s="10"/>
       <c r="BJ162" s="10"/>
       <c r="BK162" s="10"/>
       <c r="BL162" s="10" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="BM162" s="10"/>
       <c r="BN162" s="10"/>
+      <c r="BO162" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="163" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>196</v>
       </c>
@@ -22807,7 +23004,7 @@
       <c r="V163" s="19"/>
       <c r="W163" s="19"/>
       <c r="X163" s="19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
@@ -22822,7 +23019,7 @@
       <c r="AI163" s="19"/>
       <c r="AJ163" s="19"/>
       <c r="AK163" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AL163" s="19"/>
       <c r="AM163" s="19"/>
@@ -22855,8 +23052,9 @@
       <c r="BL163" s="19"/>
       <c r="BM163" s="19"/>
       <c r="BN163" s="19"/>
+      <c r="BO163" s="19"/>
     </row>
-    <row r="164" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>197</v>
       </c>
@@ -22963,8 +23161,9 @@
       <c r="BL164" s="10"/>
       <c r="BM164" s="10"/>
       <c r="BN164" s="10"/>
+      <c r="BO164" s="10"/>
     </row>
-    <row r="165" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>198</v>
       </c>
@@ -23071,8 +23270,9 @@
       <c r="BL165" s="19"/>
       <c r="BM165" s="19"/>
       <c r="BN165" s="19"/>
+      <c r="BO165" s="19"/>
     </row>
-    <row r="166" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>199</v>
       </c>
@@ -23181,8 +23381,9 @@
       <c r="BL166" s="10"/>
       <c r="BM166" s="10"/>
       <c r="BN166" s="10"/>
+      <c r="BO166" s="10"/>
     </row>
-    <row r="167" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>200</v>
       </c>
@@ -23289,8 +23490,9 @@
       <c r="BL167" s="19"/>
       <c r="BM167" s="19"/>
       <c r="BN167" s="19"/>
+      <c r="BO167" s="19"/>
     </row>
-    <row r="168" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>201</v>
       </c>
@@ -23397,8 +23599,9 @@
       <c r="BL168" s="10"/>
       <c r="BM168" s="10"/>
       <c r="BN168" s="10"/>
+      <c r="BO168" s="10"/>
     </row>
-    <row r="169" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>202</v>
       </c>
@@ -23507,8 +23710,9 @@
       <c r="BL169" s="19"/>
       <c r="BM169" s="19"/>
       <c r="BN169" s="19"/>
+      <c r="BO169" s="19"/>
     </row>
-    <row r="170" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>203</v>
       </c>
@@ -23617,8 +23821,9 @@
       <c r="BL170" s="10"/>
       <c r="BM170" s="10"/>
       <c r="BN170" s="10"/>
+      <c r="BO170" s="10"/>
     </row>
-    <row r="171" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>204</v>
       </c>
@@ -23690,14 +23895,14 @@
       <c r="AC171" s="19"/>
       <c r="AD171" s="19"/>
       <c r="AE171" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AF171" s="19"/>
       <c r="AG171" s="19"/>
       <c r="AH171" s="19"/>
       <c r="AI171" s="19"/>
       <c r="AJ171" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AK171" s="19"/>
       <c r="AL171" s="19"/>
@@ -23717,7 +23922,7 @@
       <c r="AZ171" s="19"/>
       <c r="BA171" s="19"/>
       <c r="BB171" s="46" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="BC171" s="19"/>
       <c r="BD171" s="19"/>
@@ -23727,18 +23932,19 @@
       <c r="BF171" s="19"/>
       <c r="BG171" s="19"/>
       <c r="BH171" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="BI171" s="19"/>
       <c r="BJ171" s="19"/>
       <c r="BK171" s="19"/>
       <c r="BL171" s="19" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BM171" s="19"/>
       <c r="BN171" s="19"/>
+      <c r="BO171" s="19"/>
     </row>
-    <row r="172" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>205</v>
       </c>
@@ -23842,13 +24048,16 @@
       <c r="BI172" s="10"/>
       <c r="BJ172" s="10"/>
       <c r="BK172" s="10" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="BL172" s="10"/>
       <c r="BM172" s="10"/>
       <c r="BN172" s="10"/>
+      <c r="BO172" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="173" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>206</v>
       </c>
@@ -23959,8 +24168,9 @@
       <c r="BL173" s="19"/>
       <c r="BM173" s="19"/>
       <c r="BN173" s="19"/>
+      <c r="BO173" s="19"/>
     </row>
-    <row r="174" spans="1:66" ht="210" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:67" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>207</v>
       </c>
@@ -24069,8 +24279,9 @@
       <c r="BL174" s="10"/>
       <c r="BM174" s="10"/>
       <c r="BN174" s="10"/>
+      <c r="BO174" s="10"/>
     </row>
-    <row r="175" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>208</v>
       </c>
@@ -24141,7 +24352,7 @@
       <c r="AB175" s="19"/>
       <c r="AC175" s="19"/>
       <c r="AD175" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AE175" s="19"/>
       <c r="AF175" s="19"/>
@@ -24179,8 +24390,9 @@
       <c r="BL175" s="19"/>
       <c r="BM175" s="19"/>
       <c r="BN175" s="19"/>
+      <c r="BO175" s="19"/>
     </row>
-    <row r="176" spans="1:66" ht="405" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:67" ht="405" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>209</v>
       </c>
@@ -24251,7 +24463,7 @@
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AE176" s="10"/>
       <c r="AF176" s="10"/>
@@ -24289,8 +24501,9 @@
       <c r="BL176" s="10"/>
       <c r="BM176" s="10"/>
       <c r="BN176" s="10"/>
+      <c r="BO176" s="10"/>
     </row>
-    <row r="177" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>210</v>
       </c>
@@ -24397,8 +24610,9 @@
       <c r="BL177" s="19"/>
       <c r="BM177" s="19"/>
       <c r="BN177" s="19"/>
+      <c r="BO177" s="19"/>
     </row>
-    <row r="178" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>211</v>
       </c>
@@ -24505,8 +24719,9 @@
       <c r="BL178" s="10"/>
       <c r="BM178" s="10"/>
       <c r="BN178" s="10"/>
+      <c r="BO178" s="10"/>
     </row>
-    <row r="179" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>212</v>
       </c>
@@ -24613,8 +24828,9 @@
       <c r="BL179" s="19"/>
       <c r="BM179" s="19"/>
       <c r="BN179" s="19"/>
+      <c r="BO179" s="19"/>
     </row>
-    <row r="180" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>213</v>
       </c>
@@ -24721,8 +24937,9 @@
       <c r="BL180" s="10"/>
       <c r="BM180" s="10"/>
       <c r="BN180" s="10"/>
+      <c r="BO180" s="10"/>
     </row>
-    <row r="181" spans="1:66" ht="375" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:67" ht="375" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>214</v>
       </c>
@@ -24829,8 +25046,9 @@
       <c r="BL181" s="19"/>
       <c r="BM181" s="19"/>
       <c r="BN181" s="19"/>
+      <c r="BO181" s="19"/>
     </row>
-    <row r="182" spans="1:66" ht="180" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:67" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>215</v>
       </c>
@@ -24902,10 +25120,10 @@
       <c r="AC182" s="10"/>
       <c r="AD182" s="10"/>
       <c r="AE182" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AF182" s="10" t="s">
         <v>1245</v>
-      </c>
-      <c r="AF182" s="10" t="s">
-        <v>1246</v>
       </c>
       <c r="AG182" s="10"/>
       <c r="AH182" s="10"/>
@@ -24942,11 +25160,14 @@
       <c r="BK182" s="10"/>
       <c r="BL182" s="10"/>
       <c r="BM182" s="10" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BN182" s="10"/>
+      <c r="BO182" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="183" spans="1:66" ht="105" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:67" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>217</v>
       </c>
@@ -25053,8 +25274,9 @@
       <c r="BL183" s="19"/>
       <c r="BM183" s="19"/>
       <c r="BN183" s="19"/>
+      <c r="BO183" s="19"/>
     </row>
-    <row r="184" spans="1:66" ht="240" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:67" ht="240" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>218</v>
       </c>
@@ -25161,8 +25383,9 @@
       <c r="BL184" s="10"/>
       <c r="BM184" s="10"/>
       <c r="BN184" s="10"/>
+      <c r="BO184" s="10"/>
     </row>
-    <row r="185" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
         <v>220</v>
       </c>
@@ -25271,8 +25494,9 @@
       <c r="BL185" s="19"/>
       <c r="BM185" s="19"/>
       <c r="BN185" s="19"/>
+      <c r="BO185" s="19"/>
     </row>
-    <row r="186" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>221</v>
       </c>
@@ -25381,8 +25605,9 @@
       <c r="BL186" s="10"/>
       <c r="BM186" s="10"/>
       <c r="BN186" s="10"/>
+      <c r="BO186" s="10"/>
     </row>
-    <row r="187" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>222</v>
       </c>
@@ -25491,8 +25716,9 @@
       <c r="BL187" s="19"/>
       <c r="BM187" s="19"/>
       <c r="BN187" s="19"/>
+      <c r="BO187" s="19"/>
     </row>
-    <row r="188" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>223</v>
       </c>
@@ -25601,8 +25827,9 @@
       <c r="BL188" s="10"/>
       <c r="BM188" s="10"/>
       <c r="BN188" s="10"/>
+      <c r="BO188" s="10"/>
     </row>
-    <row r="189" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
         <v>224</v>
       </c>
@@ -25694,7 +25921,7 @@
       <c r="AS189" s="19"/>
       <c r="AT189" s="19"/>
       <c r="AU189" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AV189" s="19"/>
       <c r="AW189" s="19"/>
@@ -25715,8 +25942,9 @@
       <c r="BL189" s="19"/>
       <c r="BM189" s="19"/>
       <c r="BN189" s="19"/>
+      <c r="BO189" s="19"/>
     </row>
-    <row r="190" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>225</v>
       </c>
@@ -25823,8 +26051,9 @@
       <c r="BL190" s="10"/>
       <c r="BM190" s="10"/>
       <c r="BN190" s="10"/>
+      <c r="BO190" s="10"/>
     </row>
-    <row r="191" spans="1:66" ht="405" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:67" ht="405" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>226</v>
       </c>
@@ -25931,8 +26160,9 @@
       <c r="BL191" s="19"/>
       <c r="BM191" s="19"/>
       <c r="BN191" s="19"/>
+      <c r="BO191" s="19"/>
     </row>
-    <row r="192" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>227</v>
       </c>
@@ -26031,8 +26261,9 @@
       <c r="BL192" s="10"/>
       <c r="BM192" s="10"/>
       <c r="BN192" s="10"/>
+      <c r="BO192" s="10"/>
     </row>
-    <row r="193" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>228</v>
       </c>
@@ -26114,7 +26345,7 @@
       <c r="AM193" s="19"/>
       <c r="AN193" s="19"/>
       <c r="AO193" s="19" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="AP193" s="19"/>
       <c r="AQ193" s="19"/>
@@ -26141,8 +26372,9 @@
       <c r="BL193" s="19"/>
       <c r="BM193" s="19"/>
       <c r="BN193" s="19"/>
+      <c r="BO193" s="19"/>
     </row>
-    <row r="194" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>230</v>
       </c>
@@ -26253,8 +26485,9 @@
       <c r="BL194" s="10"/>
       <c r="BM194" s="10"/>
       <c r="BN194" s="10"/>
+      <c r="BO194" s="10"/>
     </row>
-    <row r="195" spans="1:66" ht="360" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:67" ht="360" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>231</v>
       </c>
@@ -26361,8 +26594,9 @@
       <c r="BL195" s="19"/>
       <c r="BM195" s="19"/>
       <c r="BN195" s="19"/>
+      <c r="BO195" s="19"/>
     </row>
-    <row r="196" spans="1:66" ht="405" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:67" ht="405" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>232</v>
       </c>
@@ -26469,8 +26703,9 @@
       <c r="BL196" s="10"/>
       <c r="BM196" s="10"/>
       <c r="BN196" s="10"/>
+      <c r="BO196" s="10"/>
     </row>
-    <row r="197" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>233</v>
       </c>
@@ -26545,10 +26780,10 @@
         <v>1049</v>
       </c>
       <c r="AD197" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AE197" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AF197" s="19"/>
       <c r="AG197" s="19"/>
@@ -26585,12 +26820,13 @@
       <c r="BJ197" s="19"/>
       <c r="BK197" s="19"/>
       <c r="BL197" s="19" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="BM197" s="19"/>
       <c r="BN197" s="19"/>
+      <c r="BO197" s="19"/>
     </row>
-    <row r="198" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>234</v>
       </c>
@@ -26697,8 +26933,9 @@
       <c r="BL198" s="10"/>
       <c r="BM198" s="10"/>
       <c r="BN198" s="10"/>
+      <c r="BO198" s="10"/>
     </row>
-    <row r="199" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>235</v>
       </c>
@@ -26763,7 +27000,7 @@
       <c r="V199" s="19"/>
       <c r="W199" s="19"/>
       <c r="X199" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Y199" s="19"/>
       <c r="Z199" s="19"/>
@@ -26807,8 +27044,9 @@
       <c r="BL199" s="19"/>
       <c r="BM199" s="19"/>
       <c r="BN199" s="19"/>
+      <c r="BO199" s="19"/>
     </row>
-    <row r="200" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>236</v>
       </c>
@@ -26917,8 +27155,9 @@
       <c r="BL200" s="10"/>
       <c r="BM200" s="10"/>
       <c r="BN200" s="10"/>
+      <c r="BO200" s="10"/>
     </row>
-    <row r="201" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>238</v>
       </c>
@@ -27025,8 +27264,9 @@
       <c r="BL201" s="19"/>
       <c r="BM201" s="19"/>
       <c r="BN201" s="19"/>
+      <c r="BO201" s="19"/>
     </row>
-    <row r="202" spans="1:66" ht="405" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:67" ht="405" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>239</v>
       </c>
@@ -27133,8 +27373,9 @@
       <c r="BL202" s="10"/>
       <c r="BM202" s="10"/>
       <c r="BN202" s="10"/>
+      <c r="BO202" s="10"/>
     </row>
-    <row r="203" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>244</v>
       </c>
@@ -27212,7 +27453,7 @@
       <c r="AI203" s="19"/>
       <c r="AJ203" s="19"/>
       <c r="AK203" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AL203" s="19"/>
       <c r="AM203" s="19"/>
@@ -27243,8 +27484,9 @@
       <c r="BL203" s="19"/>
       <c r="BM203" s="19"/>
       <c r="BN203" s="19"/>
+      <c r="BO203" s="19"/>
     </row>
-    <row r="204" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>245</v>
       </c>
@@ -27353,8 +27595,9 @@
       <c r="BL204" s="10"/>
       <c r="BM204" s="10"/>
       <c r="BN204" s="10"/>
+      <c r="BO204" s="10"/>
     </row>
-    <row r="205" spans="1:66" ht="360" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:67" ht="360" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>246</v>
       </c>
@@ -27461,8 +27704,9 @@
       <c r="BL205" s="19"/>
       <c r="BM205" s="19"/>
       <c r="BN205" s="19"/>
+      <c r="BO205" s="19"/>
     </row>
-    <row r="206" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>247</v>
       </c>
@@ -27569,8 +27813,9 @@
       <c r="BL206" s="10"/>
       <c r="BM206" s="10"/>
       <c r="BN206" s="10"/>
+      <c r="BO206" s="10"/>
     </row>
-    <row r="207" spans="1:66" ht="375" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:67" ht="375" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>248</v>
       </c>
@@ -27677,8 +27922,9 @@
       <c r="BL207" s="19"/>
       <c r="BM207" s="19"/>
       <c r="BN207" s="19"/>
+      <c r="BO207" s="19"/>
     </row>
-    <row r="208" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>249</v>
       </c>
@@ -27785,8 +28031,9 @@
       <c r="BL208" s="10"/>
       <c r="BM208" s="10"/>
       <c r="BN208" s="10"/>
+      <c r="BO208" s="10"/>
     </row>
-    <row r="209" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>250</v>
       </c>
@@ -27895,8 +28142,9 @@
       <c r="BL209" s="19"/>
       <c r="BM209" s="19"/>
       <c r="BN209" s="19"/>
+      <c r="BO209" s="19"/>
     </row>
-    <row r="210" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>251</v>
       </c>
@@ -28005,8 +28253,9 @@
       <c r="BL210" s="10"/>
       <c r="BM210" s="10"/>
       <c r="BN210" s="10"/>
+      <c r="BO210" s="10"/>
     </row>
-    <row r="211" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
         <v>252</v>
       </c>
@@ -28115,8 +28364,9 @@
       <c r="BL211" s="19"/>
       <c r="BM211" s="19"/>
       <c r="BN211" s="19"/>
+      <c r="BO211" s="19"/>
     </row>
-    <row r="212" spans="1:66" ht="360" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:67" ht="360" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>253</v>
       </c>
@@ -28223,8 +28473,9 @@
       <c r="BL212" s="10"/>
       <c r="BM212" s="10"/>
       <c r="BN212" s="10"/>
+      <c r="BO212" s="10"/>
     </row>
-    <row r="213" spans="1:66" ht="360" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:67" ht="360" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>254</v>
       </c>
@@ -28333,8 +28584,9 @@
       <c r="BL213" s="19"/>
       <c r="BM213" s="19"/>
       <c r="BN213" s="19"/>
+      <c r="BO213" s="19"/>
     </row>
-    <row r="214" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>256</v>
       </c>
@@ -28441,8 +28693,9 @@
       <c r="BL214" s="10"/>
       <c r="BM214" s="10"/>
       <c r="BN214" s="10"/>
+      <c r="BO214" s="10"/>
     </row>
-    <row r="215" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>257</v>
       </c>
@@ -28551,8 +28804,9 @@
       <c r="BL215" s="19"/>
       <c r="BM215" s="19"/>
       <c r="BN215" s="19"/>
+      <c r="BO215" s="19"/>
     </row>
-    <row r="216" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>258</v>
       </c>
@@ -28659,8 +28913,9 @@
       <c r="BL216" s="10"/>
       <c r="BM216" s="10"/>
       <c r="BN216" s="10"/>
+      <c r="BO216" s="10"/>
     </row>
-    <row r="217" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
         <v>259</v>
       </c>
@@ -28771,8 +29026,9 @@
       <c r="BL217" s="19"/>
       <c r="BM217" s="19"/>
       <c r="BN217" s="19"/>
+      <c r="BO217" s="19"/>
     </row>
-    <row r="218" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>261</v>
       </c>
@@ -28881,8 +29137,9 @@
       <c r="BL218" s="10"/>
       <c r="BM218" s="10"/>
       <c r="BN218" s="10"/>
+      <c r="BO218" s="10"/>
     </row>
-    <row r="219" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>262</v>
       </c>
@@ -28989,8 +29246,9 @@
       <c r="BL219" s="19"/>
       <c r="BM219" s="19"/>
       <c r="BN219" s="19"/>
+      <c r="BO219" s="19"/>
     </row>
-    <row r="220" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>263</v>
       </c>
@@ -29066,14 +29324,14 @@
       <c r="AC220" s="10"/>
       <c r="AD220" s="10"/>
       <c r="AE220" s="10" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AF220" s="10"/>
       <c r="AG220" s="10"/>
       <c r="AH220" s="10"/>
       <c r="AI220" s="10"/>
       <c r="AJ220" s="10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
@@ -29081,7 +29339,7 @@
       <c r="AN220" s="10"/>
       <c r="AO220" s="10"/>
       <c r="AP220" s="10" t="s">
-        <v>1269</v>
+        <v>1287</v>
       </c>
       <c r="AQ220" s="10"/>
       <c r="AR220" s="10"/>
@@ -29095,10 +29353,10 @@
       <c r="AZ220" s="10"/>
       <c r="BA220" s="10"/>
       <c r="BB220" s="45" t="s">
+        <v>1216</v>
+      </c>
+      <c r="BC220" s="45" t="s">
         <v>1217</v>
-      </c>
-      <c r="BC220" s="45" t="s">
-        <v>1218</v>
       </c>
       <c r="BD220" s="10"/>
       <c r="BE220" s="10"/>
@@ -29109,12 +29367,13 @@
       <c r="BJ220" s="10"/>
       <c r="BK220" s="10"/>
       <c r="BL220" s="10" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="BM220" s="10"/>
       <c r="BN220" s="10"/>
+      <c r="BO220" s="10"/>
     </row>
-    <row r="221" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>264</v>
       </c>
@@ -29192,7 +29451,7 @@
       <c r="AI221" s="19"/>
       <c r="AJ221" s="19"/>
       <c r="AK221" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AL221" s="19"/>
       <c r="AM221" s="19"/>
@@ -29223,8 +29482,9 @@
       <c r="BL221" s="19"/>
       <c r="BM221" s="19"/>
       <c r="BN221" s="19"/>
+      <c r="BO221" s="19"/>
     </row>
-    <row r="222" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>265</v>
       </c>
@@ -29331,8 +29591,9 @@
       <c r="BL222" s="10"/>
       <c r="BM222" s="10"/>
       <c r="BN222" s="10"/>
+      <c r="BO222" s="10"/>
     </row>
-    <row r="223" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>266</v>
       </c>
@@ -29397,7 +29658,7 @@
       <c r="V223" s="19"/>
       <c r="W223" s="19"/>
       <c r="X223" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Y223" s="19"/>
       <c r="Z223" s="19"/>
@@ -29412,7 +29673,7 @@
       <c r="AI223" s="19"/>
       <c r="AJ223" s="19"/>
       <c r="AK223" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AL223" s="19"/>
       <c r="AM223" s="19"/>
@@ -29445,8 +29706,9 @@
       <c r="BL223" s="19"/>
       <c r="BM223" s="19"/>
       <c r="BN223" s="19"/>
+      <c r="BO223" s="19"/>
     </row>
-    <row r="224" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>267</v>
       </c>
@@ -29553,8 +29815,9 @@
       <c r="BL224" s="10"/>
       <c r="BM224" s="10"/>
       <c r="BN224" s="10"/>
+      <c r="BO224" s="10"/>
     </row>
-    <row r="225" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
         <v>268</v>
       </c>
@@ -29663,8 +29926,9 @@
       <c r="BL225" s="19"/>
       <c r="BM225" s="19"/>
       <c r="BN225" s="19"/>
+      <c r="BO225" s="19"/>
     </row>
-    <row r="226" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>269</v>
       </c>
@@ -29737,7 +30001,7 @@
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AE226" s="10"/>
       <c r="AF226" s="10"/>
@@ -29747,7 +30011,7 @@
       <c r="AH226" s="10"/>
       <c r="AI226" s="10"/>
       <c r="AJ226" s="10" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AK226" s="10"/>
       <c r="AL226" s="10"/>
@@ -29777,12 +30041,15 @@
       <c r="BJ226" s="10"/>
       <c r="BK226" s="10"/>
       <c r="BL226" s="10" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="BM226" s="10"/>
       <c r="BN226" s="10"/>
+      <c r="BO226" s="10" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="227" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>270</v>
       </c>
@@ -29877,7 +30144,7 @@
       <c r="AZ227" s="19"/>
       <c r="BA227" s="19"/>
       <c r="BB227" s="46" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="BC227" s="19"/>
       <c r="BD227" s="19"/>
@@ -29889,12 +30156,13 @@
       <c r="BJ227" s="19"/>
       <c r="BK227" s="19"/>
       <c r="BL227" s="19" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BM227" s="19"/>
       <c r="BN227" s="19"/>
+      <c r="BO227" s="19"/>
     </row>
-    <row r="228" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>272</v>
       </c>
@@ -29965,7 +30233,7 @@
       <c r="AB228" s="10"/>
       <c r="AC228" s="10"/>
       <c r="AD228" s="10" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AE228" s="10"/>
       <c r="AF228" s="10"/>
@@ -29991,7 +30259,7 @@
       <c r="AZ228" s="10"/>
       <c r="BA228" s="10"/>
       <c r="BB228" s="46" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="BC228" s="10"/>
       <c r="BD228" s="10"/>
@@ -30005,8 +30273,9 @@
       <c r="BL228" s="10"/>
       <c r="BM228" s="10"/>
       <c r="BN228" s="10"/>
+      <c r="BO228" s="10"/>
     </row>
-    <row r="229" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>273</v>
       </c>
@@ -30083,7 +30352,7 @@
       <c r="AH229" s="19"/>
       <c r="AI229" s="19"/>
       <c r="AJ229" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AK229" s="19"/>
       <c r="AL229" s="19"/>
@@ -30103,7 +30372,7 @@
       <c r="AZ229" s="19"/>
       <c r="BA229" s="19"/>
       <c r="BB229" s="46" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="BC229" s="19"/>
       <c r="BD229" s="19"/>
@@ -30117,8 +30386,9 @@
       <c r="BL229" s="19"/>
       <c r="BM229" s="19"/>
       <c r="BN229" s="19"/>
+      <c r="BO229" s="19"/>
     </row>
-    <row r="230" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>274</v>
       </c>
@@ -30191,7 +30461,7 @@
       <c r="AD230" s="10"/>
       <c r="AE230" s="10"/>
       <c r="AF230" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AG230" s="10"/>
       <c r="AH230" s="10"/>
@@ -30227,8 +30497,9 @@
       <c r="BL230" s="10"/>
       <c r="BM230" s="10"/>
       <c r="BN230" s="10"/>
+      <c r="BO230" s="10"/>
     </row>
-    <row r="231" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>275</v>
       </c>
@@ -30337,8 +30608,9 @@
       <c r="BL231" s="19"/>
       <c r="BM231" s="19"/>
       <c r="BN231" s="19"/>
+      <c r="BO231" s="19"/>
     </row>
-    <row r="232" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>276</v>
       </c>
@@ -30445,8 +30717,9 @@
       <c r="BL232" s="10"/>
       <c r="BM232" s="10"/>
       <c r="BN232" s="10"/>
+      <c r="BO232" s="10"/>
     </row>
-    <row r="233" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>277</v>
       </c>
@@ -30555,8 +30828,9 @@
       <c r="BL233" s="19"/>
       <c r="BM233" s="19"/>
       <c r="BN233" s="19"/>
+      <c r="BO233" s="19"/>
     </row>
-    <row r="234" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>279</v>
       </c>
@@ -30665,8 +30939,9 @@
       <c r="BL234" s="10"/>
       <c r="BM234" s="10"/>
       <c r="BN234" s="10"/>
+      <c r="BO234" s="10"/>
     </row>
-    <row r="235" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>281</v>
       </c>
@@ -30777,8 +31052,9 @@
       <c r="BL235" s="19"/>
       <c r="BM235" s="19"/>
       <c r="BN235" s="19"/>
+      <c r="BO235" s="19"/>
     </row>
-    <row r="236" spans="1:66" ht="390" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:67" ht="390" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>282</v>
       </c>
@@ -30866,7 +31142,7 @@
       <c r="AS236" s="10"/>
       <c r="AT236" s="10"/>
       <c r="AU236" s="10" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
@@ -30887,8 +31163,9 @@
       <c r="BL236" s="10"/>
       <c r="BM236" s="10"/>
       <c r="BN236" s="10"/>
+      <c r="BO236" s="10"/>
     </row>
-    <row r="237" spans="1:66" ht="360" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:67" ht="360" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>283</v>
       </c>
@@ -30995,8 +31272,9 @@
       <c r="BL237" s="19"/>
       <c r="BM237" s="19"/>
       <c r="BN237" s="19"/>
+      <c r="BO237" s="19"/>
     </row>
-    <row r="238" spans="1:66" ht="405" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:67" ht="405" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>284</v>
       </c>
@@ -31103,8 +31381,9 @@
       <c r="BL238" s="10"/>
       <c r="BM238" s="10"/>
       <c r="BN238" s="10"/>
+      <c r="BO238" s="10"/>
     </row>
-    <row r="239" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>285</v>
       </c>
@@ -31175,7 +31454,7 @@
       <c r="AB239" s="19"/>
       <c r="AC239" s="19"/>
       <c r="AD239" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AE239" s="19"/>
       <c r="AF239" s="19"/>
@@ -31201,7 +31480,7 @@
       <c r="AZ239" s="19"/>
       <c r="BA239" s="19"/>
       <c r="BB239" s="45" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="BC239" s="19"/>
       <c r="BD239" s="19"/>
@@ -31215,8 +31494,9 @@
       <c r="BL239" s="19"/>
       <c r="BM239" s="19"/>
       <c r="BN239" s="19"/>
+      <c r="BO239" s="19"/>
     </row>
-    <row r="240" spans="1:66" ht="360" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:67" ht="360" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>286</v>
       </c>
@@ -31287,7 +31567,7 @@
       <c r="AB240" s="10"/>
       <c r="AC240" s="10"/>
       <c r="AD240" s="10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AE240" s="10"/>
       <c r="AF240" s="10"/>
@@ -31325,8 +31605,9 @@
       <c r="BL240" s="10"/>
       <c r="BM240" s="10"/>
       <c r="BN240" s="10"/>
+      <c r="BO240" s="10"/>
     </row>
-    <row r="241" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>287</v>
       </c>
@@ -31435,8 +31716,9 @@
       <c r="BL241" s="19"/>
       <c r="BM241" s="19"/>
       <c r="BN241" s="19"/>
+      <c r="BO241" s="19"/>
     </row>
-    <row r="242" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>288</v>
       </c>
@@ -31543,8 +31825,9 @@
       <c r="BL242" s="10"/>
       <c r="BM242" s="10"/>
       <c r="BN242" s="10"/>
+      <c r="BO242" s="10"/>
     </row>
-    <row r="243" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>289</v>
       </c>
@@ -31653,8 +31936,9 @@
       <c r="BL243" s="19"/>
       <c r="BM243" s="19"/>
       <c r="BN243" s="19"/>
+      <c r="BO243" s="19"/>
     </row>
-    <row r="244" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>290</v>
       </c>
@@ -31767,8 +32051,9 @@
       <c r="BL244" s="10"/>
       <c r="BM244" s="10"/>
       <c r="BN244" s="10"/>
+      <c r="BO244" s="10"/>
     </row>
-    <row r="245" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>291</v>
       </c>
@@ -31779,7 +32064,7 @@
         <v>931</v>
       </c>
       <c r="D245" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" s="16">
         <v>4.4493178055953813</v>
@@ -31851,7 +32136,7 @@
       <c r="AN245" s="19"/>
       <c r="AO245" s="19"/>
       <c r="AP245" s="19" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="AQ245" s="19"/>
       <c r="AR245" s="19"/>
@@ -31875,12 +32160,13 @@
       <c r="BJ245" s="19"/>
       <c r="BK245" s="19"/>
       <c r="BL245" s="19" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="BM245" s="19"/>
       <c r="BN245" s="19"/>
+      <c r="BO245" s="19"/>
     </row>
-    <row r="246" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>292</v>
       </c>
@@ -31987,8 +32273,9 @@
       <c r="BL246" s="10"/>
       <c r="BM246" s="10"/>
       <c r="BN246" s="10"/>
+      <c r="BO246" s="10"/>
     </row>
-    <row r="247" spans="1:66" ht="270" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:67" ht="270" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>295</v>
       </c>
@@ -32078,7 +32365,7 @@
       <c r="AS247" s="19"/>
       <c r="AT247" s="19"/>
       <c r="AU247" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AV247" s="19"/>
       <c r="AW247" s="19"/>
@@ -32099,8 +32386,9 @@
       <c r="BL247" s="19"/>
       <c r="BM247" s="19"/>
       <c r="BN247" s="19"/>
+      <c r="BO247" s="19"/>
     </row>
-    <row r="248" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>296</v>
       </c>
@@ -32207,8 +32495,9 @@
       <c r="BL248" s="10"/>
       <c r="BM248" s="10"/>
       <c r="BN248" s="10"/>
+      <c r="BO248" s="10"/>
     </row>
-    <row r="249" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>297</v>
       </c>
@@ -32315,8 +32604,9 @@
       <c r="BL249" s="19"/>
       <c r="BM249" s="19"/>
       <c r="BN249" s="19"/>
+      <c r="BO249" s="19"/>
     </row>
-    <row r="250" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>298</v>
       </c>
@@ -32419,14 +32709,15 @@
       <c r="BH250" s="10"/>
       <c r="BI250" s="10"/>
       <c r="BJ250" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="BK250" s="10"/>
       <c r="BL250" s="10"/>
       <c r="BM250" s="10"/>
       <c r="BN250" s="10"/>
+      <c r="BO250" s="10"/>
     </row>
-    <row r="251" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>300</v>
       </c>
@@ -32535,8 +32826,9 @@
       <c r="BL251" s="19"/>
       <c r="BM251" s="19"/>
       <c r="BN251" s="19"/>
+      <c r="BO251" s="19"/>
     </row>
-    <row r="252" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>301</v>
       </c>
@@ -32643,8 +32935,9 @@
       <c r="BL252" s="10"/>
       <c r="BM252" s="10"/>
       <c r="BN252" s="10"/>
+      <c r="BO252" s="10"/>
     </row>
-    <row r="253" spans="1:66" ht="315" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:67" ht="315" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>304</v>
       </c>
@@ -32751,8 +33044,9 @@
       <c r="BL253" s="19"/>
       <c r="BM253" s="19"/>
       <c r="BN253" s="19"/>
+      <c r="BO253" s="19"/>
     </row>
-    <row r="254" spans="1:66" ht="360" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:67" ht="360" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>305</v>
       </c>
@@ -32824,14 +33118,14 @@
       <c r="AC254" s="10"/>
       <c r="AD254" s="10"/>
       <c r="AE254" s="10" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AF254" s="10"/>
       <c r="AG254" s="10"/>
       <c r="AH254" s="10"/>
       <c r="AI254" s="10"/>
       <c r="AJ254" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AK254" s="10"/>
       <c r="AL254" s="10"/>
@@ -32863,14 +33157,15 @@
       <c r="BH254" s="10"/>
       <c r="BI254" s="10"/>
       <c r="BJ254" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="BK254" s="10"/>
       <c r="BL254" s="10"/>
       <c r="BM254" s="10"/>
       <c r="BN254" s="10"/>
+      <c r="BO254" s="10"/>
     </row>
-    <row r="255" spans="1:66" ht="360" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:67" ht="360" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>306</v>
       </c>
@@ -32983,8 +33278,9 @@
       <c r="BL255" s="19"/>
       <c r="BM255" s="19"/>
       <c r="BN255" s="19"/>
+      <c r="BO255" s="19"/>
     </row>
-    <row r="256" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>307</v>
       </c>
@@ -33091,8 +33387,9 @@
       <c r="BL256" s="10"/>
       <c r="BM256" s="10"/>
       <c r="BN256" s="10"/>
+      <c r="BO256" s="10"/>
     </row>
-    <row r="257" spans="1:66" ht="330" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:67" ht="330" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>308</v>
       </c>
@@ -33199,8 +33496,9 @@
       <c r="BL257" s="19"/>
       <c r="BM257" s="19"/>
       <c r="BN257" s="19"/>
+      <c r="BO257" s="19"/>
     </row>
-    <row r="258" spans="1:66" ht="375" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:67" ht="375" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>309</v>
       </c>
@@ -33271,7 +33569,7 @@
       <c r="AB258" s="10"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AE258" s="10"/>
       <c r="AF258" s="10"/>
@@ -33305,14 +33603,15 @@
       <c r="BH258" s="10"/>
       <c r="BI258" s="10"/>
       <c r="BJ258" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="BK258" s="10"/>
       <c r="BL258" s="10"/>
       <c r="BM258" s="10"/>
       <c r="BN258" s="10"/>
+      <c r="BO258" s="10"/>
     </row>
-    <row r="259" spans="1:66" ht="240" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:67" ht="240" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>310</v>
       </c>
@@ -33425,12 +33724,13 @@
       <c r="BJ259" s="19"/>
       <c r="BK259" s="19"/>
       <c r="BL259" s="19" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BM259" s="19"/>
       <c r="BN259" s="19"/>
+      <c r="BO259" s="19"/>
     </row>
-    <row r="260" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>311</v>
       </c>
@@ -33537,8 +33837,9 @@
       <c r="BL260" s="10"/>
       <c r="BM260" s="10"/>
       <c r="BN260" s="10"/>
+      <c r="BO260" s="10"/>
     </row>
-    <row r="261" spans="1:66" ht="225" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:67" ht="225" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>312</v>
       </c>
@@ -33635,8 +33936,9 @@
       <c r="BL261" s="19"/>
       <c r="BM261" s="19"/>
       <c r="BN261" s="19"/>
+      <c r="BO261" s="19"/>
     </row>
-    <row r="262" spans="1:66" ht="345" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:67" ht="345" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>313</v>
       </c>
@@ -33733,8 +34035,9 @@
       <c r="BL262" s="10"/>
       <c r="BM262" s="10"/>
       <c r="BN262" s="10"/>
+      <c r="BO262" s="10"/>
     </row>
-    <row r="263" spans="1:66" ht="285" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:67" ht="285" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>314</v>
       </c>
@@ -33831,8 +34134,9 @@
       <c r="BL263" s="19"/>
       <c r="BM263" s="19"/>
       <c r="BN263" s="19"/>
+      <c r="BO263" s="19"/>
     </row>
-    <row r="264" spans="1:66" ht="210" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:67" ht="210" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>315</v>
       </c>
@@ -33929,8 +34233,9 @@
       <c r="BL264" s="10"/>
       <c r="BM264" s="10"/>
       <c r="BN264" s="10"/>
+      <c r="BO264" s="10"/>
     </row>
-    <row r="265" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>316</v>
       </c>
@@ -33997,7 +34302,7 @@
       <c r="AH265" s="19"/>
       <c r="AI265" s="19"/>
       <c r="AJ265" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AK265" s="19"/>
       <c r="AL265" s="19"/>
@@ -34029,8 +34334,9 @@
       <c r="BL265" s="19"/>
       <c r="BM265" s="19"/>
       <c r="BN265" s="19"/>
+      <c r="BO265" s="19"/>
     </row>
-    <row r="266" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>317</v>
       </c>
@@ -34107,7 +34413,7 @@
       <c r="AH266" s="10"/>
       <c r="AI266" s="10"/>
       <c r="AJ266" s="10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AK266" s="10"/>
       <c r="AL266" s="10"/>
@@ -34127,16 +34433,16 @@
       <c r="AZ266" s="10"/>
       <c r="BA266" s="10"/>
       <c r="BB266" s="46" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BC266" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="BD266" s="10"/>
       <c r="BE266" s="10"/>
       <c r="BF266" s="10"/>
       <c r="BG266" s="10" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="BH266" s="10"/>
       <c r="BI266" s="10"/>
@@ -34145,8 +34451,9 @@
       <c r="BL266" s="10"/>
       <c r="BM266" s="10"/>
       <c r="BN266" s="10"/>
+      <c r="BO266" s="10"/>
     </row>
-    <row r="267" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>318</v>
       </c>
@@ -34241,10 +34548,10 @@
       <c r="AZ267" s="19"/>
       <c r="BA267" s="19"/>
       <c r="BB267" s="46" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="BC267" s="46" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="BD267" s="19"/>
       <c r="BE267" s="19"/>
@@ -34254,13 +34561,16 @@
       <c r="BI267" s="19"/>
       <c r="BJ267" s="19"/>
       <c r="BK267" s="19" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BL267" s="19"/>
       <c r="BM267" s="19"/>
       <c r="BN267" s="19"/>
+      <c r="BO267" s="19" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="268" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>319</v>
       </c>
@@ -34336,7 +34646,7 @@
       <c r="AH268" s="10"/>
       <c r="AI268" s="10"/>
       <c r="AJ268" s="10" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AK268" s="10"/>
       <c r="AL268" s="10"/>
@@ -34356,16 +34666,16 @@
       <c r="AZ268" s="10"/>
       <c r="BA268" s="10"/>
       <c r="BB268" s="46" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="BC268" s="46" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="BD268" s="10"/>
       <c r="BE268" s="10"/>
       <c r="BF268" s="10"/>
       <c r="BG268" s="10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BH268" s="10"/>
       <c r="BI268" s="10"/>
@@ -34374,8 +34684,9 @@
       <c r="BL268" s="10"/>
       <c r="BM268" s="10"/>
       <c r="BN268" s="10"/>
+      <c r="BO268" s="10"/>
     </row>
-    <row r="269" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>320</v>
       </c>
@@ -34416,7 +34727,7 @@
         <v>1083</v>
       </c>
       <c r="N269" s="36" t="s">
-        <v>1087</v>
+        <v>1289</v>
       </c>
       <c r="O269" s="19" t="s">
         <v>240</v>
@@ -34475,27 +34786,30 @@
       <c r="BE269" s="19"/>
       <c r="BF269" s="19"/>
       <c r="BG269" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="BH269" s="19"/>
       <c r="BI269" s="19"/>
       <c r="BJ269" s="19"/>
       <c r="BK269" s="19" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BL269" s="19"/>
       <c r="BM269" s="19"/>
       <c r="BN269" s="19"/>
+      <c r="BO269" s="19" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="270" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>321</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C270" s="49" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D270" s="6">
         <v>1</v>
@@ -34523,10 +34837,10 @@
         <v>9</v>
       </c>
       <c r="M270" s="44" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N270" s="38" t="s">
         <v>1088</v>
-      </c>
-      <c r="N270" s="38" t="s">
-        <v>1089</v>
       </c>
       <c r="O270" s="10" t="s">
         <v>261</v>
@@ -34592,16 +34906,17 @@
       <c r="BL270" s="10"/>
       <c r="BM270" s="10"/>
       <c r="BN270" s="10"/>
+      <c r="BO270" s="10"/>
     </row>
-    <row r="271" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A271" s="14">
         <v>322</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D271" s="15">
         <v>1</v>
@@ -34629,10 +34944,10 @@
         <v>9</v>
       </c>
       <c r="M271" s="43" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N271" s="39" t="s">
         <v>1091</v>
-      </c>
-      <c r="N271" s="39" t="s">
-        <v>1092</v>
       </c>
       <c r="O271" s="19" t="s">
         <v>261</v>
@@ -34686,7 +35001,7 @@
       <c r="AZ271" s="19"/>
       <c r="BA271" s="19"/>
       <c r="BB271" s="46" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="BC271" s="19"/>
       <c r="BD271" s="19"/>
@@ -34700,16 +35015,17 @@
       <c r="BL271" s="19"/>
       <c r="BM271" s="19"/>
       <c r="BN271" s="19"/>
+      <c r="BO271" s="19"/>
     </row>
-    <row r="272" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>323</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C272" s="49" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D272" s="6">
         <v>1</v>
@@ -34737,10 +35053,10 @@
         <v>9</v>
       </c>
       <c r="M272" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="N272" s="40" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="O272" s="10" t="s">
         <v>261</v>
@@ -34794,7 +35110,7 @@
       <c r="AZ272" s="10"/>
       <c r="BA272" s="10"/>
       <c r="BB272" s="46" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="BC272" s="10"/>
       <c r="BD272" s="10"/>
@@ -34802,7 +35118,7 @@
       <c r="BF272" s="10"/>
       <c r="BG272" s="10"/>
       <c r="BH272" s="10" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="BI272" s="10"/>
       <c r="BJ272" s="10"/>
@@ -34810,16 +35126,17 @@
       <c r="BL272" s="10"/>
       <c r="BM272" s="10"/>
       <c r="BN272" s="10"/>
+      <c r="BO272" s="10"/>
     </row>
-    <row r="273" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>324</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D273" s="15">
         <v>1</v>
@@ -34839,10 +35156,10 @@
         <v>9</v>
       </c>
       <c r="M273" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N273" s="39" t="s">
         <v>1096</v>
-      </c>
-      <c r="N273" s="39" t="s">
-        <v>1097</v>
       </c>
       <c r="O273" s="19" t="s">
         <v>120</v>
@@ -34888,7 +35205,7 @@
       <c r="AR273" s="19"/>
       <c r="AS273" s="19"/>
       <c r="AT273" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AU273" s="19"/>
       <c r="AV273" s="19"/>
@@ -34910,16 +35227,17 @@
       <c r="BL273" s="19"/>
       <c r="BM273" s="19"/>
       <c r="BN273" s="19"/>
+      <c r="BO273" s="19"/>
     </row>
-    <row r="274" spans="1:66" ht="165" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:67" ht="165" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>325</v>
       </c>
       <c r="B274" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C274" s="41" t="s">
         <v>1098</v>
-      </c>
-      <c r="C274" s="41" t="s">
-        <v>1099</v>
       </c>
       <c r="D274" s="6">
         <v>1</v>
@@ -34949,10 +35267,10 @@
         <v>10</v>
       </c>
       <c r="M274" s="42" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N274" s="40" t="s">
         <v>1100</v>
-      </c>
-      <c r="N274" s="40" t="s">
-        <v>1101</v>
       </c>
       <c r="O274" s="10" t="s">
         <v>233</v>
@@ -35012,24 +35330,25 @@
       <c r="BF274" s="10"/>
       <c r="BG274" s="10"/>
       <c r="BH274" s="50" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="BI274" s="10"/>
       <c r="BJ274" s="10"/>
       <c r="BK274" s="10"/>
-      <c r="BL274" s="51"/>
+      <c r="BL274" s="50"/>
       <c r="BM274" s="10"/>
       <c r="BN274" s="10"/>
+      <c r="BO274" s="10"/>
     </row>
-    <row r="275" spans="1:66" ht="120" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:67" ht="120" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>326</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D275" s="15">
         <v>1</v>
@@ -35059,10 +35378,10 @@
         <v>10</v>
       </c>
       <c r="M275" s="43" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N275" s="39" t="s">
         <v>1103</v>
-      </c>
-      <c r="N275" s="39" t="s">
-        <v>1104</v>
       </c>
       <c r="O275" s="19" t="s">
         <v>233</v>
@@ -35116,10 +35435,10 @@
       <c r="AZ275" s="19"/>
       <c r="BA275" s="19"/>
       <c r="BB275" s="45" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="BC275" s="45" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="BD275" s="19"/>
       <c r="BE275" s="19"/>
@@ -35129,19 +35448,20 @@
       <c r="BI275" s="19"/>
       <c r="BJ275" s="19"/>
       <c r="BK275" s="19"/>
-      <c r="BL275" s="51"/>
+      <c r="BL275" s="50"/>
       <c r="BM275" s="19"/>
       <c r="BN275" s="19"/>
+      <c r="BO275" s="19"/>
     </row>
-    <row r="276" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>327</v>
       </c>
       <c r="B276" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C276" s="41" t="s">
         <v>1105</v>
-      </c>
-      <c r="C276" s="41" t="s">
-        <v>1106</v>
       </c>
       <c r="D276" s="6">
         <v>1</v>
@@ -35171,10 +35491,10 @@
         <v>10</v>
       </c>
       <c r="M276" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N276" s="40" t="s">
         <v>1107</v>
-      </c>
-      <c r="N276" s="40" t="s">
-        <v>1108</v>
       </c>
       <c r="O276" s="10" t="s">
         <v>233</v>
@@ -35233,25 +35553,26 @@
       <c r="BE276" s="10"/>
       <c r="BF276" s="10"/>
       <c r="BG276" s="10" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="BH276" s="50"/>
       <c r="BI276" s="10"/>
       <c r="BJ276" s="10"/>
       <c r="BK276" s="10"/>
-      <c r="BL276" s="51"/>
+      <c r="BL276" s="50"/>
       <c r="BM276" s="10"/>
       <c r="BN276" s="10"/>
+      <c r="BO276" s="10"/>
     </row>
-    <row r="277" spans="1:66" ht="120" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:67" ht="120" x14ac:dyDescent="0.25">
       <c r="A277" s="14">
         <v>328</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C277" s="15" t="s">
         <v>1109</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>1110</v>
       </c>
       <c r="D277" s="15">
         <v>1</v>
@@ -35281,10 +35602,10 @@
         <v>10</v>
       </c>
       <c r="M277" s="43" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N277" s="39" t="s">
         <v>1111</v>
-      </c>
-      <c r="N277" s="39" t="s">
-        <v>1112</v>
       </c>
       <c r="O277" s="19" t="s">
         <v>233</v>
@@ -35347,19 +35668,20 @@
       <c r="BI277" s="19"/>
       <c r="BJ277" s="19"/>
       <c r="BK277" s="19"/>
-      <c r="BL277" s="51"/>
+      <c r="BL277" s="50"/>
       <c r="BM277" s="19"/>
       <c r="BN277" s="19"/>
+      <c r="BO277" s="19"/>
     </row>
-    <row r="278" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>329</v>
       </c>
       <c r="B278" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C278" s="41" t="s">
         <v>1113</v>
-      </c>
-      <c r="C278" s="41" t="s">
-        <v>1114</v>
       </c>
       <c r="D278" s="6">
         <v>1</v>
@@ -35379,10 +35701,10 @@
         <v>50</v>
       </c>
       <c r="M278" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N278" s="40" t="s">
         <v>1115</v>
-      </c>
-      <c r="N278" s="40" t="s">
-        <v>1116</v>
       </c>
       <c r="O278" s="10" t="s">
         <v>42</v>
@@ -35418,7 +35740,7 @@
       <c r="AH278" s="10"/>
       <c r="AI278" s="10"/>
       <c r="AJ278" s="10" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AK278" s="10"/>
       <c r="AL278" s="10"/>
@@ -35449,19 +35771,20 @@
       <c r="BK278" s="10"/>
       <c r="BL278" s="10"/>
       <c r="BM278" s="10" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BN278" s="10"/>
+      <c r="BO278" s="10"/>
     </row>
-    <row r="279" spans="1:66" ht="300" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:67" ht="300" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>330</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C279" s="15" t="s">
         <v>1117</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>1118</v>
       </c>
       <c r="D279" s="15">
         <v>1</v>
@@ -35481,10 +35804,10 @@
         <v>46</v>
       </c>
       <c r="M279" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N279" s="39" t="s">
         <v>1119</v>
-      </c>
-      <c r="N279" s="39" t="s">
-        <v>1120</v>
       </c>
       <c r="O279" s="19" t="s">
         <v>42</v>
@@ -35514,7 +35837,7 @@
       <c r="AB279" s="19"/>
       <c r="AC279" s="19"/>
       <c r="AD279" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AE279" s="19"/>
       <c r="AF279" s="19"/>
@@ -35552,18 +35875,21 @@
       <c r="BL279" s="19"/>
       <c r="BM279" s="19"/>
       <c r="BN279" s="19" t="s">
-        <v>1287</v>
+        <v>1283</v>
+      </c>
+      <c r="BO279" s="19" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="280" spans="1:66" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:67" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A280" s="14">
         <v>331</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C280" s="41" t="s">
         <v>1121</v>
-      </c>
-      <c r="C280" s="41" t="s">
-        <v>1122</v>
       </c>
       <c r="D280" s="6">
         <v>1</v>
@@ -35593,10 +35919,10 @@
         <v>10</v>
       </c>
       <c r="M280" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N280" s="33" t="s">
         <v>1123</v>
-      </c>
-      <c r="N280" s="33" t="s">
-        <v>1124</v>
       </c>
       <c r="O280" s="10" t="s">
         <v>324</v>
@@ -35651,7 +35977,7 @@
       <c r="BA280" s="10"/>
       <c r="BB280" s="10"/>
       <c r="BC280" s="45" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="BD280" s="10"/>
       <c r="BE280" s="10"/>
@@ -35664,8 +35990,9 @@
       <c r="BL280" s="10"/>
       <c r="BM280" s="10"/>
       <c r="BN280" s="10"/>
+      <c r="BO280" s="10"/>
     </row>
-    <row r="281" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>332</v>
       </c>
@@ -35734,8 +36061,9 @@
       <c r="BL281" s="19"/>
       <c r="BM281" s="19"/>
       <c r="BN281" s="19"/>
+      <c r="BO281" s="19"/>
     </row>
-    <row r="282" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>333</v>
       </c>
@@ -35804,8 +36132,9 @@
       <c r="BL282" s="10"/>
       <c r="BM282" s="10"/>
       <c r="BN282" s="10"/>
+      <c r="BO282" s="10"/>
     </row>
-    <row r="283" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>334</v>
       </c>
@@ -35874,8 +36203,9 @@
       <c r="BL283" s="19"/>
       <c r="BM283" s="19"/>
       <c r="BN283" s="19"/>
+      <c r="BO283" s="19"/>
     </row>
-    <row r="284" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>335</v>
       </c>
@@ -35944,8 +36274,9 @@
       <c r="BL284" s="10"/>
       <c r="BM284" s="10"/>
       <c r="BN284" s="10"/>
+      <c r="BO284" s="10"/>
     </row>
-    <row r="285" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>336</v>
       </c>
@@ -36014,8 +36345,9 @@
       <c r="BL285" s="19"/>
       <c r="BM285" s="19"/>
       <c r="BN285" s="19"/>
+      <c r="BO285" s="19"/>
     </row>
-    <row r="286" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="14">
         <v>337</v>
       </c>
@@ -36084,8 +36416,9 @@
       <c r="BL286" s="10"/>
       <c r="BM286" s="10"/>
       <c r="BN286" s="10"/>
+      <c r="BO286" s="10"/>
     </row>
-    <row r="287" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="15"/>
       <c r="C287" s="15"/>
@@ -36152,8 +36485,9 @@
       <c r="BL287" s="19"/>
       <c r="BM287" s="19"/>
       <c r="BN287" s="19"/>
+      <c r="BO287" s="19"/>
     </row>
-    <row r="288" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="37"/>
@@ -36220,8 +36554,9 @@
       <c r="BL288" s="10"/>
       <c r="BM288" s="10"/>
       <c r="BN288" s="10"/>
+      <c r="BO288" s="10"/>
     </row>
-    <row r="289" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" s="15"/>
       <c r="C289" s="15"/>
@@ -36288,8 +36623,9 @@
       <c r="BL289" s="19"/>
       <c r="BM289" s="19"/>
       <c r="BN289" s="19"/>
+      <c r="BO289" s="19"/>
     </row>
-    <row r="290" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="37"/>
@@ -36356,8 +36692,9 @@
       <c r="BL290" s="10"/>
       <c r="BM290" s="10"/>
       <c r="BN290" s="10"/>
+      <c r="BO290" s="10"/>
     </row>
-    <row r="291" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="15"/>
       <c r="C291" s="15"/>
@@ -36424,8 +36761,9 @@
       <c r="BL291" s="19"/>
       <c r="BM291" s="19"/>
       <c r="BN291" s="19"/>
+      <c r="BO291" s="19"/>
     </row>
-    <row r="292" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="37"/>
@@ -36492,8 +36830,9 @@
       <c r="BL292" s="10"/>
       <c r="BM292" s="10"/>
       <c r="BN292" s="10"/>
+      <c r="BO292" s="10"/>
     </row>
-    <row r="293" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="15"/>
       <c r="C293" s="15"/>
@@ -36560,8 +36899,9 @@
       <c r="BL293" s="19"/>
       <c r="BM293" s="19"/>
       <c r="BN293" s="19"/>
+      <c r="BO293" s="19"/>
     </row>
-    <row r="294" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="6"/>
       <c r="C294" s="37"/>
@@ -36628,8 +36968,9 @@
       <c r="BL294" s="10"/>
       <c r="BM294" s="10"/>
       <c r="BN294" s="10"/>
+      <c r="BO294" s="10"/>
     </row>
-    <row r="295" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="15"/>
       <c r="C295" s="15"/>
@@ -36696,8 +37037,9 @@
       <c r="BL295" s="19"/>
       <c r="BM295" s="19"/>
       <c r="BN295" s="19"/>
+      <c r="BO295" s="19"/>
     </row>
-    <row r="296" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="37"/>
@@ -36764,215 +37106,216 @@
       <c r="BL296" s="10"/>
       <c r="BM296" s="10"/>
       <c r="BN296" s="10"/>
+      <c r="BO296" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{572DAB6F-C9F8-440A-93B8-C3C1E53DB74C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S296" xr:uid="{E8874259-DA8C-4B62-A17E-35D88F935EC9}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{A7BFDC70-2B6F-4CF6-A4B0-D44B26E8E89E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L49:L296" xr:uid="{FFC31389-383E-4397-8B50-94B495D03613}">
       <formula1>$BV$19:$BV$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{9EC47226-BB5B-4F5D-9D10-C8A473E9658F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F296" xr:uid="{65B21821-809F-4F90-A81B-0265ED7BC0F1}">
       <formula1>$BV$13:$BV$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{61EE0331-3A4D-4A6A-AF57-D73316E62AE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R296" xr:uid="{F733290B-F75A-40A9-A614-382AC6893493}">
       <formula1>$BS$7:$BS$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{E3885E42-A2CB-4999-BF86-5DD52F666107}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q25 Q27:Q296" xr:uid="{BB00D112-5FD9-4F3C-A386-E4AE9DB82610}">
       <formula1>$BT$7:$BT$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{9A9CD9CD-8989-49D8-B04F-EB029FD882E6}"/>
-    <hyperlink ref="M19" r:id="rId2" xr:uid="{87712561-C55D-4DF3-A1F2-0563F68B8B5D}"/>
-    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{8CF85B91-5513-4B01-9CCA-14A567AE123A}"/>
-    <hyperlink ref="M25" r:id="rId4" xr:uid="{7FA8FB84-04B9-4B80-8E32-7AA5F07B2DBC}"/>
-    <hyperlink ref="M26" r:id="rId5" xr:uid="{8DCBFB17-B7B3-482D-98B5-46D422882C3C}"/>
-    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{A2573824-4046-4110-B515-15C89593C9A2}"/>
-    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{643405EA-490D-4172-AE7E-2486D4BD01E6}"/>
-    <hyperlink ref="M29" r:id="rId8" xr:uid="{925A6627-6FD6-46C9-A935-331CA4A9D774}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{6CF976E2-E66D-4DE8-8F78-6043405F6ACA}"/>
-    <hyperlink ref="M31" r:id="rId10" xr:uid="{156A21D9-DD61-499B-9E91-F6B2A123CC35}"/>
-    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{D3C4252F-86D4-48B8-A7F7-0C1552257A17}"/>
-    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{2C58D20E-D52A-463C-B638-4FFFBCC77354}"/>
-    <hyperlink ref="M34" r:id="rId13" xr:uid="{A01A3534-EF45-4DD4-B2E4-E0329B7512B7}"/>
-    <hyperlink ref="M35" r:id="rId14" xr:uid="{FA3CC32B-38F8-45EA-95CC-5011AD96487B}"/>
-    <hyperlink ref="M36" r:id="rId15" xr:uid="{BCACC2D1-D5B3-4DE2-A215-7CCF7380F26D}"/>
-    <hyperlink ref="M40" r:id="rId16" xr:uid="{B1B70C89-C5C5-4EBF-A479-AD0679D7440F}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{5A6BED12-74FD-424D-82AB-31684F8286DF}"/>
-    <hyperlink ref="M43" r:id="rId18" xr:uid="{6A874A63-0DA0-4E7B-9F2F-F98D0C217B83}"/>
-    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{A860FF0D-4DEF-44FE-89DF-B2E975CDEBFE}"/>
-    <hyperlink ref="M54" r:id="rId20" xr:uid="{6E3C3E07-84DF-4BC4-97DE-D9978B2459D1}"/>
-    <hyperlink ref="M55" r:id="rId21" xr:uid="{8A76ADA7-70BE-44E1-BD17-93E26370DD32}"/>
-    <hyperlink ref="M56" r:id="rId22" xr:uid="{5048937E-13AC-4079-AD55-14BE8B682C5D}"/>
-    <hyperlink ref="M57" r:id="rId23" xr:uid="{373C0574-75AC-493E-941A-3A64543DF17A}"/>
-    <hyperlink ref="M58" r:id="rId24" xr:uid="{C693F8A4-984C-41D4-B8CD-CE62EF5AFA18}"/>
-    <hyperlink ref="M59" r:id="rId25" xr:uid="{43A30510-EA3A-4E9E-8E0F-16648C142831}"/>
-    <hyperlink ref="M62" r:id="rId26" xr:uid="{780E9352-6BD0-44F7-9AC7-E2CDDD324B7A}"/>
-    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{A9BD0290-EF92-4C15-8828-4F2BADE7F7A8}"/>
-    <hyperlink ref="M21" r:id="rId28" xr:uid="{49B313BD-4774-4810-BE29-980C89724F2A}"/>
-    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{C2960067-00D2-4E74-93B2-AD78FCAFC7CA}"/>
-    <hyperlink ref="M79" r:id="rId30" xr:uid="{1D033B3A-237F-4345-8F62-E9ADF9DEB1F2}"/>
-    <hyperlink ref="M78" r:id="rId31" xr:uid="{17A1FEC1-A6AD-4F2F-BC6D-C6F9443B0649}"/>
-    <hyperlink ref="M80" r:id="rId32" xr:uid="{7E083A6C-FB75-4B98-AF02-A412FA797EAF}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{2FB53B5A-BD04-4C37-BA95-4E8ACECA1AD9}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{F6E778A1-B211-48D3-8512-0C8CF877CC04}"/>
-    <hyperlink ref="M83" r:id="rId35" xr:uid="{42605DBB-C1D4-4CCB-842A-A64DF6132561}"/>
-    <hyperlink ref="M84" r:id="rId36" xr:uid="{C3BF4349-FE10-4354-B1B0-8DF22F9DEA7F}"/>
-    <hyperlink ref="M85" r:id="rId37" xr:uid="{9D932648-B6AF-4C3F-AB2A-FBB97FFE73BE}"/>
-    <hyperlink ref="M86" r:id="rId38" xr:uid="{A355F700-BA48-4F97-8F95-D7A584636CC0}"/>
-    <hyperlink ref="M87" r:id="rId39" xr:uid="{2A8174B0-A4BB-4CD7-BAEE-5D5352825A82}"/>
-    <hyperlink ref="M88" r:id="rId40" xr:uid="{DA1DACD7-B28F-4E14-ACED-B6DC10F71303}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{1ECACCD7-E0B6-40EF-AC3A-383876E5EA3B}"/>
-    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{92EA58D9-9B2A-4ADB-8A34-5C257D9E19B2}"/>
-    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{A9BB2B8F-DF15-4021-BDA5-FC4B4A648B3B}"/>
-    <hyperlink ref="M109" r:id="rId44" xr:uid="{D5C8D733-FD5B-4C65-98ED-0B8219364D15}"/>
-    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{095F54F9-8F1D-40CF-BA14-CDCBAB66A6A7}"/>
-    <hyperlink ref="M116" r:id="rId46" xr:uid="{A89B852C-7BC8-4D10-9E38-576613BCCBA4}"/>
-    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{C3EAE7E4-9C59-42D5-9C01-7181724B129D}"/>
-    <hyperlink ref="M135" r:id="rId48" xr:uid="{2B251322-CB45-4080-9ECB-D693AD680E07}"/>
-    <hyperlink ref="M52" r:id="rId49" xr:uid="{A86E25DF-7391-44CC-AF25-C16362089D8F}"/>
-    <hyperlink ref="M53" r:id="rId50" xr:uid="{D62288D4-61A7-4E5E-884C-85476CC5E81F}"/>
-    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{9C5B695D-2BAB-4A97-9FFB-8B606C8CC3B0}"/>
-    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{C8DD77BA-3016-4CAB-9617-CE9CF80A9818}"/>
-    <hyperlink ref="M144" r:id="rId53" xr:uid="{33FBD2F1-72A1-4E88-9BE1-7599A1A5B460}"/>
-    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{94B0F755-7CBD-4D85-9C21-F5DD32F92A99}"/>
-    <hyperlink ref="M146" r:id="rId55" xr:uid="{F613D37F-0A00-4065-A7DB-028B8E569127}"/>
-    <hyperlink ref="M147" r:id="rId56" xr:uid="{AD6A0767-4499-4A11-AB51-193483BE8070}"/>
-    <hyperlink ref="M148" r:id="rId57" xr:uid="{F91C5E4D-7988-4AC3-AD25-5A879D891E66}"/>
-    <hyperlink ref="M149" r:id="rId58" xr:uid="{4E426A4B-8C5B-4616-87A3-343BD66C4693}"/>
-    <hyperlink ref="M150" r:id="rId59" xr:uid="{F165EF8B-6409-4B65-AE02-417D9CA7709C}"/>
-    <hyperlink ref="M151" r:id="rId60" xr:uid="{FBA9B24B-E928-4F2A-B63E-32FB89DEC107}"/>
-    <hyperlink ref="M152" r:id="rId61" xr:uid="{C16EA40E-84D7-4646-B276-6B6F24C24F7C}"/>
-    <hyperlink ref="M153" r:id="rId62" xr:uid="{2107C38F-2774-4F85-A4BD-AD7D16D11BDF}"/>
-    <hyperlink ref="M154" r:id="rId63" xr:uid="{C6664859-6B75-4A9D-85EC-4D7FE9234735}"/>
-    <hyperlink ref="M155" r:id="rId64" xr:uid="{8375BB33-C4D9-4AF2-B21B-74AB61B76007}"/>
-    <hyperlink ref="M156" r:id="rId65" xr:uid="{3F3C7003-AC56-4FA8-836A-1CB65CA34C35}"/>
-    <hyperlink ref="M157" r:id="rId66" xr:uid="{34E09AC6-3449-43D3-9528-1886991B1BF4}"/>
-    <hyperlink ref="M158" r:id="rId67" xr:uid="{9AEBC953-E101-4B24-886A-89548D948CD5}"/>
-    <hyperlink ref="M159" r:id="rId68" xr:uid="{185A10B1-52BD-47F7-8499-E9F92BE2D2B8}"/>
-    <hyperlink ref="M160" r:id="rId69" xr:uid="{E41DA53B-174C-4F94-960B-A385B16181C5}"/>
-    <hyperlink ref="M161" r:id="rId70" xr:uid="{E53E6D00-20B0-4B16-AD06-A30C8FB65382}"/>
-    <hyperlink ref="M162" r:id="rId71" xr:uid="{F4EF6390-D6ED-432C-9E93-8CEC91667149}"/>
-    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{8203A0FA-8BBD-49D5-9DFE-6C46F9ACC319}"/>
-    <hyperlink ref="M164" r:id="rId73" xr:uid="{BC2DAEAB-D7E8-43C0-A1AC-C56F0D6391B9}"/>
-    <hyperlink ref="M165" r:id="rId74" xr:uid="{781B6602-6A66-44F1-A42C-6AA0F8DB1906}"/>
-    <hyperlink ref="M166" r:id="rId75" xr:uid="{E4C87274-7DF7-425C-B9E4-42495CE5E033}"/>
-    <hyperlink ref="M167" r:id="rId76" xr:uid="{F3480CF8-2951-44BD-9CB3-924D109864B5}"/>
-    <hyperlink ref="M168" r:id="rId77" xr:uid="{9D58CB59-8C7B-4864-8691-36ADB0A2C5A3}"/>
-    <hyperlink ref="M169" r:id="rId78" xr:uid="{CC9C7C17-5C21-46B6-9AB7-91B6CCE91051}"/>
-    <hyperlink ref="M170" r:id="rId79" xr:uid="{28046EF2-AFFB-4024-AAC9-C2C21328D169}"/>
-    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{D0F8904F-132E-42F4-B4A1-7D626C2C98AB}"/>
-    <hyperlink ref="M93" r:id="rId81" xr:uid="{E2FDCCFF-E9FC-4784-919F-35E2CC44E70F}"/>
-    <hyperlink ref="M95" r:id="rId82" xr:uid="{7EF186DC-CD74-445B-A63A-827A7650EE09}"/>
-    <hyperlink ref="M96" r:id="rId83" xr:uid="{EC22D56A-AC62-43FD-9B0A-F2A06384D010}"/>
-    <hyperlink ref="M171" r:id="rId84" xr:uid="{FF082254-EB91-4609-B237-1DF7E34CCC54}"/>
-    <hyperlink ref="M172" r:id="rId85" xr:uid="{D14C5203-58AD-4DEC-88E3-331F45B9D26B}"/>
-    <hyperlink ref="M173" r:id="rId86" xr:uid="{9100D646-2BA5-4D1F-AB0E-BD86820BB45F}"/>
-    <hyperlink ref="M174" r:id="rId87" xr:uid="{A4ACD7F8-ED4A-4A14-89B0-7E42444ADDC3}"/>
-    <hyperlink ref="M175" r:id="rId88" xr:uid="{F2813897-7A6C-4FA8-A6FB-5AAA7399CDA2}"/>
-    <hyperlink ref="M176" r:id="rId89" xr:uid="{9F351AE5-5A41-473A-B6C9-9F83DD36797C}"/>
-    <hyperlink ref="M177" r:id="rId90" xr:uid="{0B1A6C7E-15FD-48E1-A431-09C045D8E8CD}"/>
-    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{46170050-6679-4A41-8D8C-84E95C51C76E}"/>
-    <hyperlink ref="M179" r:id="rId92" xr:uid="{FBF76183-1CA6-41AF-A0A4-DCC1AB84959A}"/>
-    <hyperlink ref="M180" r:id="rId93" xr:uid="{75BBBD3B-6D71-4F0D-B868-FEB626D794E6}"/>
-    <hyperlink ref="M181" r:id="rId94" xr:uid="{147D6EA1-53FC-4676-95F0-0D0D549F4CED}"/>
-    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{32FEF9F5-9DA9-4817-88F8-7CAA7E6E1CD2}"/>
-    <hyperlink ref="M38" r:id="rId96" xr:uid="{7A8F5BAE-EFBC-4B90-A886-0E2B87978D7B}"/>
-    <hyperlink ref="M136" r:id="rId97" xr:uid="{B62BF203-C760-49AF-9917-90A964612185}"/>
-    <hyperlink ref="M91" r:id="rId98" xr:uid="{E09011BC-80C8-4B66-B5F9-5BF6CF54A900}"/>
-    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{AF2A8667-0AB1-4D95-B30E-B5B87E982BD0}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{08AC4417-4FF6-4EA4-88D8-134070579877}"/>
-    <hyperlink ref="M188" r:id="rId101" xr:uid="{A03B47E0-E4DF-4C18-8913-7A672A22D9C9}"/>
-    <hyperlink ref="M190" r:id="rId102" xr:uid="{9BA8DFEC-B6A4-423C-933D-55E5B5091818}"/>
-    <hyperlink ref="M192" r:id="rId103" xr:uid="{92831892-3739-452E-BF50-4B1A039A0C34}"/>
-    <hyperlink ref="M193" r:id="rId104" xr:uid="{0972A701-9B35-4A3F-A413-886905E74DEA}"/>
-    <hyperlink ref="M41" r:id="rId105" xr:uid="{8D6EADB8-1039-49A7-9F09-45EEDB97AD67}"/>
-    <hyperlink ref="M15" r:id="rId106" xr:uid="{696AA6BC-CED0-47E0-B693-8029CEDC1EE8}"/>
-    <hyperlink ref="M66" r:id="rId107" xr:uid="{15EE2ADF-B67D-4107-BADB-6FE53F9A6DD7}"/>
-    <hyperlink ref="M7" r:id="rId108" xr:uid="{AA6ACD0E-8C0B-4B6B-B740-C13DDDF39A44}"/>
-    <hyperlink ref="M194" r:id="rId109" xr:uid="{0AFD87BC-7DE3-49D5-A69F-2E28332B2328}"/>
-    <hyperlink ref="M195" r:id="rId110" xr:uid="{2304972F-94BF-4EEF-9021-1D0ED9E23211}"/>
-    <hyperlink ref="M196" r:id="rId111" xr:uid="{F21FD6E1-8CE4-4E33-AC26-C640A5E79FAC}"/>
-    <hyperlink ref="M197" r:id="rId112" xr:uid="{E4829662-BF68-4289-A99D-088DE138BF1D}"/>
-    <hyperlink ref="M198" r:id="rId113" xr:uid="{AE595F6D-AA84-4CD7-9DEB-F6D7D44AE5B6}"/>
-    <hyperlink ref="M203" r:id="rId114" xr:uid="{BD823A8A-E5A0-48B8-AF1C-8B445E3D7EDB}"/>
-    <hyperlink ref="M204" r:id="rId115" xr:uid="{911E150F-6520-4F56-B252-484AAEA2D62B}"/>
-    <hyperlink ref="M205" r:id="rId116" xr:uid="{63FAA9E4-99FF-43D1-BA60-267FE5A331EC}"/>
-    <hyperlink ref="M206" r:id="rId117" xr:uid="{2EC93F97-7D74-472B-993F-E0B5BDD5754D}"/>
-    <hyperlink ref="M207" r:id="rId118" xr:uid="{338F1101-853E-48EC-8E8D-2B49CA21CA59}"/>
-    <hyperlink ref="M208" r:id="rId119" xr:uid="{3A1ADB8A-2521-4C1B-831A-6F5767B136FF}"/>
-    <hyperlink ref="M214" r:id="rId120" xr:uid="{648AED8D-5EC6-4788-8104-0643A2ADEF80}"/>
-    <hyperlink ref="M215" r:id="rId121" xr:uid="{B7B537E6-9880-442B-ADD0-5502D1FDD0AE}"/>
-    <hyperlink ref="M216" r:id="rId122" xr:uid="{5081ECD0-B48A-4602-A32D-CE94E43F4486}"/>
-    <hyperlink ref="M217" r:id="rId123" xr:uid="{01436851-C9BC-4FA8-8607-5D8B12E20356}"/>
-    <hyperlink ref="M218" r:id="rId124" xr:uid="{02991E14-E091-41A7-B088-41C493F3D7FB}"/>
-    <hyperlink ref="M219" r:id="rId125" xr:uid="{AF9466AF-74C6-4065-A6BA-36BF46A36951}"/>
-    <hyperlink ref="M220" r:id="rId126" xr:uid="{9F96FAC2-DBBE-4230-8818-FB07D14EC6F8}"/>
-    <hyperlink ref="M221" r:id="rId127" xr:uid="{54F10331-0F3D-47CA-8036-DDD28D2E5B37}"/>
-    <hyperlink ref="M222" r:id="rId128" xr:uid="{B130A8E7-985B-47AD-A73A-0F3EE7ADA247}"/>
-    <hyperlink ref="M223" r:id="rId129" xr:uid="{D57BAFFB-3203-4369-8B09-BF156DE9E46A}"/>
-    <hyperlink ref="M224" r:id="rId130" xr:uid="{7E15E8EC-0275-4C1F-B848-BA9533D8FC2B}"/>
-    <hyperlink ref="M225" r:id="rId131" xr:uid="{26804C15-9FB1-4AE0-9DBD-263372D1C457}"/>
-    <hyperlink ref="M226" r:id="rId132" xr:uid="{20AE4580-18B6-4478-8841-BB18896B54B7}"/>
-    <hyperlink ref="M227" r:id="rId133" xr:uid="{C8B13609-C06E-4A88-B3F7-C5F959E07A90}"/>
-    <hyperlink ref="M228" r:id="rId134" xr:uid="{FAFFD81F-B36E-404C-B2CE-F825066D64A4}"/>
-    <hyperlink ref="M229" r:id="rId135" xr:uid="{DB2A9250-7FDA-40D1-AD91-890A55765B98}"/>
-    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{15AE3882-FB60-442C-A438-B5C6AEDCC859}"/>
-    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{786F4AE5-F4D8-4C38-A891-852BB12ADFC6}"/>
-    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{0FD3D8D2-5914-486A-A949-B4FE9B39ED45}"/>
-    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{BBF49488-6571-4EC8-B07F-A7407B862B6D}"/>
-    <hyperlink ref="M234" r:id="rId140" xr:uid="{F7163218-4C6F-4B77-A2CC-CBA3F68CB31D}"/>
-    <hyperlink ref="M235" r:id="rId141" xr:uid="{A4861E65-19C7-4A33-8D56-881C1670402D}"/>
-    <hyperlink ref="M236" r:id="rId142" xr:uid="{48728431-12FB-4621-A1F8-BF0F4AC8EBBD}"/>
-    <hyperlink ref="M237" r:id="rId143" xr:uid="{9497D1E9-FE4C-4231-9D22-0FA5F5FF8226}"/>
-    <hyperlink ref="M238" r:id="rId144" xr:uid="{F5F58BEB-C756-47E7-B33F-BE1B11D8F5FC}"/>
-    <hyperlink ref="M239" r:id="rId145" xr:uid="{128981C7-0AA3-4B24-8EA9-B68073140AC7}"/>
-    <hyperlink ref="M240" r:id="rId146" xr:uid="{DDF376DD-EFCD-4AB3-A6B6-3AE836CB54ED}"/>
-    <hyperlink ref="M241" r:id="rId147" xr:uid="{A57F4FF1-2AE0-4B30-88CE-5402E7D2C34B}"/>
-    <hyperlink ref="M242" r:id="rId148" xr:uid="{F597B2A4-80C9-41A6-8A21-0ABECDA5A72B}"/>
-    <hyperlink ref="M243" r:id="rId149" xr:uid="{7CA58406-3BAC-487C-BF1E-5432B4D3B139}"/>
-    <hyperlink ref="M244" r:id="rId150" xr:uid="{AF961A69-78C0-4641-A60F-5F97B9952D78}"/>
-    <hyperlink ref="M245" r:id="rId151" xr:uid="{53C71BA9-3AD6-4BB4-B599-E31DCF1622D0}"/>
-    <hyperlink ref="M246" r:id="rId152" xr:uid="{76C48766-98BA-4BC5-AFE4-50513D06893B}"/>
-    <hyperlink ref="M247" r:id="rId153" xr:uid="{698B178B-8EA3-4725-81BB-25F839311377}"/>
-    <hyperlink ref="M248" r:id="rId154" xr:uid="{B306F620-131C-4C9A-81FD-5CAA68E2BEC1}"/>
-    <hyperlink ref="M249" r:id="rId155" xr:uid="{28477F0F-3324-442E-938D-BC77A883DE47}"/>
-    <hyperlink ref="M250" r:id="rId156" xr:uid="{BA036133-58F9-49BE-8EE2-469A79480A16}"/>
-    <hyperlink ref="M251" r:id="rId157" xr:uid="{FFA56031-948A-4233-908F-19C804186644}"/>
-    <hyperlink ref="M252" r:id="rId158" xr:uid="{52082631-9FF4-4A9E-B751-BC45082A9A2F}"/>
-    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{4E05F683-D06B-47F5-B4A0-B4D31D79FAAB}"/>
-    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{572F7E53-5AA2-4D59-8CAE-1B2A7036FDE0}"/>
-    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{B34B399E-B4B0-46A5-9B40-AAB65B0A1EFE}"/>
-    <hyperlink ref="M256" r:id="rId162" xr:uid="{424D6141-94D6-4ACE-A7AD-BE022F6AF9B5}"/>
-    <hyperlink ref="M257" r:id="rId163" xr:uid="{42F3921A-DE52-4924-9948-E424836CFF22}"/>
-    <hyperlink ref="M258" r:id="rId164" xr:uid="{0B891F31-7A69-4211-ACBC-723D4C125546}"/>
-    <hyperlink ref="M259" r:id="rId165" xr:uid="{47908607-FCC1-4B81-AFAD-2F57AFC20C81}"/>
-    <hyperlink ref="M260" r:id="rId166" xr:uid="{66057A30-DD77-4EB0-9FDD-403545802729}"/>
-    <hyperlink ref="M69" r:id="rId167" xr:uid="{2CF7164C-8D79-4F8F-A622-0390197D3D75}"/>
-    <hyperlink ref="M64" r:id="rId168" xr:uid="{AC2E66CC-F8B9-43AB-84DA-DEAB2B20A348}"/>
-    <hyperlink ref="M210" r:id="rId169" xr:uid="{18075BCD-1A80-4270-ADDC-362B03579A29}"/>
-    <hyperlink ref="M183" r:id="rId170" xr:uid="{252A78D8-AE06-4369-8FE5-ED221647C65C}"/>
-    <hyperlink ref="M68" r:id="rId171" xr:uid="{80577EC7-37AA-4FFB-A5B1-F0FFFB954387}"/>
-    <hyperlink ref="M8" r:id="rId172" xr:uid="{7C483880-1BA6-44E0-8C89-2679A077A8A1}"/>
-    <hyperlink ref="M266" r:id="rId173" xr:uid="{23128A70-A5E0-4337-BC9B-1DBB84429CEA}"/>
-    <hyperlink ref="M268" r:id="rId174" xr:uid="{64002476-6774-47C1-9AA8-1890F4FC2966}"/>
-    <hyperlink ref="M267" r:id="rId175" xr:uid="{B0731427-CEF6-4FCD-822C-89028E9D1ECF}"/>
-    <hyperlink ref="M269" r:id="rId176" xr:uid="{BEDFD95A-2856-4A2B-8F38-4E137A6DFCB7}"/>
-    <hyperlink ref="M272" r:id="rId177" xr:uid="{5EC890A2-E43C-4B6F-BC4E-9EAB10C68893}"/>
-    <hyperlink ref="M274" r:id="rId178" xr:uid="{9DABB553-D1DD-4629-9B44-8104B3E4FA1F}"/>
-    <hyperlink ref="M275" r:id="rId179" xr:uid="{B96ED231-D443-42FB-937D-86805B625907}"/>
-    <hyperlink ref="M276" r:id="rId180" xr:uid="{0E2CCA7C-A86B-4026-A4F8-D5A203B7445E}"/>
-    <hyperlink ref="M277" r:id="rId181" xr:uid="{7E3D838E-7831-48DC-BBF0-6B30464D60CD}"/>
-    <hyperlink ref="M280" r:id="rId182" xr:uid="{73239A88-63FC-4D21-B4CA-2AE6FBB4064B}"/>
-    <hyperlink ref="M270" r:id="rId183" xr:uid="{E2C1CE7D-0577-46DA-B08B-74AC1F1342DE}"/>
-    <hyperlink ref="M271" r:id="rId184" xr:uid="{62A04D58-693A-41E7-9E31-97D1834607DB}"/>
-    <hyperlink ref="M60" r:id="rId185" xr:uid="{F6B3BDE7-9D36-46C4-B61D-EE896F5C352B}"/>
-    <hyperlink ref="M98" r:id="rId186" xr:uid="{C1707BED-6F12-4EED-AA06-C5622DBF4287}"/>
-    <hyperlink ref="M125" r:id="rId187" xr:uid="{B4EE768F-B621-4167-A5BB-59B842D4068E}"/>
-    <hyperlink ref="M70" r:id="rId188" xr:uid="{3DD92A78-7C6A-4486-B403-6EBA187965F9}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{30E82300-51FF-4FDC-9DD8-D45FF527FC2C}"/>
+    <hyperlink ref="M19" r:id="rId2" xr:uid="{E04A6B7D-9183-4B57-B13D-48E3535C276C}"/>
+    <hyperlink ref="M23" r:id="rId3" display="https://de.statista.com/statistik/daten/studie/1296962/umfrage/umfrage-arbeitsplatz-der-zukunft/" xr:uid="{ADC9C9DE-8E97-4DEA-8E1A-4921A3E8FDEC}"/>
+    <hyperlink ref="M25" r:id="rId4" xr:uid="{C985BD5B-65C0-4F80-A9C9-D320FADCCEFB}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{652C5D46-E4A2-4E09-80A0-5DE7C7B6040C}"/>
+    <hyperlink ref="M27" r:id="rId6" display="https://truthaboutgenz.mccannworldgroup.com/p/1_x000a_" xr:uid="{BE68EAB6-85DE-4214-9EBE-F7A013433F6E}"/>
+    <hyperlink ref="M28" r:id="rId7" display="https://static.iu.de/studies/Lebenslang_lernen.pdf" xr:uid="{8BE51ED3-EFD7-4638-A094-D5F17DCDA07B}"/>
+    <hyperlink ref="M29" r:id="rId8" xr:uid="{D3E06F7E-F5D6-4501-ABE6-478A3BA424AD}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{08AADF99-FD23-407A-A0A1-AFC8229DD7E7}"/>
+    <hyperlink ref="M31" r:id="rId10" xr:uid="{D3706352-3CB7-45A4-A017-3FC506724CDD}"/>
+    <hyperlink ref="M32" r:id="rId11" location="353406 ; https://www.gdw.de/pressecenter/pressemeldungen/wohntrends-2035-digitalisierung-revolutioniert-wohnen-der-zukunft/" xr:uid="{235E5071-29E8-4CA5-BEE1-1932F50F0196}"/>
+    <hyperlink ref="M33" r:id="rId12" display="https://www.bpb.de/shop/zeitschriften/izpb/familie-und-familienpolitik-301/8036/wandel-der-familienentwicklung-ursachen-und-folgen/" xr:uid="{2F6D2A46-1CD3-486F-922F-C92DACB9F3B4}"/>
+    <hyperlink ref="M34" r:id="rId13" xr:uid="{38908E08-0AEE-4D48-90D6-0027FA6B742C}"/>
+    <hyperlink ref="M35" r:id="rId14" xr:uid="{127DEFC1-B493-4B2A-94FD-8E78BB3C5FA4}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{F4B9FF70-EFE4-45CC-9165-DE5779C7A838}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{A2EA474F-15F8-4CD0-8564-63F9DBC2BEBF}"/>
+    <hyperlink ref="M42" r:id="rId17" xr:uid="{4002333E-76DB-423A-80C1-949E70D1AE15}"/>
+    <hyperlink ref="M43" r:id="rId18" xr:uid="{70237F66-973B-462F-AFB1-8EB67500E30A}"/>
+    <hyperlink ref="M49" r:id="rId19" location=":~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" display="https://www.the-future-of-commerce.com/2022/05/05/digital-natives-definition-stats-marketing-strategies/#:~:text=Digital%20natives%20make%20up%20a,product%20researchers%20are%20digital%20natives_x000a_" xr:uid="{E9C5922A-FB52-4B64-A55F-DC41648CF910}"/>
+    <hyperlink ref="M54" r:id="rId20" xr:uid="{C787A22C-0AE8-4653-9E21-016F26B6314B}"/>
+    <hyperlink ref="M55" r:id="rId21" xr:uid="{0FE5BB97-3EB8-4798-8469-F6ED2992635C}"/>
+    <hyperlink ref="M56" r:id="rId22" xr:uid="{7B2AECA8-27D8-43B7-9F73-371FB6B36B82}"/>
+    <hyperlink ref="M57" r:id="rId23" xr:uid="{2B80CD4A-1FAB-414A-8026-7626DB658DE3}"/>
+    <hyperlink ref="M58" r:id="rId24" xr:uid="{FF512F8B-54B0-4B45-873B-5D56B1863B68}"/>
+    <hyperlink ref="M59" r:id="rId25" xr:uid="{2E1369E6-DACD-4932-880A-347FFA42AB9D}"/>
+    <hyperlink ref="M62" r:id="rId26" xr:uid="{3F6066B0-17E9-4988-BCFB-579249E3DF51}"/>
+    <hyperlink ref="M20" r:id="rId27" display="https://www.dhl.com/global-en/home/insights-and-innovation/thought-leadership/trend-reports/3d-printing-logistics.html" xr:uid="{81FB798B-37BC-4BCC-AA4E-865675B71374}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{9DC8AC92-1E8C-4A2D-BD9F-1DA6FF007988}"/>
+    <hyperlink ref="M77" r:id="rId29" display="https://www.rwi-essen.de/fileadmin/user_upload/RWI/Publikationen/Ruhr_Economic_Papers/RWI_23_1034.pdf_x000a_https://www.umweltbundesamt.de/sites/default/files/medien/376/publikationen/texte_35_2014_komplett.pdf" xr:uid="{67731958-4B62-4015-9506-72F8DFE1923D}"/>
+    <hyperlink ref="M79" r:id="rId30" xr:uid="{EF8CFC52-E1A6-41B5-A79C-FBFF6BB5F36A}"/>
+    <hyperlink ref="M78" r:id="rId31" xr:uid="{4177F380-5AF2-4120-A9AE-D2ABDE86F806}"/>
+    <hyperlink ref="M80" r:id="rId32" xr:uid="{C18B6326-92EE-4673-B20C-36F1F222B096}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{6ED377FA-E026-4E10-B9AF-BEC1C48D9B0E}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{043EF70A-19CD-4A5B-A206-45F5074ED4E9}"/>
+    <hyperlink ref="M83" r:id="rId35" xr:uid="{48AB00DB-C89B-4A17-B002-F7A95B2502EB}"/>
+    <hyperlink ref="M84" r:id="rId36" xr:uid="{4387D94F-16F7-419C-B3D5-2DB35BCE688A}"/>
+    <hyperlink ref="M85" r:id="rId37" xr:uid="{C778C005-7D51-459C-AA59-A7B9B5CBB3B9}"/>
+    <hyperlink ref="M86" r:id="rId38" xr:uid="{775465F2-5AE1-4CC4-A76C-93C4F22E3954}"/>
+    <hyperlink ref="M87" r:id="rId39" xr:uid="{7BC865B4-2E45-4728-8250-603A1774455A}"/>
+    <hyperlink ref="M88" r:id="rId40" xr:uid="{495D27B9-E2C1-4222-923C-4F501CEA29B0}"/>
+    <hyperlink ref="M89" r:id="rId41" xr:uid="{CAC846DC-A457-4F42-BCB5-7CB4EB19EE48}"/>
+    <hyperlink ref="M90" r:id="rId42" location="strategie-zur-kreislaufwirtschaft-" xr:uid="{4C5BDC8E-4B33-4316-BB07-1FCD416DCC2C}"/>
+    <hyperlink ref="M108" r:id="rId43" display="https://www.mckinsey.com/capabilities/operations/our-insights/resetting-supply-chains-for-the-next-normal" xr:uid="{FFA05A35-349D-41DA-8E35-B24728B91454}"/>
+    <hyperlink ref="M109" r:id="rId44" xr:uid="{95642D44-FE2C-4397-8ADE-A9F7AA743A51}"/>
+    <hyperlink ref="M111" r:id="rId45" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{43B3D199-0001-49B6-A864-31D72A7E0576}"/>
+    <hyperlink ref="M116" r:id="rId46" xr:uid="{185C2EC2-4472-4810-9CFC-E46417BACD17}"/>
+    <hyperlink ref="M133" r:id="rId47" display="https://www.vorausschau.de/SharedDocs/Downloads/vorausschau/de/112_Themenbl%C3%A4tter.pdf?__blob=publicationFile&amp;v=3" xr:uid="{606C15F6-60BD-4899-B32E-6022038AA842}"/>
+    <hyperlink ref="M135" r:id="rId48" xr:uid="{4E76D848-016C-4AAB-8D07-0954B22A9807}"/>
+    <hyperlink ref="M52" r:id="rId49" xr:uid="{561CDF19-6AA2-448B-8EEE-1E39A64EC21A}"/>
+    <hyperlink ref="M53" r:id="rId50" xr:uid="{F4855618-3566-4272-9E0A-13198B6D34D0}"/>
+    <hyperlink ref="M142" r:id="rId51" display="https://www.mittelstand-digital.de/MD/Redaktion/DE/Publikationen/ki-Studie-2021.pdf?__blob=publicationFile&amp;v=5 https://www.bigdata-ai.fraunhofer.de/content/dam/bigdata/de/documents/Publikationen/Fraunhofer_Studie_ML_201809.pdf" xr:uid="{B157468A-83B9-4DAB-9512-D221A9FD2F9E}"/>
+    <hyperlink ref="M143" r:id="rId52" display="https://www.kompetenzzentrum-cottbus.digital/Media/public/Website/Upload/Broschuere_IoT.pdf" xr:uid="{8A3E2902-329E-407D-B5D3-AE20B0176C23}"/>
+    <hyperlink ref="M144" r:id="rId53" xr:uid="{66BEE73B-5A3B-40BE-96DA-155D628FED8C}"/>
+    <hyperlink ref="M145" r:id="rId54" display="https://www.umweltbundesamt.de/sites/default/files/medien/4031/publikationen/umid-02-20-5g.pdf" xr:uid="{761C7DF5-4596-4DF8-9253-564F0FEA99AF}"/>
+    <hyperlink ref="M146" r:id="rId55" xr:uid="{C567D430-B2FE-463A-836F-985B0079A075}"/>
+    <hyperlink ref="M147" r:id="rId56" xr:uid="{41EF94E3-3FCB-4EE3-9CD3-A609695004CA}"/>
+    <hyperlink ref="M148" r:id="rId57" xr:uid="{7F6C3B3C-A335-4ADA-A360-5F7D4D9C4666}"/>
+    <hyperlink ref="M149" r:id="rId58" xr:uid="{1DBF248C-2B5D-4E59-A2EC-0F051C7D47A8}"/>
+    <hyperlink ref="M150" r:id="rId59" xr:uid="{75EB4E8A-94C8-4130-8368-17CE48DF0360}"/>
+    <hyperlink ref="M151" r:id="rId60" xr:uid="{ED4B85E9-E3D1-4529-B163-215E0BBF5962}"/>
+    <hyperlink ref="M152" r:id="rId61" xr:uid="{5B0B80DB-86D5-4A0A-83C3-495AF95C0341}"/>
+    <hyperlink ref="M153" r:id="rId62" xr:uid="{234E728B-D6BB-4DEA-AA23-3874B318747D}"/>
+    <hyperlink ref="M154" r:id="rId63" xr:uid="{70E62019-017B-400A-996D-0E7A38F4F8E0}"/>
+    <hyperlink ref="M155" r:id="rId64" xr:uid="{0C666955-4016-49E1-B006-730419351ECC}"/>
+    <hyperlink ref="M156" r:id="rId65" xr:uid="{76D68902-FCA5-4DD3-9237-090371A0E5A7}"/>
+    <hyperlink ref="M157" r:id="rId66" xr:uid="{C9AA5CD1-C203-4F59-9394-40078CE882B7}"/>
+    <hyperlink ref="M158" r:id="rId67" xr:uid="{7CE88C47-F1C6-4630-B746-A65A5ED61744}"/>
+    <hyperlink ref="M159" r:id="rId68" xr:uid="{13AA572C-6517-4400-B630-A8412FFAD936}"/>
+    <hyperlink ref="M160" r:id="rId69" xr:uid="{D2C6E10D-534F-4124-A2DC-E39E81845FF5}"/>
+    <hyperlink ref="M161" r:id="rId70" xr:uid="{8179DBCF-624E-4BD0-805C-4A7D39C815B9}"/>
+    <hyperlink ref="M162" r:id="rId71" xr:uid="{1C279841-00A0-499E-8CA0-F87A32346895}"/>
+    <hyperlink ref="M163" r:id="rId72" display="https://www.econstor.eu/bitstream/10419/201760/1/1670732177.pdf" xr:uid="{77A0831B-82DC-4670-A9CF-F9962ACBB7E1}"/>
+    <hyperlink ref="M164" r:id="rId73" xr:uid="{73D95AF8-9D08-44E6-AFAA-5BD39D5AB297}"/>
+    <hyperlink ref="M165" r:id="rId74" xr:uid="{77B9ABA5-7033-46EF-AEDF-472EDF899040}"/>
+    <hyperlink ref="M166" r:id="rId75" xr:uid="{78EA6430-62C2-4240-887D-803AA5C597B9}"/>
+    <hyperlink ref="M167" r:id="rId76" xr:uid="{5A246FD5-BC0A-47EC-8431-73923712BC63}"/>
+    <hyperlink ref="M168" r:id="rId77" xr:uid="{86A63485-6EE1-4D0C-8BBE-85831F3E083A}"/>
+    <hyperlink ref="M169" r:id="rId78" xr:uid="{B8A68557-10FA-4156-A44E-95091D7805D0}"/>
+    <hyperlink ref="M170" r:id="rId79" xr:uid="{3AC29D43-CDB2-47DD-9C80-B739502DEBA0}"/>
+    <hyperlink ref="M92" r:id="rId80" display="https://theicct.org/wp-content/uploads/2022/10/ev-cost-benefits-2035-oct22.pdf" xr:uid="{A0C19500-7CA2-4FF6-9AFD-357BB0BE0307}"/>
+    <hyperlink ref="M93" r:id="rId81" xr:uid="{B197D377-3D37-4076-BF4C-28634818EEBA}"/>
+    <hyperlink ref="M95" r:id="rId82" xr:uid="{5C176F2C-554A-47E7-8049-C478F132D4DC}"/>
+    <hyperlink ref="M96" r:id="rId83" xr:uid="{DB185DE8-5211-470C-8126-B9BFC34DA493}"/>
+    <hyperlink ref="M171" r:id="rId84" xr:uid="{19B8EFC1-EA1C-454E-91E8-A6EFA947318C}"/>
+    <hyperlink ref="M172" r:id="rId85" xr:uid="{0946EDE3-268E-4A33-BAD4-56F683C4AC7F}"/>
+    <hyperlink ref="M173" r:id="rId86" xr:uid="{80085057-4282-462A-A5BC-FFE45AD819CF}"/>
+    <hyperlink ref="M174" r:id="rId87" xr:uid="{3D5796EF-D926-4C8F-B66A-844EE00457AF}"/>
+    <hyperlink ref="M175" r:id="rId88" xr:uid="{20BE4F00-0DF0-4AE8-BCC7-DA095A876DAA}"/>
+    <hyperlink ref="M176" r:id="rId89" xr:uid="{806E8104-2ADA-40E9-B3CA-AC32DC15D6D7}"/>
+    <hyperlink ref="M177" r:id="rId90" xr:uid="{DE05FB68-9BA8-4377-83C9-CBB28CD8A2F3}"/>
+    <hyperlink ref="M178" r:id="rId91" location=":~:text=Geoengineering%3A%20Beim%20Geongengineering%20oder%20Klimaengineering,von%20CO2%20in%20der%20Atmosphäre" xr:uid="{7EBB177D-2093-4EDB-8BE7-4F1829EE4638}"/>
+    <hyperlink ref="M179" r:id="rId92" xr:uid="{1647570B-A0A3-4BE1-9286-95E462EB2EE3}"/>
+    <hyperlink ref="M180" r:id="rId93" xr:uid="{BEB05F9C-1E3E-4BB4-BA70-689766E9143D}"/>
+    <hyperlink ref="M181" r:id="rId94" xr:uid="{344BAF9C-E8FF-42D2-8980-ADEBFEA3AE44}"/>
+    <hyperlink ref="M37" r:id="rId95" display="https://www.pwc.de/de/managementberatung/risk/digitale-ethik.html" xr:uid="{3AB8E842-F3AF-40AE-A697-B406EE2230E1}"/>
+    <hyperlink ref="M38" r:id="rId96" xr:uid="{9DF88D39-2DEC-49BC-96B2-32DB47545E5A}"/>
+    <hyperlink ref="M136" r:id="rId97" xr:uid="{43E7B512-1B21-43AA-A410-18DFD47E227A}"/>
+    <hyperlink ref="M91" r:id="rId98" xr:uid="{370E8A0A-F5B5-4E8E-A26E-4A7657788183}"/>
+    <hyperlink ref="M185" r:id="rId99" display="https://futuretodayinstitute.com/wp-content/uploads/2023/03/2023_TR_Executive_Summary.pdf" xr:uid="{2A8766B5-EDC4-4399-BC54-821D2CD9D5E1}"/>
+    <hyperlink ref="M187" r:id="rId100" xr:uid="{9DCEA1A8-4CC2-4D6C-8748-88B41C37D420}"/>
+    <hyperlink ref="M188" r:id="rId101" xr:uid="{46B81A84-5B8F-438D-AF3A-86D6CD3172F3}"/>
+    <hyperlink ref="M190" r:id="rId102" xr:uid="{5A34CFED-97FF-479C-9ABF-58556772C8F4}"/>
+    <hyperlink ref="M192" r:id="rId103" xr:uid="{9AFA23C3-167C-4710-B867-11BC90F21E6C}"/>
+    <hyperlink ref="M193" r:id="rId104" xr:uid="{4553E326-819B-407E-96D7-6029E29D875E}"/>
+    <hyperlink ref="M41" r:id="rId105" xr:uid="{09236666-5F08-40F4-9349-D22870C7EF64}"/>
+    <hyperlink ref="M15" r:id="rId106" xr:uid="{34F9ECD8-E089-47E7-B671-12E4DA526923}"/>
+    <hyperlink ref="M66" r:id="rId107" xr:uid="{0BBBF6EF-F802-4F29-9C67-502E28C3FA18}"/>
+    <hyperlink ref="M7" r:id="rId108" xr:uid="{606C9213-5911-4D8F-8ED1-C1F58990924E}"/>
+    <hyperlink ref="M194" r:id="rId109" xr:uid="{C0BF364C-D17E-465B-83E7-69AA4A6C6C33}"/>
+    <hyperlink ref="M195" r:id="rId110" xr:uid="{9C60BF51-CA11-435B-8AAB-287F21AABC27}"/>
+    <hyperlink ref="M196" r:id="rId111" xr:uid="{14AC8A1A-EB5B-49E1-B5B7-972DE8AA6FBE}"/>
+    <hyperlink ref="M197" r:id="rId112" xr:uid="{3AAA6B3F-93FA-4F8B-897A-27FE0ED30F00}"/>
+    <hyperlink ref="M198" r:id="rId113" xr:uid="{7EEAFDAD-3B90-4688-BC8C-F299DD6C63A3}"/>
+    <hyperlink ref="M203" r:id="rId114" xr:uid="{4D812C19-FAEB-4EDB-9542-298E7C3DE478}"/>
+    <hyperlink ref="M204" r:id="rId115" xr:uid="{EEDD8CA0-E4E3-4341-A018-F0D915487A05}"/>
+    <hyperlink ref="M205" r:id="rId116" xr:uid="{11E747DD-AE84-4674-A5C6-F23060AAD0A4}"/>
+    <hyperlink ref="M206" r:id="rId117" xr:uid="{237035B0-9EBE-488F-B965-231740486555}"/>
+    <hyperlink ref="M207" r:id="rId118" xr:uid="{CBC08701-B0DB-42D8-B863-30DE5B49C7D1}"/>
+    <hyperlink ref="M208" r:id="rId119" xr:uid="{DB85208C-7C6B-4605-A399-BA17882C2CE7}"/>
+    <hyperlink ref="M214" r:id="rId120" xr:uid="{58B83EF0-EFA3-48F8-8213-7C4FC554A44C}"/>
+    <hyperlink ref="M215" r:id="rId121" xr:uid="{BF4C1ACE-67DF-4A41-A516-C44B1BCBB630}"/>
+    <hyperlink ref="M216" r:id="rId122" xr:uid="{946991B2-2A6E-44EC-8CE3-49503E4B2FAF}"/>
+    <hyperlink ref="M217" r:id="rId123" xr:uid="{68AA49BA-FFB4-4DC4-8196-9DEA93B78423}"/>
+    <hyperlink ref="M218" r:id="rId124" xr:uid="{8315D391-4237-403D-9C48-48795B717F81}"/>
+    <hyperlink ref="M219" r:id="rId125" xr:uid="{3852A906-520B-439A-8F94-C9366A00B15F}"/>
+    <hyperlink ref="M220" r:id="rId126" xr:uid="{C6F439C5-1929-46C6-8D5D-A5BC0A4132C1}"/>
+    <hyperlink ref="M221" r:id="rId127" xr:uid="{5C7836DA-9424-4FEF-BC4C-AC8250F3F7DD}"/>
+    <hyperlink ref="M222" r:id="rId128" xr:uid="{76CDABC9-D303-4863-A2A4-ABF6436D7193}"/>
+    <hyperlink ref="M223" r:id="rId129" xr:uid="{93F6A0C7-35F6-40EC-BE47-AA9F0EA2B8CF}"/>
+    <hyperlink ref="M224" r:id="rId130" xr:uid="{61586178-C781-4D2C-890F-2E2A8CD523D5}"/>
+    <hyperlink ref="M225" r:id="rId131" xr:uid="{B01E07F6-25F7-44D1-908D-09242810DDB5}"/>
+    <hyperlink ref="M226" r:id="rId132" xr:uid="{D59C5A8D-58A3-4429-9E57-252F644A6365}"/>
+    <hyperlink ref="M227" r:id="rId133" xr:uid="{C5C6EF37-A1A9-43A3-8151-77229C12FC6F}"/>
+    <hyperlink ref="M228" r:id="rId134" xr:uid="{2D415C56-2B7B-4B9D-84B1-926C70FD5D61}"/>
+    <hyperlink ref="M229" r:id="rId135" xr:uid="{F84A1542-808B-4E0C-960C-0A743AF1EE9D}"/>
+    <hyperlink ref="M230" r:id="rId136" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{87E199AC-ABF1-4593-BAF5-FF7199E9C5C1}"/>
+    <hyperlink ref="M231" r:id="rId137" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{482692BF-91F5-4F73-BE1C-04E51D4300D5}"/>
+    <hyperlink ref="M232" r:id="rId138" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{88FD08D1-FB2A-43E1-B3D9-1D9738F22335}"/>
+    <hyperlink ref="M233" r:id="rId139" location="v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=anLWEAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Auswirkungen+von+Pandemien+und+Gesundheitssystem+Resilienz+in+der+Zukunft&amp;ots=ZxwA1KGVhY&amp;sig=uhLG72k3uZY6kjGb52KmSRV2tKM#v=onepage&amp;q=Auswirkungen%20von%20Pandemien%20und%20Gesundheitssystem%20Resilienz%20in%20der%20Zukunft&amp;f=false" xr:uid="{D1AEE4FD-78A3-4EDE-B3F1-8FAD2FE47DE9}"/>
+    <hyperlink ref="M234" r:id="rId140" xr:uid="{52EEFC78-ABFA-4B4F-9AC7-BC2B9A5E1507}"/>
+    <hyperlink ref="M235" r:id="rId141" xr:uid="{A7A3F03C-642A-46A6-AEF5-7DE335A99B3C}"/>
+    <hyperlink ref="M236" r:id="rId142" xr:uid="{77A7217B-D5CE-4E70-8167-F2E75E5379CE}"/>
+    <hyperlink ref="M237" r:id="rId143" xr:uid="{05F28B7D-28D1-4D0C-8491-0FBB2232CBBB}"/>
+    <hyperlink ref="M238" r:id="rId144" xr:uid="{EFC06917-C20C-457F-8EB7-19A1D8260C1D}"/>
+    <hyperlink ref="M239" r:id="rId145" xr:uid="{786888BF-64B7-437E-9CF6-FC48542D3017}"/>
+    <hyperlink ref="M240" r:id="rId146" xr:uid="{54EE1227-15C7-496F-B4DB-AA689D193FEA}"/>
+    <hyperlink ref="M241" r:id="rId147" xr:uid="{80A1A9DF-7F98-481D-A269-F3B564411C75}"/>
+    <hyperlink ref="M242" r:id="rId148" xr:uid="{A80B46A4-2BAB-4B1F-8914-8C364B5938D8}"/>
+    <hyperlink ref="M243" r:id="rId149" xr:uid="{45832AC8-DAA8-45F3-8366-1862C18D433E}"/>
+    <hyperlink ref="M244" r:id="rId150" xr:uid="{5EA5B95F-5838-4B5F-8FB4-729E14CB10A7}"/>
+    <hyperlink ref="M245" r:id="rId151" xr:uid="{E495FF88-6EC5-46A9-851E-898F2308EA2D}"/>
+    <hyperlink ref="M246" r:id="rId152" xr:uid="{7F1F39FE-B892-4106-B2B8-C5EFDBD59D78}"/>
+    <hyperlink ref="M247" r:id="rId153" xr:uid="{121BCA1D-75A4-4DC4-BC37-9B56E11E9619}"/>
+    <hyperlink ref="M248" r:id="rId154" xr:uid="{910D07E9-AA57-4804-970D-CEC5ADBBE4D6}"/>
+    <hyperlink ref="M249" r:id="rId155" xr:uid="{1B3D81B8-4626-4C72-9E31-D1CC10F90EB2}"/>
+    <hyperlink ref="M250" r:id="rId156" xr:uid="{B9AB36E4-AF73-4D14-AF0A-58577AC72B4E}"/>
+    <hyperlink ref="M251" r:id="rId157" xr:uid="{A5980510-09B8-4AA9-8031-15E83BB0427F}"/>
+    <hyperlink ref="M252" r:id="rId158" xr:uid="{8E6FBE79-065C-4DA4-81AA-9DE6FB407285}"/>
+    <hyperlink ref="M253" r:id="rId159" location="v=onepage&amp;q&amp;f=false" xr:uid="{9C1C7664-43B1-4CD1-A235-63DC23A21534}"/>
+    <hyperlink ref="M254" r:id="rId160" location="v=onepage&amp;q&amp;f=false" xr:uid="{A80F18A3-3D39-4B20-8DDD-56FAE48AE4DF}"/>
+    <hyperlink ref="M255" r:id="rId161" location="v=onepage&amp;q&amp;f=false" xr:uid="{6F968239-2898-404B-8707-457B75878320}"/>
+    <hyperlink ref="M256" r:id="rId162" xr:uid="{D534ACED-3893-4C2B-8EF1-B44301902CE8}"/>
+    <hyperlink ref="M257" r:id="rId163" xr:uid="{3EC72DCA-941A-4D18-90BD-48C957AF0C4A}"/>
+    <hyperlink ref="M258" r:id="rId164" xr:uid="{2161F4CA-678B-4BE3-8C4E-7D56B8D885B1}"/>
+    <hyperlink ref="M259" r:id="rId165" xr:uid="{777D3E18-EDD7-4021-A61B-6F2696275C60}"/>
+    <hyperlink ref="M260" r:id="rId166" xr:uid="{736068B9-900B-4424-A1C7-AA68C7370927}"/>
+    <hyperlink ref="M69" r:id="rId167" xr:uid="{17C680B6-05AE-4D2E-AFFC-6B6024D05E6A}"/>
+    <hyperlink ref="M64" r:id="rId168" xr:uid="{DC30E9B1-13C8-4193-917B-AA148DE704AD}"/>
+    <hyperlink ref="M210" r:id="rId169" xr:uid="{3C9BB6B9-47B9-4874-BC4B-4DE744C1055A}"/>
+    <hyperlink ref="M183" r:id="rId170" xr:uid="{1CE9C5EE-5C0E-4C48-B68F-FA70C04B805F}"/>
+    <hyperlink ref="M68" r:id="rId171" xr:uid="{824A6BC0-B114-463A-A8D9-1FF3FF1083A7}"/>
+    <hyperlink ref="M8" r:id="rId172" xr:uid="{F3F298C5-07AC-4653-94B0-94D81504DE1C}"/>
+    <hyperlink ref="M266" r:id="rId173" xr:uid="{5F78FA36-B599-4434-8545-0A2B774222AB}"/>
+    <hyperlink ref="M268" r:id="rId174" xr:uid="{48CC3548-A2FF-42F2-936C-210511D3421B}"/>
+    <hyperlink ref="M267" r:id="rId175" xr:uid="{C764A532-F6A5-4015-A544-C46FD1D6FC03}"/>
+    <hyperlink ref="M269" r:id="rId176" xr:uid="{3AEEB56F-8709-4F84-B8F3-248E8C5FEB43}"/>
+    <hyperlink ref="M272" r:id="rId177" xr:uid="{29B14A73-123C-4D92-9DF2-C170AA5CD433}"/>
+    <hyperlink ref="M274" r:id="rId178" xr:uid="{8FE3BE16-A6A6-4487-8BCD-DFAE0C0CBCB0}"/>
+    <hyperlink ref="M275" r:id="rId179" xr:uid="{2FDC242A-41EA-4574-8D7F-C096C70D9542}"/>
+    <hyperlink ref="M276" r:id="rId180" xr:uid="{1C9FFE13-054C-4AAD-9624-F3C2D4FBE898}"/>
+    <hyperlink ref="M277" r:id="rId181" xr:uid="{B7BED030-7AE7-4A81-B4BA-1C22F278293C}"/>
+    <hyperlink ref="M280" r:id="rId182" xr:uid="{595E415B-BFC0-4936-9A9D-072D8423A2F8}"/>
+    <hyperlink ref="M270" r:id="rId183" xr:uid="{5FE82CE2-FC4B-4976-BBF5-F0884D47593C}"/>
+    <hyperlink ref="M271" r:id="rId184" xr:uid="{EF878910-0B85-4BC6-99E1-B896BF9A8548}"/>
+    <hyperlink ref="M60" r:id="rId185" xr:uid="{60AE6CD0-9D2E-445B-A175-D6399E5C57CD}"/>
+    <hyperlink ref="M98" r:id="rId186" xr:uid="{D70D457A-2829-4061-B17E-B7DD2C88C07F}"/>
+    <hyperlink ref="M125" r:id="rId187" xr:uid="{EE08C074-2F75-4D49-A7FE-950CA11560B1}"/>
+    <hyperlink ref="M70" r:id="rId188" xr:uid="{B09C568B-2B23-4672-99F7-3F7DB4D54053}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId189"/>
